--- a/doc/進捗管理表_D3.xlsx
+++ b/doc/進捗管理表_D3.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E381945-A14C-4DA9-9BD7-465843BF626A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DDF9D06-D516-4EBD-B7CC-DB8EB4026FD8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1810" yWindow="430" windowWidth="14400" windowHeight="8380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="44">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -914,19 +914,130 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -938,12 +1049,30 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -952,135 +1081,6 @@
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1407,8 +1407,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BG47"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="67" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="Y18" sqref="Y18:AA18"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="67" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AI21" sqref="AI21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.25" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1423,139 +1423,139 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:59" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="80" t="s">
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
-      <c r="L1" s="81"/>
-      <c r="M1" s="81"/>
-      <c r="N1" s="81"/>
-      <c r="O1" s="81"/>
-      <c r="P1" s="81"/>
-      <c r="Q1" s="81"/>
-      <c r="R1" s="81"/>
-      <c r="S1" s="81"/>
-      <c r="T1" s="81"/>
-      <c r="U1" s="81"/>
-      <c r="V1" s="81"/>
-      <c r="W1" s="81"/>
-      <c r="X1" s="81"/>
-      <c r="Y1" s="81"/>
-      <c r="Z1" s="81"/>
-      <c r="AA1" s="81"/>
-      <c r="AB1" s="81"/>
-      <c r="AC1" s="82"/>
-      <c r="AD1" s="74" t="s">
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="44"/>
+      <c r="O1" s="44"/>
+      <c r="P1" s="44"/>
+      <c r="Q1" s="44"/>
+      <c r="R1" s="44"/>
+      <c r="S1" s="44"/>
+      <c r="T1" s="44"/>
+      <c r="U1" s="44"/>
+      <c r="V1" s="44"/>
+      <c r="W1" s="44"/>
+      <c r="X1" s="44"/>
+      <c r="Y1" s="44"/>
+      <c r="Z1" s="44"/>
+      <c r="AA1" s="44"/>
+      <c r="AB1" s="44"/>
+      <c r="AC1" s="45"/>
+      <c r="AD1" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="AE1" s="75"/>
-      <c r="AF1" s="75"/>
-      <c r="AG1" s="76"/>
-      <c r="AH1" s="71">
+      <c r="AE1" s="38"/>
+      <c r="AF1" s="38"/>
+      <c r="AG1" s="39"/>
+      <c r="AH1" s="34">
         <v>45078</v>
       </c>
-      <c r="AI1" s="72"/>
-      <c r="AJ1" s="72"/>
-      <c r="AK1" s="72"/>
-      <c r="AL1" s="72"/>
-      <c r="AM1" s="72"/>
-      <c r="AN1" s="73"/>
+      <c r="AI1" s="35"/>
+      <c r="AJ1" s="35"/>
+      <c r="AK1" s="35"/>
+      <c r="AL1" s="35"/>
+      <c r="AM1" s="35"/>
+      <c r="AN1" s="36"/>
     </row>
     <row r="2" spans="1:59" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="69"/>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="83"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="84"/>
-      <c r="M2" s="84"/>
-      <c r="N2" s="84"/>
-      <c r="O2" s="84"/>
-      <c r="P2" s="84"/>
-      <c r="Q2" s="84"/>
-      <c r="R2" s="84"/>
-      <c r="S2" s="84"/>
-      <c r="T2" s="84"/>
-      <c r="U2" s="84"/>
-      <c r="V2" s="84"/>
-      <c r="W2" s="84"/>
-      <c r="X2" s="84"/>
-      <c r="Y2" s="84"/>
-      <c r="Z2" s="84"/>
-      <c r="AA2" s="84"/>
-      <c r="AB2" s="84"/>
-      <c r="AC2" s="85"/>
-      <c r="AD2" s="74" t="s">
+      <c r="A2" s="32"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="47"/>
+      <c r="L2" s="47"/>
+      <c r="M2" s="47"/>
+      <c r="N2" s="47"/>
+      <c r="O2" s="47"/>
+      <c r="P2" s="47"/>
+      <c r="Q2" s="47"/>
+      <c r="R2" s="47"/>
+      <c r="S2" s="47"/>
+      <c r="T2" s="47"/>
+      <c r="U2" s="47"/>
+      <c r="V2" s="47"/>
+      <c r="W2" s="47"/>
+      <c r="X2" s="47"/>
+      <c r="Y2" s="47"/>
+      <c r="Z2" s="47"/>
+      <c r="AA2" s="47"/>
+      <c r="AB2" s="47"/>
+      <c r="AC2" s="48"/>
+      <c r="AD2" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="AE2" s="75"/>
-      <c r="AF2" s="75"/>
-      <c r="AG2" s="76"/>
-      <c r="AH2" s="71">
+      <c r="AE2" s="38"/>
+      <c r="AF2" s="38"/>
+      <c r="AG2" s="39"/>
+      <c r="AH2" s="34">
         <v>45107</v>
       </c>
-      <c r="AI2" s="72"/>
-      <c r="AJ2" s="72"/>
-      <c r="AK2" s="72"/>
-      <c r="AL2" s="72"/>
-      <c r="AM2" s="72"/>
-      <c r="AN2" s="73"/>
+      <c r="AI2" s="35"/>
+      <c r="AJ2" s="35"/>
+      <c r="AK2" s="35"/>
+      <c r="AL2" s="35"/>
+      <c r="AM2" s="35"/>
+      <c r="AN2" s="36"/>
     </row>
     <row r="4" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="78" t="s">
+      <c r="A4" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="78"/>
-      <c r="C4" s="79" t="s">
+      <c r="B4" s="41"/>
+      <c r="C4" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="79"/>
-      <c r="K4" s="79"/>
-      <c r="L4" s="79"/>
-      <c r="M4" s="79"/>
-      <c r="N4" s="79"/>
-      <c r="O4" s="79"/>
-      <c r="P4" s="78" t="s">
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="42"/>
+      <c r="M4" s="42"/>
+      <c r="N4" s="42"/>
+      <c r="O4" s="42"/>
+      <c r="P4" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="Q4" s="78"/>
-      <c r="R4" s="78"/>
-      <c r="S4" s="78" t="s">
+      <c r="Q4" s="41"/>
+      <c r="R4" s="41"/>
+      <c r="S4" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="T4" s="78"/>
-      <c r="U4" s="78"/>
-      <c r="V4" s="78"/>
-      <c r="W4" s="78"/>
-      <c r="X4" s="78"/>
-      <c r="Y4" s="77" t="s">
+      <c r="T4" s="41"/>
+      <c r="U4" s="41"/>
+      <c r="V4" s="41"/>
+      <c r="W4" s="41"/>
+      <c r="X4" s="41"/>
+      <c r="Y4" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="Z4" s="77"/>
-      <c r="AA4" s="77"/>
+      <c r="Z4" s="40"/>
+      <c r="AA4" s="40"/>
       <c r="AB4" s="7">
         <f>AH1</f>
         <v>45078</v>
@@ -1680,41 +1680,41 @@
       <c r="BG4" s="3"/>
     </row>
     <row r="5" spans="1:59" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="78"/>
-      <c r="B5" s="78"/>
-      <c r="C5" s="78" t="s">
+      <c r="A5" s="41"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="78"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="78"/>
-      <c r="G5" s="78"/>
-      <c r="H5" s="78" t="s">
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="78"/>
-      <c r="J5" s="78"/>
-      <c r="K5" s="78"/>
-      <c r="L5" s="78"/>
-      <c r="M5" s="78"/>
-      <c r="N5" s="78"/>
-      <c r="O5" s="78"/>
-      <c r="P5" s="78"/>
-      <c r="Q5" s="78"/>
-      <c r="R5" s="78"/>
-      <c r="S5" s="78" t="s">
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="41"/>
+      <c r="N5" s="41"/>
+      <c r="O5" s="41"/>
+      <c r="P5" s="41"/>
+      <c r="Q5" s="41"/>
+      <c r="R5" s="41"/>
+      <c r="S5" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="T5" s="78"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78" t="s">
+      <c r="T5" s="41"/>
+      <c r="U5" s="41"/>
+      <c r="V5" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="W5" s="78"/>
-      <c r="X5" s="78"/>
-      <c r="Y5" s="77"/>
-      <c r="Z5" s="77"/>
-      <c r="AA5" s="77"/>
+      <c r="W5" s="41"/>
+      <c r="X5" s="41"/>
+      <c r="Y5" s="40"/>
+      <c r="Z5" s="40"/>
+      <c r="AA5" s="40"/>
       <c r="AB5" s="5">
         <f>AH1</f>
         <v>45078</v>
@@ -1837,33 +1837,33 @@
       </c>
     </row>
     <row r="6" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="78"/>
-      <c r="B6" s="78"/>
-      <c r="C6" s="78"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="78"/>
-      <c r="F6" s="78"/>
-      <c r="G6" s="78"/>
-      <c r="H6" s="78"/>
-      <c r="I6" s="78"/>
-      <c r="J6" s="78"/>
-      <c r="K6" s="78"/>
-      <c r="L6" s="78"/>
-      <c r="M6" s="78"/>
-      <c r="N6" s="78"/>
-      <c r="O6" s="78"/>
-      <c r="P6" s="78"/>
-      <c r="Q6" s="78"/>
-      <c r="R6" s="78"/>
-      <c r="S6" s="78"/>
-      <c r="T6" s="78"/>
-      <c r="U6" s="78"/>
-      <c r="V6" s="78"/>
-      <c r="W6" s="78"/>
-      <c r="X6" s="78"/>
-      <c r="Y6" s="77"/>
-      <c r="Z6" s="77"/>
-      <c r="AA6" s="77"/>
+      <c r="A6" s="41"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="41"/>
+      <c r="J6" s="41"/>
+      <c r="K6" s="41"/>
+      <c r="L6" s="41"/>
+      <c r="M6" s="41"/>
+      <c r="N6" s="41"/>
+      <c r="O6" s="41"/>
+      <c r="P6" s="41"/>
+      <c r="Q6" s="41"/>
+      <c r="R6" s="41"/>
+      <c r="S6" s="41"/>
+      <c r="T6" s="41"/>
+      <c r="U6" s="41"/>
+      <c r="V6" s="41"/>
+      <c r="W6" s="41"/>
+      <c r="X6" s="41"/>
+      <c r="Y6" s="40"/>
+      <c r="Z6" s="40"/>
+      <c r="AA6" s="40"/>
       <c r="AB6" s="6" t="str">
         <f>TEXT(AB5,"aaa")</f>
         <v>木</v>
@@ -1986,35 +1986,35 @@
       </c>
     </row>
     <row r="7" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="34"/>
-      <c r="B7" s="34"/>
-      <c r="C7" s="43" t="s">
+      <c r="A7" s="49"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43"/>
-      <c r="G7" s="43"/>
-      <c r="H7" s="43"/>
-      <c r="I7" s="43"/>
-      <c r="J7" s="43"/>
-      <c r="K7" s="43"/>
-      <c r="L7" s="43"/>
-      <c r="M7" s="43"/>
-      <c r="N7" s="43"/>
-      <c r="O7" s="43"/>
-      <c r="P7" s="43"/>
-      <c r="Q7" s="43"/>
-      <c r="R7" s="43"/>
-      <c r="S7" s="33"/>
-      <c r="T7" s="33"/>
-      <c r="U7" s="33"/>
-      <c r="V7" s="33"/>
-      <c r="W7" s="33"/>
-      <c r="X7" s="33"/>
-      <c r="Y7" s="34"/>
-      <c r="Z7" s="34"/>
-      <c r="AA7" s="34"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="50"/>
+      <c r="K7" s="50"/>
+      <c r="L7" s="50"/>
+      <c r="M7" s="50"/>
+      <c r="N7" s="50"/>
+      <c r="O7" s="50"/>
+      <c r="P7" s="50"/>
+      <c r="Q7" s="50"/>
+      <c r="R7" s="50"/>
+      <c r="S7" s="52"/>
+      <c r="T7" s="52"/>
+      <c r="U7" s="52"/>
+      <c r="V7" s="52"/>
+      <c r="W7" s="52"/>
+      <c r="X7" s="52"/>
+      <c r="Y7" s="49"/>
+      <c r="Z7" s="49"/>
+      <c r="AA7" s="49"/>
       <c r="AB7" s="4"/>
       <c r="AC7" s="4"/>
       <c r="AD7" s="4"/>
@@ -2047,41 +2047,41 @@
       <c r="BE7" s="4"/>
     </row>
     <row r="8" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="34"/>
-      <c r="B8" s="34"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="43"/>
-      <c r="H8" s="45" t="s">
+      <c r="A8" s="49"/>
+      <c r="B8" s="49"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="I8" s="45"/>
-      <c r="J8" s="45"/>
-      <c r="K8" s="45"/>
-      <c r="L8" s="45"/>
-      <c r="M8" s="45"/>
-      <c r="N8" s="45"/>
-      <c r="O8" s="45"/>
-      <c r="P8" s="43"/>
-      <c r="Q8" s="43"/>
-      <c r="R8" s="43"/>
-      <c r="S8" s="33">
+      <c r="I8" s="51"/>
+      <c r="J8" s="51"/>
+      <c r="K8" s="51"/>
+      <c r="L8" s="51"/>
+      <c r="M8" s="51"/>
+      <c r="N8" s="51"/>
+      <c r="O8" s="51"/>
+      <c r="P8" s="50"/>
+      <c r="Q8" s="50"/>
+      <c r="R8" s="50"/>
+      <c r="S8" s="52">
         <v>45078</v>
       </c>
-      <c r="T8" s="33"/>
-      <c r="U8" s="33"/>
-      <c r="V8" s="33">
+      <c r="T8" s="52"/>
+      <c r="U8" s="52"/>
+      <c r="V8" s="52">
         <v>45078</v>
       </c>
-      <c r="W8" s="33"/>
-      <c r="X8" s="33"/>
-      <c r="Y8" s="34" t="s">
+      <c r="W8" s="52"/>
+      <c r="X8" s="52"/>
+      <c r="Y8" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="Z8" s="34"/>
-      <c r="AA8" s="34"/>
+      <c r="Z8" s="49"/>
+      <c r="AA8" s="49"/>
       <c r="AB8" s="4"/>
       <c r="AC8" s="4"/>
       <c r="AD8" s="4"/>
@@ -2114,41 +2114,41 @@
       <c r="BE8" s="4"/>
     </row>
     <row r="9" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="34"/>
-      <c r="B9" s="34"/>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="45" t="s">
+      <c r="A9" s="49"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="I9" s="45"/>
-      <c r="J9" s="45"/>
-      <c r="K9" s="45"/>
-      <c r="L9" s="45"/>
-      <c r="M9" s="45"/>
-      <c r="N9" s="45"/>
-      <c r="O9" s="45"/>
-      <c r="P9" s="43"/>
-      <c r="Q9" s="43"/>
-      <c r="R9" s="43"/>
-      <c r="S9" s="33">
+      <c r="I9" s="51"/>
+      <c r="J9" s="51"/>
+      <c r="K9" s="51"/>
+      <c r="L9" s="51"/>
+      <c r="M9" s="51"/>
+      <c r="N9" s="51"/>
+      <c r="O9" s="51"/>
+      <c r="P9" s="50"/>
+      <c r="Q9" s="50"/>
+      <c r="R9" s="50"/>
+      <c r="S9" s="52">
         <v>45078</v>
       </c>
-      <c r="T9" s="33"/>
-      <c r="U9" s="33"/>
-      <c r="V9" s="33">
+      <c r="T9" s="52"/>
+      <c r="U9" s="52"/>
+      <c r="V9" s="52">
         <v>45079</v>
       </c>
-      <c r="W9" s="33"/>
-      <c r="X9" s="33"/>
-      <c r="Y9" s="34" t="s">
+      <c r="W9" s="52"/>
+      <c r="X9" s="52"/>
+      <c r="Y9" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="Z9" s="34"/>
-      <c r="AA9" s="34"/>
+      <c r="Z9" s="49"/>
+      <c r="AA9" s="49"/>
       <c r="AB9" s="4"/>
       <c r="AC9" s="4"/>
       <c r="AD9" s="4"/>
@@ -2181,18 +2181,18 @@
       <c r="BE9" s="4"/>
     </row>
     <row r="10" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="34"/>
-      <c r="B10" s="34"/>
-      <c r="C10" s="43" t="s">
+      <c r="A10" s="49"/>
+      <c r="B10" s="49"/>
+      <c r="C10" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="43"/>
-      <c r="Y10" s="34"/>
-      <c r="Z10" s="34"/>
-      <c r="AA10" s="34"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="50"/>
+      <c r="Y10" s="49"/>
+      <c r="Z10" s="49"/>
+      <c r="AA10" s="49"/>
       <c r="AB10" s="4"/>
       <c r="AC10" s="13"/>
       <c r="AD10" s="4"/>
@@ -2225,43 +2225,43 @@
       <c r="BE10" s="4"/>
     </row>
     <row r="11" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="34"/>
-      <c r="B11" s="34"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="45" t="s">
+      <c r="A11" s="49"/>
+      <c r="B11" s="49"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="I11" s="45"/>
-      <c r="J11" s="45"/>
-      <c r="K11" s="45"/>
-      <c r="L11" s="45"/>
-      <c r="M11" s="45"/>
-      <c r="N11" s="45"/>
-      <c r="O11" s="45"/>
-      <c r="P11" s="43" t="s">
+      <c r="I11" s="51"/>
+      <c r="J11" s="51"/>
+      <c r="K11" s="51"/>
+      <c r="L11" s="51"/>
+      <c r="M11" s="51"/>
+      <c r="N11" s="51"/>
+      <c r="O11" s="51"/>
+      <c r="P11" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="Q11" s="43"/>
-      <c r="R11" s="43"/>
-      <c r="S11" s="33">
+      <c r="Q11" s="50"/>
+      <c r="R11" s="50"/>
+      <c r="S11" s="52">
         <v>45079</v>
       </c>
-      <c r="T11" s="33"/>
-      <c r="U11" s="33"/>
-      <c r="V11" s="33">
+      <c r="T11" s="52"/>
+      <c r="U11" s="52"/>
+      <c r="V11" s="52">
         <v>45082</v>
       </c>
-      <c r="W11" s="33"/>
-      <c r="X11" s="33"/>
-      <c r="Y11" s="34" t="s">
+      <c r="W11" s="52"/>
+      <c r="X11" s="52"/>
+      <c r="Y11" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="Z11" s="34"/>
-      <c r="AA11" s="34"/>
+      <c r="Z11" s="49"/>
+      <c r="AA11" s="49"/>
       <c r="AB11" s="4"/>
       <c r="AC11" s="14"/>
       <c r="AD11" s="4"/>
@@ -2293,41 +2293,41 @@
       <c r="BE11" s="4"/>
     </row>
     <row r="12" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="34"/>
-      <c r="B12" s="34"/>
-      <c r="C12" s="43"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="64" t="s">
+      <c r="A12" s="49"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="I12" s="65"/>
-      <c r="J12" s="65"/>
-      <c r="K12" s="65"/>
-      <c r="L12" s="65"/>
-      <c r="M12" s="65"/>
-      <c r="N12" s="65"/>
-      <c r="O12" s="66"/>
-      <c r="P12" s="56"/>
-      <c r="Q12" s="57"/>
-      <c r="R12" s="63"/>
-      <c r="S12" s="33">
+      <c r="I12" s="58"/>
+      <c r="J12" s="58"/>
+      <c r="K12" s="58"/>
+      <c r="L12" s="58"/>
+      <c r="M12" s="58"/>
+      <c r="N12" s="58"/>
+      <c r="O12" s="59"/>
+      <c r="P12" s="54"/>
+      <c r="Q12" s="55"/>
+      <c r="R12" s="56"/>
+      <c r="S12" s="52">
         <v>45079</v>
       </c>
-      <c r="T12" s="33"/>
-      <c r="U12" s="33"/>
-      <c r="V12" s="33">
+      <c r="T12" s="52"/>
+      <c r="U12" s="52"/>
+      <c r="V12" s="52">
         <v>45082</v>
       </c>
-      <c r="W12" s="33"/>
-      <c r="X12" s="33"/>
-      <c r="Y12" s="34" t="s">
+      <c r="W12" s="52"/>
+      <c r="X12" s="52"/>
+      <c r="Y12" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="Z12" s="34"/>
-      <c r="AA12" s="34"/>
+      <c r="Z12" s="49"/>
+      <c r="AA12" s="49"/>
       <c r="AB12" s="4"/>
       <c r="AC12" s="14"/>
       <c r="AD12" s="4"/>
@@ -2360,41 +2360,41 @@
       <c r="BE12" s="4"/>
     </row>
     <row r="13" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="34"/>
-      <c r="B13" s="34"/>
-      <c r="C13" s="43"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="43"/>
-      <c r="H13" s="62" t="s">
+      <c r="A13" s="49"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="50"/>
+      <c r="H13" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="I13" s="62"/>
-      <c r="J13" s="62"/>
-      <c r="K13" s="62"/>
-      <c r="L13" s="62"/>
-      <c r="M13" s="62"/>
-      <c r="N13" s="62"/>
-      <c r="O13" s="62"/>
-      <c r="P13" s="43"/>
-      <c r="Q13" s="43"/>
-      <c r="R13" s="43"/>
-      <c r="S13" s="33">
+      <c r="I13" s="53"/>
+      <c r="J13" s="53"/>
+      <c r="K13" s="53"/>
+      <c r="L13" s="53"/>
+      <c r="M13" s="53"/>
+      <c r="N13" s="53"/>
+      <c r="O13" s="53"/>
+      <c r="P13" s="50"/>
+      <c r="Q13" s="50"/>
+      <c r="R13" s="50"/>
+      <c r="S13" s="52">
         <v>45082</v>
       </c>
-      <c r="T13" s="33"/>
-      <c r="U13" s="33"/>
-      <c r="V13" s="33">
+      <c r="T13" s="52"/>
+      <c r="U13" s="52"/>
+      <c r="V13" s="52">
         <v>45082</v>
       </c>
-      <c r="W13" s="33"/>
-      <c r="X13" s="33"/>
-      <c r="Y13" s="34" t="s">
+      <c r="W13" s="52"/>
+      <c r="X13" s="52"/>
+      <c r="Y13" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="Z13" s="34"/>
-      <c r="AA13" s="34"/>
+      <c r="Z13" s="49"/>
+      <c r="AA13" s="49"/>
       <c r="AB13" s="4"/>
       <c r="AC13" s="4"/>
       <c r="AD13" s="4"/>
@@ -2427,33 +2427,33 @@
       <c r="BE13" s="4"/>
     </row>
     <row r="14" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="34"/>
-      <c r="B14" s="34"/>
-      <c r="C14" s="43"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="43"/>
-      <c r="G14" s="43"/>
-      <c r="H14" s="43"/>
-      <c r="I14" s="43"/>
-      <c r="J14" s="43"/>
-      <c r="K14" s="43"/>
-      <c r="L14" s="43"/>
-      <c r="M14" s="43"/>
-      <c r="N14" s="43"/>
-      <c r="O14" s="43"/>
-      <c r="P14" s="43"/>
-      <c r="Q14" s="43"/>
-      <c r="R14" s="43"/>
-      <c r="S14" s="33"/>
-      <c r="T14" s="33"/>
-      <c r="U14" s="33"/>
-      <c r="V14" s="33"/>
-      <c r="W14" s="33"/>
-      <c r="X14" s="33"/>
-      <c r="Y14" s="34"/>
-      <c r="Z14" s="34"/>
-      <c r="AA14" s="34"/>
+      <c r="A14" s="49"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="50"/>
+      <c r="I14" s="50"/>
+      <c r="J14" s="50"/>
+      <c r="K14" s="50"/>
+      <c r="L14" s="50"/>
+      <c r="M14" s="50"/>
+      <c r="N14" s="50"/>
+      <c r="O14" s="50"/>
+      <c r="P14" s="50"/>
+      <c r="Q14" s="50"/>
+      <c r="R14" s="50"/>
+      <c r="S14" s="52"/>
+      <c r="T14" s="52"/>
+      <c r="U14" s="52"/>
+      <c r="V14" s="52"/>
+      <c r="W14" s="52"/>
+      <c r="X14" s="52"/>
+      <c r="Y14" s="49"/>
+      <c r="Z14" s="49"/>
+      <c r="AA14" s="49"/>
       <c r="AB14" s="4"/>
       <c r="AC14" s="4"/>
       <c r="AD14" s="4"/>
@@ -2486,37 +2486,37 @@
       <c r="BE14" s="4"/>
     </row>
     <row r="15" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="34"/>
-      <c r="B15" s="34"/>
-      <c r="C15" s="43" t="s">
+      <c r="A15" s="49"/>
+      <c r="B15" s="49"/>
+      <c r="C15" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="43"/>
-      <c r="E15" s="43"/>
-      <c r="F15" s="43"/>
-      <c r="G15" s="43"/>
-      <c r="H15" s="43"/>
-      <c r="I15" s="43"/>
-      <c r="J15" s="43"/>
-      <c r="K15" s="43"/>
-      <c r="L15" s="43"/>
-      <c r="M15" s="43"/>
-      <c r="N15" s="43"/>
-      <c r="O15" s="43"/>
-      <c r="P15" s="43" t="s">
+      <c r="D15" s="50"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="50"/>
+      <c r="H15" s="50"/>
+      <c r="I15" s="50"/>
+      <c r="J15" s="50"/>
+      <c r="K15" s="50"/>
+      <c r="L15" s="50"/>
+      <c r="M15" s="50"/>
+      <c r="N15" s="50"/>
+      <c r="O15" s="50"/>
+      <c r="P15" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="Q15" s="43"/>
-      <c r="R15" s="43"/>
-      <c r="S15" s="33"/>
-      <c r="T15" s="33"/>
-      <c r="U15" s="33"/>
-      <c r="V15" s="33"/>
-      <c r="W15" s="33"/>
-      <c r="X15" s="33"/>
-      <c r="Y15" s="34"/>
-      <c r="Z15" s="34"/>
-      <c r="AA15" s="34"/>
+      <c r="Q15" s="50"/>
+      <c r="R15" s="50"/>
+      <c r="S15" s="52"/>
+      <c r="T15" s="52"/>
+      <c r="U15" s="52"/>
+      <c r="V15" s="52"/>
+      <c r="W15" s="52"/>
+      <c r="X15" s="52"/>
+      <c r="Y15" s="49"/>
+      <c r="Z15" s="49"/>
+      <c r="AA15" s="49"/>
       <c r="AB15" s="4"/>
       <c r="AC15" s="4"/>
       <c r="AD15" s="4"/>
@@ -2549,41 +2549,41 @@
       <c r="BE15" s="4"/>
     </row>
     <row r="16" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="34"/>
-      <c r="B16" s="34"/>
-      <c r="C16" s="43"/>
-      <c r="D16" s="43"/>
-      <c r="E16" s="43"/>
-      <c r="F16" s="43"/>
-      <c r="G16" s="43"/>
-      <c r="H16" s="61" t="s">
+      <c r="A16" s="49"/>
+      <c r="B16" s="49"/>
+      <c r="C16" s="50"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="50"/>
+      <c r="H16" s="60" t="s">
         <v>38</v>
       </c>
-      <c r="I16" s="61"/>
-      <c r="J16" s="61"/>
-      <c r="K16" s="61"/>
-      <c r="L16" s="61"/>
-      <c r="M16" s="61"/>
-      <c r="N16" s="61"/>
-      <c r="O16" s="61"/>
-      <c r="P16" s="43"/>
-      <c r="Q16" s="43"/>
-      <c r="R16" s="43"/>
-      <c r="S16" s="33">
+      <c r="I16" s="60"/>
+      <c r="J16" s="60"/>
+      <c r="K16" s="60"/>
+      <c r="L16" s="60"/>
+      <c r="M16" s="60"/>
+      <c r="N16" s="60"/>
+      <c r="O16" s="60"/>
+      <c r="P16" s="50"/>
+      <c r="Q16" s="50"/>
+      <c r="R16" s="50"/>
+      <c r="S16" s="52">
         <v>45083</v>
       </c>
-      <c r="T16" s="33"/>
-      <c r="U16" s="33"/>
-      <c r="V16" s="33">
+      <c r="T16" s="52"/>
+      <c r="U16" s="52"/>
+      <c r="V16" s="52">
         <v>45084</v>
       </c>
-      <c r="W16" s="33"/>
-      <c r="X16" s="33"/>
-      <c r="Y16" s="34" t="s">
+      <c r="W16" s="52"/>
+      <c r="X16" s="52"/>
+      <c r="Y16" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="Z16" s="34"/>
-      <c r="AA16" s="34"/>
+      <c r="Z16" s="49"/>
+      <c r="AA16" s="49"/>
       <c r="AB16" s="4"/>
       <c r="AC16" s="4"/>
       <c r="AD16" s="4"/>
@@ -2616,43 +2616,43 @@
       <c r="BE16" s="4"/>
     </row>
     <row r="17" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="34"/>
-      <c r="B17" s="34"/>
-      <c r="C17" s="43"/>
-      <c r="D17" s="43"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="43"/>
-      <c r="H17" s="35" t="s">
+      <c r="A17" s="49"/>
+      <c r="B17" s="49"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="50"/>
+      <c r="H17" s="72" t="s">
         <v>37</v>
       </c>
-      <c r="I17" s="36"/>
-      <c r="J17" s="36"/>
-      <c r="K17" s="36"/>
-      <c r="L17" s="36"/>
-      <c r="M17" s="36"/>
-      <c r="N17" s="36"/>
-      <c r="O17" s="37"/>
-      <c r="P17" s="43" t="s">
+      <c r="I17" s="73"/>
+      <c r="J17" s="73"/>
+      <c r="K17" s="73"/>
+      <c r="L17" s="73"/>
+      <c r="M17" s="73"/>
+      <c r="N17" s="73"/>
+      <c r="O17" s="74"/>
+      <c r="P17" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="Q17" s="43"/>
-      <c r="R17" s="43"/>
-      <c r="S17" s="33">
+      <c r="Q17" s="50"/>
+      <c r="R17" s="50"/>
+      <c r="S17" s="52">
         <v>45083</v>
       </c>
-      <c r="T17" s="33"/>
-      <c r="U17" s="33"/>
-      <c r="V17" s="33">
+      <c r="T17" s="52"/>
+      <c r="U17" s="52"/>
+      <c r="V17" s="52">
         <v>45084</v>
       </c>
-      <c r="W17" s="33"/>
-      <c r="X17" s="33"/>
-      <c r="Y17" s="44">
+      <c r="W17" s="52"/>
+      <c r="X17" s="52"/>
+      <c r="Y17" s="78">
         <v>0.7</v>
       </c>
-      <c r="Z17" s="34"/>
-      <c r="AA17" s="34"/>
+      <c r="Z17" s="49"/>
+      <c r="AA17" s="49"/>
       <c r="AB17" s="4"/>
       <c r="AC17" s="4"/>
       <c r="AD17" s="4"/>
@@ -2660,7 +2660,7 @@
       <c r="AF17" s="4"/>
       <c r="AG17" s="17"/>
       <c r="AH17" s="17"/>
-      <c r="AI17" s="4"/>
+      <c r="AI17" s="17"/>
       <c r="AJ17" s="4"/>
       <c r="AK17" s="4"/>
       <c r="AL17" s="4"/>
@@ -2687,41 +2687,41 @@
     <row r="18" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="10"/>
       <c r="B18" s="12"/>
-      <c r="C18" s="53"/>
-      <c r="D18" s="54"/>
-      <c r="E18" s="54"/>
-      <c r="F18" s="54"/>
-      <c r="G18" s="55"/>
-      <c r="H18" s="35" t="s">
+      <c r="C18" s="61"/>
+      <c r="D18" s="62"/>
+      <c r="E18" s="62"/>
+      <c r="F18" s="62"/>
+      <c r="G18" s="63"/>
+      <c r="H18" s="72" t="s">
         <v>34</v>
       </c>
-      <c r="I18" s="36"/>
-      <c r="J18" s="36"/>
-      <c r="K18" s="36"/>
-      <c r="L18" s="36"/>
-      <c r="M18" s="36"/>
-      <c r="N18" s="36"/>
-      <c r="O18" s="37"/>
-      <c r="P18" s="30" t="s">
+      <c r="I18" s="73"/>
+      <c r="J18" s="73"/>
+      <c r="K18" s="73"/>
+      <c r="L18" s="73"/>
+      <c r="M18" s="73"/>
+      <c r="N18" s="73"/>
+      <c r="O18" s="74"/>
+      <c r="P18" s="64" t="s">
         <v>40</v>
       </c>
-      <c r="Q18" s="31"/>
-      <c r="R18" s="31"/>
-      <c r="S18" s="33">
+      <c r="Q18" s="65"/>
+      <c r="R18" s="65"/>
+      <c r="S18" s="52">
         <v>45083</v>
       </c>
-      <c r="T18" s="33"/>
-      <c r="U18" s="33"/>
-      <c r="V18" s="33">
+      <c r="T18" s="52"/>
+      <c r="U18" s="52"/>
+      <c r="V18" s="52">
         <v>45084</v>
       </c>
-      <c r="W18" s="33"/>
-      <c r="X18" s="33"/>
-      <c r="Y18" s="44">
-        <v>0.8</v>
-      </c>
-      <c r="Z18" s="34"/>
-      <c r="AA18" s="34"/>
+      <c r="W18" s="52"/>
+      <c r="X18" s="52"/>
+      <c r="Y18" s="78" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z18" s="49"/>
+      <c r="AA18" s="49"/>
       <c r="AB18" s="4"/>
       <c r="AC18" s="4"/>
       <c r="AD18" s="4"/>
@@ -2729,7 +2729,7 @@
       <c r="AF18" s="4"/>
       <c r="AG18" s="17"/>
       <c r="AH18" s="17"/>
-      <c r="AI18" s="13"/>
+      <c r="AI18" s="17"/>
       <c r="AJ18" s="13"/>
       <c r="AK18" s="4"/>
       <c r="AL18" s="4"/>
@@ -2761,36 +2761,36 @@
       <c r="E19" s="28"/>
       <c r="F19" s="28"/>
       <c r="G19" s="29"/>
-      <c r="H19" s="35" t="s">
+      <c r="H19" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="I19" s="36"/>
-      <c r="J19" s="36"/>
-      <c r="K19" s="36"/>
-      <c r="L19" s="36"/>
-      <c r="M19" s="36"/>
-      <c r="N19" s="36"/>
-      <c r="O19" s="38"/>
-      <c r="P19" s="39" t="s">
+      <c r="I19" s="73"/>
+      <c r="J19" s="73"/>
+      <c r="K19" s="73"/>
+      <c r="L19" s="73"/>
+      <c r="M19" s="73"/>
+      <c r="N19" s="73"/>
+      <c r="O19" s="82"/>
+      <c r="P19" s="68" t="s">
         <v>43</v>
       </c>
-      <c r="Q19" s="31"/>
-      <c r="R19" s="32"/>
-      <c r="S19" s="33">
+      <c r="Q19" s="65"/>
+      <c r="R19" s="79"/>
+      <c r="S19" s="52">
         <v>45084</v>
       </c>
-      <c r="T19" s="33"/>
-      <c r="U19" s="33"/>
-      <c r="V19" s="33">
+      <c r="T19" s="52"/>
+      <c r="U19" s="52"/>
+      <c r="V19" s="52">
         <v>45084</v>
       </c>
-      <c r="W19" s="33"/>
-      <c r="X19" s="33"/>
-      <c r="Y19" s="40">
-        <v>0.3</v>
-      </c>
-      <c r="Z19" s="41"/>
-      <c r="AA19" s="42"/>
+      <c r="W19" s="52"/>
+      <c r="X19" s="52"/>
+      <c r="Y19" s="83">
+        <v>0.8</v>
+      </c>
+      <c r="Z19" s="84"/>
+      <c r="AA19" s="85"/>
       <c r="AB19" s="4"/>
       <c r="AC19" s="4"/>
       <c r="AD19" s="4"/>
@@ -2798,7 +2798,7 @@
       <c r="AF19" s="4"/>
       <c r="AG19" s="17"/>
       <c r="AH19" s="17"/>
-      <c r="AI19" s="13"/>
+      <c r="AI19" s="17"/>
       <c r="AJ19" s="13"/>
       <c r="AK19" s="4"/>
       <c r="AL19" s="4"/>
@@ -2823,33 +2823,33 @@
       <c r="BE19" s="4"/>
     </row>
     <row r="20" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="30"/>
-      <c r="B20" s="46"/>
-      <c r="C20" s="50"/>
-      <c r="D20" s="51"/>
-      <c r="E20" s="51"/>
-      <c r="F20" s="51"/>
-      <c r="G20" s="52"/>
-      <c r="H20" s="56"/>
-      <c r="I20" s="57"/>
-      <c r="J20" s="57"/>
-      <c r="K20" s="57"/>
-      <c r="L20" s="57"/>
-      <c r="M20" s="57"/>
-      <c r="N20" s="57"/>
-      <c r="O20" s="58"/>
-      <c r="P20" s="39"/>
-      <c r="Q20" s="31"/>
-      <c r="R20" s="46"/>
-      <c r="S20" s="59"/>
-      <c r="T20" s="48"/>
-      <c r="U20" s="60"/>
-      <c r="V20" s="59"/>
-      <c r="W20" s="48"/>
-      <c r="X20" s="60"/>
-      <c r="Y20" s="30"/>
-      <c r="Z20" s="31"/>
-      <c r="AA20" s="46"/>
+      <c r="A20" s="64"/>
+      <c r="B20" s="66"/>
+      <c r="C20" s="75"/>
+      <c r="D20" s="76"/>
+      <c r="E20" s="76"/>
+      <c r="F20" s="76"/>
+      <c r="G20" s="77"/>
+      <c r="H20" s="54"/>
+      <c r="I20" s="55"/>
+      <c r="J20" s="55"/>
+      <c r="K20" s="55"/>
+      <c r="L20" s="55"/>
+      <c r="M20" s="55"/>
+      <c r="N20" s="55"/>
+      <c r="O20" s="67"/>
+      <c r="P20" s="68"/>
+      <c r="Q20" s="65"/>
+      <c r="R20" s="66"/>
+      <c r="S20" s="69"/>
+      <c r="T20" s="70"/>
+      <c r="U20" s="71"/>
+      <c r="V20" s="69"/>
+      <c r="W20" s="70"/>
+      <c r="X20" s="71"/>
+      <c r="Y20" s="64"/>
+      <c r="Z20" s="65"/>
+      <c r="AA20" s="66"/>
       <c r="AB20" s="4"/>
       <c r="AC20" s="4"/>
       <c r="AD20" s="4"/>
@@ -2882,37 +2882,37 @@
       <c r="BE20" s="4"/>
     </row>
     <row r="21" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="30"/>
-      <c r="B21" s="46"/>
-      <c r="C21" s="43" t="s">
+      <c r="A21" s="64"/>
+      <c r="B21" s="66"/>
+      <c r="C21" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="D21" s="43"/>
-      <c r="E21" s="43"/>
-      <c r="F21" s="43"/>
-      <c r="G21" s="43"/>
-      <c r="H21" s="35"/>
-      <c r="I21" s="36"/>
-      <c r="J21" s="36"/>
-      <c r="K21" s="36"/>
-      <c r="L21" s="36"/>
-      <c r="M21" s="36"/>
-      <c r="N21" s="36"/>
-      <c r="O21" s="37"/>
-      <c r="P21" s="43" t="s">
+      <c r="D21" s="50"/>
+      <c r="E21" s="50"/>
+      <c r="F21" s="50"/>
+      <c r="G21" s="50"/>
+      <c r="H21" s="72"/>
+      <c r="I21" s="73"/>
+      <c r="J21" s="73"/>
+      <c r="K21" s="73"/>
+      <c r="L21" s="73"/>
+      <c r="M21" s="73"/>
+      <c r="N21" s="73"/>
+      <c r="O21" s="74"/>
+      <c r="P21" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="Q21" s="43"/>
-      <c r="R21" s="43"/>
-      <c r="S21" s="33"/>
-      <c r="T21" s="33"/>
-      <c r="U21" s="33"/>
-      <c r="V21" s="33"/>
-      <c r="W21" s="33"/>
-      <c r="X21" s="33"/>
-      <c r="Y21" s="34"/>
-      <c r="Z21" s="34"/>
-      <c r="AA21" s="34"/>
+      <c r="Q21" s="50"/>
+      <c r="R21" s="50"/>
+      <c r="S21" s="52"/>
+      <c r="T21" s="52"/>
+      <c r="U21" s="52"/>
+      <c r="V21" s="52"/>
+      <c r="W21" s="52"/>
+      <c r="X21" s="52"/>
+      <c r="Y21" s="49"/>
+      <c r="Z21" s="49"/>
+      <c r="AA21" s="49"/>
       <c r="AB21" s="4"/>
       <c r="AC21" s="4"/>
       <c r="AD21" s="4"/>
@@ -2947,39 +2947,39 @@
     <row r="22" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="10"/>
       <c r="B22" s="12"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="31"/>
-      <c r="G22" s="46"/>
-      <c r="H22" s="35" t="s">
+      <c r="C22" s="64"/>
+      <c r="D22" s="65"/>
+      <c r="E22" s="65"/>
+      <c r="F22" s="65"/>
+      <c r="G22" s="66"/>
+      <c r="H22" s="72" t="s">
         <v>35</v>
       </c>
-      <c r="I22" s="36"/>
-      <c r="J22" s="36"/>
-      <c r="K22" s="36"/>
-      <c r="L22" s="36"/>
-      <c r="M22" s="36"/>
-      <c r="N22" s="36"/>
-      <c r="O22" s="37"/>
-      <c r="P22" s="30"/>
-      <c r="Q22" s="31"/>
-      <c r="R22" s="32"/>
-      <c r="S22" s="33">
+      <c r="I22" s="73"/>
+      <c r="J22" s="73"/>
+      <c r="K22" s="73"/>
+      <c r="L22" s="73"/>
+      <c r="M22" s="73"/>
+      <c r="N22" s="73"/>
+      <c r="O22" s="74"/>
+      <c r="P22" s="64"/>
+      <c r="Q22" s="65"/>
+      <c r="R22" s="79"/>
+      <c r="S22" s="52">
         <v>45085</v>
       </c>
-      <c r="T22" s="33"/>
-      <c r="U22" s="33"/>
-      <c r="V22" s="33">
+      <c r="T22" s="52"/>
+      <c r="U22" s="52"/>
+      <c r="V22" s="52">
         <v>45086</v>
       </c>
-      <c r="W22" s="33"/>
-      <c r="X22" s="33"/>
-      <c r="Y22" s="34" t="s">
+      <c r="W22" s="52"/>
+      <c r="X22" s="52"/>
+      <c r="Y22" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="Z22" s="34"/>
-      <c r="AA22" s="34"/>
+      <c r="Z22" s="49"/>
+      <c r="AA22" s="49"/>
       <c r="AB22" s="4"/>
       <c r="AC22" s="4"/>
       <c r="AD22" s="4"/>
@@ -3019,34 +3019,34 @@
       <c r="E23" s="11"/>
       <c r="F23" s="11"/>
       <c r="G23" s="12"/>
-      <c r="H23" s="35" t="s">
+      <c r="H23" s="72" t="s">
         <v>36</v>
       </c>
-      <c r="I23" s="36"/>
-      <c r="J23" s="36"/>
-      <c r="K23" s="36"/>
-      <c r="L23" s="36"/>
-      <c r="M23" s="36"/>
-      <c r="N23" s="36"/>
-      <c r="O23" s="37"/>
-      <c r="P23" s="30"/>
-      <c r="Q23" s="31"/>
-      <c r="R23" s="32"/>
-      <c r="S23" s="33">
+      <c r="I23" s="73"/>
+      <c r="J23" s="73"/>
+      <c r="K23" s="73"/>
+      <c r="L23" s="73"/>
+      <c r="M23" s="73"/>
+      <c r="N23" s="73"/>
+      <c r="O23" s="74"/>
+      <c r="P23" s="64"/>
+      <c r="Q23" s="65"/>
+      <c r="R23" s="79"/>
+      <c r="S23" s="52">
         <v>45085</v>
       </c>
-      <c r="T23" s="33"/>
-      <c r="U23" s="33"/>
-      <c r="V23" s="33">
+      <c r="T23" s="52"/>
+      <c r="U23" s="52"/>
+      <c r="V23" s="52">
         <v>45086</v>
       </c>
-      <c r="W23" s="33"/>
-      <c r="X23" s="33"/>
-      <c r="Y23" s="34" t="s">
+      <c r="W23" s="52"/>
+      <c r="X23" s="52"/>
+      <c r="Y23" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="Z23" s="34"/>
-      <c r="AA23" s="34"/>
+      <c r="Z23" s="49"/>
+      <c r="AA23" s="49"/>
       <c r="AB23" s="4"/>
       <c r="AC23" s="4"/>
       <c r="AD23" s="4"/>
@@ -3079,33 +3079,33 @@
       <c r="BE23" s="4"/>
     </row>
     <row r="24" spans="1:57" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="30"/>
-      <c r="B24" s="46"/>
-      <c r="C24" s="30"/>
-      <c r="D24" s="31"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="31"/>
-      <c r="G24" s="46"/>
-      <c r="H24" s="30"/>
-      <c r="I24" s="31"/>
-      <c r="J24" s="31"/>
-      <c r="K24" s="31"/>
-      <c r="L24" s="31"/>
-      <c r="M24" s="31"/>
-      <c r="N24" s="31"/>
-      <c r="O24" s="46"/>
-      <c r="P24" s="30"/>
-      <c r="Q24" s="31"/>
-      <c r="R24" s="32"/>
-      <c r="S24" s="47"/>
-      <c r="T24" s="48"/>
-      <c r="U24" s="49"/>
-      <c r="V24" s="47"/>
-      <c r="W24" s="48"/>
-      <c r="X24" s="49"/>
-      <c r="Y24" s="39"/>
-      <c r="Z24" s="31"/>
-      <c r="AA24" s="46"/>
+      <c r="A24" s="64"/>
+      <c r="B24" s="66"/>
+      <c r="C24" s="64"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="65"/>
+      <c r="F24" s="65"/>
+      <c r="G24" s="66"/>
+      <c r="H24" s="64"/>
+      <c r="I24" s="65"/>
+      <c r="J24" s="65"/>
+      <c r="K24" s="65"/>
+      <c r="L24" s="65"/>
+      <c r="M24" s="65"/>
+      <c r="N24" s="65"/>
+      <c r="O24" s="66"/>
+      <c r="P24" s="64"/>
+      <c r="Q24" s="65"/>
+      <c r="R24" s="79"/>
+      <c r="S24" s="80"/>
+      <c r="T24" s="70"/>
+      <c r="U24" s="81"/>
+      <c r="V24" s="80"/>
+      <c r="W24" s="70"/>
+      <c r="X24" s="81"/>
+      <c r="Y24" s="68"/>
+      <c r="Z24" s="65"/>
+      <c r="AA24" s="66"/>
       <c r="AB24" s="4"/>
       <c r="AC24" s="4"/>
       <c r="AD24" s="4"/>
@@ -3138,41 +3138,41 @@
       <c r="BE24" s="4"/>
     </row>
     <row r="25" spans="1:57" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="34"/>
-      <c r="B25" s="34"/>
-      <c r="C25" s="43" t="s">
+      <c r="A25" s="49"/>
+      <c r="B25" s="49"/>
+      <c r="C25" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="D25" s="43"/>
-      <c r="E25" s="43"/>
-      <c r="F25" s="43"/>
-      <c r="G25" s="43"/>
-      <c r="H25" s="43"/>
-      <c r="I25" s="43"/>
-      <c r="J25" s="43"/>
-      <c r="K25" s="43"/>
-      <c r="L25" s="43"/>
-      <c r="M25" s="43"/>
-      <c r="N25" s="43"/>
-      <c r="O25" s="43"/>
-      <c r="P25" s="43" t="s">
+      <c r="D25" s="50"/>
+      <c r="E25" s="50"/>
+      <c r="F25" s="50"/>
+      <c r="G25" s="50"/>
+      <c r="H25" s="50"/>
+      <c r="I25" s="50"/>
+      <c r="J25" s="50"/>
+      <c r="K25" s="50"/>
+      <c r="L25" s="50"/>
+      <c r="M25" s="50"/>
+      <c r="N25" s="50"/>
+      <c r="O25" s="50"/>
+      <c r="P25" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="Q25" s="43"/>
-      <c r="R25" s="43"/>
-      <c r="S25" s="33">
+      <c r="Q25" s="50"/>
+      <c r="R25" s="50"/>
+      <c r="S25" s="52">
         <v>45089</v>
       </c>
-      <c r="T25" s="33"/>
-      <c r="U25" s="33"/>
-      <c r="V25" s="33">
+      <c r="T25" s="52"/>
+      <c r="U25" s="52"/>
+      <c r="V25" s="52">
         <v>45100</v>
       </c>
-      <c r="W25" s="33"/>
-      <c r="X25" s="33"/>
-      <c r="Y25" s="34"/>
-      <c r="Z25" s="34"/>
-      <c r="AA25" s="34"/>
+      <c r="W25" s="52"/>
+      <c r="X25" s="52"/>
+      <c r="Y25" s="49"/>
+      <c r="Z25" s="49"/>
+      <c r="AA25" s="49"/>
       <c r="AB25" s="4"/>
       <c r="AC25" s="4"/>
       <c r="AD25" s="4"/>
@@ -3205,33 +3205,33 @@
       <c r="BE25" s="4"/>
     </row>
     <row r="26" spans="1:57" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="34"/>
-      <c r="B26" s="34"/>
-      <c r="C26" s="43"/>
-      <c r="D26" s="43"/>
-      <c r="E26" s="43"/>
-      <c r="F26" s="43"/>
-      <c r="G26" s="43"/>
-      <c r="H26" s="43"/>
-      <c r="I26" s="43"/>
-      <c r="J26" s="43"/>
-      <c r="K26" s="43"/>
-      <c r="L26" s="43"/>
-      <c r="M26" s="43"/>
-      <c r="N26" s="43"/>
-      <c r="O26" s="43"/>
-      <c r="P26" s="43"/>
-      <c r="Q26" s="43"/>
-      <c r="R26" s="43"/>
-      <c r="S26" s="33"/>
-      <c r="T26" s="33"/>
-      <c r="U26" s="33"/>
-      <c r="V26" s="33"/>
-      <c r="W26" s="33"/>
-      <c r="X26" s="33"/>
-      <c r="Y26" s="34"/>
-      <c r="Z26" s="34"/>
-      <c r="AA26" s="34"/>
+      <c r="A26" s="49"/>
+      <c r="B26" s="49"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="50"/>
+      <c r="F26" s="50"/>
+      <c r="G26" s="50"/>
+      <c r="H26" s="50"/>
+      <c r="I26" s="50"/>
+      <c r="J26" s="50"/>
+      <c r="K26" s="50"/>
+      <c r="L26" s="50"/>
+      <c r="M26" s="50"/>
+      <c r="N26" s="50"/>
+      <c r="O26" s="50"/>
+      <c r="P26" s="50"/>
+      <c r="Q26" s="50"/>
+      <c r="R26" s="50"/>
+      <c r="S26" s="52"/>
+      <c r="T26" s="52"/>
+      <c r="U26" s="52"/>
+      <c r="V26" s="52"/>
+      <c r="W26" s="52"/>
+      <c r="X26" s="52"/>
+      <c r="Y26" s="49"/>
+      <c r="Z26" s="49"/>
+      <c r="AA26" s="49"/>
       <c r="AB26" s="4"/>
       <c r="AC26" s="4"/>
       <c r="AD26" s="4"/>
@@ -3264,33 +3264,33 @@
       <c r="BE26" s="4"/>
     </row>
     <row r="27" spans="1:57" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="34"/>
-      <c r="B27" s="34"/>
-      <c r="C27" s="43"/>
-      <c r="D27" s="43"/>
-      <c r="E27" s="43"/>
-      <c r="F27" s="43"/>
-      <c r="G27" s="43"/>
-      <c r="H27" s="43"/>
-      <c r="I27" s="43"/>
-      <c r="J27" s="43"/>
-      <c r="K27" s="43"/>
-      <c r="L27" s="43"/>
-      <c r="M27" s="43"/>
-      <c r="N27" s="43"/>
-      <c r="O27" s="43"/>
-      <c r="P27" s="43"/>
-      <c r="Q27" s="43"/>
-      <c r="R27" s="43"/>
-      <c r="S27" s="33"/>
-      <c r="T27" s="33"/>
-      <c r="U27" s="33"/>
-      <c r="V27" s="33"/>
-      <c r="W27" s="33"/>
-      <c r="X27" s="33"/>
-      <c r="Y27" s="34"/>
-      <c r="Z27" s="34"/>
-      <c r="AA27" s="34"/>
+      <c r="A27" s="49"/>
+      <c r="B27" s="49"/>
+      <c r="C27" s="50"/>
+      <c r="D27" s="50"/>
+      <c r="E27" s="50"/>
+      <c r="F27" s="50"/>
+      <c r="G27" s="50"/>
+      <c r="H27" s="50"/>
+      <c r="I27" s="50"/>
+      <c r="J27" s="50"/>
+      <c r="K27" s="50"/>
+      <c r="L27" s="50"/>
+      <c r="M27" s="50"/>
+      <c r="N27" s="50"/>
+      <c r="O27" s="50"/>
+      <c r="P27" s="50"/>
+      <c r="Q27" s="50"/>
+      <c r="R27" s="50"/>
+      <c r="S27" s="52"/>
+      <c r="T27" s="52"/>
+      <c r="U27" s="52"/>
+      <c r="V27" s="52"/>
+      <c r="W27" s="52"/>
+      <c r="X27" s="52"/>
+      <c r="Y27" s="49"/>
+      <c r="Z27" s="49"/>
+      <c r="AA27" s="49"/>
       <c r="AB27" s="4"/>
       <c r="AC27" s="4"/>
       <c r="AD27" s="4"/>
@@ -3322,41 +3322,41 @@
       <c r="BE27" s="4"/>
     </row>
     <row r="28" spans="1:57" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="34"/>
-      <c r="B28" s="34"/>
-      <c r="C28" s="43" t="s">
+      <c r="A28" s="49"/>
+      <c r="B28" s="49"/>
+      <c r="C28" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="D28" s="43"/>
-      <c r="E28" s="43"/>
-      <c r="F28" s="43"/>
-      <c r="G28" s="43"/>
-      <c r="H28" s="43"/>
-      <c r="I28" s="43"/>
-      <c r="J28" s="43"/>
-      <c r="K28" s="43"/>
-      <c r="L28" s="43"/>
-      <c r="M28" s="43"/>
-      <c r="N28" s="43"/>
-      <c r="O28" s="43"/>
-      <c r="P28" s="43" t="s">
+      <c r="D28" s="50"/>
+      <c r="E28" s="50"/>
+      <c r="F28" s="50"/>
+      <c r="G28" s="50"/>
+      <c r="H28" s="50"/>
+      <c r="I28" s="50"/>
+      <c r="J28" s="50"/>
+      <c r="K28" s="50"/>
+      <c r="L28" s="50"/>
+      <c r="M28" s="50"/>
+      <c r="N28" s="50"/>
+      <c r="O28" s="50"/>
+      <c r="P28" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="Q28" s="43"/>
-      <c r="R28" s="43"/>
-      <c r="S28" s="33">
+      <c r="Q28" s="50"/>
+      <c r="R28" s="50"/>
+      <c r="S28" s="52">
         <v>45096</v>
       </c>
-      <c r="T28" s="33"/>
-      <c r="U28" s="33"/>
-      <c r="V28" s="33">
+      <c r="T28" s="52"/>
+      <c r="U28" s="52"/>
+      <c r="V28" s="52">
         <v>45100</v>
       </c>
-      <c r="W28" s="33"/>
-      <c r="X28" s="33"/>
-      <c r="Y28" s="34"/>
-      <c r="Z28" s="34"/>
-      <c r="AA28" s="34"/>
+      <c r="W28" s="52"/>
+      <c r="X28" s="52"/>
+      <c r="Y28" s="49"/>
+      <c r="Z28" s="49"/>
+      <c r="AA28" s="49"/>
       <c r="AB28" s="4"/>
       <c r="AC28" s="4"/>
       <c r="AD28" s="4"/>
@@ -3389,41 +3389,41 @@
       <c r="BE28" s="4"/>
     </row>
     <row r="29" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="34"/>
-      <c r="B29" s="34"/>
-      <c r="C29" s="43" t="s">
+      <c r="A29" s="49"/>
+      <c r="B29" s="49"/>
+      <c r="C29" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="D29" s="43"/>
-      <c r="E29" s="43"/>
-      <c r="F29" s="43"/>
-      <c r="G29" s="43"/>
-      <c r="H29" s="43"/>
-      <c r="I29" s="43"/>
-      <c r="J29" s="43"/>
-      <c r="K29" s="43"/>
-      <c r="L29" s="43"/>
-      <c r="M29" s="43"/>
-      <c r="N29" s="43"/>
-      <c r="O29" s="43"/>
-      <c r="P29" s="43" t="s">
+      <c r="D29" s="50"/>
+      <c r="E29" s="50"/>
+      <c r="F29" s="50"/>
+      <c r="G29" s="50"/>
+      <c r="H29" s="50"/>
+      <c r="I29" s="50"/>
+      <c r="J29" s="50"/>
+      <c r="K29" s="50"/>
+      <c r="L29" s="50"/>
+      <c r="M29" s="50"/>
+      <c r="N29" s="50"/>
+      <c r="O29" s="50"/>
+      <c r="P29" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="Q29" s="43"/>
-      <c r="R29" s="43"/>
-      <c r="S29" s="33">
+      <c r="Q29" s="50"/>
+      <c r="R29" s="50"/>
+      <c r="S29" s="52">
         <v>45096</v>
       </c>
-      <c r="T29" s="33"/>
-      <c r="U29" s="33"/>
-      <c r="V29" s="33">
+      <c r="T29" s="52"/>
+      <c r="U29" s="52"/>
+      <c r="V29" s="52">
         <v>45100</v>
       </c>
-      <c r="W29" s="33"/>
-      <c r="X29" s="33"/>
-      <c r="Y29" s="34"/>
-      <c r="Z29" s="34"/>
-      <c r="AA29" s="34"/>
+      <c r="W29" s="52"/>
+      <c r="X29" s="52"/>
+      <c r="Y29" s="49"/>
+      <c r="Z29" s="49"/>
+      <c r="AA29" s="49"/>
       <c r="AB29" s="4"/>
       <c r="AC29" s="4"/>
       <c r="AD29" s="4"/>
@@ -3455,41 +3455,41 @@
       <c r="BE29" s="4"/>
     </row>
     <row r="30" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="34"/>
-      <c r="B30" s="34"/>
-      <c r="C30" s="43" t="s">
+      <c r="A30" s="49"/>
+      <c r="B30" s="49"/>
+      <c r="C30" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="D30" s="43"/>
-      <c r="E30" s="43"/>
-      <c r="F30" s="43"/>
-      <c r="G30" s="43"/>
-      <c r="H30" s="43"/>
-      <c r="I30" s="43"/>
-      <c r="J30" s="43"/>
-      <c r="K30" s="43"/>
-      <c r="L30" s="43"/>
-      <c r="M30" s="43"/>
-      <c r="N30" s="43"/>
-      <c r="O30" s="43"/>
-      <c r="P30" s="43" t="s">
+      <c r="D30" s="50"/>
+      <c r="E30" s="50"/>
+      <c r="F30" s="50"/>
+      <c r="G30" s="50"/>
+      <c r="H30" s="50"/>
+      <c r="I30" s="50"/>
+      <c r="J30" s="50"/>
+      <c r="K30" s="50"/>
+      <c r="L30" s="50"/>
+      <c r="M30" s="50"/>
+      <c r="N30" s="50"/>
+      <c r="O30" s="50"/>
+      <c r="P30" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="Q30" s="43"/>
-      <c r="R30" s="43"/>
-      <c r="S30" s="33">
+      <c r="Q30" s="50"/>
+      <c r="R30" s="50"/>
+      <c r="S30" s="52">
         <v>45103</v>
       </c>
-      <c r="T30" s="33"/>
-      <c r="U30" s="33"/>
-      <c r="V30" s="33">
+      <c r="T30" s="52"/>
+      <c r="U30" s="52"/>
+      <c r="V30" s="52">
         <v>45105</v>
       </c>
-      <c r="W30" s="33"/>
-      <c r="X30" s="33"/>
-      <c r="Y30" s="34"/>
-      <c r="Z30" s="34"/>
-      <c r="AA30" s="34"/>
+      <c r="W30" s="52"/>
+      <c r="X30" s="52"/>
+      <c r="Y30" s="49"/>
+      <c r="Z30" s="49"/>
+      <c r="AA30" s="49"/>
       <c r="AB30" s="4"/>
       <c r="AC30" s="4"/>
       <c r="AD30" s="4"/>
@@ -3522,41 +3522,41 @@
       <c r="BE30" s="4"/>
     </row>
     <row r="31" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="34"/>
-      <c r="B31" s="34"/>
-      <c r="C31" s="43" t="s">
+      <c r="A31" s="49"/>
+      <c r="B31" s="49"/>
+      <c r="C31" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="D31" s="43"/>
-      <c r="E31" s="43"/>
-      <c r="F31" s="43"/>
-      <c r="G31" s="43"/>
-      <c r="H31" s="43"/>
-      <c r="I31" s="43"/>
-      <c r="J31" s="43"/>
-      <c r="K31" s="43"/>
-      <c r="L31" s="43"/>
-      <c r="M31" s="43"/>
-      <c r="N31" s="43"/>
-      <c r="O31" s="43"/>
-      <c r="P31" s="43" t="s">
+      <c r="D31" s="50"/>
+      <c r="E31" s="50"/>
+      <c r="F31" s="50"/>
+      <c r="G31" s="50"/>
+      <c r="H31" s="50"/>
+      <c r="I31" s="50"/>
+      <c r="J31" s="50"/>
+      <c r="K31" s="50"/>
+      <c r="L31" s="50"/>
+      <c r="M31" s="50"/>
+      <c r="N31" s="50"/>
+      <c r="O31" s="50"/>
+      <c r="P31" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="Q31" s="43"/>
-      <c r="R31" s="43"/>
-      <c r="S31" s="33">
+      <c r="Q31" s="50"/>
+      <c r="R31" s="50"/>
+      <c r="S31" s="52">
         <v>45089</v>
       </c>
-      <c r="T31" s="33"/>
-      <c r="U31" s="33"/>
-      <c r="V31" s="33">
+      <c r="T31" s="52"/>
+      <c r="U31" s="52"/>
+      <c r="V31" s="52">
         <v>45105</v>
       </c>
-      <c r="W31" s="33"/>
-      <c r="X31" s="33"/>
-      <c r="Y31" s="34"/>
-      <c r="Z31" s="34"/>
-      <c r="AA31" s="34"/>
+      <c r="W31" s="52"/>
+      <c r="X31" s="52"/>
+      <c r="Y31" s="49"/>
+      <c r="Z31" s="49"/>
+      <c r="AA31" s="49"/>
       <c r="AB31" s="4"/>
       <c r="AC31" s="4"/>
       <c r="AD31" s="4"/>
@@ -3589,33 +3589,33 @@
       <c r="BE31" s="4"/>
     </row>
     <row r="32" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="34"/>
-      <c r="B32" s="34"/>
-      <c r="C32" s="43"/>
-      <c r="D32" s="43"/>
-      <c r="E32" s="43"/>
-      <c r="F32" s="43"/>
-      <c r="G32" s="43"/>
-      <c r="H32" s="43"/>
-      <c r="I32" s="43"/>
-      <c r="J32" s="43"/>
-      <c r="K32" s="43"/>
-      <c r="L32" s="43"/>
-      <c r="M32" s="43"/>
-      <c r="N32" s="43"/>
-      <c r="O32" s="43"/>
-      <c r="P32" s="43"/>
-      <c r="Q32" s="43"/>
-      <c r="R32" s="43"/>
-      <c r="S32" s="33"/>
-      <c r="T32" s="33"/>
-      <c r="U32" s="33"/>
-      <c r="V32" s="33"/>
-      <c r="W32" s="33"/>
-      <c r="X32" s="33"/>
-      <c r="Y32" s="34"/>
-      <c r="Z32" s="34"/>
-      <c r="AA32" s="34"/>
+      <c r="A32" s="49"/>
+      <c r="B32" s="49"/>
+      <c r="C32" s="50"/>
+      <c r="D32" s="50"/>
+      <c r="E32" s="50"/>
+      <c r="F32" s="50"/>
+      <c r="G32" s="50"/>
+      <c r="H32" s="50"/>
+      <c r="I32" s="50"/>
+      <c r="J32" s="50"/>
+      <c r="K32" s="50"/>
+      <c r="L32" s="50"/>
+      <c r="M32" s="50"/>
+      <c r="N32" s="50"/>
+      <c r="O32" s="50"/>
+      <c r="P32" s="50"/>
+      <c r="Q32" s="50"/>
+      <c r="R32" s="50"/>
+      <c r="S32" s="52"/>
+      <c r="T32" s="52"/>
+      <c r="U32" s="52"/>
+      <c r="V32" s="52"/>
+      <c r="W32" s="52"/>
+      <c r="X32" s="52"/>
+      <c r="Y32" s="49"/>
+      <c r="Z32" s="49"/>
+      <c r="AA32" s="49"/>
       <c r="AB32" s="4"/>
       <c r="AC32" s="4"/>
       <c r="AD32" s="4"/>
@@ -3648,35 +3648,35 @@
       <c r="BE32" s="4"/>
     </row>
     <row r="33" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="34"/>
-      <c r="B33" s="34"/>
-      <c r="C33" s="43" t="s">
+      <c r="A33" s="49"/>
+      <c r="B33" s="49"/>
+      <c r="C33" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="D33" s="43"/>
-      <c r="E33" s="43"/>
-      <c r="F33" s="43"/>
-      <c r="G33" s="43"/>
-      <c r="H33" s="43"/>
-      <c r="I33" s="43"/>
-      <c r="J33" s="43"/>
-      <c r="K33" s="43"/>
-      <c r="L33" s="43"/>
-      <c r="M33" s="43"/>
-      <c r="N33" s="43"/>
-      <c r="O33" s="43"/>
-      <c r="P33" s="43"/>
-      <c r="Q33" s="43"/>
-      <c r="R33" s="43"/>
-      <c r="S33" s="33"/>
-      <c r="T33" s="33"/>
-      <c r="U33" s="33"/>
-      <c r="V33" s="33"/>
-      <c r="W33" s="33"/>
-      <c r="X33" s="33"/>
-      <c r="Y33" s="34"/>
-      <c r="Z33" s="34"/>
-      <c r="AA33" s="34"/>
+      <c r="D33" s="50"/>
+      <c r="E33" s="50"/>
+      <c r="F33" s="50"/>
+      <c r="G33" s="50"/>
+      <c r="H33" s="50"/>
+      <c r="I33" s="50"/>
+      <c r="J33" s="50"/>
+      <c r="K33" s="50"/>
+      <c r="L33" s="50"/>
+      <c r="M33" s="50"/>
+      <c r="N33" s="50"/>
+      <c r="O33" s="50"/>
+      <c r="P33" s="50"/>
+      <c r="Q33" s="50"/>
+      <c r="R33" s="50"/>
+      <c r="S33" s="52"/>
+      <c r="T33" s="52"/>
+      <c r="U33" s="52"/>
+      <c r="V33" s="52"/>
+      <c r="W33" s="52"/>
+      <c r="X33" s="52"/>
+      <c r="Y33" s="49"/>
+      <c r="Z33" s="49"/>
+      <c r="AA33" s="49"/>
       <c r="AB33" s="4"/>
       <c r="AC33" s="4"/>
       <c r="AD33" s="4"/>
@@ -3709,33 +3709,33 @@
       <c r="BE33" s="9"/>
     </row>
     <row r="34" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="34"/>
-      <c r="B34" s="34"/>
-      <c r="C34" s="43"/>
-      <c r="D34" s="43"/>
-      <c r="E34" s="43"/>
-      <c r="F34" s="43"/>
-      <c r="G34" s="43"/>
-      <c r="H34" s="43"/>
-      <c r="I34" s="43"/>
-      <c r="J34" s="43"/>
-      <c r="K34" s="43"/>
-      <c r="L34" s="43"/>
-      <c r="M34" s="43"/>
-      <c r="N34" s="43"/>
-      <c r="O34" s="43"/>
-      <c r="P34" s="43"/>
-      <c r="Q34" s="43"/>
-      <c r="R34" s="43"/>
-      <c r="S34" s="33"/>
-      <c r="T34" s="33"/>
-      <c r="U34" s="33"/>
-      <c r="V34" s="33"/>
-      <c r="W34" s="33"/>
-      <c r="X34" s="33"/>
-      <c r="Y34" s="34"/>
-      <c r="Z34" s="34"/>
-      <c r="AA34" s="34"/>
+      <c r="A34" s="49"/>
+      <c r="B34" s="49"/>
+      <c r="C34" s="50"/>
+      <c r="D34" s="50"/>
+      <c r="E34" s="50"/>
+      <c r="F34" s="50"/>
+      <c r="G34" s="50"/>
+      <c r="H34" s="50"/>
+      <c r="I34" s="50"/>
+      <c r="J34" s="50"/>
+      <c r="K34" s="50"/>
+      <c r="L34" s="50"/>
+      <c r="M34" s="50"/>
+      <c r="N34" s="50"/>
+      <c r="O34" s="50"/>
+      <c r="P34" s="50"/>
+      <c r="Q34" s="50"/>
+      <c r="R34" s="50"/>
+      <c r="S34" s="52"/>
+      <c r="T34" s="52"/>
+      <c r="U34" s="52"/>
+      <c r="V34" s="52"/>
+      <c r="W34" s="52"/>
+      <c r="X34" s="52"/>
+      <c r="Y34" s="49"/>
+      <c r="Z34" s="49"/>
+      <c r="AA34" s="49"/>
       <c r="AB34" s="4"/>
       <c r="AC34" s="4"/>
       <c r="AD34" s="4"/>
@@ -3768,33 +3768,33 @@
       <c r="BE34" s="22"/>
     </row>
     <row r="35" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="34"/>
-      <c r="B35" s="34"/>
-      <c r="C35" s="43"/>
-      <c r="D35" s="43"/>
-      <c r="E35" s="43"/>
-      <c r="F35" s="43"/>
-      <c r="G35" s="43"/>
-      <c r="H35" s="43"/>
-      <c r="I35" s="43"/>
-      <c r="J35" s="43"/>
-      <c r="K35" s="43"/>
-      <c r="L35" s="43"/>
-      <c r="M35" s="43"/>
-      <c r="N35" s="43"/>
-      <c r="O35" s="43"/>
-      <c r="P35" s="43"/>
-      <c r="Q35" s="43"/>
-      <c r="R35" s="43"/>
-      <c r="S35" s="33"/>
-      <c r="T35" s="33"/>
-      <c r="U35" s="33"/>
-      <c r="V35" s="33"/>
-      <c r="W35" s="33"/>
-      <c r="X35" s="33"/>
-      <c r="Y35" s="34"/>
-      <c r="Z35" s="34"/>
-      <c r="AA35" s="34"/>
+      <c r="A35" s="49"/>
+      <c r="B35" s="49"/>
+      <c r="C35" s="50"/>
+      <c r="D35" s="50"/>
+      <c r="E35" s="50"/>
+      <c r="F35" s="50"/>
+      <c r="G35" s="50"/>
+      <c r="H35" s="50"/>
+      <c r="I35" s="50"/>
+      <c r="J35" s="50"/>
+      <c r="K35" s="50"/>
+      <c r="L35" s="50"/>
+      <c r="M35" s="50"/>
+      <c r="N35" s="50"/>
+      <c r="O35" s="50"/>
+      <c r="P35" s="50"/>
+      <c r="Q35" s="50"/>
+      <c r="R35" s="50"/>
+      <c r="S35" s="52"/>
+      <c r="T35" s="52"/>
+      <c r="U35" s="52"/>
+      <c r="V35" s="52"/>
+      <c r="W35" s="52"/>
+      <c r="X35" s="52"/>
+      <c r="Y35" s="49"/>
+      <c r="Z35" s="49"/>
+      <c r="AA35" s="49"/>
       <c r="AB35" s="4"/>
       <c r="AC35" s="4"/>
       <c r="AD35" s="4"/>
@@ -3827,33 +3827,33 @@
       <c r="BE35" s="4"/>
     </row>
     <row r="36" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="34"/>
-      <c r="B36" s="34"/>
-      <c r="C36" s="43"/>
-      <c r="D36" s="43"/>
-      <c r="E36" s="43"/>
-      <c r="F36" s="43"/>
-      <c r="G36" s="43"/>
-      <c r="H36" s="43"/>
-      <c r="I36" s="43"/>
-      <c r="J36" s="43"/>
-      <c r="K36" s="43"/>
-      <c r="L36" s="43"/>
-      <c r="M36" s="43"/>
-      <c r="N36" s="43"/>
-      <c r="O36" s="43"/>
-      <c r="P36" s="43"/>
-      <c r="Q36" s="43"/>
-      <c r="R36" s="43"/>
-      <c r="S36" s="33"/>
-      <c r="T36" s="33"/>
-      <c r="U36" s="33"/>
-      <c r="V36" s="33"/>
-      <c r="W36" s="33"/>
-      <c r="X36" s="33"/>
-      <c r="Y36" s="34"/>
-      <c r="Z36" s="34"/>
-      <c r="AA36" s="34"/>
+      <c r="A36" s="49"/>
+      <c r="B36" s="49"/>
+      <c r="C36" s="50"/>
+      <c r="D36" s="50"/>
+      <c r="E36" s="50"/>
+      <c r="F36" s="50"/>
+      <c r="G36" s="50"/>
+      <c r="H36" s="50"/>
+      <c r="I36" s="50"/>
+      <c r="J36" s="50"/>
+      <c r="K36" s="50"/>
+      <c r="L36" s="50"/>
+      <c r="M36" s="50"/>
+      <c r="N36" s="50"/>
+      <c r="O36" s="50"/>
+      <c r="P36" s="50"/>
+      <c r="Q36" s="50"/>
+      <c r="R36" s="50"/>
+      <c r="S36" s="52"/>
+      <c r="T36" s="52"/>
+      <c r="U36" s="52"/>
+      <c r="V36" s="52"/>
+      <c r="W36" s="52"/>
+      <c r="X36" s="52"/>
+      <c r="Y36" s="49"/>
+      <c r="Z36" s="49"/>
+      <c r="AA36" s="49"/>
       <c r="AB36" s="4"/>
       <c r="AC36" s="4"/>
       <c r="AD36" s="4"/>
@@ -3898,136 +3898,67 @@
     <row r="47" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="215">
-    <mergeCell ref="A1:G2"/>
-    <mergeCell ref="AH1:AN1"/>
-    <mergeCell ref="AH2:AN2"/>
-    <mergeCell ref="AD1:AG1"/>
-    <mergeCell ref="AD2:AG2"/>
-    <mergeCell ref="Y4:AA6"/>
-    <mergeCell ref="C5:G6"/>
-    <mergeCell ref="H5:O6"/>
-    <mergeCell ref="S5:U6"/>
-    <mergeCell ref="V5:X6"/>
-    <mergeCell ref="A4:B6"/>
-    <mergeCell ref="C4:O4"/>
-    <mergeCell ref="P4:R6"/>
-    <mergeCell ref="S4:X4"/>
-    <mergeCell ref="H1:AC2"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="Y11:AA11"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="H11:O11"/>
-    <mergeCell ref="P11:R11"/>
-    <mergeCell ref="S11:U11"/>
-    <mergeCell ref="V11:X11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="H13:O13"/>
-    <mergeCell ref="P12:R12"/>
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="V13:X13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="H14:O14"/>
-    <mergeCell ref="P14:R14"/>
-    <mergeCell ref="S14:U14"/>
-    <mergeCell ref="V14:X14"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="H12:O12"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="H16:O16"/>
-    <mergeCell ref="P16:R16"/>
-    <mergeCell ref="S16:U16"/>
-    <mergeCell ref="V16:X16"/>
-    <mergeCell ref="Y16:AA16"/>
-    <mergeCell ref="Y13:AA13"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="H15:O15"/>
-    <mergeCell ref="P15:R15"/>
-    <mergeCell ref="S15:U15"/>
-    <mergeCell ref="V15:X15"/>
-    <mergeCell ref="Y15:AA15"/>
-    <mergeCell ref="Y14:AA14"/>
-    <mergeCell ref="P13:R13"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="P17:R17"/>
-    <mergeCell ref="S17:U17"/>
-    <mergeCell ref="V17:X17"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="Y20:AA20"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="H20:O20"/>
-    <mergeCell ref="P20:R20"/>
-    <mergeCell ref="S20:U20"/>
-    <mergeCell ref="V20:X20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="H21:O21"/>
-    <mergeCell ref="S21:U21"/>
-    <mergeCell ref="V21:X21"/>
-    <mergeCell ref="Y21:AA21"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="H22:O22"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="H18:O18"/>
-    <mergeCell ref="P21:R21"/>
-    <mergeCell ref="Y18:AA18"/>
-    <mergeCell ref="P22:R22"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="H25:O25"/>
-    <mergeCell ref="P25:R25"/>
-    <mergeCell ref="S25:U25"/>
-    <mergeCell ref="V25:X25"/>
-    <mergeCell ref="Y25:AA25"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="H24:O24"/>
-    <mergeCell ref="P24:R24"/>
-    <mergeCell ref="S24:U24"/>
-    <mergeCell ref="V24:X24"/>
-    <mergeCell ref="Y24:AA24"/>
-    <mergeCell ref="Y26:AA26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="H27:O27"/>
-    <mergeCell ref="P27:R27"/>
-    <mergeCell ref="S27:U27"/>
-    <mergeCell ref="V27:X27"/>
-    <mergeCell ref="Y27:AA27"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="H26:O26"/>
-    <mergeCell ref="P26:R26"/>
-    <mergeCell ref="S26:U26"/>
-    <mergeCell ref="V26:X26"/>
-    <mergeCell ref="Y28:AA28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="H29:O29"/>
-    <mergeCell ref="P29:R29"/>
-    <mergeCell ref="S29:U29"/>
-    <mergeCell ref="V29:X29"/>
-    <mergeCell ref="Y29:AA29"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="H28:O28"/>
-    <mergeCell ref="P28:R28"/>
-    <mergeCell ref="S28:U28"/>
-    <mergeCell ref="V28:X28"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="Y30:AA30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="H31:O31"/>
-    <mergeCell ref="P31:R31"/>
-    <mergeCell ref="S31:U31"/>
-    <mergeCell ref="V31:X31"/>
-    <mergeCell ref="Y31:AA31"/>
-    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="P23:R23"/>
+    <mergeCell ref="S22:U22"/>
+    <mergeCell ref="S23:U23"/>
+    <mergeCell ref="V22:X22"/>
+    <mergeCell ref="V23:X23"/>
+    <mergeCell ref="Y22:AA22"/>
+    <mergeCell ref="Y23:AA23"/>
+    <mergeCell ref="H23:O23"/>
+    <mergeCell ref="H19:O19"/>
+    <mergeCell ref="P19:R19"/>
+    <mergeCell ref="S19:U19"/>
+    <mergeCell ref="V19:X19"/>
+    <mergeCell ref="Y19:AA19"/>
+    <mergeCell ref="Y12:AA12"/>
+    <mergeCell ref="V12:X12"/>
+    <mergeCell ref="S12:U12"/>
+    <mergeCell ref="P18:R18"/>
+    <mergeCell ref="S18:U18"/>
+    <mergeCell ref="V18:X18"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="Y17:AA17"/>
+    <mergeCell ref="Y10:AA10"/>
+    <mergeCell ref="H17:O17"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="H7:O7"/>
+    <mergeCell ref="P7:R7"/>
+    <mergeCell ref="S7:U7"/>
+    <mergeCell ref="V7:X7"/>
+    <mergeCell ref="Y7:AA7"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="H9:O9"/>
+    <mergeCell ref="P9:R9"/>
+    <mergeCell ref="S9:U9"/>
+    <mergeCell ref="V9:X9"/>
+    <mergeCell ref="Y9:AA9"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H8:O8"/>
+    <mergeCell ref="P8:R8"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="V8:X8"/>
+    <mergeCell ref="Y8:AA8"/>
+    <mergeCell ref="Y35:AA35"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="H34:O34"/>
+    <mergeCell ref="P34:R34"/>
+    <mergeCell ref="S34:U34"/>
+    <mergeCell ref="V34:X34"/>
+    <mergeCell ref="Y32:AA32"/>
+    <mergeCell ref="Y33:AA33"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H32:O32"/>
+    <mergeCell ref="P32:R32"/>
+    <mergeCell ref="S32:U32"/>
+    <mergeCell ref="V32:X32"/>
+    <mergeCell ref="H33:O33"/>
+    <mergeCell ref="P33:R33"/>
+    <mergeCell ref="S33:U33"/>
+    <mergeCell ref="V33:X33"/>
     <mergeCell ref="Y36:AA36"/>
     <mergeCell ref="C21:G21"/>
     <mergeCell ref="C26:G26"/>
@@ -4052,67 +3983,136 @@
     <mergeCell ref="V30:X30"/>
     <mergeCell ref="A33:B33"/>
     <mergeCell ref="C33:G33"/>
-    <mergeCell ref="Y35:AA35"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="H34:O34"/>
-    <mergeCell ref="P34:R34"/>
-    <mergeCell ref="S34:U34"/>
-    <mergeCell ref="V34:X34"/>
-    <mergeCell ref="Y32:AA32"/>
-    <mergeCell ref="Y33:AA33"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="H32:O32"/>
-    <mergeCell ref="P32:R32"/>
-    <mergeCell ref="S32:U32"/>
-    <mergeCell ref="V32:X32"/>
-    <mergeCell ref="H33:O33"/>
-    <mergeCell ref="P33:R33"/>
-    <mergeCell ref="S33:U33"/>
-    <mergeCell ref="V33:X33"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="H7:O7"/>
-    <mergeCell ref="P7:R7"/>
-    <mergeCell ref="S7:U7"/>
-    <mergeCell ref="V7:X7"/>
-    <mergeCell ref="Y7:AA7"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="H9:O9"/>
-    <mergeCell ref="P9:R9"/>
-    <mergeCell ref="S9:U9"/>
-    <mergeCell ref="V9:X9"/>
-    <mergeCell ref="Y9:AA9"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="H8:O8"/>
-    <mergeCell ref="P8:R8"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="V8:X8"/>
-    <mergeCell ref="Y8:AA8"/>
-    <mergeCell ref="Y12:AA12"/>
-    <mergeCell ref="V12:X12"/>
-    <mergeCell ref="S12:U12"/>
-    <mergeCell ref="P18:R18"/>
-    <mergeCell ref="S18:U18"/>
-    <mergeCell ref="V18:X18"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="Y17:AA17"/>
-    <mergeCell ref="Y10:AA10"/>
-    <mergeCell ref="H17:O17"/>
-    <mergeCell ref="P23:R23"/>
-    <mergeCell ref="S22:U22"/>
-    <mergeCell ref="S23:U23"/>
-    <mergeCell ref="V22:X22"/>
-    <mergeCell ref="V23:X23"/>
-    <mergeCell ref="Y22:AA22"/>
-    <mergeCell ref="Y23:AA23"/>
-    <mergeCell ref="H23:O23"/>
-    <mergeCell ref="H19:O19"/>
-    <mergeCell ref="P19:R19"/>
-    <mergeCell ref="S19:U19"/>
-    <mergeCell ref="V19:X19"/>
-    <mergeCell ref="Y19:AA19"/>
+    <mergeCell ref="Y28:AA28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="H29:O29"/>
+    <mergeCell ref="P29:R29"/>
+    <mergeCell ref="S29:U29"/>
+    <mergeCell ref="V29:X29"/>
+    <mergeCell ref="Y29:AA29"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H28:O28"/>
+    <mergeCell ref="P28:R28"/>
+    <mergeCell ref="S28:U28"/>
+    <mergeCell ref="V28:X28"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="Y30:AA30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="H31:O31"/>
+    <mergeCell ref="P31:R31"/>
+    <mergeCell ref="S31:U31"/>
+    <mergeCell ref="V31:X31"/>
+    <mergeCell ref="Y31:AA31"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="Y26:AA26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:O27"/>
+    <mergeCell ref="P27:R27"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="V27:X27"/>
+    <mergeCell ref="Y27:AA27"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="H26:O26"/>
+    <mergeCell ref="P26:R26"/>
+    <mergeCell ref="S26:U26"/>
+    <mergeCell ref="V26:X26"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:O25"/>
+    <mergeCell ref="P25:R25"/>
+    <mergeCell ref="S25:U25"/>
+    <mergeCell ref="V25:X25"/>
+    <mergeCell ref="Y25:AA25"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:O24"/>
+    <mergeCell ref="P24:R24"/>
+    <mergeCell ref="S24:U24"/>
+    <mergeCell ref="V24:X24"/>
+    <mergeCell ref="Y24:AA24"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="H21:O21"/>
+    <mergeCell ref="S21:U21"/>
+    <mergeCell ref="V21:X21"/>
+    <mergeCell ref="Y21:AA21"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:O22"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H18:O18"/>
+    <mergeCell ref="P21:R21"/>
+    <mergeCell ref="Y18:AA18"/>
+    <mergeCell ref="P22:R22"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="P17:R17"/>
+    <mergeCell ref="S17:U17"/>
+    <mergeCell ref="V17:X17"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="Y20:AA20"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="H20:O20"/>
+    <mergeCell ref="P20:R20"/>
+    <mergeCell ref="S20:U20"/>
+    <mergeCell ref="V20:X20"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H16:O16"/>
+    <mergeCell ref="P16:R16"/>
+    <mergeCell ref="S16:U16"/>
+    <mergeCell ref="V16:X16"/>
+    <mergeCell ref="Y16:AA16"/>
+    <mergeCell ref="Y13:AA13"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="H15:O15"/>
+    <mergeCell ref="P15:R15"/>
+    <mergeCell ref="S15:U15"/>
+    <mergeCell ref="V15:X15"/>
+    <mergeCell ref="Y15:AA15"/>
+    <mergeCell ref="Y14:AA14"/>
+    <mergeCell ref="P13:R13"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H13:O13"/>
+    <mergeCell ref="P12:R12"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="V13:X13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:O14"/>
+    <mergeCell ref="P14:R14"/>
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="V14:X14"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H12:O12"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="Y11:AA11"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="H11:O11"/>
+    <mergeCell ref="P11:R11"/>
+    <mergeCell ref="S11:U11"/>
+    <mergeCell ref="V11:X11"/>
+    <mergeCell ref="A1:G2"/>
+    <mergeCell ref="AH1:AN1"/>
+    <mergeCell ref="AH2:AN2"/>
+    <mergeCell ref="AD1:AG1"/>
+    <mergeCell ref="AD2:AG2"/>
+    <mergeCell ref="Y4:AA6"/>
+    <mergeCell ref="C5:G6"/>
+    <mergeCell ref="H5:O6"/>
+    <mergeCell ref="S5:U6"/>
+    <mergeCell ref="V5:X6"/>
+    <mergeCell ref="A4:B6"/>
+    <mergeCell ref="C4:O4"/>
+    <mergeCell ref="P4:R6"/>
+    <mergeCell ref="S4:X4"/>
+    <mergeCell ref="H1:AC2"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="AC5:BE6">

--- a/doc/進捗管理表_D3.xlsx
+++ b/doc/進捗管理表_D3.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DDF9D06-D516-4EBD-B7CC-DB8EB4026FD8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9D4BBD9-2638-45F8-BD06-80E40D6F03EC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1810" yWindow="430" windowWidth="14400" windowHeight="8380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1810" yWindow="40" windowWidth="17340" windowHeight="10180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="45">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -374,6 +374,16 @@
     </rPh>
     <rPh sb="3" eb="4">
       <t>シュ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファイル構成一覧</t>
+    <rPh sb="4" eb="6">
+      <t>コウセイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>イチラン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -823,7 +833,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -914,6 +924,117 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -971,116 +1092,14 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1407,8 +1426,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BG47"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="67" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AI21" sqref="AI21"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" zoomScale="67" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="P18" sqref="P18:R18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.25" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1423,139 +1442,139 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:59" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="43" t="s">
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="80" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44"/>
-      <c r="N1" s="44"/>
-      <c r="O1" s="44"/>
-      <c r="P1" s="44"/>
-      <c r="Q1" s="44"/>
-      <c r="R1" s="44"/>
-      <c r="S1" s="44"/>
-      <c r="T1" s="44"/>
-      <c r="U1" s="44"/>
-      <c r="V1" s="44"/>
-      <c r="W1" s="44"/>
-      <c r="X1" s="44"/>
-      <c r="Y1" s="44"/>
-      <c r="Z1" s="44"/>
-      <c r="AA1" s="44"/>
-      <c r="AB1" s="44"/>
-      <c r="AC1" s="45"/>
-      <c r="AD1" s="37" t="s">
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81"/>
+      <c r="M1" s="81"/>
+      <c r="N1" s="81"/>
+      <c r="O1" s="81"/>
+      <c r="P1" s="81"/>
+      <c r="Q1" s="81"/>
+      <c r="R1" s="81"/>
+      <c r="S1" s="81"/>
+      <c r="T1" s="81"/>
+      <c r="U1" s="81"/>
+      <c r="V1" s="81"/>
+      <c r="W1" s="81"/>
+      <c r="X1" s="81"/>
+      <c r="Y1" s="81"/>
+      <c r="Z1" s="81"/>
+      <c r="AA1" s="81"/>
+      <c r="AB1" s="81"/>
+      <c r="AC1" s="82"/>
+      <c r="AD1" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="AE1" s="38"/>
-      <c r="AF1" s="38"/>
-      <c r="AG1" s="39"/>
-      <c r="AH1" s="34">
+      <c r="AE1" s="75"/>
+      <c r="AF1" s="75"/>
+      <c r="AG1" s="76"/>
+      <c r="AH1" s="71">
         <v>45078</v>
       </c>
-      <c r="AI1" s="35"/>
-      <c r="AJ1" s="35"/>
-      <c r="AK1" s="35"/>
-      <c r="AL1" s="35"/>
-      <c r="AM1" s="35"/>
-      <c r="AN1" s="36"/>
+      <c r="AI1" s="72"/>
+      <c r="AJ1" s="72"/>
+      <c r="AK1" s="72"/>
+      <c r="AL1" s="72"/>
+      <c r="AM1" s="72"/>
+      <c r="AN1" s="73"/>
     </row>
     <row r="2" spans="1:59" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="32"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="47"/>
-      <c r="L2" s="47"/>
-      <c r="M2" s="47"/>
-      <c r="N2" s="47"/>
-      <c r="O2" s="47"/>
-      <c r="P2" s="47"/>
-      <c r="Q2" s="47"/>
-      <c r="R2" s="47"/>
-      <c r="S2" s="47"/>
-      <c r="T2" s="47"/>
-      <c r="U2" s="47"/>
-      <c r="V2" s="47"/>
-      <c r="W2" s="47"/>
-      <c r="X2" s="47"/>
-      <c r="Y2" s="47"/>
-      <c r="Z2" s="47"/>
-      <c r="AA2" s="47"/>
-      <c r="AB2" s="47"/>
-      <c r="AC2" s="48"/>
-      <c r="AD2" s="37" t="s">
+      <c r="A2" s="69"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="83"/>
+      <c r="I2" s="84"/>
+      <c r="J2" s="84"/>
+      <c r="K2" s="84"/>
+      <c r="L2" s="84"/>
+      <c r="M2" s="84"/>
+      <c r="N2" s="84"/>
+      <c r="O2" s="84"/>
+      <c r="P2" s="84"/>
+      <c r="Q2" s="84"/>
+      <c r="R2" s="84"/>
+      <c r="S2" s="84"/>
+      <c r="T2" s="84"/>
+      <c r="U2" s="84"/>
+      <c r="V2" s="84"/>
+      <c r="W2" s="84"/>
+      <c r="X2" s="84"/>
+      <c r="Y2" s="84"/>
+      <c r="Z2" s="84"/>
+      <c r="AA2" s="84"/>
+      <c r="AB2" s="84"/>
+      <c r="AC2" s="85"/>
+      <c r="AD2" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="AE2" s="38"/>
-      <c r="AF2" s="38"/>
-      <c r="AG2" s="39"/>
-      <c r="AH2" s="34">
+      <c r="AE2" s="75"/>
+      <c r="AF2" s="75"/>
+      <c r="AG2" s="76"/>
+      <c r="AH2" s="71">
         <v>45107</v>
       </c>
-      <c r="AI2" s="35"/>
-      <c r="AJ2" s="35"/>
-      <c r="AK2" s="35"/>
-      <c r="AL2" s="35"/>
-      <c r="AM2" s="35"/>
-      <c r="AN2" s="36"/>
+      <c r="AI2" s="72"/>
+      <c r="AJ2" s="72"/>
+      <c r="AK2" s="72"/>
+      <c r="AL2" s="72"/>
+      <c r="AM2" s="72"/>
+      <c r="AN2" s="73"/>
     </row>
     <row r="4" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="41"/>
-      <c r="C4" s="42" t="s">
+      <c r="B4" s="78"/>
+      <c r="C4" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="42"/>
-      <c r="J4" s="42"/>
-      <c r="K4" s="42"/>
-      <c r="L4" s="42"/>
-      <c r="M4" s="42"/>
-      <c r="N4" s="42"/>
-      <c r="O4" s="42"/>
-      <c r="P4" s="41" t="s">
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79"/>
+      <c r="K4" s="79"/>
+      <c r="L4" s="79"/>
+      <c r="M4" s="79"/>
+      <c r="N4" s="79"/>
+      <c r="O4" s="79"/>
+      <c r="P4" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="Q4" s="41"/>
-      <c r="R4" s="41"/>
-      <c r="S4" s="41" t="s">
+      <c r="Q4" s="78"/>
+      <c r="R4" s="78"/>
+      <c r="S4" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="T4" s="41"/>
-      <c r="U4" s="41"/>
-      <c r="V4" s="41"/>
-      <c r="W4" s="41"/>
-      <c r="X4" s="41"/>
-      <c r="Y4" s="40" t="s">
+      <c r="T4" s="78"/>
+      <c r="U4" s="78"/>
+      <c r="V4" s="78"/>
+      <c r="W4" s="78"/>
+      <c r="X4" s="78"/>
+      <c r="Y4" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="Z4" s="40"/>
-      <c r="AA4" s="40"/>
+      <c r="Z4" s="77"/>
+      <c r="AA4" s="77"/>
       <c r="AB4" s="7">
         <f>AH1</f>
         <v>45078</v>
@@ -1680,41 +1699,41 @@
       <c r="BG4" s="3"/>
     </row>
     <row r="5" spans="1:59" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="41"/>
-      <c r="B5" s="41"/>
-      <c r="C5" s="41" t="s">
+      <c r="A5" s="78"/>
+      <c r="B5" s="78"/>
+      <c r="C5" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41" t="s">
+      <c r="D5" s="78"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="78"/>
+      <c r="G5" s="78"/>
+      <c r="H5" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="41"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="41"/>
-      <c r="L5" s="41"/>
-      <c r="M5" s="41"/>
-      <c r="N5" s="41"/>
-      <c r="O5" s="41"/>
-      <c r="P5" s="41"/>
-      <c r="Q5" s="41"/>
-      <c r="R5" s="41"/>
-      <c r="S5" s="41" t="s">
+      <c r="I5" s="78"/>
+      <c r="J5" s="78"/>
+      <c r="K5" s="78"/>
+      <c r="L5" s="78"/>
+      <c r="M5" s="78"/>
+      <c r="N5" s="78"/>
+      <c r="O5" s="78"/>
+      <c r="P5" s="78"/>
+      <c r="Q5" s="78"/>
+      <c r="R5" s="78"/>
+      <c r="S5" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="T5" s="41"/>
-      <c r="U5" s="41"/>
-      <c r="V5" s="41" t="s">
+      <c r="T5" s="78"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="W5" s="41"/>
-      <c r="X5" s="41"/>
-      <c r="Y5" s="40"/>
-      <c r="Z5" s="40"/>
-      <c r="AA5" s="40"/>
+      <c r="W5" s="78"/>
+      <c r="X5" s="78"/>
+      <c r="Y5" s="77"/>
+      <c r="Z5" s="77"/>
+      <c r="AA5" s="77"/>
       <c r="AB5" s="5">
         <f>AH1</f>
         <v>45078</v>
@@ -1837,33 +1856,33 @@
       </c>
     </row>
     <row r="6" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="41"/>
-      <c r="B6" s="41"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="41"/>
-      <c r="J6" s="41"/>
-      <c r="K6" s="41"/>
-      <c r="L6" s="41"/>
-      <c r="M6" s="41"/>
-      <c r="N6" s="41"/>
-      <c r="O6" s="41"/>
-      <c r="P6" s="41"/>
-      <c r="Q6" s="41"/>
-      <c r="R6" s="41"/>
-      <c r="S6" s="41"/>
-      <c r="T6" s="41"/>
-      <c r="U6" s="41"/>
-      <c r="V6" s="41"/>
-      <c r="W6" s="41"/>
-      <c r="X6" s="41"/>
-      <c r="Y6" s="40"/>
-      <c r="Z6" s="40"/>
-      <c r="AA6" s="40"/>
+      <c r="A6" s="78"/>
+      <c r="B6" s="78"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="78"/>
+      <c r="F6" s="78"/>
+      <c r="G6" s="78"/>
+      <c r="H6" s="78"/>
+      <c r="I6" s="78"/>
+      <c r="J6" s="78"/>
+      <c r="K6" s="78"/>
+      <c r="L6" s="78"/>
+      <c r="M6" s="78"/>
+      <c r="N6" s="78"/>
+      <c r="O6" s="78"/>
+      <c r="P6" s="78"/>
+      <c r="Q6" s="78"/>
+      <c r="R6" s="78"/>
+      <c r="S6" s="78"/>
+      <c r="T6" s="78"/>
+      <c r="U6" s="78"/>
+      <c r="V6" s="78"/>
+      <c r="W6" s="78"/>
+      <c r="X6" s="78"/>
+      <c r="Y6" s="77"/>
+      <c r="Z6" s="77"/>
+      <c r="AA6" s="77"/>
       <c r="AB6" s="6" t="str">
         <f>TEXT(AB5,"aaa")</f>
         <v>木</v>
@@ -1986,35 +2005,35 @@
       </c>
     </row>
     <row r="7" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="49"/>
-      <c r="B7" s="49"/>
-      <c r="C7" s="50" t="s">
+      <c r="A7" s="34"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50"/>
-      <c r="H7" s="50"/>
-      <c r="I7" s="50"/>
-      <c r="J7" s="50"/>
-      <c r="K7" s="50"/>
-      <c r="L7" s="50"/>
-      <c r="M7" s="50"/>
-      <c r="N7" s="50"/>
-      <c r="O7" s="50"/>
-      <c r="P7" s="50"/>
-      <c r="Q7" s="50"/>
-      <c r="R7" s="50"/>
-      <c r="S7" s="52"/>
-      <c r="T7" s="52"/>
-      <c r="U7" s="52"/>
-      <c r="V7" s="52"/>
-      <c r="W7" s="52"/>
-      <c r="X7" s="52"/>
-      <c r="Y7" s="49"/>
-      <c r="Z7" s="49"/>
-      <c r="AA7" s="49"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="43"/>
+      <c r="J7" s="43"/>
+      <c r="K7" s="43"/>
+      <c r="L7" s="43"/>
+      <c r="M7" s="43"/>
+      <c r="N7" s="43"/>
+      <c r="O7" s="43"/>
+      <c r="P7" s="43"/>
+      <c r="Q7" s="43"/>
+      <c r="R7" s="43"/>
+      <c r="S7" s="33"/>
+      <c r="T7" s="33"/>
+      <c r="U7" s="33"/>
+      <c r="V7" s="33"/>
+      <c r="W7" s="33"/>
+      <c r="X7" s="33"/>
+      <c r="Y7" s="34"/>
+      <c r="Z7" s="34"/>
+      <c r="AA7" s="34"/>
       <c r="AB7" s="4"/>
       <c r="AC7" s="4"/>
       <c r="AD7" s="4"/>
@@ -2047,41 +2066,41 @@
       <c r="BE7" s="4"/>
     </row>
     <row r="8" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="49"/>
-      <c r="B8" s="49"/>
-      <c r="C8" s="50"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="50"/>
-      <c r="G8" s="50"/>
-      <c r="H8" s="51" t="s">
+      <c r="A8" s="34"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="I8" s="51"/>
-      <c r="J8" s="51"/>
-      <c r="K8" s="51"/>
-      <c r="L8" s="51"/>
-      <c r="M8" s="51"/>
-      <c r="N8" s="51"/>
-      <c r="O8" s="51"/>
-      <c r="P8" s="50"/>
-      <c r="Q8" s="50"/>
-      <c r="R8" s="50"/>
-      <c r="S8" s="52">
+      <c r="I8" s="45"/>
+      <c r="J8" s="45"/>
+      <c r="K8" s="45"/>
+      <c r="L8" s="45"/>
+      <c r="M8" s="45"/>
+      <c r="N8" s="45"/>
+      <c r="O8" s="45"/>
+      <c r="P8" s="43"/>
+      <c r="Q8" s="43"/>
+      <c r="R8" s="43"/>
+      <c r="S8" s="33">
         <v>45078</v>
       </c>
-      <c r="T8" s="52"/>
-      <c r="U8" s="52"/>
-      <c r="V8" s="52">
+      <c r="T8" s="33"/>
+      <c r="U8" s="33"/>
+      <c r="V8" s="33">
         <v>45078</v>
       </c>
-      <c r="W8" s="52"/>
-      <c r="X8" s="52"/>
-      <c r="Y8" s="49" t="s">
+      <c r="W8" s="33"/>
+      <c r="X8" s="33"/>
+      <c r="Y8" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="Z8" s="49"/>
-      <c r="AA8" s="49"/>
+      <c r="Z8" s="34"/>
+      <c r="AA8" s="34"/>
       <c r="AB8" s="4"/>
       <c r="AC8" s="4"/>
       <c r="AD8" s="4"/>
@@ -2114,41 +2133,41 @@
       <c r="BE8" s="4"/>
     </row>
     <row r="9" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="49"/>
-      <c r="B9" s="49"/>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="51" t="s">
+      <c r="A9" s="34"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="I9" s="51"/>
-      <c r="J9" s="51"/>
-      <c r="K9" s="51"/>
-      <c r="L9" s="51"/>
-      <c r="M9" s="51"/>
-      <c r="N9" s="51"/>
-      <c r="O9" s="51"/>
-      <c r="P9" s="50"/>
-      <c r="Q9" s="50"/>
-      <c r="R9" s="50"/>
-      <c r="S9" s="52">
+      <c r="I9" s="45"/>
+      <c r="J9" s="45"/>
+      <c r="K9" s="45"/>
+      <c r="L9" s="45"/>
+      <c r="M9" s="45"/>
+      <c r="N9" s="45"/>
+      <c r="O9" s="45"/>
+      <c r="P9" s="43"/>
+      <c r="Q9" s="43"/>
+      <c r="R9" s="43"/>
+      <c r="S9" s="33">
         <v>45078</v>
       </c>
-      <c r="T9" s="52"/>
-      <c r="U9" s="52"/>
-      <c r="V9" s="52">
+      <c r="T9" s="33"/>
+      <c r="U9" s="33"/>
+      <c r="V9" s="33">
         <v>45079</v>
       </c>
-      <c r="W9" s="52"/>
-      <c r="X9" s="52"/>
-      <c r="Y9" s="49" t="s">
+      <c r="W9" s="33"/>
+      <c r="X9" s="33"/>
+      <c r="Y9" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="Z9" s="49"/>
-      <c r="AA9" s="49"/>
+      <c r="Z9" s="34"/>
+      <c r="AA9" s="34"/>
       <c r="AB9" s="4"/>
       <c r="AC9" s="4"/>
       <c r="AD9" s="4"/>
@@ -2181,18 +2200,18 @@
       <c r="BE9" s="4"/>
     </row>
     <row r="10" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="49"/>
-      <c r="B10" s="49"/>
-      <c r="C10" s="50" t="s">
+      <c r="A10" s="34"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="50"/>
-      <c r="E10" s="50"/>
-      <c r="F10" s="50"/>
-      <c r="G10" s="50"/>
-      <c r="Y10" s="49"/>
-      <c r="Z10" s="49"/>
-      <c r="AA10" s="49"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="43"/>
+      <c r="Y10" s="34"/>
+      <c r="Z10" s="34"/>
+      <c r="AA10" s="34"/>
       <c r="AB10" s="4"/>
       <c r="AC10" s="13"/>
       <c r="AD10" s="4"/>
@@ -2225,43 +2244,43 @@
       <c r="BE10" s="4"/>
     </row>
     <row r="11" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="49"/>
-      <c r="B11" s="49"/>
-      <c r="C11" s="50"/>
-      <c r="D11" s="50"/>
-      <c r="E11" s="50"/>
-      <c r="F11" s="50"/>
-      <c r="G11" s="50"/>
-      <c r="H11" s="51" t="s">
+      <c r="A11" s="34"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="I11" s="51"/>
-      <c r="J11" s="51"/>
-      <c r="K11" s="51"/>
-      <c r="L11" s="51"/>
-      <c r="M11" s="51"/>
-      <c r="N11" s="51"/>
-      <c r="O11" s="51"/>
-      <c r="P11" s="50" t="s">
+      <c r="I11" s="45"/>
+      <c r="J11" s="45"/>
+      <c r="K11" s="45"/>
+      <c r="L11" s="45"/>
+      <c r="M11" s="45"/>
+      <c r="N11" s="45"/>
+      <c r="O11" s="45"/>
+      <c r="P11" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="Q11" s="50"/>
-      <c r="R11" s="50"/>
-      <c r="S11" s="52">
+      <c r="Q11" s="43"/>
+      <c r="R11" s="43"/>
+      <c r="S11" s="33">
         <v>45079</v>
       </c>
-      <c r="T11" s="52"/>
-      <c r="U11" s="52"/>
-      <c r="V11" s="52">
+      <c r="T11" s="33"/>
+      <c r="U11" s="33"/>
+      <c r="V11" s="33">
         <v>45082</v>
       </c>
-      <c r="W11" s="52"/>
-      <c r="X11" s="52"/>
-      <c r="Y11" s="49" t="s">
+      <c r="W11" s="33"/>
+      <c r="X11" s="33"/>
+      <c r="Y11" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="Z11" s="49"/>
-      <c r="AA11" s="49"/>
+      <c r="Z11" s="34"/>
+      <c r="AA11" s="34"/>
       <c r="AB11" s="4"/>
       <c r="AC11" s="14"/>
       <c r="AD11" s="4"/>
@@ -2293,41 +2312,41 @@
       <c r="BE11" s="4"/>
     </row>
     <row r="12" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="49"/>
-      <c r="B12" s="49"/>
-      <c r="C12" s="50"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="50"/>
-      <c r="F12" s="50"/>
-      <c r="G12" s="50"/>
-      <c r="H12" s="57" t="s">
+      <c r="A12" s="34"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="I12" s="58"/>
-      <c r="J12" s="58"/>
-      <c r="K12" s="58"/>
-      <c r="L12" s="58"/>
-      <c r="M12" s="58"/>
-      <c r="N12" s="58"/>
-      <c r="O12" s="59"/>
-      <c r="P12" s="54"/>
-      <c r="Q12" s="55"/>
-      <c r="R12" s="56"/>
-      <c r="S12" s="52">
+      <c r="I12" s="65"/>
+      <c r="J12" s="65"/>
+      <c r="K12" s="65"/>
+      <c r="L12" s="65"/>
+      <c r="M12" s="65"/>
+      <c r="N12" s="65"/>
+      <c r="O12" s="66"/>
+      <c r="P12" s="56"/>
+      <c r="Q12" s="57"/>
+      <c r="R12" s="63"/>
+      <c r="S12" s="33">
         <v>45079</v>
       </c>
-      <c r="T12" s="52"/>
-      <c r="U12" s="52"/>
-      <c r="V12" s="52">
+      <c r="T12" s="33"/>
+      <c r="U12" s="33"/>
+      <c r="V12" s="33">
         <v>45082</v>
       </c>
-      <c r="W12" s="52"/>
-      <c r="X12" s="52"/>
-      <c r="Y12" s="49" t="s">
+      <c r="W12" s="33"/>
+      <c r="X12" s="33"/>
+      <c r="Y12" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="Z12" s="49"/>
-      <c r="AA12" s="49"/>
+      <c r="Z12" s="34"/>
+      <c r="AA12" s="34"/>
       <c r="AB12" s="4"/>
       <c r="AC12" s="14"/>
       <c r="AD12" s="4"/>
@@ -2360,41 +2379,41 @@
       <c r="BE12" s="4"/>
     </row>
     <row r="13" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="49"/>
-      <c r="B13" s="49"/>
-      <c r="C13" s="50"/>
-      <c r="D13" s="50"/>
-      <c r="E13" s="50"/>
-      <c r="F13" s="50"/>
-      <c r="G13" s="50"/>
-      <c r="H13" s="53" t="s">
+      <c r="A13" s="34"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="I13" s="53"/>
-      <c r="J13" s="53"/>
-      <c r="K13" s="53"/>
-      <c r="L13" s="53"/>
-      <c r="M13" s="53"/>
-      <c r="N13" s="53"/>
-      <c r="O13" s="53"/>
-      <c r="P13" s="50"/>
-      <c r="Q13" s="50"/>
-      <c r="R13" s="50"/>
-      <c r="S13" s="52">
+      <c r="I13" s="62"/>
+      <c r="J13" s="62"/>
+      <c r="K13" s="62"/>
+      <c r="L13" s="62"/>
+      <c r="M13" s="62"/>
+      <c r="N13" s="62"/>
+      <c r="O13" s="62"/>
+      <c r="P13" s="43"/>
+      <c r="Q13" s="43"/>
+      <c r="R13" s="43"/>
+      <c r="S13" s="33">
         <v>45082</v>
       </c>
-      <c r="T13" s="52"/>
-      <c r="U13" s="52"/>
-      <c r="V13" s="52">
+      <c r="T13" s="33"/>
+      <c r="U13" s="33"/>
+      <c r="V13" s="33">
         <v>45082</v>
       </c>
-      <c r="W13" s="52"/>
-      <c r="X13" s="52"/>
-      <c r="Y13" s="49" t="s">
+      <c r="W13" s="33"/>
+      <c r="X13" s="33"/>
+      <c r="Y13" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="Z13" s="49"/>
-      <c r="AA13" s="49"/>
+      <c r="Z13" s="34"/>
+      <c r="AA13" s="34"/>
       <c r="AB13" s="4"/>
       <c r="AC13" s="4"/>
       <c r="AD13" s="4"/>
@@ -2427,33 +2446,33 @@
       <c r="BE13" s="4"/>
     </row>
     <row r="14" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="49"/>
-      <c r="B14" s="49"/>
-      <c r="C14" s="50"/>
-      <c r="D14" s="50"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="50"/>
-      <c r="H14" s="50"/>
-      <c r="I14" s="50"/>
-      <c r="J14" s="50"/>
-      <c r="K14" s="50"/>
-      <c r="L14" s="50"/>
-      <c r="M14" s="50"/>
-      <c r="N14" s="50"/>
-      <c r="O14" s="50"/>
-      <c r="P14" s="50"/>
-      <c r="Q14" s="50"/>
-      <c r="R14" s="50"/>
-      <c r="S14" s="52"/>
-      <c r="T14" s="52"/>
-      <c r="U14" s="52"/>
-      <c r="V14" s="52"/>
-      <c r="W14" s="52"/>
-      <c r="X14" s="52"/>
-      <c r="Y14" s="49"/>
-      <c r="Z14" s="49"/>
-      <c r="AA14" s="49"/>
+      <c r="A14" s="34"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="43"/>
+      <c r="I14" s="43"/>
+      <c r="J14" s="43"/>
+      <c r="K14" s="43"/>
+      <c r="L14" s="43"/>
+      <c r="M14" s="43"/>
+      <c r="N14" s="43"/>
+      <c r="O14" s="43"/>
+      <c r="P14" s="43"/>
+      <c r="Q14" s="43"/>
+      <c r="R14" s="43"/>
+      <c r="S14" s="33"/>
+      <c r="T14" s="33"/>
+      <c r="U14" s="33"/>
+      <c r="V14" s="33"/>
+      <c r="W14" s="33"/>
+      <c r="X14" s="33"/>
+      <c r="Y14" s="34"/>
+      <c r="Z14" s="34"/>
+      <c r="AA14" s="34"/>
       <c r="AB14" s="4"/>
       <c r="AC14" s="4"/>
       <c r="AD14" s="4"/>
@@ -2486,37 +2505,37 @@
       <c r="BE14" s="4"/>
     </row>
     <row r="15" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="49"/>
-      <c r="B15" s="49"/>
-      <c r="C15" s="50" t="s">
+      <c r="A15" s="34"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="50"/>
-      <c r="E15" s="50"/>
-      <c r="F15" s="50"/>
-      <c r="G15" s="50"/>
-      <c r="H15" s="50"/>
-      <c r="I15" s="50"/>
-      <c r="J15" s="50"/>
-      <c r="K15" s="50"/>
-      <c r="L15" s="50"/>
-      <c r="M15" s="50"/>
-      <c r="N15" s="50"/>
-      <c r="O15" s="50"/>
-      <c r="P15" s="50" t="s">
+      <c r="D15" s="43"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="43"/>
+      <c r="J15" s="43"/>
+      <c r="K15" s="43"/>
+      <c r="L15" s="43"/>
+      <c r="M15" s="43"/>
+      <c r="N15" s="43"/>
+      <c r="O15" s="43"/>
+      <c r="P15" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="Q15" s="50"/>
-      <c r="R15" s="50"/>
-      <c r="S15" s="52"/>
-      <c r="T15" s="52"/>
-      <c r="U15" s="52"/>
-      <c r="V15" s="52"/>
-      <c r="W15" s="52"/>
-      <c r="X15" s="52"/>
-      <c r="Y15" s="49"/>
-      <c r="Z15" s="49"/>
-      <c r="AA15" s="49"/>
+      <c r="Q15" s="43"/>
+      <c r="R15" s="43"/>
+      <c r="S15" s="33"/>
+      <c r="T15" s="33"/>
+      <c r="U15" s="33"/>
+      <c r="V15" s="33"/>
+      <c r="W15" s="33"/>
+      <c r="X15" s="33"/>
+      <c r="Y15" s="34"/>
+      <c r="Z15" s="34"/>
+      <c r="AA15" s="34"/>
       <c r="AB15" s="4"/>
       <c r="AC15" s="4"/>
       <c r="AD15" s="4"/>
@@ -2549,41 +2568,41 @@
       <c r="BE15" s="4"/>
     </row>
     <row r="16" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="49"/>
-      <c r="B16" s="49"/>
-      <c r="C16" s="50"/>
-      <c r="D16" s="50"/>
-      <c r="E16" s="50"/>
-      <c r="F16" s="50"/>
-      <c r="G16" s="50"/>
-      <c r="H16" s="60" t="s">
+      <c r="A16" s="34"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="I16" s="60"/>
-      <c r="J16" s="60"/>
-      <c r="K16" s="60"/>
-      <c r="L16" s="60"/>
-      <c r="M16" s="60"/>
-      <c r="N16" s="60"/>
-      <c r="O16" s="60"/>
-      <c r="P16" s="50"/>
-      <c r="Q16" s="50"/>
-      <c r="R16" s="50"/>
-      <c r="S16" s="52">
+      <c r="I16" s="61"/>
+      <c r="J16" s="61"/>
+      <c r="K16" s="61"/>
+      <c r="L16" s="61"/>
+      <c r="M16" s="61"/>
+      <c r="N16" s="61"/>
+      <c r="O16" s="61"/>
+      <c r="P16" s="43"/>
+      <c r="Q16" s="43"/>
+      <c r="R16" s="43"/>
+      <c r="S16" s="33">
         <v>45083</v>
       </c>
-      <c r="T16" s="52"/>
-      <c r="U16" s="52"/>
-      <c r="V16" s="52">
+      <c r="T16" s="33"/>
+      <c r="U16" s="33"/>
+      <c r="V16" s="33">
         <v>45084</v>
       </c>
-      <c r="W16" s="52"/>
-      <c r="X16" s="52"/>
-      <c r="Y16" s="49" t="s">
+      <c r="W16" s="33"/>
+      <c r="X16" s="33"/>
+      <c r="Y16" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="Z16" s="49"/>
-      <c r="AA16" s="49"/>
+      <c r="Z16" s="34"/>
+      <c r="AA16" s="34"/>
       <c r="AB16" s="4"/>
       <c r="AC16" s="4"/>
       <c r="AD16" s="4"/>
@@ -2616,43 +2635,43 @@
       <c r="BE16" s="4"/>
     </row>
     <row r="17" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="49"/>
-      <c r="B17" s="49"/>
-      <c r="C17" s="50"/>
-      <c r="D17" s="50"/>
-      <c r="E17" s="50"/>
-      <c r="F17" s="50"/>
-      <c r="G17" s="50"/>
-      <c r="H17" s="72" t="s">
+      <c r="A17" s="34"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="I17" s="73"/>
-      <c r="J17" s="73"/>
-      <c r="K17" s="73"/>
-      <c r="L17" s="73"/>
-      <c r="M17" s="73"/>
-      <c r="N17" s="73"/>
-      <c r="O17" s="74"/>
-      <c r="P17" s="50" t="s">
+      <c r="I17" s="36"/>
+      <c r="J17" s="36"/>
+      <c r="K17" s="36"/>
+      <c r="L17" s="36"/>
+      <c r="M17" s="36"/>
+      <c r="N17" s="36"/>
+      <c r="O17" s="37"/>
+      <c r="P17" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="Q17" s="50"/>
-      <c r="R17" s="50"/>
-      <c r="S17" s="52">
+      <c r="Q17" s="43"/>
+      <c r="R17" s="43"/>
+      <c r="S17" s="33">
         <v>45083</v>
       </c>
-      <c r="T17" s="52"/>
-      <c r="U17" s="52"/>
-      <c r="V17" s="52">
+      <c r="T17" s="33"/>
+      <c r="U17" s="33"/>
+      <c r="V17" s="33">
         <v>45084</v>
       </c>
-      <c r="W17" s="52"/>
-      <c r="X17" s="52"/>
-      <c r="Y17" s="78">
-        <v>0.7</v>
-      </c>
-      <c r="Z17" s="49"/>
-      <c r="AA17" s="49"/>
+      <c r="W17" s="33"/>
+      <c r="X17" s="33"/>
+      <c r="Y17" s="44">
+        <v>0.8</v>
+      </c>
+      <c r="Z17" s="34"/>
+      <c r="AA17" s="34"/>
       <c r="AB17" s="4"/>
       <c r="AC17" s="4"/>
       <c r="AD17" s="4"/>
@@ -2687,41 +2706,41 @@
     <row r="18" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="10"/>
       <c r="B18" s="12"/>
-      <c r="C18" s="61"/>
-      <c r="D18" s="62"/>
-      <c r="E18" s="62"/>
-      <c r="F18" s="62"/>
-      <c r="G18" s="63"/>
-      <c r="H18" s="72" t="s">
+      <c r="C18" s="53"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="54"/>
+      <c r="F18" s="54"/>
+      <c r="G18" s="55"/>
+      <c r="H18" s="86" t="s">
         <v>34</v>
       </c>
-      <c r="I18" s="73"/>
-      <c r="J18" s="73"/>
-      <c r="K18" s="73"/>
-      <c r="L18" s="73"/>
-      <c r="M18" s="73"/>
-      <c r="N18" s="73"/>
-      <c r="O18" s="74"/>
-      <c r="P18" s="64" t="s">
+      <c r="I18" s="87"/>
+      <c r="J18" s="87"/>
+      <c r="K18" s="87"/>
+      <c r="L18" s="87"/>
+      <c r="M18" s="87"/>
+      <c r="N18" s="87"/>
+      <c r="O18" s="88"/>
+      <c r="P18" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="Q18" s="65"/>
-      <c r="R18" s="65"/>
-      <c r="S18" s="52">
+      <c r="Q18" s="31"/>
+      <c r="R18" s="31"/>
+      <c r="S18" s="33">
         <v>45083</v>
       </c>
-      <c r="T18" s="52"/>
-      <c r="U18" s="52"/>
-      <c r="V18" s="52">
+      <c r="T18" s="33"/>
+      <c r="U18" s="33"/>
+      <c r="V18" s="33">
         <v>45084</v>
       </c>
-      <c r="W18" s="52"/>
-      <c r="X18" s="52"/>
-      <c r="Y18" s="78" t="s">
+      <c r="W18" s="33"/>
+      <c r="X18" s="33"/>
+      <c r="Y18" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="Z18" s="49"/>
-      <c r="AA18" s="49"/>
+      <c r="Z18" s="34"/>
+      <c r="AA18" s="34"/>
       <c r="AB18" s="4"/>
       <c r="AC18" s="4"/>
       <c r="AD18" s="4"/>
@@ -2761,36 +2780,36 @@
       <c r="E19" s="28"/>
       <c r="F19" s="28"/>
       <c r="G19" s="29"/>
-      <c r="H19" s="72" t="s">
+      <c r="H19" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="I19" s="73"/>
-      <c r="J19" s="73"/>
-      <c r="K19" s="73"/>
-      <c r="L19" s="73"/>
-      <c r="M19" s="73"/>
-      <c r="N19" s="73"/>
-      <c r="O19" s="82"/>
-      <c r="P19" s="68" t="s">
+      <c r="I19" s="36"/>
+      <c r="J19" s="36"/>
+      <c r="K19" s="36"/>
+      <c r="L19" s="36"/>
+      <c r="M19" s="36"/>
+      <c r="N19" s="36"/>
+      <c r="O19" s="38"/>
+      <c r="P19" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="Q19" s="65"/>
-      <c r="R19" s="79"/>
-      <c r="S19" s="52">
+      <c r="Q19" s="31"/>
+      <c r="R19" s="32"/>
+      <c r="S19" s="33">
         <v>45084</v>
       </c>
-      <c r="T19" s="52"/>
-      <c r="U19" s="52"/>
-      <c r="V19" s="52">
+      <c r="T19" s="33"/>
+      <c r="U19" s="33"/>
+      <c r="V19" s="33">
         <v>45084</v>
       </c>
-      <c r="W19" s="52"/>
-      <c r="X19" s="52"/>
-      <c r="Y19" s="83">
+      <c r="W19" s="33"/>
+      <c r="X19" s="33"/>
+      <c r="Y19" s="40">
         <v>0.8</v>
       </c>
-      <c r="Z19" s="84"/>
-      <c r="AA19" s="85"/>
+      <c r="Z19" s="41"/>
+      <c r="AA19" s="42"/>
       <c r="AB19" s="4"/>
       <c r="AC19" s="4"/>
       <c r="AD19" s="4"/>
@@ -2823,33 +2842,33 @@
       <c r="BE19" s="4"/>
     </row>
     <row r="20" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="64"/>
-      <c r="B20" s="66"/>
-      <c r="C20" s="75"/>
-      <c r="D20" s="76"/>
-      <c r="E20" s="76"/>
-      <c r="F20" s="76"/>
-      <c r="G20" s="77"/>
-      <c r="H20" s="54"/>
-      <c r="I20" s="55"/>
-      <c r="J20" s="55"/>
-      <c r="K20" s="55"/>
-      <c r="L20" s="55"/>
-      <c r="M20" s="55"/>
-      <c r="N20" s="55"/>
-      <c r="O20" s="67"/>
-      <c r="P20" s="68"/>
-      <c r="Q20" s="65"/>
-      <c r="R20" s="66"/>
-      <c r="S20" s="69"/>
-      <c r="T20" s="70"/>
-      <c r="U20" s="71"/>
-      <c r="V20" s="69"/>
-      <c r="W20" s="70"/>
-      <c r="X20" s="71"/>
-      <c r="Y20" s="64"/>
-      <c r="Z20" s="65"/>
-      <c r="AA20" s="66"/>
+      <c r="A20" s="30"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="50"/>
+      <c r="D20" s="51"/>
+      <c r="E20" s="51"/>
+      <c r="F20" s="51"/>
+      <c r="G20" s="52"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="57"/>
+      <c r="J20" s="57"/>
+      <c r="K20" s="57"/>
+      <c r="L20" s="57"/>
+      <c r="M20" s="57"/>
+      <c r="N20" s="57"/>
+      <c r="O20" s="58"/>
+      <c r="P20" s="39"/>
+      <c r="Q20" s="31"/>
+      <c r="R20" s="46"/>
+      <c r="S20" s="59"/>
+      <c r="T20" s="48"/>
+      <c r="U20" s="60"/>
+      <c r="V20" s="59"/>
+      <c r="W20" s="48"/>
+      <c r="X20" s="60"/>
+      <c r="Y20" s="30"/>
+      <c r="Z20" s="31"/>
+      <c r="AA20" s="46"/>
       <c r="AB20" s="4"/>
       <c r="AC20" s="4"/>
       <c r="AD20" s="4"/>
@@ -2882,37 +2901,39 @@
       <c r="BE20" s="4"/>
     </row>
     <row r="21" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="64"/>
-      <c r="B21" s="66"/>
-      <c r="C21" s="50" t="s">
+      <c r="A21" s="30"/>
+      <c r="B21" s="46"/>
+      <c r="C21" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="D21" s="50"/>
-      <c r="E21" s="50"/>
-      <c r="F21" s="50"/>
-      <c r="G21" s="50"/>
-      <c r="H21" s="72"/>
-      <c r="I21" s="73"/>
-      <c r="J21" s="73"/>
-      <c r="K21" s="73"/>
-      <c r="L21" s="73"/>
-      <c r="M21" s="73"/>
-      <c r="N21" s="73"/>
-      <c r="O21" s="74"/>
-      <c r="P21" s="50" t="s">
+      <c r="D21" s="43"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="43"/>
+      <c r="H21" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="I21" s="36"/>
+      <c r="J21" s="36"/>
+      <c r="K21" s="36"/>
+      <c r="L21" s="36"/>
+      <c r="M21" s="36"/>
+      <c r="N21" s="36"/>
+      <c r="O21" s="37"/>
+      <c r="P21" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="Q21" s="50"/>
-      <c r="R21" s="50"/>
-      <c r="S21" s="52"/>
-      <c r="T21" s="52"/>
-      <c r="U21" s="52"/>
-      <c r="V21" s="52"/>
-      <c r="W21" s="52"/>
-      <c r="X21" s="52"/>
-      <c r="Y21" s="49"/>
-      <c r="Z21" s="49"/>
-      <c r="AA21" s="49"/>
+      <c r="Q21" s="43"/>
+      <c r="R21" s="43"/>
+      <c r="S21" s="33"/>
+      <c r="T21" s="33"/>
+      <c r="U21" s="33"/>
+      <c r="V21" s="33"/>
+      <c r="W21" s="33"/>
+      <c r="X21" s="33"/>
+      <c r="Y21" s="34"/>
+      <c r="Z21" s="34"/>
+      <c r="AA21" s="34"/>
       <c r="AB21" s="4"/>
       <c r="AC21" s="4"/>
       <c r="AD21" s="4"/>
@@ -2947,39 +2968,39 @@
     <row r="22" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="10"/>
       <c r="B22" s="12"/>
-      <c r="C22" s="64"/>
-      <c r="D22" s="65"/>
-      <c r="E22" s="65"/>
-      <c r="F22" s="65"/>
-      <c r="G22" s="66"/>
-      <c r="H22" s="72" t="s">
+      <c r="C22" s="30"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="46"/>
+      <c r="H22" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="I22" s="73"/>
-      <c r="J22" s="73"/>
-      <c r="K22" s="73"/>
-      <c r="L22" s="73"/>
-      <c r="M22" s="73"/>
-      <c r="N22" s="73"/>
-      <c r="O22" s="74"/>
-      <c r="P22" s="64"/>
-      <c r="Q22" s="65"/>
-      <c r="R22" s="79"/>
-      <c r="S22" s="52">
+      <c r="I22" s="36"/>
+      <c r="J22" s="36"/>
+      <c r="K22" s="36"/>
+      <c r="L22" s="36"/>
+      <c r="M22" s="36"/>
+      <c r="N22" s="36"/>
+      <c r="O22" s="37"/>
+      <c r="P22" s="30"/>
+      <c r="Q22" s="31"/>
+      <c r="R22" s="32"/>
+      <c r="S22" s="33">
         <v>45085</v>
       </c>
-      <c r="T22" s="52"/>
-      <c r="U22" s="52"/>
-      <c r="V22" s="52">
+      <c r="T22" s="33"/>
+      <c r="U22" s="33"/>
+      <c r="V22" s="33">
         <v>45086</v>
       </c>
-      <c r="W22" s="52"/>
-      <c r="X22" s="52"/>
-      <c r="Y22" s="49" t="s">
+      <c r="W22" s="33"/>
+      <c r="X22" s="33"/>
+      <c r="Y22" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="Z22" s="49"/>
-      <c r="AA22" s="49"/>
+      <c r="Z22" s="34"/>
+      <c r="AA22" s="34"/>
       <c r="AB22" s="4"/>
       <c r="AC22" s="4"/>
       <c r="AD22" s="4"/>
@@ -3019,34 +3040,34 @@
       <c r="E23" s="11"/>
       <c r="F23" s="11"/>
       <c r="G23" s="12"/>
-      <c r="H23" s="72" t="s">
+      <c r="H23" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="I23" s="73"/>
-      <c r="J23" s="73"/>
-      <c r="K23" s="73"/>
-      <c r="L23" s="73"/>
-      <c r="M23" s="73"/>
-      <c r="N23" s="73"/>
-      <c r="O23" s="74"/>
-      <c r="P23" s="64"/>
-      <c r="Q23" s="65"/>
-      <c r="R23" s="79"/>
-      <c r="S23" s="52">
+      <c r="I23" s="36"/>
+      <c r="J23" s="36"/>
+      <c r="K23" s="36"/>
+      <c r="L23" s="36"/>
+      <c r="M23" s="36"/>
+      <c r="N23" s="36"/>
+      <c r="O23" s="37"/>
+      <c r="P23" s="30"/>
+      <c r="Q23" s="31"/>
+      <c r="R23" s="32"/>
+      <c r="S23" s="33">
         <v>45085</v>
       </c>
-      <c r="T23" s="52"/>
-      <c r="U23" s="52"/>
-      <c r="V23" s="52">
+      <c r="T23" s="33"/>
+      <c r="U23" s="33"/>
+      <c r="V23" s="33">
         <v>45086</v>
       </c>
-      <c r="W23" s="52"/>
-      <c r="X23" s="52"/>
-      <c r="Y23" s="49" t="s">
+      <c r="W23" s="33"/>
+      <c r="X23" s="33"/>
+      <c r="Y23" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="Z23" s="49"/>
-      <c r="AA23" s="49"/>
+      <c r="Z23" s="34"/>
+      <c r="AA23" s="34"/>
       <c r="AB23" s="4"/>
       <c r="AC23" s="4"/>
       <c r="AD23" s="4"/>
@@ -3079,33 +3100,33 @@
       <c r="BE23" s="4"/>
     </row>
     <row r="24" spans="1:57" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="64"/>
-      <c r="B24" s="66"/>
-      <c r="C24" s="64"/>
-      <c r="D24" s="65"/>
-      <c r="E24" s="65"/>
-      <c r="F24" s="65"/>
-      <c r="G24" s="66"/>
-      <c r="H24" s="64"/>
-      <c r="I24" s="65"/>
-      <c r="J24" s="65"/>
-      <c r="K24" s="65"/>
-      <c r="L24" s="65"/>
-      <c r="M24" s="65"/>
-      <c r="N24" s="65"/>
-      <c r="O24" s="66"/>
-      <c r="P24" s="64"/>
-      <c r="Q24" s="65"/>
-      <c r="R24" s="79"/>
-      <c r="S24" s="80"/>
-      <c r="T24" s="70"/>
-      <c r="U24" s="81"/>
-      <c r="V24" s="80"/>
-      <c r="W24" s="70"/>
-      <c r="X24" s="81"/>
-      <c r="Y24" s="68"/>
-      <c r="Z24" s="65"/>
-      <c r="AA24" s="66"/>
+      <c r="A24" s="30"/>
+      <c r="B24" s="46"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="46"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="31"/>
+      <c r="J24" s="31"/>
+      <c r="K24" s="31"/>
+      <c r="L24" s="31"/>
+      <c r="M24" s="31"/>
+      <c r="N24" s="31"/>
+      <c r="O24" s="46"/>
+      <c r="P24" s="30"/>
+      <c r="Q24" s="31"/>
+      <c r="R24" s="32"/>
+      <c r="S24" s="47"/>
+      <c r="T24" s="48"/>
+      <c r="U24" s="49"/>
+      <c r="V24" s="47"/>
+      <c r="W24" s="48"/>
+      <c r="X24" s="49"/>
+      <c r="Y24" s="39"/>
+      <c r="Z24" s="31"/>
+      <c r="AA24" s="46"/>
       <c r="AB24" s="4"/>
       <c r="AC24" s="4"/>
       <c r="AD24" s="4"/>
@@ -3138,41 +3159,41 @@
       <c r="BE24" s="4"/>
     </row>
     <row r="25" spans="1:57" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="49"/>
-      <c r="B25" s="49"/>
-      <c r="C25" s="50" t="s">
+      <c r="A25" s="34"/>
+      <c r="B25" s="34"/>
+      <c r="C25" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="D25" s="50"/>
-      <c r="E25" s="50"/>
-      <c r="F25" s="50"/>
-      <c r="G25" s="50"/>
-      <c r="H25" s="50"/>
-      <c r="I25" s="50"/>
-      <c r="J25" s="50"/>
-      <c r="K25" s="50"/>
-      <c r="L25" s="50"/>
-      <c r="M25" s="50"/>
-      <c r="N25" s="50"/>
-      <c r="O25" s="50"/>
-      <c r="P25" s="50" t="s">
+      <c r="D25" s="43"/>
+      <c r="E25" s="43"/>
+      <c r="F25" s="43"/>
+      <c r="G25" s="43"/>
+      <c r="H25" s="43"/>
+      <c r="I25" s="43"/>
+      <c r="J25" s="43"/>
+      <c r="K25" s="43"/>
+      <c r="L25" s="43"/>
+      <c r="M25" s="43"/>
+      <c r="N25" s="43"/>
+      <c r="O25" s="43"/>
+      <c r="P25" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="Q25" s="50"/>
-      <c r="R25" s="50"/>
-      <c r="S25" s="52">
+      <c r="Q25" s="43"/>
+      <c r="R25" s="43"/>
+      <c r="S25" s="33">
         <v>45089</v>
       </c>
-      <c r="T25" s="52"/>
-      <c r="U25" s="52"/>
-      <c r="V25" s="52">
+      <c r="T25" s="33"/>
+      <c r="U25" s="33"/>
+      <c r="V25" s="33">
         <v>45100</v>
       </c>
-      <c r="W25" s="52"/>
-      <c r="X25" s="52"/>
-      <c r="Y25" s="49"/>
-      <c r="Z25" s="49"/>
-      <c r="AA25" s="49"/>
+      <c r="W25" s="33"/>
+      <c r="X25" s="33"/>
+      <c r="Y25" s="34"/>
+      <c r="Z25" s="34"/>
+      <c r="AA25" s="34"/>
       <c r="AB25" s="4"/>
       <c r="AC25" s="4"/>
       <c r="AD25" s="4"/>
@@ -3205,33 +3226,33 @@
       <c r="BE25" s="4"/>
     </row>
     <row r="26" spans="1:57" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="49"/>
-      <c r="B26" s="49"/>
-      <c r="C26" s="50"/>
-      <c r="D26" s="50"/>
-      <c r="E26" s="50"/>
-      <c r="F26" s="50"/>
-      <c r="G26" s="50"/>
-      <c r="H26" s="50"/>
-      <c r="I26" s="50"/>
-      <c r="J26" s="50"/>
-      <c r="K26" s="50"/>
-      <c r="L26" s="50"/>
-      <c r="M26" s="50"/>
-      <c r="N26" s="50"/>
-      <c r="O26" s="50"/>
-      <c r="P26" s="50"/>
-      <c r="Q26" s="50"/>
-      <c r="R26" s="50"/>
-      <c r="S26" s="52"/>
-      <c r="T26" s="52"/>
-      <c r="U26" s="52"/>
-      <c r="V26" s="52"/>
-      <c r="W26" s="52"/>
-      <c r="X26" s="52"/>
-      <c r="Y26" s="49"/>
-      <c r="Z26" s="49"/>
-      <c r="AA26" s="49"/>
+      <c r="A26" s="34"/>
+      <c r="B26" s="34"/>
+      <c r="C26" s="43"/>
+      <c r="D26" s="43"/>
+      <c r="E26" s="43"/>
+      <c r="F26" s="43"/>
+      <c r="G26" s="43"/>
+      <c r="H26" s="43"/>
+      <c r="I26" s="43"/>
+      <c r="J26" s="43"/>
+      <c r="K26" s="43"/>
+      <c r="L26" s="43"/>
+      <c r="M26" s="43"/>
+      <c r="N26" s="43"/>
+      <c r="O26" s="43"/>
+      <c r="P26" s="43"/>
+      <c r="Q26" s="43"/>
+      <c r="R26" s="43"/>
+      <c r="S26" s="33"/>
+      <c r="T26" s="33"/>
+      <c r="U26" s="33"/>
+      <c r="V26" s="33"/>
+      <c r="W26" s="33"/>
+      <c r="X26" s="33"/>
+      <c r="Y26" s="34"/>
+      <c r="Z26" s="34"/>
+      <c r="AA26" s="34"/>
       <c r="AB26" s="4"/>
       <c r="AC26" s="4"/>
       <c r="AD26" s="4"/>
@@ -3264,33 +3285,33 @@
       <c r="BE26" s="4"/>
     </row>
     <row r="27" spans="1:57" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="49"/>
-      <c r="B27" s="49"/>
-      <c r="C27" s="50"/>
-      <c r="D27" s="50"/>
-      <c r="E27" s="50"/>
-      <c r="F27" s="50"/>
-      <c r="G27" s="50"/>
-      <c r="H27" s="50"/>
-      <c r="I27" s="50"/>
-      <c r="J27" s="50"/>
-      <c r="K27" s="50"/>
-      <c r="L27" s="50"/>
-      <c r="M27" s="50"/>
-      <c r="N27" s="50"/>
-      <c r="O27" s="50"/>
-      <c r="P27" s="50"/>
-      <c r="Q27" s="50"/>
-      <c r="R27" s="50"/>
-      <c r="S27" s="52"/>
-      <c r="T27" s="52"/>
-      <c r="U27" s="52"/>
-      <c r="V27" s="52"/>
-      <c r="W27" s="52"/>
-      <c r="X27" s="52"/>
-      <c r="Y27" s="49"/>
-      <c r="Z27" s="49"/>
-      <c r="AA27" s="49"/>
+      <c r="A27" s="34"/>
+      <c r="B27" s="34"/>
+      <c r="C27" s="43"/>
+      <c r="D27" s="43"/>
+      <c r="E27" s="43"/>
+      <c r="F27" s="43"/>
+      <c r="G27" s="43"/>
+      <c r="H27" s="43"/>
+      <c r="I27" s="43"/>
+      <c r="J27" s="43"/>
+      <c r="K27" s="43"/>
+      <c r="L27" s="43"/>
+      <c r="M27" s="43"/>
+      <c r="N27" s="43"/>
+      <c r="O27" s="43"/>
+      <c r="P27" s="43"/>
+      <c r="Q27" s="43"/>
+      <c r="R27" s="43"/>
+      <c r="S27" s="33"/>
+      <c r="T27" s="33"/>
+      <c r="U27" s="33"/>
+      <c r="V27" s="33"/>
+      <c r="W27" s="33"/>
+      <c r="X27" s="33"/>
+      <c r="Y27" s="34"/>
+      <c r="Z27" s="34"/>
+      <c r="AA27" s="34"/>
       <c r="AB27" s="4"/>
       <c r="AC27" s="4"/>
       <c r="AD27" s="4"/>
@@ -3322,41 +3343,41 @@
       <c r="BE27" s="4"/>
     </row>
     <row r="28" spans="1:57" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="49"/>
-      <c r="B28" s="49"/>
-      <c r="C28" s="50" t="s">
+      <c r="A28" s="34"/>
+      <c r="B28" s="34"/>
+      <c r="C28" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="D28" s="50"/>
-      <c r="E28" s="50"/>
-      <c r="F28" s="50"/>
-      <c r="G28" s="50"/>
-      <c r="H28" s="50"/>
-      <c r="I28" s="50"/>
-      <c r="J28" s="50"/>
-      <c r="K28" s="50"/>
-      <c r="L28" s="50"/>
-      <c r="M28" s="50"/>
-      <c r="N28" s="50"/>
-      <c r="O28" s="50"/>
-      <c r="P28" s="50" t="s">
+      <c r="D28" s="43"/>
+      <c r="E28" s="43"/>
+      <c r="F28" s="43"/>
+      <c r="G28" s="43"/>
+      <c r="H28" s="43"/>
+      <c r="I28" s="43"/>
+      <c r="J28" s="43"/>
+      <c r="K28" s="43"/>
+      <c r="L28" s="43"/>
+      <c r="M28" s="43"/>
+      <c r="N28" s="43"/>
+      <c r="O28" s="43"/>
+      <c r="P28" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="Q28" s="50"/>
-      <c r="R28" s="50"/>
-      <c r="S28" s="52">
+      <c r="Q28" s="43"/>
+      <c r="R28" s="43"/>
+      <c r="S28" s="33">
         <v>45096</v>
       </c>
-      <c r="T28" s="52"/>
-      <c r="U28" s="52"/>
-      <c r="V28" s="52">
+      <c r="T28" s="33"/>
+      <c r="U28" s="33"/>
+      <c r="V28" s="33">
         <v>45100</v>
       </c>
-      <c r="W28" s="52"/>
-      <c r="X28" s="52"/>
-      <c r="Y28" s="49"/>
-      <c r="Z28" s="49"/>
-      <c r="AA28" s="49"/>
+      <c r="W28" s="33"/>
+      <c r="X28" s="33"/>
+      <c r="Y28" s="34"/>
+      <c r="Z28" s="34"/>
+      <c r="AA28" s="34"/>
       <c r="AB28" s="4"/>
       <c r="AC28" s="4"/>
       <c r="AD28" s="4"/>
@@ -3389,41 +3410,41 @@
       <c r="BE28" s="4"/>
     </row>
     <row r="29" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="49"/>
-      <c r="B29" s="49"/>
-      <c r="C29" s="50" t="s">
+      <c r="A29" s="34"/>
+      <c r="B29" s="34"/>
+      <c r="C29" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="D29" s="50"/>
-      <c r="E29" s="50"/>
-      <c r="F29" s="50"/>
-      <c r="G29" s="50"/>
-      <c r="H29" s="50"/>
-      <c r="I29" s="50"/>
-      <c r="J29" s="50"/>
-      <c r="K29" s="50"/>
-      <c r="L29" s="50"/>
-      <c r="M29" s="50"/>
-      <c r="N29" s="50"/>
-      <c r="O29" s="50"/>
-      <c r="P29" s="50" t="s">
+      <c r="D29" s="43"/>
+      <c r="E29" s="43"/>
+      <c r="F29" s="43"/>
+      <c r="G29" s="43"/>
+      <c r="H29" s="43"/>
+      <c r="I29" s="43"/>
+      <c r="J29" s="43"/>
+      <c r="K29" s="43"/>
+      <c r="L29" s="43"/>
+      <c r="M29" s="43"/>
+      <c r="N29" s="43"/>
+      <c r="O29" s="43"/>
+      <c r="P29" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="Q29" s="50"/>
-      <c r="R29" s="50"/>
-      <c r="S29" s="52">
+      <c r="Q29" s="43"/>
+      <c r="R29" s="43"/>
+      <c r="S29" s="33">
         <v>45096</v>
       </c>
-      <c r="T29" s="52"/>
-      <c r="U29" s="52"/>
-      <c r="V29" s="52">
+      <c r="T29" s="33"/>
+      <c r="U29" s="33"/>
+      <c r="V29" s="33">
         <v>45100</v>
       </c>
-      <c r="W29" s="52"/>
-      <c r="X29" s="52"/>
-      <c r="Y29" s="49"/>
-      <c r="Z29" s="49"/>
-      <c r="AA29" s="49"/>
+      <c r="W29" s="33"/>
+      <c r="X29" s="33"/>
+      <c r="Y29" s="34"/>
+      <c r="Z29" s="34"/>
+      <c r="AA29" s="34"/>
       <c r="AB29" s="4"/>
       <c r="AC29" s="4"/>
       <c r="AD29" s="4"/>
@@ -3455,41 +3476,41 @@
       <c r="BE29" s="4"/>
     </row>
     <row r="30" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="49"/>
-      <c r="B30" s="49"/>
-      <c r="C30" s="50" t="s">
+      <c r="A30" s="34"/>
+      <c r="B30" s="34"/>
+      <c r="C30" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="D30" s="50"/>
-      <c r="E30" s="50"/>
-      <c r="F30" s="50"/>
-      <c r="G30" s="50"/>
-      <c r="H30" s="50"/>
-      <c r="I30" s="50"/>
-      <c r="J30" s="50"/>
-      <c r="K30" s="50"/>
-      <c r="L30" s="50"/>
-      <c r="M30" s="50"/>
-      <c r="N30" s="50"/>
-      <c r="O30" s="50"/>
-      <c r="P30" s="50" t="s">
+      <c r="D30" s="43"/>
+      <c r="E30" s="43"/>
+      <c r="F30" s="43"/>
+      <c r="G30" s="43"/>
+      <c r="H30" s="43"/>
+      <c r="I30" s="43"/>
+      <c r="J30" s="43"/>
+      <c r="K30" s="43"/>
+      <c r="L30" s="43"/>
+      <c r="M30" s="43"/>
+      <c r="N30" s="43"/>
+      <c r="O30" s="43"/>
+      <c r="P30" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="Q30" s="50"/>
-      <c r="R30" s="50"/>
-      <c r="S30" s="52">
+      <c r="Q30" s="43"/>
+      <c r="R30" s="43"/>
+      <c r="S30" s="33">
         <v>45103</v>
       </c>
-      <c r="T30" s="52"/>
-      <c r="U30" s="52"/>
-      <c r="V30" s="52">
+      <c r="T30" s="33"/>
+      <c r="U30" s="33"/>
+      <c r="V30" s="33">
         <v>45105</v>
       </c>
-      <c r="W30" s="52"/>
-      <c r="X30" s="52"/>
-      <c r="Y30" s="49"/>
-      <c r="Z30" s="49"/>
-      <c r="AA30" s="49"/>
+      <c r="W30" s="33"/>
+      <c r="X30" s="33"/>
+      <c r="Y30" s="34"/>
+      <c r="Z30" s="34"/>
+      <c r="AA30" s="34"/>
       <c r="AB30" s="4"/>
       <c r="AC30" s="4"/>
       <c r="AD30" s="4"/>
@@ -3522,41 +3543,41 @@
       <c r="BE30" s="4"/>
     </row>
     <row r="31" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="49"/>
-      <c r="B31" s="49"/>
-      <c r="C31" s="50" t="s">
+      <c r="A31" s="34"/>
+      <c r="B31" s="34"/>
+      <c r="C31" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="D31" s="50"/>
-      <c r="E31" s="50"/>
-      <c r="F31" s="50"/>
-      <c r="G31" s="50"/>
-      <c r="H31" s="50"/>
-      <c r="I31" s="50"/>
-      <c r="J31" s="50"/>
-      <c r="K31" s="50"/>
-      <c r="L31" s="50"/>
-      <c r="M31" s="50"/>
-      <c r="N31" s="50"/>
-      <c r="O31" s="50"/>
-      <c r="P31" s="50" t="s">
+      <c r="D31" s="43"/>
+      <c r="E31" s="43"/>
+      <c r="F31" s="43"/>
+      <c r="G31" s="43"/>
+      <c r="H31" s="43"/>
+      <c r="I31" s="43"/>
+      <c r="J31" s="43"/>
+      <c r="K31" s="43"/>
+      <c r="L31" s="43"/>
+      <c r="M31" s="43"/>
+      <c r="N31" s="43"/>
+      <c r="O31" s="43"/>
+      <c r="P31" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="Q31" s="50"/>
-      <c r="R31" s="50"/>
-      <c r="S31" s="52">
+      <c r="Q31" s="43"/>
+      <c r="R31" s="43"/>
+      <c r="S31" s="33">
         <v>45089</v>
       </c>
-      <c r="T31" s="52"/>
-      <c r="U31" s="52"/>
-      <c r="V31" s="52">
+      <c r="T31" s="33"/>
+      <c r="U31" s="33"/>
+      <c r="V31" s="33">
         <v>45105</v>
       </c>
-      <c r="W31" s="52"/>
-      <c r="X31" s="52"/>
-      <c r="Y31" s="49"/>
-      <c r="Z31" s="49"/>
-      <c r="AA31" s="49"/>
+      <c r="W31" s="33"/>
+      <c r="X31" s="33"/>
+      <c r="Y31" s="34"/>
+      <c r="Z31" s="34"/>
+      <c r="AA31" s="34"/>
       <c r="AB31" s="4"/>
       <c r="AC31" s="4"/>
       <c r="AD31" s="4"/>
@@ -3589,33 +3610,33 @@
       <c r="BE31" s="4"/>
     </row>
     <row r="32" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="49"/>
-      <c r="B32" s="49"/>
-      <c r="C32" s="50"/>
-      <c r="D32" s="50"/>
-      <c r="E32" s="50"/>
-      <c r="F32" s="50"/>
-      <c r="G32" s="50"/>
-      <c r="H32" s="50"/>
-      <c r="I32" s="50"/>
-      <c r="J32" s="50"/>
-      <c r="K32" s="50"/>
-      <c r="L32" s="50"/>
-      <c r="M32" s="50"/>
-      <c r="N32" s="50"/>
-      <c r="O32" s="50"/>
-      <c r="P32" s="50"/>
-      <c r="Q32" s="50"/>
-      <c r="R32" s="50"/>
-      <c r="S32" s="52"/>
-      <c r="T32" s="52"/>
-      <c r="U32" s="52"/>
-      <c r="V32" s="52"/>
-      <c r="W32" s="52"/>
-      <c r="X32" s="52"/>
-      <c r="Y32" s="49"/>
-      <c r="Z32" s="49"/>
-      <c r="AA32" s="49"/>
+      <c r="A32" s="34"/>
+      <c r="B32" s="34"/>
+      <c r="C32" s="43"/>
+      <c r="D32" s="43"/>
+      <c r="E32" s="43"/>
+      <c r="F32" s="43"/>
+      <c r="G32" s="43"/>
+      <c r="H32" s="43"/>
+      <c r="I32" s="43"/>
+      <c r="J32" s="43"/>
+      <c r="K32" s="43"/>
+      <c r="L32" s="43"/>
+      <c r="M32" s="43"/>
+      <c r="N32" s="43"/>
+      <c r="O32" s="43"/>
+      <c r="P32" s="43"/>
+      <c r="Q32" s="43"/>
+      <c r="R32" s="43"/>
+      <c r="S32" s="33"/>
+      <c r="T32" s="33"/>
+      <c r="U32" s="33"/>
+      <c r="V32" s="33"/>
+      <c r="W32" s="33"/>
+      <c r="X32" s="33"/>
+      <c r="Y32" s="34"/>
+      <c r="Z32" s="34"/>
+      <c r="AA32" s="34"/>
       <c r="AB32" s="4"/>
       <c r="AC32" s="4"/>
       <c r="AD32" s="4"/>
@@ -3648,35 +3669,35 @@
       <c r="BE32" s="4"/>
     </row>
     <row r="33" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="49"/>
-      <c r="B33" s="49"/>
-      <c r="C33" s="50" t="s">
+      <c r="A33" s="34"/>
+      <c r="B33" s="34"/>
+      <c r="C33" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="D33" s="50"/>
-      <c r="E33" s="50"/>
-      <c r="F33" s="50"/>
-      <c r="G33" s="50"/>
-      <c r="H33" s="50"/>
-      <c r="I33" s="50"/>
-      <c r="J33" s="50"/>
-      <c r="K33" s="50"/>
-      <c r="L33" s="50"/>
-      <c r="M33" s="50"/>
-      <c r="N33" s="50"/>
-      <c r="O33" s="50"/>
-      <c r="P33" s="50"/>
-      <c r="Q33" s="50"/>
-      <c r="R33" s="50"/>
-      <c r="S33" s="52"/>
-      <c r="T33" s="52"/>
-      <c r="U33" s="52"/>
-      <c r="V33" s="52"/>
-      <c r="W33" s="52"/>
-      <c r="X33" s="52"/>
-      <c r="Y33" s="49"/>
-      <c r="Z33" s="49"/>
-      <c r="AA33" s="49"/>
+      <c r="D33" s="43"/>
+      <c r="E33" s="43"/>
+      <c r="F33" s="43"/>
+      <c r="G33" s="43"/>
+      <c r="H33" s="43"/>
+      <c r="I33" s="43"/>
+      <c r="J33" s="43"/>
+      <c r="K33" s="43"/>
+      <c r="L33" s="43"/>
+      <c r="M33" s="43"/>
+      <c r="N33" s="43"/>
+      <c r="O33" s="43"/>
+      <c r="P33" s="43"/>
+      <c r="Q33" s="43"/>
+      <c r="R33" s="43"/>
+      <c r="S33" s="33"/>
+      <c r="T33" s="33"/>
+      <c r="U33" s="33"/>
+      <c r="V33" s="33"/>
+      <c r="W33" s="33"/>
+      <c r="X33" s="33"/>
+      <c r="Y33" s="34"/>
+      <c r="Z33" s="34"/>
+      <c r="AA33" s="34"/>
       <c r="AB33" s="4"/>
       <c r="AC33" s="4"/>
       <c r="AD33" s="4"/>
@@ -3709,33 +3730,33 @@
       <c r="BE33" s="9"/>
     </row>
     <row r="34" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="49"/>
-      <c r="B34" s="49"/>
-      <c r="C34" s="50"/>
-      <c r="D34" s="50"/>
-      <c r="E34" s="50"/>
-      <c r="F34" s="50"/>
-      <c r="G34" s="50"/>
-      <c r="H34" s="50"/>
-      <c r="I34" s="50"/>
-      <c r="J34" s="50"/>
-      <c r="K34" s="50"/>
-      <c r="L34" s="50"/>
-      <c r="M34" s="50"/>
-      <c r="N34" s="50"/>
-      <c r="O34" s="50"/>
-      <c r="P34" s="50"/>
-      <c r="Q34" s="50"/>
-      <c r="R34" s="50"/>
-      <c r="S34" s="52"/>
-      <c r="T34" s="52"/>
-      <c r="U34" s="52"/>
-      <c r="V34" s="52"/>
-      <c r="W34" s="52"/>
-      <c r="X34" s="52"/>
-      <c r="Y34" s="49"/>
-      <c r="Z34" s="49"/>
-      <c r="AA34" s="49"/>
+      <c r="A34" s="34"/>
+      <c r="B34" s="34"/>
+      <c r="C34" s="43"/>
+      <c r="D34" s="43"/>
+      <c r="E34" s="43"/>
+      <c r="F34" s="43"/>
+      <c r="G34" s="43"/>
+      <c r="H34" s="43"/>
+      <c r="I34" s="43"/>
+      <c r="J34" s="43"/>
+      <c r="K34" s="43"/>
+      <c r="L34" s="43"/>
+      <c r="M34" s="43"/>
+      <c r="N34" s="43"/>
+      <c r="O34" s="43"/>
+      <c r="P34" s="43"/>
+      <c r="Q34" s="43"/>
+      <c r="R34" s="43"/>
+      <c r="S34" s="33"/>
+      <c r="T34" s="33"/>
+      <c r="U34" s="33"/>
+      <c r="V34" s="33"/>
+      <c r="W34" s="33"/>
+      <c r="X34" s="33"/>
+      <c r="Y34" s="34"/>
+      <c r="Z34" s="34"/>
+      <c r="AA34" s="34"/>
       <c r="AB34" s="4"/>
       <c r="AC34" s="4"/>
       <c r="AD34" s="4"/>
@@ -3768,33 +3789,33 @@
       <c r="BE34" s="22"/>
     </row>
     <row r="35" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="49"/>
-      <c r="B35" s="49"/>
-      <c r="C35" s="50"/>
-      <c r="D35" s="50"/>
-      <c r="E35" s="50"/>
-      <c r="F35" s="50"/>
-      <c r="G35" s="50"/>
-      <c r="H35" s="50"/>
-      <c r="I35" s="50"/>
-      <c r="J35" s="50"/>
-      <c r="K35" s="50"/>
-      <c r="L35" s="50"/>
-      <c r="M35" s="50"/>
-      <c r="N35" s="50"/>
-      <c r="O35" s="50"/>
-      <c r="P35" s="50"/>
-      <c r="Q35" s="50"/>
-      <c r="R35" s="50"/>
-      <c r="S35" s="52"/>
-      <c r="T35" s="52"/>
-      <c r="U35" s="52"/>
-      <c r="V35" s="52"/>
-      <c r="W35" s="52"/>
-      <c r="X35" s="52"/>
-      <c r="Y35" s="49"/>
-      <c r="Z35" s="49"/>
-      <c r="AA35" s="49"/>
+      <c r="A35" s="34"/>
+      <c r="B35" s="34"/>
+      <c r="C35" s="43"/>
+      <c r="D35" s="43"/>
+      <c r="E35" s="43"/>
+      <c r="F35" s="43"/>
+      <c r="G35" s="43"/>
+      <c r="H35" s="43"/>
+      <c r="I35" s="43"/>
+      <c r="J35" s="43"/>
+      <c r="K35" s="43"/>
+      <c r="L35" s="43"/>
+      <c r="M35" s="43"/>
+      <c r="N35" s="43"/>
+      <c r="O35" s="43"/>
+      <c r="P35" s="43"/>
+      <c r="Q35" s="43"/>
+      <c r="R35" s="43"/>
+      <c r="S35" s="33"/>
+      <c r="T35" s="33"/>
+      <c r="U35" s="33"/>
+      <c r="V35" s="33"/>
+      <c r="W35" s="33"/>
+      <c r="X35" s="33"/>
+      <c r="Y35" s="34"/>
+      <c r="Z35" s="34"/>
+      <c r="AA35" s="34"/>
       <c r="AB35" s="4"/>
       <c r="AC35" s="4"/>
       <c r="AD35" s="4"/>
@@ -3827,33 +3848,33 @@
       <c r="BE35" s="4"/>
     </row>
     <row r="36" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="49"/>
-      <c r="B36" s="49"/>
-      <c r="C36" s="50"/>
-      <c r="D36" s="50"/>
-      <c r="E36" s="50"/>
-      <c r="F36" s="50"/>
-      <c r="G36" s="50"/>
-      <c r="H36" s="50"/>
-      <c r="I36" s="50"/>
-      <c r="J36" s="50"/>
-      <c r="K36" s="50"/>
-      <c r="L36" s="50"/>
-      <c r="M36" s="50"/>
-      <c r="N36" s="50"/>
-      <c r="O36" s="50"/>
-      <c r="P36" s="50"/>
-      <c r="Q36" s="50"/>
-      <c r="R36" s="50"/>
-      <c r="S36" s="52"/>
-      <c r="T36" s="52"/>
-      <c r="U36" s="52"/>
-      <c r="V36" s="52"/>
-      <c r="W36" s="52"/>
-      <c r="X36" s="52"/>
-      <c r="Y36" s="49"/>
-      <c r="Z36" s="49"/>
-      <c r="AA36" s="49"/>
+      <c r="A36" s="34"/>
+      <c r="B36" s="34"/>
+      <c r="C36" s="43"/>
+      <c r="D36" s="43"/>
+      <c r="E36" s="43"/>
+      <c r="F36" s="43"/>
+      <c r="G36" s="43"/>
+      <c r="H36" s="43"/>
+      <c r="I36" s="43"/>
+      <c r="J36" s="43"/>
+      <c r="K36" s="43"/>
+      <c r="L36" s="43"/>
+      <c r="M36" s="43"/>
+      <c r="N36" s="43"/>
+      <c r="O36" s="43"/>
+      <c r="P36" s="43"/>
+      <c r="Q36" s="43"/>
+      <c r="R36" s="43"/>
+      <c r="S36" s="33"/>
+      <c r="T36" s="33"/>
+      <c r="U36" s="33"/>
+      <c r="V36" s="33"/>
+      <c r="W36" s="33"/>
+      <c r="X36" s="33"/>
+      <c r="Y36" s="34"/>
+      <c r="Z36" s="34"/>
+      <c r="AA36" s="34"/>
       <c r="AB36" s="4"/>
       <c r="AC36" s="4"/>
       <c r="AD36" s="4"/>
@@ -3898,67 +3919,136 @@
     <row r="47" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="215">
-    <mergeCell ref="P23:R23"/>
-    <mergeCell ref="S22:U22"/>
-    <mergeCell ref="S23:U23"/>
-    <mergeCell ref="V22:X22"/>
-    <mergeCell ref="V23:X23"/>
-    <mergeCell ref="Y22:AA22"/>
-    <mergeCell ref="Y23:AA23"/>
-    <mergeCell ref="H23:O23"/>
-    <mergeCell ref="H19:O19"/>
-    <mergeCell ref="P19:R19"/>
-    <mergeCell ref="S19:U19"/>
-    <mergeCell ref="V19:X19"/>
-    <mergeCell ref="Y19:AA19"/>
-    <mergeCell ref="Y12:AA12"/>
-    <mergeCell ref="V12:X12"/>
-    <mergeCell ref="S12:U12"/>
-    <mergeCell ref="P18:R18"/>
-    <mergeCell ref="S18:U18"/>
-    <mergeCell ref="V18:X18"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="Y17:AA17"/>
-    <mergeCell ref="Y10:AA10"/>
-    <mergeCell ref="H17:O17"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="H7:O7"/>
-    <mergeCell ref="P7:R7"/>
-    <mergeCell ref="S7:U7"/>
-    <mergeCell ref="V7:X7"/>
-    <mergeCell ref="Y7:AA7"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="H9:O9"/>
-    <mergeCell ref="P9:R9"/>
-    <mergeCell ref="S9:U9"/>
-    <mergeCell ref="V9:X9"/>
-    <mergeCell ref="Y9:AA9"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="H8:O8"/>
-    <mergeCell ref="P8:R8"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="V8:X8"/>
-    <mergeCell ref="Y8:AA8"/>
-    <mergeCell ref="Y35:AA35"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="H34:O34"/>
-    <mergeCell ref="P34:R34"/>
-    <mergeCell ref="S34:U34"/>
-    <mergeCell ref="V34:X34"/>
-    <mergeCell ref="Y32:AA32"/>
-    <mergeCell ref="Y33:AA33"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="H32:O32"/>
-    <mergeCell ref="P32:R32"/>
-    <mergeCell ref="S32:U32"/>
-    <mergeCell ref="V32:X32"/>
-    <mergeCell ref="H33:O33"/>
-    <mergeCell ref="P33:R33"/>
-    <mergeCell ref="S33:U33"/>
-    <mergeCell ref="V33:X33"/>
+    <mergeCell ref="A1:G2"/>
+    <mergeCell ref="AH1:AN1"/>
+    <mergeCell ref="AH2:AN2"/>
+    <mergeCell ref="AD1:AG1"/>
+    <mergeCell ref="AD2:AG2"/>
+    <mergeCell ref="Y4:AA6"/>
+    <mergeCell ref="C5:G6"/>
+    <mergeCell ref="H5:O6"/>
+    <mergeCell ref="S5:U6"/>
+    <mergeCell ref="V5:X6"/>
+    <mergeCell ref="A4:B6"/>
+    <mergeCell ref="C4:O4"/>
+    <mergeCell ref="P4:R6"/>
+    <mergeCell ref="S4:X4"/>
+    <mergeCell ref="H1:AC2"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="Y11:AA11"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="H11:O11"/>
+    <mergeCell ref="P11:R11"/>
+    <mergeCell ref="S11:U11"/>
+    <mergeCell ref="V11:X11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H13:O13"/>
+    <mergeCell ref="P12:R12"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="V13:X13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:O14"/>
+    <mergeCell ref="P14:R14"/>
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="V14:X14"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H12:O12"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H16:O16"/>
+    <mergeCell ref="P16:R16"/>
+    <mergeCell ref="S16:U16"/>
+    <mergeCell ref="V16:X16"/>
+    <mergeCell ref="Y16:AA16"/>
+    <mergeCell ref="Y13:AA13"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="H15:O15"/>
+    <mergeCell ref="P15:R15"/>
+    <mergeCell ref="S15:U15"/>
+    <mergeCell ref="V15:X15"/>
+    <mergeCell ref="Y15:AA15"/>
+    <mergeCell ref="Y14:AA14"/>
+    <mergeCell ref="P13:R13"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="P17:R17"/>
+    <mergeCell ref="S17:U17"/>
+    <mergeCell ref="V17:X17"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="Y20:AA20"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="H20:O20"/>
+    <mergeCell ref="P20:R20"/>
+    <mergeCell ref="S20:U20"/>
+    <mergeCell ref="V20:X20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="H21:O21"/>
+    <mergeCell ref="S21:U21"/>
+    <mergeCell ref="V21:X21"/>
+    <mergeCell ref="Y21:AA21"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:O22"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H18:O18"/>
+    <mergeCell ref="P21:R21"/>
+    <mergeCell ref="Y18:AA18"/>
+    <mergeCell ref="P22:R22"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:O25"/>
+    <mergeCell ref="P25:R25"/>
+    <mergeCell ref="S25:U25"/>
+    <mergeCell ref="V25:X25"/>
+    <mergeCell ref="Y25:AA25"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:O24"/>
+    <mergeCell ref="P24:R24"/>
+    <mergeCell ref="S24:U24"/>
+    <mergeCell ref="V24:X24"/>
+    <mergeCell ref="Y24:AA24"/>
+    <mergeCell ref="Y26:AA26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:O27"/>
+    <mergeCell ref="P27:R27"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="V27:X27"/>
+    <mergeCell ref="Y27:AA27"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="H26:O26"/>
+    <mergeCell ref="P26:R26"/>
+    <mergeCell ref="S26:U26"/>
+    <mergeCell ref="V26:X26"/>
+    <mergeCell ref="Y28:AA28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="H29:O29"/>
+    <mergeCell ref="P29:R29"/>
+    <mergeCell ref="S29:U29"/>
+    <mergeCell ref="V29:X29"/>
+    <mergeCell ref="Y29:AA29"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H28:O28"/>
+    <mergeCell ref="P28:R28"/>
+    <mergeCell ref="S28:U28"/>
+    <mergeCell ref="V28:X28"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="Y30:AA30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="H31:O31"/>
+    <mergeCell ref="P31:R31"/>
+    <mergeCell ref="S31:U31"/>
+    <mergeCell ref="V31:X31"/>
+    <mergeCell ref="Y31:AA31"/>
+    <mergeCell ref="A30:B30"/>
     <mergeCell ref="Y36:AA36"/>
     <mergeCell ref="C21:G21"/>
     <mergeCell ref="C26:G26"/>
@@ -3983,136 +4073,67 @@
     <mergeCell ref="V30:X30"/>
     <mergeCell ref="A33:B33"/>
     <mergeCell ref="C33:G33"/>
-    <mergeCell ref="Y28:AA28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="H29:O29"/>
-    <mergeCell ref="P29:R29"/>
-    <mergeCell ref="S29:U29"/>
-    <mergeCell ref="V29:X29"/>
-    <mergeCell ref="Y29:AA29"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="H28:O28"/>
-    <mergeCell ref="P28:R28"/>
-    <mergeCell ref="S28:U28"/>
-    <mergeCell ref="V28:X28"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="Y30:AA30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="H31:O31"/>
-    <mergeCell ref="P31:R31"/>
-    <mergeCell ref="S31:U31"/>
-    <mergeCell ref="V31:X31"/>
-    <mergeCell ref="Y31:AA31"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="Y26:AA26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="H27:O27"/>
-    <mergeCell ref="P27:R27"/>
-    <mergeCell ref="S27:U27"/>
-    <mergeCell ref="V27:X27"/>
-    <mergeCell ref="Y27:AA27"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="H26:O26"/>
-    <mergeCell ref="P26:R26"/>
-    <mergeCell ref="S26:U26"/>
-    <mergeCell ref="V26:X26"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="H25:O25"/>
-    <mergeCell ref="P25:R25"/>
-    <mergeCell ref="S25:U25"/>
-    <mergeCell ref="V25:X25"/>
-    <mergeCell ref="Y25:AA25"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="H24:O24"/>
-    <mergeCell ref="P24:R24"/>
-    <mergeCell ref="S24:U24"/>
-    <mergeCell ref="V24:X24"/>
-    <mergeCell ref="Y24:AA24"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="H21:O21"/>
-    <mergeCell ref="S21:U21"/>
-    <mergeCell ref="V21:X21"/>
-    <mergeCell ref="Y21:AA21"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="H22:O22"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="H18:O18"/>
-    <mergeCell ref="P21:R21"/>
-    <mergeCell ref="Y18:AA18"/>
-    <mergeCell ref="P22:R22"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="P17:R17"/>
-    <mergeCell ref="S17:U17"/>
-    <mergeCell ref="V17:X17"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="Y20:AA20"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="H20:O20"/>
-    <mergeCell ref="P20:R20"/>
-    <mergeCell ref="S20:U20"/>
-    <mergeCell ref="V20:X20"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="H16:O16"/>
-    <mergeCell ref="P16:R16"/>
-    <mergeCell ref="S16:U16"/>
-    <mergeCell ref="V16:X16"/>
-    <mergeCell ref="Y16:AA16"/>
-    <mergeCell ref="Y13:AA13"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="H15:O15"/>
-    <mergeCell ref="P15:R15"/>
-    <mergeCell ref="S15:U15"/>
-    <mergeCell ref="V15:X15"/>
-    <mergeCell ref="Y15:AA15"/>
-    <mergeCell ref="Y14:AA14"/>
-    <mergeCell ref="P13:R13"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="H13:O13"/>
-    <mergeCell ref="P12:R12"/>
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="V13:X13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="H14:O14"/>
-    <mergeCell ref="P14:R14"/>
-    <mergeCell ref="S14:U14"/>
-    <mergeCell ref="V14:X14"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="H12:O12"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="Y11:AA11"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="H11:O11"/>
-    <mergeCell ref="P11:R11"/>
-    <mergeCell ref="S11:U11"/>
-    <mergeCell ref="V11:X11"/>
-    <mergeCell ref="A1:G2"/>
-    <mergeCell ref="AH1:AN1"/>
-    <mergeCell ref="AH2:AN2"/>
-    <mergeCell ref="AD1:AG1"/>
-    <mergeCell ref="AD2:AG2"/>
-    <mergeCell ref="Y4:AA6"/>
-    <mergeCell ref="C5:G6"/>
-    <mergeCell ref="H5:O6"/>
-    <mergeCell ref="S5:U6"/>
-    <mergeCell ref="V5:X6"/>
-    <mergeCell ref="A4:B6"/>
-    <mergeCell ref="C4:O4"/>
-    <mergeCell ref="P4:R6"/>
-    <mergeCell ref="S4:X4"/>
-    <mergeCell ref="H1:AC2"/>
+    <mergeCell ref="Y35:AA35"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="H34:O34"/>
+    <mergeCell ref="P34:R34"/>
+    <mergeCell ref="S34:U34"/>
+    <mergeCell ref="V34:X34"/>
+    <mergeCell ref="Y32:AA32"/>
+    <mergeCell ref="Y33:AA33"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H32:O32"/>
+    <mergeCell ref="P32:R32"/>
+    <mergeCell ref="S32:U32"/>
+    <mergeCell ref="V32:X32"/>
+    <mergeCell ref="H33:O33"/>
+    <mergeCell ref="P33:R33"/>
+    <mergeCell ref="S33:U33"/>
+    <mergeCell ref="V33:X33"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="H7:O7"/>
+    <mergeCell ref="P7:R7"/>
+    <mergeCell ref="S7:U7"/>
+    <mergeCell ref="V7:X7"/>
+    <mergeCell ref="Y7:AA7"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="H9:O9"/>
+    <mergeCell ref="P9:R9"/>
+    <mergeCell ref="S9:U9"/>
+    <mergeCell ref="V9:X9"/>
+    <mergeCell ref="Y9:AA9"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H8:O8"/>
+    <mergeCell ref="P8:R8"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="V8:X8"/>
+    <mergeCell ref="Y8:AA8"/>
+    <mergeCell ref="Y12:AA12"/>
+    <mergeCell ref="V12:X12"/>
+    <mergeCell ref="S12:U12"/>
+    <mergeCell ref="P18:R18"/>
+    <mergeCell ref="S18:U18"/>
+    <mergeCell ref="V18:X18"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="Y17:AA17"/>
+    <mergeCell ref="Y10:AA10"/>
+    <mergeCell ref="H17:O17"/>
+    <mergeCell ref="P23:R23"/>
+    <mergeCell ref="S22:U22"/>
+    <mergeCell ref="S23:U23"/>
+    <mergeCell ref="V22:X22"/>
+    <mergeCell ref="V23:X23"/>
+    <mergeCell ref="Y22:AA22"/>
+    <mergeCell ref="Y23:AA23"/>
+    <mergeCell ref="H23:O23"/>
+    <mergeCell ref="H19:O19"/>
+    <mergeCell ref="P19:R19"/>
+    <mergeCell ref="S19:U19"/>
+    <mergeCell ref="V19:X19"/>
+    <mergeCell ref="Y19:AA19"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="AC5:BE6">

--- a/doc/進捗管理表_D3.xlsx
+++ b/doc/進捗管理表_D3.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9D4BBD9-2638-45F8-BD06-80E40D6F03EC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFC4C24F-4B3C-419E-BFAB-E4AA021C5569}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1810" yWindow="40" windowWidth="17340" windowHeight="10180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="45">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -378,11 +378,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ファイル構成一覧</t>
-    <rPh sb="4" eb="6">
+    <t xml:space="preserve">   ファイル構成一覧</t>
+    <rPh sb="7" eb="9">
       <t>コウセイ</t>
     </rPh>
-    <rPh sb="6" eb="8">
+    <rPh sb="9" eb="11">
       <t>イチラン</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -450,7 +450,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -501,12 +501,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -833,7 +827,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -909,10 +903,10 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -924,19 +918,124 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -948,12 +1047,24 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -963,142 +1074,13 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1424,10 +1406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BG47"/>
+  <dimension ref="A1:BG48"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" zoomScale="67" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="P18" sqref="P18:R18"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" zoomScale="67" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AI28" sqref="AI28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.25" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1442,139 +1424,139 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:59" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="80" t="s">
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
-      <c r="L1" s="81"/>
-      <c r="M1" s="81"/>
-      <c r="N1" s="81"/>
-      <c r="O1" s="81"/>
-      <c r="P1" s="81"/>
-      <c r="Q1" s="81"/>
-      <c r="R1" s="81"/>
-      <c r="S1" s="81"/>
-      <c r="T1" s="81"/>
-      <c r="U1" s="81"/>
-      <c r="V1" s="81"/>
-      <c r="W1" s="81"/>
-      <c r="X1" s="81"/>
-      <c r="Y1" s="81"/>
-      <c r="Z1" s="81"/>
-      <c r="AA1" s="81"/>
-      <c r="AB1" s="81"/>
-      <c r="AC1" s="82"/>
-      <c r="AD1" s="74" t="s">
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="44"/>
+      <c r="O1" s="44"/>
+      <c r="P1" s="44"/>
+      <c r="Q1" s="44"/>
+      <c r="R1" s="44"/>
+      <c r="S1" s="44"/>
+      <c r="T1" s="44"/>
+      <c r="U1" s="44"/>
+      <c r="V1" s="44"/>
+      <c r="W1" s="44"/>
+      <c r="X1" s="44"/>
+      <c r="Y1" s="44"/>
+      <c r="Z1" s="44"/>
+      <c r="AA1" s="44"/>
+      <c r="AB1" s="44"/>
+      <c r="AC1" s="45"/>
+      <c r="AD1" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="AE1" s="75"/>
-      <c r="AF1" s="75"/>
-      <c r="AG1" s="76"/>
-      <c r="AH1" s="71">
+      <c r="AE1" s="38"/>
+      <c r="AF1" s="38"/>
+      <c r="AG1" s="39"/>
+      <c r="AH1" s="34">
         <v>45078</v>
       </c>
-      <c r="AI1" s="72"/>
-      <c r="AJ1" s="72"/>
-      <c r="AK1" s="72"/>
-      <c r="AL1" s="72"/>
-      <c r="AM1" s="72"/>
-      <c r="AN1" s="73"/>
+      <c r="AI1" s="35"/>
+      <c r="AJ1" s="35"/>
+      <c r="AK1" s="35"/>
+      <c r="AL1" s="35"/>
+      <c r="AM1" s="35"/>
+      <c r="AN1" s="36"/>
     </row>
     <row r="2" spans="1:59" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="69"/>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="83"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="84"/>
-      <c r="M2" s="84"/>
-      <c r="N2" s="84"/>
-      <c r="O2" s="84"/>
-      <c r="P2" s="84"/>
-      <c r="Q2" s="84"/>
-      <c r="R2" s="84"/>
-      <c r="S2" s="84"/>
-      <c r="T2" s="84"/>
-      <c r="U2" s="84"/>
-      <c r="V2" s="84"/>
-      <c r="W2" s="84"/>
-      <c r="X2" s="84"/>
-      <c r="Y2" s="84"/>
-      <c r="Z2" s="84"/>
-      <c r="AA2" s="84"/>
-      <c r="AB2" s="84"/>
-      <c r="AC2" s="85"/>
-      <c r="AD2" s="74" t="s">
+      <c r="A2" s="32"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="47"/>
+      <c r="L2" s="47"/>
+      <c r="M2" s="47"/>
+      <c r="N2" s="47"/>
+      <c r="O2" s="47"/>
+      <c r="P2" s="47"/>
+      <c r="Q2" s="47"/>
+      <c r="R2" s="47"/>
+      <c r="S2" s="47"/>
+      <c r="T2" s="47"/>
+      <c r="U2" s="47"/>
+      <c r="V2" s="47"/>
+      <c r="W2" s="47"/>
+      <c r="X2" s="47"/>
+      <c r="Y2" s="47"/>
+      <c r="Z2" s="47"/>
+      <c r="AA2" s="47"/>
+      <c r="AB2" s="47"/>
+      <c r="AC2" s="48"/>
+      <c r="AD2" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="AE2" s="75"/>
-      <c r="AF2" s="75"/>
-      <c r="AG2" s="76"/>
-      <c r="AH2" s="71">
+      <c r="AE2" s="38"/>
+      <c r="AF2" s="38"/>
+      <c r="AG2" s="39"/>
+      <c r="AH2" s="34">
         <v>45107</v>
       </c>
-      <c r="AI2" s="72"/>
-      <c r="AJ2" s="72"/>
-      <c r="AK2" s="72"/>
-      <c r="AL2" s="72"/>
-      <c r="AM2" s="72"/>
-      <c r="AN2" s="73"/>
+      <c r="AI2" s="35"/>
+      <c r="AJ2" s="35"/>
+      <c r="AK2" s="35"/>
+      <c r="AL2" s="35"/>
+      <c r="AM2" s="35"/>
+      <c r="AN2" s="36"/>
     </row>
     <row r="4" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="78" t="s">
+      <c r="A4" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="78"/>
-      <c r="C4" s="79" t="s">
+      <c r="B4" s="41"/>
+      <c r="C4" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="79"/>
-      <c r="K4" s="79"/>
-      <c r="L4" s="79"/>
-      <c r="M4" s="79"/>
-      <c r="N4" s="79"/>
-      <c r="O4" s="79"/>
-      <c r="P4" s="78" t="s">
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="42"/>
+      <c r="M4" s="42"/>
+      <c r="N4" s="42"/>
+      <c r="O4" s="42"/>
+      <c r="P4" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="Q4" s="78"/>
-      <c r="R4" s="78"/>
-      <c r="S4" s="78" t="s">
+      <c r="Q4" s="41"/>
+      <c r="R4" s="41"/>
+      <c r="S4" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="T4" s="78"/>
-      <c r="U4" s="78"/>
-      <c r="V4" s="78"/>
-      <c r="W4" s="78"/>
-      <c r="X4" s="78"/>
-      <c r="Y4" s="77" t="s">
+      <c r="T4" s="41"/>
+      <c r="U4" s="41"/>
+      <c r="V4" s="41"/>
+      <c r="W4" s="41"/>
+      <c r="X4" s="41"/>
+      <c r="Y4" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="Z4" s="77"/>
-      <c r="AA4" s="77"/>
+      <c r="Z4" s="40"/>
+      <c r="AA4" s="40"/>
       <c r="AB4" s="7">
         <f>AH1</f>
         <v>45078</v>
@@ -1699,41 +1681,41 @@
       <c r="BG4" s="3"/>
     </row>
     <row r="5" spans="1:59" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="78"/>
-      <c r="B5" s="78"/>
-      <c r="C5" s="78" t="s">
+      <c r="A5" s="41"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="78"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="78"/>
-      <c r="G5" s="78"/>
-      <c r="H5" s="78" t="s">
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="78"/>
-      <c r="J5" s="78"/>
-      <c r="K5" s="78"/>
-      <c r="L5" s="78"/>
-      <c r="M5" s="78"/>
-      <c r="N5" s="78"/>
-      <c r="O5" s="78"/>
-      <c r="P5" s="78"/>
-      <c r="Q5" s="78"/>
-      <c r="R5" s="78"/>
-      <c r="S5" s="78" t="s">
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="41"/>
+      <c r="N5" s="41"/>
+      <c r="O5" s="41"/>
+      <c r="P5" s="41"/>
+      <c r="Q5" s="41"/>
+      <c r="R5" s="41"/>
+      <c r="S5" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="T5" s="78"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78" t="s">
+      <c r="T5" s="41"/>
+      <c r="U5" s="41"/>
+      <c r="V5" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="W5" s="78"/>
-      <c r="X5" s="78"/>
-      <c r="Y5" s="77"/>
-      <c r="Z5" s="77"/>
-      <c r="AA5" s="77"/>
+      <c r="W5" s="41"/>
+      <c r="X5" s="41"/>
+      <c r="Y5" s="40"/>
+      <c r="Z5" s="40"/>
+      <c r="AA5" s="40"/>
       <c r="AB5" s="5">
         <f>AH1</f>
         <v>45078</v>
@@ -1856,33 +1838,33 @@
       </c>
     </row>
     <row r="6" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="78"/>
-      <c r="B6" s="78"/>
-      <c r="C6" s="78"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="78"/>
-      <c r="F6" s="78"/>
-      <c r="G6" s="78"/>
-      <c r="H6" s="78"/>
-      <c r="I6" s="78"/>
-      <c r="J6" s="78"/>
-      <c r="K6" s="78"/>
-      <c r="L6" s="78"/>
-      <c r="M6" s="78"/>
-      <c r="N6" s="78"/>
-      <c r="O6" s="78"/>
-      <c r="P6" s="78"/>
-      <c r="Q6" s="78"/>
-      <c r="R6" s="78"/>
-      <c r="S6" s="78"/>
-      <c r="T6" s="78"/>
-      <c r="U6" s="78"/>
-      <c r="V6" s="78"/>
-      <c r="W6" s="78"/>
-      <c r="X6" s="78"/>
-      <c r="Y6" s="77"/>
-      <c r="Z6" s="77"/>
-      <c r="AA6" s="77"/>
+      <c r="A6" s="41"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="41"/>
+      <c r="J6" s="41"/>
+      <c r="K6" s="41"/>
+      <c r="L6" s="41"/>
+      <c r="M6" s="41"/>
+      <c r="N6" s="41"/>
+      <c r="O6" s="41"/>
+      <c r="P6" s="41"/>
+      <c r="Q6" s="41"/>
+      <c r="R6" s="41"/>
+      <c r="S6" s="41"/>
+      <c r="T6" s="41"/>
+      <c r="U6" s="41"/>
+      <c r="V6" s="41"/>
+      <c r="W6" s="41"/>
+      <c r="X6" s="41"/>
+      <c r="Y6" s="40"/>
+      <c r="Z6" s="40"/>
+      <c r="AA6" s="40"/>
       <c r="AB6" s="6" t="str">
         <f>TEXT(AB5,"aaa")</f>
         <v>木</v>
@@ -2005,35 +1987,35 @@
       </c>
     </row>
     <row r="7" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="34"/>
-      <c r="B7" s="34"/>
-      <c r="C7" s="43" t="s">
+      <c r="A7" s="49"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43"/>
-      <c r="G7" s="43"/>
-      <c r="H7" s="43"/>
-      <c r="I7" s="43"/>
-      <c r="J7" s="43"/>
-      <c r="K7" s="43"/>
-      <c r="L7" s="43"/>
-      <c r="M7" s="43"/>
-      <c r="N7" s="43"/>
-      <c r="O7" s="43"/>
-      <c r="P7" s="43"/>
-      <c r="Q7" s="43"/>
-      <c r="R7" s="43"/>
-      <c r="S7" s="33"/>
-      <c r="T7" s="33"/>
-      <c r="U7" s="33"/>
-      <c r="V7" s="33"/>
-      <c r="W7" s="33"/>
-      <c r="X7" s="33"/>
-      <c r="Y7" s="34"/>
-      <c r="Z7" s="34"/>
-      <c r="AA7" s="34"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="50"/>
+      <c r="K7" s="50"/>
+      <c r="L7" s="50"/>
+      <c r="M7" s="50"/>
+      <c r="N7" s="50"/>
+      <c r="O7" s="50"/>
+      <c r="P7" s="50"/>
+      <c r="Q7" s="50"/>
+      <c r="R7" s="50"/>
+      <c r="S7" s="52"/>
+      <c r="T7" s="52"/>
+      <c r="U7" s="52"/>
+      <c r="V7" s="52"/>
+      <c r="W7" s="52"/>
+      <c r="X7" s="52"/>
+      <c r="Y7" s="49"/>
+      <c r="Z7" s="49"/>
+      <c r="AA7" s="49"/>
       <c r="AB7" s="4"/>
       <c r="AC7" s="4"/>
       <c r="AD7" s="4"/>
@@ -2066,41 +2048,41 @@
       <c r="BE7" s="4"/>
     </row>
     <row r="8" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="34"/>
-      <c r="B8" s="34"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="43"/>
-      <c r="H8" s="45" t="s">
+      <c r="A8" s="49"/>
+      <c r="B8" s="49"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="I8" s="45"/>
-      <c r="J8" s="45"/>
-      <c r="K8" s="45"/>
-      <c r="L8" s="45"/>
-      <c r="M8" s="45"/>
-      <c r="N8" s="45"/>
-      <c r="O8" s="45"/>
-      <c r="P8" s="43"/>
-      <c r="Q8" s="43"/>
-      <c r="R8" s="43"/>
-      <c r="S8" s="33">
+      <c r="I8" s="51"/>
+      <c r="J8" s="51"/>
+      <c r="K8" s="51"/>
+      <c r="L8" s="51"/>
+      <c r="M8" s="51"/>
+      <c r="N8" s="51"/>
+      <c r="O8" s="51"/>
+      <c r="P8" s="50"/>
+      <c r="Q8" s="50"/>
+      <c r="R8" s="50"/>
+      <c r="S8" s="52">
         <v>45078</v>
       </c>
-      <c r="T8" s="33"/>
-      <c r="U8" s="33"/>
-      <c r="V8" s="33">
+      <c r="T8" s="52"/>
+      <c r="U8" s="52"/>
+      <c r="V8" s="52">
         <v>45078</v>
       </c>
-      <c r="W8" s="33"/>
-      <c r="X8" s="33"/>
-      <c r="Y8" s="34" t="s">
+      <c r="W8" s="52"/>
+      <c r="X8" s="52"/>
+      <c r="Y8" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="Z8" s="34"/>
-      <c r="AA8" s="34"/>
+      <c r="Z8" s="49"/>
+      <c r="AA8" s="49"/>
       <c r="AB8" s="4"/>
       <c r="AC8" s="4"/>
       <c r="AD8" s="4"/>
@@ -2133,41 +2115,41 @@
       <c r="BE8" s="4"/>
     </row>
     <row r="9" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="34"/>
-      <c r="B9" s="34"/>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="45" t="s">
+      <c r="A9" s="49"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="I9" s="45"/>
-      <c r="J9" s="45"/>
-      <c r="K9" s="45"/>
-      <c r="L9" s="45"/>
-      <c r="M9" s="45"/>
-      <c r="N9" s="45"/>
-      <c r="O9" s="45"/>
-      <c r="P9" s="43"/>
-      <c r="Q9" s="43"/>
-      <c r="R9" s="43"/>
-      <c r="S9" s="33">
+      <c r="I9" s="51"/>
+      <c r="J9" s="51"/>
+      <c r="K9" s="51"/>
+      <c r="L9" s="51"/>
+      <c r="M9" s="51"/>
+      <c r="N9" s="51"/>
+      <c r="O9" s="51"/>
+      <c r="P9" s="50"/>
+      <c r="Q9" s="50"/>
+      <c r="R9" s="50"/>
+      <c r="S9" s="52">
         <v>45078</v>
       </c>
-      <c r="T9" s="33"/>
-      <c r="U9" s="33"/>
-      <c r="V9" s="33">
+      <c r="T9" s="52"/>
+      <c r="U9" s="52"/>
+      <c r="V9" s="52">
         <v>45079</v>
       </c>
-      <c r="W9" s="33"/>
-      <c r="X9" s="33"/>
-      <c r="Y9" s="34" t="s">
+      <c r="W9" s="52"/>
+      <c r="X9" s="52"/>
+      <c r="Y9" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="Z9" s="34"/>
-      <c r="AA9" s="34"/>
+      <c r="Z9" s="49"/>
+      <c r="AA9" s="49"/>
       <c r="AB9" s="4"/>
       <c r="AC9" s="4"/>
       <c r="AD9" s="4"/>
@@ -2200,18 +2182,18 @@
       <c r="BE9" s="4"/>
     </row>
     <row r="10" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="34"/>
-      <c r="B10" s="34"/>
-      <c r="C10" s="43" t="s">
+      <c r="A10" s="49"/>
+      <c r="B10" s="49"/>
+      <c r="C10" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="43"/>
-      <c r="Y10" s="34"/>
-      <c r="Z10" s="34"/>
-      <c r="AA10" s="34"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="50"/>
+      <c r="Y10" s="49"/>
+      <c r="Z10" s="49"/>
+      <c r="AA10" s="49"/>
       <c r="AB10" s="4"/>
       <c r="AC10" s="13"/>
       <c r="AD10" s="4"/>
@@ -2244,43 +2226,43 @@
       <c r="BE10" s="4"/>
     </row>
     <row r="11" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="34"/>
-      <c r="B11" s="34"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="45" t="s">
+      <c r="A11" s="49"/>
+      <c r="B11" s="49"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="I11" s="45"/>
-      <c r="J11" s="45"/>
-      <c r="K11" s="45"/>
-      <c r="L11" s="45"/>
-      <c r="M11" s="45"/>
-      <c r="N11" s="45"/>
-      <c r="O11" s="45"/>
-      <c r="P11" s="43" t="s">
+      <c r="I11" s="51"/>
+      <c r="J11" s="51"/>
+      <c r="K11" s="51"/>
+      <c r="L11" s="51"/>
+      <c r="M11" s="51"/>
+      <c r="N11" s="51"/>
+      <c r="O11" s="51"/>
+      <c r="P11" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="Q11" s="43"/>
-      <c r="R11" s="43"/>
-      <c r="S11" s="33">
+      <c r="Q11" s="50"/>
+      <c r="R11" s="50"/>
+      <c r="S11" s="52">
         <v>45079</v>
       </c>
-      <c r="T11" s="33"/>
-      <c r="U11" s="33"/>
-      <c r="V11" s="33">
+      <c r="T11" s="52"/>
+      <c r="U11" s="52"/>
+      <c r="V11" s="52">
         <v>45082</v>
       </c>
-      <c r="W11" s="33"/>
-      <c r="X11" s="33"/>
-      <c r="Y11" s="34" t="s">
+      <c r="W11" s="52"/>
+      <c r="X11" s="52"/>
+      <c r="Y11" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="Z11" s="34"/>
-      <c r="AA11" s="34"/>
+      <c r="Z11" s="49"/>
+      <c r="AA11" s="49"/>
       <c r="AB11" s="4"/>
       <c r="AC11" s="14"/>
       <c r="AD11" s="4"/>
@@ -2312,41 +2294,41 @@
       <c r="BE11" s="4"/>
     </row>
     <row r="12" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="34"/>
-      <c r="B12" s="34"/>
-      <c r="C12" s="43"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="64" t="s">
+      <c r="A12" s="49"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="I12" s="65"/>
-      <c r="J12" s="65"/>
-      <c r="K12" s="65"/>
-      <c r="L12" s="65"/>
-      <c r="M12" s="65"/>
-      <c r="N12" s="65"/>
-      <c r="O12" s="66"/>
-      <c r="P12" s="56"/>
-      <c r="Q12" s="57"/>
-      <c r="R12" s="63"/>
-      <c r="S12" s="33">
+      <c r="I12" s="57"/>
+      <c r="J12" s="57"/>
+      <c r="K12" s="57"/>
+      <c r="L12" s="57"/>
+      <c r="M12" s="57"/>
+      <c r="N12" s="57"/>
+      <c r="O12" s="58"/>
+      <c r="P12" s="53"/>
+      <c r="Q12" s="54"/>
+      <c r="R12" s="55"/>
+      <c r="S12" s="52">
         <v>45079</v>
       </c>
-      <c r="T12" s="33"/>
-      <c r="U12" s="33"/>
-      <c r="V12" s="33">
+      <c r="T12" s="52"/>
+      <c r="U12" s="52"/>
+      <c r="V12" s="52">
         <v>45082</v>
       </c>
-      <c r="W12" s="33"/>
-      <c r="X12" s="33"/>
-      <c r="Y12" s="34" t="s">
+      <c r="W12" s="52"/>
+      <c r="X12" s="52"/>
+      <c r="Y12" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="Z12" s="34"/>
-      <c r="AA12" s="34"/>
+      <c r="Z12" s="49"/>
+      <c r="AA12" s="49"/>
       <c r="AB12" s="4"/>
       <c r="AC12" s="14"/>
       <c r="AD12" s="4"/>
@@ -2379,41 +2361,41 @@
       <c r="BE12" s="4"/>
     </row>
     <row r="13" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="34"/>
-      <c r="B13" s="34"/>
-      <c r="C13" s="43"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="43"/>
-      <c r="H13" s="62" t="s">
+      <c r="A13" s="49"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="50"/>
+      <c r="H13" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="I13" s="62"/>
-      <c r="J13" s="62"/>
-      <c r="K13" s="62"/>
-      <c r="L13" s="62"/>
-      <c r="M13" s="62"/>
-      <c r="N13" s="62"/>
-      <c r="O13" s="62"/>
-      <c r="P13" s="43"/>
-      <c r="Q13" s="43"/>
-      <c r="R13" s="43"/>
-      <c r="S13" s="33">
+      <c r="I13" s="51"/>
+      <c r="J13" s="51"/>
+      <c r="K13" s="51"/>
+      <c r="L13" s="51"/>
+      <c r="M13" s="51"/>
+      <c r="N13" s="51"/>
+      <c r="O13" s="51"/>
+      <c r="P13" s="50"/>
+      <c r="Q13" s="50"/>
+      <c r="R13" s="50"/>
+      <c r="S13" s="52">
         <v>45082</v>
       </c>
-      <c r="T13" s="33"/>
-      <c r="U13" s="33"/>
-      <c r="V13" s="33">
+      <c r="T13" s="52"/>
+      <c r="U13" s="52"/>
+      <c r="V13" s="52">
         <v>45082</v>
       </c>
-      <c r="W13" s="33"/>
-      <c r="X13" s="33"/>
-      <c r="Y13" s="34" t="s">
+      <c r="W13" s="52"/>
+      <c r="X13" s="52"/>
+      <c r="Y13" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="Z13" s="34"/>
-      <c r="AA13" s="34"/>
+      <c r="Z13" s="49"/>
+      <c r="AA13" s="49"/>
       <c r="AB13" s="4"/>
       <c r="AC13" s="4"/>
       <c r="AD13" s="4"/>
@@ -2446,33 +2428,33 @@
       <c r="BE13" s="4"/>
     </row>
     <row r="14" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="34"/>
-      <c r="B14" s="34"/>
-      <c r="C14" s="43"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="43"/>
-      <c r="G14" s="43"/>
-      <c r="H14" s="43"/>
-      <c r="I14" s="43"/>
-      <c r="J14" s="43"/>
-      <c r="K14" s="43"/>
-      <c r="L14" s="43"/>
-      <c r="M14" s="43"/>
-      <c r="N14" s="43"/>
-      <c r="O14" s="43"/>
-      <c r="P14" s="43"/>
-      <c r="Q14" s="43"/>
-      <c r="R14" s="43"/>
-      <c r="S14" s="33"/>
-      <c r="T14" s="33"/>
-      <c r="U14" s="33"/>
-      <c r="V14" s="33"/>
-      <c r="W14" s="33"/>
-      <c r="X14" s="33"/>
-      <c r="Y14" s="34"/>
-      <c r="Z14" s="34"/>
-      <c r="AA14" s="34"/>
+      <c r="A14" s="49"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="50"/>
+      <c r="I14" s="50"/>
+      <c r="J14" s="50"/>
+      <c r="K14" s="50"/>
+      <c r="L14" s="50"/>
+      <c r="M14" s="50"/>
+      <c r="N14" s="50"/>
+      <c r="O14" s="50"/>
+      <c r="P14" s="50"/>
+      <c r="Q14" s="50"/>
+      <c r="R14" s="50"/>
+      <c r="S14" s="52"/>
+      <c r="T14" s="52"/>
+      <c r="U14" s="52"/>
+      <c r="V14" s="52"/>
+      <c r="W14" s="52"/>
+      <c r="X14" s="52"/>
+      <c r="Y14" s="49"/>
+      <c r="Z14" s="49"/>
+      <c r="AA14" s="49"/>
       <c r="AB14" s="4"/>
       <c r="AC14" s="4"/>
       <c r="AD14" s="4"/>
@@ -2505,37 +2487,37 @@
       <c r="BE14" s="4"/>
     </row>
     <row r="15" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="34"/>
-      <c r="B15" s="34"/>
-      <c r="C15" s="43" t="s">
+      <c r="A15" s="49"/>
+      <c r="B15" s="49"/>
+      <c r="C15" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="43"/>
-      <c r="E15" s="43"/>
-      <c r="F15" s="43"/>
-      <c r="G15" s="43"/>
-      <c r="H15" s="43"/>
-      <c r="I15" s="43"/>
-      <c r="J15" s="43"/>
-      <c r="K15" s="43"/>
-      <c r="L15" s="43"/>
-      <c r="M15" s="43"/>
-      <c r="N15" s="43"/>
-      <c r="O15" s="43"/>
-      <c r="P15" s="43" t="s">
+      <c r="D15" s="50"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="50"/>
+      <c r="H15" s="50"/>
+      <c r="I15" s="50"/>
+      <c r="J15" s="50"/>
+      <c r="K15" s="50"/>
+      <c r="L15" s="50"/>
+      <c r="M15" s="50"/>
+      <c r="N15" s="50"/>
+      <c r="O15" s="50"/>
+      <c r="P15" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="Q15" s="43"/>
-      <c r="R15" s="43"/>
-      <c r="S15" s="33"/>
-      <c r="T15" s="33"/>
-      <c r="U15" s="33"/>
-      <c r="V15" s="33"/>
-      <c r="W15" s="33"/>
-      <c r="X15" s="33"/>
-      <c r="Y15" s="34"/>
-      <c r="Z15" s="34"/>
-      <c r="AA15" s="34"/>
+      <c r="Q15" s="50"/>
+      <c r="R15" s="50"/>
+      <c r="S15" s="52"/>
+      <c r="T15" s="52"/>
+      <c r="U15" s="52"/>
+      <c r="V15" s="52"/>
+      <c r="W15" s="52"/>
+      <c r="X15" s="52"/>
+      <c r="Y15" s="49"/>
+      <c r="Z15" s="49"/>
+      <c r="AA15" s="49"/>
       <c r="AB15" s="4"/>
       <c r="AC15" s="4"/>
       <c r="AD15" s="4"/>
@@ -2568,41 +2550,41 @@
       <c r="BE15" s="4"/>
     </row>
     <row r="16" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="34"/>
-      <c r="B16" s="34"/>
-      <c r="C16" s="43"/>
-      <c r="D16" s="43"/>
-      <c r="E16" s="43"/>
-      <c r="F16" s="43"/>
-      <c r="G16" s="43"/>
-      <c r="H16" s="61" t="s">
+      <c r="A16" s="49"/>
+      <c r="B16" s="49"/>
+      <c r="C16" s="50"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="50"/>
+      <c r="H16" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="I16" s="61"/>
-      <c r="J16" s="61"/>
-      <c r="K16" s="61"/>
-      <c r="L16" s="61"/>
-      <c r="M16" s="61"/>
-      <c r="N16" s="61"/>
-      <c r="O16" s="61"/>
-      <c r="P16" s="43"/>
-      <c r="Q16" s="43"/>
-      <c r="R16" s="43"/>
-      <c r="S16" s="33">
+      <c r="I16" s="51"/>
+      <c r="J16" s="51"/>
+      <c r="K16" s="51"/>
+      <c r="L16" s="51"/>
+      <c r="M16" s="51"/>
+      <c r="N16" s="51"/>
+      <c r="O16" s="51"/>
+      <c r="P16" s="50"/>
+      <c r="Q16" s="50"/>
+      <c r="R16" s="50"/>
+      <c r="S16" s="52">
         <v>45083</v>
       </c>
-      <c r="T16" s="33"/>
-      <c r="U16" s="33"/>
-      <c r="V16" s="33">
+      <c r="T16" s="52"/>
+      <c r="U16" s="52"/>
+      <c r="V16" s="52">
         <v>45084</v>
       </c>
-      <c r="W16" s="33"/>
-      <c r="X16" s="33"/>
-      <c r="Y16" s="34" t="s">
+      <c r="W16" s="52"/>
+      <c r="X16" s="52"/>
+      <c r="Y16" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="Z16" s="34"/>
-      <c r="AA16" s="34"/>
+      <c r="Z16" s="49"/>
+      <c r="AA16" s="49"/>
       <c r="AB16" s="4"/>
       <c r="AC16" s="4"/>
       <c r="AD16" s="4"/>
@@ -2635,43 +2617,43 @@
       <c r="BE16" s="4"/>
     </row>
     <row r="17" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="34"/>
-      <c r="B17" s="34"/>
-      <c r="C17" s="43"/>
-      <c r="D17" s="43"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="43"/>
-      <c r="H17" s="35" t="s">
+      <c r="A17" s="49"/>
+      <c r="B17" s="49"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="50"/>
+      <c r="H17" s="70" t="s">
         <v>37</v>
       </c>
-      <c r="I17" s="36"/>
-      <c r="J17" s="36"/>
-      <c r="K17" s="36"/>
-      <c r="L17" s="36"/>
-      <c r="M17" s="36"/>
-      <c r="N17" s="36"/>
-      <c r="O17" s="37"/>
-      <c r="P17" s="43" t="s">
+      <c r="I17" s="71"/>
+      <c r="J17" s="71"/>
+      <c r="K17" s="71"/>
+      <c r="L17" s="71"/>
+      <c r="M17" s="71"/>
+      <c r="N17" s="71"/>
+      <c r="O17" s="72"/>
+      <c r="P17" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="Q17" s="43"/>
-      <c r="R17" s="43"/>
-      <c r="S17" s="33">
+      <c r="Q17" s="50"/>
+      <c r="R17" s="50"/>
+      <c r="S17" s="52">
         <v>45083</v>
       </c>
-      <c r="T17" s="33"/>
-      <c r="U17" s="33"/>
-      <c r="V17" s="33">
+      <c r="T17" s="52"/>
+      <c r="U17" s="52"/>
+      <c r="V17" s="52">
         <v>45084</v>
       </c>
-      <c r="W17" s="33"/>
-      <c r="X17" s="33"/>
-      <c r="Y17" s="44">
+      <c r="W17" s="52"/>
+      <c r="X17" s="52"/>
+      <c r="Y17" s="76">
         <v>0.8</v>
       </c>
-      <c r="Z17" s="34"/>
-      <c r="AA17" s="34"/>
+      <c r="Z17" s="49"/>
+      <c r="AA17" s="49"/>
       <c r="AB17" s="4"/>
       <c r="AC17" s="4"/>
       <c r="AD17" s="4"/>
@@ -2706,41 +2688,41 @@
     <row r="18" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="10"/>
       <c r="B18" s="12"/>
-      <c r="C18" s="53"/>
-      <c r="D18" s="54"/>
-      <c r="E18" s="54"/>
-      <c r="F18" s="54"/>
-      <c r="G18" s="55"/>
-      <c r="H18" s="86" t="s">
+      <c r="C18" s="59"/>
+      <c r="D18" s="60"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="61"/>
+      <c r="H18" s="82" t="s">
         <v>34</v>
       </c>
-      <c r="I18" s="87"/>
-      <c r="J18" s="87"/>
-      <c r="K18" s="87"/>
-      <c r="L18" s="87"/>
-      <c r="M18" s="87"/>
-      <c r="N18" s="87"/>
-      <c r="O18" s="88"/>
-      <c r="P18" s="30" t="s">
+      <c r="I18" s="83"/>
+      <c r="J18" s="83"/>
+      <c r="K18" s="83"/>
+      <c r="L18" s="83"/>
+      <c r="M18" s="83"/>
+      <c r="N18" s="83"/>
+      <c r="O18" s="84"/>
+      <c r="P18" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="Q18" s="31"/>
-      <c r="R18" s="31"/>
-      <c r="S18" s="33">
+      <c r="Q18" s="63"/>
+      <c r="R18" s="63"/>
+      <c r="S18" s="52">
         <v>45083</v>
       </c>
-      <c r="T18" s="33"/>
-      <c r="U18" s="33"/>
-      <c r="V18" s="33">
+      <c r="T18" s="52"/>
+      <c r="U18" s="52"/>
+      <c r="V18" s="52">
         <v>45084</v>
       </c>
-      <c r="W18" s="33"/>
-      <c r="X18" s="33"/>
-      <c r="Y18" s="44" t="s">
+      <c r="W18" s="52"/>
+      <c r="X18" s="52"/>
+      <c r="Y18" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="Z18" s="34"/>
-      <c r="AA18" s="34"/>
+      <c r="Z18" s="49"/>
+      <c r="AA18" s="49"/>
       <c r="AB18" s="4"/>
       <c r="AC18" s="4"/>
       <c r="AD18" s="4"/>
@@ -2780,36 +2762,36 @@
       <c r="E19" s="28"/>
       <c r="F19" s="28"/>
       <c r="G19" s="29"/>
-      <c r="H19" s="35" t="s">
+      <c r="H19" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="I19" s="36"/>
-      <c r="J19" s="36"/>
-      <c r="K19" s="36"/>
-      <c r="L19" s="36"/>
-      <c r="M19" s="36"/>
-      <c r="N19" s="36"/>
-      <c r="O19" s="38"/>
-      <c r="P19" s="39" t="s">
+      <c r="I19" s="71"/>
+      <c r="J19" s="71"/>
+      <c r="K19" s="71"/>
+      <c r="L19" s="71"/>
+      <c r="M19" s="71"/>
+      <c r="N19" s="71"/>
+      <c r="O19" s="78"/>
+      <c r="P19" s="66" t="s">
         <v>43</v>
       </c>
-      <c r="Q19" s="31"/>
-      <c r="R19" s="32"/>
-      <c r="S19" s="33">
+      <c r="Q19" s="63"/>
+      <c r="R19" s="77"/>
+      <c r="S19" s="52">
         <v>45084</v>
       </c>
-      <c r="T19" s="33"/>
-      <c r="U19" s="33"/>
-      <c r="V19" s="33">
+      <c r="T19" s="52"/>
+      <c r="U19" s="52"/>
+      <c r="V19" s="52">
         <v>45084</v>
       </c>
-      <c r="W19" s="33"/>
-      <c r="X19" s="33"/>
-      <c r="Y19" s="40">
+      <c r="W19" s="52"/>
+      <c r="X19" s="52"/>
+      <c r="Y19" s="79">
         <v>0.8</v>
       </c>
-      <c r="Z19" s="41"/>
-      <c r="AA19" s="42"/>
+      <c r="Z19" s="80"/>
+      <c r="AA19" s="81"/>
       <c r="AB19" s="4"/>
       <c r="AC19" s="4"/>
       <c r="AD19" s="4"/>
@@ -2842,33 +2824,33 @@
       <c r="BE19" s="4"/>
     </row>
     <row r="20" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="30"/>
-      <c r="B20" s="46"/>
-      <c r="C20" s="50"/>
-      <c r="D20" s="51"/>
-      <c r="E20" s="51"/>
-      <c r="F20" s="51"/>
-      <c r="G20" s="52"/>
-      <c r="H20" s="56"/>
-      <c r="I20" s="57"/>
-      <c r="J20" s="57"/>
-      <c r="K20" s="57"/>
-      <c r="L20" s="57"/>
-      <c r="M20" s="57"/>
-      <c r="N20" s="57"/>
-      <c r="O20" s="58"/>
-      <c r="P20" s="39"/>
-      <c r="Q20" s="31"/>
-      <c r="R20" s="46"/>
-      <c r="S20" s="59"/>
-      <c r="T20" s="48"/>
-      <c r="U20" s="60"/>
-      <c r="V20" s="59"/>
-      <c r="W20" s="48"/>
-      <c r="X20" s="60"/>
-      <c r="Y20" s="30"/>
-      <c r="Z20" s="31"/>
-      <c r="AA20" s="46"/>
+      <c r="A20" s="62"/>
+      <c r="B20" s="64"/>
+      <c r="C20" s="73"/>
+      <c r="D20" s="74"/>
+      <c r="E20" s="74"/>
+      <c r="F20" s="74"/>
+      <c r="G20" s="75"/>
+      <c r="H20" s="53"/>
+      <c r="I20" s="54"/>
+      <c r="J20" s="54"/>
+      <c r="K20" s="54"/>
+      <c r="L20" s="54"/>
+      <c r="M20" s="54"/>
+      <c r="N20" s="54"/>
+      <c r="O20" s="65"/>
+      <c r="P20" s="66"/>
+      <c r="Q20" s="63"/>
+      <c r="R20" s="64"/>
+      <c r="S20" s="67"/>
+      <c r="T20" s="68"/>
+      <c r="U20" s="69"/>
+      <c r="V20" s="67"/>
+      <c r="W20" s="68"/>
+      <c r="X20" s="69"/>
+      <c r="Y20" s="62"/>
+      <c r="Z20" s="63"/>
+      <c r="AA20" s="64"/>
       <c r="AB20" s="4"/>
       <c r="AC20" s="4"/>
       <c r="AD20" s="4"/>
@@ -2901,39 +2883,37 @@
       <c r="BE20" s="4"/>
     </row>
     <row r="21" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="30"/>
-      <c r="B21" s="46"/>
-      <c r="C21" s="43" t="s">
+      <c r="A21" s="62"/>
+      <c r="B21" s="64"/>
+      <c r="C21" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="D21" s="43"/>
-      <c r="E21" s="43"/>
-      <c r="F21" s="43"/>
-      <c r="G21" s="43"/>
-      <c r="H21" s="35" t="s">
-        <v>44</v>
-      </c>
-      <c r="I21" s="36"/>
-      <c r="J21" s="36"/>
-      <c r="K21" s="36"/>
-      <c r="L21" s="36"/>
-      <c r="M21" s="36"/>
-      <c r="N21" s="36"/>
-      <c r="O21" s="37"/>
-      <c r="P21" s="43" t="s">
+      <c r="D21" s="50"/>
+      <c r="E21" s="50"/>
+      <c r="F21" s="50"/>
+      <c r="G21" s="50"/>
+      <c r="H21" s="70"/>
+      <c r="I21" s="71"/>
+      <c r="J21" s="71"/>
+      <c r="K21" s="71"/>
+      <c r="L21" s="71"/>
+      <c r="M21" s="71"/>
+      <c r="N21" s="71"/>
+      <c r="O21" s="72"/>
+      <c r="P21" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="Q21" s="43"/>
-      <c r="R21" s="43"/>
-      <c r="S21" s="33"/>
-      <c r="T21" s="33"/>
-      <c r="U21" s="33"/>
-      <c r="V21" s="33"/>
-      <c r="W21" s="33"/>
-      <c r="X21" s="33"/>
-      <c r="Y21" s="34"/>
-      <c r="Z21" s="34"/>
-      <c r="AA21" s="34"/>
+      <c r="Q21" s="50"/>
+      <c r="R21" s="50"/>
+      <c r="S21" s="52"/>
+      <c r="T21" s="52"/>
+      <c r="U21" s="52"/>
+      <c r="V21" s="52"/>
+      <c r="W21" s="52"/>
+      <c r="X21" s="52"/>
+      <c r="Y21" s="49"/>
+      <c r="Z21" s="49"/>
+      <c r="AA21" s="49"/>
       <c r="AB21" s="4"/>
       <c r="AC21" s="4"/>
       <c r="AD21" s="4"/>
@@ -2968,39 +2948,39 @@
     <row r="22" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="10"/>
       <c r="B22" s="12"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="31"/>
-      <c r="G22" s="46"/>
-      <c r="H22" s="35" t="s">
+      <c r="C22" s="62"/>
+      <c r="D22" s="63"/>
+      <c r="E22" s="63"/>
+      <c r="F22" s="63"/>
+      <c r="G22" s="64"/>
+      <c r="H22" s="70" t="s">
         <v>35</v>
       </c>
-      <c r="I22" s="36"/>
-      <c r="J22" s="36"/>
-      <c r="K22" s="36"/>
-      <c r="L22" s="36"/>
-      <c r="M22" s="36"/>
-      <c r="N22" s="36"/>
-      <c r="O22" s="37"/>
-      <c r="P22" s="30"/>
-      <c r="Q22" s="31"/>
-      <c r="R22" s="32"/>
-      <c r="S22" s="33">
+      <c r="I22" s="71"/>
+      <c r="J22" s="71"/>
+      <c r="K22" s="71"/>
+      <c r="L22" s="71"/>
+      <c r="M22" s="71"/>
+      <c r="N22" s="71"/>
+      <c r="O22" s="72"/>
+      <c r="P22" s="62"/>
+      <c r="Q22" s="63"/>
+      <c r="R22" s="77"/>
+      <c r="S22" s="52">
         <v>45085</v>
       </c>
-      <c r="T22" s="33"/>
-      <c r="U22" s="33"/>
-      <c r="V22" s="33">
+      <c r="T22" s="52"/>
+      <c r="U22" s="52"/>
+      <c r="V22" s="52">
         <v>45086</v>
       </c>
-      <c r="W22" s="33"/>
-      <c r="X22" s="33"/>
-      <c r="Y22" s="34" t="s">
+      <c r="W22" s="52"/>
+      <c r="X22" s="52"/>
+      <c r="Y22" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="Z22" s="34"/>
-      <c r="AA22" s="34"/>
+      <c r="Z22" s="49"/>
+      <c r="AA22" s="49"/>
       <c r="AB22" s="4"/>
       <c r="AC22" s="4"/>
       <c r="AD22" s="4"/>
@@ -3040,34 +3020,34 @@
       <c r="E23" s="11"/>
       <c r="F23" s="11"/>
       <c r="G23" s="12"/>
-      <c r="H23" s="35" t="s">
+      <c r="H23" s="70" t="s">
         <v>36</v>
       </c>
-      <c r="I23" s="36"/>
-      <c r="J23" s="36"/>
-      <c r="K23" s="36"/>
-      <c r="L23" s="36"/>
-      <c r="M23" s="36"/>
-      <c r="N23" s="36"/>
-      <c r="O23" s="37"/>
-      <c r="P23" s="30"/>
-      <c r="Q23" s="31"/>
-      <c r="R23" s="32"/>
-      <c r="S23" s="33">
+      <c r="I23" s="71"/>
+      <c r="J23" s="71"/>
+      <c r="K23" s="71"/>
+      <c r="L23" s="71"/>
+      <c r="M23" s="71"/>
+      <c r="N23" s="71"/>
+      <c r="O23" s="72"/>
+      <c r="P23" s="62"/>
+      <c r="Q23" s="63"/>
+      <c r="R23" s="77"/>
+      <c r="S23" s="52">
         <v>45085</v>
       </c>
-      <c r="T23" s="33"/>
-      <c r="U23" s="33"/>
-      <c r="V23" s="33">
+      <c r="T23" s="52"/>
+      <c r="U23" s="52"/>
+      <c r="V23" s="52">
         <v>45086</v>
       </c>
-      <c r="W23" s="33"/>
-      <c r="X23" s="33"/>
-      <c r="Y23" s="34" t="s">
+      <c r="W23" s="52"/>
+      <c r="X23" s="52"/>
+      <c r="Y23" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="Z23" s="34"/>
-      <c r="AA23" s="34"/>
+      <c r="Z23" s="49"/>
+      <c r="AA23" s="49"/>
       <c r="AB23" s="4"/>
       <c r="AC23" s="4"/>
       <c r="AD23" s="4"/>
@@ -3100,33 +3080,41 @@
       <c r="BE23" s="4"/>
     </row>
     <row r="24" spans="1:57" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="30"/>
-      <c r="B24" s="46"/>
-      <c r="C24" s="30"/>
-      <c r="D24" s="31"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="31"/>
-      <c r="G24" s="46"/>
-      <c r="H24" s="30"/>
-      <c r="I24" s="31"/>
-      <c r="J24" s="31"/>
-      <c r="K24" s="31"/>
-      <c r="L24" s="31"/>
-      <c r="M24" s="31"/>
-      <c r="N24" s="31"/>
-      <c r="O24" s="46"/>
-      <c r="P24" s="30"/>
-      <c r="Q24" s="31"/>
-      <c r="R24" s="32"/>
-      <c r="S24" s="47"/>
-      <c r="T24" s="48"/>
-      <c r="U24" s="49"/>
-      <c r="V24" s="47"/>
-      <c r="W24" s="48"/>
-      <c r="X24" s="49"/>
-      <c r="Y24" s="39"/>
-      <c r="Z24" s="31"/>
-      <c r="AA24" s="46"/>
+      <c r="A24" s="62"/>
+      <c r="B24" s="64"/>
+      <c r="C24" s="62"/>
+      <c r="D24" s="63"/>
+      <c r="E24" s="63"/>
+      <c r="F24" s="63"/>
+      <c r="G24" s="64"/>
+      <c r="H24" s="70" t="s">
+        <v>44</v>
+      </c>
+      <c r="I24" s="71"/>
+      <c r="J24" s="71"/>
+      <c r="K24" s="71"/>
+      <c r="L24" s="71"/>
+      <c r="M24" s="71"/>
+      <c r="N24" s="71"/>
+      <c r="O24" s="72"/>
+      <c r="P24" s="62"/>
+      <c r="Q24" s="63"/>
+      <c r="R24" s="77"/>
+      <c r="S24" s="52">
+        <v>45085</v>
+      </c>
+      <c r="T24" s="52"/>
+      <c r="U24" s="52"/>
+      <c r="V24" s="52">
+        <v>45086</v>
+      </c>
+      <c r="W24" s="52"/>
+      <c r="X24" s="52"/>
+      <c r="Y24" s="49" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z24" s="49"/>
+      <c r="AA24" s="49"/>
       <c r="AB24" s="4"/>
       <c r="AC24" s="4"/>
       <c r="AD24" s="4"/>
@@ -3134,8 +3122,8 @@
       <c r="AF24" s="4"/>
       <c r="AG24" s="4"/>
       <c r="AH24" s="4"/>
-      <c r="AI24" s="13"/>
-      <c r="AJ24" s="13"/>
+      <c r="AI24" s="16"/>
+      <c r="AJ24" s="16"/>
       <c r="AK24" s="4"/>
       <c r="AL24" s="4"/>
       <c r="AM24" s="4"/>
@@ -3159,41 +3147,33 @@
       <c r="BE24" s="4"/>
     </row>
     <row r="25" spans="1:57" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="34"/>
-      <c r="B25" s="34"/>
-      <c r="C25" s="43" t="s">
-        <v>12</v>
-      </c>
-      <c r="D25" s="43"/>
-      <c r="E25" s="43"/>
-      <c r="F25" s="43"/>
-      <c r="G25" s="43"/>
-      <c r="H25" s="43"/>
-      <c r="I25" s="43"/>
-      <c r="J25" s="43"/>
-      <c r="K25" s="43"/>
-      <c r="L25" s="43"/>
-      <c r="M25" s="43"/>
-      <c r="N25" s="43"/>
-      <c r="O25" s="43"/>
-      <c r="P25" s="43" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q25" s="43"/>
-      <c r="R25" s="43"/>
-      <c r="S25" s="33">
-        <v>45089</v>
-      </c>
-      <c r="T25" s="33"/>
-      <c r="U25" s="33"/>
-      <c r="V25" s="33">
-        <v>45100</v>
-      </c>
-      <c r="W25" s="33"/>
-      <c r="X25" s="33"/>
-      <c r="Y25" s="34"/>
-      <c r="Z25" s="34"/>
-      <c r="AA25" s="34"/>
+      <c r="A25" s="10"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="62"/>
+      <c r="D25" s="63"/>
+      <c r="E25" s="63"/>
+      <c r="F25" s="63"/>
+      <c r="G25" s="64"/>
+      <c r="H25" s="62"/>
+      <c r="I25" s="63"/>
+      <c r="J25" s="63"/>
+      <c r="K25" s="63"/>
+      <c r="L25" s="63"/>
+      <c r="M25" s="63"/>
+      <c r="N25" s="63"/>
+      <c r="O25" s="64"/>
+      <c r="P25" s="62"/>
+      <c r="Q25" s="63"/>
+      <c r="R25" s="64"/>
+      <c r="S25" s="67"/>
+      <c r="T25" s="68"/>
+      <c r="U25" s="69"/>
+      <c r="V25" s="67"/>
+      <c r="W25" s="68"/>
+      <c r="X25" s="69"/>
+      <c r="Y25" s="62"/>
+      <c r="Z25" s="63"/>
+      <c r="AA25" s="64"/>
       <c r="AB25" s="4"/>
       <c r="AC25" s="4"/>
       <c r="AD25" s="4"/>
@@ -3205,18 +3185,18 @@
       <c r="AJ25" s="13"/>
       <c r="AK25" s="4"/>
       <c r="AL25" s="4"/>
-      <c r="AM25" s="18"/>
-      <c r="AN25" s="18"/>
-      <c r="AO25" s="18"/>
-      <c r="AP25" s="18"/>
-      <c r="AQ25" s="18"/>
-      <c r="AR25" s="18"/>
-      <c r="AS25" s="18"/>
-      <c r="AT25" s="18"/>
-      <c r="AU25" s="18"/>
-      <c r="AV25" s="18"/>
-      <c r="AW25" s="18"/>
-      <c r="AX25" s="18"/>
+      <c r="AM25" s="4"/>
+      <c r="AN25" s="4"/>
+      <c r="AO25" s="4"/>
+      <c r="AP25" s="4"/>
+      <c r="AQ25" s="4"/>
+      <c r="AR25" s="4"/>
+      <c r="AS25" s="4"/>
+      <c r="AT25" s="4"/>
+      <c r="AU25" s="4"/>
+      <c r="AV25" s="4"/>
+      <c r="AW25" s="4"/>
+      <c r="AX25" s="4"/>
       <c r="AY25" s="4"/>
       <c r="AZ25" s="4"/>
       <c r="BA25" s="4"/>
@@ -3226,33 +3206,41 @@
       <c r="BE25" s="4"/>
     </row>
     <row r="26" spans="1:57" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="34"/>
-      <c r="B26" s="34"/>
-      <c r="C26" s="43"/>
-      <c r="D26" s="43"/>
-      <c r="E26" s="43"/>
-      <c r="F26" s="43"/>
-      <c r="G26" s="43"/>
-      <c r="H26" s="43"/>
-      <c r="I26" s="43"/>
-      <c r="J26" s="43"/>
-      <c r="K26" s="43"/>
-      <c r="L26" s="43"/>
-      <c r="M26" s="43"/>
-      <c r="N26" s="43"/>
-      <c r="O26" s="43"/>
-      <c r="P26" s="43"/>
-      <c r="Q26" s="43"/>
-      <c r="R26" s="43"/>
-      <c r="S26" s="33"/>
-      <c r="T26" s="33"/>
-      <c r="U26" s="33"/>
-      <c r="V26" s="33"/>
-      <c r="W26" s="33"/>
-      <c r="X26" s="33"/>
-      <c r="Y26" s="34"/>
-      <c r="Z26" s="34"/>
-      <c r="AA26" s="34"/>
+      <c r="A26" s="49"/>
+      <c r="B26" s="49"/>
+      <c r="C26" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" s="50"/>
+      <c r="E26" s="50"/>
+      <c r="F26" s="50"/>
+      <c r="G26" s="50"/>
+      <c r="H26" s="50"/>
+      <c r="I26" s="50"/>
+      <c r="J26" s="50"/>
+      <c r="K26" s="50"/>
+      <c r="L26" s="50"/>
+      <c r="M26" s="50"/>
+      <c r="N26" s="50"/>
+      <c r="O26" s="50"/>
+      <c r="P26" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q26" s="50"/>
+      <c r="R26" s="50"/>
+      <c r="S26" s="52">
+        <v>45089</v>
+      </c>
+      <c r="T26" s="52"/>
+      <c r="U26" s="52"/>
+      <c r="V26" s="52">
+        <v>45100</v>
+      </c>
+      <c r="W26" s="52"/>
+      <c r="X26" s="52"/>
+      <c r="Y26" s="49"/>
+      <c r="Z26" s="49"/>
+      <c r="AA26" s="49"/>
       <c r="AB26" s="4"/>
       <c r="AC26" s="4"/>
       <c r="AD26" s="4"/>
@@ -3260,22 +3248,22 @@
       <c r="AF26" s="4"/>
       <c r="AG26" s="4"/>
       <c r="AH26" s="4"/>
-      <c r="AI26" s="20"/>
-      <c r="AJ26" s="19"/>
+      <c r="AI26" s="13"/>
+      <c r="AJ26" s="13"/>
       <c r="AK26" s="4"/>
       <c r="AL26" s="4"/>
-      <c r="AM26" s="4"/>
-      <c r="AN26" s="4"/>
-      <c r="AO26" s="4"/>
-      <c r="AP26" s="4"/>
-      <c r="AQ26" s="4"/>
-      <c r="AR26" s="4"/>
-      <c r="AS26" s="4"/>
-      <c r="AT26" s="4"/>
-      <c r="AU26" s="4"/>
-      <c r="AV26" s="4"/>
-      <c r="AW26" s="4"/>
-      <c r="AX26" s="4"/>
+      <c r="AM26" s="18"/>
+      <c r="AN26" s="18"/>
+      <c r="AO26" s="18"/>
+      <c r="AP26" s="18"/>
+      <c r="AQ26" s="18"/>
+      <c r="AR26" s="18"/>
+      <c r="AS26" s="18"/>
+      <c r="AT26" s="18"/>
+      <c r="AU26" s="18"/>
+      <c r="AV26" s="18"/>
+      <c r="AW26" s="18"/>
+      <c r="AX26" s="18"/>
       <c r="AY26" s="4"/>
       <c r="AZ26" s="4"/>
       <c r="BA26" s="4"/>
@@ -3285,33 +3273,33 @@
       <c r="BE26" s="4"/>
     </row>
     <row r="27" spans="1:57" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="34"/>
-      <c r="B27" s="34"/>
-      <c r="C27" s="43"/>
-      <c r="D27" s="43"/>
-      <c r="E27" s="43"/>
-      <c r="F27" s="43"/>
-      <c r="G27" s="43"/>
-      <c r="H27" s="43"/>
-      <c r="I27" s="43"/>
-      <c r="J27" s="43"/>
-      <c r="K27" s="43"/>
-      <c r="L27" s="43"/>
-      <c r="M27" s="43"/>
-      <c r="N27" s="43"/>
-      <c r="O27" s="43"/>
-      <c r="P27" s="43"/>
-      <c r="Q27" s="43"/>
-      <c r="R27" s="43"/>
-      <c r="S27" s="33"/>
-      <c r="T27" s="33"/>
-      <c r="U27" s="33"/>
-      <c r="V27" s="33"/>
-      <c r="W27" s="33"/>
-      <c r="X27" s="33"/>
-      <c r="Y27" s="34"/>
-      <c r="Z27" s="34"/>
-      <c r="AA27" s="34"/>
+      <c r="A27" s="49"/>
+      <c r="B27" s="49"/>
+      <c r="C27" s="50"/>
+      <c r="D27" s="50"/>
+      <c r="E27" s="50"/>
+      <c r="F27" s="50"/>
+      <c r="G27" s="50"/>
+      <c r="H27" s="50"/>
+      <c r="I27" s="50"/>
+      <c r="J27" s="50"/>
+      <c r="K27" s="50"/>
+      <c r="L27" s="50"/>
+      <c r="M27" s="50"/>
+      <c r="N27" s="50"/>
+      <c r="O27" s="50"/>
+      <c r="P27" s="50"/>
+      <c r="Q27" s="50"/>
+      <c r="R27" s="50"/>
+      <c r="S27" s="52"/>
+      <c r="T27" s="52"/>
+      <c r="U27" s="52"/>
+      <c r="V27" s="52"/>
+      <c r="W27" s="52"/>
+      <c r="X27" s="52"/>
+      <c r="Y27" s="49"/>
+      <c r="Z27" s="49"/>
+      <c r="AA27" s="49"/>
       <c r="AB27" s="4"/>
       <c r="AC27" s="4"/>
       <c r="AD27" s="4"/>
@@ -3319,7 +3307,8 @@
       <c r="AF27" s="4"/>
       <c r="AG27" s="4"/>
       <c r="AH27" s="4"/>
-      <c r="AI27" s="21"/>
+      <c r="AI27" s="20"/>
+      <c r="AJ27" s="19"/>
       <c r="AK27" s="4"/>
       <c r="AL27" s="4"/>
       <c r="AM27" s="4"/>
@@ -3343,41 +3332,33 @@
       <c r="BE27" s="4"/>
     </row>
     <row r="28" spans="1:57" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="34"/>
-      <c r="B28" s="34"/>
-      <c r="C28" s="43" t="s">
-        <v>13</v>
-      </c>
-      <c r="D28" s="43"/>
-      <c r="E28" s="43"/>
-      <c r="F28" s="43"/>
-      <c r="G28" s="43"/>
-      <c r="H28" s="43"/>
-      <c r="I28" s="43"/>
-      <c r="J28" s="43"/>
-      <c r="K28" s="43"/>
-      <c r="L28" s="43"/>
-      <c r="M28" s="43"/>
-      <c r="N28" s="43"/>
-      <c r="O28" s="43"/>
-      <c r="P28" s="43" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q28" s="43"/>
-      <c r="R28" s="43"/>
-      <c r="S28" s="33">
-        <v>45096</v>
-      </c>
-      <c r="T28" s="33"/>
-      <c r="U28" s="33"/>
-      <c r="V28" s="33">
-        <v>45100</v>
-      </c>
-      <c r="W28" s="33"/>
-      <c r="X28" s="33"/>
-      <c r="Y28" s="34"/>
-      <c r="Z28" s="34"/>
-      <c r="AA28" s="34"/>
+      <c r="A28" s="49"/>
+      <c r="B28" s="49"/>
+      <c r="C28" s="50"/>
+      <c r="D28" s="50"/>
+      <c r="E28" s="50"/>
+      <c r="F28" s="50"/>
+      <c r="G28" s="50"/>
+      <c r="H28" s="50"/>
+      <c r="I28" s="50"/>
+      <c r="J28" s="50"/>
+      <c r="K28" s="50"/>
+      <c r="L28" s="50"/>
+      <c r="M28" s="50"/>
+      <c r="N28" s="50"/>
+      <c r="O28" s="50"/>
+      <c r="P28" s="50"/>
+      <c r="Q28" s="50"/>
+      <c r="R28" s="50"/>
+      <c r="S28" s="52"/>
+      <c r="T28" s="52"/>
+      <c r="U28" s="52"/>
+      <c r="V28" s="52"/>
+      <c r="W28" s="52"/>
+      <c r="X28" s="52"/>
+      <c r="Y28" s="49"/>
+      <c r="Z28" s="49"/>
+      <c r="AA28" s="49"/>
       <c r="AB28" s="4"/>
       <c r="AC28" s="4"/>
       <c r="AD28" s="4"/>
@@ -3385,8 +3366,7 @@
       <c r="AF28" s="4"/>
       <c r="AG28" s="4"/>
       <c r="AH28" s="4"/>
-      <c r="AI28" s="4"/>
-      <c r="AJ28" s="4"/>
+      <c r="AI28" s="21"/>
       <c r="AK28" s="4"/>
       <c r="AL28" s="4"/>
       <c r="AM28" s="4"/>
@@ -3409,42 +3389,42 @@
       <c r="BD28" s="4"/>
       <c r="BE28" s="4"/>
     </row>
-    <row r="29" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="34"/>
-      <c r="B29" s="34"/>
-      <c r="C29" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="D29" s="43"/>
-      <c r="E29" s="43"/>
-      <c r="F29" s="43"/>
-      <c r="G29" s="43"/>
-      <c r="H29" s="43"/>
-      <c r="I29" s="43"/>
-      <c r="J29" s="43"/>
-      <c r="K29" s="43"/>
-      <c r="L29" s="43"/>
-      <c r="M29" s="43"/>
-      <c r="N29" s="43"/>
-      <c r="O29" s="43"/>
-      <c r="P29" s="43" t="s">
+    <row r="29" spans="1:57" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="49"/>
+      <c r="B29" s="49"/>
+      <c r="C29" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" s="50"/>
+      <c r="E29" s="50"/>
+      <c r="F29" s="50"/>
+      <c r="G29" s="50"/>
+      <c r="H29" s="50"/>
+      <c r="I29" s="50"/>
+      <c r="J29" s="50"/>
+      <c r="K29" s="50"/>
+      <c r="L29" s="50"/>
+      <c r="M29" s="50"/>
+      <c r="N29" s="50"/>
+      <c r="O29" s="50"/>
+      <c r="P29" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="Q29" s="43"/>
-      <c r="R29" s="43"/>
-      <c r="S29" s="33">
+      <c r="Q29" s="50"/>
+      <c r="R29" s="50"/>
+      <c r="S29" s="52">
         <v>45096</v>
       </c>
-      <c r="T29" s="33"/>
-      <c r="U29" s="33"/>
-      <c r="V29" s="33">
+      <c r="T29" s="52"/>
+      <c r="U29" s="52"/>
+      <c r="V29" s="52">
         <v>45100</v>
       </c>
-      <c r="W29" s="33"/>
-      <c r="X29" s="33"/>
-      <c r="Y29" s="34"/>
-      <c r="Z29" s="34"/>
-      <c r="AA29" s="34"/>
+      <c r="W29" s="52"/>
+      <c r="X29" s="52"/>
+      <c r="Y29" s="49"/>
+      <c r="Z29" s="49"/>
+      <c r="AA29" s="49"/>
       <c r="AB29" s="4"/>
       <c r="AC29" s="4"/>
       <c r="AD29" s="4"/>
@@ -3455,18 +3435,19 @@
       <c r="AI29" s="4"/>
       <c r="AJ29" s="4"/>
       <c r="AK29" s="4"/>
-      <c r="AL29" s="13"/>
-      <c r="AM29" s="22"/>
-      <c r="AN29" s="23"/>
-      <c r="AO29" s="23"/>
-      <c r="AP29" s="24"/>
-      <c r="AQ29" s="23"/>
-      <c r="AR29" s="23"/>
-      <c r="AS29" s="23"/>
-      <c r="AT29" s="23"/>
-      <c r="AU29" s="23"/>
-      <c r="AV29" s="23"/>
-      <c r="AW29" s="23"/>
+      <c r="AL29" s="4"/>
+      <c r="AM29" s="4"/>
+      <c r="AN29" s="4"/>
+      <c r="AO29" s="4"/>
+      <c r="AP29" s="4"/>
+      <c r="AQ29" s="4"/>
+      <c r="AR29" s="4"/>
+      <c r="AS29" s="4"/>
+      <c r="AT29" s="4"/>
+      <c r="AU29" s="4"/>
+      <c r="AV29" s="4"/>
+      <c r="AW29" s="4"/>
+      <c r="AX29" s="4"/>
       <c r="AY29" s="4"/>
       <c r="AZ29" s="4"/>
       <c r="BA29" s="4"/>
@@ -3476,41 +3457,41 @@
       <c r="BE29" s="4"/>
     </row>
     <row r="30" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="34"/>
-      <c r="B30" s="34"/>
-      <c r="C30" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="D30" s="43"/>
-      <c r="E30" s="43"/>
-      <c r="F30" s="43"/>
-      <c r="G30" s="43"/>
-      <c r="H30" s="43"/>
-      <c r="I30" s="43"/>
-      <c r="J30" s="43"/>
-      <c r="K30" s="43"/>
-      <c r="L30" s="43"/>
-      <c r="M30" s="43"/>
-      <c r="N30" s="43"/>
-      <c r="O30" s="43"/>
-      <c r="P30" s="43" t="s">
+      <c r="A30" s="49"/>
+      <c r="B30" s="49"/>
+      <c r="C30" s="50" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30" s="50"/>
+      <c r="E30" s="50"/>
+      <c r="F30" s="50"/>
+      <c r="G30" s="50"/>
+      <c r="H30" s="50"/>
+      <c r="I30" s="50"/>
+      <c r="J30" s="50"/>
+      <c r="K30" s="50"/>
+      <c r="L30" s="50"/>
+      <c r="M30" s="50"/>
+      <c r="N30" s="50"/>
+      <c r="O30" s="50"/>
+      <c r="P30" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="Q30" s="43"/>
-      <c r="R30" s="43"/>
-      <c r="S30" s="33">
-        <v>45103</v>
-      </c>
-      <c r="T30" s="33"/>
-      <c r="U30" s="33"/>
-      <c r="V30" s="33">
-        <v>45105</v>
-      </c>
-      <c r="W30" s="33"/>
-      <c r="X30" s="33"/>
-      <c r="Y30" s="34"/>
-      <c r="Z30" s="34"/>
-      <c r="AA30" s="34"/>
+      <c r="Q30" s="50"/>
+      <c r="R30" s="50"/>
+      <c r="S30" s="52">
+        <v>45096</v>
+      </c>
+      <c r="T30" s="52"/>
+      <c r="U30" s="52"/>
+      <c r="V30" s="52">
+        <v>45100</v>
+      </c>
+      <c r="W30" s="52"/>
+      <c r="X30" s="52"/>
+      <c r="Y30" s="49"/>
+      <c r="Z30" s="49"/>
+      <c r="AA30" s="49"/>
       <c r="AB30" s="4"/>
       <c r="AC30" s="4"/>
       <c r="AD30" s="4"/>
@@ -3521,19 +3502,18 @@
       <c r="AI30" s="4"/>
       <c r="AJ30" s="4"/>
       <c r="AK30" s="4"/>
-      <c r="AL30" s="4"/>
-      <c r="AM30" s="4"/>
-      <c r="AN30" s="4"/>
-      <c r="AO30" s="4"/>
-      <c r="AP30" s="4"/>
-      <c r="AQ30" s="4"/>
-      <c r="AR30" s="4"/>
-      <c r="AS30" s="4"/>
-      <c r="AT30" s="4"/>
-      <c r="AU30" s="4"/>
-      <c r="AV30" s="4"/>
-      <c r="AW30" s="4"/>
-      <c r="AX30" s="4"/>
+      <c r="AL30" s="13"/>
+      <c r="AM30" s="22"/>
+      <c r="AN30" s="23"/>
+      <c r="AO30" s="23"/>
+      <c r="AP30" s="24"/>
+      <c r="AQ30" s="23"/>
+      <c r="AR30" s="23"/>
+      <c r="AS30" s="23"/>
+      <c r="AT30" s="23"/>
+      <c r="AU30" s="23"/>
+      <c r="AV30" s="23"/>
+      <c r="AW30" s="23"/>
       <c r="AY30" s="4"/>
       <c r="AZ30" s="4"/>
       <c r="BA30" s="4"/>
@@ -3543,41 +3523,41 @@
       <c r="BE30" s="4"/>
     </row>
     <row r="31" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="34"/>
-      <c r="B31" s="34"/>
-      <c r="C31" s="43" t="s">
-        <v>23</v>
-      </c>
-      <c r="D31" s="43"/>
-      <c r="E31" s="43"/>
-      <c r="F31" s="43"/>
-      <c r="G31" s="43"/>
-      <c r="H31" s="43"/>
-      <c r="I31" s="43"/>
-      <c r="J31" s="43"/>
-      <c r="K31" s="43"/>
-      <c r="L31" s="43"/>
-      <c r="M31" s="43"/>
-      <c r="N31" s="43"/>
-      <c r="O31" s="43"/>
-      <c r="P31" s="43" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q31" s="43"/>
-      <c r="R31" s="43"/>
-      <c r="S31" s="33">
-        <v>45089</v>
-      </c>
-      <c r="T31" s="33"/>
-      <c r="U31" s="33"/>
-      <c r="V31" s="33">
+      <c r="A31" s="49"/>
+      <c r="B31" s="49"/>
+      <c r="C31" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="D31" s="50"/>
+      <c r="E31" s="50"/>
+      <c r="F31" s="50"/>
+      <c r="G31" s="50"/>
+      <c r="H31" s="50"/>
+      <c r="I31" s="50"/>
+      <c r="J31" s="50"/>
+      <c r="K31" s="50"/>
+      <c r="L31" s="50"/>
+      <c r="M31" s="50"/>
+      <c r="N31" s="50"/>
+      <c r="O31" s="50"/>
+      <c r="P31" s="50" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q31" s="50"/>
+      <c r="R31" s="50"/>
+      <c r="S31" s="52">
+        <v>45103</v>
+      </c>
+      <c r="T31" s="52"/>
+      <c r="U31" s="52"/>
+      <c r="V31" s="52">
         <v>45105</v>
       </c>
-      <c r="W31" s="33"/>
-      <c r="X31" s="33"/>
-      <c r="Y31" s="34"/>
-      <c r="Z31" s="34"/>
-      <c r="AA31" s="34"/>
+      <c r="W31" s="52"/>
+      <c r="X31" s="52"/>
+      <c r="Y31" s="49"/>
+      <c r="Z31" s="49"/>
+      <c r="AA31" s="49"/>
       <c r="AB31" s="4"/>
       <c r="AC31" s="4"/>
       <c r="AD31" s="4"/>
@@ -3610,33 +3590,41 @@
       <c r="BE31" s="4"/>
     </row>
     <row r="32" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="34"/>
-      <c r="B32" s="34"/>
-      <c r="C32" s="43"/>
-      <c r="D32" s="43"/>
-      <c r="E32" s="43"/>
-      <c r="F32" s="43"/>
-      <c r="G32" s="43"/>
-      <c r="H32" s="43"/>
-      <c r="I32" s="43"/>
-      <c r="J32" s="43"/>
-      <c r="K32" s="43"/>
-      <c r="L32" s="43"/>
-      <c r="M32" s="43"/>
-      <c r="N32" s="43"/>
-      <c r="O32" s="43"/>
-      <c r="P32" s="43"/>
-      <c r="Q32" s="43"/>
-      <c r="R32" s="43"/>
-      <c r="S32" s="33"/>
-      <c r="T32" s="33"/>
-      <c r="U32" s="33"/>
-      <c r="V32" s="33"/>
-      <c r="W32" s="33"/>
-      <c r="X32" s="33"/>
-      <c r="Y32" s="34"/>
-      <c r="Z32" s="34"/>
-      <c r="AA32" s="34"/>
+      <c r="A32" s="49"/>
+      <c r="B32" s="49"/>
+      <c r="C32" s="50" t="s">
+        <v>23</v>
+      </c>
+      <c r="D32" s="50"/>
+      <c r="E32" s="50"/>
+      <c r="F32" s="50"/>
+      <c r="G32" s="50"/>
+      <c r="H32" s="50"/>
+      <c r="I32" s="50"/>
+      <c r="J32" s="50"/>
+      <c r="K32" s="50"/>
+      <c r="L32" s="50"/>
+      <c r="M32" s="50"/>
+      <c r="N32" s="50"/>
+      <c r="O32" s="50"/>
+      <c r="P32" s="50" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q32" s="50"/>
+      <c r="R32" s="50"/>
+      <c r="S32" s="52">
+        <v>45089</v>
+      </c>
+      <c r="T32" s="52"/>
+      <c r="U32" s="52"/>
+      <c r="V32" s="52">
+        <v>45105</v>
+      </c>
+      <c r="W32" s="52"/>
+      <c r="X32" s="52"/>
+      <c r="Y32" s="49"/>
+      <c r="Z32" s="49"/>
+      <c r="AA32" s="49"/>
       <c r="AB32" s="4"/>
       <c r="AC32" s="4"/>
       <c r="AD32" s="4"/>
@@ -3662,42 +3650,40 @@
       <c r="AX32" s="4"/>
       <c r="AY32" s="4"/>
       <c r="AZ32" s="4"/>
-      <c r="BA32" s="13"/>
-      <c r="BB32" s="13"/>
-      <c r="BC32" s="13"/>
-      <c r="BD32" s="13"/>
+      <c r="BA32" s="4"/>
+      <c r="BB32" s="4"/>
+      <c r="BC32" s="4"/>
+      <c r="BD32" s="4"/>
       <c r="BE32" s="4"/>
     </row>
     <row r="33" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="34"/>
-      <c r="B33" s="34"/>
-      <c r="C33" s="43" t="s">
-        <v>17</v>
-      </c>
-      <c r="D33" s="43"/>
-      <c r="E33" s="43"/>
-      <c r="F33" s="43"/>
-      <c r="G33" s="43"/>
-      <c r="H33" s="43"/>
-      <c r="I33" s="43"/>
-      <c r="J33" s="43"/>
-      <c r="K33" s="43"/>
-      <c r="L33" s="43"/>
-      <c r="M33" s="43"/>
-      <c r="N33" s="43"/>
-      <c r="O33" s="43"/>
-      <c r="P33" s="43"/>
-      <c r="Q33" s="43"/>
-      <c r="R33" s="43"/>
-      <c r="S33" s="33"/>
-      <c r="T33" s="33"/>
-      <c r="U33" s="33"/>
-      <c r="V33" s="33"/>
-      <c r="W33" s="33"/>
-      <c r="X33" s="33"/>
-      <c r="Y33" s="34"/>
-      <c r="Z33" s="34"/>
-      <c r="AA33" s="34"/>
+      <c r="A33" s="49"/>
+      <c r="B33" s="49"/>
+      <c r="C33" s="50"/>
+      <c r="D33" s="50"/>
+      <c r="E33" s="50"/>
+      <c r="F33" s="50"/>
+      <c r="G33" s="50"/>
+      <c r="H33" s="50"/>
+      <c r="I33" s="50"/>
+      <c r="J33" s="50"/>
+      <c r="K33" s="50"/>
+      <c r="L33" s="50"/>
+      <c r="M33" s="50"/>
+      <c r="N33" s="50"/>
+      <c r="O33" s="50"/>
+      <c r="P33" s="50"/>
+      <c r="Q33" s="50"/>
+      <c r="R33" s="50"/>
+      <c r="S33" s="52"/>
+      <c r="T33" s="52"/>
+      <c r="U33" s="52"/>
+      <c r="V33" s="52"/>
+      <c r="W33" s="52"/>
+      <c r="X33" s="52"/>
+      <c r="Y33" s="49"/>
+      <c r="Z33" s="49"/>
+      <c r="AA33" s="49"/>
       <c r="AB33" s="4"/>
       <c r="AC33" s="4"/>
       <c r="AD33" s="4"/>
@@ -3727,36 +3713,38 @@
       <c r="BB33" s="13"/>
       <c r="BC33" s="13"/>
       <c r="BD33" s="13"/>
-      <c r="BE33" s="9"/>
+      <c r="BE33" s="4"/>
     </row>
     <row r="34" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="34"/>
-      <c r="B34" s="34"/>
-      <c r="C34" s="43"/>
-      <c r="D34" s="43"/>
-      <c r="E34" s="43"/>
-      <c r="F34" s="43"/>
-      <c r="G34" s="43"/>
-      <c r="H34" s="43"/>
-      <c r="I34" s="43"/>
-      <c r="J34" s="43"/>
-      <c r="K34" s="43"/>
-      <c r="L34" s="43"/>
-      <c r="M34" s="43"/>
-      <c r="N34" s="43"/>
-      <c r="O34" s="43"/>
-      <c r="P34" s="43"/>
-      <c r="Q34" s="43"/>
-      <c r="R34" s="43"/>
-      <c r="S34" s="33"/>
-      <c r="T34" s="33"/>
-      <c r="U34" s="33"/>
-      <c r="V34" s="33"/>
-      <c r="W34" s="33"/>
-      <c r="X34" s="33"/>
-      <c r="Y34" s="34"/>
-      <c r="Z34" s="34"/>
-      <c r="AA34" s="34"/>
+      <c r="A34" s="49"/>
+      <c r="B34" s="49"/>
+      <c r="C34" s="50" t="s">
+        <v>17</v>
+      </c>
+      <c r="D34" s="50"/>
+      <c r="E34" s="50"/>
+      <c r="F34" s="50"/>
+      <c r="G34" s="50"/>
+      <c r="H34" s="50"/>
+      <c r="I34" s="50"/>
+      <c r="J34" s="50"/>
+      <c r="K34" s="50"/>
+      <c r="L34" s="50"/>
+      <c r="M34" s="50"/>
+      <c r="N34" s="50"/>
+      <c r="O34" s="50"/>
+      <c r="P34" s="50"/>
+      <c r="Q34" s="50"/>
+      <c r="R34" s="50"/>
+      <c r="S34" s="52"/>
+      <c r="T34" s="52"/>
+      <c r="U34" s="52"/>
+      <c r="V34" s="52"/>
+      <c r="W34" s="52"/>
+      <c r="X34" s="52"/>
+      <c r="Y34" s="49"/>
+      <c r="Z34" s="49"/>
+      <c r="AA34" s="49"/>
       <c r="AB34" s="4"/>
       <c r="AC34" s="4"/>
       <c r="AD34" s="4"/>
@@ -3786,36 +3774,36 @@
       <c r="BB34" s="13"/>
       <c r="BC34" s="13"/>
       <c r="BD34" s="13"/>
-      <c r="BE34" s="22"/>
+      <c r="BE34" s="9"/>
     </row>
     <row r="35" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="34"/>
-      <c r="B35" s="34"/>
-      <c r="C35" s="43"/>
-      <c r="D35" s="43"/>
-      <c r="E35" s="43"/>
-      <c r="F35" s="43"/>
-      <c r="G35" s="43"/>
-      <c r="H35" s="43"/>
-      <c r="I35" s="43"/>
-      <c r="J35" s="43"/>
-      <c r="K35" s="43"/>
-      <c r="L35" s="43"/>
-      <c r="M35" s="43"/>
-      <c r="N35" s="43"/>
-      <c r="O35" s="43"/>
-      <c r="P35" s="43"/>
-      <c r="Q35" s="43"/>
-      <c r="R35" s="43"/>
-      <c r="S35" s="33"/>
-      <c r="T35" s="33"/>
-      <c r="U35" s="33"/>
-      <c r="V35" s="33"/>
-      <c r="W35" s="33"/>
-      <c r="X35" s="33"/>
-      <c r="Y35" s="34"/>
-      <c r="Z35" s="34"/>
-      <c r="AA35" s="34"/>
+      <c r="A35" s="49"/>
+      <c r="B35" s="49"/>
+      <c r="C35" s="50"/>
+      <c r="D35" s="50"/>
+      <c r="E35" s="50"/>
+      <c r="F35" s="50"/>
+      <c r="G35" s="50"/>
+      <c r="H35" s="50"/>
+      <c r="I35" s="50"/>
+      <c r="J35" s="50"/>
+      <c r="K35" s="50"/>
+      <c r="L35" s="50"/>
+      <c r="M35" s="50"/>
+      <c r="N35" s="50"/>
+      <c r="O35" s="50"/>
+      <c r="P35" s="50"/>
+      <c r="Q35" s="50"/>
+      <c r="R35" s="50"/>
+      <c r="S35" s="52"/>
+      <c r="T35" s="52"/>
+      <c r="U35" s="52"/>
+      <c r="V35" s="52"/>
+      <c r="W35" s="52"/>
+      <c r="X35" s="52"/>
+      <c r="Y35" s="49"/>
+      <c r="Z35" s="49"/>
+      <c r="AA35" s="49"/>
       <c r="AB35" s="4"/>
       <c r="AC35" s="4"/>
       <c r="AD35" s="4"/>
@@ -3841,40 +3829,40 @@
       <c r="AX35" s="4"/>
       <c r="AY35" s="4"/>
       <c r="AZ35" s="4"/>
-      <c r="BA35" s="4"/>
-      <c r="BB35" s="4"/>
-      <c r="BC35" s="4"/>
-      <c r="BD35" s="4"/>
-      <c r="BE35" s="4"/>
+      <c r="BA35" s="13"/>
+      <c r="BB35" s="13"/>
+      <c r="BC35" s="13"/>
+      <c r="BD35" s="13"/>
+      <c r="BE35" s="22"/>
     </row>
     <row r="36" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="34"/>
-      <c r="B36" s="34"/>
-      <c r="C36" s="43"/>
-      <c r="D36" s="43"/>
-      <c r="E36" s="43"/>
-      <c r="F36" s="43"/>
-      <c r="G36" s="43"/>
-      <c r="H36" s="43"/>
-      <c r="I36" s="43"/>
-      <c r="J36" s="43"/>
-      <c r="K36" s="43"/>
-      <c r="L36" s="43"/>
-      <c r="M36" s="43"/>
-      <c r="N36" s="43"/>
-      <c r="O36" s="43"/>
-      <c r="P36" s="43"/>
-      <c r="Q36" s="43"/>
-      <c r="R36" s="43"/>
-      <c r="S36" s="33"/>
-      <c r="T36" s="33"/>
-      <c r="U36" s="33"/>
-      <c r="V36" s="33"/>
-      <c r="W36" s="33"/>
-      <c r="X36" s="33"/>
-      <c r="Y36" s="34"/>
-      <c r="Z36" s="34"/>
-      <c r="AA36" s="34"/>
+      <c r="A36" s="49"/>
+      <c r="B36" s="49"/>
+      <c r="C36" s="50"/>
+      <c r="D36" s="50"/>
+      <c r="E36" s="50"/>
+      <c r="F36" s="50"/>
+      <c r="G36" s="50"/>
+      <c r="H36" s="50"/>
+      <c r="I36" s="50"/>
+      <c r="J36" s="50"/>
+      <c r="K36" s="50"/>
+      <c r="L36" s="50"/>
+      <c r="M36" s="50"/>
+      <c r="N36" s="50"/>
+      <c r="O36" s="50"/>
+      <c r="P36" s="50"/>
+      <c r="Q36" s="50"/>
+      <c r="R36" s="50"/>
+      <c r="S36" s="52"/>
+      <c r="T36" s="52"/>
+      <c r="U36" s="52"/>
+      <c r="V36" s="52"/>
+      <c r="W36" s="52"/>
+      <c r="X36" s="52"/>
+      <c r="Y36" s="49"/>
+      <c r="Z36" s="49"/>
+      <c r="AA36" s="49"/>
       <c r="AB36" s="4"/>
       <c r="AC36" s="4"/>
       <c r="AD36" s="4"/>
@@ -3906,7 +3894,65 @@
       <c r="BD36" s="4"/>
       <c r="BE36" s="4"/>
     </row>
-    <row r="37" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="37" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="49"/>
+      <c r="B37" s="49"/>
+      <c r="C37" s="50"/>
+      <c r="D37" s="50"/>
+      <c r="E37" s="50"/>
+      <c r="F37" s="50"/>
+      <c r="G37" s="50"/>
+      <c r="H37" s="50"/>
+      <c r="I37" s="50"/>
+      <c r="J37" s="50"/>
+      <c r="K37" s="50"/>
+      <c r="L37" s="50"/>
+      <c r="M37" s="50"/>
+      <c r="N37" s="50"/>
+      <c r="O37" s="50"/>
+      <c r="P37" s="50"/>
+      <c r="Q37" s="50"/>
+      <c r="R37" s="50"/>
+      <c r="S37" s="52"/>
+      <c r="T37" s="52"/>
+      <c r="U37" s="52"/>
+      <c r="V37" s="52"/>
+      <c r="W37" s="52"/>
+      <c r="X37" s="52"/>
+      <c r="Y37" s="49"/>
+      <c r="Z37" s="49"/>
+      <c r="AA37" s="49"/>
+      <c r="AB37" s="4"/>
+      <c r="AC37" s="4"/>
+      <c r="AD37" s="4"/>
+      <c r="AE37" s="4"/>
+      <c r="AF37" s="4"/>
+      <c r="AG37" s="4"/>
+      <c r="AH37" s="4"/>
+      <c r="AI37" s="4"/>
+      <c r="AJ37" s="4"/>
+      <c r="AK37" s="4"/>
+      <c r="AL37" s="4"/>
+      <c r="AM37" s="4"/>
+      <c r="AN37" s="4"/>
+      <c r="AO37" s="4"/>
+      <c r="AP37" s="4"/>
+      <c r="AQ37" s="4"/>
+      <c r="AR37" s="4"/>
+      <c r="AS37" s="4"/>
+      <c r="AT37" s="4"/>
+      <c r="AU37" s="4"/>
+      <c r="AV37" s="4"/>
+      <c r="AW37" s="4"/>
+      <c r="AX37" s="4"/>
+      <c r="AY37" s="4"/>
+      <c r="AZ37" s="4"/>
+      <c r="BA37" s="4"/>
+      <c r="BB37" s="4"/>
+      <c r="BC37" s="4"/>
+      <c r="BD37" s="4"/>
+      <c r="BE37" s="4"/>
+    </row>
     <row r="38" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="39" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="40" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3917,180 +3963,32 @@
     <row r="45" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="46" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="47" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="48" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="215">
-    <mergeCell ref="A1:G2"/>
-    <mergeCell ref="AH1:AN1"/>
-    <mergeCell ref="AH2:AN2"/>
-    <mergeCell ref="AD1:AG1"/>
-    <mergeCell ref="AD2:AG2"/>
-    <mergeCell ref="Y4:AA6"/>
-    <mergeCell ref="C5:G6"/>
-    <mergeCell ref="H5:O6"/>
-    <mergeCell ref="S5:U6"/>
-    <mergeCell ref="V5:X6"/>
-    <mergeCell ref="A4:B6"/>
-    <mergeCell ref="C4:O4"/>
-    <mergeCell ref="P4:R6"/>
-    <mergeCell ref="S4:X4"/>
-    <mergeCell ref="H1:AC2"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="Y11:AA11"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="H11:O11"/>
-    <mergeCell ref="P11:R11"/>
-    <mergeCell ref="S11:U11"/>
-    <mergeCell ref="V11:X11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="H13:O13"/>
-    <mergeCell ref="P12:R12"/>
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="V13:X13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="H14:O14"/>
-    <mergeCell ref="P14:R14"/>
-    <mergeCell ref="S14:U14"/>
-    <mergeCell ref="V14:X14"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="H12:O12"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="H16:O16"/>
-    <mergeCell ref="P16:R16"/>
-    <mergeCell ref="S16:U16"/>
-    <mergeCell ref="V16:X16"/>
-    <mergeCell ref="Y16:AA16"/>
-    <mergeCell ref="Y13:AA13"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="H15:O15"/>
-    <mergeCell ref="P15:R15"/>
-    <mergeCell ref="S15:U15"/>
-    <mergeCell ref="V15:X15"/>
-    <mergeCell ref="Y15:AA15"/>
-    <mergeCell ref="Y14:AA14"/>
-    <mergeCell ref="P13:R13"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="P17:R17"/>
-    <mergeCell ref="S17:U17"/>
-    <mergeCell ref="V17:X17"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="Y20:AA20"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="H20:O20"/>
-    <mergeCell ref="P20:R20"/>
-    <mergeCell ref="S20:U20"/>
-    <mergeCell ref="V20:X20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="H21:O21"/>
-    <mergeCell ref="S21:U21"/>
-    <mergeCell ref="V21:X21"/>
-    <mergeCell ref="Y21:AA21"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="H22:O22"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="H18:O18"/>
-    <mergeCell ref="P21:R21"/>
-    <mergeCell ref="Y18:AA18"/>
-    <mergeCell ref="P22:R22"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="H25:O25"/>
-    <mergeCell ref="P25:R25"/>
-    <mergeCell ref="S25:U25"/>
-    <mergeCell ref="V25:X25"/>
-    <mergeCell ref="Y25:AA25"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="H24:O24"/>
-    <mergeCell ref="P24:R24"/>
-    <mergeCell ref="S24:U24"/>
-    <mergeCell ref="V24:X24"/>
-    <mergeCell ref="Y24:AA24"/>
-    <mergeCell ref="Y26:AA26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="H27:O27"/>
-    <mergeCell ref="P27:R27"/>
-    <mergeCell ref="S27:U27"/>
-    <mergeCell ref="V27:X27"/>
-    <mergeCell ref="Y27:AA27"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="H26:O26"/>
-    <mergeCell ref="P26:R26"/>
-    <mergeCell ref="S26:U26"/>
-    <mergeCell ref="V26:X26"/>
-    <mergeCell ref="Y28:AA28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="H29:O29"/>
-    <mergeCell ref="P29:R29"/>
-    <mergeCell ref="S29:U29"/>
-    <mergeCell ref="V29:X29"/>
-    <mergeCell ref="Y29:AA29"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="H28:O28"/>
-    <mergeCell ref="P28:R28"/>
-    <mergeCell ref="S28:U28"/>
-    <mergeCell ref="V28:X28"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="Y30:AA30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="H31:O31"/>
-    <mergeCell ref="P31:R31"/>
-    <mergeCell ref="S31:U31"/>
-    <mergeCell ref="V31:X31"/>
-    <mergeCell ref="Y31:AA31"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="Y36:AA36"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="H36:O36"/>
-    <mergeCell ref="P36:R36"/>
-    <mergeCell ref="S36:U36"/>
-    <mergeCell ref="V36:X36"/>
-    <mergeCell ref="Y34:AA34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="H35:O35"/>
-    <mergeCell ref="P35:R35"/>
-    <mergeCell ref="S35:U35"/>
-    <mergeCell ref="V35:X35"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="H30:O30"/>
-    <mergeCell ref="P30:R30"/>
-    <mergeCell ref="S30:U30"/>
-    <mergeCell ref="V30:X30"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="Y35:AA35"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="H34:O34"/>
-    <mergeCell ref="P34:R34"/>
-    <mergeCell ref="S34:U34"/>
-    <mergeCell ref="V34:X34"/>
-    <mergeCell ref="Y32:AA32"/>
-    <mergeCell ref="Y33:AA33"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="H32:O32"/>
-    <mergeCell ref="P32:R32"/>
-    <mergeCell ref="S32:U32"/>
-    <mergeCell ref="V32:X32"/>
-    <mergeCell ref="H33:O33"/>
-    <mergeCell ref="P33:R33"/>
-    <mergeCell ref="S33:U33"/>
-    <mergeCell ref="V33:X33"/>
+  <mergeCells count="221">
+    <mergeCell ref="P23:R23"/>
+    <mergeCell ref="S22:U22"/>
+    <mergeCell ref="S23:U23"/>
+    <mergeCell ref="V22:X22"/>
+    <mergeCell ref="V23:X23"/>
+    <mergeCell ref="Y22:AA22"/>
+    <mergeCell ref="Y23:AA23"/>
+    <mergeCell ref="H23:O23"/>
+    <mergeCell ref="H19:O19"/>
+    <mergeCell ref="P19:R19"/>
+    <mergeCell ref="S19:U19"/>
+    <mergeCell ref="V19:X19"/>
+    <mergeCell ref="Y19:AA19"/>
+    <mergeCell ref="Y12:AA12"/>
+    <mergeCell ref="V12:X12"/>
+    <mergeCell ref="S12:U12"/>
+    <mergeCell ref="P18:R18"/>
+    <mergeCell ref="S18:U18"/>
+    <mergeCell ref="V18:X18"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="Y17:AA17"/>
+    <mergeCell ref="Y10:AA10"/>
+    <mergeCell ref="H17:O17"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="H7:O7"/>
     <mergeCell ref="P7:R7"/>
@@ -4111,29 +4009,184 @@
     <mergeCell ref="S8:U8"/>
     <mergeCell ref="V8:X8"/>
     <mergeCell ref="Y8:AA8"/>
-    <mergeCell ref="Y12:AA12"/>
-    <mergeCell ref="V12:X12"/>
-    <mergeCell ref="S12:U12"/>
-    <mergeCell ref="P18:R18"/>
-    <mergeCell ref="S18:U18"/>
-    <mergeCell ref="V18:X18"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="Y17:AA17"/>
-    <mergeCell ref="Y10:AA10"/>
-    <mergeCell ref="H17:O17"/>
-    <mergeCell ref="P23:R23"/>
-    <mergeCell ref="S22:U22"/>
-    <mergeCell ref="S23:U23"/>
-    <mergeCell ref="V22:X22"/>
-    <mergeCell ref="V23:X23"/>
-    <mergeCell ref="Y22:AA22"/>
-    <mergeCell ref="Y23:AA23"/>
-    <mergeCell ref="H23:O23"/>
-    <mergeCell ref="H19:O19"/>
-    <mergeCell ref="P19:R19"/>
-    <mergeCell ref="S19:U19"/>
-    <mergeCell ref="V19:X19"/>
-    <mergeCell ref="Y19:AA19"/>
+    <mergeCell ref="Y36:AA36"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="H35:O35"/>
+    <mergeCell ref="P35:R35"/>
+    <mergeCell ref="S35:U35"/>
+    <mergeCell ref="V35:X35"/>
+    <mergeCell ref="Y33:AA33"/>
+    <mergeCell ref="Y34:AA34"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H33:O33"/>
+    <mergeCell ref="P33:R33"/>
+    <mergeCell ref="S33:U33"/>
+    <mergeCell ref="V33:X33"/>
+    <mergeCell ref="H34:O34"/>
+    <mergeCell ref="P34:R34"/>
+    <mergeCell ref="S34:U34"/>
+    <mergeCell ref="V34:X34"/>
+    <mergeCell ref="Y37:AA37"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="H37:O37"/>
+    <mergeCell ref="P37:R37"/>
+    <mergeCell ref="S37:U37"/>
+    <mergeCell ref="V37:X37"/>
+    <mergeCell ref="Y35:AA35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="H36:O36"/>
+    <mergeCell ref="P36:R36"/>
+    <mergeCell ref="S36:U36"/>
+    <mergeCell ref="V36:X36"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="H31:O31"/>
+    <mergeCell ref="P31:R31"/>
+    <mergeCell ref="S31:U31"/>
+    <mergeCell ref="V31:X31"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="Y29:AA29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="H30:O30"/>
+    <mergeCell ref="P30:R30"/>
+    <mergeCell ref="S30:U30"/>
+    <mergeCell ref="V30:X30"/>
+    <mergeCell ref="Y30:AA30"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H29:O29"/>
+    <mergeCell ref="P29:R29"/>
+    <mergeCell ref="S29:U29"/>
+    <mergeCell ref="V29:X29"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="Y31:AA31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="H32:O32"/>
+    <mergeCell ref="P32:R32"/>
+    <mergeCell ref="S32:U32"/>
+    <mergeCell ref="V32:X32"/>
+    <mergeCell ref="Y32:AA32"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="Y27:AA27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:O28"/>
+    <mergeCell ref="P28:R28"/>
+    <mergeCell ref="S28:U28"/>
+    <mergeCell ref="V28:X28"/>
+    <mergeCell ref="Y28:AA28"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="H27:O27"/>
+    <mergeCell ref="P27:R27"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="V27:X27"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:O26"/>
+    <mergeCell ref="P26:R26"/>
+    <mergeCell ref="S26:U26"/>
+    <mergeCell ref="V26:X26"/>
+    <mergeCell ref="Y26:AA26"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:O24"/>
+    <mergeCell ref="P24:R24"/>
+    <mergeCell ref="S24:U24"/>
+    <mergeCell ref="V24:X24"/>
+    <mergeCell ref="Y24:AA24"/>
+    <mergeCell ref="S25:U25"/>
+    <mergeCell ref="V25:X25"/>
+    <mergeCell ref="Y25:AA25"/>
+    <mergeCell ref="H25:O25"/>
+    <mergeCell ref="P25:R25"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="H21:O21"/>
+    <mergeCell ref="S21:U21"/>
+    <mergeCell ref="V21:X21"/>
+    <mergeCell ref="Y21:AA21"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:O22"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H18:O18"/>
+    <mergeCell ref="P21:R21"/>
+    <mergeCell ref="Y18:AA18"/>
+    <mergeCell ref="P22:R22"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="P17:R17"/>
+    <mergeCell ref="S17:U17"/>
+    <mergeCell ref="V17:X17"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="Y20:AA20"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="H20:O20"/>
+    <mergeCell ref="P20:R20"/>
+    <mergeCell ref="S20:U20"/>
+    <mergeCell ref="V20:X20"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H16:O16"/>
+    <mergeCell ref="P16:R16"/>
+    <mergeCell ref="S16:U16"/>
+    <mergeCell ref="V16:X16"/>
+    <mergeCell ref="Y16:AA16"/>
+    <mergeCell ref="Y13:AA13"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="H15:O15"/>
+    <mergeCell ref="P15:R15"/>
+    <mergeCell ref="S15:U15"/>
+    <mergeCell ref="V15:X15"/>
+    <mergeCell ref="Y15:AA15"/>
+    <mergeCell ref="Y14:AA14"/>
+    <mergeCell ref="P13:R13"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H13:O13"/>
+    <mergeCell ref="P12:R12"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="V13:X13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:O14"/>
+    <mergeCell ref="P14:R14"/>
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="V14:X14"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H12:O12"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="Y11:AA11"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="H11:O11"/>
+    <mergeCell ref="P11:R11"/>
+    <mergeCell ref="S11:U11"/>
+    <mergeCell ref="V11:X11"/>
+    <mergeCell ref="A1:G2"/>
+    <mergeCell ref="AH1:AN1"/>
+    <mergeCell ref="AH2:AN2"/>
+    <mergeCell ref="AD1:AG1"/>
+    <mergeCell ref="AD2:AG2"/>
+    <mergeCell ref="Y4:AA6"/>
+    <mergeCell ref="C5:G6"/>
+    <mergeCell ref="H5:O6"/>
+    <mergeCell ref="S5:U6"/>
+    <mergeCell ref="V5:X6"/>
+    <mergeCell ref="A4:B6"/>
+    <mergeCell ref="C4:O4"/>
+    <mergeCell ref="P4:R6"/>
+    <mergeCell ref="S4:X4"/>
+    <mergeCell ref="H1:AC2"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="AC5:BE6">

--- a/doc/進捗管理表_D3.xlsx
+++ b/doc/進捗管理表_D3.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFC4C24F-4B3C-419E-BFAB-E4AA021C5569}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8A41671-0266-4DC7-98D7-0B0160FDA586}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="110" yWindow="0" windowWidth="11680" windowHeight="10180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="43">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -270,19 +270,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>未着手</t>
-    <rPh sb="0" eb="1">
-      <t>ミ</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>チャク</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>シュ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>スケジュール決め</t>
     <rPh sb="6" eb="7">
       <t>キ</t>
@@ -300,20 +287,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>　クラス構成図</t>
-    <rPh sb="4" eb="7">
-      <t>コウセイズ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>　クラス設計書</t>
-    <rPh sb="4" eb="7">
-      <t>セッケイショ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>　外部設計書</t>
     <rPh sb="1" eb="3">
       <t>ガイブ</t>
@@ -384,6 +357,16 @@
     </rPh>
     <rPh sb="9" eb="11">
       <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>様子見ながら</t>
+    <rPh sb="0" eb="2">
+      <t>ヨウス</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ミ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -827,7 +810,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -861,9 +844,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -918,6 +898,111 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -975,112 +1060,16 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1406,17 +1395,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BG48"/>
+  <dimension ref="A1:BG46"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" zoomScale="67" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AI28" sqref="AI28"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="67" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="Y17" sqref="Y17:AA17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.25" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="17" width="3.25" style="1"/>
     <col min="18" max="18" width="10.1640625" style="1" customWidth="1"/>
-    <col min="19" max="27" width="3.25" style="1"/>
+    <col min="19" max="26" width="3.25" style="1"/>
+    <col min="27" max="27" width="5.08203125" style="1" customWidth="1"/>
     <col min="28" max="29" width="3.25" style="1" customWidth="1"/>
     <col min="30" max="32" width="3.25" style="1"/>
     <col min="33" max="33" width="3.25" style="1" customWidth="1"/>
@@ -1424,139 +1414,139 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:59" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="43" t="s">
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="77" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44"/>
-      <c r="N1" s="44"/>
-      <c r="O1" s="44"/>
-      <c r="P1" s="44"/>
-      <c r="Q1" s="44"/>
-      <c r="R1" s="44"/>
-      <c r="S1" s="44"/>
-      <c r="T1" s="44"/>
-      <c r="U1" s="44"/>
-      <c r="V1" s="44"/>
-      <c r="W1" s="44"/>
-      <c r="X1" s="44"/>
-      <c r="Y1" s="44"/>
-      <c r="Z1" s="44"/>
-      <c r="AA1" s="44"/>
-      <c r="AB1" s="44"/>
-      <c r="AC1" s="45"/>
-      <c r="AD1" s="37" t="s">
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
+      <c r="N1" s="78"/>
+      <c r="O1" s="78"/>
+      <c r="P1" s="78"/>
+      <c r="Q1" s="78"/>
+      <c r="R1" s="78"/>
+      <c r="S1" s="78"/>
+      <c r="T1" s="78"/>
+      <c r="U1" s="78"/>
+      <c r="V1" s="78"/>
+      <c r="W1" s="78"/>
+      <c r="X1" s="78"/>
+      <c r="Y1" s="78"/>
+      <c r="Z1" s="78"/>
+      <c r="AA1" s="78"/>
+      <c r="AB1" s="78"/>
+      <c r="AC1" s="79"/>
+      <c r="AD1" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="AE1" s="38"/>
-      <c r="AF1" s="38"/>
-      <c r="AG1" s="39"/>
-      <c r="AH1" s="34">
+      <c r="AE1" s="72"/>
+      <c r="AF1" s="72"/>
+      <c r="AG1" s="73"/>
+      <c r="AH1" s="68">
         <v>45078</v>
       </c>
-      <c r="AI1" s="35"/>
-      <c r="AJ1" s="35"/>
-      <c r="AK1" s="35"/>
-      <c r="AL1" s="35"/>
-      <c r="AM1" s="35"/>
-      <c r="AN1" s="36"/>
+      <c r="AI1" s="69"/>
+      <c r="AJ1" s="69"/>
+      <c r="AK1" s="69"/>
+      <c r="AL1" s="69"/>
+      <c r="AM1" s="69"/>
+      <c r="AN1" s="70"/>
     </row>
     <row r="2" spans="1:59" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="32"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="47"/>
-      <c r="L2" s="47"/>
-      <c r="M2" s="47"/>
-      <c r="N2" s="47"/>
-      <c r="O2" s="47"/>
-      <c r="P2" s="47"/>
-      <c r="Q2" s="47"/>
-      <c r="R2" s="47"/>
-      <c r="S2" s="47"/>
-      <c r="T2" s="47"/>
-      <c r="U2" s="47"/>
-      <c r="V2" s="47"/>
-      <c r="W2" s="47"/>
-      <c r="X2" s="47"/>
-      <c r="Y2" s="47"/>
-      <c r="Z2" s="47"/>
-      <c r="AA2" s="47"/>
-      <c r="AB2" s="47"/>
-      <c r="AC2" s="48"/>
-      <c r="AD2" s="37" t="s">
+      <c r="A2" s="66"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="80"/>
+      <c r="I2" s="81"/>
+      <c r="J2" s="81"/>
+      <c r="K2" s="81"/>
+      <c r="L2" s="81"/>
+      <c r="M2" s="81"/>
+      <c r="N2" s="81"/>
+      <c r="O2" s="81"/>
+      <c r="P2" s="81"/>
+      <c r="Q2" s="81"/>
+      <c r="R2" s="81"/>
+      <c r="S2" s="81"/>
+      <c r="T2" s="81"/>
+      <c r="U2" s="81"/>
+      <c r="V2" s="81"/>
+      <c r="W2" s="81"/>
+      <c r="X2" s="81"/>
+      <c r="Y2" s="81"/>
+      <c r="Z2" s="81"/>
+      <c r="AA2" s="81"/>
+      <c r="AB2" s="81"/>
+      <c r="AC2" s="82"/>
+      <c r="AD2" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="AE2" s="38"/>
-      <c r="AF2" s="38"/>
-      <c r="AG2" s="39"/>
-      <c r="AH2" s="34">
+      <c r="AE2" s="72"/>
+      <c r="AF2" s="72"/>
+      <c r="AG2" s="73"/>
+      <c r="AH2" s="68">
         <v>45107</v>
       </c>
-      <c r="AI2" s="35"/>
-      <c r="AJ2" s="35"/>
-      <c r="AK2" s="35"/>
-      <c r="AL2" s="35"/>
-      <c r="AM2" s="35"/>
-      <c r="AN2" s="36"/>
+      <c r="AI2" s="69"/>
+      <c r="AJ2" s="69"/>
+      <c r="AK2" s="69"/>
+      <c r="AL2" s="69"/>
+      <c r="AM2" s="69"/>
+      <c r="AN2" s="70"/>
     </row>
     <row r="4" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="41"/>
-      <c r="C4" s="42" t="s">
+      <c r="B4" s="75"/>
+      <c r="C4" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="42"/>
-      <c r="J4" s="42"/>
-      <c r="K4" s="42"/>
-      <c r="L4" s="42"/>
-      <c r="M4" s="42"/>
-      <c r="N4" s="42"/>
-      <c r="O4" s="42"/>
-      <c r="P4" s="41" t="s">
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76"/>
+      <c r="K4" s="76"/>
+      <c r="L4" s="76"/>
+      <c r="M4" s="76"/>
+      <c r="N4" s="76"/>
+      <c r="O4" s="76"/>
+      <c r="P4" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="Q4" s="41"/>
-      <c r="R4" s="41"/>
-      <c r="S4" s="41" t="s">
+      <c r="Q4" s="75"/>
+      <c r="R4" s="75"/>
+      <c r="S4" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="T4" s="41"/>
-      <c r="U4" s="41"/>
-      <c r="V4" s="41"/>
-      <c r="W4" s="41"/>
-      <c r="X4" s="41"/>
-      <c r="Y4" s="40" t="s">
+      <c r="T4" s="75"/>
+      <c r="U4" s="75"/>
+      <c r="V4" s="75"/>
+      <c r="W4" s="75"/>
+      <c r="X4" s="75"/>
+      <c r="Y4" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="Z4" s="40"/>
-      <c r="AA4" s="40"/>
+      <c r="Z4" s="74"/>
+      <c r="AA4" s="74"/>
       <c r="AB4" s="7">
         <f>AH1</f>
         <v>45078</v>
@@ -1681,41 +1671,41 @@
       <c r="BG4" s="3"/>
     </row>
     <row r="5" spans="1:59" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="41"/>
-      <c r="B5" s="41"/>
-      <c r="C5" s="41" t="s">
+      <c r="A5" s="75"/>
+      <c r="B5" s="75"/>
+      <c r="C5" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41" t="s">
+      <c r="D5" s="75"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="75"/>
+      <c r="G5" s="75"/>
+      <c r="H5" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="41"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="41"/>
-      <c r="L5" s="41"/>
-      <c r="M5" s="41"/>
-      <c r="N5" s="41"/>
-      <c r="O5" s="41"/>
-      <c r="P5" s="41"/>
-      <c r="Q5" s="41"/>
-      <c r="R5" s="41"/>
-      <c r="S5" s="41" t="s">
+      <c r="I5" s="75"/>
+      <c r="J5" s="75"/>
+      <c r="K5" s="75"/>
+      <c r="L5" s="75"/>
+      <c r="M5" s="75"/>
+      <c r="N5" s="75"/>
+      <c r="O5" s="75"/>
+      <c r="P5" s="75"/>
+      <c r="Q5" s="75"/>
+      <c r="R5" s="75"/>
+      <c r="S5" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="T5" s="41"/>
-      <c r="U5" s="41"/>
-      <c r="V5" s="41" t="s">
+      <c r="T5" s="75"/>
+      <c r="U5" s="75"/>
+      <c r="V5" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="W5" s="41"/>
-      <c r="X5" s="41"/>
-      <c r="Y5" s="40"/>
-      <c r="Z5" s="40"/>
-      <c r="AA5" s="40"/>
+      <c r="W5" s="75"/>
+      <c r="X5" s="75"/>
+      <c r="Y5" s="74"/>
+      <c r="Z5" s="74"/>
+      <c r="AA5" s="74"/>
       <c r="AB5" s="5">
         <f>AH1</f>
         <v>45078</v>
@@ -1838,33 +1828,33 @@
       </c>
     </row>
     <row r="6" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="41"/>
-      <c r="B6" s="41"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="41"/>
-      <c r="J6" s="41"/>
-      <c r="K6" s="41"/>
-      <c r="L6" s="41"/>
-      <c r="M6" s="41"/>
-      <c r="N6" s="41"/>
-      <c r="O6" s="41"/>
-      <c r="P6" s="41"/>
-      <c r="Q6" s="41"/>
-      <c r="R6" s="41"/>
-      <c r="S6" s="41"/>
-      <c r="T6" s="41"/>
-      <c r="U6" s="41"/>
-      <c r="V6" s="41"/>
-      <c r="W6" s="41"/>
-      <c r="X6" s="41"/>
-      <c r="Y6" s="40"/>
-      <c r="Z6" s="40"/>
-      <c r="AA6" s="40"/>
+      <c r="A6" s="75"/>
+      <c r="B6" s="75"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="75"/>
+      <c r="F6" s="75"/>
+      <c r="G6" s="75"/>
+      <c r="H6" s="75"/>
+      <c r="I6" s="75"/>
+      <c r="J6" s="75"/>
+      <c r="K6" s="75"/>
+      <c r="L6" s="75"/>
+      <c r="M6" s="75"/>
+      <c r="N6" s="75"/>
+      <c r="O6" s="75"/>
+      <c r="P6" s="75"/>
+      <c r="Q6" s="75"/>
+      <c r="R6" s="75"/>
+      <c r="S6" s="75"/>
+      <c r="T6" s="75"/>
+      <c r="U6" s="75"/>
+      <c r="V6" s="75"/>
+      <c r="W6" s="75"/>
+      <c r="X6" s="75"/>
+      <c r="Y6" s="74"/>
+      <c r="Z6" s="74"/>
+      <c r="AA6" s="74"/>
       <c r="AB6" s="6" t="str">
         <f>TEXT(AB5,"aaa")</f>
         <v>木</v>
@@ -1987,35 +1977,35 @@
       </c>
     </row>
     <row r="7" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="49"/>
-      <c r="B7" s="49"/>
-      <c r="C7" s="50" t="s">
+      <c r="A7" s="33"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50"/>
-      <c r="H7" s="50"/>
-      <c r="I7" s="50"/>
-      <c r="J7" s="50"/>
-      <c r="K7" s="50"/>
-      <c r="L7" s="50"/>
-      <c r="M7" s="50"/>
-      <c r="N7" s="50"/>
-      <c r="O7" s="50"/>
-      <c r="P7" s="50"/>
-      <c r="Q7" s="50"/>
-      <c r="R7" s="50"/>
-      <c r="S7" s="52"/>
-      <c r="T7" s="52"/>
-      <c r="U7" s="52"/>
-      <c r="V7" s="52"/>
-      <c r="W7" s="52"/>
-      <c r="X7" s="52"/>
-      <c r="Y7" s="49"/>
-      <c r="Z7" s="49"/>
-      <c r="AA7" s="49"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="41"/>
+      <c r="J7" s="41"/>
+      <c r="K7" s="41"/>
+      <c r="L7" s="41"/>
+      <c r="M7" s="41"/>
+      <c r="N7" s="41"/>
+      <c r="O7" s="41"/>
+      <c r="P7" s="41"/>
+      <c r="Q7" s="41"/>
+      <c r="R7" s="41"/>
+      <c r="S7" s="32"/>
+      <c r="T7" s="32"/>
+      <c r="U7" s="32"/>
+      <c r="V7" s="32"/>
+      <c r="W7" s="32"/>
+      <c r="X7" s="32"/>
+      <c r="Y7" s="33"/>
+      <c r="Z7" s="33"/>
+      <c r="AA7" s="33"/>
       <c r="AB7" s="4"/>
       <c r="AC7" s="4"/>
       <c r="AD7" s="4"/>
@@ -2048,41 +2038,41 @@
       <c r="BE7" s="4"/>
     </row>
     <row r="8" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="49"/>
-      <c r="B8" s="49"/>
-      <c r="C8" s="50"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="50"/>
-      <c r="G8" s="50"/>
-      <c r="H8" s="51" t="s">
+      <c r="A8" s="33"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="I8" s="51"/>
-      <c r="J8" s="51"/>
-      <c r="K8" s="51"/>
-      <c r="L8" s="51"/>
-      <c r="M8" s="51"/>
-      <c r="N8" s="51"/>
-      <c r="O8" s="51"/>
-      <c r="P8" s="50"/>
-      <c r="Q8" s="50"/>
-      <c r="R8" s="50"/>
-      <c r="S8" s="52">
+      <c r="I8" s="43"/>
+      <c r="J8" s="43"/>
+      <c r="K8" s="43"/>
+      <c r="L8" s="43"/>
+      <c r="M8" s="43"/>
+      <c r="N8" s="43"/>
+      <c r="O8" s="43"/>
+      <c r="P8" s="41"/>
+      <c r="Q8" s="41"/>
+      <c r="R8" s="41"/>
+      <c r="S8" s="32">
         <v>45078</v>
       </c>
-      <c r="T8" s="52"/>
-      <c r="U8" s="52"/>
-      <c r="V8" s="52">
+      <c r="T8" s="32"/>
+      <c r="U8" s="32"/>
+      <c r="V8" s="32">
         <v>45078</v>
       </c>
-      <c r="W8" s="52"/>
-      <c r="X8" s="52"/>
-      <c r="Y8" s="49" t="s">
+      <c r="W8" s="32"/>
+      <c r="X8" s="32"/>
+      <c r="Y8" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="Z8" s="49"/>
-      <c r="AA8" s="49"/>
+      <c r="Z8" s="33"/>
+      <c r="AA8" s="33"/>
       <c r="AB8" s="4"/>
       <c r="AC8" s="4"/>
       <c r="AD8" s="4"/>
@@ -2115,41 +2105,41 @@
       <c r="BE8" s="4"/>
     </row>
     <row r="9" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="49"/>
-      <c r="B9" s="49"/>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="51" t="s">
+      <c r="A9" s="33"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="I9" s="51"/>
-      <c r="J9" s="51"/>
-      <c r="K9" s="51"/>
-      <c r="L9" s="51"/>
-      <c r="M9" s="51"/>
-      <c r="N9" s="51"/>
-      <c r="O9" s="51"/>
-      <c r="P9" s="50"/>
-      <c r="Q9" s="50"/>
-      <c r="R9" s="50"/>
-      <c r="S9" s="52">
+      <c r="I9" s="43"/>
+      <c r="J9" s="43"/>
+      <c r="K9" s="43"/>
+      <c r="L9" s="43"/>
+      <c r="M9" s="43"/>
+      <c r="N9" s="43"/>
+      <c r="O9" s="43"/>
+      <c r="P9" s="41"/>
+      <c r="Q9" s="41"/>
+      <c r="R9" s="41"/>
+      <c r="S9" s="32">
         <v>45078</v>
       </c>
-      <c r="T9" s="52"/>
-      <c r="U9" s="52"/>
-      <c r="V9" s="52">
+      <c r="T9" s="32"/>
+      <c r="U9" s="32"/>
+      <c r="V9" s="32">
         <v>45079</v>
       </c>
-      <c r="W9" s="52"/>
-      <c r="X9" s="52"/>
-      <c r="Y9" s="49" t="s">
+      <c r="W9" s="32"/>
+      <c r="X9" s="32"/>
+      <c r="Y9" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="Z9" s="49"/>
-      <c r="AA9" s="49"/>
+      <c r="Z9" s="33"/>
+      <c r="AA9" s="33"/>
       <c r="AB9" s="4"/>
       <c r="AC9" s="4"/>
       <c r="AD9" s="4"/>
@@ -2182,23 +2172,23 @@
       <c r="BE9" s="4"/>
     </row>
     <row r="10" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="49"/>
-      <c r="B10" s="49"/>
-      <c r="C10" s="50" t="s">
+      <c r="A10" s="33"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="50"/>
-      <c r="E10" s="50"/>
-      <c r="F10" s="50"/>
-      <c r="G10" s="50"/>
-      <c r="Y10" s="49"/>
-      <c r="Z10" s="49"/>
-      <c r="AA10" s="49"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="Y10" s="33"/>
+      <c r="Z10" s="33"/>
+      <c r="AA10" s="33"/>
       <c r="AB10" s="4"/>
-      <c r="AC10" s="13"/>
+      <c r="AC10" s="12"/>
       <c r="AD10" s="4"/>
       <c r="AE10" s="4"/>
-      <c r="AF10" s="15"/>
+      <c r="AF10" s="14"/>
       <c r="AG10" s="4"/>
       <c r="AH10" s="4"/>
       <c r="AI10" s="4"/>
@@ -2226,45 +2216,45 @@
       <c r="BE10" s="4"/>
     </row>
     <row r="11" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="49"/>
-      <c r="B11" s="49"/>
-      <c r="C11" s="50"/>
-      <c r="D11" s="50"/>
-      <c r="E11" s="50"/>
-      <c r="F11" s="50"/>
-      <c r="G11" s="50"/>
-      <c r="H11" s="51" t="s">
+      <c r="A11" s="33"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="I11" s="51"/>
-      <c r="J11" s="51"/>
-      <c r="K11" s="51"/>
-      <c r="L11" s="51"/>
-      <c r="M11" s="51"/>
-      <c r="N11" s="51"/>
-      <c r="O11" s="51"/>
-      <c r="P11" s="50" t="s">
+      <c r="I11" s="43"/>
+      <c r="J11" s="43"/>
+      <c r="K11" s="43"/>
+      <c r="L11" s="43"/>
+      <c r="M11" s="43"/>
+      <c r="N11" s="43"/>
+      <c r="O11" s="43"/>
+      <c r="P11" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="Q11" s="50"/>
-      <c r="R11" s="50"/>
-      <c r="S11" s="52">
+      <c r="Q11" s="41"/>
+      <c r="R11" s="41"/>
+      <c r="S11" s="32">
         <v>45079</v>
       </c>
-      <c r="T11" s="52"/>
-      <c r="U11" s="52"/>
-      <c r="V11" s="52">
+      <c r="T11" s="32"/>
+      <c r="U11" s="32"/>
+      <c r="V11" s="32">
         <v>45082</v>
       </c>
-      <c r="W11" s="52"/>
-      <c r="X11" s="52"/>
-      <c r="Y11" s="49" t="s">
+      <c r="W11" s="32"/>
+      <c r="X11" s="32"/>
+      <c r="Y11" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="Z11" s="49"/>
-      <c r="AA11" s="49"/>
+      <c r="Z11" s="33"/>
+      <c r="AA11" s="33"/>
       <c r="AB11" s="4"/>
-      <c r="AC11" s="14"/>
+      <c r="AC11" s="13"/>
       <c r="AD11" s="4"/>
       <c r="AE11" s="4"/>
       <c r="AG11" s="4"/>
@@ -2294,43 +2284,43 @@
       <c r="BE11" s="4"/>
     </row>
     <row r="12" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="49"/>
-      <c r="B12" s="49"/>
-      <c r="C12" s="50"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="50"/>
-      <c r="F12" s="50"/>
-      <c r="G12" s="50"/>
-      <c r="H12" s="56" t="s">
-        <v>33</v>
-      </c>
-      <c r="I12" s="57"/>
-      <c r="J12" s="57"/>
-      <c r="K12" s="57"/>
-      <c r="L12" s="57"/>
-      <c r="M12" s="57"/>
-      <c r="N12" s="57"/>
-      <c r="O12" s="58"/>
-      <c r="P12" s="53"/>
-      <c r="Q12" s="54"/>
-      <c r="R12" s="55"/>
-      <c r="S12" s="52">
+      <c r="A12" s="33"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="61" t="s">
+        <v>32</v>
+      </c>
+      <c r="I12" s="62"/>
+      <c r="J12" s="62"/>
+      <c r="K12" s="62"/>
+      <c r="L12" s="62"/>
+      <c r="M12" s="62"/>
+      <c r="N12" s="62"/>
+      <c r="O12" s="63"/>
+      <c r="P12" s="57"/>
+      <c r="Q12" s="58"/>
+      <c r="R12" s="60"/>
+      <c r="S12" s="32">
         <v>45079</v>
       </c>
-      <c r="T12" s="52"/>
-      <c r="U12" s="52"/>
-      <c r="V12" s="52">
+      <c r="T12" s="32"/>
+      <c r="U12" s="32"/>
+      <c r="V12" s="32">
         <v>45082</v>
       </c>
-      <c r="W12" s="52"/>
-      <c r="X12" s="52"/>
-      <c r="Y12" s="49" t="s">
+      <c r="W12" s="32"/>
+      <c r="X12" s="32"/>
+      <c r="Y12" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="Z12" s="49"/>
-      <c r="AA12" s="49"/>
+      <c r="Z12" s="33"/>
+      <c r="AA12" s="33"/>
       <c r="AB12" s="4"/>
-      <c r="AC12" s="14"/>
+      <c r="AC12" s="13"/>
       <c r="AD12" s="4"/>
       <c r="AE12" s="4"/>
       <c r="AF12" s="4"/>
@@ -2361,46 +2351,46 @@
       <c r="BE12" s="4"/>
     </row>
     <row r="13" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="49"/>
-      <c r="B13" s="49"/>
-      <c r="C13" s="50"/>
-      <c r="D13" s="50"/>
-      <c r="E13" s="50"/>
-      <c r="F13" s="50"/>
-      <c r="G13" s="50"/>
-      <c r="H13" s="51" t="s">
+      <c r="A13" s="33"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="I13" s="51"/>
-      <c r="J13" s="51"/>
-      <c r="K13" s="51"/>
-      <c r="L13" s="51"/>
-      <c r="M13" s="51"/>
-      <c r="N13" s="51"/>
-      <c r="O13" s="51"/>
-      <c r="P13" s="50"/>
-      <c r="Q13" s="50"/>
-      <c r="R13" s="50"/>
-      <c r="S13" s="52">
+      <c r="I13" s="43"/>
+      <c r="J13" s="43"/>
+      <c r="K13" s="43"/>
+      <c r="L13" s="43"/>
+      <c r="M13" s="43"/>
+      <c r="N13" s="43"/>
+      <c r="O13" s="43"/>
+      <c r="P13" s="41"/>
+      <c r="Q13" s="41"/>
+      <c r="R13" s="41"/>
+      <c r="S13" s="32">
         <v>45082</v>
       </c>
-      <c r="T13" s="52"/>
-      <c r="U13" s="52"/>
-      <c r="V13" s="52">
+      <c r="T13" s="32"/>
+      <c r="U13" s="32"/>
+      <c r="V13" s="32">
         <v>45082</v>
       </c>
-      <c r="W13" s="52"/>
-      <c r="X13" s="52"/>
-      <c r="Y13" s="49" t="s">
+      <c r="W13" s="32"/>
+      <c r="X13" s="32"/>
+      <c r="Y13" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="Z13" s="49"/>
-      <c r="AA13" s="49"/>
+      <c r="Z13" s="33"/>
+      <c r="AA13" s="33"/>
       <c r="AB13" s="4"/>
       <c r="AC13" s="4"/>
       <c r="AD13" s="4"/>
       <c r="AE13" s="4"/>
-      <c r="AF13" s="25"/>
+      <c r="AF13" s="24"/>
       <c r="AG13" s="4"/>
       <c r="AH13" s="4"/>
       <c r="AI13" s="4"/>
@@ -2428,33 +2418,33 @@
       <c r="BE13" s="4"/>
     </row>
     <row r="14" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="49"/>
-      <c r="B14" s="49"/>
-      <c r="C14" s="50"/>
-      <c r="D14" s="50"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="50"/>
-      <c r="H14" s="50"/>
-      <c r="I14" s="50"/>
-      <c r="J14" s="50"/>
-      <c r="K14" s="50"/>
-      <c r="L14" s="50"/>
-      <c r="M14" s="50"/>
-      <c r="N14" s="50"/>
-      <c r="O14" s="50"/>
-      <c r="P14" s="50"/>
-      <c r="Q14" s="50"/>
-      <c r="R14" s="50"/>
-      <c r="S14" s="52"/>
-      <c r="T14" s="52"/>
-      <c r="U14" s="52"/>
-      <c r="V14" s="52"/>
-      <c r="W14" s="52"/>
-      <c r="X14" s="52"/>
-      <c r="Y14" s="49"/>
-      <c r="Z14" s="49"/>
-      <c r="AA14" s="49"/>
+      <c r="A14" s="33"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="41"/>
+      <c r="J14" s="41"/>
+      <c r="K14" s="41"/>
+      <c r="L14" s="41"/>
+      <c r="M14" s="41"/>
+      <c r="N14" s="41"/>
+      <c r="O14" s="41"/>
+      <c r="P14" s="41"/>
+      <c r="Q14" s="41"/>
+      <c r="R14" s="41"/>
+      <c r="S14" s="32"/>
+      <c r="T14" s="32"/>
+      <c r="U14" s="32"/>
+      <c r="V14" s="32"/>
+      <c r="W14" s="32"/>
+      <c r="X14" s="32"/>
+      <c r="Y14" s="33"/>
+      <c r="Z14" s="33"/>
+      <c r="AA14" s="33"/>
       <c r="AB14" s="4"/>
       <c r="AC14" s="4"/>
       <c r="AD14" s="4"/>
@@ -2487,44 +2477,44 @@
       <c r="BE14" s="4"/>
     </row>
     <row r="15" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="49"/>
-      <c r="B15" s="49"/>
-      <c r="C15" s="50" t="s">
+      <c r="A15" s="33"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="50"/>
-      <c r="E15" s="50"/>
-      <c r="F15" s="50"/>
-      <c r="G15" s="50"/>
-      <c r="H15" s="50"/>
-      <c r="I15" s="50"/>
-      <c r="J15" s="50"/>
-      <c r="K15" s="50"/>
-      <c r="L15" s="50"/>
-      <c r="M15" s="50"/>
-      <c r="N15" s="50"/>
-      <c r="O15" s="50"/>
-      <c r="P15" s="50" t="s">
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="41"/>
+      <c r="I15" s="41"/>
+      <c r="J15" s="41"/>
+      <c r="K15" s="41"/>
+      <c r="L15" s="41"/>
+      <c r="M15" s="41"/>
+      <c r="N15" s="41"/>
+      <c r="O15" s="41"/>
+      <c r="P15" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="Q15" s="50"/>
-      <c r="R15" s="50"/>
-      <c r="S15" s="52"/>
-      <c r="T15" s="52"/>
-      <c r="U15" s="52"/>
-      <c r="V15" s="52"/>
-      <c r="W15" s="52"/>
-      <c r="X15" s="52"/>
-      <c r="Y15" s="49"/>
-      <c r="Z15" s="49"/>
-      <c r="AA15" s="49"/>
+      <c r="Q15" s="41"/>
+      <c r="R15" s="41"/>
+      <c r="S15" s="32"/>
+      <c r="T15" s="32"/>
+      <c r="U15" s="32"/>
+      <c r="V15" s="32"/>
+      <c r="W15" s="32"/>
+      <c r="X15" s="32"/>
+      <c r="Y15" s="33"/>
+      <c r="Z15" s="33"/>
+      <c r="AA15" s="33"/>
       <c r="AB15" s="4"/>
       <c r="AC15" s="4"/>
       <c r="AD15" s="4"/>
       <c r="AE15" s="4"/>
       <c r="AF15" s="4"/>
-      <c r="AG15" s="13"/>
-      <c r="AH15" s="13"/>
+      <c r="AG15" s="12"/>
+      <c r="AH15" s="12"/>
       <c r="AI15" s="4"/>
       <c r="AJ15" s="4"/>
       <c r="AK15" s="4"/>
@@ -2550,48 +2540,48 @@
       <c r="BE15" s="4"/>
     </row>
     <row r="16" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="49"/>
-      <c r="B16" s="49"/>
-      <c r="C16" s="50"/>
-      <c r="D16" s="50"/>
-      <c r="E16" s="50"/>
-      <c r="F16" s="50"/>
-      <c r="G16" s="50"/>
-      <c r="H16" s="51" t="s">
-        <v>38</v>
-      </c>
-      <c r="I16" s="51"/>
-      <c r="J16" s="51"/>
-      <c r="K16" s="51"/>
-      <c r="L16" s="51"/>
-      <c r="M16" s="51"/>
-      <c r="N16" s="51"/>
-      <c r="O16" s="51"/>
-      <c r="P16" s="50"/>
-      <c r="Q16" s="50"/>
-      <c r="R16" s="50"/>
-      <c r="S16" s="52">
+      <c r="A16" s="33"/>
+      <c r="B16" s="33"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="I16" s="43"/>
+      <c r="J16" s="43"/>
+      <c r="K16" s="43"/>
+      <c r="L16" s="43"/>
+      <c r="M16" s="43"/>
+      <c r="N16" s="43"/>
+      <c r="O16" s="43"/>
+      <c r="P16" s="41"/>
+      <c r="Q16" s="41"/>
+      <c r="R16" s="41"/>
+      <c r="S16" s="32">
         <v>45083</v>
       </c>
-      <c r="T16" s="52"/>
-      <c r="U16" s="52"/>
-      <c r="V16" s="52">
+      <c r="T16" s="32"/>
+      <c r="U16" s="32"/>
+      <c r="V16" s="32">
         <v>45084</v>
       </c>
-      <c r="W16" s="52"/>
-      <c r="X16" s="52"/>
-      <c r="Y16" s="49" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z16" s="49"/>
-      <c r="AA16" s="49"/>
+      <c r="W16" s="32"/>
+      <c r="X16" s="32"/>
+      <c r="Y16" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z16" s="33"/>
+      <c r="AA16" s="33"/>
       <c r="AB16" s="4"/>
       <c r="AC16" s="4"/>
       <c r="AD16" s="4"/>
       <c r="AE16" s="4"/>
       <c r="AF16" s="4"/>
-      <c r="AG16" s="26"/>
-      <c r="AH16" s="26"/>
+      <c r="AG16" s="25"/>
+      <c r="AH16" s="25"/>
       <c r="AI16" s="4"/>
       <c r="AJ16" s="4"/>
       <c r="AK16" s="4"/>
@@ -2617,52 +2607,52 @@
       <c r="BE16" s="4"/>
     </row>
     <row r="17" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="49"/>
-      <c r="B17" s="49"/>
-      <c r="C17" s="50"/>
-      <c r="D17" s="50"/>
-      <c r="E17" s="50"/>
-      <c r="F17" s="50"/>
-      <c r="G17" s="50"/>
-      <c r="H17" s="70" t="s">
-        <v>37</v>
-      </c>
-      <c r="I17" s="71"/>
-      <c r="J17" s="71"/>
-      <c r="K17" s="71"/>
-      <c r="L17" s="71"/>
-      <c r="M17" s="71"/>
-      <c r="N17" s="71"/>
-      <c r="O17" s="72"/>
-      <c r="P17" s="50" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q17" s="50"/>
-      <c r="R17" s="50"/>
-      <c r="S17" s="52">
+      <c r="A17" s="33"/>
+      <c r="B17" s="33"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="83" t="s">
+        <v>34</v>
+      </c>
+      <c r="I17" s="84"/>
+      <c r="J17" s="84"/>
+      <c r="K17" s="84"/>
+      <c r="L17" s="84"/>
+      <c r="M17" s="84"/>
+      <c r="N17" s="84"/>
+      <c r="O17" s="85"/>
+      <c r="P17" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q17" s="41"/>
+      <c r="R17" s="41"/>
+      <c r="S17" s="32">
         <v>45083</v>
       </c>
-      <c r="T17" s="52"/>
-      <c r="U17" s="52"/>
-      <c r="V17" s="52">
+      <c r="T17" s="32"/>
+      <c r="U17" s="32"/>
+      <c r="V17" s="32">
         <v>45084</v>
       </c>
-      <c r="W17" s="52"/>
-      <c r="X17" s="52"/>
-      <c r="Y17" s="76">
-        <v>0.8</v>
-      </c>
-      <c r="Z17" s="49"/>
-      <c r="AA17" s="49"/>
+      <c r="W17" s="32"/>
+      <c r="X17" s="32"/>
+      <c r="Y17" s="42">
+        <v>0.7</v>
+      </c>
+      <c r="Z17" s="33"/>
+      <c r="AA17" s="33"/>
       <c r="AB17" s="4"/>
       <c r="AC17" s="4"/>
       <c r="AD17" s="4"/>
       <c r="AE17" s="4"/>
       <c r="AF17" s="4"/>
-      <c r="AG17" s="17"/>
-      <c r="AH17" s="17"/>
-      <c r="AI17" s="17"/>
-      <c r="AJ17" s="4"/>
+      <c r="AG17" s="16"/>
+      <c r="AH17" s="16"/>
+      <c r="AI17" s="16"/>
+      <c r="AJ17" s="12"/>
       <c r="AK17" s="4"/>
       <c r="AL17" s="4"/>
       <c r="AM17" s="4"/>
@@ -2687,51 +2677,51 @@
     </row>
     <row r="18" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="10"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="59"/>
-      <c r="D18" s="60"/>
-      <c r="E18" s="60"/>
-      <c r="F18" s="60"/>
-      <c r="G18" s="61"/>
-      <c r="H18" s="82" t="s">
-        <v>34</v>
-      </c>
-      <c r="I18" s="83"/>
-      <c r="J18" s="83"/>
-      <c r="K18" s="83"/>
-      <c r="L18" s="83"/>
-      <c r="M18" s="83"/>
-      <c r="N18" s="83"/>
-      <c r="O18" s="84"/>
-      <c r="P18" s="62" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q18" s="63"/>
-      <c r="R18" s="63"/>
-      <c r="S18" s="52">
+      <c r="B18" s="11"/>
+      <c r="C18" s="54"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="55"/>
+      <c r="F18" s="55"/>
+      <c r="G18" s="56"/>
+      <c r="H18" s="51" t="s">
+        <v>33</v>
+      </c>
+      <c r="I18" s="52"/>
+      <c r="J18" s="52"/>
+      <c r="K18" s="52"/>
+      <c r="L18" s="52"/>
+      <c r="M18" s="52"/>
+      <c r="N18" s="52"/>
+      <c r="O18" s="53"/>
+      <c r="P18" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q18" s="30"/>
+      <c r="R18" s="30"/>
+      <c r="S18" s="32">
         <v>45083</v>
       </c>
-      <c r="T18" s="52"/>
-      <c r="U18" s="52"/>
-      <c r="V18" s="52">
+      <c r="T18" s="32"/>
+      <c r="U18" s="32"/>
+      <c r="V18" s="32">
         <v>45084</v>
       </c>
-      <c r="W18" s="52"/>
-      <c r="X18" s="52"/>
-      <c r="Y18" s="76" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z18" s="49"/>
-      <c r="AA18" s="49"/>
+      <c r="W18" s="32"/>
+      <c r="X18" s="32"/>
+      <c r="Y18" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z18" s="33"/>
+      <c r="AA18" s="33"/>
       <c r="AB18" s="4"/>
       <c r="AC18" s="4"/>
       <c r="AD18" s="4"/>
       <c r="AE18" s="4"/>
       <c r="AF18" s="4"/>
-      <c r="AG18" s="17"/>
-      <c r="AH18" s="17"/>
-      <c r="AI18" s="17"/>
-      <c r="AJ18" s="13"/>
+      <c r="AG18" s="13"/>
+      <c r="AH18" s="13"/>
+      <c r="AI18" s="13"/>
+      <c r="AJ18" s="12"/>
       <c r="AK18" s="4"/>
       <c r="AL18" s="4"/>
       <c r="AM18" s="4"/>
@@ -2756,51 +2746,51 @@
     </row>
     <row r="19" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="10"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="70" t="s">
-        <v>42</v>
-      </c>
-      <c r="I19" s="71"/>
-      <c r="J19" s="71"/>
-      <c r="K19" s="71"/>
-      <c r="L19" s="71"/>
-      <c r="M19" s="71"/>
-      <c r="N19" s="71"/>
-      <c r="O19" s="78"/>
-      <c r="P19" s="66" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q19" s="63"/>
-      <c r="R19" s="77"/>
-      <c r="S19" s="52">
+      <c r="B19" s="11"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="I19" s="52"/>
+      <c r="J19" s="52"/>
+      <c r="K19" s="52"/>
+      <c r="L19" s="52"/>
+      <c r="M19" s="52"/>
+      <c r="N19" s="52"/>
+      <c r="O19" s="86"/>
+      <c r="P19" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q19" s="30"/>
+      <c r="R19" s="31"/>
+      <c r="S19" s="32">
         <v>45084</v>
       </c>
-      <c r="T19" s="52"/>
-      <c r="U19" s="52"/>
-      <c r="V19" s="52">
+      <c r="T19" s="32"/>
+      <c r="U19" s="32"/>
+      <c r="V19" s="32">
         <v>45084</v>
       </c>
-      <c r="W19" s="52"/>
-      <c r="X19" s="52"/>
-      <c r="Y19" s="79">
-        <v>0.8</v>
-      </c>
-      <c r="Z19" s="80"/>
-      <c r="AA19" s="81"/>
+      <c r="W19" s="32"/>
+      <c r="X19" s="32"/>
+      <c r="Y19" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z19" s="39"/>
+      <c r="AA19" s="40"/>
       <c r="AB19" s="4"/>
       <c r="AC19" s="4"/>
       <c r="AD19" s="4"/>
       <c r="AE19" s="4"/>
       <c r="AF19" s="4"/>
-      <c r="AG19" s="17"/>
-      <c r="AH19" s="17"/>
-      <c r="AI19" s="17"/>
-      <c r="AJ19" s="13"/>
+      <c r="AG19" s="13"/>
+      <c r="AH19" s="13"/>
+      <c r="AI19" s="13"/>
+      <c r="AJ19" s="12"/>
       <c r="AK19" s="4"/>
       <c r="AL19" s="4"/>
       <c r="AM19" s="4"/>
@@ -2824,40 +2814,40 @@
       <c r="BE19" s="4"/>
     </row>
     <row r="20" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="62"/>
-      <c r="B20" s="64"/>
-      <c r="C20" s="73"/>
-      <c r="D20" s="74"/>
-      <c r="E20" s="74"/>
-      <c r="F20" s="74"/>
-      <c r="G20" s="75"/>
-      <c r="H20" s="53"/>
-      <c r="I20" s="54"/>
-      <c r="J20" s="54"/>
-      <c r="K20" s="54"/>
-      <c r="L20" s="54"/>
-      <c r="M20" s="54"/>
-      <c r="N20" s="54"/>
-      <c r="O20" s="65"/>
-      <c r="P20" s="66"/>
-      <c r="Q20" s="63"/>
-      <c r="R20" s="64"/>
-      <c r="S20" s="67"/>
-      <c r="T20" s="68"/>
-      <c r="U20" s="69"/>
-      <c r="V20" s="67"/>
-      <c r="W20" s="68"/>
-      <c r="X20" s="69"/>
-      <c r="Y20" s="62"/>
-      <c r="Z20" s="63"/>
-      <c r="AA20" s="64"/>
+      <c r="A20" s="29"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="48"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="49"/>
+      <c r="G20" s="50"/>
+      <c r="H20" s="57"/>
+      <c r="I20" s="58"/>
+      <c r="J20" s="58"/>
+      <c r="K20" s="58"/>
+      <c r="L20" s="58"/>
+      <c r="M20" s="58"/>
+      <c r="N20" s="58"/>
+      <c r="O20" s="59"/>
+      <c r="P20" s="37"/>
+      <c r="Q20" s="30"/>
+      <c r="R20" s="44"/>
+      <c r="S20" s="45"/>
+      <c r="T20" s="46"/>
+      <c r="U20" s="47"/>
+      <c r="V20" s="45"/>
+      <c r="W20" s="46"/>
+      <c r="X20" s="47"/>
+      <c r="Y20" s="29"/>
+      <c r="Z20" s="30"/>
+      <c r="AA20" s="44"/>
       <c r="AB20" s="4"/>
       <c r="AC20" s="4"/>
       <c r="AD20" s="4"/>
       <c r="AE20" s="4"/>
       <c r="AF20" s="4"/>
-      <c r="AG20" s="13"/>
-      <c r="AH20" s="13"/>
+      <c r="AG20" s="12"/>
+      <c r="AH20" s="12"/>
       <c r="AI20" s="4"/>
       <c r="AJ20" s="4"/>
       <c r="AK20" s="4"/>
@@ -2883,44 +2873,44 @@
       <c r="BE20" s="4"/>
     </row>
     <row r="21" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="62"/>
-      <c r="B21" s="64"/>
-      <c r="C21" s="50" t="s">
+      <c r="A21" s="29"/>
+      <c r="B21" s="44"/>
+      <c r="C21" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="D21" s="50"/>
-      <c r="E21" s="50"/>
-      <c r="F21" s="50"/>
-      <c r="G21" s="50"/>
-      <c r="H21" s="70"/>
-      <c r="I21" s="71"/>
-      <c r="J21" s="71"/>
-      <c r="K21" s="71"/>
-      <c r="L21" s="71"/>
-      <c r="M21" s="71"/>
-      <c r="N21" s="71"/>
-      <c r="O21" s="72"/>
-      <c r="P21" s="50" t="s">
+      <c r="D21" s="41"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="35"/>
+      <c r="J21" s="35"/>
+      <c r="K21" s="35"/>
+      <c r="L21" s="35"/>
+      <c r="M21" s="35"/>
+      <c r="N21" s="35"/>
+      <c r="O21" s="36"/>
+      <c r="P21" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="Q21" s="50"/>
-      <c r="R21" s="50"/>
-      <c r="S21" s="52"/>
-      <c r="T21" s="52"/>
-      <c r="U21" s="52"/>
-      <c r="V21" s="52"/>
-      <c r="W21" s="52"/>
-      <c r="X21" s="52"/>
-      <c r="Y21" s="49"/>
-      <c r="Z21" s="49"/>
-      <c r="AA21" s="49"/>
+      <c r="Q21" s="41"/>
+      <c r="R21" s="41"/>
+      <c r="S21" s="32"/>
+      <c r="T21" s="32"/>
+      <c r="U21" s="32"/>
+      <c r="V21" s="32"/>
+      <c r="W21" s="32"/>
+      <c r="X21" s="32"/>
+      <c r="Y21" s="33"/>
+      <c r="Z21" s="33"/>
+      <c r="AA21" s="33"/>
       <c r="AB21" s="4"/>
       <c r="AC21" s="4"/>
       <c r="AD21" s="4"/>
       <c r="AE21" s="4"/>
       <c r="AF21" s="4"/>
-      <c r="AG21" s="13"/>
-      <c r="AH21" s="13"/>
+      <c r="AG21" s="12"/>
+      <c r="AH21" s="12"/>
       <c r="AI21" s="4"/>
       <c r="AJ21" s="4"/>
       <c r="AK21" s="4"/>
@@ -2945,65 +2935,65 @@
       <c r="BD21" s="4"/>
       <c r="BE21" s="4"/>
     </row>
-    <row r="22" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="10"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="62"/>
-      <c r="D22" s="63"/>
-      <c r="E22" s="63"/>
-      <c r="F22" s="63"/>
-      <c r="G22" s="64"/>
-      <c r="H22" s="70" t="s">
-        <v>35</v>
-      </c>
-      <c r="I22" s="71"/>
-      <c r="J22" s="71"/>
-      <c r="K22" s="71"/>
-      <c r="L22" s="71"/>
-      <c r="M22" s="71"/>
-      <c r="N22" s="71"/>
-      <c r="O22" s="72"/>
-      <c r="P22" s="62"/>
-      <c r="Q22" s="63"/>
-      <c r="R22" s="77"/>
-      <c r="S22" s="52">
+    <row r="22" spans="1:57" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="29"/>
+      <c r="B22" s="44"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="44"/>
+      <c r="H22" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="I22" s="35"/>
+      <c r="J22" s="35"/>
+      <c r="K22" s="35"/>
+      <c r="L22" s="35"/>
+      <c r="M22" s="35"/>
+      <c r="N22" s="35"/>
+      <c r="O22" s="36"/>
+      <c r="P22" s="29"/>
+      <c r="Q22" s="30"/>
+      <c r="R22" s="31"/>
+      <c r="S22" s="32">
         <v>45085</v>
       </c>
-      <c r="T22" s="52"/>
-      <c r="U22" s="52"/>
-      <c r="V22" s="52">
-        <v>45086</v>
-      </c>
-      <c r="W22" s="52"/>
-      <c r="X22" s="52"/>
-      <c r="Y22" s="49" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z22" s="49"/>
-      <c r="AA22" s="49"/>
+      <c r="T22" s="32"/>
+      <c r="U22" s="32"/>
+      <c r="V22" s="32">
+        <v>45100</v>
+      </c>
+      <c r="W22" s="32"/>
+      <c r="X22" s="32"/>
+      <c r="Y22" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z22" s="33"/>
+      <c r="AA22" s="33"/>
       <c r="AB22" s="4"/>
       <c r="AC22" s="4"/>
       <c r="AD22" s="4"/>
       <c r="AE22" s="4"/>
       <c r="AF22" s="4"/>
-      <c r="AG22" s="13"/>
-      <c r="AH22" s="13"/>
-      <c r="AI22" s="16"/>
-      <c r="AJ22" s="16"/>
+      <c r="AG22" s="4"/>
+      <c r="AH22" s="4"/>
+      <c r="AI22" s="15"/>
+      <c r="AJ22" s="15"/>
       <c r="AK22" s="4"/>
       <c r="AL22" s="4"/>
-      <c r="AM22" s="4"/>
-      <c r="AN22" s="4"/>
-      <c r="AO22" s="4"/>
-      <c r="AP22" s="4"/>
-      <c r="AQ22" s="4"/>
-      <c r="AR22" s="4"/>
-      <c r="AS22" s="4"/>
-      <c r="AT22" s="4"/>
-      <c r="AU22" s="4"/>
-      <c r="AV22" s="4"/>
-      <c r="AW22" s="4"/>
-      <c r="AX22" s="4"/>
+      <c r="AM22" s="15"/>
+      <c r="AN22" s="15"/>
+      <c r="AO22" s="15"/>
+      <c r="AP22" s="15"/>
+      <c r="AQ22" s="15"/>
+      <c r="AR22" s="15"/>
+      <c r="AS22" s="15"/>
+      <c r="AT22" s="15"/>
+      <c r="AU22" s="15"/>
+      <c r="AV22" s="15"/>
+      <c r="AW22" s="15"/>
+      <c r="AX22" s="15"/>
       <c r="AY22" s="4"/>
       <c r="AZ22" s="4"/>
       <c r="BA22" s="4"/>
@@ -3012,51 +3002,43 @@
       <c r="BD22" s="4"/>
       <c r="BE22" s="4"/>
     </row>
-    <row r="23" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:57" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="10"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="70" t="s">
-        <v>36</v>
-      </c>
-      <c r="I23" s="71"/>
-      <c r="J23" s="71"/>
-      <c r="K23" s="71"/>
-      <c r="L23" s="71"/>
-      <c r="M23" s="71"/>
-      <c r="N23" s="71"/>
-      <c r="O23" s="72"/>
-      <c r="P23" s="62"/>
-      <c r="Q23" s="63"/>
-      <c r="R23" s="77"/>
-      <c r="S23" s="52">
-        <v>45085</v>
-      </c>
-      <c r="T23" s="52"/>
-      <c r="U23" s="52"/>
-      <c r="V23" s="52">
-        <v>45086</v>
-      </c>
-      <c r="W23" s="52"/>
-      <c r="X23" s="52"/>
-      <c r="Y23" s="49" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z23" s="49"/>
-      <c r="AA23" s="49"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="44"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="30"/>
+      <c r="J23" s="30"/>
+      <c r="K23" s="30"/>
+      <c r="L23" s="30"/>
+      <c r="M23" s="30"/>
+      <c r="N23" s="30"/>
+      <c r="O23" s="44"/>
+      <c r="P23" s="29"/>
+      <c r="Q23" s="30"/>
+      <c r="R23" s="44"/>
+      <c r="S23" s="45"/>
+      <c r="T23" s="46"/>
+      <c r="U23" s="47"/>
+      <c r="V23" s="45"/>
+      <c r="W23" s="46"/>
+      <c r="X23" s="47"/>
+      <c r="Y23" s="29"/>
+      <c r="Z23" s="30"/>
+      <c r="AA23" s="44"/>
       <c r="AB23" s="4"/>
       <c r="AC23" s="4"/>
       <c r="AD23" s="4"/>
       <c r="AE23" s="4"/>
       <c r="AF23" s="4"/>
-      <c r="AG23" s="13"/>
-      <c r="AH23" s="13"/>
-      <c r="AI23" s="16"/>
-      <c r="AJ23" s="16"/>
+      <c r="AG23" s="4"/>
+      <c r="AH23" s="4"/>
+      <c r="AI23" s="12"/>
+      <c r="AJ23" s="12"/>
       <c r="AK23" s="4"/>
       <c r="AL23" s="4"/>
       <c r="AM23" s="4"/>
@@ -3080,41 +3062,41 @@
       <c r="BE23" s="4"/>
     </row>
     <row r="24" spans="1:57" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="62"/>
-      <c r="B24" s="64"/>
-      <c r="C24" s="62"/>
-      <c r="D24" s="63"/>
-      <c r="E24" s="63"/>
-      <c r="F24" s="63"/>
-      <c r="G24" s="64"/>
-      <c r="H24" s="70" t="s">
-        <v>44</v>
-      </c>
-      <c r="I24" s="71"/>
-      <c r="J24" s="71"/>
-      <c r="K24" s="71"/>
-      <c r="L24" s="71"/>
-      <c r="M24" s="71"/>
-      <c r="N24" s="71"/>
-      <c r="O24" s="72"/>
-      <c r="P24" s="62"/>
-      <c r="Q24" s="63"/>
-      <c r="R24" s="77"/>
-      <c r="S24" s="52">
-        <v>45085</v>
-      </c>
-      <c r="T24" s="52"/>
-      <c r="U24" s="52"/>
-      <c r="V24" s="52">
-        <v>45086</v>
-      </c>
-      <c r="W24" s="52"/>
-      <c r="X24" s="52"/>
-      <c r="Y24" s="49" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z24" s="49"/>
-      <c r="AA24" s="49"/>
+      <c r="A24" s="33"/>
+      <c r="B24" s="33"/>
+      <c r="C24" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="41"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="41"/>
+      <c r="H24" s="41"/>
+      <c r="I24" s="41"/>
+      <c r="J24" s="41"/>
+      <c r="K24" s="41"/>
+      <c r="L24" s="41"/>
+      <c r="M24" s="41"/>
+      <c r="N24" s="41"/>
+      <c r="O24" s="41"/>
+      <c r="P24" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q24" s="41"/>
+      <c r="R24" s="41"/>
+      <c r="S24" s="32">
+        <v>45089</v>
+      </c>
+      <c r="T24" s="32"/>
+      <c r="U24" s="32"/>
+      <c r="V24" s="32">
+        <v>45100</v>
+      </c>
+      <c r="W24" s="32"/>
+      <c r="X24" s="32"/>
+      <c r="Y24" s="33"/>
+      <c r="Z24" s="33"/>
+      <c r="AA24" s="33"/>
       <c r="AB24" s="4"/>
       <c r="AC24" s="4"/>
       <c r="AD24" s="4"/>
@@ -3122,22 +3104,22 @@
       <c r="AF24" s="4"/>
       <c r="AG24" s="4"/>
       <c r="AH24" s="4"/>
-      <c r="AI24" s="16"/>
-      <c r="AJ24" s="16"/>
+      <c r="AI24" s="12"/>
+      <c r="AJ24" s="12"/>
       <c r="AK24" s="4"/>
       <c r="AL24" s="4"/>
-      <c r="AM24" s="4"/>
-      <c r="AN24" s="4"/>
-      <c r="AO24" s="4"/>
-      <c r="AP24" s="4"/>
-      <c r="AQ24" s="4"/>
-      <c r="AR24" s="4"/>
-      <c r="AS24" s="4"/>
-      <c r="AT24" s="4"/>
-      <c r="AU24" s="4"/>
-      <c r="AV24" s="4"/>
-      <c r="AW24" s="4"/>
-      <c r="AX24" s="4"/>
+      <c r="AM24" s="17"/>
+      <c r="AN24" s="17"/>
+      <c r="AO24" s="17"/>
+      <c r="AP24" s="17"/>
+      <c r="AQ24" s="17"/>
+      <c r="AR24" s="17"/>
+      <c r="AS24" s="17"/>
+      <c r="AT24" s="17"/>
+      <c r="AU24" s="17"/>
+      <c r="AV24" s="17"/>
+      <c r="AW24" s="17"/>
+      <c r="AX24" s="17"/>
       <c r="AY24" s="4"/>
       <c r="AZ24" s="4"/>
       <c r="BA24" s="4"/>
@@ -3147,33 +3129,33 @@
       <c r="BE24" s="4"/>
     </row>
     <row r="25" spans="1:57" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="10"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="62"/>
-      <c r="D25" s="63"/>
-      <c r="E25" s="63"/>
-      <c r="F25" s="63"/>
-      <c r="G25" s="64"/>
-      <c r="H25" s="62"/>
-      <c r="I25" s="63"/>
-      <c r="J25" s="63"/>
-      <c r="K25" s="63"/>
-      <c r="L25" s="63"/>
-      <c r="M25" s="63"/>
-      <c r="N25" s="63"/>
-      <c r="O25" s="64"/>
-      <c r="P25" s="62"/>
-      <c r="Q25" s="63"/>
-      <c r="R25" s="64"/>
-      <c r="S25" s="67"/>
-      <c r="T25" s="68"/>
-      <c r="U25" s="69"/>
-      <c r="V25" s="67"/>
-      <c r="W25" s="68"/>
-      <c r="X25" s="69"/>
-      <c r="Y25" s="62"/>
-      <c r="Z25" s="63"/>
-      <c r="AA25" s="64"/>
+      <c r="A25" s="33"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="41"/>
+      <c r="D25" s="41"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="41"/>
+      <c r="I25" s="41"/>
+      <c r="J25" s="41"/>
+      <c r="K25" s="41"/>
+      <c r="L25" s="41"/>
+      <c r="M25" s="41"/>
+      <c r="N25" s="41"/>
+      <c r="O25" s="41"/>
+      <c r="P25" s="41"/>
+      <c r="Q25" s="41"/>
+      <c r="R25" s="41"/>
+      <c r="S25" s="32"/>
+      <c r="T25" s="32"/>
+      <c r="U25" s="32"/>
+      <c r="V25" s="32"/>
+      <c r="W25" s="32"/>
+      <c r="X25" s="32"/>
+      <c r="Y25" s="33"/>
+      <c r="Z25" s="33"/>
+      <c r="AA25" s="33"/>
       <c r="AB25" s="4"/>
       <c r="AC25" s="4"/>
       <c r="AD25" s="4"/>
@@ -3181,8 +3163,8 @@
       <c r="AF25" s="4"/>
       <c r="AG25" s="4"/>
       <c r="AH25" s="4"/>
-      <c r="AI25" s="13"/>
-      <c r="AJ25" s="13"/>
+      <c r="AI25" s="19"/>
+      <c r="AJ25" s="18"/>
       <c r="AK25" s="4"/>
       <c r="AL25" s="4"/>
       <c r="AM25" s="4"/>
@@ -3206,41 +3188,33 @@
       <c r="BE25" s="4"/>
     </row>
     <row r="26" spans="1:57" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="49"/>
-      <c r="B26" s="49"/>
-      <c r="C26" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="D26" s="50"/>
-      <c r="E26" s="50"/>
-      <c r="F26" s="50"/>
-      <c r="G26" s="50"/>
-      <c r="H26" s="50"/>
-      <c r="I26" s="50"/>
-      <c r="J26" s="50"/>
-      <c r="K26" s="50"/>
-      <c r="L26" s="50"/>
-      <c r="M26" s="50"/>
-      <c r="N26" s="50"/>
-      <c r="O26" s="50"/>
-      <c r="P26" s="50" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q26" s="50"/>
-      <c r="R26" s="50"/>
-      <c r="S26" s="52">
-        <v>45089</v>
-      </c>
-      <c r="T26" s="52"/>
-      <c r="U26" s="52"/>
-      <c r="V26" s="52">
-        <v>45100</v>
-      </c>
-      <c r="W26" s="52"/>
-      <c r="X26" s="52"/>
-      <c r="Y26" s="49"/>
-      <c r="Z26" s="49"/>
-      <c r="AA26" s="49"/>
+      <c r="A26" s="33"/>
+      <c r="B26" s="33"/>
+      <c r="C26" s="41"/>
+      <c r="D26" s="41"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="41"/>
+      <c r="G26" s="41"/>
+      <c r="H26" s="41"/>
+      <c r="I26" s="41"/>
+      <c r="J26" s="41"/>
+      <c r="K26" s="41"/>
+      <c r="L26" s="41"/>
+      <c r="M26" s="41"/>
+      <c r="N26" s="41"/>
+      <c r="O26" s="41"/>
+      <c r="P26" s="41"/>
+      <c r="Q26" s="41"/>
+      <c r="R26" s="41"/>
+      <c r="S26" s="32"/>
+      <c r="T26" s="32"/>
+      <c r="U26" s="32"/>
+      <c r="V26" s="32"/>
+      <c r="W26" s="32"/>
+      <c r="X26" s="32"/>
+      <c r="Y26" s="33"/>
+      <c r="Z26" s="33"/>
+      <c r="AA26" s="33"/>
       <c r="AB26" s="4"/>
       <c r="AC26" s="4"/>
       <c r="AD26" s="4"/>
@@ -3248,22 +3222,21 @@
       <c r="AF26" s="4"/>
       <c r="AG26" s="4"/>
       <c r="AH26" s="4"/>
-      <c r="AI26" s="13"/>
-      <c r="AJ26" s="13"/>
+      <c r="AI26" s="20"/>
       <c r="AK26" s="4"/>
       <c r="AL26" s="4"/>
-      <c r="AM26" s="18"/>
-      <c r="AN26" s="18"/>
-      <c r="AO26" s="18"/>
-      <c r="AP26" s="18"/>
-      <c r="AQ26" s="18"/>
-      <c r="AR26" s="18"/>
-      <c r="AS26" s="18"/>
-      <c r="AT26" s="18"/>
-      <c r="AU26" s="18"/>
-      <c r="AV26" s="18"/>
-      <c r="AW26" s="18"/>
-      <c r="AX26" s="18"/>
+      <c r="AM26" s="4"/>
+      <c r="AN26" s="4"/>
+      <c r="AO26" s="4"/>
+      <c r="AP26" s="4"/>
+      <c r="AQ26" s="4"/>
+      <c r="AR26" s="4"/>
+      <c r="AS26" s="4"/>
+      <c r="AT26" s="4"/>
+      <c r="AU26" s="4"/>
+      <c r="AV26" s="4"/>
+      <c r="AW26" s="4"/>
+      <c r="AX26" s="4"/>
       <c r="AY26" s="4"/>
       <c r="AZ26" s="4"/>
       <c r="BA26" s="4"/>
@@ -3273,33 +3246,41 @@
       <c r="BE26" s="4"/>
     </row>
     <row r="27" spans="1:57" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="49"/>
-      <c r="B27" s="49"/>
-      <c r="C27" s="50"/>
-      <c r="D27" s="50"/>
-      <c r="E27" s="50"/>
-      <c r="F27" s="50"/>
-      <c r="G27" s="50"/>
-      <c r="H27" s="50"/>
-      <c r="I27" s="50"/>
-      <c r="J27" s="50"/>
-      <c r="K27" s="50"/>
-      <c r="L27" s="50"/>
-      <c r="M27" s="50"/>
-      <c r="N27" s="50"/>
-      <c r="O27" s="50"/>
-      <c r="P27" s="50"/>
-      <c r="Q27" s="50"/>
-      <c r="R27" s="50"/>
-      <c r="S27" s="52"/>
-      <c r="T27" s="52"/>
-      <c r="U27" s="52"/>
-      <c r="V27" s="52"/>
-      <c r="W27" s="52"/>
-      <c r="X27" s="52"/>
-      <c r="Y27" s="49"/>
-      <c r="Z27" s="49"/>
-      <c r="AA27" s="49"/>
+      <c r="A27" s="33"/>
+      <c r="B27" s="33"/>
+      <c r="C27" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="41"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="41"/>
+      <c r="H27" s="41"/>
+      <c r="I27" s="41"/>
+      <c r="J27" s="41"/>
+      <c r="K27" s="41"/>
+      <c r="L27" s="41"/>
+      <c r="M27" s="41"/>
+      <c r="N27" s="41"/>
+      <c r="O27" s="41"/>
+      <c r="P27" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q27" s="41"/>
+      <c r="R27" s="41"/>
+      <c r="S27" s="32">
+        <v>45096</v>
+      </c>
+      <c r="T27" s="32"/>
+      <c r="U27" s="32"/>
+      <c r="V27" s="32">
+        <v>45100</v>
+      </c>
+      <c r="W27" s="32"/>
+      <c r="X27" s="32"/>
+      <c r="Y27" s="33"/>
+      <c r="Z27" s="33"/>
+      <c r="AA27" s="33"/>
       <c r="AB27" s="4"/>
       <c r="AC27" s="4"/>
       <c r="AD27" s="4"/>
@@ -3307,8 +3288,8 @@
       <c r="AF27" s="4"/>
       <c r="AG27" s="4"/>
       <c r="AH27" s="4"/>
-      <c r="AI27" s="20"/>
-      <c r="AJ27" s="19"/>
+      <c r="AI27" s="4"/>
+      <c r="AJ27" s="4"/>
       <c r="AK27" s="4"/>
       <c r="AL27" s="4"/>
       <c r="AM27" s="4"/>
@@ -3331,34 +3312,42 @@
       <c r="BD27" s="4"/>
       <c r="BE27" s="4"/>
     </row>
-    <row r="28" spans="1:57" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="49"/>
-      <c r="B28" s="49"/>
-      <c r="C28" s="50"/>
-      <c r="D28" s="50"/>
-      <c r="E28" s="50"/>
-      <c r="F28" s="50"/>
-      <c r="G28" s="50"/>
-      <c r="H28" s="50"/>
-      <c r="I28" s="50"/>
-      <c r="J28" s="50"/>
-      <c r="K28" s="50"/>
-      <c r="L28" s="50"/>
-      <c r="M28" s="50"/>
-      <c r="N28" s="50"/>
-      <c r="O28" s="50"/>
-      <c r="P28" s="50"/>
-      <c r="Q28" s="50"/>
-      <c r="R28" s="50"/>
-      <c r="S28" s="52"/>
-      <c r="T28" s="52"/>
-      <c r="U28" s="52"/>
-      <c r="V28" s="52"/>
-      <c r="W28" s="52"/>
-      <c r="X28" s="52"/>
-      <c r="Y28" s="49"/>
-      <c r="Z28" s="49"/>
-      <c r="AA28" s="49"/>
+    <row r="28" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="33"/>
+      <c r="B28" s="33"/>
+      <c r="C28" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" s="41"/>
+      <c r="E28" s="41"/>
+      <c r="F28" s="41"/>
+      <c r="G28" s="41"/>
+      <c r="H28" s="41"/>
+      <c r="I28" s="41"/>
+      <c r="J28" s="41"/>
+      <c r="K28" s="41"/>
+      <c r="L28" s="41"/>
+      <c r="M28" s="41"/>
+      <c r="N28" s="41"/>
+      <c r="O28" s="41"/>
+      <c r="P28" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q28" s="41"/>
+      <c r="R28" s="41"/>
+      <c r="S28" s="32">
+        <v>45096</v>
+      </c>
+      <c r="T28" s="32"/>
+      <c r="U28" s="32"/>
+      <c r="V28" s="32">
+        <v>45100</v>
+      </c>
+      <c r="W28" s="32"/>
+      <c r="X28" s="32"/>
+      <c r="Y28" s="33"/>
+      <c r="Z28" s="33"/>
+      <c r="AA28" s="33"/>
       <c r="AB28" s="4"/>
       <c r="AC28" s="4"/>
       <c r="AD28" s="4"/>
@@ -3366,21 +3355,21 @@
       <c r="AF28" s="4"/>
       <c r="AG28" s="4"/>
       <c r="AH28" s="4"/>
-      <c r="AI28" s="21"/>
+      <c r="AI28" s="4"/>
+      <c r="AJ28" s="4"/>
       <c r="AK28" s="4"/>
-      <c r="AL28" s="4"/>
-      <c r="AM28" s="4"/>
-      <c r="AN28" s="4"/>
-      <c r="AO28" s="4"/>
-      <c r="AP28" s="4"/>
-      <c r="AQ28" s="4"/>
-      <c r="AR28" s="4"/>
-      <c r="AS28" s="4"/>
-      <c r="AT28" s="4"/>
-      <c r="AU28" s="4"/>
-      <c r="AV28" s="4"/>
-      <c r="AW28" s="4"/>
-      <c r="AX28" s="4"/>
+      <c r="AL28" s="12"/>
+      <c r="AM28" s="21"/>
+      <c r="AN28" s="22"/>
+      <c r="AO28" s="22"/>
+      <c r="AP28" s="23"/>
+      <c r="AQ28" s="22"/>
+      <c r="AR28" s="22"/>
+      <c r="AS28" s="22"/>
+      <c r="AT28" s="22"/>
+      <c r="AU28" s="22"/>
+      <c r="AV28" s="22"/>
+      <c r="AW28" s="22"/>
       <c r="AY28" s="4"/>
       <c r="AZ28" s="4"/>
       <c r="BA28" s="4"/>
@@ -3389,42 +3378,42 @@
       <c r="BD28" s="4"/>
       <c r="BE28" s="4"/>
     </row>
-    <row r="29" spans="1:57" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="49"/>
-      <c r="B29" s="49"/>
-      <c r="C29" s="50" t="s">
-        <v>13</v>
-      </c>
-      <c r="D29" s="50"/>
-      <c r="E29" s="50"/>
-      <c r="F29" s="50"/>
-      <c r="G29" s="50"/>
-      <c r="H29" s="50"/>
-      <c r="I29" s="50"/>
-      <c r="J29" s="50"/>
-      <c r="K29" s="50"/>
-      <c r="L29" s="50"/>
-      <c r="M29" s="50"/>
-      <c r="N29" s="50"/>
-      <c r="O29" s="50"/>
-      <c r="P29" s="50" t="s">
+    <row r="29" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="33"/>
+      <c r="B29" s="33"/>
+      <c r="C29" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="D29" s="41"/>
+      <c r="E29" s="41"/>
+      <c r="F29" s="41"/>
+      <c r="G29" s="41"/>
+      <c r="H29" s="41"/>
+      <c r="I29" s="41"/>
+      <c r="J29" s="41"/>
+      <c r="K29" s="41"/>
+      <c r="L29" s="41"/>
+      <c r="M29" s="41"/>
+      <c r="N29" s="41"/>
+      <c r="O29" s="41"/>
+      <c r="P29" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="Q29" s="50"/>
-      <c r="R29" s="50"/>
-      <c r="S29" s="52">
-        <v>45096</v>
-      </c>
-      <c r="T29" s="52"/>
-      <c r="U29" s="52"/>
-      <c r="V29" s="52">
-        <v>45100</v>
-      </c>
-      <c r="W29" s="52"/>
-      <c r="X29" s="52"/>
-      <c r="Y29" s="49"/>
-      <c r="Z29" s="49"/>
-      <c r="AA29" s="49"/>
+      <c r="Q29" s="41"/>
+      <c r="R29" s="41"/>
+      <c r="S29" s="32">
+        <v>45103</v>
+      </c>
+      <c r="T29" s="32"/>
+      <c r="U29" s="32"/>
+      <c r="V29" s="32">
+        <v>45105</v>
+      </c>
+      <c r="W29" s="32"/>
+      <c r="X29" s="32"/>
+      <c r="Y29" s="33"/>
+      <c r="Z29" s="33"/>
+      <c r="AA29" s="33"/>
       <c r="AB29" s="4"/>
       <c r="AC29" s="4"/>
       <c r="AD29" s="4"/>
@@ -3457,41 +3446,41 @@
       <c r="BE29" s="4"/>
     </row>
     <row r="30" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="49"/>
-      <c r="B30" s="49"/>
-      <c r="C30" s="50" t="s">
-        <v>14</v>
-      </c>
-      <c r="D30" s="50"/>
-      <c r="E30" s="50"/>
-      <c r="F30" s="50"/>
-      <c r="G30" s="50"/>
-      <c r="H30" s="50"/>
-      <c r="I30" s="50"/>
-      <c r="J30" s="50"/>
-      <c r="K30" s="50"/>
-      <c r="L30" s="50"/>
-      <c r="M30" s="50"/>
-      <c r="N30" s="50"/>
-      <c r="O30" s="50"/>
-      <c r="P30" s="50" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q30" s="50"/>
-      <c r="R30" s="50"/>
-      <c r="S30" s="52">
-        <v>45096</v>
-      </c>
-      <c r="T30" s="52"/>
-      <c r="U30" s="52"/>
-      <c r="V30" s="52">
-        <v>45100</v>
-      </c>
-      <c r="W30" s="52"/>
-      <c r="X30" s="52"/>
-      <c r="Y30" s="49"/>
-      <c r="Z30" s="49"/>
-      <c r="AA30" s="49"/>
+      <c r="A30" s="33"/>
+      <c r="B30" s="33"/>
+      <c r="C30" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="D30" s="41"/>
+      <c r="E30" s="41"/>
+      <c r="F30" s="41"/>
+      <c r="G30" s="41"/>
+      <c r="H30" s="41"/>
+      <c r="I30" s="41"/>
+      <c r="J30" s="41"/>
+      <c r="K30" s="41"/>
+      <c r="L30" s="41"/>
+      <c r="M30" s="41"/>
+      <c r="N30" s="41"/>
+      <c r="O30" s="41"/>
+      <c r="P30" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q30" s="41"/>
+      <c r="R30" s="41"/>
+      <c r="S30" s="32">
+        <v>45089</v>
+      </c>
+      <c r="T30" s="32"/>
+      <c r="U30" s="32"/>
+      <c r="V30" s="32">
+        <v>45105</v>
+      </c>
+      <c r="W30" s="32"/>
+      <c r="X30" s="32"/>
+      <c r="Y30" s="33"/>
+      <c r="Z30" s="33"/>
+      <c r="AA30" s="33"/>
       <c r="AB30" s="4"/>
       <c r="AC30" s="4"/>
       <c r="AD30" s="4"/>
@@ -3502,18 +3491,19 @@
       <c r="AI30" s="4"/>
       <c r="AJ30" s="4"/>
       <c r="AK30" s="4"/>
-      <c r="AL30" s="13"/>
-      <c r="AM30" s="22"/>
-      <c r="AN30" s="23"/>
-      <c r="AO30" s="23"/>
-      <c r="AP30" s="24"/>
-      <c r="AQ30" s="23"/>
-      <c r="AR30" s="23"/>
-      <c r="AS30" s="23"/>
-      <c r="AT30" s="23"/>
-      <c r="AU30" s="23"/>
-      <c r="AV30" s="23"/>
-      <c r="AW30" s="23"/>
+      <c r="AL30" s="4"/>
+      <c r="AM30" s="4"/>
+      <c r="AN30" s="4"/>
+      <c r="AO30" s="4"/>
+      <c r="AP30" s="4"/>
+      <c r="AQ30" s="4"/>
+      <c r="AR30" s="4"/>
+      <c r="AS30" s="4"/>
+      <c r="AT30" s="4"/>
+      <c r="AU30" s="4"/>
+      <c r="AV30" s="4"/>
+      <c r="AW30" s="4"/>
+      <c r="AX30" s="4"/>
       <c r="AY30" s="4"/>
       <c r="AZ30" s="4"/>
       <c r="BA30" s="4"/>
@@ -3523,41 +3513,33 @@
       <c r="BE30" s="4"/>
     </row>
     <row r="31" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="49"/>
-      <c r="B31" s="49"/>
-      <c r="C31" s="50" t="s">
-        <v>15</v>
-      </c>
-      <c r="D31" s="50"/>
-      <c r="E31" s="50"/>
-      <c r="F31" s="50"/>
-      <c r="G31" s="50"/>
-      <c r="H31" s="50"/>
-      <c r="I31" s="50"/>
-      <c r="J31" s="50"/>
-      <c r="K31" s="50"/>
-      <c r="L31" s="50"/>
-      <c r="M31" s="50"/>
-      <c r="N31" s="50"/>
-      <c r="O31" s="50"/>
-      <c r="P31" s="50" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q31" s="50"/>
-      <c r="R31" s="50"/>
-      <c r="S31" s="52">
-        <v>45103</v>
-      </c>
-      <c r="T31" s="52"/>
-      <c r="U31" s="52"/>
-      <c r="V31" s="52">
-        <v>45105</v>
-      </c>
-      <c r="W31" s="52"/>
-      <c r="X31" s="52"/>
-      <c r="Y31" s="49"/>
-      <c r="Z31" s="49"/>
-      <c r="AA31" s="49"/>
+      <c r="A31" s="33"/>
+      <c r="B31" s="33"/>
+      <c r="C31" s="41"/>
+      <c r="D31" s="41"/>
+      <c r="E31" s="41"/>
+      <c r="F31" s="41"/>
+      <c r="G31" s="41"/>
+      <c r="H31" s="41"/>
+      <c r="I31" s="41"/>
+      <c r="J31" s="41"/>
+      <c r="K31" s="41"/>
+      <c r="L31" s="41"/>
+      <c r="M31" s="41"/>
+      <c r="N31" s="41"/>
+      <c r="O31" s="41"/>
+      <c r="P31" s="41"/>
+      <c r="Q31" s="41"/>
+      <c r="R31" s="41"/>
+      <c r="S31" s="32"/>
+      <c r="T31" s="32"/>
+      <c r="U31" s="32"/>
+      <c r="V31" s="32"/>
+      <c r="W31" s="32"/>
+      <c r="X31" s="32"/>
+      <c r="Y31" s="33"/>
+      <c r="Z31" s="33"/>
+      <c r="AA31" s="33"/>
       <c r="AB31" s="4"/>
       <c r="AC31" s="4"/>
       <c r="AD31" s="4"/>
@@ -3583,48 +3565,42 @@
       <c r="AX31" s="4"/>
       <c r="AY31" s="4"/>
       <c r="AZ31" s="4"/>
-      <c r="BA31" s="4"/>
-      <c r="BB31" s="4"/>
-      <c r="BC31" s="4"/>
-      <c r="BD31" s="4"/>
+      <c r="BA31" s="12"/>
+      <c r="BB31" s="12"/>
+      <c r="BC31" s="12"/>
+      <c r="BD31" s="12"/>
       <c r="BE31" s="4"/>
     </row>
     <row r="32" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="49"/>
-      <c r="B32" s="49"/>
-      <c r="C32" s="50" t="s">
-        <v>23</v>
-      </c>
-      <c r="D32" s="50"/>
-      <c r="E32" s="50"/>
-      <c r="F32" s="50"/>
-      <c r="G32" s="50"/>
-      <c r="H32" s="50"/>
-      <c r="I32" s="50"/>
-      <c r="J32" s="50"/>
-      <c r="K32" s="50"/>
-      <c r="L32" s="50"/>
-      <c r="M32" s="50"/>
-      <c r="N32" s="50"/>
-      <c r="O32" s="50"/>
-      <c r="P32" s="50" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q32" s="50"/>
-      <c r="R32" s="50"/>
-      <c r="S32" s="52">
-        <v>45089</v>
-      </c>
-      <c r="T32" s="52"/>
-      <c r="U32" s="52"/>
-      <c r="V32" s="52">
-        <v>45105</v>
-      </c>
-      <c r="W32" s="52"/>
-      <c r="X32" s="52"/>
-      <c r="Y32" s="49"/>
-      <c r="Z32" s="49"/>
-      <c r="AA32" s="49"/>
+      <c r="A32" s="33"/>
+      <c r="B32" s="33"/>
+      <c r="C32" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32" s="41"/>
+      <c r="E32" s="41"/>
+      <c r="F32" s="41"/>
+      <c r="G32" s="41"/>
+      <c r="H32" s="41"/>
+      <c r="I32" s="41"/>
+      <c r="J32" s="41"/>
+      <c r="K32" s="41"/>
+      <c r="L32" s="41"/>
+      <c r="M32" s="41"/>
+      <c r="N32" s="41"/>
+      <c r="O32" s="41"/>
+      <c r="P32" s="41"/>
+      <c r="Q32" s="41"/>
+      <c r="R32" s="41"/>
+      <c r="S32" s="32"/>
+      <c r="T32" s="32"/>
+      <c r="U32" s="32"/>
+      <c r="V32" s="32"/>
+      <c r="W32" s="32"/>
+      <c r="X32" s="32"/>
+      <c r="Y32" s="33"/>
+      <c r="Z32" s="33"/>
+      <c r="AA32" s="33"/>
       <c r="AB32" s="4"/>
       <c r="AC32" s="4"/>
       <c r="AD32" s="4"/>
@@ -3650,40 +3626,40 @@
       <c r="AX32" s="4"/>
       <c r="AY32" s="4"/>
       <c r="AZ32" s="4"/>
-      <c r="BA32" s="4"/>
-      <c r="BB32" s="4"/>
-      <c r="BC32" s="4"/>
-      <c r="BD32" s="4"/>
-      <c r="BE32" s="4"/>
+      <c r="BA32" s="12"/>
+      <c r="BB32" s="12"/>
+      <c r="BC32" s="12"/>
+      <c r="BD32" s="12"/>
+      <c r="BE32" s="9"/>
     </row>
     <row r="33" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="49"/>
-      <c r="B33" s="49"/>
-      <c r="C33" s="50"/>
-      <c r="D33" s="50"/>
-      <c r="E33" s="50"/>
-      <c r="F33" s="50"/>
-      <c r="G33" s="50"/>
-      <c r="H33" s="50"/>
-      <c r="I33" s="50"/>
-      <c r="J33" s="50"/>
-      <c r="K33" s="50"/>
-      <c r="L33" s="50"/>
-      <c r="M33" s="50"/>
-      <c r="N33" s="50"/>
-      <c r="O33" s="50"/>
-      <c r="P33" s="50"/>
-      <c r="Q33" s="50"/>
-      <c r="R33" s="50"/>
-      <c r="S33" s="52"/>
-      <c r="T33" s="52"/>
-      <c r="U33" s="52"/>
-      <c r="V33" s="52"/>
-      <c r="W33" s="52"/>
-      <c r="X33" s="52"/>
-      <c r="Y33" s="49"/>
-      <c r="Z33" s="49"/>
-      <c r="AA33" s="49"/>
+      <c r="A33" s="33"/>
+      <c r="B33" s="33"/>
+      <c r="C33" s="41"/>
+      <c r="D33" s="41"/>
+      <c r="E33" s="41"/>
+      <c r="F33" s="41"/>
+      <c r="G33" s="41"/>
+      <c r="H33" s="41"/>
+      <c r="I33" s="41"/>
+      <c r="J33" s="41"/>
+      <c r="K33" s="41"/>
+      <c r="L33" s="41"/>
+      <c r="M33" s="41"/>
+      <c r="N33" s="41"/>
+      <c r="O33" s="41"/>
+      <c r="P33" s="41"/>
+      <c r="Q33" s="41"/>
+      <c r="R33" s="41"/>
+      <c r="S33" s="32"/>
+      <c r="T33" s="32"/>
+      <c r="U33" s="32"/>
+      <c r="V33" s="32"/>
+      <c r="W33" s="32"/>
+      <c r="X33" s="32"/>
+      <c r="Y33" s="33"/>
+      <c r="Z33" s="33"/>
+      <c r="AA33" s="33"/>
       <c r="AB33" s="4"/>
       <c r="AC33" s="4"/>
       <c r="AD33" s="4"/>
@@ -3709,42 +3685,40 @@
       <c r="AX33" s="4"/>
       <c r="AY33" s="4"/>
       <c r="AZ33" s="4"/>
-      <c r="BA33" s="13"/>
-      <c r="BB33" s="13"/>
-      <c r="BC33" s="13"/>
-      <c r="BD33" s="13"/>
-      <c r="BE33" s="4"/>
+      <c r="BA33" s="12"/>
+      <c r="BB33" s="12"/>
+      <c r="BC33" s="12"/>
+      <c r="BD33" s="12"/>
+      <c r="BE33" s="21"/>
     </row>
     <row r="34" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="49"/>
-      <c r="B34" s="49"/>
-      <c r="C34" s="50" t="s">
-        <v>17</v>
-      </c>
-      <c r="D34" s="50"/>
-      <c r="E34" s="50"/>
-      <c r="F34" s="50"/>
-      <c r="G34" s="50"/>
-      <c r="H34" s="50"/>
-      <c r="I34" s="50"/>
-      <c r="J34" s="50"/>
-      <c r="K34" s="50"/>
-      <c r="L34" s="50"/>
-      <c r="M34" s="50"/>
-      <c r="N34" s="50"/>
-      <c r="O34" s="50"/>
-      <c r="P34" s="50"/>
-      <c r="Q34" s="50"/>
-      <c r="R34" s="50"/>
-      <c r="S34" s="52"/>
-      <c r="T34" s="52"/>
-      <c r="U34" s="52"/>
-      <c r="V34" s="52"/>
-      <c r="W34" s="52"/>
-      <c r="X34" s="52"/>
-      <c r="Y34" s="49"/>
-      <c r="Z34" s="49"/>
-      <c r="AA34" s="49"/>
+      <c r="A34" s="33"/>
+      <c r="B34" s="33"/>
+      <c r="C34" s="41"/>
+      <c r="D34" s="41"/>
+      <c r="E34" s="41"/>
+      <c r="F34" s="41"/>
+      <c r="G34" s="41"/>
+      <c r="H34" s="41"/>
+      <c r="I34" s="41"/>
+      <c r="J34" s="41"/>
+      <c r="K34" s="41"/>
+      <c r="L34" s="41"/>
+      <c r="M34" s="41"/>
+      <c r="N34" s="41"/>
+      <c r="O34" s="41"/>
+      <c r="P34" s="41"/>
+      <c r="Q34" s="41"/>
+      <c r="R34" s="41"/>
+      <c r="S34" s="32"/>
+      <c r="T34" s="32"/>
+      <c r="U34" s="32"/>
+      <c r="V34" s="32"/>
+      <c r="W34" s="32"/>
+      <c r="X34" s="32"/>
+      <c r="Y34" s="33"/>
+      <c r="Z34" s="33"/>
+      <c r="AA34" s="33"/>
       <c r="AB34" s="4"/>
       <c r="AC34" s="4"/>
       <c r="AD34" s="4"/>
@@ -3770,40 +3744,40 @@
       <c r="AX34" s="4"/>
       <c r="AY34" s="4"/>
       <c r="AZ34" s="4"/>
-      <c r="BA34" s="13"/>
-      <c r="BB34" s="13"/>
-      <c r="BC34" s="13"/>
-      <c r="BD34" s="13"/>
-      <c r="BE34" s="9"/>
+      <c r="BA34" s="4"/>
+      <c r="BB34" s="4"/>
+      <c r="BC34" s="4"/>
+      <c r="BD34" s="4"/>
+      <c r="BE34" s="4"/>
     </row>
     <row r="35" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="49"/>
-      <c r="B35" s="49"/>
-      <c r="C35" s="50"/>
-      <c r="D35" s="50"/>
-      <c r="E35" s="50"/>
-      <c r="F35" s="50"/>
-      <c r="G35" s="50"/>
-      <c r="H35" s="50"/>
-      <c r="I35" s="50"/>
-      <c r="J35" s="50"/>
-      <c r="K35" s="50"/>
-      <c r="L35" s="50"/>
-      <c r="M35" s="50"/>
-      <c r="N35" s="50"/>
-      <c r="O35" s="50"/>
-      <c r="P35" s="50"/>
-      <c r="Q35" s="50"/>
-      <c r="R35" s="50"/>
-      <c r="S35" s="52"/>
-      <c r="T35" s="52"/>
-      <c r="U35" s="52"/>
-      <c r="V35" s="52"/>
-      <c r="W35" s="52"/>
-      <c r="X35" s="52"/>
-      <c r="Y35" s="49"/>
-      <c r="Z35" s="49"/>
-      <c r="AA35" s="49"/>
+      <c r="A35" s="33"/>
+      <c r="B35" s="33"/>
+      <c r="C35" s="41"/>
+      <c r="D35" s="41"/>
+      <c r="E35" s="41"/>
+      <c r="F35" s="41"/>
+      <c r="G35" s="41"/>
+      <c r="H35" s="41"/>
+      <c r="I35" s="41"/>
+      <c r="J35" s="41"/>
+      <c r="K35" s="41"/>
+      <c r="L35" s="41"/>
+      <c r="M35" s="41"/>
+      <c r="N35" s="41"/>
+      <c r="O35" s="41"/>
+      <c r="P35" s="41"/>
+      <c r="Q35" s="41"/>
+      <c r="R35" s="41"/>
+      <c r="S35" s="32"/>
+      <c r="T35" s="32"/>
+      <c r="U35" s="32"/>
+      <c r="V35" s="32"/>
+      <c r="W35" s="32"/>
+      <c r="X35" s="32"/>
+      <c r="Y35" s="33"/>
+      <c r="Z35" s="33"/>
+      <c r="AA35" s="33"/>
       <c r="AB35" s="4"/>
       <c r="AC35" s="4"/>
       <c r="AD35" s="4"/>
@@ -3829,130 +3803,14 @@
       <c r="AX35" s="4"/>
       <c r="AY35" s="4"/>
       <c r="AZ35" s="4"/>
-      <c r="BA35" s="13"/>
-      <c r="BB35" s="13"/>
-      <c r="BC35" s="13"/>
-      <c r="BD35" s="13"/>
-      <c r="BE35" s="22"/>
+      <c r="BA35" s="4"/>
+      <c r="BB35" s="4"/>
+      <c r="BC35" s="4"/>
+      <c r="BD35" s="4"/>
+      <c r="BE35" s="4"/>
     </row>
-    <row r="36" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="49"/>
-      <c r="B36" s="49"/>
-      <c r="C36" s="50"/>
-      <c r="D36" s="50"/>
-      <c r="E36" s="50"/>
-      <c r="F36" s="50"/>
-      <c r="G36" s="50"/>
-      <c r="H36" s="50"/>
-      <c r="I36" s="50"/>
-      <c r="J36" s="50"/>
-      <c r="K36" s="50"/>
-      <c r="L36" s="50"/>
-      <c r="M36" s="50"/>
-      <c r="N36" s="50"/>
-      <c r="O36" s="50"/>
-      <c r="P36" s="50"/>
-      <c r="Q36" s="50"/>
-      <c r="R36" s="50"/>
-      <c r="S36" s="52"/>
-      <c r="T36" s="52"/>
-      <c r="U36" s="52"/>
-      <c r="V36" s="52"/>
-      <c r="W36" s="52"/>
-      <c r="X36" s="52"/>
-      <c r="Y36" s="49"/>
-      <c r="Z36" s="49"/>
-      <c r="AA36" s="49"/>
-      <c r="AB36" s="4"/>
-      <c r="AC36" s="4"/>
-      <c r="AD36" s="4"/>
-      <c r="AE36" s="4"/>
-      <c r="AF36" s="4"/>
-      <c r="AG36" s="4"/>
-      <c r="AH36" s="4"/>
-      <c r="AI36" s="4"/>
-      <c r="AJ36" s="4"/>
-      <c r="AK36" s="4"/>
-      <c r="AL36" s="4"/>
-      <c r="AM36" s="4"/>
-      <c r="AN36" s="4"/>
-      <c r="AO36" s="4"/>
-      <c r="AP36" s="4"/>
-      <c r="AQ36" s="4"/>
-      <c r="AR36" s="4"/>
-      <c r="AS36" s="4"/>
-      <c r="AT36" s="4"/>
-      <c r="AU36" s="4"/>
-      <c r="AV36" s="4"/>
-      <c r="AW36" s="4"/>
-      <c r="AX36" s="4"/>
-      <c r="AY36" s="4"/>
-      <c r="AZ36" s="4"/>
-      <c r="BA36" s="4"/>
-      <c r="BB36" s="4"/>
-      <c r="BC36" s="4"/>
-      <c r="BD36" s="4"/>
-      <c r="BE36" s="4"/>
-    </row>
-    <row r="37" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="49"/>
-      <c r="B37" s="49"/>
-      <c r="C37" s="50"/>
-      <c r="D37" s="50"/>
-      <c r="E37" s="50"/>
-      <c r="F37" s="50"/>
-      <c r="G37" s="50"/>
-      <c r="H37" s="50"/>
-      <c r="I37" s="50"/>
-      <c r="J37" s="50"/>
-      <c r="K37" s="50"/>
-      <c r="L37" s="50"/>
-      <c r="M37" s="50"/>
-      <c r="N37" s="50"/>
-      <c r="O37" s="50"/>
-      <c r="P37" s="50"/>
-      <c r="Q37" s="50"/>
-      <c r="R37" s="50"/>
-      <c r="S37" s="52"/>
-      <c r="T37" s="52"/>
-      <c r="U37" s="52"/>
-      <c r="V37" s="52"/>
-      <c r="W37" s="52"/>
-      <c r="X37" s="52"/>
-      <c r="Y37" s="49"/>
-      <c r="Z37" s="49"/>
-      <c r="AA37" s="49"/>
-      <c r="AB37" s="4"/>
-      <c r="AC37" s="4"/>
-      <c r="AD37" s="4"/>
-      <c r="AE37" s="4"/>
-      <c r="AF37" s="4"/>
-      <c r="AG37" s="4"/>
-      <c r="AH37" s="4"/>
-      <c r="AI37" s="4"/>
-      <c r="AJ37" s="4"/>
-      <c r="AK37" s="4"/>
-      <c r="AL37" s="4"/>
-      <c r="AM37" s="4"/>
-      <c r="AN37" s="4"/>
-      <c r="AO37" s="4"/>
-      <c r="AP37" s="4"/>
-      <c r="AQ37" s="4"/>
-      <c r="AR37" s="4"/>
-      <c r="AS37" s="4"/>
-      <c r="AT37" s="4"/>
-      <c r="AU37" s="4"/>
-      <c r="AV37" s="4"/>
-      <c r="AW37" s="4"/>
-      <c r="AX37" s="4"/>
-      <c r="AY37" s="4"/>
-      <c r="AZ37" s="4"/>
-      <c r="BA37" s="4"/>
-      <c r="BB37" s="4"/>
-      <c r="BC37" s="4"/>
-      <c r="BD37" s="4"/>
-      <c r="BE37" s="4"/>
-    </row>
+    <row r="36" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="37" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="38" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="39" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="40" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3962,33 +3820,183 @@
     <row r="44" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="45" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="46" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="47" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="48" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="221">
-    <mergeCell ref="P23:R23"/>
+  <mergeCells count="210">
+    <mergeCell ref="A1:G2"/>
+    <mergeCell ref="AH1:AN1"/>
+    <mergeCell ref="AH2:AN2"/>
+    <mergeCell ref="AD1:AG1"/>
+    <mergeCell ref="AD2:AG2"/>
+    <mergeCell ref="Y4:AA6"/>
+    <mergeCell ref="C5:G6"/>
+    <mergeCell ref="H5:O6"/>
+    <mergeCell ref="S5:U6"/>
+    <mergeCell ref="V5:X6"/>
+    <mergeCell ref="A4:B6"/>
+    <mergeCell ref="C4:O4"/>
+    <mergeCell ref="P4:R6"/>
+    <mergeCell ref="S4:X4"/>
+    <mergeCell ref="H1:AC2"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="Y11:AA11"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="H11:O11"/>
+    <mergeCell ref="P11:R11"/>
+    <mergeCell ref="S11:U11"/>
+    <mergeCell ref="V11:X11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H13:O13"/>
+    <mergeCell ref="P12:R12"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="V13:X13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:O14"/>
+    <mergeCell ref="P14:R14"/>
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="V14:X14"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H12:O12"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H16:O16"/>
+    <mergeCell ref="P16:R16"/>
+    <mergeCell ref="S16:U16"/>
+    <mergeCell ref="V16:X16"/>
+    <mergeCell ref="Y16:AA16"/>
+    <mergeCell ref="Y13:AA13"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="H15:O15"/>
+    <mergeCell ref="P15:R15"/>
+    <mergeCell ref="S15:U15"/>
+    <mergeCell ref="V15:X15"/>
+    <mergeCell ref="Y15:AA15"/>
+    <mergeCell ref="Y14:AA14"/>
+    <mergeCell ref="P13:R13"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="P17:R17"/>
+    <mergeCell ref="S17:U17"/>
+    <mergeCell ref="V17:X17"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="Y20:AA20"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="H20:O20"/>
+    <mergeCell ref="P20:R20"/>
+    <mergeCell ref="S20:U20"/>
+    <mergeCell ref="V20:X20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="H21:O21"/>
+    <mergeCell ref="S21:U21"/>
+    <mergeCell ref="V21:X21"/>
+    <mergeCell ref="Y21:AA21"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H18:O18"/>
+    <mergeCell ref="P21:R21"/>
+    <mergeCell ref="Y18:AA18"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:O24"/>
+    <mergeCell ref="P24:R24"/>
+    <mergeCell ref="S24:U24"/>
+    <mergeCell ref="V24:X24"/>
+    <mergeCell ref="Y24:AA24"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:O22"/>
+    <mergeCell ref="P22:R22"/>
     <mergeCell ref="S22:U22"/>
+    <mergeCell ref="V22:X22"/>
+    <mergeCell ref="Y22:AA22"/>
     <mergeCell ref="S23:U23"/>
-    <mergeCell ref="V22:X22"/>
     <mergeCell ref="V23:X23"/>
-    <mergeCell ref="Y22:AA22"/>
     <mergeCell ref="Y23:AA23"/>
     <mergeCell ref="H23:O23"/>
-    <mergeCell ref="H19:O19"/>
-    <mergeCell ref="P19:R19"/>
-    <mergeCell ref="S19:U19"/>
-    <mergeCell ref="V19:X19"/>
-    <mergeCell ref="Y19:AA19"/>
-    <mergeCell ref="Y12:AA12"/>
-    <mergeCell ref="V12:X12"/>
-    <mergeCell ref="S12:U12"/>
-    <mergeCell ref="P18:R18"/>
-    <mergeCell ref="S18:U18"/>
-    <mergeCell ref="V18:X18"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="Y17:AA17"/>
-    <mergeCell ref="Y10:AA10"/>
-    <mergeCell ref="H17:O17"/>
+    <mergeCell ref="P23:R23"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="Y25:AA25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:O26"/>
+    <mergeCell ref="P26:R26"/>
+    <mergeCell ref="S26:U26"/>
+    <mergeCell ref="V26:X26"/>
+    <mergeCell ref="Y26:AA26"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="H25:O25"/>
+    <mergeCell ref="P25:R25"/>
+    <mergeCell ref="S25:U25"/>
+    <mergeCell ref="V25:X25"/>
+    <mergeCell ref="Y27:AA27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="H28:O28"/>
+    <mergeCell ref="P28:R28"/>
+    <mergeCell ref="S28:U28"/>
+    <mergeCell ref="V28:X28"/>
+    <mergeCell ref="Y28:AA28"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H27:O27"/>
+    <mergeCell ref="P27:R27"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="V27:X27"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="Y29:AA29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="H30:O30"/>
+    <mergeCell ref="P30:R30"/>
+    <mergeCell ref="S30:U30"/>
+    <mergeCell ref="V30:X30"/>
+    <mergeCell ref="Y30:AA30"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="Y35:AA35"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="H35:O35"/>
+    <mergeCell ref="P35:R35"/>
+    <mergeCell ref="S35:U35"/>
+    <mergeCell ref="V35:X35"/>
+    <mergeCell ref="Y33:AA33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H34:O34"/>
+    <mergeCell ref="P34:R34"/>
+    <mergeCell ref="S34:U34"/>
+    <mergeCell ref="V34:X34"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H29:O29"/>
+    <mergeCell ref="P29:R29"/>
+    <mergeCell ref="S29:U29"/>
+    <mergeCell ref="V29:X29"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="Y34:AA34"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="H33:O33"/>
+    <mergeCell ref="P33:R33"/>
+    <mergeCell ref="S33:U33"/>
+    <mergeCell ref="V33:X33"/>
+    <mergeCell ref="Y31:AA31"/>
+    <mergeCell ref="Y32:AA32"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H31:O31"/>
+    <mergeCell ref="P31:R31"/>
+    <mergeCell ref="S31:U31"/>
+    <mergeCell ref="V31:X31"/>
+    <mergeCell ref="H32:O32"/>
+    <mergeCell ref="P32:R32"/>
+    <mergeCell ref="S32:U32"/>
+    <mergeCell ref="V32:X32"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="H7:O7"/>
     <mergeCell ref="P7:R7"/>
@@ -4009,184 +4017,21 @@
     <mergeCell ref="S8:U8"/>
     <mergeCell ref="V8:X8"/>
     <mergeCell ref="Y8:AA8"/>
-    <mergeCell ref="Y36:AA36"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="H35:O35"/>
-    <mergeCell ref="P35:R35"/>
-    <mergeCell ref="S35:U35"/>
-    <mergeCell ref="V35:X35"/>
-    <mergeCell ref="Y33:AA33"/>
-    <mergeCell ref="Y34:AA34"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="H33:O33"/>
-    <mergeCell ref="P33:R33"/>
-    <mergeCell ref="S33:U33"/>
-    <mergeCell ref="V33:X33"/>
-    <mergeCell ref="H34:O34"/>
-    <mergeCell ref="P34:R34"/>
-    <mergeCell ref="S34:U34"/>
-    <mergeCell ref="V34:X34"/>
-    <mergeCell ref="Y37:AA37"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="H37:O37"/>
-    <mergeCell ref="P37:R37"/>
-    <mergeCell ref="S37:U37"/>
-    <mergeCell ref="V37:X37"/>
-    <mergeCell ref="Y35:AA35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="H36:O36"/>
-    <mergeCell ref="P36:R36"/>
-    <mergeCell ref="S36:U36"/>
-    <mergeCell ref="V36:X36"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="H31:O31"/>
-    <mergeCell ref="P31:R31"/>
-    <mergeCell ref="S31:U31"/>
-    <mergeCell ref="V31:X31"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="Y29:AA29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="H30:O30"/>
-    <mergeCell ref="P30:R30"/>
-    <mergeCell ref="S30:U30"/>
-    <mergeCell ref="V30:X30"/>
-    <mergeCell ref="Y30:AA30"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="H29:O29"/>
-    <mergeCell ref="P29:R29"/>
-    <mergeCell ref="S29:U29"/>
-    <mergeCell ref="V29:X29"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="Y31:AA31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="H32:O32"/>
-    <mergeCell ref="P32:R32"/>
-    <mergeCell ref="S32:U32"/>
-    <mergeCell ref="V32:X32"/>
-    <mergeCell ref="Y32:AA32"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="Y27:AA27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="H28:O28"/>
-    <mergeCell ref="P28:R28"/>
-    <mergeCell ref="S28:U28"/>
-    <mergeCell ref="V28:X28"/>
-    <mergeCell ref="Y28:AA28"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="H27:O27"/>
-    <mergeCell ref="P27:R27"/>
-    <mergeCell ref="S27:U27"/>
-    <mergeCell ref="V27:X27"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="H26:O26"/>
-    <mergeCell ref="P26:R26"/>
-    <mergeCell ref="S26:U26"/>
-    <mergeCell ref="V26:X26"/>
-    <mergeCell ref="Y26:AA26"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="H24:O24"/>
-    <mergeCell ref="P24:R24"/>
-    <mergeCell ref="S24:U24"/>
-    <mergeCell ref="V24:X24"/>
-    <mergeCell ref="Y24:AA24"/>
-    <mergeCell ref="S25:U25"/>
-    <mergeCell ref="V25:X25"/>
-    <mergeCell ref="Y25:AA25"/>
-    <mergeCell ref="H25:O25"/>
-    <mergeCell ref="P25:R25"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="H21:O21"/>
-    <mergeCell ref="S21:U21"/>
-    <mergeCell ref="V21:X21"/>
-    <mergeCell ref="Y21:AA21"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="H22:O22"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="H18:O18"/>
-    <mergeCell ref="P21:R21"/>
-    <mergeCell ref="Y18:AA18"/>
-    <mergeCell ref="P22:R22"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="P17:R17"/>
-    <mergeCell ref="S17:U17"/>
-    <mergeCell ref="V17:X17"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="Y20:AA20"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="H20:O20"/>
-    <mergeCell ref="P20:R20"/>
-    <mergeCell ref="S20:U20"/>
-    <mergeCell ref="V20:X20"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="H16:O16"/>
-    <mergeCell ref="P16:R16"/>
-    <mergeCell ref="S16:U16"/>
-    <mergeCell ref="V16:X16"/>
-    <mergeCell ref="Y16:AA16"/>
-    <mergeCell ref="Y13:AA13"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="H15:O15"/>
-    <mergeCell ref="P15:R15"/>
-    <mergeCell ref="S15:U15"/>
-    <mergeCell ref="V15:X15"/>
-    <mergeCell ref="Y15:AA15"/>
-    <mergeCell ref="Y14:AA14"/>
-    <mergeCell ref="P13:R13"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="H13:O13"/>
-    <mergeCell ref="P12:R12"/>
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="V13:X13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="H14:O14"/>
-    <mergeCell ref="P14:R14"/>
-    <mergeCell ref="S14:U14"/>
-    <mergeCell ref="V14:X14"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="H12:O12"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="Y11:AA11"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="H11:O11"/>
-    <mergeCell ref="P11:R11"/>
-    <mergeCell ref="S11:U11"/>
-    <mergeCell ref="V11:X11"/>
-    <mergeCell ref="A1:G2"/>
-    <mergeCell ref="AH1:AN1"/>
-    <mergeCell ref="AH2:AN2"/>
-    <mergeCell ref="AD1:AG1"/>
-    <mergeCell ref="AD2:AG2"/>
-    <mergeCell ref="Y4:AA6"/>
-    <mergeCell ref="C5:G6"/>
-    <mergeCell ref="H5:O6"/>
-    <mergeCell ref="S5:U6"/>
-    <mergeCell ref="V5:X6"/>
-    <mergeCell ref="A4:B6"/>
-    <mergeCell ref="C4:O4"/>
-    <mergeCell ref="P4:R6"/>
-    <mergeCell ref="S4:X4"/>
-    <mergeCell ref="H1:AC2"/>
+    <mergeCell ref="Y12:AA12"/>
+    <mergeCell ref="V12:X12"/>
+    <mergeCell ref="S12:U12"/>
+    <mergeCell ref="P18:R18"/>
+    <mergeCell ref="S18:U18"/>
+    <mergeCell ref="V18:X18"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="Y17:AA17"/>
+    <mergeCell ref="Y10:AA10"/>
+    <mergeCell ref="H17:O17"/>
+    <mergeCell ref="H19:O19"/>
+    <mergeCell ref="P19:R19"/>
+    <mergeCell ref="S19:U19"/>
+    <mergeCell ref="V19:X19"/>
+    <mergeCell ref="Y19:AA19"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="AC5:BE6">

--- a/doc/進捗管理表_D3.xlsx
+++ b/doc/進捗管理表_D3.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8A41671-0266-4DC7-98D7-0B0160FDA586}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{363BCD0A-A690-4E4A-8992-A1F3DCA0C6D0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="110" yWindow="0" windowWidth="11680" windowHeight="10180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1140" yWindow="20" windowWidth="14400" windowHeight="10140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="43">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -810,7 +810,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -898,19 +898,124 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -922,39 +1027,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -973,104 +1045,23 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1397,8 +1388,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BG46"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="67" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="Y17" sqref="Y17:AA17"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B9" zoomScale="67" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="P21" sqref="P21:R21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.25" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1414,139 +1405,139 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:59" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="77" t="s">
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="78"/>
-      <c r="N1" s="78"/>
-      <c r="O1" s="78"/>
-      <c r="P1" s="78"/>
-      <c r="Q1" s="78"/>
-      <c r="R1" s="78"/>
-      <c r="S1" s="78"/>
-      <c r="T1" s="78"/>
-      <c r="U1" s="78"/>
-      <c r="V1" s="78"/>
-      <c r="W1" s="78"/>
-      <c r="X1" s="78"/>
-      <c r="Y1" s="78"/>
-      <c r="Z1" s="78"/>
-      <c r="AA1" s="78"/>
-      <c r="AB1" s="78"/>
-      <c r="AC1" s="79"/>
-      <c r="AD1" s="71" t="s">
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="43"/>
+      <c r="R1" s="43"/>
+      <c r="S1" s="43"/>
+      <c r="T1" s="43"/>
+      <c r="U1" s="43"/>
+      <c r="V1" s="43"/>
+      <c r="W1" s="43"/>
+      <c r="X1" s="43"/>
+      <c r="Y1" s="43"/>
+      <c r="Z1" s="43"/>
+      <c r="AA1" s="43"/>
+      <c r="AB1" s="43"/>
+      <c r="AC1" s="44"/>
+      <c r="AD1" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="AE1" s="72"/>
-      <c r="AF1" s="72"/>
-      <c r="AG1" s="73"/>
-      <c r="AH1" s="68">
+      <c r="AE1" s="37"/>
+      <c r="AF1" s="37"/>
+      <c r="AG1" s="38"/>
+      <c r="AH1" s="33">
         <v>45078</v>
       </c>
-      <c r="AI1" s="69"/>
-      <c r="AJ1" s="69"/>
-      <c r="AK1" s="69"/>
-      <c r="AL1" s="69"/>
-      <c r="AM1" s="69"/>
-      <c r="AN1" s="70"/>
+      <c r="AI1" s="34"/>
+      <c r="AJ1" s="34"/>
+      <c r="AK1" s="34"/>
+      <c r="AL1" s="34"/>
+      <c r="AM1" s="34"/>
+      <c r="AN1" s="35"/>
     </row>
     <row r="2" spans="1:59" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="66"/>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="80"/>
-      <c r="I2" s="81"/>
-      <c r="J2" s="81"/>
-      <c r="K2" s="81"/>
-      <c r="L2" s="81"/>
-      <c r="M2" s="81"/>
-      <c r="N2" s="81"/>
-      <c r="O2" s="81"/>
-      <c r="P2" s="81"/>
-      <c r="Q2" s="81"/>
-      <c r="R2" s="81"/>
-      <c r="S2" s="81"/>
-      <c r="T2" s="81"/>
-      <c r="U2" s="81"/>
-      <c r="V2" s="81"/>
-      <c r="W2" s="81"/>
-      <c r="X2" s="81"/>
-      <c r="Y2" s="81"/>
-      <c r="Z2" s="81"/>
-      <c r="AA2" s="81"/>
-      <c r="AB2" s="81"/>
-      <c r="AC2" s="82"/>
-      <c r="AD2" s="71" t="s">
+      <c r="A2" s="31"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
+      <c r="P2" s="46"/>
+      <c r="Q2" s="46"/>
+      <c r="R2" s="46"/>
+      <c r="S2" s="46"/>
+      <c r="T2" s="46"/>
+      <c r="U2" s="46"/>
+      <c r="V2" s="46"/>
+      <c r="W2" s="46"/>
+      <c r="X2" s="46"/>
+      <c r="Y2" s="46"/>
+      <c r="Z2" s="46"/>
+      <c r="AA2" s="46"/>
+      <c r="AB2" s="46"/>
+      <c r="AC2" s="47"/>
+      <c r="AD2" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="AE2" s="72"/>
-      <c r="AF2" s="72"/>
-      <c r="AG2" s="73"/>
-      <c r="AH2" s="68">
+      <c r="AE2" s="37"/>
+      <c r="AF2" s="37"/>
+      <c r="AG2" s="38"/>
+      <c r="AH2" s="33">
         <v>45107</v>
       </c>
-      <c r="AI2" s="69"/>
-      <c r="AJ2" s="69"/>
-      <c r="AK2" s="69"/>
-      <c r="AL2" s="69"/>
-      <c r="AM2" s="69"/>
-      <c r="AN2" s="70"/>
+      <c r="AI2" s="34"/>
+      <c r="AJ2" s="34"/>
+      <c r="AK2" s="34"/>
+      <c r="AL2" s="34"/>
+      <c r="AM2" s="34"/>
+      <c r="AN2" s="35"/>
     </row>
     <row r="4" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="75" t="s">
+      <c r="A4" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="75"/>
-      <c r="C4" s="76" t="s">
+      <c r="B4" s="40"/>
+      <c r="C4" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76"/>
-      <c r="K4" s="76"/>
-      <c r="L4" s="76"/>
-      <c r="M4" s="76"/>
-      <c r="N4" s="76"/>
-      <c r="O4" s="76"/>
-      <c r="P4" s="75" t="s">
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="41"/>
+      <c r="N4" s="41"/>
+      <c r="O4" s="41"/>
+      <c r="P4" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="Q4" s="75"/>
-      <c r="R4" s="75"/>
-      <c r="S4" s="75" t="s">
+      <c r="Q4" s="40"/>
+      <c r="R4" s="40"/>
+      <c r="S4" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="T4" s="75"/>
-      <c r="U4" s="75"/>
-      <c r="V4" s="75"/>
-      <c r="W4" s="75"/>
-      <c r="X4" s="75"/>
-      <c r="Y4" s="74" t="s">
+      <c r="T4" s="40"/>
+      <c r="U4" s="40"/>
+      <c r="V4" s="40"/>
+      <c r="W4" s="40"/>
+      <c r="X4" s="40"/>
+      <c r="Y4" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="Z4" s="74"/>
-      <c r="AA4" s="74"/>
+      <c r="Z4" s="39"/>
+      <c r="AA4" s="39"/>
       <c r="AB4" s="7">
         <f>AH1</f>
         <v>45078</v>
@@ -1671,41 +1662,41 @@
       <c r="BG4" s="3"/>
     </row>
     <row r="5" spans="1:59" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="75"/>
-      <c r="B5" s="75"/>
-      <c r="C5" s="75" t="s">
+      <c r="A5" s="40"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="75"/>
-      <c r="E5" s="75"/>
-      <c r="F5" s="75"/>
-      <c r="G5" s="75"/>
-      <c r="H5" s="75" t="s">
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="75"/>
-      <c r="J5" s="75"/>
-      <c r="K5" s="75"/>
-      <c r="L5" s="75"/>
-      <c r="M5" s="75"/>
-      <c r="N5" s="75"/>
-      <c r="O5" s="75"/>
-      <c r="P5" s="75"/>
-      <c r="Q5" s="75"/>
-      <c r="R5" s="75"/>
-      <c r="S5" s="75" t="s">
+      <c r="I5" s="40"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="40"/>
+      <c r="L5" s="40"/>
+      <c r="M5" s="40"/>
+      <c r="N5" s="40"/>
+      <c r="O5" s="40"/>
+      <c r="P5" s="40"/>
+      <c r="Q5" s="40"/>
+      <c r="R5" s="40"/>
+      <c r="S5" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="T5" s="75"/>
-      <c r="U5" s="75"/>
-      <c r="V5" s="75" t="s">
+      <c r="T5" s="40"/>
+      <c r="U5" s="40"/>
+      <c r="V5" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="W5" s="75"/>
-      <c r="X5" s="75"/>
-      <c r="Y5" s="74"/>
-      <c r="Z5" s="74"/>
-      <c r="AA5" s="74"/>
+      <c r="W5" s="40"/>
+      <c r="X5" s="40"/>
+      <c r="Y5" s="39"/>
+      <c r="Z5" s="39"/>
+      <c r="AA5" s="39"/>
       <c r="AB5" s="5">
         <f>AH1</f>
         <v>45078</v>
@@ -1828,33 +1819,33 @@
       </c>
     </row>
     <row r="6" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="75"/>
-      <c r="B6" s="75"/>
-      <c r="C6" s="75"/>
-      <c r="D6" s="75"/>
-      <c r="E6" s="75"/>
-      <c r="F6" s="75"/>
-      <c r="G6" s="75"/>
-      <c r="H6" s="75"/>
-      <c r="I6" s="75"/>
-      <c r="J6" s="75"/>
-      <c r="K6" s="75"/>
-      <c r="L6" s="75"/>
-      <c r="M6" s="75"/>
-      <c r="N6" s="75"/>
-      <c r="O6" s="75"/>
-      <c r="P6" s="75"/>
-      <c r="Q6" s="75"/>
-      <c r="R6" s="75"/>
-      <c r="S6" s="75"/>
-      <c r="T6" s="75"/>
-      <c r="U6" s="75"/>
-      <c r="V6" s="75"/>
-      <c r="W6" s="75"/>
-      <c r="X6" s="75"/>
-      <c r="Y6" s="74"/>
-      <c r="Z6" s="74"/>
-      <c r="AA6" s="74"/>
+      <c r="A6" s="40"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="40"/>
+      <c r="L6" s="40"/>
+      <c r="M6" s="40"/>
+      <c r="N6" s="40"/>
+      <c r="O6" s="40"/>
+      <c r="P6" s="40"/>
+      <c r="Q6" s="40"/>
+      <c r="R6" s="40"/>
+      <c r="S6" s="40"/>
+      <c r="T6" s="40"/>
+      <c r="U6" s="40"/>
+      <c r="V6" s="40"/>
+      <c r="W6" s="40"/>
+      <c r="X6" s="40"/>
+      <c r="Y6" s="39"/>
+      <c r="Z6" s="39"/>
+      <c r="AA6" s="39"/>
       <c r="AB6" s="6" t="str">
         <f>TEXT(AB5,"aaa")</f>
         <v>木</v>
@@ -1977,35 +1968,35 @@
       </c>
     </row>
     <row r="7" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="33"/>
-      <c r="B7" s="33"/>
-      <c r="C7" s="41" t="s">
+      <c r="A7" s="48"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="41"/>
-      <c r="J7" s="41"/>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41"/>
-      <c r="M7" s="41"/>
-      <c r="N7" s="41"/>
-      <c r="O7" s="41"/>
-      <c r="P7" s="41"/>
-      <c r="Q7" s="41"/>
-      <c r="R7" s="41"/>
-      <c r="S7" s="32"/>
-      <c r="T7" s="32"/>
-      <c r="U7" s="32"/>
-      <c r="V7" s="32"/>
-      <c r="W7" s="32"/>
-      <c r="X7" s="32"/>
-      <c r="Y7" s="33"/>
-      <c r="Z7" s="33"/>
-      <c r="AA7" s="33"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="49"/>
+      <c r="K7" s="49"/>
+      <c r="L7" s="49"/>
+      <c r="M7" s="49"/>
+      <c r="N7" s="49"/>
+      <c r="O7" s="49"/>
+      <c r="P7" s="49"/>
+      <c r="Q7" s="49"/>
+      <c r="R7" s="49"/>
+      <c r="S7" s="51"/>
+      <c r="T7" s="51"/>
+      <c r="U7" s="51"/>
+      <c r="V7" s="51"/>
+      <c r="W7" s="51"/>
+      <c r="X7" s="51"/>
+      <c r="Y7" s="48"/>
+      <c r="Z7" s="48"/>
+      <c r="AA7" s="48"/>
       <c r="AB7" s="4"/>
       <c r="AC7" s="4"/>
       <c r="AD7" s="4"/>
@@ -2038,41 +2029,41 @@
       <c r="BE7" s="4"/>
     </row>
     <row r="8" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="33"/>
-      <c r="B8" s="33"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="43" t="s">
+      <c r="A8" s="48"/>
+      <c r="B8" s="48"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="I8" s="43"/>
-      <c r="J8" s="43"/>
-      <c r="K8" s="43"/>
-      <c r="L8" s="43"/>
-      <c r="M8" s="43"/>
-      <c r="N8" s="43"/>
-      <c r="O8" s="43"/>
-      <c r="P8" s="41"/>
-      <c r="Q8" s="41"/>
-      <c r="R8" s="41"/>
-      <c r="S8" s="32">
+      <c r="I8" s="50"/>
+      <c r="J8" s="50"/>
+      <c r="K8" s="50"/>
+      <c r="L8" s="50"/>
+      <c r="M8" s="50"/>
+      <c r="N8" s="50"/>
+      <c r="O8" s="50"/>
+      <c r="P8" s="49"/>
+      <c r="Q8" s="49"/>
+      <c r="R8" s="49"/>
+      <c r="S8" s="51">
         <v>45078</v>
       </c>
-      <c r="T8" s="32"/>
-      <c r="U8" s="32"/>
-      <c r="V8" s="32">
+      <c r="T8" s="51"/>
+      <c r="U8" s="51"/>
+      <c r="V8" s="51">
         <v>45078</v>
       </c>
-      <c r="W8" s="32"/>
-      <c r="X8" s="32"/>
-      <c r="Y8" s="33" t="s">
+      <c r="W8" s="51"/>
+      <c r="X8" s="51"/>
+      <c r="Y8" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="Z8" s="33"/>
-      <c r="AA8" s="33"/>
+      <c r="Z8" s="48"/>
+      <c r="AA8" s="48"/>
       <c r="AB8" s="4"/>
       <c r="AC8" s="4"/>
       <c r="AD8" s="4"/>
@@ -2105,41 +2096,41 @@
       <c r="BE8" s="4"/>
     </row>
     <row r="9" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="33"/>
-      <c r="B9" s="33"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="43" t="s">
+      <c r="A9" s="48"/>
+      <c r="B9" s="48"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="I9" s="43"/>
-      <c r="J9" s="43"/>
-      <c r="K9" s="43"/>
-      <c r="L9" s="43"/>
-      <c r="M9" s="43"/>
-      <c r="N9" s="43"/>
-      <c r="O9" s="43"/>
-      <c r="P9" s="41"/>
-      <c r="Q9" s="41"/>
-      <c r="R9" s="41"/>
-      <c r="S9" s="32">
+      <c r="I9" s="50"/>
+      <c r="J9" s="50"/>
+      <c r="K9" s="50"/>
+      <c r="L9" s="50"/>
+      <c r="M9" s="50"/>
+      <c r="N9" s="50"/>
+      <c r="O9" s="50"/>
+      <c r="P9" s="49"/>
+      <c r="Q9" s="49"/>
+      <c r="R9" s="49"/>
+      <c r="S9" s="51">
         <v>45078</v>
       </c>
-      <c r="T9" s="32"/>
-      <c r="U9" s="32"/>
-      <c r="V9" s="32">
+      <c r="T9" s="51"/>
+      <c r="U9" s="51"/>
+      <c r="V9" s="51">
         <v>45079</v>
       </c>
-      <c r="W9" s="32"/>
-      <c r="X9" s="32"/>
-      <c r="Y9" s="33" t="s">
+      <c r="W9" s="51"/>
+      <c r="X9" s="51"/>
+      <c r="Y9" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="Z9" s="33"/>
-      <c r="AA9" s="33"/>
+      <c r="Z9" s="48"/>
+      <c r="AA9" s="48"/>
       <c r="AB9" s="4"/>
       <c r="AC9" s="4"/>
       <c r="AD9" s="4"/>
@@ -2172,18 +2163,18 @@
       <c r="BE9" s="4"/>
     </row>
     <row r="10" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="33"/>
-      <c r="B10" s="33"/>
-      <c r="C10" s="41" t="s">
+      <c r="A10" s="48"/>
+      <c r="B10" s="48"/>
+      <c r="C10" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
-      <c r="Y10" s="33"/>
-      <c r="Z10" s="33"/>
-      <c r="AA10" s="33"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="49"/>
+      <c r="Y10" s="48"/>
+      <c r="Z10" s="48"/>
+      <c r="AA10" s="48"/>
       <c r="AB10" s="4"/>
       <c r="AC10" s="12"/>
       <c r="AD10" s="4"/>
@@ -2216,43 +2207,43 @@
       <c r="BE10" s="4"/>
     </row>
     <row r="11" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="33"/>
-      <c r="B11" s="33"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="43" t="s">
+      <c r="A11" s="48"/>
+      <c r="B11" s="48"/>
+      <c r="C11" s="49"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="49"/>
+      <c r="H11" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="I11" s="43"/>
-      <c r="J11" s="43"/>
-      <c r="K11" s="43"/>
-      <c r="L11" s="43"/>
-      <c r="M11" s="43"/>
-      <c r="N11" s="43"/>
-      <c r="O11" s="43"/>
-      <c r="P11" s="41" t="s">
+      <c r="I11" s="50"/>
+      <c r="J11" s="50"/>
+      <c r="K11" s="50"/>
+      <c r="L11" s="50"/>
+      <c r="M11" s="50"/>
+      <c r="N11" s="50"/>
+      <c r="O11" s="50"/>
+      <c r="P11" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="Q11" s="41"/>
-      <c r="R11" s="41"/>
-      <c r="S11" s="32">
+      <c r="Q11" s="49"/>
+      <c r="R11" s="49"/>
+      <c r="S11" s="51">
         <v>45079</v>
       </c>
-      <c r="T11" s="32"/>
-      <c r="U11" s="32"/>
-      <c r="V11" s="32">
+      <c r="T11" s="51"/>
+      <c r="U11" s="51"/>
+      <c r="V11" s="51">
         <v>45082</v>
       </c>
-      <c r="W11" s="32"/>
-      <c r="X11" s="32"/>
-      <c r="Y11" s="33" t="s">
+      <c r="W11" s="51"/>
+      <c r="X11" s="51"/>
+      <c r="Y11" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="Z11" s="33"/>
-      <c r="AA11" s="33"/>
+      <c r="Z11" s="48"/>
+      <c r="AA11" s="48"/>
       <c r="AB11" s="4"/>
       <c r="AC11" s="13"/>
       <c r="AD11" s="4"/>
@@ -2284,41 +2275,41 @@
       <c r="BE11" s="4"/>
     </row>
     <row r="12" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="33"/>
-      <c r="B12" s="33"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="61" t="s">
+      <c r="A12" s="48"/>
+      <c r="B12" s="48"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="I12" s="62"/>
-      <c r="J12" s="62"/>
-      <c r="K12" s="62"/>
-      <c r="L12" s="62"/>
-      <c r="M12" s="62"/>
-      <c r="N12" s="62"/>
-      <c r="O12" s="63"/>
-      <c r="P12" s="57"/>
-      <c r="Q12" s="58"/>
-      <c r="R12" s="60"/>
-      <c r="S12" s="32">
+      <c r="I12" s="56"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="56"/>
+      <c r="M12" s="56"/>
+      <c r="N12" s="56"/>
+      <c r="O12" s="57"/>
+      <c r="P12" s="52"/>
+      <c r="Q12" s="53"/>
+      <c r="R12" s="54"/>
+      <c r="S12" s="51">
         <v>45079</v>
       </c>
-      <c r="T12" s="32"/>
-      <c r="U12" s="32"/>
-      <c r="V12" s="32">
+      <c r="T12" s="51"/>
+      <c r="U12" s="51"/>
+      <c r="V12" s="51">
         <v>45082</v>
       </c>
-      <c r="W12" s="32"/>
-      <c r="X12" s="32"/>
-      <c r="Y12" s="33" t="s">
+      <c r="W12" s="51"/>
+      <c r="X12" s="51"/>
+      <c r="Y12" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="Z12" s="33"/>
-      <c r="AA12" s="33"/>
+      <c r="Z12" s="48"/>
+      <c r="AA12" s="48"/>
       <c r="AB12" s="4"/>
       <c r="AC12" s="13"/>
       <c r="AD12" s="4"/>
@@ -2351,41 +2342,41 @@
       <c r="BE12" s="4"/>
     </row>
     <row r="13" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="33"/>
-      <c r="B13" s="33"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="41"/>
-      <c r="H13" s="43" t="s">
+      <c r="A13" s="48"/>
+      <c r="B13" s="48"/>
+      <c r="C13" s="49"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="I13" s="43"/>
-      <c r="J13" s="43"/>
-      <c r="K13" s="43"/>
-      <c r="L13" s="43"/>
-      <c r="M13" s="43"/>
-      <c r="N13" s="43"/>
-      <c r="O13" s="43"/>
-      <c r="P13" s="41"/>
-      <c r="Q13" s="41"/>
-      <c r="R13" s="41"/>
-      <c r="S13" s="32">
+      <c r="I13" s="50"/>
+      <c r="J13" s="50"/>
+      <c r="K13" s="50"/>
+      <c r="L13" s="50"/>
+      <c r="M13" s="50"/>
+      <c r="N13" s="50"/>
+      <c r="O13" s="50"/>
+      <c r="P13" s="49"/>
+      <c r="Q13" s="49"/>
+      <c r="R13" s="49"/>
+      <c r="S13" s="51">
         <v>45082</v>
       </c>
-      <c r="T13" s="32"/>
-      <c r="U13" s="32"/>
-      <c r="V13" s="32">
+      <c r="T13" s="51"/>
+      <c r="U13" s="51"/>
+      <c r="V13" s="51">
         <v>45082</v>
       </c>
-      <c r="W13" s="32"/>
-      <c r="X13" s="32"/>
-      <c r="Y13" s="33" t="s">
+      <c r="W13" s="51"/>
+      <c r="X13" s="51"/>
+      <c r="Y13" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="Z13" s="33"/>
-      <c r="AA13" s="33"/>
+      <c r="Z13" s="48"/>
+      <c r="AA13" s="48"/>
       <c r="AB13" s="4"/>
       <c r="AC13" s="4"/>
       <c r="AD13" s="4"/>
@@ -2418,33 +2409,33 @@
       <c r="BE13" s="4"/>
     </row>
     <row r="14" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="33"/>
-      <c r="B14" s="33"/>
-      <c r="C14" s="41"/>
-      <c r="D14" s="41"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="41"/>
-      <c r="H14" s="41"/>
-      <c r="I14" s="41"/>
-      <c r="J14" s="41"/>
-      <c r="K14" s="41"/>
-      <c r="L14" s="41"/>
-      <c r="M14" s="41"/>
-      <c r="N14" s="41"/>
-      <c r="O14" s="41"/>
-      <c r="P14" s="41"/>
-      <c r="Q14" s="41"/>
-      <c r="R14" s="41"/>
-      <c r="S14" s="32"/>
-      <c r="T14" s="32"/>
-      <c r="U14" s="32"/>
-      <c r="V14" s="32"/>
-      <c r="W14" s="32"/>
-      <c r="X14" s="32"/>
-      <c r="Y14" s="33"/>
-      <c r="Z14" s="33"/>
-      <c r="AA14" s="33"/>
+      <c r="A14" s="48"/>
+      <c r="B14" s="48"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="49"/>
+      <c r="H14" s="49"/>
+      <c r="I14" s="49"/>
+      <c r="J14" s="49"/>
+      <c r="K14" s="49"/>
+      <c r="L14" s="49"/>
+      <c r="M14" s="49"/>
+      <c r="N14" s="49"/>
+      <c r="O14" s="49"/>
+      <c r="P14" s="49"/>
+      <c r="Q14" s="49"/>
+      <c r="R14" s="49"/>
+      <c r="S14" s="51"/>
+      <c r="T14" s="51"/>
+      <c r="U14" s="51"/>
+      <c r="V14" s="51"/>
+      <c r="W14" s="51"/>
+      <c r="X14" s="51"/>
+      <c r="Y14" s="48"/>
+      <c r="Z14" s="48"/>
+      <c r="AA14" s="48"/>
       <c r="AB14" s="4"/>
       <c r="AC14" s="4"/>
       <c r="AD14" s="4"/>
@@ -2477,37 +2468,37 @@
       <c r="BE14" s="4"/>
     </row>
     <row r="15" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="33"/>
-      <c r="B15" s="33"/>
-      <c r="C15" s="41" t="s">
+      <c r="A15" s="48"/>
+      <c r="B15" s="48"/>
+      <c r="C15" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="41"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="41"/>
-      <c r="I15" s="41"/>
-      <c r="J15" s="41"/>
-      <c r="K15" s="41"/>
-      <c r="L15" s="41"/>
-      <c r="M15" s="41"/>
-      <c r="N15" s="41"/>
-      <c r="O15" s="41"/>
-      <c r="P15" s="41" t="s">
+      <c r="D15" s="49"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="49"/>
+      <c r="G15" s="49"/>
+      <c r="H15" s="49"/>
+      <c r="I15" s="49"/>
+      <c r="J15" s="49"/>
+      <c r="K15" s="49"/>
+      <c r="L15" s="49"/>
+      <c r="M15" s="49"/>
+      <c r="N15" s="49"/>
+      <c r="O15" s="49"/>
+      <c r="P15" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="Q15" s="41"/>
-      <c r="R15" s="41"/>
-      <c r="S15" s="32"/>
-      <c r="T15" s="32"/>
-      <c r="U15" s="32"/>
-      <c r="V15" s="32"/>
-      <c r="W15" s="32"/>
-      <c r="X15" s="32"/>
-      <c r="Y15" s="33"/>
-      <c r="Z15" s="33"/>
-      <c r="AA15" s="33"/>
+      <c r="Q15" s="49"/>
+      <c r="R15" s="49"/>
+      <c r="S15" s="51"/>
+      <c r="T15" s="51"/>
+      <c r="U15" s="51"/>
+      <c r="V15" s="51"/>
+      <c r="W15" s="51"/>
+      <c r="X15" s="51"/>
+      <c r="Y15" s="48"/>
+      <c r="Z15" s="48"/>
+      <c r="AA15" s="48"/>
       <c r="AB15" s="4"/>
       <c r="AC15" s="4"/>
       <c r="AD15" s="4"/>
@@ -2540,41 +2531,41 @@
       <c r="BE15" s="4"/>
     </row>
     <row r="16" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="33"/>
-      <c r="B16" s="33"/>
-      <c r="C16" s="41"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="41"/>
-      <c r="H16" s="43" t="s">
+      <c r="A16" s="48"/>
+      <c r="B16" s="48"/>
+      <c r="C16" s="49"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="49"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="49"/>
+      <c r="H16" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="I16" s="43"/>
-      <c r="J16" s="43"/>
-      <c r="K16" s="43"/>
-      <c r="L16" s="43"/>
-      <c r="M16" s="43"/>
-      <c r="N16" s="43"/>
-      <c r="O16" s="43"/>
-      <c r="P16" s="41"/>
-      <c r="Q16" s="41"/>
-      <c r="R16" s="41"/>
-      <c r="S16" s="32">
+      <c r="I16" s="50"/>
+      <c r="J16" s="50"/>
+      <c r="K16" s="50"/>
+      <c r="L16" s="50"/>
+      <c r="M16" s="50"/>
+      <c r="N16" s="50"/>
+      <c r="O16" s="50"/>
+      <c r="P16" s="49"/>
+      <c r="Q16" s="49"/>
+      <c r="R16" s="49"/>
+      <c r="S16" s="51">
         <v>45083</v>
       </c>
-      <c r="T16" s="32"/>
-      <c r="U16" s="32"/>
-      <c r="V16" s="32">
+      <c r="T16" s="51"/>
+      <c r="U16" s="51"/>
+      <c r="V16" s="51">
         <v>45084</v>
       </c>
-      <c r="W16" s="32"/>
-      <c r="X16" s="32"/>
-      <c r="Y16" s="33" t="s">
+      <c r="W16" s="51"/>
+      <c r="X16" s="51"/>
+      <c r="Y16" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="Z16" s="33"/>
-      <c r="AA16" s="33"/>
+      <c r="Z16" s="48"/>
+      <c r="AA16" s="48"/>
       <c r="AB16" s="4"/>
       <c r="AC16" s="4"/>
       <c r="AD16" s="4"/>
@@ -2607,43 +2598,43 @@
       <c r="BE16" s="4"/>
     </row>
     <row r="17" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="33"/>
-      <c r="B17" s="33"/>
-      <c r="C17" s="41"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="41"/>
-      <c r="H17" s="83" t="s">
+      <c r="A17" s="48"/>
+      <c r="B17" s="48"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="49"/>
+      <c r="G17" s="49"/>
+      <c r="H17" s="75" t="s">
         <v>34</v>
       </c>
-      <c r="I17" s="84"/>
-      <c r="J17" s="84"/>
-      <c r="K17" s="84"/>
-      <c r="L17" s="84"/>
-      <c r="M17" s="84"/>
-      <c r="N17" s="84"/>
-      <c r="O17" s="85"/>
-      <c r="P17" s="41" t="s">
+      <c r="I17" s="76"/>
+      <c r="J17" s="76"/>
+      <c r="K17" s="76"/>
+      <c r="L17" s="76"/>
+      <c r="M17" s="76"/>
+      <c r="N17" s="76"/>
+      <c r="O17" s="77"/>
+      <c r="P17" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="Q17" s="41"/>
-      <c r="R17" s="41"/>
-      <c r="S17" s="32">
+      <c r="Q17" s="49"/>
+      <c r="R17" s="49"/>
+      <c r="S17" s="51">
         <v>45083</v>
       </c>
-      <c r="T17" s="32"/>
-      <c r="U17" s="32"/>
-      <c r="V17" s="32">
+      <c r="T17" s="51"/>
+      <c r="U17" s="51"/>
+      <c r="V17" s="51">
         <v>45084</v>
       </c>
-      <c r="W17" s="32"/>
-      <c r="X17" s="32"/>
-      <c r="Y17" s="42">
-        <v>0.7</v>
-      </c>
-      <c r="Z17" s="33"/>
-      <c r="AA17" s="33"/>
+      <c r="W17" s="51"/>
+      <c r="X17" s="51"/>
+      <c r="Y17" s="78" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z17" s="48"/>
+      <c r="AA17" s="48"/>
       <c r="AB17" s="4"/>
       <c r="AC17" s="4"/>
       <c r="AD17" s="4"/>
@@ -2678,41 +2669,41 @@
     <row r="18" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="10"/>
       <c r="B18" s="11"/>
-      <c r="C18" s="54"/>
-      <c r="D18" s="55"/>
-      <c r="E18" s="55"/>
-      <c r="F18" s="55"/>
-      <c r="G18" s="56"/>
-      <c r="H18" s="51" t="s">
+      <c r="C18" s="58"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="59"/>
+      <c r="F18" s="59"/>
+      <c r="G18" s="60"/>
+      <c r="H18" s="75" t="s">
         <v>33</v>
       </c>
-      <c r="I18" s="52"/>
-      <c r="J18" s="52"/>
-      <c r="K18" s="52"/>
-      <c r="L18" s="52"/>
-      <c r="M18" s="52"/>
-      <c r="N18" s="52"/>
-      <c r="O18" s="53"/>
-      <c r="P18" s="29" t="s">
+      <c r="I18" s="76"/>
+      <c r="J18" s="76"/>
+      <c r="K18" s="76"/>
+      <c r="L18" s="76"/>
+      <c r="M18" s="76"/>
+      <c r="N18" s="76"/>
+      <c r="O18" s="77"/>
+      <c r="P18" s="61" t="s">
         <v>37</v>
       </c>
-      <c r="Q18" s="30"/>
-      <c r="R18" s="30"/>
-      <c r="S18" s="32">
+      <c r="Q18" s="62"/>
+      <c r="R18" s="62"/>
+      <c r="S18" s="51">
         <v>45083</v>
       </c>
-      <c r="T18" s="32"/>
-      <c r="U18" s="32"/>
-      <c r="V18" s="32">
+      <c r="T18" s="51"/>
+      <c r="U18" s="51"/>
+      <c r="V18" s="51">
         <v>45084</v>
       </c>
-      <c r="W18" s="32"/>
-      <c r="X18" s="32"/>
-      <c r="Y18" s="42" t="s">
+      <c r="W18" s="51"/>
+      <c r="X18" s="51"/>
+      <c r="Y18" s="78" t="s">
         <v>36</v>
       </c>
-      <c r="Z18" s="33"/>
-      <c r="AA18" s="33"/>
+      <c r="Z18" s="48"/>
+      <c r="AA18" s="48"/>
       <c r="AB18" s="4"/>
       <c r="AC18" s="4"/>
       <c r="AD18" s="4"/>
@@ -2752,36 +2743,36 @@
       <c r="E19" s="27"/>
       <c r="F19" s="27"/>
       <c r="G19" s="28"/>
-      <c r="H19" s="51" t="s">
+      <c r="H19" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="I19" s="52"/>
-      <c r="J19" s="52"/>
-      <c r="K19" s="52"/>
-      <c r="L19" s="52"/>
-      <c r="M19" s="52"/>
-      <c r="N19" s="52"/>
-      <c r="O19" s="86"/>
-      <c r="P19" s="37" t="s">
+      <c r="I19" s="76"/>
+      <c r="J19" s="76"/>
+      <c r="K19" s="76"/>
+      <c r="L19" s="76"/>
+      <c r="M19" s="76"/>
+      <c r="N19" s="76"/>
+      <c r="O19" s="80"/>
+      <c r="P19" s="65" t="s">
         <v>40</v>
       </c>
-      <c r="Q19" s="30"/>
-      <c r="R19" s="31"/>
-      <c r="S19" s="32">
+      <c r="Q19" s="62"/>
+      <c r="R19" s="79"/>
+      <c r="S19" s="51">
         <v>45084</v>
       </c>
-      <c r="T19" s="32"/>
-      <c r="U19" s="32"/>
-      <c r="V19" s="32">
+      <c r="T19" s="51"/>
+      <c r="U19" s="51"/>
+      <c r="V19" s="51">
         <v>45084</v>
       </c>
-      <c r="W19" s="32"/>
-      <c r="X19" s="32"/>
-      <c r="Y19" s="38" t="s">
+      <c r="W19" s="51"/>
+      <c r="X19" s="51"/>
+      <c r="Y19" s="81" t="s">
         <v>36</v>
       </c>
-      <c r="Z19" s="39"/>
-      <c r="AA19" s="40"/>
+      <c r="Z19" s="82"/>
+      <c r="AA19" s="83"/>
       <c r="AB19" s="4"/>
       <c r="AC19" s="4"/>
       <c r="AD19" s="4"/>
@@ -2814,33 +2805,33 @@
       <c r="BE19" s="4"/>
     </row>
     <row r="20" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="29"/>
-      <c r="B20" s="44"/>
-      <c r="C20" s="48"/>
-      <c r="D20" s="49"/>
-      <c r="E20" s="49"/>
-      <c r="F20" s="49"/>
-      <c r="G20" s="50"/>
-      <c r="H20" s="57"/>
-      <c r="I20" s="58"/>
-      <c r="J20" s="58"/>
-      <c r="K20" s="58"/>
-      <c r="L20" s="58"/>
-      <c r="M20" s="58"/>
-      <c r="N20" s="58"/>
-      <c r="O20" s="59"/>
-      <c r="P20" s="37"/>
-      <c r="Q20" s="30"/>
-      <c r="R20" s="44"/>
-      <c r="S20" s="45"/>
-      <c r="T20" s="46"/>
-      <c r="U20" s="47"/>
-      <c r="V20" s="45"/>
-      <c r="W20" s="46"/>
-      <c r="X20" s="47"/>
-      <c r="Y20" s="29"/>
-      <c r="Z20" s="30"/>
-      <c r="AA20" s="44"/>
+      <c r="A20" s="61"/>
+      <c r="B20" s="63"/>
+      <c r="C20" s="72"/>
+      <c r="D20" s="73"/>
+      <c r="E20" s="73"/>
+      <c r="F20" s="73"/>
+      <c r="G20" s="74"/>
+      <c r="H20" s="52"/>
+      <c r="I20" s="53"/>
+      <c r="J20" s="53"/>
+      <c r="K20" s="53"/>
+      <c r="L20" s="53"/>
+      <c r="M20" s="53"/>
+      <c r="N20" s="53"/>
+      <c r="O20" s="64"/>
+      <c r="P20" s="65"/>
+      <c r="Q20" s="62"/>
+      <c r="R20" s="63"/>
+      <c r="S20" s="66"/>
+      <c r="T20" s="67"/>
+      <c r="U20" s="68"/>
+      <c r="V20" s="66"/>
+      <c r="W20" s="67"/>
+      <c r="X20" s="68"/>
+      <c r="Y20" s="61"/>
+      <c r="Z20" s="62"/>
+      <c r="AA20" s="63"/>
       <c r="AB20" s="4"/>
       <c r="AC20" s="4"/>
       <c r="AD20" s="4"/>
@@ -2873,37 +2864,37 @@
       <c r="BE20" s="4"/>
     </row>
     <row r="21" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="29"/>
-      <c r="B21" s="44"/>
-      <c r="C21" s="41" t="s">
+      <c r="A21" s="61"/>
+      <c r="B21" s="63"/>
+      <c r="C21" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="D21" s="41"/>
-      <c r="E21" s="41"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="41"/>
-      <c r="H21" s="34"/>
-      <c r="I21" s="35"/>
-      <c r="J21" s="35"/>
-      <c r="K21" s="35"/>
-      <c r="L21" s="35"/>
-      <c r="M21" s="35"/>
-      <c r="N21" s="35"/>
-      <c r="O21" s="36"/>
-      <c r="P21" s="41" t="s">
+      <c r="D21" s="49"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="49"/>
+      <c r="G21" s="49"/>
+      <c r="H21" s="69"/>
+      <c r="I21" s="70"/>
+      <c r="J21" s="70"/>
+      <c r="K21" s="70"/>
+      <c r="L21" s="70"/>
+      <c r="M21" s="70"/>
+      <c r="N21" s="70"/>
+      <c r="O21" s="71"/>
+      <c r="P21" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="Q21" s="41"/>
-      <c r="R21" s="41"/>
-      <c r="S21" s="32"/>
-      <c r="T21" s="32"/>
-      <c r="U21" s="32"/>
-      <c r="V21" s="32"/>
-      <c r="W21" s="32"/>
-      <c r="X21" s="32"/>
-      <c r="Y21" s="33"/>
-      <c r="Z21" s="33"/>
-      <c r="AA21" s="33"/>
+      <c r="Q21" s="49"/>
+      <c r="R21" s="49"/>
+      <c r="S21" s="51"/>
+      <c r="T21" s="51"/>
+      <c r="U21" s="51"/>
+      <c r="V21" s="51"/>
+      <c r="W21" s="51"/>
+      <c r="X21" s="51"/>
+      <c r="Y21" s="48"/>
+      <c r="Z21" s="48"/>
+      <c r="AA21" s="48"/>
       <c r="AB21" s="4"/>
       <c r="AC21" s="4"/>
       <c r="AD21" s="4"/>
@@ -2936,41 +2927,41 @@
       <c r="BE21" s="4"/>
     </row>
     <row r="22" spans="1:57" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="29"/>
-      <c r="B22" s="44"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="44"/>
-      <c r="H22" s="34" t="s">
+      <c r="A22" s="61"/>
+      <c r="B22" s="63"/>
+      <c r="C22" s="61"/>
+      <c r="D22" s="62"/>
+      <c r="E22" s="62"/>
+      <c r="F22" s="62"/>
+      <c r="G22" s="63"/>
+      <c r="H22" s="69" t="s">
         <v>41</v>
       </c>
-      <c r="I22" s="35"/>
-      <c r="J22" s="35"/>
-      <c r="K22" s="35"/>
-      <c r="L22" s="35"/>
-      <c r="M22" s="35"/>
-      <c r="N22" s="35"/>
-      <c r="O22" s="36"/>
-      <c r="P22" s="29"/>
-      <c r="Q22" s="30"/>
-      <c r="R22" s="31"/>
-      <c r="S22" s="32">
+      <c r="I22" s="70"/>
+      <c r="J22" s="70"/>
+      <c r="K22" s="70"/>
+      <c r="L22" s="70"/>
+      <c r="M22" s="70"/>
+      <c r="N22" s="70"/>
+      <c r="O22" s="71"/>
+      <c r="P22" s="61"/>
+      <c r="Q22" s="62"/>
+      <c r="R22" s="79"/>
+      <c r="S22" s="51">
         <v>45085</v>
       </c>
-      <c r="T22" s="32"/>
-      <c r="U22" s="32"/>
-      <c r="V22" s="32">
+      <c r="T22" s="51"/>
+      <c r="U22" s="51"/>
+      <c r="V22" s="51">
         <v>45100</v>
       </c>
-      <c r="W22" s="32"/>
-      <c r="X22" s="32"/>
-      <c r="Y22" s="33" t="s">
+      <c r="W22" s="51"/>
+      <c r="X22" s="51"/>
+      <c r="Y22" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="Z22" s="33"/>
-      <c r="AA22" s="33"/>
+      <c r="Z22" s="48"/>
+      <c r="AA22" s="48"/>
       <c r="AB22" s="4"/>
       <c r="AC22" s="4"/>
       <c r="AD22" s="4"/>
@@ -3005,31 +2996,31 @@
     <row r="23" spans="1:57" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="10"/>
       <c r="B23" s="11"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="44"/>
-      <c r="H23" s="29"/>
-      <c r="I23" s="30"/>
-      <c r="J23" s="30"/>
-      <c r="K23" s="30"/>
-      <c r="L23" s="30"/>
-      <c r="M23" s="30"/>
-      <c r="N23" s="30"/>
-      <c r="O23" s="44"/>
-      <c r="P23" s="29"/>
-      <c r="Q23" s="30"/>
-      <c r="R23" s="44"/>
-      <c r="S23" s="45"/>
-      <c r="T23" s="46"/>
-      <c r="U23" s="47"/>
-      <c r="V23" s="45"/>
-      <c r="W23" s="46"/>
-      <c r="X23" s="47"/>
-      <c r="Y23" s="29"/>
-      <c r="Z23" s="30"/>
-      <c r="AA23" s="44"/>
+      <c r="C23" s="61"/>
+      <c r="D23" s="62"/>
+      <c r="E23" s="62"/>
+      <c r="F23" s="62"/>
+      <c r="G23" s="63"/>
+      <c r="H23" s="61"/>
+      <c r="I23" s="62"/>
+      <c r="J23" s="62"/>
+      <c r="K23" s="62"/>
+      <c r="L23" s="62"/>
+      <c r="M23" s="62"/>
+      <c r="N23" s="62"/>
+      <c r="O23" s="63"/>
+      <c r="P23" s="61"/>
+      <c r="Q23" s="62"/>
+      <c r="R23" s="63"/>
+      <c r="S23" s="66"/>
+      <c r="T23" s="67"/>
+      <c r="U23" s="68"/>
+      <c r="V23" s="66"/>
+      <c r="W23" s="67"/>
+      <c r="X23" s="68"/>
+      <c r="Y23" s="61"/>
+      <c r="Z23" s="62"/>
+      <c r="AA23" s="63"/>
       <c r="AB23" s="4"/>
       <c r="AC23" s="4"/>
       <c r="AD23" s="4"/>
@@ -3062,41 +3053,41 @@
       <c r="BE23" s="4"/>
     </row>
     <row r="24" spans="1:57" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="33"/>
-      <c r="B24" s="33"/>
-      <c r="C24" s="41" t="s">
+      <c r="A24" s="48"/>
+      <c r="B24" s="48"/>
+      <c r="C24" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="D24" s="41"/>
-      <c r="E24" s="41"/>
-      <c r="F24" s="41"/>
-      <c r="G24" s="41"/>
-      <c r="H24" s="41"/>
-      <c r="I24" s="41"/>
-      <c r="J24" s="41"/>
-      <c r="K24" s="41"/>
-      <c r="L24" s="41"/>
-      <c r="M24" s="41"/>
-      <c r="N24" s="41"/>
-      <c r="O24" s="41"/>
-      <c r="P24" s="41" t="s">
+      <c r="D24" s="49"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="49"/>
+      <c r="G24" s="49"/>
+      <c r="H24" s="49"/>
+      <c r="I24" s="49"/>
+      <c r="J24" s="49"/>
+      <c r="K24" s="49"/>
+      <c r="L24" s="49"/>
+      <c r="M24" s="49"/>
+      <c r="N24" s="49"/>
+      <c r="O24" s="49"/>
+      <c r="P24" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="Q24" s="41"/>
-      <c r="R24" s="41"/>
-      <c r="S24" s="32">
+      <c r="Q24" s="49"/>
+      <c r="R24" s="49"/>
+      <c r="S24" s="51">
         <v>45089</v>
       </c>
-      <c r="T24" s="32"/>
-      <c r="U24" s="32"/>
-      <c r="V24" s="32">
+      <c r="T24" s="51"/>
+      <c r="U24" s="51"/>
+      <c r="V24" s="51">
         <v>45100</v>
       </c>
-      <c r="W24" s="32"/>
-      <c r="X24" s="32"/>
-      <c r="Y24" s="33"/>
-      <c r="Z24" s="33"/>
-      <c r="AA24" s="33"/>
+      <c r="W24" s="51"/>
+      <c r="X24" s="51"/>
+      <c r="Y24" s="48"/>
+      <c r="Z24" s="48"/>
+      <c r="AA24" s="48"/>
       <c r="AB24" s="4"/>
       <c r="AC24" s="4"/>
       <c r="AD24" s="4"/>
@@ -3129,33 +3120,33 @@
       <c r="BE24" s="4"/>
     </row>
     <row r="25" spans="1:57" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="33"/>
-      <c r="B25" s="33"/>
-      <c r="C25" s="41"/>
-      <c r="D25" s="41"/>
-      <c r="E25" s="41"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="41"/>
-      <c r="H25" s="41"/>
-      <c r="I25" s="41"/>
-      <c r="J25" s="41"/>
-      <c r="K25" s="41"/>
-      <c r="L25" s="41"/>
-      <c r="M25" s="41"/>
-      <c r="N25" s="41"/>
-      <c r="O25" s="41"/>
-      <c r="P25" s="41"/>
-      <c r="Q25" s="41"/>
-      <c r="R25" s="41"/>
-      <c r="S25" s="32"/>
-      <c r="T25" s="32"/>
-      <c r="U25" s="32"/>
-      <c r="V25" s="32"/>
-      <c r="W25" s="32"/>
-      <c r="X25" s="32"/>
-      <c r="Y25" s="33"/>
-      <c r="Z25" s="33"/>
-      <c r="AA25" s="33"/>
+      <c r="A25" s="48"/>
+      <c r="B25" s="48"/>
+      <c r="C25" s="49"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="49"/>
+      <c r="F25" s="49"/>
+      <c r="G25" s="49"/>
+      <c r="H25" s="49"/>
+      <c r="I25" s="49"/>
+      <c r="J25" s="49"/>
+      <c r="K25" s="49"/>
+      <c r="L25" s="49"/>
+      <c r="M25" s="49"/>
+      <c r="N25" s="49"/>
+      <c r="O25" s="49"/>
+      <c r="P25" s="49"/>
+      <c r="Q25" s="49"/>
+      <c r="R25" s="49"/>
+      <c r="S25" s="51"/>
+      <c r="T25" s="51"/>
+      <c r="U25" s="51"/>
+      <c r="V25" s="51"/>
+      <c r="W25" s="51"/>
+      <c r="X25" s="51"/>
+      <c r="Y25" s="48"/>
+      <c r="Z25" s="48"/>
+      <c r="AA25" s="48"/>
       <c r="AB25" s="4"/>
       <c r="AC25" s="4"/>
       <c r="AD25" s="4"/>
@@ -3188,33 +3179,33 @@
       <c r="BE25" s="4"/>
     </row>
     <row r="26" spans="1:57" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="33"/>
-      <c r="B26" s="33"/>
-      <c r="C26" s="41"/>
-      <c r="D26" s="41"/>
-      <c r="E26" s="41"/>
-      <c r="F26" s="41"/>
-      <c r="G26" s="41"/>
-      <c r="H26" s="41"/>
-      <c r="I26" s="41"/>
-      <c r="J26" s="41"/>
-      <c r="K26" s="41"/>
-      <c r="L26" s="41"/>
-      <c r="M26" s="41"/>
-      <c r="N26" s="41"/>
-      <c r="O26" s="41"/>
-      <c r="P26" s="41"/>
-      <c r="Q26" s="41"/>
-      <c r="R26" s="41"/>
-      <c r="S26" s="32"/>
-      <c r="T26" s="32"/>
-      <c r="U26" s="32"/>
-      <c r="V26" s="32"/>
-      <c r="W26" s="32"/>
-      <c r="X26" s="32"/>
-      <c r="Y26" s="33"/>
-      <c r="Z26" s="33"/>
-      <c r="AA26" s="33"/>
+      <c r="A26" s="48"/>
+      <c r="B26" s="48"/>
+      <c r="C26" s="49"/>
+      <c r="D26" s="49"/>
+      <c r="E26" s="49"/>
+      <c r="F26" s="49"/>
+      <c r="G26" s="49"/>
+      <c r="H26" s="49"/>
+      <c r="I26" s="49"/>
+      <c r="J26" s="49"/>
+      <c r="K26" s="49"/>
+      <c r="L26" s="49"/>
+      <c r="M26" s="49"/>
+      <c r="N26" s="49"/>
+      <c r="O26" s="49"/>
+      <c r="P26" s="49"/>
+      <c r="Q26" s="49"/>
+      <c r="R26" s="49"/>
+      <c r="S26" s="51"/>
+      <c r="T26" s="51"/>
+      <c r="U26" s="51"/>
+      <c r="V26" s="51"/>
+      <c r="W26" s="51"/>
+      <c r="X26" s="51"/>
+      <c r="Y26" s="48"/>
+      <c r="Z26" s="48"/>
+      <c r="AA26" s="48"/>
       <c r="AB26" s="4"/>
       <c r="AC26" s="4"/>
       <c r="AD26" s="4"/>
@@ -3246,41 +3237,41 @@
       <c r="BE26" s="4"/>
     </row>
     <row r="27" spans="1:57" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="33"/>
-      <c r="B27" s="33"/>
-      <c r="C27" s="41" t="s">
+      <c r="A27" s="48"/>
+      <c r="B27" s="48"/>
+      <c r="C27" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="D27" s="41"/>
-      <c r="E27" s="41"/>
-      <c r="F27" s="41"/>
-      <c r="G27" s="41"/>
-      <c r="H27" s="41"/>
-      <c r="I27" s="41"/>
-      <c r="J27" s="41"/>
-      <c r="K27" s="41"/>
-      <c r="L27" s="41"/>
-      <c r="M27" s="41"/>
-      <c r="N27" s="41"/>
-      <c r="O27" s="41"/>
-      <c r="P27" s="41" t="s">
+      <c r="D27" s="49"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="49"/>
+      <c r="G27" s="49"/>
+      <c r="H27" s="49"/>
+      <c r="I27" s="49"/>
+      <c r="J27" s="49"/>
+      <c r="K27" s="49"/>
+      <c r="L27" s="49"/>
+      <c r="M27" s="49"/>
+      <c r="N27" s="49"/>
+      <c r="O27" s="49"/>
+      <c r="P27" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="Q27" s="41"/>
-      <c r="R27" s="41"/>
-      <c r="S27" s="32">
+      <c r="Q27" s="49"/>
+      <c r="R27" s="49"/>
+      <c r="S27" s="51">
         <v>45096</v>
       </c>
-      <c r="T27" s="32"/>
-      <c r="U27" s="32"/>
-      <c r="V27" s="32">
+      <c r="T27" s="51"/>
+      <c r="U27" s="51"/>
+      <c r="V27" s="51">
         <v>45100</v>
       </c>
-      <c r="W27" s="32"/>
-      <c r="X27" s="32"/>
-      <c r="Y27" s="33"/>
-      <c r="Z27" s="33"/>
-      <c r="AA27" s="33"/>
+      <c r="W27" s="51"/>
+      <c r="X27" s="51"/>
+      <c r="Y27" s="48"/>
+      <c r="Z27" s="48"/>
+      <c r="AA27" s="48"/>
       <c r="AB27" s="4"/>
       <c r="AC27" s="4"/>
       <c r="AD27" s="4"/>
@@ -3313,41 +3304,41 @@
       <c r="BE27" s="4"/>
     </row>
     <row r="28" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="33"/>
-      <c r="B28" s="33"/>
-      <c r="C28" s="41" t="s">
+      <c r="A28" s="48"/>
+      <c r="B28" s="48"/>
+      <c r="C28" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="D28" s="41"/>
-      <c r="E28" s="41"/>
-      <c r="F28" s="41"/>
-      <c r="G28" s="41"/>
-      <c r="H28" s="41"/>
-      <c r="I28" s="41"/>
-      <c r="J28" s="41"/>
-      <c r="K28" s="41"/>
-      <c r="L28" s="41"/>
-      <c r="M28" s="41"/>
-      <c r="N28" s="41"/>
-      <c r="O28" s="41"/>
-      <c r="P28" s="41" t="s">
+      <c r="D28" s="49"/>
+      <c r="E28" s="49"/>
+      <c r="F28" s="49"/>
+      <c r="G28" s="49"/>
+      <c r="H28" s="49"/>
+      <c r="I28" s="49"/>
+      <c r="J28" s="49"/>
+      <c r="K28" s="49"/>
+      <c r="L28" s="49"/>
+      <c r="M28" s="49"/>
+      <c r="N28" s="49"/>
+      <c r="O28" s="49"/>
+      <c r="P28" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="Q28" s="41"/>
-      <c r="R28" s="41"/>
-      <c r="S28" s="32">
+      <c r="Q28" s="49"/>
+      <c r="R28" s="49"/>
+      <c r="S28" s="51">
         <v>45096</v>
       </c>
-      <c r="T28" s="32"/>
-      <c r="U28" s="32"/>
-      <c r="V28" s="32">
+      <c r="T28" s="51"/>
+      <c r="U28" s="51"/>
+      <c r="V28" s="51">
         <v>45100</v>
       </c>
-      <c r="W28" s="32"/>
-      <c r="X28" s="32"/>
-      <c r="Y28" s="33"/>
-      <c r="Z28" s="33"/>
-      <c r="AA28" s="33"/>
+      <c r="W28" s="51"/>
+      <c r="X28" s="51"/>
+      <c r="Y28" s="48"/>
+      <c r="Z28" s="48"/>
+      <c r="AA28" s="48"/>
       <c r="AB28" s="4"/>
       <c r="AC28" s="4"/>
       <c r="AD28" s="4"/>
@@ -3379,41 +3370,41 @@
       <c r="BE28" s="4"/>
     </row>
     <row r="29" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="33"/>
-      <c r="B29" s="33"/>
-      <c r="C29" s="41" t="s">
+      <c r="A29" s="48"/>
+      <c r="B29" s="48"/>
+      <c r="C29" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="D29" s="41"/>
-      <c r="E29" s="41"/>
-      <c r="F29" s="41"/>
-      <c r="G29" s="41"/>
-      <c r="H29" s="41"/>
-      <c r="I29" s="41"/>
-      <c r="J29" s="41"/>
-      <c r="K29" s="41"/>
-      <c r="L29" s="41"/>
-      <c r="M29" s="41"/>
-      <c r="N29" s="41"/>
-      <c r="O29" s="41"/>
-      <c r="P29" s="41" t="s">
+      <c r="D29" s="49"/>
+      <c r="E29" s="49"/>
+      <c r="F29" s="49"/>
+      <c r="G29" s="49"/>
+      <c r="H29" s="49"/>
+      <c r="I29" s="49"/>
+      <c r="J29" s="49"/>
+      <c r="K29" s="49"/>
+      <c r="L29" s="49"/>
+      <c r="M29" s="49"/>
+      <c r="N29" s="49"/>
+      <c r="O29" s="49"/>
+      <c r="P29" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="Q29" s="41"/>
-      <c r="R29" s="41"/>
-      <c r="S29" s="32">
+      <c r="Q29" s="49"/>
+      <c r="R29" s="49"/>
+      <c r="S29" s="51">
         <v>45103</v>
       </c>
-      <c r="T29" s="32"/>
-      <c r="U29" s="32"/>
-      <c r="V29" s="32">
+      <c r="T29" s="51"/>
+      <c r="U29" s="51"/>
+      <c r="V29" s="51">
         <v>45105</v>
       </c>
-      <c r="W29" s="32"/>
-      <c r="X29" s="32"/>
-      <c r="Y29" s="33"/>
-      <c r="Z29" s="33"/>
-      <c r="AA29" s="33"/>
+      <c r="W29" s="51"/>
+      <c r="X29" s="51"/>
+      <c r="Y29" s="48"/>
+      <c r="Z29" s="48"/>
+      <c r="AA29" s="48"/>
       <c r="AB29" s="4"/>
       <c r="AC29" s="4"/>
       <c r="AD29" s="4"/>
@@ -3446,41 +3437,41 @@
       <c r="BE29" s="4"/>
     </row>
     <row r="30" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="33"/>
-      <c r="B30" s="33"/>
-      <c r="C30" s="41" t="s">
+      <c r="A30" s="48"/>
+      <c r="B30" s="48"/>
+      <c r="C30" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="D30" s="41"/>
-      <c r="E30" s="41"/>
-      <c r="F30" s="41"/>
-      <c r="G30" s="41"/>
-      <c r="H30" s="41"/>
-      <c r="I30" s="41"/>
-      <c r="J30" s="41"/>
-      <c r="K30" s="41"/>
-      <c r="L30" s="41"/>
-      <c r="M30" s="41"/>
-      <c r="N30" s="41"/>
-      <c r="O30" s="41"/>
-      <c r="P30" s="41" t="s">
+      <c r="D30" s="49"/>
+      <c r="E30" s="49"/>
+      <c r="F30" s="49"/>
+      <c r="G30" s="49"/>
+      <c r="H30" s="49"/>
+      <c r="I30" s="49"/>
+      <c r="J30" s="49"/>
+      <c r="K30" s="49"/>
+      <c r="L30" s="49"/>
+      <c r="M30" s="49"/>
+      <c r="N30" s="49"/>
+      <c r="O30" s="49"/>
+      <c r="P30" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="Q30" s="41"/>
-      <c r="R30" s="41"/>
-      <c r="S30" s="32">
+      <c r="Q30" s="49"/>
+      <c r="R30" s="49"/>
+      <c r="S30" s="51">
         <v>45089</v>
       </c>
-      <c r="T30" s="32"/>
-      <c r="U30" s="32"/>
-      <c r="V30" s="32">
+      <c r="T30" s="51"/>
+      <c r="U30" s="51"/>
+      <c r="V30" s="51">
         <v>45105</v>
       </c>
-      <c r="W30" s="32"/>
-      <c r="X30" s="32"/>
-      <c r="Y30" s="33"/>
-      <c r="Z30" s="33"/>
-      <c r="AA30" s="33"/>
+      <c r="W30" s="51"/>
+      <c r="X30" s="51"/>
+      <c r="Y30" s="48"/>
+      <c r="Z30" s="48"/>
+      <c r="AA30" s="48"/>
       <c r="AB30" s="4"/>
       <c r="AC30" s="4"/>
       <c r="AD30" s="4"/>
@@ -3513,33 +3504,33 @@
       <c r="BE30" s="4"/>
     </row>
     <row r="31" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="33"/>
-      <c r="B31" s="33"/>
-      <c r="C31" s="41"/>
-      <c r="D31" s="41"/>
-      <c r="E31" s="41"/>
-      <c r="F31" s="41"/>
-      <c r="G31" s="41"/>
-      <c r="H31" s="41"/>
-      <c r="I31" s="41"/>
-      <c r="J31" s="41"/>
-      <c r="K31" s="41"/>
-      <c r="L31" s="41"/>
-      <c r="M31" s="41"/>
-      <c r="N31" s="41"/>
-      <c r="O31" s="41"/>
-      <c r="P31" s="41"/>
-      <c r="Q31" s="41"/>
-      <c r="R31" s="41"/>
-      <c r="S31" s="32"/>
-      <c r="T31" s="32"/>
-      <c r="U31" s="32"/>
-      <c r="V31" s="32"/>
-      <c r="W31" s="32"/>
-      <c r="X31" s="32"/>
-      <c r="Y31" s="33"/>
-      <c r="Z31" s="33"/>
-      <c r="AA31" s="33"/>
+      <c r="A31" s="48"/>
+      <c r="B31" s="48"/>
+      <c r="C31" s="49"/>
+      <c r="D31" s="49"/>
+      <c r="E31" s="49"/>
+      <c r="F31" s="49"/>
+      <c r="G31" s="49"/>
+      <c r="H31" s="49"/>
+      <c r="I31" s="49"/>
+      <c r="J31" s="49"/>
+      <c r="K31" s="49"/>
+      <c r="L31" s="49"/>
+      <c r="M31" s="49"/>
+      <c r="N31" s="49"/>
+      <c r="O31" s="49"/>
+      <c r="P31" s="49"/>
+      <c r="Q31" s="49"/>
+      <c r="R31" s="49"/>
+      <c r="S31" s="51"/>
+      <c r="T31" s="51"/>
+      <c r="U31" s="51"/>
+      <c r="V31" s="51"/>
+      <c r="W31" s="51"/>
+      <c r="X31" s="51"/>
+      <c r="Y31" s="48"/>
+      <c r="Z31" s="48"/>
+      <c r="AA31" s="48"/>
       <c r="AB31" s="4"/>
       <c r="AC31" s="4"/>
       <c r="AD31" s="4"/>
@@ -3572,35 +3563,35 @@
       <c r="BE31" s="4"/>
     </row>
     <row r="32" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="33"/>
-      <c r="B32" s="33"/>
-      <c r="C32" s="41" t="s">
+      <c r="A32" s="48"/>
+      <c r="B32" s="48"/>
+      <c r="C32" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="D32" s="41"/>
-      <c r="E32" s="41"/>
-      <c r="F32" s="41"/>
-      <c r="G32" s="41"/>
-      <c r="H32" s="41"/>
-      <c r="I32" s="41"/>
-      <c r="J32" s="41"/>
-      <c r="K32" s="41"/>
-      <c r="L32" s="41"/>
-      <c r="M32" s="41"/>
-      <c r="N32" s="41"/>
-      <c r="O32" s="41"/>
-      <c r="P32" s="41"/>
-      <c r="Q32" s="41"/>
-      <c r="R32" s="41"/>
-      <c r="S32" s="32"/>
-      <c r="T32" s="32"/>
-      <c r="U32" s="32"/>
-      <c r="V32" s="32"/>
-      <c r="W32" s="32"/>
-      <c r="X32" s="32"/>
-      <c r="Y32" s="33"/>
-      <c r="Z32" s="33"/>
-      <c r="AA32" s="33"/>
+      <c r="D32" s="49"/>
+      <c r="E32" s="49"/>
+      <c r="F32" s="49"/>
+      <c r="G32" s="49"/>
+      <c r="H32" s="49"/>
+      <c r="I32" s="49"/>
+      <c r="J32" s="49"/>
+      <c r="K32" s="49"/>
+      <c r="L32" s="49"/>
+      <c r="M32" s="49"/>
+      <c r="N32" s="49"/>
+      <c r="O32" s="49"/>
+      <c r="P32" s="49"/>
+      <c r="Q32" s="49"/>
+      <c r="R32" s="49"/>
+      <c r="S32" s="51"/>
+      <c r="T32" s="51"/>
+      <c r="U32" s="51"/>
+      <c r="V32" s="51"/>
+      <c r="W32" s="51"/>
+      <c r="X32" s="51"/>
+      <c r="Y32" s="48"/>
+      <c r="Z32" s="48"/>
+      <c r="AA32" s="48"/>
       <c r="AB32" s="4"/>
       <c r="AC32" s="4"/>
       <c r="AD32" s="4"/>
@@ -3633,33 +3624,33 @@
       <c r="BE32" s="9"/>
     </row>
     <row r="33" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="33"/>
-      <c r="B33" s="33"/>
-      <c r="C33" s="41"/>
-      <c r="D33" s="41"/>
-      <c r="E33" s="41"/>
-      <c r="F33" s="41"/>
-      <c r="G33" s="41"/>
-      <c r="H33" s="41"/>
-      <c r="I33" s="41"/>
-      <c r="J33" s="41"/>
-      <c r="K33" s="41"/>
-      <c r="L33" s="41"/>
-      <c r="M33" s="41"/>
-      <c r="N33" s="41"/>
-      <c r="O33" s="41"/>
-      <c r="P33" s="41"/>
-      <c r="Q33" s="41"/>
-      <c r="R33" s="41"/>
-      <c r="S33" s="32"/>
-      <c r="T33" s="32"/>
-      <c r="U33" s="32"/>
-      <c r="V33" s="32"/>
-      <c r="W33" s="32"/>
-      <c r="X33" s="32"/>
-      <c r="Y33" s="33"/>
-      <c r="Z33" s="33"/>
-      <c r="AA33" s="33"/>
+      <c r="A33" s="48"/>
+      <c r="B33" s="48"/>
+      <c r="C33" s="49"/>
+      <c r="D33" s="49"/>
+      <c r="E33" s="49"/>
+      <c r="F33" s="49"/>
+      <c r="G33" s="49"/>
+      <c r="H33" s="49"/>
+      <c r="I33" s="49"/>
+      <c r="J33" s="49"/>
+      <c r="K33" s="49"/>
+      <c r="L33" s="49"/>
+      <c r="M33" s="49"/>
+      <c r="N33" s="49"/>
+      <c r="O33" s="49"/>
+      <c r="P33" s="49"/>
+      <c r="Q33" s="49"/>
+      <c r="R33" s="49"/>
+      <c r="S33" s="51"/>
+      <c r="T33" s="51"/>
+      <c r="U33" s="51"/>
+      <c r="V33" s="51"/>
+      <c r="W33" s="51"/>
+      <c r="X33" s="51"/>
+      <c r="Y33" s="48"/>
+      <c r="Z33" s="48"/>
+      <c r="AA33" s="48"/>
       <c r="AB33" s="4"/>
       <c r="AC33" s="4"/>
       <c r="AD33" s="4"/>
@@ -3692,33 +3683,33 @@
       <c r="BE33" s="21"/>
     </row>
     <row r="34" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="33"/>
-      <c r="B34" s="33"/>
-      <c r="C34" s="41"/>
-      <c r="D34" s="41"/>
-      <c r="E34" s="41"/>
-      <c r="F34" s="41"/>
-      <c r="G34" s="41"/>
-      <c r="H34" s="41"/>
-      <c r="I34" s="41"/>
-      <c r="J34" s="41"/>
-      <c r="K34" s="41"/>
-      <c r="L34" s="41"/>
-      <c r="M34" s="41"/>
-      <c r="N34" s="41"/>
-      <c r="O34" s="41"/>
-      <c r="P34" s="41"/>
-      <c r="Q34" s="41"/>
-      <c r="R34" s="41"/>
-      <c r="S34" s="32"/>
-      <c r="T34" s="32"/>
-      <c r="U34" s="32"/>
-      <c r="V34" s="32"/>
-      <c r="W34" s="32"/>
-      <c r="X34" s="32"/>
-      <c r="Y34" s="33"/>
-      <c r="Z34" s="33"/>
-      <c r="AA34" s="33"/>
+      <c r="A34" s="48"/>
+      <c r="B34" s="48"/>
+      <c r="C34" s="49"/>
+      <c r="D34" s="49"/>
+      <c r="E34" s="49"/>
+      <c r="F34" s="49"/>
+      <c r="G34" s="49"/>
+      <c r="H34" s="49"/>
+      <c r="I34" s="49"/>
+      <c r="J34" s="49"/>
+      <c r="K34" s="49"/>
+      <c r="L34" s="49"/>
+      <c r="M34" s="49"/>
+      <c r="N34" s="49"/>
+      <c r="O34" s="49"/>
+      <c r="P34" s="49"/>
+      <c r="Q34" s="49"/>
+      <c r="R34" s="49"/>
+      <c r="S34" s="51"/>
+      <c r="T34" s="51"/>
+      <c r="U34" s="51"/>
+      <c r="V34" s="51"/>
+      <c r="W34" s="51"/>
+      <c r="X34" s="51"/>
+      <c r="Y34" s="48"/>
+      <c r="Z34" s="48"/>
+      <c r="AA34" s="48"/>
       <c r="AB34" s="4"/>
       <c r="AC34" s="4"/>
       <c r="AD34" s="4"/>
@@ -3751,33 +3742,33 @@
       <c r="BE34" s="4"/>
     </row>
     <row r="35" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="33"/>
-      <c r="B35" s="33"/>
-      <c r="C35" s="41"/>
-      <c r="D35" s="41"/>
-      <c r="E35" s="41"/>
-      <c r="F35" s="41"/>
-      <c r="G35" s="41"/>
-      <c r="H35" s="41"/>
-      <c r="I35" s="41"/>
-      <c r="J35" s="41"/>
-      <c r="K35" s="41"/>
-      <c r="L35" s="41"/>
-      <c r="M35" s="41"/>
-      <c r="N35" s="41"/>
-      <c r="O35" s="41"/>
-      <c r="P35" s="41"/>
-      <c r="Q35" s="41"/>
-      <c r="R35" s="41"/>
-      <c r="S35" s="32"/>
-      <c r="T35" s="32"/>
-      <c r="U35" s="32"/>
-      <c r="V35" s="32"/>
-      <c r="W35" s="32"/>
-      <c r="X35" s="32"/>
-      <c r="Y35" s="33"/>
-      <c r="Z35" s="33"/>
-      <c r="AA35" s="33"/>
+      <c r="A35" s="48"/>
+      <c r="B35" s="48"/>
+      <c r="C35" s="49"/>
+      <c r="D35" s="49"/>
+      <c r="E35" s="49"/>
+      <c r="F35" s="49"/>
+      <c r="G35" s="49"/>
+      <c r="H35" s="49"/>
+      <c r="I35" s="49"/>
+      <c r="J35" s="49"/>
+      <c r="K35" s="49"/>
+      <c r="L35" s="49"/>
+      <c r="M35" s="49"/>
+      <c r="N35" s="49"/>
+      <c r="O35" s="49"/>
+      <c r="P35" s="49"/>
+      <c r="Q35" s="49"/>
+      <c r="R35" s="49"/>
+      <c r="S35" s="51"/>
+      <c r="T35" s="51"/>
+      <c r="U35" s="51"/>
+      <c r="V35" s="51"/>
+      <c r="W35" s="51"/>
+      <c r="X35" s="51"/>
+      <c r="Y35" s="48"/>
+      <c r="Z35" s="48"/>
+      <c r="AA35" s="48"/>
       <c r="AB35" s="4"/>
       <c r="AC35" s="4"/>
       <c r="AD35" s="4"/>
@@ -3822,139 +3813,54 @@
     <row r="46" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="210">
-    <mergeCell ref="A1:G2"/>
-    <mergeCell ref="AH1:AN1"/>
-    <mergeCell ref="AH2:AN2"/>
-    <mergeCell ref="AD1:AG1"/>
-    <mergeCell ref="AD2:AG2"/>
-    <mergeCell ref="Y4:AA6"/>
-    <mergeCell ref="C5:G6"/>
-    <mergeCell ref="H5:O6"/>
-    <mergeCell ref="S5:U6"/>
-    <mergeCell ref="V5:X6"/>
-    <mergeCell ref="A4:B6"/>
-    <mergeCell ref="C4:O4"/>
-    <mergeCell ref="P4:R6"/>
-    <mergeCell ref="S4:X4"/>
-    <mergeCell ref="H1:AC2"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="Y11:AA11"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="H11:O11"/>
-    <mergeCell ref="P11:R11"/>
-    <mergeCell ref="S11:U11"/>
-    <mergeCell ref="V11:X11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="H13:O13"/>
-    <mergeCell ref="P12:R12"/>
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="V13:X13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="H14:O14"/>
-    <mergeCell ref="P14:R14"/>
-    <mergeCell ref="S14:U14"/>
-    <mergeCell ref="V14:X14"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="H12:O12"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="H16:O16"/>
-    <mergeCell ref="P16:R16"/>
-    <mergeCell ref="S16:U16"/>
-    <mergeCell ref="V16:X16"/>
-    <mergeCell ref="Y16:AA16"/>
-    <mergeCell ref="Y13:AA13"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="H15:O15"/>
-    <mergeCell ref="P15:R15"/>
-    <mergeCell ref="S15:U15"/>
-    <mergeCell ref="V15:X15"/>
-    <mergeCell ref="Y15:AA15"/>
-    <mergeCell ref="Y14:AA14"/>
-    <mergeCell ref="P13:R13"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="P17:R17"/>
-    <mergeCell ref="S17:U17"/>
-    <mergeCell ref="V17:X17"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="Y20:AA20"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="H20:O20"/>
-    <mergeCell ref="P20:R20"/>
-    <mergeCell ref="S20:U20"/>
-    <mergeCell ref="V20:X20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="H21:O21"/>
-    <mergeCell ref="S21:U21"/>
-    <mergeCell ref="V21:X21"/>
-    <mergeCell ref="Y21:AA21"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="H18:O18"/>
-    <mergeCell ref="P21:R21"/>
-    <mergeCell ref="Y18:AA18"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="H24:O24"/>
-    <mergeCell ref="P24:R24"/>
-    <mergeCell ref="S24:U24"/>
-    <mergeCell ref="V24:X24"/>
-    <mergeCell ref="Y24:AA24"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="H22:O22"/>
-    <mergeCell ref="P22:R22"/>
-    <mergeCell ref="S22:U22"/>
-    <mergeCell ref="V22:X22"/>
-    <mergeCell ref="Y22:AA22"/>
-    <mergeCell ref="S23:U23"/>
-    <mergeCell ref="V23:X23"/>
-    <mergeCell ref="Y23:AA23"/>
-    <mergeCell ref="H23:O23"/>
-    <mergeCell ref="P23:R23"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="Y25:AA25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="H26:O26"/>
-    <mergeCell ref="P26:R26"/>
-    <mergeCell ref="S26:U26"/>
-    <mergeCell ref="V26:X26"/>
-    <mergeCell ref="Y26:AA26"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="H25:O25"/>
-    <mergeCell ref="P25:R25"/>
-    <mergeCell ref="S25:U25"/>
-    <mergeCell ref="V25:X25"/>
-    <mergeCell ref="Y27:AA27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="H28:O28"/>
-    <mergeCell ref="P28:R28"/>
-    <mergeCell ref="S28:U28"/>
-    <mergeCell ref="V28:X28"/>
-    <mergeCell ref="Y28:AA28"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="H27:O27"/>
-    <mergeCell ref="P27:R27"/>
-    <mergeCell ref="S27:U27"/>
-    <mergeCell ref="V27:X27"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="Y29:AA29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="H30:O30"/>
-    <mergeCell ref="P30:R30"/>
-    <mergeCell ref="S30:U30"/>
-    <mergeCell ref="V30:X30"/>
-    <mergeCell ref="Y30:AA30"/>
-    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="Y12:AA12"/>
+    <mergeCell ref="V12:X12"/>
+    <mergeCell ref="S12:U12"/>
+    <mergeCell ref="P18:R18"/>
+    <mergeCell ref="S18:U18"/>
+    <mergeCell ref="V18:X18"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="Y17:AA17"/>
+    <mergeCell ref="Y10:AA10"/>
+    <mergeCell ref="H17:O17"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="H7:O7"/>
+    <mergeCell ref="P7:R7"/>
+    <mergeCell ref="S7:U7"/>
+    <mergeCell ref="V7:X7"/>
+    <mergeCell ref="Y7:AA7"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="H9:O9"/>
+    <mergeCell ref="P9:R9"/>
+    <mergeCell ref="S9:U9"/>
+    <mergeCell ref="V9:X9"/>
+    <mergeCell ref="Y9:AA9"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H8:O8"/>
+    <mergeCell ref="P8:R8"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="V8:X8"/>
+    <mergeCell ref="Y8:AA8"/>
+    <mergeCell ref="Y34:AA34"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="H33:O33"/>
+    <mergeCell ref="P33:R33"/>
+    <mergeCell ref="S33:U33"/>
+    <mergeCell ref="V33:X33"/>
+    <mergeCell ref="Y31:AA31"/>
+    <mergeCell ref="Y32:AA32"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H31:O31"/>
+    <mergeCell ref="P31:R31"/>
+    <mergeCell ref="S31:U31"/>
+    <mergeCell ref="V31:X31"/>
+    <mergeCell ref="H32:O32"/>
+    <mergeCell ref="P32:R32"/>
+    <mergeCell ref="S32:U32"/>
+    <mergeCell ref="V32:X32"/>
     <mergeCell ref="Y35:AA35"/>
     <mergeCell ref="C21:G21"/>
     <mergeCell ref="C25:G25"/>
@@ -3979,59 +3885,144 @@
     <mergeCell ref="V29:X29"/>
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="C32:G32"/>
-    <mergeCell ref="Y34:AA34"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="H33:O33"/>
-    <mergeCell ref="P33:R33"/>
-    <mergeCell ref="S33:U33"/>
-    <mergeCell ref="V33:X33"/>
-    <mergeCell ref="Y31:AA31"/>
-    <mergeCell ref="Y32:AA32"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="H31:O31"/>
-    <mergeCell ref="P31:R31"/>
-    <mergeCell ref="S31:U31"/>
-    <mergeCell ref="V31:X31"/>
-    <mergeCell ref="H32:O32"/>
-    <mergeCell ref="P32:R32"/>
-    <mergeCell ref="S32:U32"/>
-    <mergeCell ref="V32:X32"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="H7:O7"/>
-    <mergeCell ref="P7:R7"/>
-    <mergeCell ref="S7:U7"/>
-    <mergeCell ref="V7:X7"/>
-    <mergeCell ref="Y7:AA7"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="H9:O9"/>
-    <mergeCell ref="P9:R9"/>
-    <mergeCell ref="S9:U9"/>
-    <mergeCell ref="V9:X9"/>
-    <mergeCell ref="Y9:AA9"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="H8:O8"/>
-    <mergeCell ref="P8:R8"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="V8:X8"/>
-    <mergeCell ref="Y8:AA8"/>
-    <mergeCell ref="Y12:AA12"/>
-    <mergeCell ref="V12:X12"/>
-    <mergeCell ref="S12:U12"/>
-    <mergeCell ref="P18:R18"/>
-    <mergeCell ref="S18:U18"/>
-    <mergeCell ref="V18:X18"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="Y17:AA17"/>
-    <mergeCell ref="Y10:AA10"/>
-    <mergeCell ref="H17:O17"/>
+    <mergeCell ref="Y27:AA27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="H28:O28"/>
+    <mergeCell ref="P28:R28"/>
+    <mergeCell ref="S28:U28"/>
+    <mergeCell ref="V28:X28"/>
+    <mergeCell ref="Y28:AA28"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H27:O27"/>
+    <mergeCell ref="P27:R27"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="V27:X27"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="Y29:AA29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="H30:O30"/>
+    <mergeCell ref="P30:R30"/>
+    <mergeCell ref="S30:U30"/>
+    <mergeCell ref="V30:X30"/>
+    <mergeCell ref="Y30:AA30"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="Y25:AA25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:O26"/>
+    <mergeCell ref="P26:R26"/>
+    <mergeCell ref="S26:U26"/>
+    <mergeCell ref="V26:X26"/>
+    <mergeCell ref="Y26:AA26"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="H25:O25"/>
+    <mergeCell ref="P25:R25"/>
+    <mergeCell ref="S25:U25"/>
+    <mergeCell ref="V25:X25"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:O24"/>
+    <mergeCell ref="P24:R24"/>
+    <mergeCell ref="S24:U24"/>
+    <mergeCell ref="V24:X24"/>
+    <mergeCell ref="Y24:AA24"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:O22"/>
+    <mergeCell ref="P22:R22"/>
+    <mergeCell ref="S22:U22"/>
+    <mergeCell ref="V22:X22"/>
+    <mergeCell ref="Y22:AA22"/>
+    <mergeCell ref="S23:U23"/>
+    <mergeCell ref="V23:X23"/>
+    <mergeCell ref="Y23:AA23"/>
+    <mergeCell ref="H23:O23"/>
+    <mergeCell ref="P23:R23"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="H21:O21"/>
+    <mergeCell ref="S21:U21"/>
+    <mergeCell ref="V21:X21"/>
+    <mergeCell ref="Y21:AA21"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H18:O18"/>
+    <mergeCell ref="P21:R21"/>
+    <mergeCell ref="Y18:AA18"/>
     <mergeCell ref="H19:O19"/>
     <mergeCell ref="P19:R19"/>
     <mergeCell ref="S19:U19"/>
     <mergeCell ref="V19:X19"/>
     <mergeCell ref="Y19:AA19"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="P17:R17"/>
+    <mergeCell ref="S17:U17"/>
+    <mergeCell ref="V17:X17"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="Y20:AA20"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="H20:O20"/>
+    <mergeCell ref="P20:R20"/>
+    <mergeCell ref="S20:U20"/>
+    <mergeCell ref="V20:X20"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H16:O16"/>
+    <mergeCell ref="P16:R16"/>
+    <mergeCell ref="S16:U16"/>
+    <mergeCell ref="V16:X16"/>
+    <mergeCell ref="Y16:AA16"/>
+    <mergeCell ref="Y13:AA13"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="H15:O15"/>
+    <mergeCell ref="P15:R15"/>
+    <mergeCell ref="S15:U15"/>
+    <mergeCell ref="V15:X15"/>
+    <mergeCell ref="Y15:AA15"/>
+    <mergeCell ref="Y14:AA14"/>
+    <mergeCell ref="P13:R13"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H13:O13"/>
+    <mergeCell ref="P12:R12"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="V13:X13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:O14"/>
+    <mergeCell ref="P14:R14"/>
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="V14:X14"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H12:O12"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="Y11:AA11"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="H11:O11"/>
+    <mergeCell ref="P11:R11"/>
+    <mergeCell ref="S11:U11"/>
+    <mergeCell ref="V11:X11"/>
+    <mergeCell ref="A1:G2"/>
+    <mergeCell ref="AH1:AN1"/>
+    <mergeCell ref="AH2:AN2"/>
+    <mergeCell ref="AD1:AG1"/>
+    <mergeCell ref="AD2:AG2"/>
+    <mergeCell ref="Y4:AA6"/>
+    <mergeCell ref="C5:G6"/>
+    <mergeCell ref="H5:O6"/>
+    <mergeCell ref="S5:U6"/>
+    <mergeCell ref="V5:X6"/>
+    <mergeCell ref="A4:B6"/>
+    <mergeCell ref="C4:O4"/>
+    <mergeCell ref="P4:R6"/>
+    <mergeCell ref="S4:X4"/>
+    <mergeCell ref="H1:AC2"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="AC5:BE6">

--- a/doc/進捗管理表_D3.xlsx
+++ b/doc/進捗管理表_D3.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{363BCD0A-A690-4E4A-8992-A1F3DCA0C6D0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{884336BD-BD74-46E3-901D-0937841E64BC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1140" yWindow="20" windowWidth="14400" windowHeight="10140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -433,7 +433,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -472,12 +472,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -810,7 +804,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -862,33 +856,30 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -896,6 +887,114 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -954,114 +1053,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1389,7 +1380,7 @@
   <dimension ref="A1:BG46"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B9" zoomScale="67" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="P21" sqref="P21:R21"/>
+      <selection activeCell="AK18" sqref="AK18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.25" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1405,139 +1396,139 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:59" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="42" t="s">
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="77" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
-      <c r="N1" s="43"/>
-      <c r="O1" s="43"/>
-      <c r="P1" s="43"/>
-      <c r="Q1" s="43"/>
-      <c r="R1" s="43"/>
-      <c r="S1" s="43"/>
-      <c r="T1" s="43"/>
-      <c r="U1" s="43"/>
-      <c r="V1" s="43"/>
-      <c r="W1" s="43"/>
-      <c r="X1" s="43"/>
-      <c r="Y1" s="43"/>
-      <c r="Z1" s="43"/>
-      <c r="AA1" s="43"/>
-      <c r="AB1" s="43"/>
-      <c r="AC1" s="44"/>
-      <c r="AD1" s="36" t="s">
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
+      <c r="N1" s="78"/>
+      <c r="O1" s="78"/>
+      <c r="P1" s="78"/>
+      <c r="Q1" s="78"/>
+      <c r="R1" s="78"/>
+      <c r="S1" s="78"/>
+      <c r="T1" s="78"/>
+      <c r="U1" s="78"/>
+      <c r="V1" s="78"/>
+      <c r="W1" s="78"/>
+      <c r="X1" s="78"/>
+      <c r="Y1" s="78"/>
+      <c r="Z1" s="78"/>
+      <c r="AA1" s="78"/>
+      <c r="AB1" s="78"/>
+      <c r="AC1" s="79"/>
+      <c r="AD1" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="AE1" s="37"/>
-      <c r="AF1" s="37"/>
-      <c r="AG1" s="38"/>
-      <c r="AH1" s="33">
+      <c r="AE1" s="72"/>
+      <c r="AF1" s="72"/>
+      <c r="AG1" s="73"/>
+      <c r="AH1" s="68">
         <v>45078</v>
       </c>
-      <c r="AI1" s="34"/>
-      <c r="AJ1" s="34"/>
-      <c r="AK1" s="34"/>
-      <c r="AL1" s="34"/>
-      <c r="AM1" s="34"/>
-      <c r="AN1" s="35"/>
+      <c r="AI1" s="69"/>
+      <c r="AJ1" s="69"/>
+      <c r="AK1" s="69"/>
+      <c r="AL1" s="69"/>
+      <c r="AM1" s="69"/>
+      <c r="AN1" s="70"/>
     </row>
     <row r="2" spans="1:59" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="31"/>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
-      <c r="P2" s="46"/>
-      <c r="Q2" s="46"/>
-      <c r="R2" s="46"/>
-      <c r="S2" s="46"/>
-      <c r="T2" s="46"/>
-      <c r="U2" s="46"/>
-      <c r="V2" s="46"/>
-      <c r="W2" s="46"/>
-      <c r="X2" s="46"/>
-      <c r="Y2" s="46"/>
-      <c r="Z2" s="46"/>
-      <c r="AA2" s="46"/>
-      <c r="AB2" s="46"/>
-      <c r="AC2" s="47"/>
-      <c r="AD2" s="36" t="s">
+      <c r="A2" s="66"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="80"/>
+      <c r="I2" s="81"/>
+      <c r="J2" s="81"/>
+      <c r="K2" s="81"/>
+      <c r="L2" s="81"/>
+      <c r="M2" s="81"/>
+      <c r="N2" s="81"/>
+      <c r="O2" s="81"/>
+      <c r="P2" s="81"/>
+      <c r="Q2" s="81"/>
+      <c r="R2" s="81"/>
+      <c r="S2" s="81"/>
+      <c r="T2" s="81"/>
+      <c r="U2" s="81"/>
+      <c r="V2" s="81"/>
+      <c r="W2" s="81"/>
+      <c r="X2" s="81"/>
+      <c r="Y2" s="81"/>
+      <c r="Z2" s="81"/>
+      <c r="AA2" s="81"/>
+      <c r="AB2" s="81"/>
+      <c r="AC2" s="82"/>
+      <c r="AD2" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="AE2" s="37"/>
-      <c r="AF2" s="37"/>
-      <c r="AG2" s="38"/>
-      <c r="AH2" s="33">
+      <c r="AE2" s="72"/>
+      <c r="AF2" s="72"/>
+      <c r="AG2" s="73"/>
+      <c r="AH2" s="68">
         <v>45107</v>
       </c>
-      <c r="AI2" s="34"/>
-      <c r="AJ2" s="34"/>
-      <c r="AK2" s="34"/>
-      <c r="AL2" s="34"/>
-      <c r="AM2" s="34"/>
-      <c r="AN2" s="35"/>
+      <c r="AI2" s="69"/>
+      <c r="AJ2" s="69"/>
+      <c r="AK2" s="69"/>
+      <c r="AL2" s="69"/>
+      <c r="AM2" s="69"/>
+      <c r="AN2" s="70"/>
     </row>
     <row r="4" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="41" t="s">
+      <c r="B4" s="75"/>
+      <c r="C4" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="41"/>
-      <c r="L4" s="41"/>
-      <c r="M4" s="41"/>
-      <c r="N4" s="41"/>
-      <c r="O4" s="41"/>
-      <c r="P4" s="40" t="s">
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76"/>
+      <c r="K4" s="76"/>
+      <c r="L4" s="76"/>
+      <c r="M4" s="76"/>
+      <c r="N4" s="76"/>
+      <c r="O4" s="76"/>
+      <c r="P4" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="Q4" s="40"/>
-      <c r="R4" s="40"/>
-      <c r="S4" s="40" t="s">
+      <c r="Q4" s="75"/>
+      <c r="R4" s="75"/>
+      <c r="S4" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="T4" s="40"/>
-      <c r="U4" s="40"/>
-      <c r="V4" s="40"/>
-      <c r="W4" s="40"/>
-      <c r="X4" s="40"/>
-      <c r="Y4" s="39" t="s">
+      <c r="T4" s="75"/>
+      <c r="U4" s="75"/>
+      <c r="V4" s="75"/>
+      <c r="W4" s="75"/>
+      <c r="X4" s="75"/>
+      <c r="Y4" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="Z4" s="39"/>
-      <c r="AA4" s="39"/>
+      <c r="Z4" s="74"/>
+      <c r="AA4" s="74"/>
       <c r="AB4" s="7">
         <f>AH1</f>
         <v>45078</v>
@@ -1662,41 +1653,41 @@
       <c r="BG4" s="3"/>
     </row>
     <row r="5" spans="1:59" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="40"/>
-      <c r="B5" s="40"/>
-      <c r="C5" s="40" t="s">
+      <c r="A5" s="75"/>
+      <c r="B5" s="75"/>
+      <c r="C5" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40" t="s">
+      <c r="D5" s="75"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="75"/>
+      <c r="G5" s="75"/>
+      <c r="H5" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="40"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="40"/>
-      <c r="L5" s="40"/>
-      <c r="M5" s="40"/>
-      <c r="N5" s="40"/>
-      <c r="O5" s="40"/>
-      <c r="P5" s="40"/>
-      <c r="Q5" s="40"/>
-      <c r="R5" s="40"/>
-      <c r="S5" s="40" t="s">
+      <c r="I5" s="75"/>
+      <c r="J5" s="75"/>
+      <c r="K5" s="75"/>
+      <c r="L5" s="75"/>
+      <c r="M5" s="75"/>
+      <c r="N5" s="75"/>
+      <c r="O5" s="75"/>
+      <c r="P5" s="75"/>
+      <c r="Q5" s="75"/>
+      <c r="R5" s="75"/>
+      <c r="S5" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="T5" s="40"/>
-      <c r="U5" s="40"/>
-      <c r="V5" s="40" t="s">
+      <c r="T5" s="75"/>
+      <c r="U5" s="75"/>
+      <c r="V5" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="W5" s="40"/>
-      <c r="X5" s="40"/>
-      <c r="Y5" s="39"/>
-      <c r="Z5" s="39"/>
-      <c r="AA5" s="39"/>
+      <c r="W5" s="75"/>
+      <c r="X5" s="75"/>
+      <c r="Y5" s="74"/>
+      <c r="Z5" s="74"/>
+      <c r="AA5" s="74"/>
       <c r="AB5" s="5">
         <f>AH1</f>
         <v>45078</v>
@@ -1819,33 +1810,33 @@
       </c>
     </row>
     <row r="6" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="40"/>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="40"/>
-      <c r="J6" s="40"/>
-      <c r="K6" s="40"/>
-      <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
-      <c r="N6" s="40"/>
-      <c r="O6" s="40"/>
-      <c r="P6" s="40"/>
-      <c r="Q6" s="40"/>
-      <c r="R6" s="40"/>
-      <c r="S6" s="40"/>
-      <c r="T6" s="40"/>
-      <c r="U6" s="40"/>
-      <c r="V6" s="40"/>
-      <c r="W6" s="40"/>
-      <c r="X6" s="40"/>
-      <c r="Y6" s="39"/>
-      <c r="Z6" s="39"/>
-      <c r="AA6" s="39"/>
+      <c r="A6" s="75"/>
+      <c r="B6" s="75"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="75"/>
+      <c r="F6" s="75"/>
+      <c r="G6" s="75"/>
+      <c r="H6" s="75"/>
+      <c r="I6" s="75"/>
+      <c r="J6" s="75"/>
+      <c r="K6" s="75"/>
+      <c r="L6" s="75"/>
+      <c r="M6" s="75"/>
+      <c r="N6" s="75"/>
+      <c r="O6" s="75"/>
+      <c r="P6" s="75"/>
+      <c r="Q6" s="75"/>
+      <c r="R6" s="75"/>
+      <c r="S6" s="75"/>
+      <c r="T6" s="75"/>
+      <c r="U6" s="75"/>
+      <c r="V6" s="75"/>
+      <c r="W6" s="75"/>
+      <c r="X6" s="75"/>
+      <c r="Y6" s="74"/>
+      <c r="Z6" s="74"/>
+      <c r="AA6" s="74"/>
       <c r="AB6" s="6" t="str">
         <f>TEXT(AB5,"aaa")</f>
         <v>木</v>
@@ -1968,35 +1959,35 @@
       </c>
     </row>
     <row r="7" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="48"/>
-      <c r="B7" s="48"/>
-      <c r="C7" s="49" t="s">
+      <c r="A7" s="28"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="49"/>
-      <c r="I7" s="49"/>
-      <c r="J7" s="49"/>
-      <c r="K7" s="49"/>
-      <c r="L7" s="49"/>
-      <c r="M7" s="49"/>
-      <c r="N7" s="49"/>
-      <c r="O7" s="49"/>
-      <c r="P7" s="49"/>
-      <c r="Q7" s="49"/>
-      <c r="R7" s="49"/>
-      <c r="S7" s="51"/>
-      <c r="T7" s="51"/>
-      <c r="U7" s="51"/>
-      <c r="V7" s="51"/>
-      <c r="W7" s="51"/>
-      <c r="X7" s="51"/>
-      <c r="Y7" s="48"/>
-      <c r="Z7" s="48"/>
-      <c r="AA7" s="48"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="32"/>
+      <c r="K7" s="32"/>
+      <c r="L7" s="32"/>
+      <c r="M7" s="32"/>
+      <c r="N7" s="32"/>
+      <c r="O7" s="32"/>
+      <c r="P7" s="32"/>
+      <c r="Q7" s="32"/>
+      <c r="R7" s="32"/>
+      <c r="S7" s="29"/>
+      <c r="T7" s="29"/>
+      <c r="U7" s="29"/>
+      <c r="V7" s="29"/>
+      <c r="W7" s="29"/>
+      <c r="X7" s="29"/>
+      <c r="Y7" s="28"/>
+      <c r="Z7" s="28"/>
+      <c r="AA7" s="28"/>
       <c r="AB7" s="4"/>
       <c r="AC7" s="4"/>
       <c r="AD7" s="4"/>
@@ -2029,41 +2020,41 @@
       <c r="BE7" s="4"/>
     </row>
     <row r="8" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="48"/>
-      <c r="B8" s="48"/>
-      <c r="C8" s="49"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="49"/>
-      <c r="H8" s="50" t="s">
+      <c r="A8" s="28"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="I8" s="50"/>
-      <c r="J8" s="50"/>
-      <c r="K8" s="50"/>
-      <c r="L8" s="50"/>
-      <c r="M8" s="50"/>
-      <c r="N8" s="50"/>
-      <c r="O8" s="50"/>
-      <c r="P8" s="49"/>
-      <c r="Q8" s="49"/>
-      <c r="R8" s="49"/>
-      <c r="S8" s="51">
+      <c r="I8" s="37"/>
+      <c r="J8" s="37"/>
+      <c r="K8" s="37"/>
+      <c r="L8" s="37"/>
+      <c r="M8" s="37"/>
+      <c r="N8" s="37"/>
+      <c r="O8" s="37"/>
+      <c r="P8" s="32"/>
+      <c r="Q8" s="32"/>
+      <c r="R8" s="32"/>
+      <c r="S8" s="29">
         <v>45078</v>
       </c>
-      <c r="T8" s="51"/>
-      <c r="U8" s="51"/>
-      <c r="V8" s="51">
+      <c r="T8" s="29"/>
+      <c r="U8" s="29"/>
+      <c r="V8" s="29">
         <v>45078</v>
       </c>
-      <c r="W8" s="51"/>
-      <c r="X8" s="51"/>
-      <c r="Y8" s="48" t="s">
+      <c r="W8" s="29"/>
+      <c r="X8" s="29"/>
+      <c r="Y8" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="Z8" s="48"/>
-      <c r="AA8" s="48"/>
+      <c r="Z8" s="28"/>
+      <c r="AA8" s="28"/>
       <c r="AB8" s="4"/>
       <c r="AC8" s="4"/>
       <c r="AD8" s="4"/>
@@ -2096,41 +2087,41 @@
       <c r="BE8" s="4"/>
     </row>
     <row r="9" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="48"/>
-      <c r="B9" s="48"/>
-      <c r="C9" s="49"/>
-      <c r="D9" s="49"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="49"/>
-      <c r="G9" s="49"/>
-      <c r="H9" s="50" t="s">
+      <c r="A9" s="28"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="I9" s="50"/>
-      <c r="J9" s="50"/>
-      <c r="K9" s="50"/>
-      <c r="L9" s="50"/>
-      <c r="M9" s="50"/>
-      <c r="N9" s="50"/>
-      <c r="O9" s="50"/>
-      <c r="P9" s="49"/>
-      <c r="Q9" s="49"/>
-      <c r="R9" s="49"/>
-      <c r="S9" s="51">
+      <c r="I9" s="37"/>
+      <c r="J9" s="37"/>
+      <c r="K9" s="37"/>
+      <c r="L9" s="37"/>
+      <c r="M9" s="37"/>
+      <c r="N9" s="37"/>
+      <c r="O9" s="37"/>
+      <c r="P9" s="32"/>
+      <c r="Q9" s="32"/>
+      <c r="R9" s="32"/>
+      <c r="S9" s="29">
         <v>45078</v>
       </c>
-      <c r="T9" s="51"/>
-      <c r="U9" s="51"/>
-      <c r="V9" s="51">
+      <c r="T9" s="29"/>
+      <c r="U9" s="29"/>
+      <c r="V9" s="29">
         <v>45079</v>
       </c>
-      <c r="W9" s="51"/>
-      <c r="X9" s="51"/>
-      <c r="Y9" s="48" t="s">
+      <c r="W9" s="29"/>
+      <c r="X9" s="29"/>
+      <c r="Y9" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="Z9" s="48"/>
-      <c r="AA9" s="48"/>
+      <c r="Z9" s="28"/>
+      <c r="AA9" s="28"/>
       <c r="AB9" s="4"/>
       <c r="AC9" s="4"/>
       <c r="AD9" s="4"/>
@@ -2163,18 +2154,18 @@
       <c r="BE9" s="4"/>
     </row>
     <row r="10" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="48"/>
-      <c r="B10" s="48"/>
-      <c r="C10" s="49" t="s">
+      <c r="A10" s="28"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="49"/>
-      <c r="E10" s="49"/>
-      <c r="F10" s="49"/>
-      <c r="G10" s="49"/>
-      <c r="Y10" s="48"/>
-      <c r="Z10" s="48"/>
-      <c r="AA10" s="48"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="Y10" s="28"/>
+      <c r="Z10" s="28"/>
+      <c r="AA10" s="28"/>
       <c r="AB10" s="4"/>
       <c r="AC10" s="12"/>
       <c r="AD10" s="4"/>
@@ -2207,43 +2198,43 @@
       <c r="BE10" s="4"/>
     </row>
     <row r="11" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="48"/>
-      <c r="B11" s="48"/>
-      <c r="C11" s="49"/>
-      <c r="D11" s="49"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="49"/>
-      <c r="G11" s="49"/>
-      <c r="H11" s="50" t="s">
+      <c r="A11" s="28"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="I11" s="50"/>
-      <c r="J11" s="50"/>
-      <c r="K11" s="50"/>
-      <c r="L11" s="50"/>
-      <c r="M11" s="50"/>
-      <c r="N11" s="50"/>
-      <c r="O11" s="50"/>
-      <c r="P11" s="49" t="s">
+      <c r="I11" s="37"/>
+      <c r="J11" s="37"/>
+      <c r="K11" s="37"/>
+      <c r="L11" s="37"/>
+      <c r="M11" s="37"/>
+      <c r="N11" s="37"/>
+      <c r="O11" s="37"/>
+      <c r="P11" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="Q11" s="49"/>
-      <c r="R11" s="49"/>
-      <c r="S11" s="51">
+      <c r="Q11" s="32"/>
+      <c r="R11" s="32"/>
+      <c r="S11" s="29">
         <v>45079</v>
       </c>
-      <c r="T11" s="51"/>
-      <c r="U11" s="51"/>
-      <c r="V11" s="51">
+      <c r="T11" s="29"/>
+      <c r="U11" s="29"/>
+      <c r="V11" s="29">
         <v>45082</v>
       </c>
-      <c r="W11" s="51"/>
-      <c r="X11" s="51"/>
-      <c r="Y11" s="48" t="s">
+      <c r="W11" s="29"/>
+      <c r="X11" s="29"/>
+      <c r="Y11" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="Z11" s="48"/>
-      <c r="AA11" s="48"/>
+      <c r="Z11" s="28"/>
+      <c r="AA11" s="28"/>
       <c r="AB11" s="4"/>
       <c r="AC11" s="13"/>
       <c r="AD11" s="4"/>
@@ -2275,41 +2266,41 @@
       <c r="BE11" s="4"/>
     </row>
     <row r="12" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="48"/>
-      <c r="B12" s="48"/>
-      <c r="C12" s="49"/>
-      <c r="D12" s="49"/>
-      <c r="E12" s="49"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="49"/>
-      <c r="H12" s="55" t="s">
+      <c r="A12" s="28"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="I12" s="56"/>
-      <c r="J12" s="56"/>
-      <c r="K12" s="56"/>
-      <c r="L12" s="56"/>
-      <c r="M12" s="56"/>
-      <c r="N12" s="56"/>
-      <c r="O12" s="57"/>
-      <c r="P12" s="52"/>
-      <c r="Q12" s="53"/>
-      <c r="R12" s="54"/>
-      <c r="S12" s="51">
+      <c r="I12" s="62"/>
+      <c r="J12" s="62"/>
+      <c r="K12" s="62"/>
+      <c r="L12" s="62"/>
+      <c r="M12" s="62"/>
+      <c r="N12" s="62"/>
+      <c r="O12" s="63"/>
+      <c r="P12" s="57"/>
+      <c r="Q12" s="58"/>
+      <c r="R12" s="60"/>
+      <c r="S12" s="29">
         <v>45079</v>
       </c>
-      <c r="T12" s="51"/>
-      <c r="U12" s="51"/>
-      <c r="V12" s="51">
+      <c r="T12" s="29"/>
+      <c r="U12" s="29"/>
+      <c r="V12" s="29">
         <v>45082</v>
       </c>
-      <c r="W12" s="51"/>
-      <c r="X12" s="51"/>
-      <c r="Y12" s="48" t="s">
+      <c r="W12" s="29"/>
+      <c r="X12" s="29"/>
+      <c r="Y12" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="Z12" s="48"/>
-      <c r="AA12" s="48"/>
+      <c r="Z12" s="28"/>
+      <c r="AA12" s="28"/>
       <c r="AB12" s="4"/>
       <c r="AC12" s="13"/>
       <c r="AD12" s="4"/>
@@ -2342,46 +2333,46 @@
       <c r="BE12" s="4"/>
     </row>
     <row r="13" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="48"/>
-      <c r="B13" s="48"/>
-      <c r="C13" s="49"/>
-      <c r="D13" s="49"/>
-      <c r="E13" s="49"/>
-      <c r="F13" s="49"/>
-      <c r="G13" s="49"/>
-      <c r="H13" s="50" t="s">
+      <c r="A13" s="28"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="I13" s="50"/>
-      <c r="J13" s="50"/>
-      <c r="K13" s="50"/>
-      <c r="L13" s="50"/>
-      <c r="M13" s="50"/>
-      <c r="N13" s="50"/>
-      <c r="O13" s="50"/>
-      <c r="P13" s="49"/>
-      <c r="Q13" s="49"/>
-      <c r="R13" s="49"/>
-      <c r="S13" s="51">
+      <c r="I13" s="37"/>
+      <c r="J13" s="37"/>
+      <c r="K13" s="37"/>
+      <c r="L13" s="37"/>
+      <c r="M13" s="37"/>
+      <c r="N13" s="37"/>
+      <c r="O13" s="37"/>
+      <c r="P13" s="32"/>
+      <c r="Q13" s="32"/>
+      <c r="R13" s="32"/>
+      <c r="S13" s="29">
         <v>45082</v>
       </c>
-      <c r="T13" s="51"/>
-      <c r="U13" s="51"/>
-      <c r="V13" s="51">
+      <c r="T13" s="29"/>
+      <c r="U13" s="29"/>
+      <c r="V13" s="29">
         <v>45082</v>
       </c>
-      <c r="W13" s="51"/>
-      <c r="X13" s="51"/>
-      <c r="Y13" s="48" t="s">
+      <c r="W13" s="29"/>
+      <c r="X13" s="29"/>
+      <c r="Y13" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="Z13" s="48"/>
-      <c r="AA13" s="48"/>
+      <c r="Z13" s="28"/>
+      <c r="AA13" s="28"/>
       <c r="AB13" s="4"/>
       <c r="AC13" s="4"/>
       <c r="AD13" s="4"/>
       <c r="AE13" s="4"/>
-      <c r="AF13" s="24"/>
+      <c r="AF13" s="23"/>
       <c r="AG13" s="4"/>
       <c r="AH13" s="4"/>
       <c r="AI13" s="4"/>
@@ -2409,33 +2400,33 @@
       <c r="BE13" s="4"/>
     </row>
     <row r="14" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="48"/>
-      <c r="B14" s="48"/>
-      <c r="C14" s="49"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="49"/>
-      <c r="G14" s="49"/>
-      <c r="H14" s="49"/>
-      <c r="I14" s="49"/>
-      <c r="J14" s="49"/>
-      <c r="K14" s="49"/>
-      <c r="L14" s="49"/>
-      <c r="M14" s="49"/>
-      <c r="N14" s="49"/>
-      <c r="O14" s="49"/>
-      <c r="P14" s="49"/>
-      <c r="Q14" s="49"/>
-      <c r="R14" s="49"/>
-      <c r="S14" s="51"/>
-      <c r="T14" s="51"/>
-      <c r="U14" s="51"/>
-      <c r="V14" s="51"/>
-      <c r="W14" s="51"/>
-      <c r="X14" s="51"/>
-      <c r="Y14" s="48"/>
-      <c r="Z14" s="48"/>
-      <c r="AA14" s="48"/>
+      <c r="A14" s="28"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="32"/>
+      <c r="J14" s="32"/>
+      <c r="K14" s="32"/>
+      <c r="L14" s="32"/>
+      <c r="M14" s="32"/>
+      <c r="N14" s="32"/>
+      <c r="O14" s="32"/>
+      <c r="P14" s="32"/>
+      <c r="Q14" s="32"/>
+      <c r="R14" s="32"/>
+      <c r="S14" s="29"/>
+      <c r="T14" s="29"/>
+      <c r="U14" s="29"/>
+      <c r="V14" s="29"/>
+      <c r="W14" s="29"/>
+      <c r="X14" s="29"/>
+      <c r="Y14" s="28"/>
+      <c r="Z14" s="28"/>
+      <c r="AA14" s="28"/>
       <c r="AB14" s="4"/>
       <c r="AC14" s="4"/>
       <c r="AD14" s="4"/>
@@ -2468,37 +2459,37 @@
       <c r="BE14" s="4"/>
     </row>
     <row r="15" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="48"/>
-      <c r="B15" s="48"/>
-      <c r="C15" s="49" t="s">
+      <c r="A15" s="28"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="49"/>
-      <c r="E15" s="49"/>
-      <c r="F15" s="49"/>
-      <c r="G15" s="49"/>
-      <c r="H15" s="49"/>
-      <c r="I15" s="49"/>
-      <c r="J15" s="49"/>
-      <c r="K15" s="49"/>
-      <c r="L15" s="49"/>
-      <c r="M15" s="49"/>
-      <c r="N15" s="49"/>
-      <c r="O15" s="49"/>
-      <c r="P15" s="49" t="s">
+      <c r="D15" s="32"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="32"/>
+      <c r="J15" s="32"/>
+      <c r="K15" s="32"/>
+      <c r="L15" s="32"/>
+      <c r="M15" s="32"/>
+      <c r="N15" s="32"/>
+      <c r="O15" s="32"/>
+      <c r="P15" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="Q15" s="49"/>
-      <c r="R15" s="49"/>
-      <c r="S15" s="51"/>
-      <c r="T15" s="51"/>
-      <c r="U15" s="51"/>
-      <c r="V15" s="51"/>
-      <c r="W15" s="51"/>
-      <c r="X15" s="51"/>
-      <c r="Y15" s="48"/>
-      <c r="Z15" s="48"/>
-      <c r="AA15" s="48"/>
+      <c r="Q15" s="32"/>
+      <c r="R15" s="32"/>
+      <c r="S15" s="29"/>
+      <c r="T15" s="29"/>
+      <c r="U15" s="29"/>
+      <c r="V15" s="29"/>
+      <c r="W15" s="29"/>
+      <c r="X15" s="29"/>
+      <c r="Y15" s="28"/>
+      <c r="Z15" s="28"/>
+      <c r="AA15" s="28"/>
       <c r="AB15" s="4"/>
       <c r="AC15" s="4"/>
       <c r="AD15" s="4"/>
@@ -2531,48 +2522,48 @@
       <c r="BE15" s="4"/>
     </row>
     <row r="16" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="48"/>
-      <c r="B16" s="48"/>
-      <c r="C16" s="49"/>
-      <c r="D16" s="49"/>
-      <c r="E16" s="49"/>
-      <c r="F16" s="49"/>
-      <c r="G16" s="49"/>
-      <c r="H16" s="50" t="s">
+      <c r="A16" s="28"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="I16" s="50"/>
-      <c r="J16" s="50"/>
-      <c r="K16" s="50"/>
-      <c r="L16" s="50"/>
-      <c r="M16" s="50"/>
-      <c r="N16" s="50"/>
-      <c r="O16" s="50"/>
-      <c r="P16" s="49"/>
-      <c r="Q16" s="49"/>
-      <c r="R16" s="49"/>
-      <c r="S16" s="51">
+      <c r="I16" s="37"/>
+      <c r="J16" s="37"/>
+      <c r="K16" s="37"/>
+      <c r="L16" s="37"/>
+      <c r="M16" s="37"/>
+      <c r="N16" s="37"/>
+      <c r="O16" s="37"/>
+      <c r="P16" s="32"/>
+      <c r="Q16" s="32"/>
+      <c r="R16" s="32"/>
+      <c r="S16" s="29">
         <v>45083</v>
       </c>
-      <c r="T16" s="51"/>
-      <c r="U16" s="51"/>
-      <c r="V16" s="51">
+      <c r="T16" s="29"/>
+      <c r="U16" s="29"/>
+      <c r="V16" s="29">
         <v>45084</v>
       </c>
-      <c r="W16" s="51"/>
-      <c r="X16" s="51"/>
-      <c r="Y16" s="48" t="s">
+      <c r="W16" s="29"/>
+      <c r="X16" s="29"/>
+      <c r="Y16" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="Z16" s="48"/>
-      <c r="AA16" s="48"/>
+      <c r="Z16" s="28"/>
+      <c r="AA16" s="28"/>
       <c r="AB16" s="4"/>
       <c r="AC16" s="4"/>
       <c r="AD16" s="4"/>
       <c r="AE16" s="4"/>
       <c r="AF16" s="4"/>
-      <c r="AG16" s="25"/>
-      <c r="AH16" s="25"/>
+      <c r="AG16" s="24"/>
+      <c r="AH16" s="24"/>
       <c r="AI16" s="4"/>
       <c r="AJ16" s="4"/>
       <c r="AK16" s="4"/>
@@ -2598,51 +2589,51 @@
       <c r="BE16" s="4"/>
     </row>
     <row r="17" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="48"/>
-      <c r="B17" s="48"/>
-      <c r="C17" s="49"/>
-      <c r="D17" s="49"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="49"/>
-      <c r="G17" s="49"/>
-      <c r="H17" s="75" t="s">
+      <c r="A17" s="28"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="I17" s="76"/>
-      <c r="J17" s="76"/>
-      <c r="K17" s="76"/>
-      <c r="L17" s="76"/>
-      <c r="M17" s="76"/>
-      <c r="N17" s="76"/>
-      <c r="O17" s="77"/>
-      <c r="P17" s="49" t="s">
+      <c r="I17" s="35"/>
+      <c r="J17" s="35"/>
+      <c r="K17" s="35"/>
+      <c r="L17" s="35"/>
+      <c r="M17" s="35"/>
+      <c r="N17" s="35"/>
+      <c r="O17" s="36"/>
+      <c r="P17" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="Q17" s="49"/>
-      <c r="R17" s="49"/>
-      <c r="S17" s="51">
+      <c r="Q17" s="32"/>
+      <c r="R17" s="32"/>
+      <c r="S17" s="29">
         <v>45083</v>
       </c>
-      <c r="T17" s="51"/>
-      <c r="U17" s="51"/>
-      <c r="V17" s="51">
+      <c r="T17" s="29"/>
+      <c r="U17" s="29"/>
+      <c r="V17" s="29">
         <v>45084</v>
       </c>
-      <c r="W17" s="51"/>
-      <c r="X17" s="51"/>
-      <c r="Y17" s="78" t="s">
+      <c r="W17" s="29"/>
+      <c r="X17" s="29"/>
+      <c r="Y17" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="Z17" s="48"/>
-      <c r="AA17" s="48"/>
+      <c r="Z17" s="28"/>
+      <c r="AA17" s="28"/>
       <c r="AB17" s="4"/>
       <c r="AC17" s="4"/>
       <c r="AD17" s="4"/>
       <c r="AE17" s="4"/>
       <c r="AF17" s="4"/>
-      <c r="AG17" s="16"/>
-      <c r="AH17" s="16"/>
-      <c r="AI17" s="16"/>
+      <c r="AG17" s="13"/>
+      <c r="AH17" s="13"/>
+      <c r="AI17" s="13"/>
       <c r="AJ17" s="12"/>
       <c r="AK17" s="4"/>
       <c r="AL17" s="4"/>
@@ -2669,41 +2660,41 @@
     <row r="18" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="10"/>
       <c r="B18" s="11"/>
-      <c r="C18" s="58"/>
-      <c r="D18" s="59"/>
-      <c r="E18" s="59"/>
-      <c r="F18" s="59"/>
-      <c r="G18" s="60"/>
-      <c r="H18" s="75" t="s">
+      <c r="C18" s="54"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="55"/>
+      <c r="F18" s="55"/>
+      <c r="G18" s="56"/>
+      <c r="H18" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="I18" s="76"/>
-      <c r="J18" s="76"/>
-      <c r="K18" s="76"/>
-      <c r="L18" s="76"/>
-      <c r="M18" s="76"/>
-      <c r="N18" s="76"/>
-      <c r="O18" s="77"/>
-      <c r="P18" s="61" t="s">
+      <c r="I18" s="35"/>
+      <c r="J18" s="35"/>
+      <c r="K18" s="35"/>
+      <c r="L18" s="35"/>
+      <c r="M18" s="35"/>
+      <c r="N18" s="35"/>
+      <c r="O18" s="36"/>
+      <c r="P18" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="Q18" s="62"/>
-      <c r="R18" s="62"/>
-      <c r="S18" s="51">
+      <c r="Q18" s="31"/>
+      <c r="R18" s="31"/>
+      <c r="S18" s="29">
         <v>45083</v>
       </c>
-      <c r="T18" s="51"/>
-      <c r="U18" s="51"/>
-      <c r="V18" s="51">
+      <c r="T18" s="29"/>
+      <c r="U18" s="29"/>
+      <c r="V18" s="29">
         <v>45084</v>
       </c>
-      <c r="W18" s="51"/>
-      <c r="X18" s="51"/>
-      <c r="Y18" s="78" t="s">
+      <c r="W18" s="29"/>
+      <c r="X18" s="29"/>
+      <c r="Y18" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="Z18" s="48"/>
-      <c r="AA18" s="48"/>
+      <c r="Z18" s="28"/>
+      <c r="AA18" s="28"/>
       <c r="AB18" s="4"/>
       <c r="AC18" s="4"/>
       <c r="AD18" s="4"/>
@@ -2738,41 +2729,41 @@
     <row r="19" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="10"/>
       <c r="B19" s="11"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="75" t="s">
+      <c r="C19" s="25"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="I19" s="76"/>
-      <c r="J19" s="76"/>
-      <c r="K19" s="76"/>
-      <c r="L19" s="76"/>
-      <c r="M19" s="76"/>
-      <c r="N19" s="76"/>
-      <c r="O19" s="80"/>
-      <c r="P19" s="65" t="s">
+      <c r="I19" s="35"/>
+      <c r="J19" s="35"/>
+      <c r="K19" s="35"/>
+      <c r="L19" s="35"/>
+      <c r="M19" s="35"/>
+      <c r="N19" s="35"/>
+      <c r="O19" s="49"/>
+      <c r="P19" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="Q19" s="62"/>
-      <c r="R19" s="79"/>
-      <c r="S19" s="51">
+      <c r="Q19" s="31"/>
+      <c r="R19" s="42"/>
+      <c r="S19" s="29">
         <v>45084</v>
       </c>
-      <c r="T19" s="51"/>
-      <c r="U19" s="51"/>
-      <c r="V19" s="51">
+      <c r="T19" s="29"/>
+      <c r="U19" s="29"/>
+      <c r="V19" s="29">
         <v>45084</v>
       </c>
-      <c r="W19" s="51"/>
-      <c r="X19" s="51"/>
-      <c r="Y19" s="81" t="s">
+      <c r="W19" s="29"/>
+      <c r="X19" s="29"/>
+      <c r="Y19" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="Z19" s="82"/>
-      <c r="AA19" s="83"/>
+      <c r="Z19" s="52"/>
+      <c r="AA19" s="53"/>
       <c r="AB19" s="4"/>
       <c r="AC19" s="4"/>
       <c r="AD19" s="4"/>
@@ -2805,33 +2796,33 @@
       <c r="BE19" s="4"/>
     </row>
     <row r="20" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="61"/>
-      <c r="B20" s="63"/>
-      <c r="C20" s="72"/>
-      <c r="D20" s="73"/>
-      <c r="E20" s="73"/>
-      <c r="F20" s="73"/>
-      <c r="G20" s="74"/>
-      <c r="H20" s="52"/>
-      <c r="I20" s="53"/>
-      <c r="J20" s="53"/>
-      <c r="K20" s="53"/>
-      <c r="L20" s="53"/>
-      <c r="M20" s="53"/>
-      <c r="N20" s="53"/>
-      <c r="O20" s="64"/>
-      <c r="P20" s="65"/>
-      <c r="Q20" s="62"/>
-      <c r="R20" s="63"/>
-      <c r="S20" s="66"/>
-      <c r="T20" s="67"/>
-      <c r="U20" s="68"/>
-      <c r="V20" s="66"/>
-      <c r="W20" s="67"/>
-      <c r="X20" s="68"/>
-      <c r="Y20" s="61"/>
-      <c r="Z20" s="62"/>
-      <c r="AA20" s="63"/>
+      <c r="A20" s="30"/>
+      <c r="B20" s="38"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="48"/>
+      <c r="H20" s="57"/>
+      <c r="I20" s="58"/>
+      <c r="J20" s="58"/>
+      <c r="K20" s="58"/>
+      <c r="L20" s="58"/>
+      <c r="M20" s="58"/>
+      <c r="N20" s="58"/>
+      <c r="O20" s="59"/>
+      <c r="P20" s="50"/>
+      <c r="Q20" s="31"/>
+      <c r="R20" s="38"/>
+      <c r="S20" s="43"/>
+      <c r="T20" s="44"/>
+      <c r="U20" s="45"/>
+      <c r="V20" s="43"/>
+      <c r="W20" s="44"/>
+      <c r="X20" s="45"/>
+      <c r="Y20" s="30"/>
+      <c r="Z20" s="31"/>
+      <c r="AA20" s="38"/>
       <c r="AB20" s="4"/>
       <c r="AC20" s="4"/>
       <c r="AD20" s="4"/>
@@ -2864,37 +2855,37 @@
       <c r="BE20" s="4"/>
     </row>
     <row r="21" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="61"/>
-      <c r="B21" s="63"/>
-      <c r="C21" s="49" t="s">
+      <c r="A21" s="30"/>
+      <c r="B21" s="38"/>
+      <c r="C21" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="D21" s="49"/>
-      <c r="E21" s="49"/>
-      <c r="F21" s="49"/>
-      <c r="G21" s="49"/>
-      <c r="H21" s="69"/>
-      <c r="I21" s="70"/>
-      <c r="J21" s="70"/>
-      <c r="K21" s="70"/>
-      <c r="L21" s="70"/>
-      <c r="M21" s="70"/>
-      <c r="N21" s="70"/>
-      <c r="O21" s="71"/>
-      <c r="P21" s="49" t="s">
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="40"/>
+      <c r="J21" s="40"/>
+      <c r="K21" s="40"/>
+      <c r="L21" s="40"/>
+      <c r="M21" s="40"/>
+      <c r="N21" s="40"/>
+      <c r="O21" s="41"/>
+      <c r="P21" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="Q21" s="49"/>
-      <c r="R21" s="49"/>
-      <c r="S21" s="51"/>
-      <c r="T21" s="51"/>
-      <c r="U21" s="51"/>
-      <c r="V21" s="51"/>
-      <c r="W21" s="51"/>
-      <c r="X21" s="51"/>
-      <c r="Y21" s="48"/>
-      <c r="Z21" s="48"/>
-      <c r="AA21" s="48"/>
+      <c r="Q21" s="32"/>
+      <c r="R21" s="32"/>
+      <c r="S21" s="29"/>
+      <c r="T21" s="29"/>
+      <c r="U21" s="29"/>
+      <c r="V21" s="29"/>
+      <c r="W21" s="29"/>
+      <c r="X21" s="29"/>
+      <c r="Y21" s="28"/>
+      <c r="Z21" s="28"/>
+      <c r="AA21" s="28"/>
       <c r="AB21" s="4"/>
       <c r="AC21" s="4"/>
       <c r="AD21" s="4"/>
@@ -2927,41 +2918,41 @@
       <c r="BE21" s="4"/>
     </row>
     <row r="22" spans="1:57" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="61"/>
-      <c r="B22" s="63"/>
-      <c r="C22" s="61"/>
-      <c r="D22" s="62"/>
-      <c r="E22" s="62"/>
-      <c r="F22" s="62"/>
-      <c r="G22" s="63"/>
-      <c r="H22" s="69" t="s">
+      <c r="A22" s="30"/>
+      <c r="B22" s="38"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="38"/>
+      <c r="H22" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="I22" s="70"/>
-      <c r="J22" s="70"/>
-      <c r="K22" s="70"/>
-      <c r="L22" s="70"/>
-      <c r="M22" s="70"/>
-      <c r="N22" s="70"/>
-      <c r="O22" s="71"/>
-      <c r="P22" s="61"/>
-      <c r="Q22" s="62"/>
-      <c r="R22" s="79"/>
-      <c r="S22" s="51">
+      <c r="I22" s="40"/>
+      <c r="J22" s="40"/>
+      <c r="K22" s="40"/>
+      <c r="L22" s="40"/>
+      <c r="M22" s="40"/>
+      <c r="N22" s="40"/>
+      <c r="O22" s="41"/>
+      <c r="P22" s="30"/>
+      <c r="Q22" s="31"/>
+      <c r="R22" s="42"/>
+      <c r="S22" s="29">
         <v>45085</v>
       </c>
-      <c r="T22" s="51"/>
-      <c r="U22" s="51"/>
-      <c r="V22" s="51">
+      <c r="T22" s="29"/>
+      <c r="U22" s="29"/>
+      <c r="V22" s="29">
         <v>45100</v>
       </c>
-      <c r="W22" s="51"/>
-      <c r="X22" s="51"/>
-      <c r="Y22" s="48" t="s">
+      <c r="W22" s="29"/>
+      <c r="X22" s="29"/>
+      <c r="Y22" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="Z22" s="48"/>
-      <c r="AA22" s="48"/>
+      <c r="Z22" s="28"/>
+      <c r="AA22" s="28"/>
       <c r="AB22" s="4"/>
       <c r="AC22" s="4"/>
       <c r="AD22" s="4"/>
@@ -2996,31 +2987,31 @@
     <row r="23" spans="1:57" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="10"/>
       <c r="B23" s="11"/>
-      <c r="C23" s="61"/>
-      <c r="D23" s="62"/>
-      <c r="E23" s="62"/>
-      <c r="F23" s="62"/>
-      <c r="G23" s="63"/>
-      <c r="H23" s="61"/>
-      <c r="I23" s="62"/>
-      <c r="J23" s="62"/>
-      <c r="K23" s="62"/>
-      <c r="L23" s="62"/>
-      <c r="M23" s="62"/>
-      <c r="N23" s="62"/>
-      <c r="O23" s="63"/>
-      <c r="P23" s="61"/>
-      <c r="Q23" s="62"/>
-      <c r="R23" s="63"/>
-      <c r="S23" s="66"/>
-      <c r="T23" s="67"/>
-      <c r="U23" s="68"/>
-      <c r="V23" s="66"/>
-      <c r="W23" s="67"/>
-      <c r="X23" s="68"/>
-      <c r="Y23" s="61"/>
-      <c r="Z23" s="62"/>
-      <c r="AA23" s="63"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="38"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="31"/>
+      <c r="J23" s="31"/>
+      <c r="K23" s="31"/>
+      <c r="L23" s="31"/>
+      <c r="M23" s="31"/>
+      <c r="N23" s="31"/>
+      <c r="O23" s="38"/>
+      <c r="P23" s="30"/>
+      <c r="Q23" s="31"/>
+      <c r="R23" s="38"/>
+      <c r="S23" s="43"/>
+      <c r="T23" s="44"/>
+      <c r="U23" s="45"/>
+      <c r="V23" s="43"/>
+      <c r="W23" s="44"/>
+      <c r="X23" s="45"/>
+      <c r="Y23" s="30"/>
+      <c r="Z23" s="31"/>
+      <c r="AA23" s="38"/>
       <c r="AB23" s="4"/>
       <c r="AC23" s="4"/>
       <c r="AD23" s="4"/>
@@ -3053,41 +3044,41 @@
       <c r="BE23" s="4"/>
     </row>
     <row r="24" spans="1:57" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="48"/>
-      <c r="B24" s="48"/>
-      <c r="C24" s="49" t="s">
+      <c r="A24" s="28"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="D24" s="49"/>
-      <c r="E24" s="49"/>
-      <c r="F24" s="49"/>
-      <c r="G24" s="49"/>
-      <c r="H24" s="49"/>
-      <c r="I24" s="49"/>
-      <c r="J24" s="49"/>
-      <c r="K24" s="49"/>
-      <c r="L24" s="49"/>
-      <c r="M24" s="49"/>
-      <c r="N24" s="49"/>
-      <c r="O24" s="49"/>
-      <c r="P24" s="49" t="s">
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="32"/>
+      <c r="I24" s="32"/>
+      <c r="J24" s="32"/>
+      <c r="K24" s="32"/>
+      <c r="L24" s="32"/>
+      <c r="M24" s="32"/>
+      <c r="N24" s="32"/>
+      <c r="O24" s="32"/>
+      <c r="P24" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="Q24" s="49"/>
-      <c r="R24" s="49"/>
-      <c r="S24" s="51">
+      <c r="Q24" s="32"/>
+      <c r="R24" s="32"/>
+      <c r="S24" s="29">
         <v>45089</v>
       </c>
-      <c r="T24" s="51"/>
-      <c r="U24" s="51"/>
-      <c r="V24" s="51">
+      <c r="T24" s="29"/>
+      <c r="U24" s="29"/>
+      <c r="V24" s="29">
         <v>45100</v>
       </c>
-      <c r="W24" s="51"/>
-      <c r="X24" s="51"/>
-      <c r="Y24" s="48"/>
-      <c r="Z24" s="48"/>
-      <c r="AA24" s="48"/>
+      <c r="W24" s="29"/>
+      <c r="X24" s="29"/>
+      <c r="Y24" s="28"/>
+      <c r="Z24" s="28"/>
+      <c r="AA24" s="28"/>
       <c r="AB24" s="4"/>
       <c r="AC24" s="4"/>
       <c r="AD24" s="4"/>
@@ -3099,18 +3090,18 @@
       <c r="AJ24" s="12"/>
       <c r="AK24" s="4"/>
       <c r="AL24" s="4"/>
-      <c r="AM24" s="17"/>
-      <c r="AN24" s="17"/>
-      <c r="AO24" s="17"/>
-      <c r="AP24" s="17"/>
-      <c r="AQ24" s="17"/>
-      <c r="AR24" s="17"/>
-      <c r="AS24" s="17"/>
-      <c r="AT24" s="17"/>
-      <c r="AU24" s="17"/>
-      <c r="AV24" s="17"/>
-      <c r="AW24" s="17"/>
-      <c r="AX24" s="17"/>
+      <c r="AM24" s="16"/>
+      <c r="AN24" s="16"/>
+      <c r="AO24" s="16"/>
+      <c r="AP24" s="16"/>
+      <c r="AQ24" s="16"/>
+      <c r="AR24" s="16"/>
+      <c r="AS24" s="16"/>
+      <c r="AT24" s="16"/>
+      <c r="AU24" s="16"/>
+      <c r="AV24" s="16"/>
+      <c r="AW24" s="16"/>
+      <c r="AX24" s="16"/>
       <c r="AY24" s="4"/>
       <c r="AZ24" s="4"/>
       <c r="BA24" s="4"/>
@@ -3120,33 +3111,33 @@
       <c r="BE24" s="4"/>
     </row>
     <row r="25" spans="1:57" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="48"/>
-      <c r="B25" s="48"/>
-      <c r="C25" s="49"/>
-      <c r="D25" s="49"/>
-      <c r="E25" s="49"/>
-      <c r="F25" s="49"/>
-      <c r="G25" s="49"/>
-      <c r="H25" s="49"/>
-      <c r="I25" s="49"/>
-      <c r="J25" s="49"/>
-      <c r="K25" s="49"/>
-      <c r="L25" s="49"/>
-      <c r="M25" s="49"/>
-      <c r="N25" s="49"/>
-      <c r="O25" s="49"/>
-      <c r="P25" s="49"/>
-      <c r="Q25" s="49"/>
-      <c r="R25" s="49"/>
-      <c r="S25" s="51"/>
-      <c r="T25" s="51"/>
-      <c r="U25" s="51"/>
-      <c r="V25" s="51"/>
-      <c r="W25" s="51"/>
-      <c r="X25" s="51"/>
-      <c r="Y25" s="48"/>
-      <c r="Z25" s="48"/>
-      <c r="AA25" s="48"/>
+      <c r="A25" s="28"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="32"/>
+      <c r="I25" s="32"/>
+      <c r="J25" s="32"/>
+      <c r="K25" s="32"/>
+      <c r="L25" s="32"/>
+      <c r="M25" s="32"/>
+      <c r="N25" s="32"/>
+      <c r="O25" s="32"/>
+      <c r="P25" s="32"/>
+      <c r="Q25" s="32"/>
+      <c r="R25" s="32"/>
+      <c r="S25" s="29"/>
+      <c r="T25" s="29"/>
+      <c r="U25" s="29"/>
+      <c r="V25" s="29"/>
+      <c r="W25" s="29"/>
+      <c r="X25" s="29"/>
+      <c r="Y25" s="28"/>
+      <c r="Z25" s="28"/>
+      <c r="AA25" s="28"/>
       <c r="AB25" s="4"/>
       <c r="AC25" s="4"/>
       <c r="AD25" s="4"/>
@@ -3154,8 +3145,8 @@
       <c r="AF25" s="4"/>
       <c r="AG25" s="4"/>
       <c r="AH25" s="4"/>
-      <c r="AI25" s="19"/>
-      <c r="AJ25" s="18"/>
+      <c r="AI25" s="18"/>
+      <c r="AJ25" s="17"/>
       <c r="AK25" s="4"/>
       <c r="AL25" s="4"/>
       <c r="AM25" s="4"/>
@@ -3179,33 +3170,33 @@
       <c r="BE25" s="4"/>
     </row>
     <row r="26" spans="1:57" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="48"/>
-      <c r="B26" s="48"/>
-      <c r="C26" s="49"/>
-      <c r="D26" s="49"/>
-      <c r="E26" s="49"/>
-      <c r="F26" s="49"/>
-      <c r="G26" s="49"/>
-      <c r="H26" s="49"/>
-      <c r="I26" s="49"/>
-      <c r="J26" s="49"/>
-      <c r="K26" s="49"/>
-      <c r="L26" s="49"/>
-      <c r="M26" s="49"/>
-      <c r="N26" s="49"/>
-      <c r="O26" s="49"/>
-      <c r="P26" s="49"/>
-      <c r="Q26" s="49"/>
-      <c r="R26" s="49"/>
-      <c r="S26" s="51"/>
-      <c r="T26" s="51"/>
-      <c r="U26" s="51"/>
-      <c r="V26" s="51"/>
-      <c r="W26" s="51"/>
-      <c r="X26" s="51"/>
-      <c r="Y26" s="48"/>
-      <c r="Z26" s="48"/>
-      <c r="AA26" s="48"/>
+      <c r="A26" s="28"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="32"/>
+      <c r="I26" s="32"/>
+      <c r="J26" s="32"/>
+      <c r="K26" s="32"/>
+      <c r="L26" s="32"/>
+      <c r="M26" s="32"/>
+      <c r="N26" s="32"/>
+      <c r="O26" s="32"/>
+      <c r="P26" s="32"/>
+      <c r="Q26" s="32"/>
+      <c r="R26" s="32"/>
+      <c r="S26" s="29"/>
+      <c r="T26" s="29"/>
+      <c r="U26" s="29"/>
+      <c r="V26" s="29"/>
+      <c r="W26" s="29"/>
+      <c r="X26" s="29"/>
+      <c r="Y26" s="28"/>
+      <c r="Z26" s="28"/>
+      <c r="AA26" s="28"/>
       <c r="AB26" s="4"/>
       <c r="AC26" s="4"/>
       <c r="AD26" s="4"/>
@@ -3213,7 +3204,7 @@
       <c r="AF26" s="4"/>
       <c r="AG26" s="4"/>
       <c r="AH26" s="4"/>
-      <c r="AI26" s="20"/>
+      <c r="AI26" s="19"/>
       <c r="AK26" s="4"/>
       <c r="AL26" s="4"/>
       <c r="AM26" s="4"/>
@@ -3237,41 +3228,41 @@
       <c r="BE26" s="4"/>
     </row>
     <row r="27" spans="1:57" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="48"/>
-      <c r="B27" s="48"/>
-      <c r="C27" s="49" t="s">
+      <c r="A27" s="28"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="D27" s="49"/>
-      <c r="E27" s="49"/>
-      <c r="F27" s="49"/>
-      <c r="G27" s="49"/>
-      <c r="H27" s="49"/>
-      <c r="I27" s="49"/>
-      <c r="J27" s="49"/>
-      <c r="K27" s="49"/>
-      <c r="L27" s="49"/>
-      <c r="M27" s="49"/>
-      <c r="N27" s="49"/>
-      <c r="O27" s="49"/>
-      <c r="P27" s="49" t="s">
+      <c r="D27" s="32"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="32"/>
+      <c r="I27" s="32"/>
+      <c r="J27" s="32"/>
+      <c r="K27" s="32"/>
+      <c r="L27" s="32"/>
+      <c r="M27" s="32"/>
+      <c r="N27" s="32"/>
+      <c r="O27" s="32"/>
+      <c r="P27" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="Q27" s="49"/>
-      <c r="R27" s="49"/>
-      <c r="S27" s="51">
+      <c r="Q27" s="32"/>
+      <c r="R27" s="32"/>
+      <c r="S27" s="29">
         <v>45096</v>
       </c>
-      <c r="T27" s="51"/>
-      <c r="U27" s="51"/>
-      <c r="V27" s="51">
+      <c r="T27" s="29"/>
+      <c r="U27" s="29"/>
+      <c r="V27" s="29">
         <v>45100</v>
       </c>
-      <c r="W27" s="51"/>
-      <c r="X27" s="51"/>
-      <c r="Y27" s="48"/>
-      <c r="Z27" s="48"/>
-      <c r="AA27" s="48"/>
+      <c r="W27" s="29"/>
+      <c r="X27" s="29"/>
+      <c r="Y27" s="28"/>
+      <c r="Z27" s="28"/>
+      <c r="AA27" s="28"/>
       <c r="AB27" s="4"/>
       <c r="AC27" s="4"/>
       <c r="AD27" s="4"/>
@@ -3304,41 +3295,41 @@
       <c r="BE27" s="4"/>
     </row>
     <row r="28" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="48"/>
-      <c r="B28" s="48"/>
-      <c r="C28" s="49" t="s">
+      <c r="A28" s="28"/>
+      <c r="B28" s="28"/>
+      <c r="C28" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="D28" s="49"/>
-      <c r="E28" s="49"/>
-      <c r="F28" s="49"/>
-      <c r="G28" s="49"/>
-      <c r="H28" s="49"/>
-      <c r="I28" s="49"/>
-      <c r="J28" s="49"/>
-      <c r="K28" s="49"/>
-      <c r="L28" s="49"/>
-      <c r="M28" s="49"/>
-      <c r="N28" s="49"/>
-      <c r="O28" s="49"/>
-      <c r="P28" s="49" t="s">
+      <c r="D28" s="32"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="32"/>
+      <c r="I28" s="32"/>
+      <c r="J28" s="32"/>
+      <c r="K28" s="32"/>
+      <c r="L28" s="32"/>
+      <c r="M28" s="32"/>
+      <c r="N28" s="32"/>
+      <c r="O28" s="32"/>
+      <c r="P28" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="Q28" s="49"/>
-      <c r="R28" s="49"/>
-      <c r="S28" s="51">
+      <c r="Q28" s="32"/>
+      <c r="R28" s="32"/>
+      <c r="S28" s="29">
         <v>45096</v>
       </c>
-      <c r="T28" s="51"/>
-      <c r="U28" s="51"/>
-      <c r="V28" s="51">
+      <c r="T28" s="29"/>
+      <c r="U28" s="29"/>
+      <c r="V28" s="29">
         <v>45100</v>
       </c>
-      <c r="W28" s="51"/>
-      <c r="X28" s="51"/>
-      <c r="Y28" s="48"/>
-      <c r="Z28" s="48"/>
-      <c r="AA28" s="48"/>
+      <c r="W28" s="29"/>
+      <c r="X28" s="29"/>
+      <c r="Y28" s="28"/>
+      <c r="Z28" s="28"/>
+      <c r="AA28" s="28"/>
       <c r="AB28" s="4"/>
       <c r="AC28" s="4"/>
       <c r="AD28" s="4"/>
@@ -3350,17 +3341,17 @@
       <c r="AJ28" s="4"/>
       <c r="AK28" s="4"/>
       <c r="AL28" s="12"/>
-      <c r="AM28" s="21"/>
-      <c r="AN28" s="22"/>
-      <c r="AO28" s="22"/>
-      <c r="AP28" s="23"/>
-      <c r="AQ28" s="22"/>
-      <c r="AR28" s="22"/>
-      <c r="AS28" s="22"/>
-      <c r="AT28" s="22"/>
-      <c r="AU28" s="22"/>
-      <c r="AV28" s="22"/>
-      <c r="AW28" s="22"/>
+      <c r="AM28" s="20"/>
+      <c r="AN28" s="21"/>
+      <c r="AO28" s="21"/>
+      <c r="AP28" s="22"/>
+      <c r="AQ28" s="21"/>
+      <c r="AR28" s="21"/>
+      <c r="AS28" s="21"/>
+      <c r="AT28" s="21"/>
+      <c r="AU28" s="21"/>
+      <c r="AV28" s="21"/>
+      <c r="AW28" s="21"/>
       <c r="AY28" s="4"/>
       <c r="AZ28" s="4"/>
       <c r="BA28" s="4"/>
@@ -3370,41 +3361,41 @@
       <c r="BE28" s="4"/>
     </row>
     <row r="29" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="48"/>
-      <c r="B29" s="48"/>
-      <c r="C29" s="49" t="s">
+      <c r="A29" s="28"/>
+      <c r="B29" s="28"/>
+      <c r="C29" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="D29" s="49"/>
-      <c r="E29" s="49"/>
-      <c r="F29" s="49"/>
-      <c r="G29" s="49"/>
-      <c r="H29" s="49"/>
-      <c r="I29" s="49"/>
-      <c r="J29" s="49"/>
-      <c r="K29" s="49"/>
-      <c r="L29" s="49"/>
-      <c r="M29" s="49"/>
-      <c r="N29" s="49"/>
-      <c r="O29" s="49"/>
-      <c r="P29" s="49" t="s">
+      <c r="D29" s="32"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="32"/>
+      <c r="H29" s="32"/>
+      <c r="I29" s="32"/>
+      <c r="J29" s="32"/>
+      <c r="K29" s="32"/>
+      <c r="L29" s="32"/>
+      <c r="M29" s="32"/>
+      <c r="N29" s="32"/>
+      <c r="O29" s="32"/>
+      <c r="P29" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="Q29" s="49"/>
-      <c r="R29" s="49"/>
-      <c r="S29" s="51">
+      <c r="Q29" s="32"/>
+      <c r="R29" s="32"/>
+      <c r="S29" s="29">
         <v>45103</v>
       </c>
-      <c r="T29" s="51"/>
-      <c r="U29" s="51"/>
-      <c r="V29" s="51">
+      <c r="T29" s="29"/>
+      <c r="U29" s="29"/>
+      <c r="V29" s="29">
         <v>45105</v>
       </c>
-      <c r="W29" s="51"/>
-      <c r="X29" s="51"/>
-      <c r="Y29" s="48"/>
-      <c r="Z29" s="48"/>
-      <c r="AA29" s="48"/>
+      <c r="W29" s="29"/>
+      <c r="X29" s="29"/>
+      <c r="Y29" s="28"/>
+      <c r="Z29" s="28"/>
+      <c r="AA29" s="28"/>
       <c r="AB29" s="4"/>
       <c r="AC29" s="4"/>
       <c r="AD29" s="4"/>
@@ -3437,41 +3428,41 @@
       <c r="BE29" s="4"/>
     </row>
     <row r="30" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="48"/>
-      <c r="B30" s="48"/>
-      <c r="C30" s="49" t="s">
+      <c r="A30" s="28"/>
+      <c r="B30" s="28"/>
+      <c r="C30" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="D30" s="49"/>
-      <c r="E30" s="49"/>
-      <c r="F30" s="49"/>
-      <c r="G30" s="49"/>
-      <c r="H30" s="49"/>
-      <c r="I30" s="49"/>
-      <c r="J30" s="49"/>
-      <c r="K30" s="49"/>
-      <c r="L30" s="49"/>
-      <c r="M30" s="49"/>
-      <c r="N30" s="49"/>
-      <c r="O30" s="49"/>
-      <c r="P30" s="49" t="s">
+      <c r="D30" s="32"/>
+      <c r="E30" s="32"/>
+      <c r="F30" s="32"/>
+      <c r="G30" s="32"/>
+      <c r="H30" s="32"/>
+      <c r="I30" s="32"/>
+      <c r="J30" s="32"/>
+      <c r="K30" s="32"/>
+      <c r="L30" s="32"/>
+      <c r="M30" s="32"/>
+      <c r="N30" s="32"/>
+      <c r="O30" s="32"/>
+      <c r="P30" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="Q30" s="49"/>
-      <c r="R30" s="49"/>
-      <c r="S30" s="51">
+      <c r="Q30" s="32"/>
+      <c r="R30" s="32"/>
+      <c r="S30" s="29">
         <v>45089</v>
       </c>
-      <c r="T30" s="51"/>
-      <c r="U30" s="51"/>
-      <c r="V30" s="51">
+      <c r="T30" s="29"/>
+      <c r="U30" s="29"/>
+      <c r="V30" s="29">
         <v>45105</v>
       </c>
-      <c r="W30" s="51"/>
-      <c r="X30" s="51"/>
-      <c r="Y30" s="48"/>
-      <c r="Z30" s="48"/>
-      <c r="AA30" s="48"/>
+      <c r="W30" s="29"/>
+      <c r="X30" s="29"/>
+      <c r="Y30" s="28"/>
+      <c r="Z30" s="28"/>
+      <c r="AA30" s="28"/>
       <c r="AB30" s="4"/>
       <c r="AC30" s="4"/>
       <c r="AD30" s="4"/>
@@ -3504,33 +3495,33 @@
       <c r="BE30" s="4"/>
     </row>
     <row r="31" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="48"/>
-      <c r="B31" s="48"/>
-      <c r="C31" s="49"/>
-      <c r="D31" s="49"/>
-      <c r="E31" s="49"/>
-      <c r="F31" s="49"/>
-      <c r="G31" s="49"/>
-      <c r="H31" s="49"/>
-      <c r="I31" s="49"/>
-      <c r="J31" s="49"/>
-      <c r="K31" s="49"/>
-      <c r="L31" s="49"/>
-      <c r="M31" s="49"/>
-      <c r="N31" s="49"/>
-      <c r="O31" s="49"/>
-      <c r="P31" s="49"/>
-      <c r="Q31" s="49"/>
-      <c r="R31" s="49"/>
-      <c r="S31" s="51"/>
-      <c r="T31" s="51"/>
-      <c r="U31" s="51"/>
-      <c r="V31" s="51"/>
-      <c r="W31" s="51"/>
-      <c r="X31" s="51"/>
-      <c r="Y31" s="48"/>
-      <c r="Z31" s="48"/>
-      <c r="AA31" s="48"/>
+      <c r="A31" s="28"/>
+      <c r="B31" s="28"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="32"/>
+      <c r="G31" s="32"/>
+      <c r="H31" s="32"/>
+      <c r="I31" s="32"/>
+      <c r="J31" s="32"/>
+      <c r="K31" s="32"/>
+      <c r="L31" s="32"/>
+      <c r="M31" s="32"/>
+      <c r="N31" s="32"/>
+      <c r="O31" s="32"/>
+      <c r="P31" s="32"/>
+      <c r="Q31" s="32"/>
+      <c r="R31" s="32"/>
+      <c r="S31" s="29"/>
+      <c r="T31" s="29"/>
+      <c r="U31" s="29"/>
+      <c r="V31" s="29"/>
+      <c r="W31" s="29"/>
+      <c r="X31" s="29"/>
+      <c r="Y31" s="28"/>
+      <c r="Z31" s="28"/>
+      <c r="AA31" s="28"/>
       <c r="AB31" s="4"/>
       <c r="AC31" s="4"/>
       <c r="AD31" s="4"/>
@@ -3563,35 +3554,35 @@
       <c r="BE31" s="4"/>
     </row>
     <row r="32" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="48"/>
-      <c r="B32" s="48"/>
-      <c r="C32" s="49" t="s">
+      <c r="A32" s="28"/>
+      <c r="B32" s="28"/>
+      <c r="C32" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="D32" s="49"/>
-      <c r="E32" s="49"/>
-      <c r="F32" s="49"/>
-      <c r="G32" s="49"/>
-      <c r="H32" s="49"/>
-      <c r="I32" s="49"/>
-      <c r="J32" s="49"/>
-      <c r="K32" s="49"/>
-      <c r="L32" s="49"/>
-      <c r="M32" s="49"/>
-      <c r="N32" s="49"/>
-      <c r="O32" s="49"/>
-      <c r="P32" s="49"/>
-      <c r="Q32" s="49"/>
-      <c r="R32" s="49"/>
-      <c r="S32" s="51"/>
-      <c r="T32" s="51"/>
-      <c r="U32" s="51"/>
-      <c r="V32" s="51"/>
-      <c r="W32" s="51"/>
-      <c r="X32" s="51"/>
-      <c r="Y32" s="48"/>
-      <c r="Z32" s="48"/>
-      <c r="AA32" s="48"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="32"/>
+      <c r="G32" s="32"/>
+      <c r="H32" s="32"/>
+      <c r="I32" s="32"/>
+      <c r="J32" s="32"/>
+      <c r="K32" s="32"/>
+      <c r="L32" s="32"/>
+      <c r="M32" s="32"/>
+      <c r="N32" s="32"/>
+      <c r="O32" s="32"/>
+      <c r="P32" s="32"/>
+      <c r="Q32" s="32"/>
+      <c r="R32" s="32"/>
+      <c r="S32" s="29"/>
+      <c r="T32" s="29"/>
+      <c r="U32" s="29"/>
+      <c r="V32" s="29"/>
+      <c r="W32" s="29"/>
+      <c r="X32" s="29"/>
+      <c r="Y32" s="28"/>
+      <c r="Z32" s="28"/>
+      <c r="AA32" s="28"/>
       <c r="AB32" s="4"/>
       <c r="AC32" s="4"/>
       <c r="AD32" s="4"/>
@@ -3624,33 +3615,33 @@
       <c r="BE32" s="9"/>
     </row>
     <row r="33" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="48"/>
-      <c r="B33" s="48"/>
-      <c r="C33" s="49"/>
-      <c r="D33" s="49"/>
-      <c r="E33" s="49"/>
-      <c r="F33" s="49"/>
-      <c r="G33" s="49"/>
-      <c r="H33" s="49"/>
-      <c r="I33" s="49"/>
-      <c r="J33" s="49"/>
-      <c r="K33" s="49"/>
-      <c r="L33" s="49"/>
-      <c r="M33" s="49"/>
-      <c r="N33" s="49"/>
-      <c r="O33" s="49"/>
-      <c r="P33" s="49"/>
-      <c r="Q33" s="49"/>
-      <c r="R33" s="49"/>
-      <c r="S33" s="51"/>
-      <c r="T33" s="51"/>
-      <c r="U33" s="51"/>
-      <c r="V33" s="51"/>
-      <c r="W33" s="51"/>
-      <c r="X33" s="51"/>
-      <c r="Y33" s="48"/>
-      <c r="Z33" s="48"/>
-      <c r="AA33" s="48"/>
+      <c r="A33" s="28"/>
+      <c r="B33" s="28"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="32"/>
+      <c r="G33" s="32"/>
+      <c r="H33" s="32"/>
+      <c r="I33" s="32"/>
+      <c r="J33" s="32"/>
+      <c r="K33" s="32"/>
+      <c r="L33" s="32"/>
+      <c r="M33" s="32"/>
+      <c r="N33" s="32"/>
+      <c r="O33" s="32"/>
+      <c r="P33" s="32"/>
+      <c r="Q33" s="32"/>
+      <c r="R33" s="32"/>
+      <c r="S33" s="29"/>
+      <c r="T33" s="29"/>
+      <c r="U33" s="29"/>
+      <c r="V33" s="29"/>
+      <c r="W33" s="29"/>
+      <c r="X33" s="29"/>
+      <c r="Y33" s="28"/>
+      <c r="Z33" s="28"/>
+      <c r="AA33" s="28"/>
       <c r="AB33" s="4"/>
       <c r="AC33" s="4"/>
       <c r="AD33" s="4"/>
@@ -3680,36 +3671,36 @@
       <c r="BB33" s="12"/>
       <c r="BC33" s="12"/>
       <c r="BD33" s="12"/>
-      <c r="BE33" s="21"/>
+      <c r="BE33" s="20"/>
     </row>
     <row r="34" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="48"/>
-      <c r="B34" s="48"/>
-      <c r="C34" s="49"/>
-      <c r="D34" s="49"/>
-      <c r="E34" s="49"/>
-      <c r="F34" s="49"/>
-      <c r="G34" s="49"/>
-      <c r="H34" s="49"/>
-      <c r="I34" s="49"/>
-      <c r="J34" s="49"/>
-      <c r="K34" s="49"/>
-      <c r="L34" s="49"/>
-      <c r="M34" s="49"/>
-      <c r="N34" s="49"/>
-      <c r="O34" s="49"/>
-      <c r="P34" s="49"/>
-      <c r="Q34" s="49"/>
-      <c r="R34" s="49"/>
-      <c r="S34" s="51"/>
-      <c r="T34" s="51"/>
-      <c r="U34" s="51"/>
-      <c r="V34" s="51"/>
-      <c r="W34" s="51"/>
-      <c r="X34" s="51"/>
-      <c r="Y34" s="48"/>
-      <c r="Z34" s="48"/>
-      <c r="AA34" s="48"/>
+      <c r="A34" s="28"/>
+      <c r="B34" s="28"/>
+      <c r="C34" s="32"/>
+      <c r="D34" s="32"/>
+      <c r="E34" s="32"/>
+      <c r="F34" s="32"/>
+      <c r="G34" s="32"/>
+      <c r="H34" s="32"/>
+      <c r="I34" s="32"/>
+      <c r="J34" s="32"/>
+      <c r="K34" s="32"/>
+      <c r="L34" s="32"/>
+      <c r="M34" s="32"/>
+      <c r="N34" s="32"/>
+      <c r="O34" s="32"/>
+      <c r="P34" s="32"/>
+      <c r="Q34" s="32"/>
+      <c r="R34" s="32"/>
+      <c r="S34" s="29"/>
+      <c r="T34" s="29"/>
+      <c r="U34" s="29"/>
+      <c r="V34" s="29"/>
+      <c r="W34" s="29"/>
+      <c r="X34" s="29"/>
+      <c r="Y34" s="28"/>
+      <c r="Z34" s="28"/>
+      <c r="AA34" s="28"/>
       <c r="AB34" s="4"/>
       <c r="AC34" s="4"/>
       <c r="AD34" s="4"/>
@@ -3742,33 +3733,33 @@
       <c r="BE34" s="4"/>
     </row>
     <row r="35" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="48"/>
-      <c r="B35" s="48"/>
-      <c r="C35" s="49"/>
-      <c r="D35" s="49"/>
-      <c r="E35" s="49"/>
-      <c r="F35" s="49"/>
-      <c r="G35" s="49"/>
-      <c r="H35" s="49"/>
-      <c r="I35" s="49"/>
-      <c r="J35" s="49"/>
-      <c r="K35" s="49"/>
-      <c r="L35" s="49"/>
-      <c r="M35" s="49"/>
-      <c r="N35" s="49"/>
-      <c r="O35" s="49"/>
-      <c r="P35" s="49"/>
-      <c r="Q35" s="49"/>
-      <c r="R35" s="49"/>
-      <c r="S35" s="51"/>
-      <c r="T35" s="51"/>
-      <c r="U35" s="51"/>
-      <c r="V35" s="51"/>
-      <c r="W35" s="51"/>
-      <c r="X35" s="51"/>
-      <c r="Y35" s="48"/>
-      <c r="Z35" s="48"/>
-      <c r="AA35" s="48"/>
+      <c r="A35" s="28"/>
+      <c r="B35" s="28"/>
+      <c r="C35" s="32"/>
+      <c r="D35" s="32"/>
+      <c r="E35" s="32"/>
+      <c r="F35" s="32"/>
+      <c r="G35" s="32"/>
+      <c r="H35" s="32"/>
+      <c r="I35" s="32"/>
+      <c r="J35" s="32"/>
+      <c r="K35" s="32"/>
+      <c r="L35" s="32"/>
+      <c r="M35" s="32"/>
+      <c r="N35" s="32"/>
+      <c r="O35" s="32"/>
+      <c r="P35" s="32"/>
+      <c r="Q35" s="32"/>
+      <c r="R35" s="32"/>
+      <c r="S35" s="29"/>
+      <c r="T35" s="29"/>
+      <c r="U35" s="29"/>
+      <c r="V35" s="29"/>
+      <c r="W35" s="29"/>
+      <c r="X35" s="29"/>
+      <c r="Y35" s="28"/>
+      <c r="Z35" s="28"/>
+      <c r="AA35" s="28"/>
       <c r="AB35" s="4"/>
       <c r="AC35" s="4"/>
       <c r="AD35" s="4"/>
@@ -3813,54 +3804,144 @@
     <row r="46" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="210">
-    <mergeCell ref="Y12:AA12"/>
-    <mergeCell ref="V12:X12"/>
-    <mergeCell ref="S12:U12"/>
-    <mergeCell ref="P18:R18"/>
-    <mergeCell ref="S18:U18"/>
-    <mergeCell ref="V18:X18"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="Y17:AA17"/>
-    <mergeCell ref="Y10:AA10"/>
-    <mergeCell ref="H17:O17"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="H7:O7"/>
-    <mergeCell ref="P7:R7"/>
-    <mergeCell ref="S7:U7"/>
-    <mergeCell ref="V7:X7"/>
-    <mergeCell ref="Y7:AA7"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="H9:O9"/>
-    <mergeCell ref="P9:R9"/>
-    <mergeCell ref="S9:U9"/>
-    <mergeCell ref="V9:X9"/>
-    <mergeCell ref="Y9:AA9"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="H8:O8"/>
-    <mergeCell ref="P8:R8"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="V8:X8"/>
-    <mergeCell ref="Y8:AA8"/>
-    <mergeCell ref="Y34:AA34"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="H33:O33"/>
-    <mergeCell ref="P33:R33"/>
-    <mergeCell ref="S33:U33"/>
-    <mergeCell ref="V33:X33"/>
-    <mergeCell ref="Y31:AA31"/>
-    <mergeCell ref="Y32:AA32"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="H31:O31"/>
-    <mergeCell ref="P31:R31"/>
-    <mergeCell ref="S31:U31"/>
-    <mergeCell ref="V31:X31"/>
-    <mergeCell ref="H32:O32"/>
-    <mergeCell ref="P32:R32"/>
-    <mergeCell ref="S32:U32"/>
-    <mergeCell ref="V32:X32"/>
+    <mergeCell ref="A1:G2"/>
+    <mergeCell ref="AH1:AN1"/>
+    <mergeCell ref="AH2:AN2"/>
+    <mergeCell ref="AD1:AG1"/>
+    <mergeCell ref="AD2:AG2"/>
+    <mergeCell ref="Y4:AA6"/>
+    <mergeCell ref="C5:G6"/>
+    <mergeCell ref="H5:O6"/>
+    <mergeCell ref="S5:U6"/>
+    <mergeCell ref="V5:X6"/>
+    <mergeCell ref="A4:B6"/>
+    <mergeCell ref="C4:O4"/>
+    <mergeCell ref="P4:R6"/>
+    <mergeCell ref="S4:X4"/>
+    <mergeCell ref="H1:AC2"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="Y11:AA11"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="H11:O11"/>
+    <mergeCell ref="P11:R11"/>
+    <mergeCell ref="S11:U11"/>
+    <mergeCell ref="V11:X11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H13:O13"/>
+    <mergeCell ref="P12:R12"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="V13:X13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:O14"/>
+    <mergeCell ref="P14:R14"/>
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="V14:X14"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H12:O12"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H16:O16"/>
+    <mergeCell ref="P16:R16"/>
+    <mergeCell ref="S16:U16"/>
+    <mergeCell ref="V16:X16"/>
+    <mergeCell ref="Y16:AA16"/>
+    <mergeCell ref="Y13:AA13"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="H15:O15"/>
+    <mergeCell ref="P15:R15"/>
+    <mergeCell ref="S15:U15"/>
+    <mergeCell ref="V15:X15"/>
+    <mergeCell ref="Y15:AA15"/>
+    <mergeCell ref="Y14:AA14"/>
+    <mergeCell ref="P13:R13"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="P17:R17"/>
+    <mergeCell ref="S17:U17"/>
+    <mergeCell ref="V17:X17"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="Y20:AA20"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="H20:O20"/>
+    <mergeCell ref="P20:R20"/>
+    <mergeCell ref="S20:U20"/>
+    <mergeCell ref="V20:X20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="H21:O21"/>
+    <mergeCell ref="S21:U21"/>
+    <mergeCell ref="V21:X21"/>
+    <mergeCell ref="Y21:AA21"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H18:O18"/>
+    <mergeCell ref="P21:R21"/>
+    <mergeCell ref="Y18:AA18"/>
+    <mergeCell ref="H19:O19"/>
+    <mergeCell ref="P19:R19"/>
+    <mergeCell ref="S19:U19"/>
+    <mergeCell ref="V19:X19"/>
+    <mergeCell ref="Y19:AA19"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:O24"/>
+    <mergeCell ref="P24:R24"/>
+    <mergeCell ref="S24:U24"/>
+    <mergeCell ref="V24:X24"/>
+    <mergeCell ref="Y24:AA24"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:O22"/>
+    <mergeCell ref="P22:R22"/>
+    <mergeCell ref="S22:U22"/>
+    <mergeCell ref="V22:X22"/>
+    <mergeCell ref="Y22:AA22"/>
+    <mergeCell ref="S23:U23"/>
+    <mergeCell ref="V23:X23"/>
+    <mergeCell ref="Y23:AA23"/>
+    <mergeCell ref="H23:O23"/>
+    <mergeCell ref="P23:R23"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="Y25:AA25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:O26"/>
+    <mergeCell ref="P26:R26"/>
+    <mergeCell ref="S26:U26"/>
+    <mergeCell ref="V26:X26"/>
+    <mergeCell ref="Y26:AA26"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="H25:O25"/>
+    <mergeCell ref="P25:R25"/>
+    <mergeCell ref="S25:U25"/>
+    <mergeCell ref="V25:X25"/>
+    <mergeCell ref="Y27:AA27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="H28:O28"/>
+    <mergeCell ref="P28:R28"/>
+    <mergeCell ref="S28:U28"/>
+    <mergeCell ref="V28:X28"/>
+    <mergeCell ref="Y28:AA28"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H27:O27"/>
+    <mergeCell ref="P27:R27"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="V27:X27"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="Y29:AA29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="H30:O30"/>
+    <mergeCell ref="P30:R30"/>
+    <mergeCell ref="S30:U30"/>
+    <mergeCell ref="V30:X30"/>
+    <mergeCell ref="Y30:AA30"/>
+    <mergeCell ref="A29:B29"/>
     <mergeCell ref="Y35:AA35"/>
     <mergeCell ref="C21:G21"/>
     <mergeCell ref="C25:G25"/>
@@ -3885,144 +3966,54 @@
     <mergeCell ref="V29:X29"/>
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="C32:G32"/>
-    <mergeCell ref="Y27:AA27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="H28:O28"/>
-    <mergeCell ref="P28:R28"/>
-    <mergeCell ref="S28:U28"/>
-    <mergeCell ref="V28:X28"/>
-    <mergeCell ref="Y28:AA28"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="H27:O27"/>
-    <mergeCell ref="P27:R27"/>
-    <mergeCell ref="S27:U27"/>
-    <mergeCell ref="V27:X27"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="Y29:AA29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="H30:O30"/>
-    <mergeCell ref="P30:R30"/>
-    <mergeCell ref="S30:U30"/>
-    <mergeCell ref="V30:X30"/>
-    <mergeCell ref="Y30:AA30"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="Y25:AA25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="H26:O26"/>
-    <mergeCell ref="P26:R26"/>
-    <mergeCell ref="S26:U26"/>
-    <mergeCell ref="V26:X26"/>
-    <mergeCell ref="Y26:AA26"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="H25:O25"/>
-    <mergeCell ref="P25:R25"/>
-    <mergeCell ref="S25:U25"/>
-    <mergeCell ref="V25:X25"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="H24:O24"/>
-    <mergeCell ref="P24:R24"/>
-    <mergeCell ref="S24:U24"/>
-    <mergeCell ref="V24:X24"/>
-    <mergeCell ref="Y24:AA24"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="H22:O22"/>
-    <mergeCell ref="P22:R22"/>
-    <mergeCell ref="S22:U22"/>
-    <mergeCell ref="V22:X22"/>
-    <mergeCell ref="Y22:AA22"/>
-    <mergeCell ref="S23:U23"/>
-    <mergeCell ref="V23:X23"/>
-    <mergeCell ref="Y23:AA23"/>
-    <mergeCell ref="H23:O23"/>
-    <mergeCell ref="P23:R23"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="H21:O21"/>
-    <mergeCell ref="S21:U21"/>
-    <mergeCell ref="V21:X21"/>
-    <mergeCell ref="Y21:AA21"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="H18:O18"/>
-    <mergeCell ref="P21:R21"/>
-    <mergeCell ref="Y18:AA18"/>
-    <mergeCell ref="H19:O19"/>
-    <mergeCell ref="P19:R19"/>
-    <mergeCell ref="S19:U19"/>
-    <mergeCell ref="V19:X19"/>
-    <mergeCell ref="Y19:AA19"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="P17:R17"/>
-    <mergeCell ref="S17:U17"/>
-    <mergeCell ref="V17:X17"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="Y20:AA20"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="H20:O20"/>
-    <mergeCell ref="P20:R20"/>
-    <mergeCell ref="S20:U20"/>
-    <mergeCell ref="V20:X20"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="H16:O16"/>
-    <mergeCell ref="P16:R16"/>
-    <mergeCell ref="S16:U16"/>
-    <mergeCell ref="V16:X16"/>
-    <mergeCell ref="Y16:AA16"/>
-    <mergeCell ref="Y13:AA13"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="H15:O15"/>
-    <mergeCell ref="P15:R15"/>
-    <mergeCell ref="S15:U15"/>
-    <mergeCell ref="V15:X15"/>
-    <mergeCell ref="Y15:AA15"/>
-    <mergeCell ref="Y14:AA14"/>
-    <mergeCell ref="P13:R13"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="H13:O13"/>
-    <mergeCell ref="P12:R12"/>
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="V13:X13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="H14:O14"/>
-    <mergeCell ref="P14:R14"/>
-    <mergeCell ref="S14:U14"/>
-    <mergeCell ref="V14:X14"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="H12:O12"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="Y11:AA11"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="H11:O11"/>
-    <mergeCell ref="P11:R11"/>
-    <mergeCell ref="S11:U11"/>
-    <mergeCell ref="V11:X11"/>
-    <mergeCell ref="A1:G2"/>
-    <mergeCell ref="AH1:AN1"/>
-    <mergeCell ref="AH2:AN2"/>
-    <mergeCell ref="AD1:AG1"/>
-    <mergeCell ref="AD2:AG2"/>
-    <mergeCell ref="Y4:AA6"/>
-    <mergeCell ref="C5:G6"/>
-    <mergeCell ref="H5:O6"/>
-    <mergeCell ref="S5:U6"/>
-    <mergeCell ref="V5:X6"/>
-    <mergeCell ref="A4:B6"/>
-    <mergeCell ref="C4:O4"/>
-    <mergeCell ref="P4:R6"/>
-    <mergeCell ref="S4:X4"/>
-    <mergeCell ref="H1:AC2"/>
+    <mergeCell ref="Y34:AA34"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="H33:O33"/>
+    <mergeCell ref="P33:R33"/>
+    <mergeCell ref="S33:U33"/>
+    <mergeCell ref="V33:X33"/>
+    <mergeCell ref="Y31:AA31"/>
+    <mergeCell ref="Y32:AA32"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H31:O31"/>
+    <mergeCell ref="P31:R31"/>
+    <mergeCell ref="S31:U31"/>
+    <mergeCell ref="V31:X31"/>
+    <mergeCell ref="H32:O32"/>
+    <mergeCell ref="P32:R32"/>
+    <mergeCell ref="S32:U32"/>
+    <mergeCell ref="V32:X32"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="H7:O7"/>
+    <mergeCell ref="P7:R7"/>
+    <mergeCell ref="S7:U7"/>
+    <mergeCell ref="V7:X7"/>
+    <mergeCell ref="Y7:AA7"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="H9:O9"/>
+    <mergeCell ref="P9:R9"/>
+    <mergeCell ref="S9:U9"/>
+    <mergeCell ref="V9:X9"/>
+    <mergeCell ref="Y9:AA9"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H8:O8"/>
+    <mergeCell ref="P8:R8"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="V8:X8"/>
+    <mergeCell ref="Y8:AA8"/>
+    <mergeCell ref="Y12:AA12"/>
+    <mergeCell ref="V12:X12"/>
+    <mergeCell ref="S12:U12"/>
+    <mergeCell ref="P18:R18"/>
+    <mergeCell ref="S18:U18"/>
+    <mergeCell ref="V18:X18"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="Y17:AA17"/>
+    <mergeCell ref="Y10:AA10"/>
+    <mergeCell ref="H17:O17"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="AC5:BE6">

--- a/doc/進捗管理表_D3.xlsx
+++ b/doc/進捗管理表_D3.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{884336BD-BD74-46E3-901D-0937841E64BC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CBDE01B-8BC5-48AF-8D01-4902171AFD43}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="20" windowWidth="14400" windowHeight="10140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="44">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -370,6 +370,10 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>java</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -483,7 +487,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -798,13 +802,78 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -889,75 +958,162 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="179" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -967,98 +1123,65 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="8">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <border>
         <left style="thin">
@@ -1377,10 +1500,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BG46"/>
+  <dimension ref="A1:BG84"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B9" zoomScale="67" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AK18" sqref="AK18"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="67" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AN31" sqref="AN31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.25" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1396,139 +1519,139 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:59" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="77" t="s">
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="78"/>
-      <c r="N1" s="78"/>
-      <c r="O1" s="78"/>
-      <c r="P1" s="78"/>
-      <c r="Q1" s="78"/>
-      <c r="R1" s="78"/>
-      <c r="S1" s="78"/>
-      <c r="T1" s="78"/>
-      <c r="U1" s="78"/>
-      <c r="V1" s="78"/>
-      <c r="W1" s="78"/>
-      <c r="X1" s="78"/>
-      <c r="Y1" s="78"/>
-      <c r="Z1" s="78"/>
-      <c r="AA1" s="78"/>
-      <c r="AB1" s="78"/>
-      <c r="AC1" s="79"/>
-      <c r="AD1" s="71" t="s">
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
+      <c r="P1" s="42"/>
+      <c r="Q1" s="42"/>
+      <c r="R1" s="42"/>
+      <c r="S1" s="42"/>
+      <c r="T1" s="42"/>
+      <c r="U1" s="42"/>
+      <c r="V1" s="42"/>
+      <c r="W1" s="42"/>
+      <c r="X1" s="42"/>
+      <c r="Y1" s="42"/>
+      <c r="Z1" s="42"/>
+      <c r="AA1" s="42"/>
+      <c r="AB1" s="42"/>
+      <c r="AC1" s="43"/>
+      <c r="AD1" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="AE1" s="72"/>
-      <c r="AF1" s="72"/>
-      <c r="AG1" s="73"/>
-      <c r="AH1" s="68">
+      <c r="AE1" s="36"/>
+      <c r="AF1" s="36"/>
+      <c r="AG1" s="37"/>
+      <c r="AH1" s="32">
         <v>45078</v>
       </c>
-      <c r="AI1" s="69"/>
-      <c r="AJ1" s="69"/>
-      <c r="AK1" s="69"/>
-      <c r="AL1" s="69"/>
-      <c r="AM1" s="69"/>
-      <c r="AN1" s="70"/>
+      <c r="AI1" s="33"/>
+      <c r="AJ1" s="33"/>
+      <c r="AK1" s="33"/>
+      <c r="AL1" s="33"/>
+      <c r="AM1" s="33"/>
+      <c r="AN1" s="34"/>
     </row>
     <row r="2" spans="1:59" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="66"/>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="80"/>
-      <c r="I2" s="81"/>
-      <c r="J2" s="81"/>
-      <c r="K2" s="81"/>
-      <c r="L2" s="81"/>
-      <c r="M2" s="81"/>
-      <c r="N2" s="81"/>
-      <c r="O2" s="81"/>
-      <c r="P2" s="81"/>
-      <c r="Q2" s="81"/>
-      <c r="R2" s="81"/>
-      <c r="S2" s="81"/>
-      <c r="T2" s="81"/>
-      <c r="U2" s="81"/>
-      <c r="V2" s="81"/>
-      <c r="W2" s="81"/>
-      <c r="X2" s="81"/>
-      <c r="Y2" s="81"/>
-      <c r="Z2" s="81"/>
-      <c r="AA2" s="81"/>
-      <c r="AB2" s="81"/>
-      <c r="AC2" s="82"/>
-      <c r="AD2" s="71" t="s">
+      <c r="A2" s="30"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="45"/>
+      <c r="O2" s="45"/>
+      <c r="P2" s="45"/>
+      <c r="Q2" s="45"/>
+      <c r="R2" s="45"/>
+      <c r="S2" s="45"/>
+      <c r="T2" s="45"/>
+      <c r="U2" s="45"/>
+      <c r="V2" s="45"/>
+      <c r="W2" s="45"/>
+      <c r="X2" s="45"/>
+      <c r="Y2" s="45"/>
+      <c r="Z2" s="45"/>
+      <c r="AA2" s="45"/>
+      <c r="AB2" s="45"/>
+      <c r="AC2" s="46"/>
+      <c r="AD2" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="AE2" s="72"/>
-      <c r="AF2" s="72"/>
-      <c r="AG2" s="73"/>
-      <c r="AH2" s="68">
+      <c r="AE2" s="36"/>
+      <c r="AF2" s="36"/>
+      <c r="AG2" s="37"/>
+      <c r="AH2" s="32">
         <v>45107</v>
       </c>
-      <c r="AI2" s="69"/>
-      <c r="AJ2" s="69"/>
-      <c r="AK2" s="69"/>
-      <c r="AL2" s="69"/>
-      <c r="AM2" s="69"/>
-      <c r="AN2" s="70"/>
+      <c r="AI2" s="33"/>
+      <c r="AJ2" s="33"/>
+      <c r="AK2" s="33"/>
+      <c r="AL2" s="33"/>
+      <c r="AM2" s="33"/>
+      <c r="AN2" s="34"/>
     </row>
     <row r="4" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="75" t="s">
+      <c r="A4" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="75"/>
-      <c r="C4" s="76" t="s">
+      <c r="B4" s="39"/>
+      <c r="C4" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76"/>
-      <c r="K4" s="76"/>
-      <c r="L4" s="76"/>
-      <c r="M4" s="76"/>
-      <c r="N4" s="76"/>
-      <c r="O4" s="76"/>
-      <c r="P4" s="75" t="s">
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="40"/>
+      <c r="N4" s="40"/>
+      <c r="O4" s="40"/>
+      <c r="P4" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="Q4" s="75"/>
-      <c r="R4" s="75"/>
-      <c r="S4" s="75" t="s">
+      <c r="Q4" s="39"/>
+      <c r="R4" s="39"/>
+      <c r="S4" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="T4" s="75"/>
-      <c r="U4" s="75"/>
-      <c r="V4" s="75"/>
-      <c r="W4" s="75"/>
-      <c r="X4" s="75"/>
-      <c r="Y4" s="74" t="s">
+      <c r="T4" s="39"/>
+      <c r="U4" s="39"/>
+      <c r="V4" s="39"/>
+      <c r="W4" s="39"/>
+      <c r="X4" s="39"/>
+      <c r="Y4" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="Z4" s="74"/>
-      <c r="AA4" s="74"/>
+      <c r="Z4" s="38"/>
+      <c r="AA4" s="38"/>
       <c r="AB4" s="7">
         <f>AH1</f>
         <v>45078</v>
@@ -1653,41 +1776,41 @@
       <c r="BG4" s="3"/>
     </row>
     <row r="5" spans="1:59" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="75"/>
-      <c r="B5" s="75"/>
-      <c r="C5" s="75" t="s">
+      <c r="A5" s="39"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="75"/>
-      <c r="E5" s="75"/>
-      <c r="F5" s="75"/>
-      <c r="G5" s="75"/>
-      <c r="H5" s="75" t="s">
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="75"/>
-      <c r="J5" s="75"/>
-      <c r="K5" s="75"/>
-      <c r="L5" s="75"/>
-      <c r="M5" s="75"/>
-      <c r="N5" s="75"/>
-      <c r="O5" s="75"/>
-      <c r="P5" s="75"/>
-      <c r="Q5" s="75"/>
-      <c r="R5" s="75"/>
-      <c r="S5" s="75" t="s">
+      <c r="I5" s="39"/>
+      <c r="J5" s="39"/>
+      <c r="K5" s="39"/>
+      <c r="L5" s="39"/>
+      <c r="M5" s="39"/>
+      <c r="N5" s="39"/>
+      <c r="O5" s="39"/>
+      <c r="P5" s="39"/>
+      <c r="Q5" s="39"/>
+      <c r="R5" s="39"/>
+      <c r="S5" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="T5" s="75"/>
-      <c r="U5" s="75"/>
-      <c r="V5" s="75" t="s">
+      <c r="T5" s="39"/>
+      <c r="U5" s="39"/>
+      <c r="V5" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="W5" s="75"/>
-      <c r="X5" s="75"/>
-      <c r="Y5" s="74"/>
-      <c r="Z5" s="74"/>
-      <c r="AA5" s="74"/>
+      <c r="W5" s="39"/>
+      <c r="X5" s="39"/>
+      <c r="Y5" s="38"/>
+      <c r="Z5" s="38"/>
+      <c r="AA5" s="38"/>
       <c r="AB5" s="5">
         <f>AH1</f>
         <v>45078</v>
@@ -1810,33 +1933,33 @@
       </c>
     </row>
     <row r="6" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="75"/>
-      <c r="B6" s="75"/>
-      <c r="C6" s="75"/>
-      <c r="D6" s="75"/>
-      <c r="E6" s="75"/>
-      <c r="F6" s="75"/>
-      <c r="G6" s="75"/>
-      <c r="H6" s="75"/>
-      <c r="I6" s="75"/>
-      <c r="J6" s="75"/>
-      <c r="K6" s="75"/>
-      <c r="L6" s="75"/>
-      <c r="M6" s="75"/>
-      <c r="N6" s="75"/>
-      <c r="O6" s="75"/>
-      <c r="P6" s="75"/>
-      <c r="Q6" s="75"/>
-      <c r="R6" s="75"/>
-      <c r="S6" s="75"/>
-      <c r="T6" s="75"/>
-      <c r="U6" s="75"/>
-      <c r="V6" s="75"/>
-      <c r="W6" s="75"/>
-      <c r="X6" s="75"/>
-      <c r="Y6" s="74"/>
-      <c r="Z6" s="74"/>
-      <c r="AA6" s="74"/>
+      <c r="A6" s="39"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="39"/>
+      <c r="J6" s="39"/>
+      <c r="K6" s="39"/>
+      <c r="L6" s="39"/>
+      <c r="M6" s="39"/>
+      <c r="N6" s="39"/>
+      <c r="O6" s="39"/>
+      <c r="P6" s="39"/>
+      <c r="Q6" s="39"/>
+      <c r="R6" s="39"/>
+      <c r="S6" s="39"/>
+      <c r="T6" s="39"/>
+      <c r="U6" s="39"/>
+      <c r="V6" s="39"/>
+      <c r="W6" s="39"/>
+      <c r="X6" s="39"/>
+      <c r="Y6" s="38"/>
+      <c r="Z6" s="38"/>
+      <c r="AA6" s="38"/>
       <c r="AB6" s="6" t="str">
         <f>TEXT(AB5,"aaa")</f>
         <v>木</v>
@@ -1959,35 +2082,35 @@
       </c>
     </row>
     <row r="7" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="28"/>
-      <c r="B7" s="28"/>
-      <c r="C7" s="32" t="s">
+      <c r="A7" s="47"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="32"/>
-      <c r="I7" s="32"/>
-      <c r="J7" s="32"/>
-      <c r="K7" s="32"/>
-      <c r="L7" s="32"/>
-      <c r="M7" s="32"/>
-      <c r="N7" s="32"/>
-      <c r="O7" s="32"/>
-      <c r="P7" s="32"/>
-      <c r="Q7" s="32"/>
-      <c r="R7" s="32"/>
-      <c r="S7" s="29"/>
-      <c r="T7" s="29"/>
-      <c r="U7" s="29"/>
-      <c r="V7" s="29"/>
-      <c r="W7" s="29"/>
-      <c r="X7" s="29"/>
-      <c r="Y7" s="28"/>
-      <c r="Z7" s="28"/>
-      <c r="AA7" s="28"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="48"/>
+      <c r="I7" s="48"/>
+      <c r="J7" s="48"/>
+      <c r="K7" s="48"/>
+      <c r="L7" s="48"/>
+      <c r="M7" s="48"/>
+      <c r="N7" s="48"/>
+      <c r="O7" s="48"/>
+      <c r="P7" s="48"/>
+      <c r="Q7" s="48"/>
+      <c r="R7" s="48"/>
+      <c r="S7" s="50"/>
+      <c r="T7" s="50"/>
+      <c r="U7" s="50"/>
+      <c r="V7" s="50"/>
+      <c r="W7" s="50"/>
+      <c r="X7" s="50"/>
+      <c r="Y7" s="47"/>
+      <c r="Z7" s="47"/>
+      <c r="AA7" s="47"/>
       <c r="AB7" s="4"/>
       <c r="AC7" s="4"/>
       <c r="AD7" s="4"/>
@@ -2020,41 +2143,41 @@
       <c r="BE7" s="4"/>
     </row>
     <row r="8" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="28"/>
-      <c r="B8" s="28"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="37" t="s">
+      <c r="A8" s="47"/>
+      <c r="B8" s="47"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="48"/>
+      <c r="H8" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="I8" s="37"/>
-      <c r="J8" s="37"/>
-      <c r="K8" s="37"/>
-      <c r="L8" s="37"/>
-      <c r="M8" s="37"/>
-      <c r="N8" s="37"/>
-      <c r="O8" s="37"/>
-      <c r="P8" s="32"/>
-      <c r="Q8" s="32"/>
-      <c r="R8" s="32"/>
-      <c r="S8" s="29">
+      <c r="I8" s="49"/>
+      <c r="J8" s="49"/>
+      <c r="K8" s="49"/>
+      <c r="L8" s="49"/>
+      <c r="M8" s="49"/>
+      <c r="N8" s="49"/>
+      <c r="O8" s="49"/>
+      <c r="P8" s="48"/>
+      <c r="Q8" s="48"/>
+      <c r="R8" s="48"/>
+      <c r="S8" s="50">
         <v>45078</v>
       </c>
-      <c r="T8" s="29"/>
-      <c r="U8" s="29"/>
-      <c r="V8" s="29">
+      <c r="T8" s="50"/>
+      <c r="U8" s="50"/>
+      <c r="V8" s="50">
         <v>45078</v>
       </c>
-      <c r="W8" s="29"/>
-      <c r="X8" s="29"/>
-      <c r="Y8" s="28" t="s">
+      <c r="W8" s="50"/>
+      <c r="X8" s="50"/>
+      <c r="Y8" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="Z8" s="28"/>
-      <c r="AA8" s="28"/>
+      <c r="Z8" s="47"/>
+      <c r="AA8" s="47"/>
       <c r="AB8" s="4"/>
       <c r="AC8" s="4"/>
       <c r="AD8" s="4"/>
@@ -2087,41 +2210,41 @@
       <c r="BE8" s="4"/>
     </row>
     <row r="9" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="28"/>
-      <c r="B9" s="28"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="37" t="s">
+      <c r="A9" s="47"/>
+      <c r="B9" s="47"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="48"/>
+      <c r="H9" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="I9" s="37"/>
-      <c r="J9" s="37"/>
-      <c r="K9" s="37"/>
-      <c r="L9" s="37"/>
-      <c r="M9" s="37"/>
-      <c r="N9" s="37"/>
-      <c r="O9" s="37"/>
-      <c r="P9" s="32"/>
-      <c r="Q9" s="32"/>
-      <c r="R9" s="32"/>
-      <c r="S9" s="29">
+      <c r="I9" s="49"/>
+      <c r="J9" s="49"/>
+      <c r="K9" s="49"/>
+      <c r="L9" s="49"/>
+      <c r="M9" s="49"/>
+      <c r="N9" s="49"/>
+      <c r="O9" s="49"/>
+      <c r="P9" s="48"/>
+      <c r="Q9" s="48"/>
+      <c r="R9" s="48"/>
+      <c r="S9" s="50">
         <v>45078</v>
       </c>
-      <c r="T9" s="29"/>
-      <c r="U9" s="29"/>
-      <c r="V9" s="29">
+      <c r="T9" s="50"/>
+      <c r="U9" s="50"/>
+      <c r="V9" s="50">
         <v>45079</v>
       </c>
-      <c r="W9" s="29"/>
-      <c r="X9" s="29"/>
-      <c r="Y9" s="28" t="s">
+      <c r="W9" s="50"/>
+      <c r="X9" s="50"/>
+      <c r="Y9" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="Z9" s="28"/>
-      <c r="AA9" s="28"/>
+      <c r="Z9" s="47"/>
+      <c r="AA9" s="47"/>
       <c r="AB9" s="4"/>
       <c r="AC9" s="4"/>
       <c r="AD9" s="4"/>
@@ -2154,18 +2277,18 @@
       <c r="BE9" s="4"/>
     </row>
     <row r="10" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="28"/>
-      <c r="B10" s="28"/>
-      <c r="C10" s="32" t="s">
+      <c r="A10" s="47"/>
+      <c r="B10" s="47"/>
+      <c r="C10" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
-      <c r="Y10" s="28"/>
-      <c r="Z10" s="28"/>
-      <c r="AA10" s="28"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="48"/>
+      <c r="G10" s="48"/>
+      <c r="Y10" s="47"/>
+      <c r="Z10" s="47"/>
+      <c r="AA10" s="47"/>
       <c r="AB10" s="4"/>
       <c r="AC10" s="12"/>
       <c r="AD10" s="4"/>
@@ -2198,43 +2321,43 @@
       <c r="BE10" s="4"/>
     </row>
     <row r="11" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="28"/>
-      <c r="B11" s="28"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="37" t="s">
+      <c r="A11" s="47"/>
+      <c r="B11" s="47"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="48"/>
+      <c r="H11" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="I11" s="37"/>
-      <c r="J11" s="37"/>
-      <c r="K11" s="37"/>
-      <c r="L11" s="37"/>
-      <c r="M11" s="37"/>
-      <c r="N11" s="37"/>
-      <c r="O11" s="37"/>
-      <c r="P11" s="32" t="s">
+      <c r="I11" s="49"/>
+      <c r="J11" s="49"/>
+      <c r="K11" s="49"/>
+      <c r="L11" s="49"/>
+      <c r="M11" s="49"/>
+      <c r="N11" s="49"/>
+      <c r="O11" s="49"/>
+      <c r="P11" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="Q11" s="32"/>
-      <c r="R11" s="32"/>
-      <c r="S11" s="29">
+      <c r="Q11" s="48"/>
+      <c r="R11" s="48"/>
+      <c r="S11" s="50">
         <v>45079</v>
       </c>
-      <c r="T11" s="29"/>
-      <c r="U11" s="29"/>
-      <c r="V11" s="29">
+      <c r="T11" s="50"/>
+      <c r="U11" s="50"/>
+      <c r="V11" s="50">
         <v>45082</v>
       </c>
-      <c r="W11" s="29"/>
-      <c r="X11" s="29"/>
-      <c r="Y11" s="28" t="s">
+      <c r="W11" s="50"/>
+      <c r="X11" s="50"/>
+      <c r="Y11" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="Z11" s="28"/>
-      <c r="AA11" s="28"/>
+      <c r="Z11" s="47"/>
+      <c r="AA11" s="47"/>
       <c r="AB11" s="4"/>
       <c r="AC11" s="13"/>
       <c r="AD11" s="4"/>
@@ -2266,41 +2389,41 @@
       <c r="BE11" s="4"/>
     </row>
     <row r="12" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="28"/>
-      <c r="B12" s="28"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="61" t="s">
+      <c r="A12" s="47"/>
+      <c r="B12" s="47"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="48"/>
+      <c r="H12" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="I12" s="62"/>
-      <c r="J12" s="62"/>
-      <c r="K12" s="62"/>
-      <c r="L12" s="62"/>
-      <c r="M12" s="62"/>
-      <c r="N12" s="62"/>
-      <c r="O12" s="63"/>
-      <c r="P12" s="57"/>
-      <c r="Q12" s="58"/>
-      <c r="R12" s="60"/>
-      <c r="S12" s="29">
+      <c r="I12" s="55"/>
+      <c r="J12" s="55"/>
+      <c r="K12" s="55"/>
+      <c r="L12" s="55"/>
+      <c r="M12" s="55"/>
+      <c r="N12" s="55"/>
+      <c r="O12" s="56"/>
+      <c r="P12" s="51"/>
+      <c r="Q12" s="52"/>
+      <c r="R12" s="53"/>
+      <c r="S12" s="50">
         <v>45079</v>
       </c>
-      <c r="T12" s="29"/>
-      <c r="U12" s="29"/>
-      <c r="V12" s="29">
+      <c r="T12" s="50"/>
+      <c r="U12" s="50"/>
+      <c r="V12" s="50">
         <v>45082</v>
       </c>
-      <c r="W12" s="29"/>
-      <c r="X12" s="29"/>
-      <c r="Y12" s="28" t="s">
+      <c r="W12" s="50"/>
+      <c r="X12" s="50"/>
+      <c r="Y12" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="Z12" s="28"/>
-      <c r="AA12" s="28"/>
+      <c r="Z12" s="47"/>
+      <c r="AA12" s="47"/>
       <c r="AB12" s="4"/>
       <c r="AC12" s="13"/>
       <c r="AD12" s="4"/>
@@ -2333,41 +2456,41 @@
       <c r="BE12" s="4"/>
     </row>
     <row r="13" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="28"/>
-      <c r="B13" s="28"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="37" t="s">
+      <c r="A13" s="47"/>
+      <c r="B13" s="47"/>
+      <c r="C13" s="48"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="48"/>
+      <c r="H13" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="I13" s="37"/>
-      <c r="J13" s="37"/>
-      <c r="K13" s="37"/>
-      <c r="L13" s="37"/>
-      <c r="M13" s="37"/>
-      <c r="N13" s="37"/>
-      <c r="O13" s="37"/>
-      <c r="P13" s="32"/>
-      <c r="Q13" s="32"/>
-      <c r="R13" s="32"/>
-      <c r="S13" s="29">
+      <c r="I13" s="49"/>
+      <c r="J13" s="49"/>
+      <c r="K13" s="49"/>
+      <c r="L13" s="49"/>
+      <c r="M13" s="49"/>
+      <c r="N13" s="49"/>
+      <c r="O13" s="49"/>
+      <c r="P13" s="48"/>
+      <c r="Q13" s="48"/>
+      <c r="R13" s="48"/>
+      <c r="S13" s="50">
         <v>45082</v>
       </c>
-      <c r="T13" s="29"/>
-      <c r="U13" s="29"/>
-      <c r="V13" s="29">
+      <c r="T13" s="50"/>
+      <c r="U13" s="50"/>
+      <c r="V13" s="50">
         <v>45082</v>
       </c>
-      <c r="W13" s="29"/>
-      <c r="X13" s="29"/>
-      <c r="Y13" s="28" t="s">
+      <c r="W13" s="50"/>
+      <c r="X13" s="50"/>
+      <c r="Y13" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="Z13" s="28"/>
-      <c r="AA13" s="28"/>
+      <c r="Z13" s="47"/>
+      <c r="AA13" s="47"/>
       <c r="AB13" s="4"/>
       <c r="AC13" s="4"/>
       <c r="AD13" s="4"/>
@@ -2400,33 +2523,33 @@
       <c r="BE13" s="4"/>
     </row>
     <row r="14" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="28"/>
-      <c r="B14" s="28"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="32"/>
-      <c r="J14" s="32"/>
-      <c r="K14" s="32"/>
-      <c r="L14" s="32"/>
-      <c r="M14" s="32"/>
-      <c r="N14" s="32"/>
-      <c r="O14" s="32"/>
-      <c r="P14" s="32"/>
-      <c r="Q14" s="32"/>
-      <c r="R14" s="32"/>
-      <c r="S14" s="29"/>
-      <c r="T14" s="29"/>
-      <c r="U14" s="29"/>
-      <c r="V14" s="29"/>
-      <c r="W14" s="29"/>
-      <c r="X14" s="29"/>
-      <c r="Y14" s="28"/>
-      <c r="Z14" s="28"/>
-      <c r="AA14" s="28"/>
+      <c r="A14" s="47"/>
+      <c r="B14" s="47"/>
+      <c r="C14" s="48"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="48"/>
+      <c r="H14" s="48"/>
+      <c r="I14" s="48"/>
+      <c r="J14" s="48"/>
+      <c r="K14" s="48"/>
+      <c r="L14" s="48"/>
+      <c r="M14" s="48"/>
+      <c r="N14" s="48"/>
+      <c r="O14" s="48"/>
+      <c r="P14" s="48"/>
+      <c r="Q14" s="48"/>
+      <c r="R14" s="48"/>
+      <c r="S14" s="50"/>
+      <c r="T14" s="50"/>
+      <c r="U14" s="50"/>
+      <c r="V14" s="50"/>
+      <c r="W14" s="50"/>
+      <c r="X14" s="50"/>
+      <c r="Y14" s="47"/>
+      <c r="Z14" s="47"/>
+      <c r="AA14" s="47"/>
       <c r="AB14" s="4"/>
       <c r="AC14" s="4"/>
       <c r="AD14" s="4"/>
@@ -2459,37 +2582,37 @@
       <c r="BE14" s="4"/>
     </row>
     <row r="15" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="28"/>
-      <c r="B15" s="28"/>
-      <c r="C15" s="32" t="s">
+      <c r="A15" s="47"/>
+      <c r="B15" s="47"/>
+      <c r="C15" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="32"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="32"/>
-      <c r="J15" s="32"/>
-      <c r="K15" s="32"/>
-      <c r="L15" s="32"/>
-      <c r="M15" s="32"/>
-      <c r="N15" s="32"/>
-      <c r="O15" s="32"/>
-      <c r="P15" s="32" t="s">
+      <c r="D15" s="48"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="48"/>
+      <c r="I15" s="48"/>
+      <c r="J15" s="48"/>
+      <c r="K15" s="48"/>
+      <c r="L15" s="48"/>
+      <c r="M15" s="48"/>
+      <c r="N15" s="48"/>
+      <c r="O15" s="48"/>
+      <c r="P15" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="Q15" s="32"/>
-      <c r="R15" s="32"/>
-      <c r="S15" s="29"/>
-      <c r="T15" s="29"/>
-      <c r="U15" s="29"/>
-      <c r="V15" s="29"/>
-      <c r="W15" s="29"/>
-      <c r="X15" s="29"/>
-      <c r="Y15" s="28"/>
-      <c r="Z15" s="28"/>
-      <c r="AA15" s="28"/>
+      <c r="Q15" s="48"/>
+      <c r="R15" s="48"/>
+      <c r="S15" s="50"/>
+      <c r="T15" s="50"/>
+      <c r="U15" s="50"/>
+      <c r="V15" s="50"/>
+      <c r="W15" s="50"/>
+      <c r="X15" s="50"/>
+      <c r="Y15" s="47"/>
+      <c r="Z15" s="47"/>
+      <c r="AA15" s="47"/>
       <c r="AB15" s="4"/>
       <c r="AC15" s="4"/>
       <c r="AD15" s="4"/>
@@ -2522,41 +2645,41 @@
       <c r="BE15" s="4"/>
     </row>
     <row r="16" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="28"/>
-      <c r="B16" s="28"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="37" t="s">
+      <c r="A16" s="47"/>
+      <c r="B16" s="47"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="48"/>
+      <c r="H16" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="I16" s="37"/>
-      <c r="J16" s="37"/>
-      <c r="K16" s="37"/>
-      <c r="L16" s="37"/>
-      <c r="M16" s="37"/>
-      <c r="N16" s="37"/>
-      <c r="O16" s="37"/>
-      <c r="P16" s="32"/>
-      <c r="Q16" s="32"/>
-      <c r="R16" s="32"/>
-      <c r="S16" s="29">
+      <c r="I16" s="49"/>
+      <c r="J16" s="49"/>
+      <c r="K16" s="49"/>
+      <c r="L16" s="49"/>
+      <c r="M16" s="49"/>
+      <c r="N16" s="49"/>
+      <c r="O16" s="49"/>
+      <c r="P16" s="48"/>
+      <c r="Q16" s="48"/>
+      <c r="R16" s="48"/>
+      <c r="S16" s="50">
         <v>45083</v>
       </c>
-      <c r="T16" s="29"/>
-      <c r="U16" s="29"/>
-      <c r="V16" s="29">
+      <c r="T16" s="50"/>
+      <c r="U16" s="50"/>
+      <c r="V16" s="50">
         <v>45084</v>
       </c>
-      <c r="W16" s="29"/>
-      <c r="X16" s="29"/>
-      <c r="Y16" s="28" t="s">
+      <c r="W16" s="50"/>
+      <c r="X16" s="50"/>
+      <c r="Y16" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="Z16" s="28"/>
-      <c r="AA16" s="28"/>
+      <c r="Z16" s="47"/>
+      <c r="AA16" s="47"/>
       <c r="AB16" s="4"/>
       <c r="AC16" s="4"/>
       <c r="AD16" s="4"/>
@@ -2589,43 +2712,43 @@
       <c r="BE16" s="4"/>
     </row>
     <row r="17" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="28"/>
-      <c r="B17" s="28"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="34" t="s">
+      <c r="A17" s="47"/>
+      <c r="B17" s="47"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="48"/>
+      <c r="H17" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="I17" s="35"/>
-      <c r="J17" s="35"/>
-      <c r="K17" s="35"/>
-      <c r="L17" s="35"/>
-      <c r="M17" s="35"/>
-      <c r="N17" s="35"/>
-      <c r="O17" s="36"/>
-      <c r="P17" s="32" t="s">
+      <c r="I17" s="75"/>
+      <c r="J17" s="75"/>
+      <c r="K17" s="75"/>
+      <c r="L17" s="75"/>
+      <c r="M17" s="75"/>
+      <c r="N17" s="75"/>
+      <c r="O17" s="76"/>
+      <c r="P17" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="Q17" s="32"/>
-      <c r="R17" s="32"/>
-      <c r="S17" s="29">
+      <c r="Q17" s="48"/>
+      <c r="R17" s="48"/>
+      <c r="S17" s="50">
         <v>45083</v>
       </c>
-      <c r="T17" s="29"/>
-      <c r="U17" s="29"/>
-      <c r="V17" s="29">
+      <c r="T17" s="50"/>
+      <c r="U17" s="50"/>
+      <c r="V17" s="50">
         <v>45084</v>
       </c>
-      <c r="W17" s="29"/>
-      <c r="X17" s="29"/>
-      <c r="Y17" s="33" t="s">
+      <c r="W17" s="50"/>
+      <c r="X17" s="50"/>
+      <c r="Y17" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="Z17" s="28"/>
-      <c r="AA17" s="28"/>
+      <c r="Z17" s="47"/>
+      <c r="AA17" s="47"/>
       <c r="AB17" s="4"/>
       <c r="AC17" s="4"/>
       <c r="AD17" s="4"/>
@@ -2660,41 +2783,41 @@
     <row r="18" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="10"/>
       <c r="B18" s="11"/>
-      <c r="C18" s="54"/>
-      <c r="D18" s="55"/>
-      <c r="E18" s="55"/>
-      <c r="F18" s="55"/>
-      <c r="G18" s="56"/>
-      <c r="H18" s="34" t="s">
+      <c r="C18" s="57"/>
+      <c r="D18" s="58"/>
+      <c r="E18" s="58"/>
+      <c r="F18" s="58"/>
+      <c r="G18" s="59"/>
+      <c r="H18" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="I18" s="35"/>
-      <c r="J18" s="35"/>
-      <c r="K18" s="35"/>
-      <c r="L18" s="35"/>
-      <c r="M18" s="35"/>
-      <c r="N18" s="35"/>
-      <c r="O18" s="36"/>
-      <c r="P18" s="30" t="s">
+      <c r="I18" s="75"/>
+      <c r="J18" s="75"/>
+      <c r="K18" s="75"/>
+      <c r="L18" s="75"/>
+      <c r="M18" s="75"/>
+      <c r="N18" s="75"/>
+      <c r="O18" s="76"/>
+      <c r="P18" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="Q18" s="31"/>
-      <c r="R18" s="31"/>
-      <c r="S18" s="29">
+      <c r="Q18" s="61"/>
+      <c r="R18" s="61"/>
+      <c r="S18" s="50">
         <v>45083</v>
       </c>
-      <c r="T18" s="29"/>
-      <c r="U18" s="29"/>
-      <c r="V18" s="29">
+      <c r="T18" s="50"/>
+      <c r="U18" s="50"/>
+      <c r="V18" s="50">
         <v>45084</v>
       </c>
-      <c r="W18" s="29"/>
-      <c r="X18" s="29"/>
-      <c r="Y18" s="33" t="s">
+      <c r="W18" s="50"/>
+      <c r="X18" s="50"/>
+      <c r="Y18" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="Z18" s="28"/>
-      <c r="AA18" s="28"/>
+      <c r="Z18" s="47"/>
+      <c r="AA18" s="47"/>
       <c r="AB18" s="4"/>
       <c r="AC18" s="4"/>
       <c r="AD18" s="4"/>
@@ -2734,36 +2857,36 @@
       <c r="E19" s="26"/>
       <c r="F19" s="26"/>
       <c r="G19" s="27"/>
-      <c r="H19" s="34" t="s">
+      <c r="H19" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="I19" s="35"/>
-      <c r="J19" s="35"/>
-      <c r="K19" s="35"/>
-      <c r="L19" s="35"/>
-      <c r="M19" s="35"/>
-      <c r="N19" s="35"/>
-      <c r="O19" s="49"/>
-      <c r="P19" s="50" t="s">
+      <c r="I19" s="75"/>
+      <c r="J19" s="75"/>
+      <c r="K19" s="75"/>
+      <c r="L19" s="75"/>
+      <c r="M19" s="75"/>
+      <c r="N19" s="75"/>
+      <c r="O19" s="78"/>
+      <c r="P19" s="64" t="s">
         <v>40</v>
       </c>
-      <c r="Q19" s="31"/>
-      <c r="R19" s="42"/>
-      <c r="S19" s="29">
+      <c r="Q19" s="61"/>
+      <c r="R19" s="79"/>
+      <c r="S19" s="50">
         <v>45084</v>
       </c>
-      <c r="T19" s="29"/>
-      <c r="U19" s="29"/>
-      <c r="V19" s="29">
+      <c r="T19" s="50"/>
+      <c r="U19" s="50"/>
+      <c r="V19" s="50">
         <v>45084</v>
       </c>
-      <c r="W19" s="29"/>
-      <c r="X19" s="29"/>
-      <c r="Y19" s="51" t="s">
+      <c r="W19" s="50"/>
+      <c r="X19" s="50"/>
+      <c r="Y19" s="80" t="s">
         <v>36</v>
       </c>
-      <c r="Z19" s="52"/>
-      <c r="AA19" s="53"/>
+      <c r="Z19" s="81"/>
+      <c r="AA19" s="82"/>
       <c r="AB19" s="4"/>
       <c r="AC19" s="4"/>
       <c r="AD19" s="4"/>
@@ -2796,33 +2919,33 @@
       <c r="BE19" s="4"/>
     </row>
     <row r="20" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="30"/>
-      <c r="B20" s="38"/>
-      <c r="C20" s="46"/>
-      <c r="D20" s="47"/>
-      <c r="E20" s="47"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="48"/>
-      <c r="H20" s="57"/>
-      <c r="I20" s="58"/>
-      <c r="J20" s="58"/>
-      <c r="K20" s="58"/>
-      <c r="L20" s="58"/>
-      <c r="M20" s="58"/>
-      <c r="N20" s="58"/>
-      <c r="O20" s="59"/>
-      <c r="P20" s="50"/>
-      <c r="Q20" s="31"/>
-      <c r="R20" s="38"/>
-      <c r="S20" s="43"/>
-      <c r="T20" s="44"/>
-      <c r="U20" s="45"/>
-      <c r="V20" s="43"/>
-      <c r="W20" s="44"/>
-      <c r="X20" s="45"/>
-      <c r="Y20" s="30"/>
-      <c r="Z20" s="31"/>
-      <c r="AA20" s="38"/>
+      <c r="A20" s="60"/>
+      <c r="B20" s="62"/>
+      <c r="C20" s="71"/>
+      <c r="D20" s="72"/>
+      <c r="E20" s="72"/>
+      <c r="F20" s="72"/>
+      <c r="G20" s="73"/>
+      <c r="H20" s="51"/>
+      <c r="I20" s="52"/>
+      <c r="J20" s="52"/>
+      <c r="K20" s="52"/>
+      <c r="L20" s="52"/>
+      <c r="M20" s="52"/>
+      <c r="N20" s="52"/>
+      <c r="O20" s="63"/>
+      <c r="P20" s="64"/>
+      <c r="Q20" s="61"/>
+      <c r="R20" s="62"/>
+      <c r="S20" s="65"/>
+      <c r="T20" s="66"/>
+      <c r="U20" s="67"/>
+      <c r="V20" s="65"/>
+      <c r="W20" s="66"/>
+      <c r="X20" s="67"/>
+      <c r="Y20" s="60"/>
+      <c r="Z20" s="61"/>
+      <c r="AA20" s="62"/>
       <c r="AB20" s="4"/>
       <c r="AC20" s="4"/>
       <c r="AD20" s="4"/>
@@ -2855,37 +2978,37 @@
       <c r="BE20" s="4"/>
     </row>
     <row r="21" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="30"/>
-      <c r="B21" s="38"/>
-      <c r="C21" s="32" t="s">
+      <c r="A21" s="60"/>
+      <c r="B21" s="62"/>
+      <c r="C21" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="D21" s="32"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="32"/>
-      <c r="H21" s="39"/>
-      <c r="I21" s="40"/>
-      <c r="J21" s="40"/>
-      <c r="K21" s="40"/>
-      <c r="L21" s="40"/>
-      <c r="M21" s="40"/>
-      <c r="N21" s="40"/>
-      <c r="O21" s="41"/>
-      <c r="P21" s="32" t="s">
+      <c r="D21" s="48"/>
+      <c r="E21" s="48"/>
+      <c r="F21" s="48"/>
+      <c r="G21" s="48"/>
+      <c r="H21" s="68"/>
+      <c r="I21" s="69"/>
+      <c r="J21" s="69"/>
+      <c r="K21" s="69"/>
+      <c r="L21" s="69"/>
+      <c r="M21" s="69"/>
+      <c r="N21" s="69"/>
+      <c r="O21" s="70"/>
+      <c r="P21" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="Q21" s="32"/>
-      <c r="R21" s="32"/>
-      <c r="S21" s="29"/>
-      <c r="T21" s="29"/>
-      <c r="U21" s="29"/>
-      <c r="V21" s="29"/>
-      <c r="W21" s="29"/>
-      <c r="X21" s="29"/>
-      <c r="Y21" s="28"/>
-      <c r="Z21" s="28"/>
-      <c r="AA21" s="28"/>
+      <c r="Q21" s="48"/>
+      <c r="R21" s="48"/>
+      <c r="S21" s="50"/>
+      <c r="T21" s="50"/>
+      <c r="U21" s="50"/>
+      <c r="V21" s="50"/>
+      <c r="W21" s="50"/>
+      <c r="X21" s="50"/>
+      <c r="Y21" s="47"/>
+      <c r="Z21" s="47"/>
+      <c r="AA21" s="47"/>
       <c r="AB21" s="4"/>
       <c r="AC21" s="4"/>
       <c r="AD21" s="4"/>
@@ -2918,41 +3041,41 @@
       <c r="BE21" s="4"/>
     </row>
     <row r="22" spans="1:57" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="30"/>
-      <c r="B22" s="38"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="31"/>
-      <c r="G22" s="38"/>
-      <c r="H22" s="39" t="s">
+      <c r="A22" s="60"/>
+      <c r="B22" s="62"/>
+      <c r="C22" s="60"/>
+      <c r="D22" s="61"/>
+      <c r="E22" s="61"/>
+      <c r="F22" s="61"/>
+      <c r="G22" s="62"/>
+      <c r="H22" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="I22" s="40"/>
-      <c r="J22" s="40"/>
-      <c r="K22" s="40"/>
-      <c r="L22" s="40"/>
-      <c r="M22" s="40"/>
-      <c r="N22" s="40"/>
-      <c r="O22" s="41"/>
-      <c r="P22" s="30"/>
-      <c r="Q22" s="31"/>
-      <c r="R22" s="42"/>
-      <c r="S22" s="29">
+      <c r="I22" s="69"/>
+      <c r="J22" s="69"/>
+      <c r="K22" s="69"/>
+      <c r="L22" s="69"/>
+      <c r="M22" s="69"/>
+      <c r="N22" s="69"/>
+      <c r="O22" s="70"/>
+      <c r="P22" s="60"/>
+      <c r="Q22" s="61"/>
+      <c r="R22" s="79"/>
+      <c r="S22" s="50">
         <v>45085</v>
       </c>
-      <c r="T22" s="29"/>
-      <c r="U22" s="29"/>
-      <c r="V22" s="29">
+      <c r="T22" s="50"/>
+      <c r="U22" s="50"/>
+      <c r="V22" s="50">
         <v>45100</v>
       </c>
-      <c r="W22" s="29"/>
-      <c r="X22" s="29"/>
-      <c r="Y22" s="28" t="s">
+      <c r="W22" s="50"/>
+      <c r="X22" s="50"/>
+      <c r="Y22" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="Z22" s="28"/>
-      <c r="AA22" s="28"/>
+      <c r="Z22" s="47"/>
+      <c r="AA22" s="47"/>
       <c r="AB22" s="4"/>
       <c r="AC22" s="4"/>
       <c r="AD22" s="4"/>
@@ -2987,31 +3110,31 @@
     <row r="23" spans="1:57" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="10"/>
       <c r="B23" s="11"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="38"/>
-      <c r="H23" s="30"/>
-      <c r="I23" s="31"/>
-      <c r="J23" s="31"/>
-      <c r="K23" s="31"/>
-      <c r="L23" s="31"/>
-      <c r="M23" s="31"/>
-      <c r="N23" s="31"/>
-      <c r="O23" s="38"/>
-      <c r="P23" s="30"/>
-      <c r="Q23" s="31"/>
-      <c r="R23" s="38"/>
-      <c r="S23" s="43"/>
-      <c r="T23" s="44"/>
-      <c r="U23" s="45"/>
-      <c r="V23" s="43"/>
-      <c r="W23" s="44"/>
-      <c r="X23" s="45"/>
-      <c r="Y23" s="30"/>
-      <c r="Z23" s="31"/>
-      <c r="AA23" s="38"/>
+      <c r="C23" s="60"/>
+      <c r="D23" s="61"/>
+      <c r="E23" s="61"/>
+      <c r="F23" s="61"/>
+      <c r="G23" s="62"/>
+      <c r="H23" s="60"/>
+      <c r="I23" s="61"/>
+      <c r="J23" s="61"/>
+      <c r="K23" s="61"/>
+      <c r="L23" s="61"/>
+      <c r="M23" s="61"/>
+      <c r="N23" s="61"/>
+      <c r="O23" s="62"/>
+      <c r="P23" s="60"/>
+      <c r="Q23" s="61"/>
+      <c r="R23" s="62"/>
+      <c r="S23" s="65"/>
+      <c r="T23" s="66"/>
+      <c r="U23" s="67"/>
+      <c r="V23" s="65"/>
+      <c r="W23" s="66"/>
+      <c r="X23" s="67"/>
+      <c r="Y23" s="60"/>
+      <c r="Z23" s="61"/>
+      <c r="AA23" s="62"/>
       <c r="AB23" s="4"/>
       <c r="AC23" s="4"/>
       <c r="AD23" s="4"/>
@@ -3044,41 +3167,43 @@
       <c r="BE23" s="4"/>
     </row>
     <row r="24" spans="1:57" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="28"/>
-      <c r="B24" s="28"/>
-      <c r="C24" s="32" t="s">
+      <c r="A24" s="47"/>
+      <c r="B24" s="47"/>
+      <c r="C24" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="D24" s="32"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="32"/>
-      <c r="H24" s="32"/>
-      <c r="I24" s="32"/>
-      <c r="J24" s="32"/>
-      <c r="K24" s="32"/>
-      <c r="L24" s="32"/>
-      <c r="M24" s="32"/>
-      <c r="N24" s="32"/>
-      <c r="O24" s="32"/>
-      <c r="P24" s="32" t="s">
+      <c r="D24" s="48"/>
+      <c r="E24" s="48"/>
+      <c r="F24" s="48"/>
+      <c r="G24" s="48"/>
+      <c r="H24" s="48"/>
+      <c r="I24" s="48"/>
+      <c r="J24" s="48"/>
+      <c r="K24" s="48"/>
+      <c r="L24" s="48"/>
+      <c r="M24" s="48"/>
+      <c r="N24" s="48"/>
+      <c r="O24" s="48"/>
+      <c r="P24" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="Q24" s="32"/>
-      <c r="R24" s="32"/>
-      <c r="S24" s="29">
+      <c r="Q24" s="48"/>
+      <c r="R24" s="48"/>
+      <c r="S24" s="50">
         <v>45089</v>
       </c>
-      <c r="T24" s="29"/>
-      <c r="U24" s="29"/>
-      <c r="V24" s="29">
+      <c r="T24" s="50"/>
+      <c r="U24" s="50"/>
+      <c r="V24" s="50">
         <v>45100</v>
       </c>
-      <c r="W24" s="29"/>
-      <c r="X24" s="29"/>
-      <c r="Y24" s="28"/>
-      <c r="Z24" s="28"/>
-      <c r="AA24" s="28"/>
+      <c r="W24" s="50"/>
+      <c r="X24" s="50"/>
+      <c r="Y24" s="47" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z24" s="47"/>
+      <c r="AA24" s="47"/>
       <c r="AB24" s="4"/>
       <c r="AC24" s="4"/>
       <c r="AD24" s="4"/>
@@ -3111,33 +3236,33 @@
       <c r="BE24" s="4"/>
     </row>
     <row r="25" spans="1:57" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="28"/>
-      <c r="B25" s="28"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="32"/>
-      <c r="H25" s="32"/>
-      <c r="I25" s="32"/>
-      <c r="J25" s="32"/>
-      <c r="K25" s="32"/>
-      <c r="L25" s="32"/>
-      <c r="M25" s="32"/>
-      <c r="N25" s="32"/>
-      <c r="O25" s="32"/>
-      <c r="P25" s="32"/>
-      <c r="Q25" s="32"/>
-      <c r="R25" s="32"/>
-      <c r="S25" s="29"/>
-      <c r="T25" s="29"/>
-      <c r="U25" s="29"/>
-      <c r="V25" s="29"/>
-      <c r="W25" s="29"/>
-      <c r="X25" s="29"/>
-      <c r="Y25" s="28"/>
-      <c r="Z25" s="28"/>
-      <c r="AA25" s="28"/>
+      <c r="A25" s="47"/>
+      <c r="B25" s="47"/>
+      <c r="C25" s="48"/>
+      <c r="D25" s="48"/>
+      <c r="E25" s="48"/>
+      <c r="F25" s="48"/>
+      <c r="G25" s="48"/>
+      <c r="H25" s="48"/>
+      <c r="I25" s="48"/>
+      <c r="J25" s="48"/>
+      <c r="K25" s="48"/>
+      <c r="L25" s="48"/>
+      <c r="M25" s="48"/>
+      <c r="N25" s="48"/>
+      <c r="O25" s="48"/>
+      <c r="P25" s="48"/>
+      <c r="Q25" s="48"/>
+      <c r="R25" s="48"/>
+      <c r="S25" s="50"/>
+      <c r="T25" s="50"/>
+      <c r="U25" s="50"/>
+      <c r="V25" s="50"/>
+      <c r="W25" s="50"/>
+      <c r="X25" s="50"/>
+      <c r="Y25" s="47"/>
+      <c r="Z25" s="47"/>
+      <c r="AA25" s="47"/>
       <c r="AB25" s="4"/>
       <c r="AC25" s="4"/>
       <c r="AD25" s="4"/>
@@ -3170,33 +3295,33 @@
       <c r="BE25" s="4"/>
     </row>
     <row r="26" spans="1:57" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="28"/>
-      <c r="B26" s="28"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="32"/>
-      <c r="H26" s="32"/>
-      <c r="I26" s="32"/>
-      <c r="J26" s="32"/>
-      <c r="K26" s="32"/>
-      <c r="L26" s="32"/>
-      <c r="M26" s="32"/>
-      <c r="N26" s="32"/>
-      <c r="O26" s="32"/>
-      <c r="P26" s="32"/>
-      <c r="Q26" s="32"/>
-      <c r="R26" s="32"/>
-      <c r="S26" s="29"/>
-      <c r="T26" s="29"/>
-      <c r="U26" s="29"/>
-      <c r="V26" s="29"/>
-      <c r="W26" s="29"/>
-      <c r="X26" s="29"/>
-      <c r="Y26" s="28"/>
-      <c r="Z26" s="28"/>
-      <c r="AA26" s="28"/>
+      <c r="A26" s="47"/>
+      <c r="B26" s="47"/>
+      <c r="C26" s="48"/>
+      <c r="D26" s="48"/>
+      <c r="E26" s="48"/>
+      <c r="F26" s="48"/>
+      <c r="G26" s="48"/>
+      <c r="H26" s="48"/>
+      <c r="I26" s="48"/>
+      <c r="J26" s="48"/>
+      <c r="K26" s="48"/>
+      <c r="L26" s="48"/>
+      <c r="M26" s="48"/>
+      <c r="N26" s="48"/>
+      <c r="O26" s="48"/>
+      <c r="P26" s="48"/>
+      <c r="Q26" s="48"/>
+      <c r="R26" s="48"/>
+      <c r="S26" s="50"/>
+      <c r="T26" s="50"/>
+      <c r="U26" s="50"/>
+      <c r="V26" s="50"/>
+      <c r="W26" s="50"/>
+      <c r="X26" s="50"/>
+      <c r="Y26" s="47"/>
+      <c r="Z26" s="47"/>
+      <c r="AA26" s="47"/>
       <c r="AB26" s="4"/>
       <c r="AC26" s="4"/>
       <c r="AD26" s="4"/>
@@ -3228,41 +3353,41 @@
       <c r="BE26" s="4"/>
     </row>
     <row r="27" spans="1:57" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="28"/>
-      <c r="B27" s="28"/>
-      <c r="C27" s="32" t="s">
+      <c r="A27" s="47"/>
+      <c r="B27" s="47"/>
+      <c r="C27" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="32"/>
-      <c r="H27" s="32"/>
-      <c r="I27" s="32"/>
-      <c r="J27" s="32"/>
-      <c r="K27" s="32"/>
-      <c r="L27" s="32"/>
-      <c r="M27" s="32"/>
-      <c r="N27" s="32"/>
-      <c r="O27" s="32"/>
-      <c r="P27" s="32" t="s">
+      <c r="D27" s="48"/>
+      <c r="E27" s="48"/>
+      <c r="F27" s="48"/>
+      <c r="G27" s="48"/>
+      <c r="H27" s="48"/>
+      <c r="I27" s="48"/>
+      <c r="J27" s="48"/>
+      <c r="K27" s="48"/>
+      <c r="L27" s="48"/>
+      <c r="M27" s="48"/>
+      <c r="N27" s="48"/>
+      <c r="O27" s="48"/>
+      <c r="P27" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="Q27" s="32"/>
-      <c r="R27" s="32"/>
-      <c r="S27" s="29">
+      <c r="Q27" s="48"/>
+      <c r="R27" s="48"/>
+      <c r="S27" s="50">
         <v>45096</v>
       </c>
-      <c r="T27" s="29"/>
-      <c r="U27" s="29"/>
-      <c r="V27" s="29">
+      <c r="T27" s="50"/>
+      <c r="U27" s="50"/>
+      <c r="V27" s="50">
         <v>45100</v>
       </c>
-      <c r="W27" s="29"/>
-      <c r="X27" s="29"/>
-      <c r="Y27" s="28"/>
-      <c r="Z27" s="28"/>
-      <c r="AA27" s="28"/>
+      <c r="W27" s="50"/>
+      <c r="X27" s="50"/>
+      <c r="Y27" s="47"/>
+      <c r="Z27" s="47"/>
+      <c r="AA27" s="47"/>
       <c r="AB27" s="4"/>
       <c r="AC27" s="4"/>
       <c r="AD27" s="4"/>
@@ -3295,41 +3420,41 @@
       <c r="BE27" s="4"/>
     </row>
     <row r="28" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="28"/>
-      <c r="B28" s="28"/>
-      <c r="C28" s="32" t="s">
+      <c r="A28" s="47"/>
+      <c r="B28" s="47"/>
+      <c r="C28" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="D28" s="32"/>
-      <c r="E28" s="32"/>
-      <c r="F28" s="32"/>
-      <c r="G28" s="32"/>
-      <c r="H28" s="32"/>
-      <c r="I28" s="32"/>
-      <c r="J28" s="32"/>
-      <c r="K28" s="32"/>
-      <c r="L28" s="32"/>
-      <c r="M28" s="32"/>
-      <c r="N28" s="32"/>
-      <c r="O28" s="32"/>
-      <c r="P28" s="32" t="s">
+      <c r="D28" s="48"/>
+      <c r="E28" s="48"/>
+      <c r="F28" s="48"/>
+      <c r="G28" s="48"/>
+      <c r="H28" s="48"/>
+      <c r="I28" s="48"/>
+      <c r="J28" s="48"/>
+      <c r="K28" s="48"/>
+      <c r="L28" s="48"/>
+      <c r="M28" s="48"/>
+      <c r="N28" s="48"/>
+      <c r="O28" s="48"/>
+      <c r="P28" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="Q28" s="32"/>
-      <c r="R28" s="32"/>
-      <c r="S28" s="29">
+      <c r="Q28" s="48"/>
+      <c r="R28" s="48"/>
+      <c r="S28" s="50">
         <v>45096</v>
       </c>
-      <c r="T28" s="29"/>
-      <c r="U28" s="29"/>
-      <c r="V28" s="29">
+      <c r="T28" s="50"/>
+      <c r="U28" s="50"/>
+      <c r="V28" s="50">
         <v>45100</v>
       </c>
-      <c r="W28" s="29"/>
-      <c r="X28" s="29"/>
-      <c r="Y28" s="28"/>
-      <c r="Z28" s="28"/>
-      <c r="AA28" s="28"/>
+      <c r="W28" s="50"/>
+      <c r="X28" s="50"/>
+      <c r="Y28" s="47"/>
+      <c r="Z28" s="47"/>
+      <c r="AA28" s="47"/>
       <c r="AB28" s="4"/>
       <c r="AC28" s="4"/>
       <c r="AD28" s="4"/>
@@ -3361,41 +3486,41 @@
       <c r="BE28" s="4"/>
     </row>
     <row r="29" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="28"/>
-      <c r="B29" s="28"/>
-      <c r="C29" s="32" t="s">
+      <c r="A29" s="47"/>
+      <c r="B29" s="47"/>
+      <c r="C29" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="D29" s="32"/>
-      <c r="E29" s="32"/>
-      <c r="F29" s="32"/>
-      <c r="G29" s="32"/>
-      <c r="H29" s="32"/>
-      <c r="I29" s="32"/>
-      <c r="J29" s="32"/>
-      <c r="K29" s="32"/>
-      <c r="L29" s="32"/>
-      <c r="M29" s="32"/>
-      <c r="N29" s="32"/>
-      <c r="O29" s="32"/>
-      <c r="P29" s="32" t="s">
+      <c r="D29" s="48"/>
+      <c r="E29" s="48"/>
+      <c r="F29" s="48"/>
+      <c r="G29" s="48"/>
+      <c r="H29" s="48"/>
+      <c r="I29" s="48"/>
+      <c r="J29" s="48"/>
+      <c r="K29" s="48"/>
+      <c r="L29" s="48"/>
+      <c r="M29" s="48"/>
+      <c r="N29" s="48"/>
+      <c r="O29" s="48"/>
+      <c r="P29" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="Q29" s="32"/>
-      <c r="R29" s="32"/>
-      <c r="S29" s="29">
+      <c r="Q29" s="48"/>
+      <c r="R29" s="48"/>
+      <c r="S29" s="50">
         <v>45103</v>
       </c>
-      <c r="T29" s="29"/>
-      <c r="U29" s="29"/>
-      <c r="V29" s="29">
+      <c r="T29" s="50"/>
+      <c r="U29" s="50"/>
+      <c r="V29" s="50">
         <v>45105</v>
       </c>
-      <c r="W29" s="29"/>
-      <c r="X29" s="29"/>
-      <c r="Y29" s="28"/>
-      <c r="Z29" s="28"/>
-      <c r="AA29" s="28"/>
+      <c r="W29" s="50"/>
+      <c r="X29" s="50"/>
+      <c r="Y29" s="47"/>
+      <c r="Z29" s="47"/>
+      <c r="AA29" s="47"/>
       <c r="AB29" s="4"/>
       <c r="AC29" s="4"/>
       <c r="AD29" s="4"/>
@@ -3428,41 +3553,41 @@
       <c r="BE29" s="4"/>
     </row>
     <row r="30" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="28"/>
-      <c r="B30" s="28"/>
-      <c r="C30" s="32" t="s">
+      <c r="A30" s="47"/>
+      <c r="B30" s="47"/>
+      <c r="C30" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="D30" s="32"/>
-      <c r="E30" s="32"/>
-      <c r="F30" s="32"/>
-      <c r="G30" s="32"/>
-      <c r="H30" s="32"/>
-      <c r="I30" s="32"/>
-      <c r="J30" s="32"/>
-      <c r="K30" s="32"/>
-      <c r="L30" s="32"/>
-      <c r="M30" s="32"/>
-      <c r="N30" s="32"/>
-      <c r="O30" s="32"/>
-      <c r="P30" s="32" t="s">
+      <c r="D30" s="48"/>
+      <c r="E30" s="48"/>
+      <c r="F30" s="48"/>
+      <c r="G30" s="48"/>
+      <c r="H30" s="48"/>
+      <c r="I30" s="48"/>
+      <c r="J30" s="48"/>
+      <c r="K30" s="48"/>
+      <c r="L30" s="48"/>
+      <c r="M30" s="48"/>
+      <c r="N30" s="48"/>
+      <c r="O30" s="48"/>
+      <c r="P30" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="Q30" s="32"/>
-      <c r="R30" s="32"/>
-      <c r="S30" s="29">
+      <c r="Q30" s="48"/>
+      <c r="R30" s="48"/>
+      <c r="S30" s="50">
         <v>45089</v>
       </c>
-      <c r="T30" s="29"/>
-      <c r="U30" s="29"/>
-      <c r="V30" s="29">
+      <c r="T30" s="50"/>
+      <c r="U30" s="50"/>
+      <c r="V30" s="50">
         <v>45105</v>
       </c>
-      <c r="W30" s="29"/>
-      <c r="X30" s="29"/>
-      <c r="Y30" s="28"/>
-      <c r="Z30" s="28"/>
-      <c r="AA30" s="28"/>
+      <c r="W30" s="50"/>
+      <c r="X30" s="50"/>
+      <c r="Y30" s="47"/>
+      <c r="Z30" s="47"/>
+      <c r="AA30" s="47"/>
       <c r="AB30" s="4"/>
       <c r="AC30" s="4"/>
       <c r="AD30" s="4"/>
@@ -3495,33 +3620,33 @@
       <c r="BE30" s="4"/>
     </row>
     <row r="31" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="28"/>
-      <c r="B31" s="28"/>
-      <c r="C31" s="32"/>
-      <c r="D31" s="32"/>
-      <c r="E31" s="32"/>
-      <c r="F31" s="32"/>
-      <c r="G31" s="32"/>
-      <c r="H31" s="32"/>
-      <c r="I31" s="32"/>
-      <c r="J31" s="32"/>
-      <c r="K31" s="32"/>
-      <c r="L31" s="32"/>
-      <c r="M31" s="32"/>
-      <c r="N31" s="32"/>
-      <c r="O31" s="32"/>
-      <c r="P31" s="32"/>
-      <c r="Q31" s="32"/>
-      <c r="R31" s="32"/>
-      <c r="S31" s="29"/>
-      <c r="T31" s="29"/>
-      <c r="U31" s="29"/>
-      <c r="V31" s="29"/>
-      <c r="W31" s="29"/>
-      <c r="X31" s="29"/>
-      <c r="Y31" s="28"/>
-      <c r="Z31" s="28"/>
-      <c r="AA31" s="28"/>
+      <c r="A31" s="47"/>
+      <c r="B31" s="47"/>
+      <c r="C31" s="48"/>
+      <c r="D31" s="48"/>
+      <c r="E31" s="48"/>
+      <c r="F31" s="48"/>
+      <c r="G31" s="48"/>
+      <c r="H31" s="48"/>
+      <c r="I31" s="48"/>
+      <c r="J31" s="48"/>
+      <c r="K31" s="48"/>
+      <c r="L31" s="48"/>
+      <c r="M31" s="48"/>
+      <c r="N31" s="48"/>
+      <c r="O31" s="48"/>
+      <c r="P31" s="48"/>
+      <c r="Q31" s="48"/>
+      <c r="R31" s="48"/>
+      <c r="S31" s="50"/>
+      <c r="T31" s="50"/>
+      <c r="U31" s="50"/>
+      <c r="V31" s="50"/>
+      <c r="W31" s="50"/>
+      <c r="X31" s="50"/>
+      <c r="Y31" s="47"/>
+      <c r="Z31" s="47"/>
+      <c r="AA31" s="47"/>
       <c r="AB31" s="4"/>
       <c r="AC31" s="4"/>
       <c r="AD31" s="4"/>
@@ -3554,35 +3679,35 @@
       <c r="BE31" s="4"/>
     </row>
     <row r="32" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="28"/>
-      <c r="B32" s="28"/>
-      <c r="C32" s="32" t="s">
+      <c r="A32" s="47"/>
+      <c r="B32" s="47"/>
+      <c r="C32" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="D32" s="32"/>
-      <c r="E32" s="32"/>
-      <c r="F32" s="32"/>
-      <c r="G32" s="32"/>
-      <c r="H32" s="32"/>
-      <c r="I32" s="32"/>
-      <c r="J32" s="32"/>
-      <c r="K32" s="32"/>
-      <c r="L32" s="32"/>
-      <c r="M32" s="32"/>
-      <c r="N32" s="32"/>
-      <c r="O32" s="32"/>
-      <c r="P32" s="32"/>
-      <c r="Q32" s="32"/>
-      <c r="R32" s="32"/>
-      <c r="S32" s="29"/>
-      <c r="T32" s="29"/>
-      <c r="U32" s="29"/>
-      <c r="V32" s="29"/>
-      <c r="W32" s="29"/>
-      <c r="X32" s="29"/>
-      <c r="Y32" s="28"/>
-      <c r="Z32" s="28"/>
-      <c r="AA32" s="28"/>
+      <c r="D32" s="48"/>
+      <c r="E32" s="48"/>
+      <c r="F32" s="48"/>
+      <c r="G32" s="48"/>
+      <c r="H32" s="48"/>
+      <c r="I32" s="48"/>
+      <c r="J32" s="48"/>
+      <c r="K32" s="48"/>
+      <c r="L32" s="48"/>
+      <c r="M32" s="48"/>
+      <c r="N32" s="48"/>
+      <c r="O32" s="48"/>
+      <c r="P32" s="48"/>
+      <c r="Q32" s="48"/>
+      <c r="R32" s="48"/>
+      <c r="S32" s="50"/>
+      <c r="T32" s="50"/>
+      <c r="U32" s="50"/>
+      <c r="V32" s="50"/>
+      <c r="W32" s="50"/>
+      <c r="X32" s="50"/>
+      <c r="Y32" s="47"/>
+      <c r="Z32" s="47"/>
+      <c r="AA32" s="47"/>
       <c r="AB32" s="4"/>
       <c r="AC32" s="4"/>
       <c r="AD32" s="4"/>
@@ -3615,33 +3740,33 @@
       <c r="BE32" s="9"/>
     </row>
     <row r="33" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="28"/>
-      <c r="B33" s="28"/>
-      <c r="C33" s="32"/>
-      <c r="D33" s="32"/>
-      <c r="E33" s="32"/>
-      <c r="F33" s="32"/>
-      <c r="G33" s="32"/>
-      <c r="H33" s="32"/>
-      <c r="I33" s="32"/>
-      <c r="J33" s="32"/>
-      <c r="K33" s="32"/>
-      <c r="L33" s="32"/>
-      <c r="M33" s="32"/>
-      <c r="N33" s="32"/>
-      <c r="O33" s="32"/>
-      <c r="P33" s="32"/>
-      <c r="Q33" s="32"/>
-      <c r="R33" s="32"/>
-      <c r="S33" s="29"/>
-      <c r="T33" s="29"/>
-      <c r="U33" s="29"/>
-      <c r="V33" s="29"/>
-      <c r="W33" s="29"/>
-      <c r="X33" s="29"/>
-      <c r="Y33" s="28"/>
-      <c r="Z33" s="28"/>
-      <c r="AA33" s="28"/>
+      <c r="A33" s="47"/>
+      <c r="B33" s="47"/>
+      <c r="C33" s="48"/>
+      <c r="D33" s="48"/>
+      <c r="E33" s="48"/>
+      <c r="F33" s="48"/>
+      <c r="G33" s="48"/>
+      <c r="H33" s="48"/>
+      <c r="I33" s="48"/>
+      <c r="J33" s="48"/>
+      <c r="K33" s="48"/>
+      <c r="L33" s="48"/>
+      <c r="M33" s="48"/>
+      <c r="N33" s="48"/>
+      <c r="O33" s="48"/>
+      <c r="P33" s="48"/>
+      <c r="Q33" s="48"/>
+      <c r="R33" s="48"/>
+      <c r="S33" s="50"/>
+      <c r="T33" s="50"/>
+      <c r="U33" s="50"/>
+      <c r="V33" s="50"/>
+      <c r="W33" s="50"/>
+      <c r="X33" s="50"/>
+      <c r="Y33" s="47"/>
+      <c r="Z33" s="47"/>
+      <c r="AA33" s="47"/>
       <c r="AB33" s="4"/>
       <c r="AC33" s="4"/>
       <c r="AD33" s="4"/>
@@ -3674,33 +3799,33 @@
       <c r="BE33" s="20"/>
     </row>
     <row r="34" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="28"/>
-      <c r="B34" s="28"/>
-      <c r="C34" s="32"/>
-      <c r="D34" s="32"/>
-      <c r="E34" s="32"/>
-      <c r="F34" s="32"/>
-      <c r="G34" s="32"/>
-      <c r="H34" s="32"/>
-      <c r="I34" s="32"/>
-      <c r="J34" s="32"/>
-      <c r="K34" s="32"/>
-      <c r="L34" s="32"/>
-      <c r="M34" s="32"/>
-      <c r="N34" s="32"/>
-      <c r="O34" s="32"/>
-      <c r="P34" s="32"/>
-      <c r="Q34" s="32"/>
-      <c r="R34" s="32"/>
-      <c r="S34" s="29"/>
-      <c r="T34" s="29"/>
-      <c r="U34" s="29"/>
-      <c r="V34" s="29"/>
-      <c r="W34" s="29"/>
-      <c r="X34" s="29"/>
-      <c r="Y34" s="28"/>
-      <c r="Z34" s="28"/>
-      <c r="AA34" s="28"/>
+      <c r="A34" s="47"/>
+      <c r="B34" s="47"/>
+      <c r="C34" s="48"/>
+      <c r="D34" s="48"/>
+      <c r="E34" s="48"/>
+      <c r="F34" s="48"/>
+      <c r="G34" s="48"/>
+      <c r="H34" s="48"/>
+      <c r="I34" s="48"/>
+      <c r="J34" s="48"/>
+      <c r="K34" s="48"/>
+      <c r="L34" s="48"/>
+      <c r="M34" s="48"/>
+      <c r="N34" s="48"/>
+      <c r="O34" s="48"/>
+      <c r="P34" s="48"/>
+      <c r="Q34" s="48"/>
+      <c r="R34" s="48"/>
+      <c r="S34" s="50"/>
+      <c r="T34" s="50"/>
+      <c r="U34" s="50"/>
+      <c r="V34" s="50"/>
+      <c r="W34" s="50"/>
+      <c r="X34" s="50"/>
+      <c r="Y34" s="47"/>
+      <c r="Z34" s="47"/>
+      <c r="AA34" s="47"/>
       <c r="AB34" s="4"/>
       <c r="AC34" s="4"/>
       <c r="AD34" s="4"/>
@@ -3733,215 +3858,2912 @@
       <c r="BE34" s="4"/>
     </row>
     <row r="35" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="28"/>
-      <c r="B35" s="28"/>
-      <c r="C35" s="32"/>
-      <c r="D35" s="32"/>
-      <c r="E35" s="32"/>
-      <c r="F35" s="32"/>
-      <c r="G35" s="32"/>
-      <c r="H35" s="32"/>
-      <c r="I35" s="32"/>
-      <c r="J35" s="32"/>
-      <c r="K35" s="32"/>
-      <c r="L35" s="32"/>
-      <c r="M35" s="32"/>
-      <c r="N35" s="32"/>
-      <c r="O35" s="32"/>
-      <c r="P35" s="32"/>
-      <c r="Q35" s="32"/>
-      <c r="R35" s="32"/>
-      <c r="S35" s="29"/>
-      <c r="T35" s="29"/>
-      <c r="U35" s="29"/>
-      <c r="V35" s="29"/>
-      <c r="W35" s="29"/>
-      <c r="X35" s="29"/>
-      <c r="Y35" s="28"/>
-      <c r="Z35" s="28"/>
-      <c r="AA35" s="28"/>
-      <c r="AB35" s="4"/>
-      <c r="AC35" s="4"/>
-      <c r="AD35" s="4"/>
-      <c r="AE35" s="4"/>
-      <c r="AF35" s="4"/>
-      <c r="AG35" s="4"/>
-      <c r="AH35" s="4"/>
-      <c r="AI35" s="4"/>
-      <c r="AJ35" s="4"/>
-      <c r="AK35" s="4"/>
-      <c r="AL35" s="4"/>
-      <c r="AM35" s="4"/>
-      <c r="AN35" s="4"/>
-      <c r="AO35" s="4"/>
-      <c r="AP35" s="4"/>
-      <c r="AQ35" s="4"/>
-      <c r="AR35" s="4"/>
-      <c r="AS35" s="4"/>
-      <c r="AT35" s="4"/>
-      <c r="AU35" s="4"/>
-      <c r="AV35" s="4"/>
-      <c r="AW35" s="4"/>
-      <c r="AX35" s="4"/>
-      <c r="AY35" s="4"/>
-      <c r="AZ35" s="4"/>
-      <c r="BA35" s="4"/>
-      <c r="BB35" s="4"/>
-      <c r="BC35" s="4"/>
-      <c r="BD35" s="4"/>
-      <c r="BE35" s="4"/>
-    </row>
-    <row r="36" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="37" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="38" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="39" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="40" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="41" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="42" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="43" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="44" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="45" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="46" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+      <c r="A35" s="83"/>
+      <c r="B35" s="83"/>
+      <c r="C35" s="84" t="s">
+        <v>43</v>
+      </c>
+      <c r="D35" s="84"/>
+      <c r="E35" s="84"/>
+      <c r="F35" s="84"/>
+      <c r="G35" s="84"/>
+      <c r="H35" s="84"/>
+      <c r="I35" s="84"/>
+      <c r="J35" s="84"/>
+      <c r="K35" s="84"/>
+      <c r="L35" s="84"/>
+      <c r="M35" s="84"/>
+      <c r="N35" s="84"/>
+      <c r="O35" s="84"/>
+      <c r="P35" s="84"/>
+      <c r="Q35" s="84"/>
+      <c r="R35" s="84"/>
+      <c r="S35" s="85"/>
+      <c r="T35" s="85"/>
+      <c r="U35" s="85"/>
+      <c r="V35" s="85"/>
+      <c r="W35" s="85"/>
+      <c r="X35" s="85"/>
+      <c r="Y35" s="83"/>
+      <c r="Z35" s="83"/>
+      <c r="AA35" s="83"/>
+      <c r="AB35" s="86"/>
+      <c r="AC35" s="86"/>
+      <c r="AD35" s="86"/>
+      <c r="AE35" s="86"/>
+      <c r="AF35" s="86"/>
+      <c r="AG35" s="86"/>
+      <c r="AH35" s="86"/>
+      <c r="AI35" s="86"/>
+      <c r="AJ35" s="86"/>
+      <c r="AK35" s="86"/>
+      <c r="AL35" s="86"/>
+      <c r="AM35" s="86"/>
+      <c r="AN35" s="86"/>
+      <c r="AO35" s="86"/>
+      <c r="AP35" s="86"/>
+      <c r="AQ35" s="86"/>
+      <c r="AR35" s="86"/>
+      <c r="AS35" s="86"/>
+      <c r="AT35" s="86"/>
+      <c r="AU35" s="86"/>
+      <c r="AV35" s="86"/>
+      <c r="AW35" s="86"/>
+      <c r="AX35" s="86"/>
+      <c r="AY35" s="86"/>
+      <c r="AZ35" s="86"/>
+      <c r="BA35" s="86"/>
+      <c r="BB35" s="86"/>
+      <c r="BC35" s="86"/>
+      <c r="BD35" s="86"/>
+      <c r="BE35" s="86"/>
+    </row>
+    <row r="36" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="88"/>
+      <c r="B36" s="90"/>
+      <c r="C36" s="84" t="s">
+        <v>43</v>
+      </c>
+      <c r="D36" s="84"/>
+      <c r="E36" s="84"/>
+      <c r="F36" s="84"/>
+      <c r="G36" s="84"/>
+      <c r="H36" s="88"/>
+      <c r="I36" s="89"/>
+      <c r="J36" s="89"/>
+      <c r="K36" s="89"/>
+      <c r="L36" s="89"/>
+      <c r="M36" s="89"/>
+      <c r="N36" s="89"/>
+      <c r="O36" s="90"/>
+      <c r="P36" s="88"/>
+      <c r="Q36" s="89"/>
+      <c r="R36" s="90"/>
+      <c r="S36" s="88"/>
+      <c r="T36" s="89"/>
+      <c r="U36" s="90"/>
+      <c r="V36" s="88"/>
+      <c r="W36" s="89"/>
+      <c r="X36" s="90"/>
+      <c r="Y36" s="88"/>
+      <c r="Z36" s="89"/>
+      <c r="AA36" s="90"/>
+      <c r="AB36" s="87"/>
+      <c r="AC36" s="87"/>
+      <c r="AD36" s="87"/>
+      <c r="AE36" s="87"/>
+      <c r="AF36" s="87"/>
+      <c r="AG36" s="87"/>
+      <c r="AH36" s="87"/>
+      <c r="AI36" s="87"/>
+      <c r="AJ36" s="87"/>
+      <c r="AK36" s="87"/>
+      <c r="AL36" s="87"/>
+      <c r="AM36" s="87"/>
+      <c r="AN36" s="87"/>
+      <c r="AO36" s="87"/>
+      <c r="AP36" s="87"/>
+      <c r="AQ36" s="87"/>
+      <c r="AR36" s="87"/>
+      <c r="AS36" s="87"/>
+      <c r="AT36" s="87"/>
+      <c r="AU36" s="87"/>
+      <c r="AV36" s="87"/>
+      <c r="AW36" s="87"/>
+      <c r="AX36" s="87"/>
+      <c r="AY36" s="87"/>
+      <c r="AZ36" s="87"/>
+      <c r="BA36" s="87"/>
+      <c r="BB36" s="87"/>
+      <c r="BC36" s="87"/>
+      <c r="BD36" s="87"/>
+      <c r="BE36" s="87"/>
+    </row>
+    <row r="37" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="88"/>
+      <c r="B37" s="90"/>
+      <c r="C37" s="84" t="s">
+        <v>43</v>
+      </c>
+      <c r="D37" s="84"/>
+      <c r="E37" s="84"/>
+      <c r="F37" s="84"/>
+      <c r="G37" s="84"/>
+      <c r="H37" s="88"/>
+      <c r="I37" s="89"/>
+      <c r="J37" s="89"/>
+      <c r="K37" s="89"/>
+      <c r="L37" s="89"/>
+      <c r="M37" s="89"/>
+      <c r="N37" s="89"/>
+      <c r="O37" s="90"/>
+      <c r="P37" s="88"/>
+      <c r="Q37" s="89"/>
+      <c r="R37" s="90"/>
+      <c r="S37" s="88"/>
+      <c r="T37" s="89"/>
+      <c r="U37" s="90"/>
+      <c r="V37" s="88"/>
+      <c r="W37" s="89"/>
+      <c r="X37" s="90"/>
+      <c r="Y37" s="88"/>
+      <c r="Z37" s="89"/>
+      <c r="AA37" s="90"/>
+      <c r="AB37" s="87"/>
+      <c r="AC37" s="87"/>
+      <c r="AD37" s="87"/>
+      <c r="AE37" s="87"/>
+      <c r="AF37" s="87"/>
+      <c r="AG37" s="87"/>
+      <c r="AH37" s="87"/>
+      <c r="AI37" s="87"/>
+      <c r="AJ37" s="87"/>
+      <c r="AK37" s="87"/>
+      <c r="AL37" s="87"/>
+      <c r="AM37" s="87"/>
+      <c r="AN37" s="87"/>
+      <c r="AO37" s="87"/>
+      <c r="AP37" s="87"/>
+      <c r="AQ37" s="87"/>
+      <c r="AR37" s="87"/>
+      <c r="AS37" s="87"/>
+      <c r="AT37" s="87"/>
+      <c r="AU37" s="87"/>
+      <c r="AV37" s="87"/>
+      <c r="AW37" s="87"/>
+      <c r="AX37" s="87"/>
+      <c r="AY37" s="87"/>
+      <c r="AZ37" s="87"/>
+      <c r="BA37" s="87"/>
+      <c r="BB37" s="87"/>
+      <c r="BC37" s="87"/>
+      <c r="BD37" s="87"/>
+      <c r="BE37" s="87"/>
+    </row>
+    <row r="38" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="88"/>
+      <c r="B38" s="90"/>
+      <c r="C38" s="84" t="s">
+        <v>43</v>
+      </c>
+      <c r="D38" s="84"/>
+      <c r="E38" s="84"/>
+      <c r="F38" s="84"/>
+      <c r="G38" s="84"/>
+      <c r="H38" s="88"/>
+      <c r="I38" s="89"/>
+      <c r="J38" s="89"/>
+      <c r="K38" s="89"/>
+      <c r="L38" s="89"/>
+      <c r="M38" s="89"/>
+      <c r="N38" s="89"/>
+      <c r="O38" s="90"/>
+      <c r="P38" s="88"/>
+      <c r="Q38" s="89"/>
+      <c r="R38" s="90"/>
+      <c r="S38" s="88"/>
+      <c r="T38" s="89"/>
+      <c r="U38" s="90"/>
+      <c r="V38" s="88"/>
+      <c r="W38" s="89"/>
+      <c r="X38" s="90"/>
+      <c r="Y38" s="88"/>
+      <c r="Z38" s="89"/>
+      <c r="AA38" s="90"/>
+      <c r="AB38" s="87"/>
+      <c r="AC38" s="87"/>
+      <c r="AD38" s="87"/>
+      <c r="AE38" s="87"/>
+      <c r="AF38" s="87"/>
+      <c r="AG38" s="87"/>
+      <c r="AH38" s="87"/>
+      <c r="AI38" s="87"/>
+      <c r="AJ38" s="87"/>
+      <c r="AK38" s="87"/>
+      <c r="AL38" s="87"/>
+      <c r="AM38" s="87"/>
+      <c r="AN38" s="87"/>
+      <c r="AO38" s="87"/>
+      <c r="AP38" s="87"/>
+      <c r="AQ38" s="87"/>
+      <c r="AR38" s="87"/>
+      <c r="AS38" s="87"/>
+      <c r="AT38" s="87"/>
+      <c r="AU38" s="87"/>
+      <c r="AV38" s="87"/>
+      <c r="AW38" s="87"/>
+      <c r="AX38" s="87"/>
+      <c r="AY38" s="87"/>
+      <c r="AZ38" s="87"/>
+      <c r="BA38" s="87"/>
+      <c r="BB38" s="87"/>
+      <c r="BC38" s="87"/>
+      <c r="BD38" s="87"/>
+      <c r="BE38" s="87"/>
+    </row>
+    <row r="39" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="88"/>
+      <c r="B39" s="90"/>
+      <c r="C39" s="84" t="s">
+        <v>43</v>
+      </c>
+      <c r="D39" s="84"/>
+      <c r="E39" s="84"/>
+      <c r="F39" s="84"/>
+      <c r="G39" s="84"/>
+      <c r="H39" s="88"/>
+      <c r="I39" s="89"/>
+      <c r="J39" s="89"/>
+      <c r="K39" s="89"/>
+      <c r="L39" s="89"/>
+      <c r="M39" s="89"/>
+      <c r="N39" s="89"/>
+      <c r="O39" s="90"/>
+      <c r="P39" s="88"/>
+      <c r="Q39" s="89"/>
+      <c r="R39" s="90"/>
+      <c r="S39" s="88"/>
+      <c r="T39" s="89"/>
+      <c r="U39" s="90"/>
+      <c r="V39" s="88"/>
+      <c r="W39" s="89"/>
+      <c r="X39" s="90"/>
+      <c r="Y39" s="88"/>
+      <c r="Z39" s="89"/>
+      <c r="AA39" s="90"/>
+      <c r="AB39" s="87"/>
+      <c r="AC39" s="87"/>
+      <c r="AD39" s="87"/>
+      <c r="AE39" s="87"/>
+      <c r="AF39" s="87"/>
+      <c r="AG39" s="87"/>
+      <c r="AH39" s="87"/>
+      <c r="AI39" s="87"/>
+      <c r="AJ39" s="87"/>
+      <c r="AK39" s="87"/>
+      <c r="AL39" s="87"/>
+      <c r="AM39" s="87"/>
+      <c r="AN39" s="87"/>
+      <c r="AO39" s="87"/>
+      <c r="AP39" s="87"/>
+      <c r="AQ39" s="87"/>
+      <c r="AR39" s="87"/>
+      <c r="AS39" s="87"/>
+      <c r="AT39" s="87"/>
+      <c r="AU39" s="87"/>
+      <c r="AV39" s="87"/>
+      <c r="AW39" s="87"/>
+      <c r="AX39" s="87"/>
+      <c r="AY39" s="87"/>
+      <c r="AZ39" s="87"/>
+      <c r="BA39" s="87"/>
+      <c r="BB39" s="87"/>
+      <c r="BC39" s="87"/>
+      <c r="BD39" s="87"/>
+      <c r="BE39" s="87"/>
+    </row>
+    <row r="40" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="88"/>
+      <c r="B40" s="90"/>
+      <c r="C40" s="84" t="s">
+        <v>43</v>
+      </c>
+      <c r="D40" s="84"/>
+      <c r="E40" s="84"/>
+      <c r="F40" s="84"/>
+      <c r="G40" s="84"/>
+      <c r="H40" s="88"/>
+      <c r="I40" s="89"/>
+      <c r="J40" s="89"/>
+      <c r="K40" s="89"/>
+      <c r="L40" s="89"/>
+      <c r="M40" s="89"/>
+      <c r="N40" s="89"/>
+      <c r="O40" s="90"/>
+      <c r="P40" s="88"/>
+      <c r="Q40" s="89"/>
+      <c r="R40" s="90"/>
+      <c r="S40" s="88"/>
+      <c r="T40" s="89"/>
+      <c r="U40" s="90"/>
+      <c r="V40" s="88"/>
+      <c r="W40" s="89"/>
+      <c r="X40" s="90"/>
+      <c r="Y40" s="88"/>
+      <c r="Z40" s="89"/>
+      <c r="AA40" s="90"/>
+      <c r="AB40" s="87"/>
+      <c r="AC40" s="87"/>
+      <c r="AD40" s="87"/>
+      <c r="AE40" s="87"/>
+      <c r="AF40" s="87"/>
+      <c r="AG40" s="87"/>
+      <c r="AH40" s="87"/>
+      <c r="AI40" s="87"/>
+      <c r="AJ40" s="87"/>
+      <c r="AK40" s="87"/>
+      <c r="AL40" s="87"/>
+      <c r="AM40" s="87"/>
+      <c r="AN40" s="87"/>
+      <c r="AO40" s="87"/>
+      <c r="AP40" s="87"/>
+      <c r="AQ40" s="87"/>
+      <c r="AR40" s="87"/>
+      <c r="AS40" s="87"/>
+      <c r="AT40" s="87"/>
+      <c r="AU40" s="87"/>
+      <c r="AV40" s="87"/>
+      <c r="AW40" s="87"/>
+      <c r="AX40" s="87"/>
+      <c r="AY40" s="87"/>
+      <c r="AZ40" s="87"/>
+      <c r="BA40" s="87"/>
+      <c r="BB40" s="87"/>
+      <c r="BC40" s="87"/>
+      <c r="BD40" s="87"/>
+      <c r="BE40" s="87"/>
+    </row>
+    <row r="41" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="88"/>
+      <c r="B41" s="90"/>
+      <c r="C41" s="84" t="s">
+        <v>43</v>
+      </c>
+      <c r="D41" s="84"/>
+      <c r="E41" s="84"/>
+      <c r="F41" s="84"/>
+      <c r="G41" s="84"/>
+      <c r="H41" s="88"/>
+      <c r="I41" s="89"/>
+      <c r="J41" s="89"/>
+      <c r="K41" s="89"/>
+      <c r="L41" s="89"/>
+      <c r="M41" s="89"/>
+      <c r="N41" s="89"/>
+      <c r="O41" s="90"/>
+      <c r="P41" s="88"/>
+      <c r="Q41" s="89"/>
+      <c r="R41" s="90"/>
+      <c r="S41" s="88"/>
+      <c r="T41" s="89"/>
+      <c r="U41" s="90"/>
+      <c r="V41" s="88"/>
+      <c r="W41" s="89"/>
+      <c r="X41" s="90"/>
+      <c r="Y41" s="88"/>
+      <c r="Z41" s="89"/>
+      <c r="AA41" s="90"/>
+      <c r="AB41" s="87"/>
+      <c r="AC41" s="87"/>
+      <c r="AD41" s="87"/>
+      <c r="AE41" s="87"/>
+      <c r="AF41" s="87"/>
+      <c r="AG41" s="87"/>
+      <c r="AH41" s="87"/>
+      <c r="AI41" s="87"/>
+      <c r="AJ41" s="87"/>
+      <c r="AK41" s="87"/>
+      <c r="AL41" s="87"/>
+      <c r="AM41" s="87"/>
+      <c r="AN41" s="87"/>
+      <c r="AO41" s="87"/>
+      <c r="AP41" s="87"/>
+      <c r="AQ41" s="87"/>
+      <c r="AR41" s="87"/>
+      <c r="AS41" s="87"/>
+      <c r="AT41" s="87"/>
+      <c r="AU41" s="87"/>
+      <c r="AV41" s="87"/>
+      <c r="AW41" s="87"/>
+      <c r="AX41" s="87"/>
+      <c r="AY41" s="87"/>
+      <c r="AZ41" s="87"/>
+      <c r="BA41" s="87"/>
+      <c r="BB41" s="87"/>
+      <c r="BC41" s="87"/>
+      <c r="BD41" s="87"/>
+      <c r="BE41" s="87"/>
+    </row>
+    <row r="42" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="88"/>
+      <c r="B42" s="90"/>
+      <c r="C42" s="84" t="s">
+        <v>43</v>
+      </c>
+      <c r="D42" s="84"/>
+      <c r="E42" s="84"/>
+      <c r="F42" s="84"/>
+      <c r="G42" s="84"/>
+      <c r="H42" s="88"/>
+      <c r="I42" s="89"/>
+      <c r="J42" s="89"/>
+      <c r="K42" s="89"/>
+      <c r="L42" s="89"/>
+      <c r="M42" s="89"/>
+      <c r="N42" s="89"/>
+      <c r="O42" s="90"/>
+      <c r="P42" s="88"/>
+      <c r="Q42" s="89"/>
+      <c r="R42" s="90"/>
+      <c r="S42" s="88"/>
+      <c r="T42" s="89"/>
+      <c r="U42" s="90"/>
+      <c r="V42" s="88"/>
+      <c r="W42" s="89"/>
+      <c r="X42" s="90"/>
+      <c r="Y42" s="88"/>
+      <c r="Z42" s="89"/>
+      <c r="AA42" s="90"/>
+      <c r="AB42" s="87"/>
+      <c r="AC42" s="87"/>
+      <c r="AD42" s="87"/>
+      <c r="AE42" s="87"/>
+      <c r="AF42" s="87"/>
+      <c r="AG42" s="87"/>
+      <c r="AH42" s="87"/>
+      <c r="AI42" s="87"/>
+      <c r="AJ42" s="87"/>
+      <c r="AK42" s="87"/>
+      <c r="AL42" s="87"/>
+      <c r="AM42" s="87"/>
+      <c r="AN42" s="87"/>
+      <c r="AO42" s="87"/>
+      <c r="AP42" s="87"/>
+      <c r="AQ42" s="87"/>
+      <c r="AR42" s="87"/>
+      <c r="AS42" s="87"/>
+      <c r="AT42" s="87"/>
+      <c r="AU42" s="87"/>
+      <c r="AV42" s="87"/>
+      <c r="AW42" s="87"/>
+      <c r="AX42" s="87"/>
+      <c r="AY42" s="87"/>
+      <c r="AZ42" s="87"/>
+      <c r="BA42" s="87"/>
+      <c r="BB42" s="87"/>
+      <c r="BC42" s="87"/>
+      <c r="BD42" s="87"/>
+      <c r="BE42" s="87"/>
+    </row>
+    <row r="43" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="88"/>
+      <c r="B43" s="90"/>
+      <c r="C43" s="84" t="s">
+        <v>43</v>
+      </c>
+      <c r="D43" s="84"/>
+      <c r="E43" s="84"/>
+      <c r="F43" s="84"/>
+      <c r="G43" s="84"/>
+      <c r="H43" s="88"/>
+      <c r="I43" s="89"/>
+      <c r="J43" s="89"/>
+      <c r="K43" s="89"/>
+      <c r="L43" s="89"/>
+      <c r="M43" s="89"/>
+      <c r="N43" s="89"/>
+      <c r="O43" s="90"/>
+      <c r="P43" s="88"/>
+      <c r="Q43" s="89"/>
+      <c r="R43" s="90"/>
+      <c r="S43" s="88"/>
+      <c r="T43" s="89"/>
+      <c r="U43" s="90"/>
+      <c r="V43" s="88"/>
+      <c r="W43" s="89"/>
+      <c r="X43" s="90"/>
+      <c r="Y43" s="88"/>
+      <c r="Z43" s="89"/>
+      <c r="AA43" s="90"/>
+      <c r="AB43" s="87"/>
+      <c r="AC43" s="87"/>
+      <c r="AD43" s="87"/>
+      <c r="AE43" s="87"/>
+      <c r="AF43" s="87"/>
+      <c r="AG43" s="87"/>
+      <c r="AH43" s="87"/>
+      <c r="AI43" s="87"/>
+      <c r="AJ43" s="87"/>
+      <c r="AK43" s="87"/>
+      <c r="AL43" s="87"/>
+      <c r="AM43" s="87"/>
+      <c r="AN43" s="87"/>
+      <c r="AO43" s="87"/>
+      <c r="AP43" s="87"/>
+      <c r="AQ43" s="87"/>
+      <c r="AR43" s="87"/>
+      <c r="AS43" s="87"/>
+      <c r="AT43" s="87"/>
+      <c r="AU43" s="87"/>
+      <c r="AV43" s="87"/>
+      <c r="AW43" s="87"/>
+      <c r="AX43" s="87"/>
+      <c r="AY43" s="87"/>
+      <c r="AZ43" s="87"/>
+      <c r="BA43" s="87"/>
+      <c r="BB43" s="87"/>
+      <c r="BC43" s="87"/>
+      <c r="BD43" s="87"/>
+      <c r="BE43" s="87"/>
+    </row>
+    <row r="44" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="88"/>
+      <c r="B44" s="90"/>
+      <c r="C44" s="84" t="s">
+        <v>43</v>
+      </c>
+      <c r="D44" s="84"/>
+      <c r="E44" s="84"/>
+      <c r="F44" s="84"/>
+      <c r="G44" s="84"/>
+      <c r="H44" s="88"/>
+      <c r="I44" s="89"/>
+      <c r="J44" s="89"/>
+      <c r="K44" s="89"/>
+      <c r="L44" s="89"/>
+      <c r="M44" s="89"/>
+      <c r="N44" s="89"/>
+      <c r="O44" s="90"/>
+      <c r="P44" s="88"/>
+      <c r="Q44" s="89"/>
+      <c r="R44" s="90"/>
+      <c r="S44" s="88"/>
+      <c r="T44" s="89"/>
+      <c r="U44" s="90"/>
+      <c r="V44" s="88"/>
+      <c r="W44" s="89"/>
+      <c r="X44" s="90"/>
+      <c r="Y44" s="88"/>
+      <c r="Z44" s="89"/>
+      <c r="AA44" s="90"/>
+      <c r="AB44" s="87"/>
+      <c r="AC44" s="87"/>
+      <c r="AD44" s="87"/>
+      <c r="AE44" s="87"/>
+      <c r="AF44" s="87"/>
+      <c r="AG44" s="87"/>
+      <c r="AH44" s="87"/>
+      <c r="AI44" s="87"/>
+      <c r="AJ44" s="87"/>
+      <c r="AK44" s="87"/>
+      <c r="AL44" s="87"/>
+      <c r="AM44" s="87"/>
+      <c r="AN44" s="87"/>
+      <c r="AO44" s="87"/>
+      <c r="AP44" s="87"/>
+      <c r="AQ44" s="87"/>
+      <c r="AR44" s="87"/>
+      <c r="AS44" s="87"/>
+      <c r="AT44" s="87"/>
+      <c r="AU44" s="87"/>
+      <c r="AV44" s="87"/>
+      <c r="AW44" s="87"/>
+      <c r="AX44" s="87"/>
+      <c r="AY44" s="87"/>
+      <c r="AZ44" s="87"/>
+      <c r="BA44" s="87"/>
+      <c r="BB44" s="87"/>
+      <c r="BC44" s="87"/>
+      <c r="BD44" s="87"/>
+      <c r="BE44" s="87"/>
+    </row>
+    <row r="45" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="88"/>
+      <c r="B45" s="90"/>
+      <c r="C45" s="84" t="s">
+        <v>43</v>
+      </c>
+      <c r="D45" s="84"/>
+      <c r="E45" s="84"/>
+      <c r="F45" s="84"/>
+      <c r="G45" s="84"/>
+      <c r="H45" s="88"/>
+      <c r="I45" s="89"/>
+      <c r="J45" s="89"/>
+      <c r="K45" s="89"/>
+      <c r="L45" s="89"/>
+      <c r="M45" s="89"/>
+      <c r="N45" s="89"/>
+      <c r="O45" s="90"/>
+      <c r="P45" s="88"/>
+      <c r="Q45" s="89"/>
+      <c r="R45" s="90"/>
+      <c r="S45" s="88"/>
+      <c r="T45" s="89"/>
+      <c r="U45" s="90"/>
+      <c r="V45" s="88"/>
+      <c r="W45" s="89"/>
+      <c r="X45" s="90"/>
+      <c r="Y45" s="88"/>
+      <c r="Z45" s="89"/>
+      <c r="AA45" s="90"/>
+      <c r="AB45" s="87"/>
+      <c r="AC45" s="87"/>
+      <c r="AD45" s="87"/>
+      <c r="AE45" s="87"/>
+      <c r="AF45" s="87"/>
+      <c r="AG45" s="87"/>
+      <c r="AH45" s="87"/>
+      <c r="AI45" s="87"/>
+      <c r="AJ45" s="87"/>
+      <c r="AK45" s="87"/>
+      <c r="AL45" s="87"/>
+      <c r="AM45" s="87"/>
+      <c r="AN45" s="87"/>
+      <c r="AO45" s="87"/>
+      <c r="AP45" s="87"/>
+      <c r="AQ45" s="87"/>
+      <c r="AR45" s="87"/>
+      <c r="AS45" s="87"/>
+      <c r="AT45" s="87"/>
+      <c r="AU45" s="87"/>
+      <c r="AV45" s="87"/>
+      <c r="AW45" s="87"/>
+      <c r="AX45" s="87"/>
+      <c r="AY45" s="87"/>
+      <c r="AZ45" s="87"/>
+      <c r="BA45" s="87"/>
+      <c r="BB45" s="87"/>
+      <c r="BC45" s="87"/>
+      <c r="BD45" s="87"/>
+      <c r="BE45" s="87"/>
+    </row>
+    <row r="46" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="88"/>
+      <c r="B46" s="90"/>
+      <c r="C46" s="84" t="s">
+        <v>43</v>
+      </c>
+      <c r="D46" s="84"/>
+      <c r="E46" s="84"/>
+      <c r="F46" s="84"/>
+      <c r="G46" s="84"/>
+      <c r="H46" s="88"/>
+      <c r="I46" s="89"/>
+      <c r="J46" s="89"/>
+      <c r="K46" s="89"/>
+      <c r="L46" s="89"/>
+      <c r="M46" s="89"/>
+      <c r="N46" s="89"/>
+      <c r="O46" s="90"/>
+      <c r="P46" s="88"/>
+      <c r="Q46" s="89"/>
+      <c r="R46" s="90"/>
+      <c r="S46" s="88"/>
+      <c r="T46" s="89"/>
+      <c r="U46" s="90"/>
+      <c r="V46" s="88"/>
+      <c r="W46" s="89"/>
+      <c r="X46" s="90"/>
+      <c r="Y46" s="88"/>
+      <c r="Z46" s="89"/>
+      <c r="AA46" s="90"/>
+      <c r="AB46" s="87"/>
+      <c r="AC46" s="87"/>
+      <c r="AD46" s="87"/>
+      <c r="AE46" s="87"/>
+      <c r="AF46" s="87"/>
+      <c r="AG46" s="87"/>
+      <c r="AH46" s="87"/>
+      <c r="AI46" s="87"/>
+      <c r="AJ46" s="87"/>
+      <c r="AK46" s="87"/>
+      <c r="AL46" s="87"/>
+      <c r="AM46" s="87"/>
+      <c r="AN46" s="87"/>
+      <c r="AO46" s="87"/>
+      <c r="AP46" s="87"/>
+      <c r="AQ46" s="87"/>
+      <c r="AR46" s="87"/>
+      <c r="AS46" s="87"/>
+      <c r="AT46" s="87"/>
+      <c r="AU46" s="87"/>
+      <c r="AV46" s="87"/>
+      <c r="AW46" s="87"/>
+      <c r="AX46" s="87"/>
+      <c r="AY46" s="87"/>
+      <c r="AZ46" s="87"/>
+      <c r="BA46" s="87"/>
+      <c r="BB46" s="87"/>
+      <c r="BC46" s="87"/>
+      <c r="BD46" s="87"/>
+      <c r="BE46" s="87"/>
+    </row>
+    <row r="47" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="88"/>
+      <c r="B47" s="90"/>
+      <c r="C47" s="84" t="s">
+        <v>43</v>
+      </c>
+      <c r="D47" s="84"/>
+      <c r="E47" s="84"/>
+      <c r="F47" s="84"/>
+      <c r="G47" s="84"/>
+      <c r="H47" s="88"/>
+      <c r="I47" s="89"/>
+      <c r="J47" s="89"/>
+      <c r="K47" s="89"/>
+      <c r="L47" s="89"/>
+      <c r="M47" s="89"/>
+      <c r="N47" s="89"/>
+      <c r="O47" s="90"/>
+      <c r="P47" s="88"/>
+      <c r="Q47" s="89"/>
+      <c r="R47" s="90"/>
+      <c r="S47" s="88"/>
+      <c r="T47" s="89"/>
+      <c r="U47" s="90"/>
+      <c r="V47" s="88"/>
+      <c r="W47" s="89"/>
+      <c r="X47" s="90"/>
+      <c r="Y47" s="88"/>
+      <c r="Z47" s="89"/>
+      <c r="AA47" s="90"/>
+      <c r="AB47" s="87"/>
+      <c r="AC47" s="87"/>
+      <c r="AD47" s="87"/>
+      <c r="AE47" s="87"/>
+      <c r="AF47" s="87"/>
+      <c r="AG47" s="87"/>
+      <c r="AH47" s="87"/>
+      <c r="AI47" s="87"/>
+      <c r="AJ47" s="87"/>
+      <c r="AK47" s="87"/>
+      <c r="AL47" s="87"/>
+      <c r="AM47" s="87"/>
+      <c r="AN47" s="87"/>
+      <c r="AO47" s="87"/>
+      <c r="AP47" s="87"/>
+      <c r="AQ47" s="87"/>
+      <c r="AR47" s="87"/>
+      <c r="AS47" s="87"/>
+      <c r="AT47" s="87"/>
+      <c r="AU47" s="87"/>
+      <c r="AV47" s="87"/>
+      <c r="AW47" s="87"/>
+      <c r="AX47" s="87"/>
+      <c r="AY47" s="87"/>
+      <c r="AZ47" s="87"/>
+      <c r="BA47" s="87"/>
+      <c r="BB47" s="87"/>
+      <c r="BC47" s="87"/>
+      <c r="BD47" s="87"/>
+      <c r="BE47" s="87"/>
+    </row>
+    <row r="48" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="88"/>
+      <c r="B48" s="90"/>
+      <c r="C48" s="84" t="s">
+        <v>43</v>
+      </c>
+      <c r="D48" s="84"/>
+      <c r="E48" s="84"/>
+      <c r="F48" s="84"/>
+      <c r="G48" s="84"/>
+      <c r="H48" s="88"/>
+      <c r="I48" s="89"/>
+      <c r="J48" s="89"/>
+      <c r="K48" s="89"/>
+      <c r="L48" s="89"/>
+      <c r="M48" s="89"/>
+      <c r="N48" s="89"/>
+      <c r="O48" s="90"/>
+      <c r="P48" s="88"/>
+      <c r="Q48" s="89"/>
+      <c r="R48" s="90"/>
+      <c r="S48" s="88"/>
+      <c r="T48" s="89"/>
+      <c r="U48" s="90"/>
+      <c r="V48" s="88"/>
+      <c r="W48" s="89"/>
+      <c r="X48" s="90"/>
+      <c r="Y48" s="88"/>
+      <c r="Z48" s="89"/>
+      <c r="AA48" s="90"/>
+      <c r="AB48" s="87"/>
+      <c r="AC48" s="87"/>
+      <c r="AD48" s="87"/>
+      <c r="AE48" s="87"/>
+      <c r="AF48" s="87"/>
+      <c r="AG48" s="87"/>
+      <c r="AH48" s="87"/>
+      <c r="AI48" s="87"/>
+      <c r="AJ48" s="87"/>
+      <c r="AK48" s="87"/>
+      <c r="AL48" s="87"/>
+      <c r="AM48" s="87"/>
+      <c r="AN48" s="87"/>
+      <c r="AO48" s="87"/>
+      <c r="AP48" s="87"/>
+      <c r="AQ48" s="87"/>
+      <c r="AR48" s="87"/>
+      <c r="AS48" s="87"/>
+      <c r="AT48" s="87"/>
+      <c r="AU48" s="87"/>
+      <c r="AV48" s="87"/>
+      <c r="AW48" s="87"/>
+      <c r="AX48" s="87"/>
+      <c r="AY48" s="87"/>
+      <c r="AZ48" s="87"/>
+      <c r="BA48" s="87"/>
+      <c r="BB48" s="87"/>
+      <c r="BC48" s="87"/>
+      <c r="BD48" s="87"/>
+      <c r="BE48" s="87"/>
+    </row>
+    <row r="49" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="88"/>
+      <c r="B49" s="90"/>
+      <c r="C49" s="84" t="s">
+        <v>43</v>
+      </c>
+      <c r="D49" s="84"/>
+      <c r="E49" s="84"/>
+      <c r="F49" s="84"/>
+      <c r="G49" s="84"/>
+      <c r="H49" s="88"/>
+      <c r="I49" s="89"/>
+      <c r="J49" s="89"/>
+      <c r="K49" s="89"/>
+      <c r="L49" s="89"/>
+      <c r="M49" s="89"/>
+      <c r="N49" s="89"/>
+      <c r="O49" s="90"/>
+      <c r="P49" s="88"/>
+      <c r="Q49" s="89"/>
+      <c r="R49" s="90"/>
+      <c r="S49" s="88"/>
+      <c r="T49" s="89"/>
+      <c r="U49" s="90"/>
+      <c r="V49" s="88"/>
+      <c r="W49" s="89"/>
+      <c r="X49" s="90"/>
+      <c r="Y49" s="88"/>
+      <c r="Z49" s="89"/>
+      <c r="AA49" s="90"/>
+      <c r="AB49" s="87"/>
+      <c r="AC49" s="87"/>
+      <c r="AD49" s="87"/>
+      <c r="AE49" s="87"/>
+      <c r="AF49" s="87"/>
+      <c r="AG49" s="87"/>
+      <c r="AH49" s="87"/>
+      <c r="AI49" s="87"/>
+      <c r="AJ49" s="87"/>
+      <c r="AK49" s="87"/>
+      <c r="AL49" s="87"/>
+      <c r="AM49" s="87"/>
+      <c r="AN49" s="87"/>
+      <c r="AO49" s="87"/>
+      <c r="AP49" s="87"/>
+      <c r="AQ49" s="87"/>
+      <c r="AR49" s="87"/>
+      <c r="AS49" s="87"/>
+      <c r="AT49" s="87"/>
+      <c r="AU49" s="87"/>
+      <c r="AV49" s="87"/>
+      <c r="AW49" s="87"/>
+      <c r="AX49" s="87"/>
+      <c r="AY49" s="87"/>
+      <c r="AZ49" s="87"/>
+      <c r="BA49" s="87"/>
+      <c r="BB49" s="87"/>
+      <c r="BC49" s="87"/>
+      <c r="BD49" s="87"/>
+      <c r="BE49" s="87"/>
+    </row>
+    <row r="50" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="88"/>
+      <c r="B50" s="90"/>
+      <c r="C50" s="84" t="s">
+        <v>43</v>
+      </c>
+      <c r="D50" s="84"/>
+      <c r="E50" s="84"/>
+      <c r="F50" s="84"/>
+      <c r="G50" s="84"/>
+      <c r="H50" s="88"/>
+      <c r="I50" s="89"/>
+      <c r="J50" s="89"/>
+      <c r="K50" s="89"/>
+      <c r="L50" s="89"/>
+      <c r="M50" s="89"/>
+      <c r="N50" s="89"/>
+      <c r="O50" s="90"/>
+      <c r="P50" s="88"/>
+      <c r="Q50" s="89"/>
+      <c r="R50" s="90"/>
+      <c r="S50" s="88"/>
+      <c r="T50" s="89"/>
+      <c r="U50" s="90"/>
+      <c r="V50" s="88"/>
+      <c r="W50" s="89"/>
+      <c r="X50" s="90"/>
+      <c r="Y50" s="88"/>
+      <c r="Z50" s="89"/>
+      <c r="AA50" s="90"/>
+      <c r="AB50" s="87"/>
+      <c r="AC50" s="87"/>
+      <c r="AD50" s="87"/>
+      <c r="AE50" s="87"/>
+      <c r="AF50" s="87"/>
+      <c r="AG50" s="87"/>
+      <c r="AH50" s="87"/>
+      <c r="AI50" s="87"/>
+      <c r="AJ50" s="87"/>
+      <c r="AK50" s="87"/>
+      <c r="AL50" s="87"/>
+      <c r="AM50" s="87"/>
+      <c r="AN50" s="87"/>
+      <c r="AO50" s="87"/>
+      <c r="AP50" s="87"/>
+      <c r="AQ50" s="87"/>
+      <c r="AR50" s="87"/>
+      <c r="AS50" s="87"/>
+      <c r="AT50" s="87"/>
+      <c r="AU50" s="87"/>
+      <c r="AV50" s="87"/>
+      <c r="AW50" s="87"/>
+      <c r="AX50" s="87"/>
+      <c r="AY50" s="87"/>
+      <c r="AZ50" s="87"/>
+      <c r="BA50" s="87"/>
+      <c r="BB50" s="87"/>
+      <c r="BC50" s="87"/>
+      <c r="BD50" s="87"/>
+      <c r="BE50" s="87"/>
+    </row>
+    <row r="51" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="88"/>
+      <c r="B51" s="90"/>
+      <c r="C51" s="84" t="s">
+        <v>43</v>
+      </c>
+      <c r="D51" s="84"/>
+      <c r="E51" s="84"/>
+      <c r="F51" s="84"/>
+      <c r="G51" s="84"/>
+      <c r="H51" s="88"/>
+      <c r="I51" s="89"/>
+      <c r="J51" s="89"/>
+      <c r="K51" s="89"/>
+      <c r="L51" s="89"/>
+      <c r="M51" s="89"/>
+      <c r="N51" s="89"/>
+      <c r="O51" s="90"/>
+      <c r="P51" s="88"/>
+      <c r="Q51" s="89"/>
+      <c r="R51" s="90"/>
+      <c r="S51" s="88"/>
+      <c r="T51" s="89"/>
+      <c r="U51" s="90"/>
+      <c r="V51" s="88"/>
+      <c r="W51" s="89"/>
+      <c r="X51" s="90"/>
+      <c r="Y51" s="88"/>
+      <c r="Z51" s="89"/>
+      <c r="AA51" s="90"/>
+      <c r="AB51" s="87"/>
+      <c r="AC51" s="87"/>
+      <c r="AD51" s="87"/>
+      <c r="AE51" s="87"/>
+      <c r="AF51" s="87"/>
+      <c r="AG51" s="87"/>
+      <c r="AH51" s="87"/>
+      <c r="AI51" s="87"/>
+      <c r="AJ51" s="87"/>
+      <c r="AK51" s="87"/>
+      <c r="AL51" s="87"/>
+      <c r="AM51" s="87"/>
+      <c r="AN51" s="87"/>
+      <c r="AO51" s="87"/>
+      <c r="AP51" s="87"/>
+      <c r="AQ51" s="87"/>
+      <c r="AR51" s="87"/>
+      <c r="AS51" s="87"/>
+      <c r="AT51" s="87"/>
+      <c r="AU51" s="87"/>
+      <c r="AV51" s="87"/>
+      <c r="AW51" s="87"/>
+      <c r="AX51" s="87"/>
+      <c r="AY51" s="87"/>
+      <c r="AZ51" s="87"/>
+      <c r="BA51" s="87"/>
+      <c r="BB51" s="87"/>
+      <c r="BC51" s="87"/>
+      <c r="BD51" s="87"/>
+      <c r="BE51" s="87"/>
+    </row>
+    <row r="52" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="88"/>
+      <c r="B52" s="90"/>
+      <c r="C52" s="84" t="s">
+        <v>43</v>
+      </c>
+      <c r="D52" s="84"/>
+      <c r="E52" s="84"/>
+      <c r="F52" s="84"/>
+      <c r="G52" s="84"/>
+      <c r="H52" s="88"/>
+      <c r="I52" s="89"/>
+      <c r="J52" s="89"/>
+      <c r="K52" s="89"/>
+      <c r="L52" s="89"/>
+      <c r="M52" s="89"/>
+      <c r="N52" s="89"/>
+      <c r="O52" s="90"/>
+      <c r="P52" s="88"/>
+      <c r="Q52" s="89"/>
+      <c r="R52" s="90"/>
+      <c r="S52" s="88"/>
+      <c r="T52" s="89"/>
+      <c r="U52" s="90"/>
+      <c r="V52" s="88"/>
+      <c r="W52" s="89"/>
+      <c r="X52" s="90"/>
+      <c r="Y52" s="88"/>
+      <c r="Z52" s="89"/>
+      <c r="AA52" s="90"/>
+      <c r="AB52" s="87"/>
+      <c r="AC52" s="87"/>
+      <c r="AD52" s="87"/>
+      <c r="AE52" s="87"/>
+      <c r="AF52" s="87"/>
+      <c r="AG52" s="87"/>
+      <c r="AH52" s="87"/>
+      <c r="AI52" s="87"/>
+      <c r="AJ52" s="87"/>
+      <c r="AK52" s="87"/>
+      <c r="AL52" s="87"/>
+      <c r="AM52" s="87"/>
+      <c r="AN52" s="87"/>
+      <c r="AO52" s="87"/>
+      <c r="AP52" s="87"/>
+      <c r="AQ52" s="87"/>
+      <c r="AR52" s="87"/>
+      <c r="AS52" s="87"/>
+      <c r="AT52" s="87"/>
+      <c r="AU52" s="87"/>
+      <c r="AV52" s="87"/>
+      <c r="AW52" s="87"/>
+      <c r="AX52" s="87"/>
+      <c r="AY52" s="87"/>
+      <c r="AZ52" s="87"/>
+      <c r="BA52" s="87"/>
+      <c r="BB52" s="87"/>
+      <c r="BC52" s="87"/>
+      <c r="BD52" s="87"/>
+      <c r="BE52" s="87"/>
+    </row>
+    <row r="53" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="88"/>
+      <c r="B53" s="90"/>
+      <c r="C53" s="84" t="s">
+        <v>43</v>
+      </c>
+      <c r="D53" s="84"/>
+      <c r="E53" s="84"/>
+      <c r="F53" s="84"/>
+      <c r="G53" s="84"/>
+      <c r="H53" s="88"/>
+      <c r="I53" s="89"/>
+      <c r="J53" s="89"/>
+      <c r="K53" s="89"/>
+      <c r="L53" s="89"/>
+      <c r="M53" s="89"/>
+      <c r="N53" s="89"/>
+      <c r="O53" s="90"/>
+      <c r="P53" s="88"/>
+      <c r="Q53" s="89"/>
+      <c r="R53" s="90"/>
+      <c r="S53" s="88"/>
+      <c r="T53" s="89"/>
+      <c r="U53" s="90"/>
+      <c r="V53" s="88"/>
+      <c r="W53" s="89"/>
+      <c r="X53" s="90"/>
+      <c r="Y53" s="88"/>
+      <c r="Z53" s="89"/>
+      <c r="AA53" s="90"/>
+      <c r="AB53" s="87"/>
+      <c r="AC53" s="87"/>
+      <c r="AD53" s="87"/>
+      <c r="AE53" s="87"/>
+      <c r="AF53" s="87"/>
+      <c r="AG53" s="87"/>
+      <c r="AH53" s="87"/>
+      <c r="AI53" s="87"/>
+      <c r="AJ53" s="87"/>
+      <c r="AK53" s="87"/>
+      <c r="AL53" s="87"/>
+      <c r="AM53" s="87"/>
+      <c r="AN53" s="87"/>
+      <c r="AO53" s="87"/>
+      <c r="AP53" s="87"/>
+      <c r="AQ53" s="87"/>
+      <c r="AR53" s="87"/>
+      <c r="AS53" s="87"/>
+      <c r="AT53" s="87"/>
+      <c r="AU53" s="87"/>
+      <c r="AV53" s="87"/>
+      <c r="AW53" s="87"/>
+      <c r="AX53" s="87"/>
+      <c r="AY53" s="87"/>
+      <c r="AZ53" s="87"/>
+      <c r="BA53" s="87"/>
+      <c r="BB53" s="87"/>
+      <c r="BC53" s="87"/>
+      <c r="BD53" s="87"/>
+      <c r="BE53" s="87"/>
+    </row>
+    <row r="54" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="88"/>
+      <c r="B54" s="90"/>
+      <c r="C54" s="84" t="s">
+        <v>43</v>
+      </c>
+      <c r="D54" s="84"/>
+      <c r="E54" s="84"/>
+      <c r="F54" s="84"/>
+      <c r="G54" s="84"/>
+      <c r="H54" s="88"/>
+      <c r="I54" s="89"/>
+      <c r="J54" s="89"/>
+      <c r="K54" s="89"/>
+      <c r="L54" s="89"/>
+      <c r="M54" s="89"/>
+      <c r="N54" s="89"/>
+      <c r="O54" s="90"/>
+      <c r="P54" s="88"/>
+      <c r="Q54" s="89"/>
+      <c r="R54" s="90"/>
+      <c r="S54" s="88"/>
+      <c r="T54" s="89"/>
+      <c r="U54" s="90"/>
+      <c r="V54" s="88"/>
+      <c r="W54" s="89"/>
+      <c r="X54" s="90"/>
+      <c r="Y54" s="88"/>
+      <c r="Z54" s="89"/>
+      <c r="AA54" s="90"/>
+      <c r="AB54" s="87"/>
+      <c r="AC54" s="87"/>
+      <c r="AD54" s="87"/>
+      <c r="AE54" s="87"/>
+      <c r="AF54" s="87"/>
+      <c r="AG54" s="87"/>
+      <c r="AH54" s="87"/>
+      <c r="AI54" s="87"/>
+      <c r="AJ54" s="87"/>
+      <c r="AK54" s="87"/>
+      <c r="AL54" s="87"/>
+      <c r="AM54" s="87"/>
+      <c r="AN54" s="87"/>
+      <c r="AO54" s="87"/>
+      <c r="AP54" s="87"/>
+      <c r="AQ54" s="87"/>
+      <c r="AR54" s="87"/>
+      <c r="AS54" s="87"/>
+      <c r="AT54" s="87"/>
+      <c r="AU54" s="87"/>
+      <c r="AV54" s="87"/>
+      <c r="AW54" s="87"/>
+      <c r="AX54" s="87"/>
+      <c r="AY54" s="87"/>
+      <c r="AZ54" s="87"/>
+      <c r="BA54" s="87"/>
+      <c r="BB54" s="87"/>
+      <c r="BC54" s="87"/>
+      <c r="BD54" s="87"/>
+      <c r="BE54" s="87"/>
+    </row>
+    <row r="55" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="88"/>
+      <c r="B55" s="90"/>
+      <c r="C55" s="84" t="s">
+        <v>43</v>
+      </c>
+      <c r="D55" s="84"/>
+      <c r="E55" s="84"/>
+      <c r="F55" s="84"/>
+      <c r="G55" s="84"/>
+      <c r="H55" s="88"/>
+      <c r="I55" s="89"/>
+      <c r="J55" s="89"/>
+      <c r="K55" s="89"/>
+      <c r="L55" s="89"/>
+      <c r="M55" s="89"/>
+      <c r="N55" s="89"/>
+      <c r="O55" s="90"/>
+      <c r="P55" s="88"/>
+      <c r="Q55" s="89"/>
+      <c r="R55" s="90"/>
+      <c r="S55" s="88"/>
+      <c r="T55" s="89"/>
+      <c r="U55" s="90"/>
+      <c r="V55" s="88"/>
+      <c r="W55" s="89"/>
+      <c r="X55" s="90"/>
+      <c r="Y55" s="88"/>
+      <c r="Z55" s="89"/>
+      <c r="AA55" s="90"/>
+      <c r="AB55" s="87"/>
+      <c r="AC55" s="87"/>
+      <c r="AD55" s="87"/>
+      <c r="AE55" s="87"/>
+      <c r="AF55" s="87"/>
+      <c r="AG55" s="87"/>
+      <c r="AH55" s="87"/>
+      <c r="AI55" s="87"/>
+      <c r="AJ55" s="87"/>
+      <c r="AK55" s="87"/>
+      <c r="AL55" s="87"/>
+      <c r="AM55" s="87"/>
+      <c r="AN55" s="87"/>
+      <c r="AO55" s="87"/>
+      <c r="AP55" s="87"/>
+      <c r="AQ55" s="87"/>
+      <c r="AR55" s="87"/>
+      <c r="AS55" s="87"/>
+      <c r="AT55" s="87"/>
+      <c r="AU55" s="87"/>
+      <c r="AV55" s="87"/>
+      <c r="AW55" s="87"/>
+      <c r="AX55" s="87"/>
+      <c r="AY55" s="87"/>
+      <c r="AZ55" s="87"/>
+      <c r="BA55" s="87"/>
+      <c r="BB55" s="87"/>
+      <c r="BC55" s="87"/>
+      <c r="BD55" s="87"/>
+      <c r="BE55" s="87"/>
+    </row>
+    <row r="56" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="88"/>
+      <c r="B56" s="90"/>
+      <c r="C56" s="84" t="s">
+        <v>43</v>
+      </c>
+      <c r="D56" s="84"/>
+      <c r="E56" s="84"/>
+      <c r="F56" s="84"/>
+      <c r="G56" s="84"/>
+      <c r="H56" s="88"/>
+      <c r="I56" s="89"/>
+      <c r="J56" s="89"/>
+      <c r="K56" s="89"/>
+      <c r="L56" s="89"/>
+      <c r="M56" s="89"/>
+      <c r="N56" s="89"/>
+      <c r="O56" s="90"/>
+      <c r="P56" s="88"/>
+      <c r="Q56" s="89"/>
+      <c r="R56" s="90"/>
+      <c r="S56" s="88"/>
+      <c r="T56" s="89"/>
+      <c r="U56" s="90"/>
+      <c r="V56" s="88"/>
+      <c r="W56" s="89"/>
+      <c r="X56" s="90"/>
+      <c r="Y56" s="88"/>
+      <c r="Z56" s="89"/>
+      <c r="AA56" s="90"/>
+      <c r="AB56" s="87"/>
+      <c r="AC56" s="87"/>
+      <c r="AD56" s="87"/>
+      <c r="AE56" s="87"/>
+      <c r="AF56" s="87"/>
+      <c r="AG56" s="87"/>
+      <c r="AH56" s="87"/>
+      <c r="AI56" s="87"/>
+      <c r="AJ56" s="87"/>
+      <c r="AK56" s="87"/>
+      <c r="AL56" s="87"/>
+      <c r="AM56" s="87"/>
+      <c r="AN56" s="87"/>
+      <c r="AO56" s="87"/>
+      <c r="AP56" s="87"/>
+      <c r="AQ56" s="87"/>
+      <c r="AR56" s="87"/>
+      <c r="AS56" s="87"/>
+      <c r="AT56" s="87"/>
+      <c r="AU56" s="87"/>
+      <c r="AV56" s="87"/>
+      <c r="AW56" s="87"/>
+      <c r="AX56" s="87"/>
+      <c r="AY56" s="87"/>
+      <c r="AZ56" s="87"/>
+      <c r="BA56" s="87"/>
+      <c r="BB56" s="87"/>
+      <c r="BC56" s="87"/>
+      <c r="BD56" s="87"/>
+      <c r="BE56" s="87"/>
+    </row>
+    <row r="57" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="88"/>
+      <c r="B57" s="90"/>
+      <c r="C57" s="88"/>
+      <c r="D57" s="89"/>
+      <c r="E57" s="89"/>
+      <c r="F57" s="89"/>
+      <c r="G57" s="90"/>
+      <c r="H57" s="88"/>
+      <c r="I57" s="89"/>
+      <c r="J57" s="89"/>
+      <c r="K57" s="89"/>
+      <c r="L57" s="89"/>
+      <c r="M57" s="89"/>
+      <c r="N57" s="89"/>
+      <c r="O57" s="90"/>
+      <c r="P57" s="88"/>
+      <c r="Q57" s="89"/>
+      <c r="R57" s="90"/>
+      <c r="S57" s="88"/>
+      <c r="T57" s="89"/>
+      <c r="U57" s="90"/>
+      <c r="V57" s="88"/>
+      <c r="W57" s="89"/>
+      <c r="X57" s="90"/>
+      <c r="Y57" s="88"/>
+      <c r="Z57" s="89"/>
+      <c r="AA57" s="90"/>
+      <c r="AB57" s="87"/>
+      <c r="AC57" s="87"/>
+      <c r="AD57" s="87"/>
+      <c r="AE57" s="87"/>
+      <c r="AF57" s="87"/>
+      <c r="AG57" s="87"/>
+      <c r="AH57" s="87"/>
+      <c r="AI57" s="87"/>
+      <c r="AJ57" s="87"/>
+      <c r="AK57" s="87"/>
+      <c r="AL57" s="87"/>
+      <c r="AM57" s="87"/>
+      <c r="AN57" s="87"/>
+      <c r="AO57" s="87"/>
+      <c r="AP57" s="87"/>
+      <c r="AQ57" s="87"/>
+      <c r="AR57" s="87"/>
+      <c r="AS57" s="87"/>
+      <c r="AT57" s="87"/>
+      <c r="AU57" s="87"/>
+      <c r="AV57" s="87"/>
+      <c r="AW57" s="87"/>
+      <c r="AX57" s="87"/>
+      <c r="AY57" s="87"/>
+      <c r="AZ57" s="87"/>
+      <c r="BA57" s="87"/>
+      <c r="BB57" s="87"/>
+      <c r="BC57" s="87"/>
+      <c r="BD57" s="87"/>
+      <c r="BE57" s="87"/>
+    </row>
+    <row r="58" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="88"/>
+      <c r="B58" s="90"/>
+      <c r="C58" s="88"/>
+      <c r="D58" s="89"/>
+      <c r="E58" s="89"/>
+      <c r="F58" s="89"/>
+      <c r="G58" s="90"/>
+      <c r="H58" s="88"/>
+      <c r="I58" s="89"/>
+      <c r="J58" s="89"/>
+      <c r="K58" s="89"/>
+      <c r="L58" s="89"/>
+      <c r="M58" s="89"/>
+      <c r="N58" s="89"/>
+      <c r="O58" s="90"/>
+      <c r="P58" s="88"/>
+      <c r="Q58" s="89"/>
+      <c r="R58" s="90"/>
+      <c r="S58" s="88"/>
+      <c r="T58" s="89"/>
+      <c r="U58" s="90"/>
+      <c r="V58" s="88"/>
+      <c r="W58" s="89"/>
+      <c r="X58" s="90"/>
+      <c r="Y58" s="88"/>
+      <c r="Z58" s="89"/>
+      <c r="AA58" s="90"/>
+      <c r="AB58" s="87"/>
+      <c r="AC58" s="87"/>
+      <c r="AD58" s="87"/>
+      <c r="AE58" s="87"/>
+      <c r="AF58" s="87"/>
+      <c r="AG58" s="87"/>
+      <c r="AH58" s="87"/>
+      <c r="AI58" s="87"/>
+      <c r="AJ58" s="87"/>
+      <c r="AK58" s="87"/>
+      <c r="AL58" s="87"/>
+      <c r="AM58" s="87"/>
+      <c r="AN58" s="87"/>
+      <c r="AO58" s="87"/>
+      <c r="AP58" s="87"/>
+      <c r="AQ58" s="87"/>
+      <c r="AR58" s="87"/>
+      <c r="AS58" s="87"/>
+      <c r="AT58" s="87"/>
+      <c r="AU58" s="87"/>
+      <c r="AV58" s="87"/>
+      <c r="AW58" s="87"/>
+      <c r="AX58" s="87"/>
+      <c r="AY58" s="87"/>
+      <c r="AZ58" s="87"/>
+      <c r="BA58" s="87"/>
+      <c r="BB58" s="87"/>
+      <c r="BC58" s="87"/>
+      <c r="BD58" s="87"/>
+      <c r="BE58" s="87"/>
+    </row>
+    <row r="59" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="88"/>
+      <c r="B59" s="90"/>
+      <c r="C59" s="88"/>
+      <c r="D59" s="89"/>
+      <c r="E59" s="89"/>
+      <c r="F59" s="89"/>
+      <c r="G59" s="90"/>
+      <c r="H59" s="88"/>
+      <c r="I59" s="89"/>
+      <c r="J59" s="89"/>
+      <c r="K59" s="89"/>
+      <c r="L59" s="89"/>
+      <c r="M59" s="89"/>
+      <c r="N59" s="89"/>
+      <c r="O59" s="90"/>
+      <c r="P59" s="88"/>
+      <c r="Q59" s="89"/>
+      <c r="R59" s="90"/>
+      <c r="S59" s="88"/>
+      <c r="T59" s="89"/>
+      <c r="U59" s="90"/>
+      <c r="V59" s="88"/>
+      <c r="W59" s="89"/>
+      <c r="X59" s="90"/>
+      <c r="Y59" s="88"/>
+      <c r="Z59" s="89"/>
+      <c r="AA59" s="90"/>
+      <c r="AB59" s="87"/>
+      <c r="AC59" s="87"/>
+      <c r="AD59" s="87"/>
+      <c r="AE59" s="87"/>
+      <c r="AF59" s="87"/>
+      <c r="AG59" s="87"/>
+      <c r="AH59" s="87"/>
+      <c r="AI59" s="87"/>
+      <c r="AJ59" s="87"/>
+      <c r="AK59" s="87"/>
+      <c r="AL59" s="87"/>
+      <c r="AM59" s="87"/>
+      <c r="AN59" s="87"/>
+      <c r="AO59" s="87"/>
+      <c r="AP59" s="87"/>
+      <c r="AQ59" s="87"/>
+      <c r="AR59" s="87"/>
+      <c r="AS59" s="87"/>
+      <c r="AT59" s="87"/>
+      <c r="AU59" s="87"/>
+      <c r="AV59" s="87"/>
+      <c r="AW59" s="87"/>
+      <c r="AX59" s="87"/>
+      <c r="AY59" s="87"/>
+      <c r="AZ59" s="87"/>
+      <c r="BA59" s="87"/>
+      <c r="BB59" s="87"/>
+      <c r="BC59" s="87"/>
+      <c r="BD59" s="87"/>
+      <c r="BE59" s="87"/>
+    </row>
+    <row r="60" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="88"/>
+      <c r="B60" s="90"/>
+      <c r="C60" s="88"/>
+      <c r="D60" s="89"/>
+      <c r="E60" s="89"/>
+      <c r="F60" s="89"/>
+      <c r="G60" s="90"/>
+      <c r="H60" s="88"/>
+      <c r="I60" s="89"/>
+      <c r="J60" s="89"/>
+      <c r="K60" s="89"/>
+      <c r="L60" s="89"/>
+      <c r="M60" s="89"/>
+      <c r="N60" s="89"/>
+      <c r="O60" s="90"/>
+      <c r="P60" s="88"/>
+      <c r="Q60" s="89"/>
+      <c r="R60" s="90"/>
+      <c r="S60" s="88"/>
+      <c r="T60" s="89"/>
+      <c r="U60" s="90"/>
+      <c r="V60" s="88"/>
+      <c r="W60" s="89"/>
+      <c r="X60" s="90"/>
+      <c r="Y60" s="88"/>
+      <c r="Z60" s="89"/>
+      <c r="AA60" s="90"/>
+      <c r="AB60" s="87"/>
+      <c r="AC60" s="87"/>
+      <c r="AD60" s="87"/>
+      <c r="AE60" s="87"/>
+      <c r="AF60" s="87"/>
+      <c r="AG60" s="87"/>
+      <c r="AH60" s="87"/>
+      <c r="AI60" s="87"/>
+      <c r="AJ60" s="87"/>
+      <c r="AK60" s="87"/>
+      <c r="AL60" s="87"/>
+      <c r="AM60" s="87"/>
+      <c r="AN60" s="87"/>
+      <c r="AO60" s="87"/>
+      <c r="AP60" s="87"/>
+      <c r="AQ60" s="87"/>
+      <c r="AR60" s="87"/>
+      <c r="AS60" s="87"/>
+      <c r="AT60" s="87"/>
+      <c r="AU60" s="87"/>
+      <c r="AV60" s="87"/>
+      <c r="AW60" s="87"/>
+      <c r="AX60" s="87"/>
+      <c r="AY60" s="87"/>
+      <c r="AZ60" s="87"/>
+      <c r="BA60" s="87"/>
+      <c r="BB60" s="87"/>
+      <c r="BC60" s="87"/>
+      <c r="BD60" s="87"/>
+      <c r="BE60" s="87"/>
+    </row>
+    <row r="61" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="88"/>
+      <c r="B61" s="90"/>
+      <c r="C61" s="88"/>
+      <c r="D61" s="89"/>
+      <c r="E61" s="89"/>
+      <c r="F61" s="89"/>
+      <c r="G61" s="90"/>
+      <c r="H61" s="88"/>
+      <c r="I61" s="89"/>
+      <c r="J61" s="89"/>
+      <c r="K61" s="89"/>
+      <c r="L61" s="89"/>
+      <c r="M61" s="89"/>
+      <c r="N61" s="89"/>
+      <c r="O61" s="90"/>
+      <c r="P61" s="88"/>
+      <c r="Q61" s="89"/>
+      <c r="R61" s="90"/>
+      <c r="S61" s="88"/>
+      <c r="T61" s="89"/>
+      <c r="U61" s="90"/>
+      <c r="V61" s="88"/>
+      <c r="W61" s="89"/>
+      <c r="X61" s="90"/>
+      <c r="Y61" s="88"/>
+      <c r="Z61" s="89"/>
+      <c r="AA61" s="90"/>
+      <c r="AB61" s="87"/>
+      <c r="AC61" s="87"/>
+      <c r="AD61" s="87"/>
+      <c r="AE61" s="87"/>
+      <c r="AF61" s="87"/>
+      <c r="AG61" s="87"/>
+      <c r="AH61" s="87"/>
+      <c r="AI61" s="87"/>
+      <c r="AJ61" s="87"/>
+      <c r="AK61" s="87"/>
+      <c r="AL61" s="87"/>
+      <c r="AM61" s="87"/>
+      <c r="AN61" s="87"/>
+      <c r="AO61" s="87"/>
+      <c r="AP61" s="87"/>
+      <c r="AQ61" s="87"/>
+      <c r="AR61" s="87"/>
+      <c r="AS61" s="87"/>
+      <c r="AT61" s="87"/>
+      <c r="AU61" s="87"/>
+      <c r="AV61" s="87"/>
+      <c r="AW61" s="87"/>
+      <c r="AX61" s="87"/>
+      <c r="AY61" s="87"/>
+      <c r="AZ61" s="87"/>
+      <c r="BA61" s="87"/>
+      <c r="BB61" s="87"/>
+      <c r="BC61" s="87"/>
+      <c r="BD61" s="87"/>
+      <c r="BE61" s="87"/>
+    </row>
+    <row r="62" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="88"/>
+      <c r="B62" s="90"/>
+      <c r="C62" s="88"/>
+      <c r="D62" s="89"/>
+      <c r="E62" s="89"/>
+      <c r="F62" s="89"/>
+      <c r="G62" s="90"/>
+      <c r="H62" s="88"/>
+      <c r="I62" s="89"/>
+      <c r="J62" s="89"/>
+      <c r="K62" s="89"/>
+      <c r="L62" s="89"/>
+      <c r="M62" s="89"/>
+      <c r="N62" s="89"/>
+      <c r="O62" s="90"/>
+      <c r="P62" s="88"/>
+      <c r="Q62" s="89"/>
+      <c r="R62" s="90"/>
+      <c r="S62" s="88"/>
+      <c r="T62" s="89"/>
+      <c r="U62" s="90"/>
+      <c r="V62" s="88"/>
+      <c r="W62" s="89"/>
+      <c r="X62" s="90"/>
+      <c r="Y62" s="88"/>
+      <c r="Z62" s="89"/>
+      <c r="AA62" s="90"/>
+      <c r="AB62" s="87"/>
+      <c r="AC62" s="87"/>
+      <c r="AD62" s="87"/>
+      <c r="AE62" s="87"/>
+      <c r="AF62" s="87"/>
+      <c r="AG62" s="87"/>
+      <c r="AH62" s="87"/>
+      <c r="AI62" s="87"/>
+      <c r="AJ62" s="87"/>
+      <c r="AK62" s="87"/>
+      <c r="AL62" s="87"/>
+      <c r="AM62" s="87"/>
+      <c r="AN62" s="87"/>
+      <c r="AO62" s="87"/>
+      <c r="AP62" s="87"/>
+      <c r="AQ62" s="87"/>
+      <c r="AR62" s="87"/>
+      <c r="AS62" s="87"/>
+      <c r="AT62" s="87"/>
+      <c r="AU62" s="87"/>
+      <c r="AV62" s="87"/>
+      <c r="AW62" s="87"/>
+      <c r="AX62" s="87"/>
+      <c r="AY62" s="87"/>
+      <c r="AZ62" s="87"/>
+      <c r="BA62" s="87"/>
+      <c r="BB62" s="87"/>
+      <c r="BC62" s="87"/>
+      <c r="BD62" s="87"/>
+      <c r="BE62" s="87"/>
+    </row>
+    <row r="63" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="88"/>
+      <c r="B63" s="90"/>
+      <c r="C63" s="88"/>
+      <c r="D63" s="89"/>
+      <c r="E63" s="89"/>
+      <c r="F63" s="89"/>
+      <c r="G63" s="90"/>
+      <c r="H63" s="88"/>
+      <c r="I63" s="89"/>
+      <c r="J63" s="89"/>
+      <c r="K63" s="89"/>
+      <c r="L63" s="89"/>
+      <c r="M63" s="89"/>
+      <c r="N63" s="89"/>
+      <c r="O63" s="90"/>
+      <c r="P63" s="88"/>
+      <c r="Q63" s="89"/>
+      <c r="R63" s="90"/>
+      <c r="S63" s="88"/>
+      <c r="T63" s="89"/>
+      <c r="U63" s="90"/>
+      <c r="V63" s="88"/>
+      <c r="W63" s="89"/>
+      <c r="X63" s="90"/>
+      <c r="Y63" s="88"/>
+      <c r="Z63" s="89"/>
+      <c r="AA63" s="90"/>
+      <c r="AB63" s="87"/>
+      <c r="AC63" s="87"/>
+      <c r="AD63" s="87"/>
+      <c r="AE63" s="87"/>
+      <c r="AF63" s="87"/>
+      <c r="AG63" s="87"/>
+      <c r="AH63" s="87"/>
+      <c r="AI63" s="87"/>
+      <c r="AJ63" s="87"/>
+      <c r="AK63" s="87"/>
+      <c r="AL63" s="87"/>
+      <c r="AM63" s="87"/>
+      <c r="AN63" s="87"/>
+      <c r="AO63" s="87"/>
+      <c r="AP63" s="87"/>
+      <c r="AQ63" s="87"/>
+      <c r="AR63" s="87"/>
+      <c r="AS63" s="87"/>
+      <c r="AT63" s="87"/>
+      <c r="AU63" s="87"/>
+      <c r="AV63" s="87"/>
+      <c r="AW63" s="87"/>
+      <c r="AX63" s="87"/>
+      <c r="AY63" s="87"/>
+      <c r="AZ63" s="87"/>
+      <c r="BA63" s="87"/>
+      <c r="BB63" s="87"/>
+      <c r="BC63" s="87"/>
+      <c r="BD63" s="87"/>
+      <c r="BE63" s="87"/>
+    </row>
+    <row r="64" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="88"/>
+      <c r="B64" s="90"/>
+      <c r="C64" s="88"/>
+      <c r="D64" s="89"/>
+      <c r="E64" s="89"/>
+      <c r="F64" s="89"/>
+      <c r="G64" s="90"/>
+      <c r="H64" s="88"/>
+      <c r="I64" s="89"/>
+      <c r="J64" s="89"/>
+      <c r="K64" s="89"/>
+      <c r="L64" s="89"/>
+      <c r="M64" s="89"/>
+      <c r="N64" s="89"/>
+      <c r="O64" s="90"/>
+      <c r="P64" s="88"/>
+      <c r="Q64" s="89"/>
+      <c r="R64" s="90"/>
+      <c r="S64" s="88"/>
+      <c r="T64" s="89"/>
+      <c r="U64" s="90"/>
+      <c r="V64" s="88"/>
+      <c r="W64" s="89"/>
+      <c r="X64" s="90"/>
+      <c r="Y64" s="88"/>
+      <c r="Z64" s="89"/>
+      <c r="AA64" s="90"/>
+      <c r="AB64" s="87"/>
+      <c r="AC64" s="87"/>
+      <c r="AD64" s="87"/>
+      <c r="AE64" s="87"/>
+      <c r="AF64" s="87"/>
+      <c r="AG64" s="87"/>
+      <c r="AH64" s="87"/>
+      <c r="AI64" s="87"/>
+      <c r="AJ64" s="87"/>
+      <c r="AK64" s="87"/>
+      <c r="AL64" s="87"/>
+      <c r="AM64" s="87"/>
+      <c r="AN64" s="87"/>
+      <c r="AO64" s="87"/>
+      <c r="AP64" s="87"/>
+      <c r="AQ64" s="87"/>
+      <c r="AR64" s="87"/>
+      <c r="AS64" s="87"/>
+      <c r="AT64" s="87"/>
+      <c r="AU64" s="87"/>
+      <c r="AV64" s="87"/>
+      <c r="AW64" s="87"/>
+      <c r="AX64" s="87"/>
+      <c r="AY64" s="87"/>
+      <c r="AZ64" s="87"/>
+      <c r="BA64" s="87"/>
+      <c r="BB64" s="87"/>
+      <c r="BC64" s="87"/>
+      <c r="BD64" s="87"/>
+      <c r="BE64" s="87"/>
+    </row>
+    <row r="65" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="88"/>
+      <c r="B65" s="90"/>
+      <c r="C65" s="88"/>
+      <c r="D65" s="89"/>
+      <c r="E65" s="89"/>
+      <c r="F65" s="89"/>
+      <c r="G65" s="90"/>
+      <c r="H65" s="88"/>
+      <c r="I65" s="89"/>
+      <c r="J65" s="89"/>
+      <c r="K65" s="89"/>
+      <c r="L65" s="89"/>
+      <c r="M65" s="89"/>
+      <c r="N65" s="89"/>
+      <c r="O65" s="90"/>
+      <c r="P65" s="88"/>
+      <c r="Q65" s="89"/>
+      <c r="R65" s="90"/>
+      <c r="S65" s="88"/>
+      <c r="T65" s="89"/>
+      <c r="U65" s="90"/>
+      <c r="V65" s="88"/>
+      <c r="W65" s="89"/>
+      <c r="X65" s="90"/>
+      <c r="Y65" s="88"/>
+      <c r="Z65" s="89"/>
+      <c r="AA65" s="90"/>
+      <c r="AB65" s="87"/>
+      <c r="AC65" s="87"/>
+      <c r="AD65" s="87"/>
+      <c r="AE65" s="87"/>
+      <c r="AF65" s="87"/>
+      <c r="AG65" s="87"/>
+      <c r="AH65" s="87"/>
+      <c r="AI65" s="87"/>
+      <c r="AJ65" s="87"/>
+      <c r="AK65" s="87"/>
+      <c r="AL65" s="87"/>
+      <c r="AM65" s="87"/>
+      <c r="AN65" s="87"/>
+      <c r="AO65" s="87"/>
+      <c r="AP65" s="87"/>
+      <c r="AQ65" s="87"/>
+      <c r="AR65" s="87"/>
+      <c r="AS65" s="87"/>
+      <c r="AT65" s="87"/>
+      <c r="AU65" s="87"/>
+      <c r="AV65" s="87"/>
+      <c r="AW65" s="87"/>
+      <c r="AX65" s="87"/>
+      <c r="AY65" s="87"/>
+      <c r="AZ65" s="87"/>
+      <c r="BA65" s="87"/>
+      <c r="BB65" s="87"/>
+      <c r="BC65" s="87"/>
+      <c r="BD65" s="87"/>
+      <c r="BE65" s="87"/>
+    </row>
+    <row r="66" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="88"/>
+      <c r="B66" s="90"/>
+      <c r="C66" s="88"/>
+      <c r="D66" s="89"/>
+      <c r="E66" s="89"/>
+      <c r="F66" s="89"/>
+      <c r="G66" s="90"/>
+      <c r="H66" s="88"/>
+      <c r="I66" s="89"/>
+      <c r="J66" s="89"/>
+      <c r="K66" s="89"/>
+      <c r="L66" s="89"/>
+      <c r="M66" s="89"/>
+      <c r="N66" s="89"/>
+      <c r="O66" s="90"/>
+      <c r="P66" s="88"/>
+      <c r="Q66" s="89"/>
+      <c r="R66" s="90"/>
+      <c r="S66" s="88"/>
+      <c r="T66" s="89"/>
+      <c r="U66" s="90"/>
+      <c r="V66" s="88"/>
+      <c r="W66" s="89"/>
+      <c r="X66" s="90"/>
+      <c r="Y66" s="88"/>
+      <c r="Z66" s="89"/>
+      <c r="AA66" s="90"/>
+      <c r="AB66" s="87"/>
+      <c r="AC66" s="87"/>
+      <c r="AD66" s="87"/>
+      <c r="AE66" s="87"/>
+      <c r="AF66" s="87"/>
+      <c r="AG66" s="87"/>
+      <c r="AH66" s="87"/>
+      <c r="AI66" s="87"/>
+      <c r="AJ66" s="87"/>
+      <c r="AK66" s="87"/>
+      <c r="AL66" s="87"/>
+      <c r="AM66" s="87"/>
+      <c r="AN66" s="87"/>
+      <c r="AO66" s="87"/>
+      <c r="AP66" s="87"/>
+      <c r="AQ66" s="87"/>
+      <c r="AR66" s="87"/>
+      <c r="AS66" s="87"/>
+      <c r="AT66" s="87"/>
+      <c r="AU66" s="87"/>
+      <c r="AV66" s="87"/>
+      <c r="AW66" s="87"/>
+      <c r="AX66" s="87"/>
+      <c r="AY66" s="87"/>
+      <c r="AZ66" s="87"/>
+      <c r="BA66" s="87"/>
+      <c r="BB66" s="87"/>
+      <c r="BC66" s="87"/>
+      <c r="BD66" s="87"/>
+      <c r="BE66" s="87"/>
+    </row>
+    <row r="67" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="88"/>
+      <c r="B67" s="90"/>
+      <c r="C67" s="88"/>
+      <c r="D67" s="89"/>
+      <c r="E67" s="89"/>
+      <c r="F67" s="89"/>
+      <c r="G67" s="90"/>
+      <c r="H67" s="88"/>
+      <c r="I67" s="89"/>
+      <c r="J67" s="89"/>
+      <c r="K67" s="89"/>
+      <c r="L67" s="89"/>
+      <c r="M67" s="89"/>
+      <c r="N67" s="89"/>
+      <c r="O67" s="90"/>
+      <c r="P67" s="88"/>
+      <c r="Q67" s="89"/>
+      <c r="R67" s="90"/>
+      <c r="S67" s="88"/>
+      <c r="T67" s="89"/>
+      <c r="U67" s="90"/>
+      <c r="V67" s="88"/>
+      <c r="W67" s="89"/>
+      <c r="X67" s="90"/>
+      <c r="Y67" s="88"/>
+      <c r="Z67" s="89"/>
+      <c r="AA67" s="90"/>
+      <c r="AB67" s="87"/>
+      <c r="AC67" s="87"/>
+      <c r="AD67" s="87"/>
+      <c r="AE67" s="87"/>
+      <c r="AF67" s="87"/>
+      <c r="AG67" s="87"/>
+      <c r="AH67" s="87"/>
+      <c r="AI67" s="87"/>
+      <c r="AJ67" s="87"/>
+      <c r="AK67" s="87"/>
+      <c r="AL67" s="87"/>
+      <c r="AM67" s="87"/>
+      <c r="AN67" s="87"/>
+      <c r="AO67" s="87"/>
+      <c r="AP67" s="87"/>
+      <c r="AQ67" s="87"/>
+      <c r="AR67" s="87"/>
+      <c r="AS67" s="87"/>
+      <c r="AT67" s="87"/>
+      <c r="AU67" s="87"/>
+      <c r="AV67" s="87"/>
+      <c r="AW67" s="87"/>
+      <c r="AX67" s="87"/>
+      <c r="AY67" s="87"/>
+      <c r="AZ67" s="87"/>
+      <c r="BA67" s="87"/>
+      <c r="BB67" s="87"/>
+      <c r="BC67" s="87"/>
+      <c r="BD67" s="87"/>
+      <c r="BE67" s="87"/>
+    </row>
+    <row r="68" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="88"/>
+      <c r="B68" s="90"/>
+      <c r="C68" s="88"/>
+      <c r="D68" s="89"/>
+      <c r="E68" s="89"/>
+      <c r="F68" s="89"/>
+      <c r="G68" s="90"/>
+      <c r="H68" s="88"/>
+      <c r="I68" s="89"/>
+      <c r="J68" s="89"/>
+      <c r="K68" s="89"/>
+      <c r="L68" s="89"/>
+      <c r="M68" s="89"/>
+      <c r="N68" s="89"/>
+      <c r="O68" s="90"/>
+      <c r="P68" s="88"/>
+      <c r="Q68" s="89"/>
+      <c r="R68" s="90"/>
+      <c r="S68" s="88"/>
+      <c r="T68" s="89"/>
+      <c r="U68" s="90"/>
+      <c r="V68" s="88"/>
+      <c r="W68" s="89"/>
+      <c r="X68" s="90"/>
+      <c r="Y68" s="88"/>
+      <c r="Z68" s="89"/>
+      <c r="AA68" s="90"/>
+      <c r="AB68" s="87"/>
+      <c r="AC68" s="87"/>
+      <c r="AD68" s="87"/>
+      <c r="AE68" s="87"/>
+      <c r="AF68" s="87"/>
+      <c r="AG68" s="87"/>
+      <c r="AH68" s="87"/>
+      <c r="AI68" s="87"/>
+      <c r="AJ68" s="87"/>
+      <c r="AK68" s="87"/>
+      <c r="AL68" s="87"/>
+      <c r="AM68" s="87"/>
+      <c r="AN68" s="87"/>
+      <c r="AO68" s="87"/>
+      <c r="AP68" s="87"/>
+      <c r="AQ68" s="87"/>
+      <c r="AR68" s="87"/>
+      <c r="AS68" s="87"/>
+      <c r="AT68" s="87"/>
+      <c r="AU68" s="87"/>
+      <c r="AV68" s="87"/>
+      <c r="AW68" s="87"/>
+      <c r="AX68" s="87"/>
+      <c r="AY68" s="87"/>
+      <c r="AZ68" s="87"/>
+      <c r="BA68" s="87"/>
+      <c r="BB68" s="87"/>
+      <c r="BC68" s="87"/>
+      <c r="BD68" s="87"/>
+      <c r="BE68" s="87"/>
+    </row>
+    <row r="69" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="88"/>
+      <c r="B69" s="90"/>
+      <c r="C69" s="88"/>
+      <c r="D69" s="89"/>
+      <c r="E69" s="89"/>
+      <c r="F69" s="89"/>
+      <c r="G69" s="90"/>
+      <c r="H69" s="88"/>
+      <c r="I69" s="89"/>
+      <c r="J69" s="89"/>
+      <c r="K69" s="89"/>
+      <c r="L69" s="89"/>
+      <c r="M69" s="89"/>
+      <c r="N69" s="89"/>
+      <c r="O69" s="90"/>
+      <c r="P69" s="88"/>
+      <c r="Q69" s="89"/>
+      <c r="R69" s="90"/>
+      <c r="S69" s="88"/>
+      <c r="T69" s="89"/>
+      <c r="U69" s="90"/>
+      <c r="V69" s="88"/>
+      <c r="W69" s="89"/>
+      <c r="X69" s="90"/>
+      <c r="Y69" s="88"/>
+      <c r="Z69" s="89"/>
+      <c r="AA69" s="90"/>
+    </row>
+    <row r="70" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="88"/>
+      <c r="B70" s="90"/>
+      <c r="C70" s="88"/>
+      <c r="D70" s="89"/>
+      <c r="E70" s="89"/>
+      <c r="F70" s="89"/>
+      <c r="G70" s="90"/>
+      <c r="H70" s="88"/>
+      <c r="I70" s="89"/>
+      <c r="J70" s="89"/>
+      <c r="K70" s="89"/>
+      <c r="L70" s="89"/>
+      <c r="M70" s="89"/>
+      <c r="N70" s="89"/>
+      <c r="O70" s="90"/>
+      <c r="P70" s="88"/>
+      <c r="Q70" s="89"/>
+      <c r="R70" s="90"/>
+      <c r="S70" s="88"/>
+      <c r="T70" s="89"/>
+      <c r="U70" s="90"/>
+      <c r="V70" s="88"/>
+      <c r="W70" s="89"/>
+      <c r="X70" s="90"/>
+      <c r="Y70" s="88"/>
+      <c r="Z70" s="89"/>
+      <c r="AA70" s="90"/>
+    </row>
+    <row r="71" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="88"/>
+      <c r="B71" s="90"/>
+      <c r="C71" s="88"/>
+      <c r="D71" s="89"/>
+      <c r="E71" s="89"/>
+      <c r="F71" s="89"/>
+      <c r="G71" s="90"/>
+      <c r="H71" s="88"/>
+      <c r="I71" s="89"/>
+      <c r="J71" s="89"/>
+      <c r="K71" s="89"/>
+      <c r="L71" s="89"/>
+      <c r="M71" s="89"/>
+      <c r="N71" s="89"/>
+      <c r="O71" s="90"/>
+      <c r="P71" s="88"/>
+      <c r="Q71" s="89"/>
+      <c r="R71" s="90"/>
+      <c r="S71" s="88"/>
+      <c r="T71" s="89"/>
+      <c r="U71" s="90"/>
+      <c r="V71" s="88"/>
+      <c r="W71" s="89"/>
+      <c r="X71" s="90"/>
+      <c r="Y71" s="88"/>
+      <c r="Z71" s="89"/>
+      <c r="AA71" s="90"/>
+    </row>
+    <row r="72" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="88"/>
+      <c r="B72" s="90"/>
+      <c r="C72" s="88"/>
+      <c r="D72" s="89"/>
+      <c r="E72" s="89"/>
+      <c r="F72" s="89"/>
+      <c r="G72" s="90"/>
+      <c r="H72" s="88"/>
+      <c r="I72" s="89"/>
+      <c r="J72" s="89"/>
+      <c r="K72" s="89"/>
+      <c r="L72" s="89"/>
+      <c r="M72" s="89"/>
+      <c r="N72" s="89"/>
+      <c r="O72" s="90"/>
+      <c r="P72" s="88"/>
+      <c r="Q72" s="89"/>
+      <c r="R72" s="90"/>
+      <c r="S72" s="88"/>
+      <c r="T72" s="89"/>
+      <c r="U72" s="90"/>
+      <c r="V72" s="88"/>
+      <c r="W72" s="89"/>
+      <c r="X72" s="90"/>
+      <c r="Y72" s="88"/>
+      <c r="Z72" s="89"/>
+      <c r="AA72" s="90"/>
+    </row>
+    <row r="73" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="88"/>
+      <c r="B73" s="90"/>
+      <c r="C73" s="88"/>
+      <c r="D73" s="89"/>
+      <c r="E73" s="89"/>
+      <c r="F73" s="89"/>
+      <c r="G73" s="90"/>
+      <c r="H73" s="88"/>
+      <c r="I73" s="89"/>
+      <c r="J73" s="89"/>
+      <c r="K73" s="89"/>
+      <c r="L73" s="89"/>
+      <c r="M73" s="89"/>
+      <c r="N73" s="89"/>
+      <c r="O73" s="90"/>
+      <c r="P73" s="88"/>
+      <c r="Q73" s="89"/>
+      <c r="R73" s="90"/>
+      <c r="S73" s="88"/>
+      <c r="T73" s="89"/>
+      <c r="U73" s="90"/>
+      <c r="V73" s="88"/>
+      <c r="W73" s="89"/>
+      <c r="X73" s="90"/>
+      <c r="Y73" s="88"/>
+      <c r="Z73" s="89"/>
+      <c r="AA73" s="90"/>
+    </row>
+    <row r="74" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="88"/>
+      <c r="B74" s="90"/>
+      <c r="C74" s="88"/>
+      <c r="D74" s="89"/>
+      <c r="E74" s="89"/>
+      <c r="F74" s="89"/>
+      <c r="G74" s="90"/>
+      <c r="H74" s="88"/>
+      <c r="I74" s="89"/>
+      <c r="J74" s="89"/>
+      <c r="K74" s="89"/>
+      <c r="L74" s="89"/>
+      <c r="M74" s="89"/>
+      <c r="N74" s="89"/>
+      <c r="O74" s="90"/>
+      <c r="P74" s="88"/>
+      <c r="Q74" s="89"/>
+      <c r="R74" s="90"/>
+      <c r="S74" s="88"/>
+      <c r="T74" s="89"/>
+      <c r="U74" s="90"/>
+      <c r="V74" s="88"/>
+      <c r="W74" s="89"/>
+      <c r="X74" s="90"/>
+      <c r="Y74" s="88"/>
+      <c r="Z74" s="89"/>
+      <c r="AA74" s="90"/>
+    </row>
+    <row r="75" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="88"/>
+      <c r="B75" s="90"/>
+      <c r="C75" s="88"/>
+      <c r="D75" s="89"/>
+      <c r="E75" s="89"/>
+      <c r="F75" s="89"/>
+      <c r="G75" s="90"/>
+      <c r="H75" s="88"/>
+      <c r="I75" s="89"/>
+      <c r="J75" s="89"/>
+      <c r="K75" s="89"/>
+      <c r="L75" s="89"/>
+      <c r="M75" s="89"/>
+      <c r="N75" s="89"/>
+      <c r="O75" s="90"/>
+      <c r="P75" s="88"/>
+      <c r="Q75" s="89"/>
+      <c r="R75" s="90"/>
+      <c r="S75" s="88"/>
+      <c r="T75" s="89"/>
+      <c r="U75" s="90"/>
+      <c r="V75" s="88"/>
+      <c r="W75" s="89"/>
+      <c r="X75" s="90"/>
+      <c r="Y75" s="88"/>
+      <c r="Z75" s="89"/>
+      <c r="AA75" s="90"/>
+    </row>
+    <row r="76" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="88"/>
+      <c r="B76" s="90"/>
+      <c r="C76" s="88"/>
+      <c r="D76" s="89"/>
+      <c r="E76" s="89"/>
+      <c r="F76" s="89"/>
+      <c r="G76" s="90"/>
+      <c r="H76" s="88"/>
+      <c r="I76" s="89"/>
+      <c r="J76" s="89"/>
+      <c r="K76" s="89"/>
+      <c r="L76" s="89"/>
+      <c r="M76" s="89"/>
+      <c r="N76" s="89"/>
+      <c r="O76" s="90"/>
+      <c r="P76" s="88"/>
+      <c r="Q76" s="89"/>
+      <c r="R76" s="90"/>
+      <c r="S76" s="88"/>
+      <c r="T76" s="89"/>
+      <c r="U76" s="90"/>
+      <c r="V76" s="88"/>
+      <c r="W76" s="89"/>
+      <c r="X76" s="90"/>
+      <c r="Y76" s="88"/>
+      <c r="Z76" s="89"/>
+      <c r="AA76" s="90"/>
+    </row>
+    <row r="77" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="88"/>
+      <c r="B77" s="90"/>
+      <c r="C77" s="88"/>
+      <c r="D77" s="89"/>
+      <c r="E77" s="89"/>
+      <c r="F77" s="89"/>
+      <c r="G77" s="90"/>
+      <c r="H77" s="88"/>
+      <c r="I77" s="89"/>
+      <c r="J77" s="89"/>
+      <c r="K77" s="89"/>
+      <c r="L77" s="89"/>
+      <c r="M77" s="89"/>
+      <c r="N77" s="89"/>
+      <c r="O77" s="90"/>
+      <c r="P77" s="88"/>
+      <c r="Q77" s="89"/>
+      <c r="R77" s="90"/>
+      <c r="S77" s="88"/>
+      <c r="T77" s="89"/>
+      <c r="U77" s="90"/>
+      <c r="V77" s="88"/>
+      <c r="W77" s="89"/>
+      <c r="X77" s="90"/>
+      <c r="Y77" s="88"/>
+      <c r="Z77" s="89"/>
+      <c r="AA77" s="90"/>
+    </row>
+    <row r="78" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="88"/>
+      <c r="B78" s="90"/>
+      <c r="C78" s="88"/>
+      <c r="D78" s="89"/>
+      <c r="E78" s="89"/>
+      <c r="F78" s="89"/>
+      <c r="G78" s="90"/>
+      <c r="H78" s="88"/>
+      <c r="I78" s="89"/>
+      <c r="J78" s="89"/>
+      <c r="K78" s="89"/>
+      <c r="L78" s="89"/>
+      <c r="M78" s="89"/>
+      <c r="N78" s="89"/>
+      <c r="O78" s="90"/>
+      <c r="P78" s="88"/>
+      <c r="Q78" s="89"/>
+      <c r="R78" s="90"/>
+      <c r="S78" s="88"/>
+      <c r="T78" s="89"/>
+      <c r="U78" s="90"/>
+      <c r="V78" s="88"/>
+      <c r="W78" s="89"/>
+      <c r="X78" s="90"/>
+      <c r="Y78" s="88"/>
+      <c r="Z78" s="89"/>
+      <c r="AA78" s="90"/>
+    </row>
+    <row r="79" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="88"/>
+      <c r="B79" s="90"/>
+      <c r="C79" s="88"/>
+      <c r="D79" s="89"/>
+      <c r="E79" s="89"/>
+      <c r="F79" s="89"/>
+      <c r="G79" s="90"/>
+      <c r="H79" s="88"/>
+      <c r="I79" s="89"/>
+      <c r="J79" s="89"/>
+      <c r="K79" s="89"/>
+      <c r="L79" s="89"/>
+      <c r="M79" s="89"/>
+      <c r="N79" s="89"/>
+      <c r="O79" s="90"/>
+      <c r="P79" s="88"/>
+      <c r="Q79" s="89"/>
+      <c r="R79" s="90"/>
+      <c r="S79" s="88"/>
+      <c r="T79" s="89"/>
+      <c r="U79" s="90"/>
+      <c r="V79" s="88"/>
+      <c r="W79" s="89"/>
+      <c r="X79" s="90"/>
+      <c r="Y79" s="88"/>
+      <c r="Z79" s="89"/>
+      <c r="AA79" s="90"/>
+    </row>
+    <row r="80" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="88"/>
+      <c r="B80" s="90"/>
+      <c r="C80" s="88"/>
+      <c r="D80" s="89"/>
+      <c r="E80" s="89"/>
+      <c r="F80" s="89"/>
+      <c r="G80" s="90"/>
+      <c r="H80" s="88"/>
+      <c r="I80" s="89"/>
+      <c r="J80" s="89"/>
+      <c r="K80" s="89"/>
+      <c r="L80" s="89"/>
+      <c r="M80" s="89"/>
+      <c r="N80" s="89"/>
+      <c r="O80" s="90"/>
+      <c r="P80" s="88"/>
+      <c r="Q80" s="89"/>
+      <c r="R80" s="90"/>
+      <c r="S80" s="88"/>
+      <c r="T80" s="89"/>
+      <c r="U80" s="90"/>
+      <c r="V80" s="88"/>
+      <c r="W80" s="89"/>
+      <c r="X80" s="90"/>
+      <c r="Y80" s="88"/>
+      <c r="Z80" s="89"/>
+      <c r="AA80" s="90"/>
+    </row>
+    <row r="81" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="88"/>
+      <c r="B81" s="90"/>
+      <c r="C81" s="88"/>
+      <c r="D81" s="89"/>
+      <c r="E81" s="89"/>
+      <c r="F81" s="89"/>
+      <c r="G81" s="90"/>
+      <c r="H81" s="88"/>
+      <c r="I81" s="89"/>
+      <c r="J81" s="89"/>
+      <c r="K81" s="89"/>
+      <c r="L81" s="89"/>
+      <c r="M81" s="89"/>
+      <c r="N81" s="89"/>
+      <c r="O81" s="90"/>
+      <c r="P81" s="88"/>
+      <c r="Q81" s="89"/>
+      <c r="R81" s="90"/>
+      <c r="S81" s="88"/>
+      <c r="T81" s="89"/>
+      <c r="U81" s="90"/>
+      <c r="V81" s="88"/>
+      <c r="W81" s="89"/>
+      <c r="X81" s="90"/>
+      <c r="Y81" s="88"/>
+      <c r="Z81" s="89"/>
+      <c r="AA81" s="90"/>
+    </row>
+    <row r="82" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="88"/>
+      <c r="B82" s="90"/>
+      <c r="C82" s="88"/>
+      <c r="D82" s="89"/>
+      <c r="E82" s="89"/>
+      <c r="F82" s="89"/>
+      <c r="G82" s="90"/>
+      <c r="H82" s="88"/>
+      <c r="I82" s="89"/>
+      <c r="J82" s="89"/>
+      <c r="K82" s="89"/>
+      <c r="L82" s="89"/>
+      <c r="M82" s="89"/>
+      <c r="N82" s="89"/>
+      <c r="O82" s="90"/>
+      <c r="P82" s="88"/>
+      <c r="Q82" s="89"/>
+      <c r="R82" s="90"/>
+      <c r="S82" s="88"/>
+      <c r="T82" s="89"/>
+      <c r="U82" s="90"/>
+      <c r="V82" s="88"/>
+      <c r="W82" s="89"/>
+      <c r="X82" s="90"/>
+      <c r="Y82" s="88"/>
+      <c r="Z82" s="89"/>
+      <c r="AA82" s="90"/>
+    </row>
+    <row r="83" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="88"/>
+      <c r="B83" s="90"/>
+      <c r="C83" s="88"/>
+      <c r="D83" s="89"/>
+      <c r="E83" s="89"/>
+      <c r="F83" s="89"/>
+      <c r="G83" s="90"/>
+      <c r="H83" s="88"/>
+      <c r="I83" s="89"/>
+      <c r="J83" s="89"/>
+      <c r="K83" s="89"/>
+      <c r="L83" s="89"/>
+      <c r="M83" s="89"/>
+      <c r="N83" s="89"/>
+      <c r="O83" s="90"/>
+      <c r="P83" s="88"/>
+      <c r="Q83" s="89"/>
+      <c r="R83" s="90"/>
+      <c r="S83" s="88"/>
+      <c r="T83" s="89"/>
+      <c r="U83" s="90"/>
+      <c r="V83" s="88"/>
+      <c r="W83" s="89"/>
+      <c r="X83" s="90"/>
+      <c r="Y83" s="88"/>
+      <c r="Z83" s="89"/>
+      <c r="AA83" s="90"/>
+    </row>
+    <row r="84" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="88"/>
+      <c r="B84" s="90"/>
+      <c r="C84" s="88"/>
+      <c r="D84" s="89"/>
+      <c r="E84" s="89"/>
+      <c r="F84" s="89"/>
+      <c r="G84" s="90"/>
+      <c r="H84" s="88"/>
+      <c r="I84" s="89"/>
+      <c r="J84" s="89"/>
+      <c r="K84" s="89"/>
+      <c r="L84" s="89"/>
+      <c r="M84" s="89"/>
+      <c r="N84" s="89"/>
+      <c r="O84" s="90"/>
+      <c r="P84" s="88"/>
+      <c r="Q84" s="89"/>
+      <c r="R84" s="90"/>
+      <c r="S84" s="88"/>
+      <c r="T84" s="89"/>
+      <c r="U84" s="90"/>
+      <c r="V84" s="88"/>
+      <c r="W84" s="89"/>
+      <c r="X84" s="90"/>
+      <c r="Y84" s="88"/>
+      <c r="Z84" s="89"/>
+      <c r="AA84" s="90"/>
+    </row>
   </sheetData>
-  <mergeCells count="210">
-    <mergeCell ref="A1:G2"/>
-    <mergeCell ref="AH1:AN1"/>
-    <mergeCell ref="AH2:AN2"/>
-    <mergeCell ref="AD1:AG1"/>
-    <mergeCell ref="AD2:AG2"/>
-    <mergeCell ref="Y4:AA6"/>
-    <mergeCell ref="C5:G6"/>
-    <mergeCell ref="H5:O6"/>
-    <mergeCell ref="S5:U6"/>
-    <mergeCell ref="V5:X6"/>
-    <mergeCell ref="A4:B6"/>
-    <mergeCell ref="C4:O4"/>
-    <mergeCell ref="P4:R6"/>
-    <mergeCell ref="S4:X4"/>
-    <mergeCell ref="H1:AC2"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="Y11:AA11"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="H11:O11"/>
-    <mergeCell ref="P11:R11"/>
-    <mergeCell ref="S11:U11"/>
-    <mergeCell ref="V11:X11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="H13:O13"/>
-    <mergeCell ref="P12:R12"/>
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="V13:X13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="H14:O14"/>
-    <mergeCell ref="P14:R14"/>
-    <mergeCell ref="S14:U14"/>
-    <mergeCell ref="V14:X14"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="H12:O12"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="H16:O16"/>
-    <mergeCell ref="P16:R16"/>
-    <mergeCell ref="S16:U16"/>
-    <mergeCell ref="V16:X16"/>
-    <mergeCell ref="Y16:AA16"/>
-    <mergeCell ref="Y13:AA13"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="H15:O15"/>
-    <mergeCell ref="P15:R15"/>
-    <mergeCell ref="S15:U15"/>
-    <mergeCell ref="V15:X15"/>
-    <mergeCell ref="Y15:AA15"/>
-    <mergeCell ref="Y14:AA14"/>
-    <mergeCell ref="P13:R13"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="P17:R17"/>
-    <mergeCell ref="S17:U17"/>
-    <mergeCell ref="V17:X17"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="Y20:AA20"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="H20:O20"/>
-    <mergeCell ref="P20:R20"/>
-    <mergeCell ref="S20:U20"/>
-    <mergeCell ref="V20:X20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="H21:O21"/>
-    <mergeCell ref="S21:U21"/>
-    <mergeCell ref="V21:X21"/>
-    <mergeCell ref="Y21:AA21"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="H18:O18"/>
-    <mergeCell ref="P21:R21"/>
-    <mergeCell ref="Y18:AA18"/>
-    <mergeCell ref="H19:O19"/>
-    <mergeCell ref="P19:R19"/>
-    <mergeCell ref="S19:U19"/>
-    <mergeCell ref="V19:X19"/>
-    <mergeCell ref="Y19:AA19"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="H24:O24"/>
-    <mergeCell ref="P24:R24"/>
-    <mergeCell ref="S24:U24"/>
-    <mergeCell ref="V24:X24"/>
-    <mergeCell ref="Y24:AA24"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="H22:O22"/>
-    <mergeCell ref="P22:R22"/>
-    <mergeCell ref="S22:U22"/>
-    <mergeCell ref="V22:X22"/>
-    <mergeCell ref="Y22:AA22"/>
-    <mergeCell ref="S23:U23"/>
-    <mergeCell ref="V23:X23"/>
-    <mergeCell ref="Y23:AA23"/>
-    <mergeCell ref="H23:O23"/>
-    <mergeCell ref="P23:R23"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="Y25:AA25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="H26:O26"/>
-    <mergeCell ref="P26:R26"/>
-    <mergeCell ref="S26:U26"/>
-    <mergeCell ref="V26:X26"/>
-    <mergeCell ref="Y26:AA26"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="H25:O25"/>
-    <mergeCell ref="P25:R25"/>
-    <mergeCell ref="S25:U25"/>
-    <mergeCell ref="V25:X25"/>
-    <mergeCell ref="Y27:AA27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="H28:O28"/>
-    <mergeCell ref="P28:R28"/>
-    <mergeCell ref="S28:U28"/>
-    <mergeCell ref="V28:X28"/>
-    <mergeCell ref="Y28:AA28"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="H27:O27"/>
-    <mergeCell ref="P27:R27"/>
-    <mergeCell ref="S27:U27"/>
-    <mergeCell ref="V27:X27"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="Y29:AA29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="H30:O30"/>
-    <mergeCell ref="P30:R30"/>
-    <mergeCell ref="S30:U30"/>
-    <mergeCell ref="V30:X30"/>
-    <mergeCell ref="Y30:AA30"/>
-    <mergeCell ref="A29:B29"/>
+  <mergeCells count="553">
+    <mergeCell ref="Y83:AA83"/>
+    <mergeCell ref="Y84:AA84"/>
+    <mergeCell ref="Y74:AA74"/>
+    <mergeCell ref="Y75:AA75"/>
+    <mergeCell ref="Y76:AA76"/>
+    <mergeCell ref="Y77:AA77"/>
+    <mergeCell ref="Y78:AA78"/>
+    <mergeCell ref="Y79:AA79"/>
+    <mergeCell ref="Y80:AA80"/>
+    <mergeCell ref="Y81:AA81"/>
+    <mergeCell ref="Y82:AA82"/>
+    <mergeCell ref="Y65:AA65"/>
+    <mergeCell ref="Y66:AA66"/>
+    <mergeCell ref="Y67:AA67"/>
+    <mergeCell ref="Y68:AA68"/>
+    <mergeCell ref="Y69:AA69"/>
+    <mergeCell ref="Y70:AA70"/>
+    <mergeCell ref="Y71:AA71"/>
+    <mergeCell ref="Y72:AA72"/>
+    <mergeCell ref="Y73:AA73"/>
+    <mergeCell ref="Y56:AA56"/>
+    <mergeCell ref="Y57:AA57"/>
+    <mergeCell ref="Y58:AA58"/>
+    <mergeCell ref="Y59:AA59"/>
+    <mergeCell ref="Y60:AA60"/>
+    <mergeCell ref="Y61:AA61"/>
+    <mergeCell ref="Y62:AA62"/>
+    <mergeCell ref="Y63:AA63"/>
+    <mergeCell ref="Y64:AA64"/>
+    <mergeCell ref="V81:X81"/>
+    <mergeCell ref="V82:X82"/>
+    <mergeCell ref="V83:X83"/>
+    <mergeCell ref="V84:X84"/>
+    <mergeCell ref="Y36:AA36"/>
+    <mergeCell ref="Y37:AA37"/>
+    <mergeCell ref="Y38:AA38"/>
+    <mergeCell ref="Y39:AA39"/>
+    <mergeCell ref="Y40:AA40"/>
+    <mergeCell ref="Y41:AA41"/>
+    <mergeCell ref="Y42:AA42"/>
+    <mergeCell ref="Y43:AA43"/>
+    <mergeCell ref="Y44:AA44"/>
+    <mergeCell ref="Y45:AA45"/>
+    <mergeCell ref="Y46:AA46"/>
+    <mergeCell ref="Y47:AA47"/>
+    <mergeCell ref="Y48:AA48"/>
+    <mergeCell ref="Y49:AA49"/>
+    <mergeCell ref="Y50:AA50"/>
+    <mergeCell ref="Y51:AA51"/>
+    <mergeCell ref="Y52:AA52"/>
+    <mergeCell ref="Y53:AA53"/>
+    <mergeCell ref="Y54:AA54"/>
+    <mergeCell ref="Y55:AA55"/>
+    <mergeCell ref="V72:X72"/>
+    <mergeCell ref="V73:X73"/>
+    <mergeCell ref="V74:X74"/>
+    <mergeCell ref="V75:X75"/>
+    <mergeCell ref="V76:X76"/>
+    <mergeCell ref="V77:X77"/>
+    <mergeCell ref="V78:X78"/>
+    <mergeCell ref="V79:X79"/>
+    <mergeCell ref="V80:X80"/>
+    <mergeCell ref="V63:X63"/>
+    <mergeCell ref="V64:X64"/>
+    <mergeCell ref="V65:X65"/>
+    <mergeCell ref="V66:X66"/>
+    <mergeCell ref="V67:X67"/>
+    <mergeCell ref="V68:X68"/>
+    <mergeCell ref="V69:X69"/>
+    <mergeCell ref="V70:X70"/>
+    <mergeCell ref="V71:X71"/>
+    <mergeCell ref="V54:X54"/>
+    <mergeCell ref="V55:X55"/>
+    <mergeCell ref="V56:X56"/>
+    <mergeCell ref="V57:X57"/>
+    <mergeCell ref="V58:X58"/>
+    <mergeCell ref="V59:X59"/>
+    <mergeCell ref="V60:X60"/>
+    <mergeCell ref="V61:X61"/>
+    <mergeCell ref="V62:X62"/>
+    <mergeCell ref="V45:X45"/>
+    <mergeCell ref="V46:X46"/>
+    <mergeCell ref="V47:X47"/>
+    <mergeCell ref="V48:X48"/>
+    <mergeCell ref="V49:X49"/>
+    <mergeCell ref="V50:X50"/>
+    <mergeCell ref="V51:X51"/>
+    <mergeCell ref="V52:X52"/>
+    <mergeCell ref="V53:X53"/>
+    <mergeCell ref="V36:X36"/>
+    <mergeCell ref="V37:X37"/>
+    <mergeCell ref="V38:X38"/>
+    <mergeCell ref="V39:X39"/>
+    <mergeCell ref="V40:X40"/>
+    <mergeCell ref="V41:X41"/>
+    <mergeCell ref="V42:X42"/>
+    <mergeCell ref="V43:X43"/>
+    <mergeCell ref="V44:X44"/>
+    <mergeCell ref="S76:U76"/>
+    <mergeCell ref="S77:U77"/>
+    <mergeCell ref="S78:U78"/>
+    <mergeCell ref="S79:U79"/>
+    <mergeCell ref="S80:U80"/>
+    <mergeCell ref="S81:U81"/>
+    <mergeCell ref="S82:U82"/>
+    <mergeCell ref="S83:U83"/>
+    <mergeCell ref="S84:U84"/>
+    <mergeCell ref="S67:U67"/>
+    <mergeCell ref="S68:U68"/>
+    <mergeCell ref="S69:U69"/>
+    <mergeCell ref="S70:U70"/>
+    <mergeCell ref="S71:U71"/>
+    <mergeCell ref="S72:U72"/>
+    <mergeCell ref="S73:U73"/>
+    <mergeCell ref="S74:U74"/>
+    <mergeCell ref="S75:U75"/>
+    <mergeCell ref="S58:U58"/>
+    <mergeCell ref="S59:U59"/>
+    <mergeCell ref="S60:U60"/>
+    <mergeCell ref="S61:U61"/>
+    <mergeCell ref="S62:U62"/>
+    <mergeCell ref="S63:U63"/>
+    <mergeCell ref="S64:U64"/>
+    <mergeCell ref="S65:U65"/>
+    <mergeCell ref="S66:U66"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="S38:U38"/>
+    <mergeCell ref="S39:U39"/>
+    <mergeCell ref="S40:U40"/>
+    <mergeCell ref="S41:U41"/>
+    <mergeCell ref="S42:U42"/>
+    <mergeCell ref="S43:U43"/>
+    <mergeCell ref="S44:U44"/>
+    <mergeCell ref="S45:U45"/>
+    <mergeCell ref="S46:U46"/>
+    <mergeCell ref="S47:U47"/>
+    <mergeCell ref="S48:U48"/>
+    <mergeCell ref="S49:U49"/>
+    <mergeCell ref="S50:U50"/>
+    <mergeCell ref="S51:U51"/>
+    <mergeCell ref="S52:U52"/>
+    <mergeCell ref="S53:U53"/>
+    <mergeCell ref="S54:U54"/>
+    <mergeCell ref="S55:U55"/>
+    <mergeCell ref="S56:U56"/>
+    <mergeCell ref="S57:U57"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="P76:R76"/>
+    <mergeCell ref="P77:R77"/>
+    <mergeCell ref="P78:R78"/>
+    <mergeCell ref="P79:R79"/>
+    <mergeCell ref="P80:R80"/>
+    <mergeCell ref="P81:R81"/>
+    <mergeCell ref="P82:R82"/>
+    <mergeCell ref="P83:R83"/>
+    <mergeCell ref="P84:R84"/>
+    <mergeCell ref="P67:R67"/>
+    <mergeCell ref="P68:R68"/>
+    <mergeCell ref="P69:R69"/>
+    <mergeCell ref="P70:R70"/>
+    <mergeCell ref="P71:R71"/>
+    <mergeCell ref="P72:R72"/>
+    <mergeCell ref="P73:R73"/>
+    <mergeCell ref="P74:R74"/>
+    <mergeCell ref="P75:R75"/>
+    <mergeCell ref="P58:R58"/>
+    <mergeCell ref="P59:R59"/>
+    <mergeCell ref="P60:R60"/>
+    <mergeCell ref="P61:R61"/>
+    <mergeCell ref="P62:R62"/>
+    <mergeCell ref="P63:R63"/>
+    <mergeCell ref="P64:R64"/>
+    <mergeCell ref="P65:R65"/>
+    <mergeCell ref="P66:R66"/>
+    <mergeCell ref="P49:R49"/>
+    <mergeCell ref="P50:R50"/>
+    <mergeCell ref="P51:R51"/>
+    <mergeCell ref="P52:R52"/>
+    <mergeCell ref="P53:R53"/>
+    <mergeCell ref="P54:R54"/>
+    <mergeCell ref="P55:R55"/>
+    <mergeCell ref="P56:R56"/>
+    <mergeCell ref="P57:R57"/>
+    <mergeCell ref="P40:R40"/>
+    <mergeCell ref="P41:R41"/>
+    <mergeCell ref="P42:R42"/>
+    <mergeCell ref="P43:R43"/>
+    <mergeCell ref="P44:R44"/>
+    <mergeCell ref="P45:R45"/>
+    <mergeCell ref="P46:R46"/>
+    <mergeCell ref="P47:R47"/>
+    <mergeCell ref="P48:R48"/>
+    <mergeCell ref="H76:O76"/>
+    <mergeCell ref="H77:O77"/>
+    <mergeCell ref="H78:O78"/>
+    <mergeCell ref="H79:O79"/>
+    <mergeCell ref="H80:O80"/>
+    <mergeCell ref="H81:O81"/>
+    <mergeCell ref="H82:O82"/>
+    <mergeCell ref="H83:O83"/>
+    <mergeCell ref="H84:O84"/>
+    <mergeCell ref="H67:O67"/>
+    <mergeCell ref="H68:O68"/>
+    <mergeCell ref="H69:O69"/>
+    <mergeCell ref="H70:O70"/>
+    <mergeCell ref="H71:O71"/>
+    <mergeCell ref="H72:O72"/>
+    <mergeCell ref="H73:O73"/>
+    <mergeCell ref="H74:O74"/>
+    <mergeCell ref="H75:O75"/>
+    <mergeCell ref="H58:O58"/>
+    <mergeCell ref="H59:O59"/>
+    <mergeCell ref="H60:O60"/>
+    <mergeCell ref="H61:O61"/>
+    <mergeCell ref="H62:O62"/>
+    <mergeCell ref="H63:O63"/>
+    <mergeCell ref="H64:O64"/>
+    <mergeCell ref="H65:O65"/>
+    <mergeCell ref="H66:O66"/>
+    <mergeCell ref="H49:O49"/>
+    <mergeCell ref="H50:O50"/>
+    <mergeCell ref="H51:O51"/>
+    <mergeCell ref="H52:O52"/>
+    <mergeCell ref="H53:O53"/>
+    <mergeCell ref="H54:O54"/>
+    <mergeCell ref="H55:O55"/>
+    <mergeCell ref="H56:O56"/>
+    <mergeCell ref="H57:O57"/>
+    <mergeCell ref="H40:O40"/>
+    <mergeCell ref="H41:O41"/>
+    <mergeCell ref="H42:O42"/>
+    <mergeCell ref="H43:O43"/>
+    <mergeCell ref="H44:O44"/>
+    <mergeCell ref="H45:O45"/>
+    <mergeCell ref="H46:O46"/>
+    <mergeCell ref="H47:O47"/>
+    <mergeCell ref="H48:O48"/>
+    <mergeCell ref="C76:G76"/>
+    <mergeCell ref="C77:G77"/>
+    <mergeCell ref="C78:G78"/>
+    <mergeCell ref="C79:G79"/>
+    <mergeCell ref="C80:G80"/>
+    <mergeCell ref="C81:G81"/>
+    <mergeCell ref="C82:G82"/>
+    <mergeCell ref="C83:G83"/>
+    <mergeCell ref="C84:G84"/>
+    <mergeCell ref="C67:G67"/>
+    <mergeCell ref="C68:G68"/>
+    <mergeCell ref="C69:G69"/>
+    <mergeCell ref="C70:G70"/>
+    <mergeCell ref="C71:G71"/>
+    <mergeCell ref="C72:G72"/>
+    <mergeCell ref="C73:G73"/>
+    <mergeCell ref="C74:G74"/>
+    <mergeCell ref="C75:G75"/>
+    <mergeCell ref="C58:G58"/>
+    <mergeCell ref="C59:G59"/>
+    <mergeCell ref="C60:G60"/>
+    <mergeCell ref="C61:G61"/>
+    <mergeCell ref="C62:G62"/>
+    <mergeCell ref="C63:G63"/>
+    <mergeCell ref="C64:G64"/>
+    <mergeCell ref="C65:G65"/>
+    <mergeCell ref="C66:G66"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="C52:G52"/>
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="C54:G54"/>
+    <mergeCell ref="C55:G55"/>
+    <mergeCell ref="C56:G56"/>
+    <mergeCell ref="C57:G57"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="P36:R36"/>
+    <mergeCell ref="H36:O36"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="P37:R37"/>
+    <mergeCell ref="S36:U36"/>
+    <mergeCell ref="S37:U37"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="H37:O37"/>
+    <mergeCell ref="H38:O38"/>
+    <mergeCell ref="H39:O39"/>
+    <mergeCell ref="P38:R38"/>
+    <mergeCell ref="P39:R39"/>
+    <mergeCell ref="Y12:AA12"/>
+    <mergeCell ref="V12:X12"/>
+    <mergeCell ref="S12:U12"/>
+    <mergeCell ref="P18:R18"/>
+    <mergeCell ref="S18:U18"/>
+    <mergeCell ref="V18:X18"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="Y17:AA17"/>
+    <mergeCell ref="Y10:AA10"/>
+    <mergeCell ref="H17:O17"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="H7:O7"/>
+    <mergeCell ref="P7:R7"/>
+    <mergeCell ref="S7:U7"/>
+    <mergeCell ref="V7:X7"/>
+    <mergeCell ref="Y7:AA7"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="H9:O9"/>
+    <mergeCell ref="P9:R9"/>
+    <mergeCell ref="S9:U9"/>
+    <mergeCell ref="V9:X9"/>
+    <mergeCell ref="Y9:AA9"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H8:O8"/>
+    <mergeCell ref="P8:R8"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="V8:X8"/>
+    <mergeCell ref="Y8:AA8"/>
+    <mergeCell ref="Y34:AA34"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="H33:O33"/>
+    <mergeCell ref="P33:R33"/>
+    <mergeCell ref="S33:U33"/>
+    <mergeCell ref="V33:X33"/>
+    <mergeCell ref="Y31:AA31"/>
+    <mergeCell ref="Y32:AA32"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H31:O31"/>
+    <mergeCell ref="P31:R31"/>
+    <mergeCell ref="S31:U31"/>
+    <mergeCell ref="V31:X31"/>
+    <mergeCell ref="H32:O32"/>
+    <mergeCell ref="P32:R32"/>
+    <mergeCell ref="S32:U32"/>
+    <mergeCell ref="V32:X32"/>
     <mergeCell ref="Y35:AA35"/>
     <mergeCell ref="C21:G21"/>
     <mergeCell ref="C25:G25"/>
@@ -3966,74 +6788,164 @@
     <mergeCell ref="V29:X29"/>
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="C32:G32"/>
-    <mergeCell ref="Y34:AA34"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="H33:O33"/>
-    <mergeCell ref="P33:R33"/>
-    <mergeCell ref="S33:U33"/>
-    <mergeCell ref="V33:X33"/>
-    <mergeCell ref="Y31:AA31"/>
-    <mergeCell ref="Y32:AA32"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="H31:O31"/>
-    <mergeCell ref="P31:R31"/>
-    <mergeCell ref="S31:U31"/>
-    <mergeCell ref="V31:X31"/>
-    <mergeCell ref="H32:O32"/>
-    <mergeCell ref="P32:R32"/>
-    <mergeCell ref="S32:U32"/>
-    <mergeCell ref="V32:X32"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="H7:O7"/>
-    <mergeCell ref="P7:R7"/>
-    <mergeCell ref="S7:U7"/>
-    <mergeCell ref="V7:X7"/>
-    <mergeCell ref="Y7:AA7"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="H9:O9"/>
-    <mergeCell ref="P9:R9"/>
-    <mergeCell ref="S9:U9"/>
-    <mergeCell ref="V9:X9"/>
-    <mergeCell ref="Y9:AA9"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="H8:O8"/>
-    <mergeCell ref="P8:R8"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="V8:X8"/>
-    <mergeCell ref="Y8:AA8"/>
-    <mergeCell ref="Y12:AA12"/>
-    <mergeCell ref="V12:X12"/>
-    <mergeCell ref="S12:U12"/>
-    <mergeCell ref="P18:R18"/>
-    <mergeCell ref="S18:U18"/>
-    <mergeCell ref="V18:X18"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="Y17:AA17"/>
-    <mergeCell ref="Y10:AA10"/>
-    <mergeCell ref="H17:O17"/>
+    <mergeCell ref="Y27:AA27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="H28:O28"/>
+    <mergeCell ref="P28:R28"/>
+    <mergeCell ref="S28:U28"/>
+    <mergeCell ref="V28:X28"/>
+    <mergeCell ref="Y28:AA28"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H27:O27"/>
+    <mergeCell ref="P27:R27"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="V27:X27"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="Y29:AA29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="H30:O30"/>
+    <mergeCell ref="P30:R30"/>
+    <mergeCell ref="S30:U30"/>
+    <mergeCell ref="V30:X30"/>
+    <mergeCell ref="Y30:AA30"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="Y25:AA25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:O26"/>
+    <mergeCell ref="P26:R26"/>
+    <mergeCell ref="S26:U26"/>
+    <mergeCell ref="V26:X26"/>
+    <mergeCell ref="Y26:AA26"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="H25:O25"/>
+    <mergeCell ref="P25:R25"/>
+    <mergeCell ref="S25:U25"/>
+    <mergeCell ref="V25:X25"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:O24"/>
+    <mergeCell ref="P24:R24"/>
+    <mergeCell ref="S24:U24"/>
+    <mergeCell ref="V24:X24"/>
+    <mergeCell ref="Y24:AA24"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:O22"/>
+    <mergeCell ref="P22:R22"/>
+    <mergeCell ref="S22:U22"/>
+    <mergeCell ref="V22:X22"/>
+    <mergeCell ref="Y22:AA22"/>
+    <mergeCell ref="S23:U23"/>
+    <mergeCell ref="V23:X23"/>
+    <mergeCell ref="Y23:AA23"/>
+    <mergeCell ref="H23:O23"/>
+    <mergeCell ref="P23:R23"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="H21:O21"/>
+    <mergeCell ref="S21:U21"/>
+    <mergeCell ref="V21:X21"/>
+    <mergeCell ref="Y21:AA21"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H18:O18"/>
+    <mergeCell ref="P21:R21"/>
+    <mergeCell ref="Y18:AA18"/>
+    <mergeCell ref="H19:O19"/>
+    <mergeCell ref="P19:R19"/>
+    <mergeCell ref="S19:U19"/>
+    <mergeCell ref="V19:X19"/>
+    <mergeCell ref="Y19:AA19"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="P17:R17"/>
+    <mergeCell ref="S17:U17"/>
+    <mergeCell ref="V17:X17"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="Y20:AA20"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="H20:O20"/>
+    <mergeCell ref="P20:R20"/>
+    <mergeCell ref="S20:U20"/>
+    <mergeCell ref="V20:X20"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H16:O16"/>
+    <mergeCell ref="P16:R16"/>
+    <mergeCell ref="S16:U16"/>
+    <mergeCell ref="V16:X16"/>
+    <mergeCell ref="Y16:AA16"/>
+    <mergeCell ref="Y13:AA13"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="H15:O15"/>
+    <mergeCell ref="P15:R15"/>
+    <mergeCell ref="S15:U15"/>
+    <mergeCell ref="V15:X15"/>
+    <mergeCell ref="Y15:AA15"/>
+    <mergeCell ref="Y14:AA14"/>
+    <mergeCell ref="P13:R13"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H13:O13"/>
+    <mergeCell ref="P12:R12"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="V13:X13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:O14"/>
+    <mergeCell ref="P14:R14"/>
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="V14:X14"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H12:O12"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="Y11:AA11"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="H11:O11"/>
+    <mergeCell ref="P11:R11"/>
+    <mergeCell ref="S11:U11"/>
+    <mergeCell ref="V11:X11"/>
+    <mergeCell ref="A1:G2"/>
+    <mergeCell ref="AH1:AN1"/>
+    <mergeCell ref="AH2:AN2"/>
+    <mergeCell ref="AD1:AG1"/>
+    <mergeCell ref="AD2:AG2"/>
+    <mergeCell ref="Y4:AA6"/>
+    <mergeCell ref="C5:G6"/>
+    <mergeCell ref="H5:O6"/>
+    <mergeCell ref="S5:U6"/>
+    <mergeCell ref="V5:X6"/>
+    <mergeCell ref="A4:B6"/>
+    <mergeCell ref="C4:O4"/>
+    <mergeCell ref="P4:R6"/>
+    <mergeCell ref="S4:X4"/>
+    <mergeCell ref="H1:AC2"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="AC5:BE6">
-    <cfRule type="expression" dxfId="4" priority="14">
+    <cfRule type="expression" dxfId="7" priority="14">
       <formula>TEXT(AC5,"aaa")="土"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="15">
+    <cfRule type="expression" dxfId="6" priority="15">
       <formula>TEXT(AC5,"aaa")="日"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB5:AB6">
-    <cfRule type="expression" dxfId="2" priority="6">
+    <cfRule type="expression" dxfId="5" priority="6">
       <formula>TEXT(AB5,"aaa")="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="7">
+    <cfRule type="expression" dxfId="4" priority="7">
       <formula>TEXT(AB5,"aaa")="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB4:BE4">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="16">
+    <cfRule type="notContainsBlanks" dxfId="3" priority="16">
       <formula>LEN(TRIM(AB4))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/doc/進捗管理表_D3.xlsx
+++ b/doc/進捗管理表_D3.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B0CF8E9-03E2-411C-8A11-409FE950994B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{261A2FC8-44C5-410E-AF43-8F9C2A0B9077}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="1100" windowWidth="14400" windowHeight="7360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="450" yWindow="0" windowWidth="18230" windowHeight="10190" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="全体進捗管理" sheetId="4" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="173">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -1342,6 +1342,48 @@
       <t>カクニン</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>古川</t>
+    <rPh sb="0" eb="2">
+      <t>フルカワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>目崎</t>
+    <rPh sb="0" eb="2">
+      <t>メザキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>木</t>
+  </si>
+  <si>
+    <t>木</t>
+    <rPh sb="0" eb="1">
+      <t>モク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>金</t>
+  </si>
+  <si>
+    <t>土</t>
+  </si>
+  <si>
+    <t>日</t>
+  </si>
+  <si>
+    <t>月</t>
+  </si>
+  <si>
+    <t>火</t>
+  </si>
+  <si>
+    <t>水</t>
   </si>
 </sst>
 </file>
@@ -1846,7 +1888,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1934,237 +1976,270 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="25" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="179" fontId="2" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="25" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="13">
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
+      <border>
+        <left style="thin">
+          <color theme="0" tint="-0.499984740745262"/>
+        </left>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2518,8 +2593,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BG84"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A9" zoomScale="67" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AC16" sqref="AC16"/>
+    <sheetView showGridLines="0" zoomScale="67" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AB4" sqref="AB4:BE31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.25" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2537,139 +2612,139 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:59" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="84" t="s">
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="85"/>
-      <c r="J1" s="85"/>
-      <c r="K1" s="85"/>
-      <c r="L1" s="85"/>
-      <c r="M1" s="85"/>
-      <c r="N1" s="85"/>
-      <c r="O1" s="85"/>
-      <c r="P1" s="85"/>
-      <c r="Q1" s="85"/>
-      <c r="R1" s="85"/>
-      <c r="S1" s="85"/>
-      <c r="T1" s="85"/>
-      <c r="U1" s="85"/>
-      <c r="V1" s="85"/>
-      <c r="W1" s="85"/>
-      <c r="X1" s="85"/>
-      <c r="Y1" s="85"/>
-      <c r="Z1" s="85"/>
-      <c r="AA1" s="85"/>
-      <c r="AB1" s="85"/>
-      <c r="AC1" s="86"/>
-      <c r="AD1" s="78" t="s">
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
+      <c r="N1" s="57"/>
+      <c r="O1" s="57"/>
+      <c r="P1" s="57"/>
+      <c r="Q1" s="57"/>
+      <c r="R1" s="57"/>
+      <c r="S1" s="57"/>
+      <c r="T1" s="57"/>
+      <c r="U1" s="57"/>
+      <c r="V1" s="57"/>
+      <c r="W1" s="57"/>
+      <c r="X1" s="57"/>
+      <c r="Y1" s="57"/>
+      <c r="Z1" s="57"/>
+      <c r="AA1" s="57"/>
+      <c r="AB1" s="57"/>
+      <c r="AC1" s="58"/>
+      <c r="AD1" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="AE1" s="79"/>
-      <c r="AF1" s="79"/>
-      <c r="AG1" s="80"/>
-      <c r="AH1" s="75">
+      <c r="AE1" s="51"/>
+      <c r="AF1" s="51"/>
+      <c r="AG1" s="52"/>
+      <c r="AH1" s="47">
         <v>45078</v>
       </c>
-      <c r="AI1" s="76"/>
-      <c r="AJ1" s="76"/>
-      <c r="AK1" s="76"/>
-      <c r="AL1" s="76"/>
-      <c r="AM1" s="76"/>
-      <c r="AN1" s="77"/>
+      <c r="AI1" s="48"/>
+      <c r="AJ1" s="48"/>
+      <c r="AK1" s="48"/>
+      <c r="AL1" s="48"/>
+      <c r="AM1" s="48"/>
+      <c r="AN1" s="49"/>
     </row>
     <row r="2" spans="1:59" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="73"/>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="87"/>
-      <c r="I2" s="88"/>
-      <c r="J2" s="88"/>
-      <c r="K2" s="88"/>
-      <c r="L2" s="88"/>
-      <c r="M2" s="88"/>
-      <c r="N2" s="88"/>
-      <c r="O2" s="88"/>
-      <c r="P2" s="88"/>
-      <c r="Q2" s="88"/>
-      <c r="R2" s="88"/>
-      <c r="S2" s="88"/>
-      <c r="T2" s="88"/>
-      <c r="U2" s="88"/>
-      <c r="V2" s="88"/>
-      <c r="W2" s="88"/>
-      <c r="X2" s="88"/>
-      <c r="Y2" s="88"/>
-      <c r="Z2" s="88"/>
-      <c r="AA2" s="88"/>
-      <c r="AB2" s="88"/>
-      <c r="AC2" s="89"/>
-      <c r="AD2" s="78" t="s">
+      <c r="A2" s="45"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="60"/>
+      <c r="O2" s="60"/>
+      <c r="P2" s="60"/>
+      <c r="Q2" s="60"/>
+      <c r="R2" s="60"/>
+      <c r="S2" s="60"/>
+      <c r="T2" s="60"/>
+      <c r="U2" s="60"/>
+      <c r="V2" s="60"/>
+      <c r="W2" s="60"/>
+      <c r="X2" s="60"/>
+      <c r="Y2" s="60"/>
+      <c r="Z2" s="60"/>
+      <c r="AA2" s="60"/>
+      <c r="AB2" s="60"/>
+      <c r="AC2" s="61"/>
+      <c r="AD2" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="AE2" s="79"/>
-      <c r="AF2" s="79"/>
-      <c r="AG2" s="80"/>
-      <c r="AH2" s="75">
+      <c r="AE2" s="51"/>
+      <c r="AF2" s="51"/>
+      <c r="AG2" s="52"/>
+      <c r="AH2" s="47">
         <v>45107</v>
       </c>
-      <c r="AI2" s="76"/>
-      <c r="AJ2" s="76"/>
-      <c r="AK2" s="76"/>
-      <c r="AL2" s="76"/>
-      <c r="AM2" s="76"/>
-      <c r="AN2" s="77"/>
+      <c r="AI2" s="48"/>
+      <c r="AJ2" s="48"/>
+      <c r="AK2" s="48"/>
+      <c r="AL2" s="48"/>
+      <c r="AM2" s="48"/>
+      <c r="AN2" s="49"/>
     </row>
     <row r="4" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="82" t="s">
+      <c r="A4" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="82"/>
-      <c r="C4" s="83" t="s">
+      <c r="B4" s="54"/>
+      <c r="C4" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="83"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
-      <c r="H4" s="83"/>
-      <c r="I4" s="83"/>
-      <c r="J4" s="83"/>
-      <c r="K4" s="83"/>
-      <c r="L4" s="83"/>
-      <c r="M4" s="83"/>
-      <c r="N4" s="83"/>
-      <c r="O4" s="83"/>
-      <c r="P4" s="82" t="s">
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="55"/>
+      <c r="L4" s="55"/>
+      <c r="M4" s="55"/>
+      <c r="N4" s="55"/>
+      <c r="O4" s="55"/>
+      <c r="P4" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="Q4" s="82"/>
-      <c r="R4" s="82"/>
-      <c r="S4" s="82" t="s">
+      <c r="Q4" s="54"/>
+      <c r="R4" s="54"/>
+      <c r="S4" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="T4" s="82"/>
-      <c r="U4" s="82"/>
-      <c r="V4" s="82"/>
-      <c r="W4" s="82"/>
-      <c r="X4" s="82"/>
-      <c r="Y4" s="81" t="s">
+      <c r="T4" s="54"/>
+      <c r="U4" s="54"/>
+      <c r="V4" s="54"/>
+      <c r="W4" s="54"/>
+      <c r="X4" s="54"/>
+      <c r="Y4" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="Z4" s="81"/>
-      <c r="AA4" s="81"/>
+      <c r="Z4" s="53"/>
+      <c r="AA4" s="53"/>
       <c r="AB4" s="7">
         <f>AH1</f>
         <v>45078</v>
@@ -2794,41 +2869,41 @@
       <c r="BG4" s="3"/>
     </row>
     <row r="5" spans="1:59" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="82"/>
-      <c r="B5" s="82"/>
-      <c r="C5" s="82" t="s">
+      <c r="A5" s="54"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="82"/>
-      <c r="E5" s="82"/>
-      <c r="F5" s="82"/>
-      <c r="G5" s="82"/>
-      <c r="H5" s="82" t="s">
+      <c r="D5" s="54"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="82"/>
-      <c r="J5" s="82"/>
-      <c r="K5" s="82"/>
-      <c r="L5" s="82"/>
-      <c r="M5" s="82"/>
-      <c r="N5" s="82"/>
-      <c r="O5" s="82"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="82"/>
-      <c r="R5" s="82"/>
-      <c r="S5" s="82" t="s">
+      <c r="I5" s="54"/>
+      <c r="J5" s="54"/>
+      <c r="K5" s="54"/>
+      <c r="L5" s="54"/>
+      <c r="M5" s="54"/>
+      <c r="N5" s="54"/>
+      <c r="O5" s="54"/>
+      <c r="P5" s="54"/>
+      <c r="Q5" s="54"/>
+      <c r="R5" s="54"/>
+      <c r="S5" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="T5" s="82"/>
-      <c r="U5" s="82"/>
-      <c r="V5" s="82" t="s">
+      <c r="T5" s="54"/>
+      <c r="U5" s="54"/>
+      <c r="V5" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="W5" s="82"/>
-      <c r="X5" s="82"/>
-      <c r="Y5" s="81"/>
-      <c r="Z5" s="81"/>
-      <c r="AA5" s="81"/>
+      <c r="W5" s="54"/>
+      <c r="X5" s="54"/>
+      <c r="Y5" s="53"/>
+      <c r="Z5" s="53"/>
+      <c r="AA5" s="53"/>
       <c r="AB5" s="5">
         <f>AH1</f>
         <v>45078</v>
@@ -2951,33 +3026,33 @@
       </c>
     </row>
     <row r="6" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="82"/>
-      <c r="B6" s="82"/>
-      <c r="C6" s="82"/>
-      <c r="D6" s="82"/>
-      <c r="E6" s="82"/>
-      <c r="F6" s="82"/>
-      <c r="G6" s="82"/>
-      <c r="H6" s="82"/>
-      <c r="I6" s="82"/>
-      <c r="J6" s="82"/>
-      <c r="K6" s="82"/>
-      <c r="L6" s="82"/>
-      <c r="M6" s="82"/>
-      <c r="N6" s="82"/>
-      <c r="O6" s="82"/>
-      <c r="P6" s="82"/>
-      <c r="Q6" s="82"/>
-      <c r="R6" s="82"/>
-      <c r="S6" s="82"/>
-      <c r="T6" s="82"/>
-      <c r="U6" s="82"/>
-      <c r="V6" s="82"/>
-      <c r="W6" s="82"/>
-      <c r="X6" s="82"/>
-      <c r="Y6" s="81"/>
-      <c r="Z6" s="81"/>
-      <c r="AA6" s="81"/>
+      <c r="A6" s="54"/>
+      <c r="B6" s="54"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="54"/>
+      <c r="H6" s="54"/>
+      <c r="I6" s="54"/>
+      <c r="J6" s="54"/>
+      <c r="K6" s="54"/>
+      <c r="L6" s="54"/>
+      <c r="M6" s="54"/>
+      <c r="N6" s="54"/>
+      <c r="O6" s="54"/>
+      <c r="P6" s="54"/>
+      <c r="Q6" s="54"/>
+      <c r="R6" s="54"/>
+      <c r="S6" s="54"/>
+      <c r="T6" s="54"/>
+      <c r="U6" s="54"/>
+      <c r="V6" s="54"/>
+      <c r="W6" s="54"/>
+      <c r="X6" s="54"/>
+      <c r="Y6" s="53"/>
+      <c r="Z6" s="53"/>
+      <c r="AA6" s="53"/>
       <c r="AB6" s="6" t="str">
         <f>TEXT(AB5,"aaa")</f>
         <v>木</v>
@@ -3100,35 +3175,35 @@
       </c>
     </row>
     <row r="7" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="33"/>
-      <c r="B7" s="33"/>
-      <c r="C7" s="37" t="s">
+      <c r="A7" s="62"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="37"/>
-      <c r="J7" s="37"/>
-      <c r="K7" s="37"/>
-      <c r="L7" s="37"/>
-      <c r="M7" s="37"/>
-      <c r="N7" s="37"/>
-      <c r="O7" s="37"/>
-      <c r="P7" s="37"/>
-      <c r="Q7" s="37"/>
-      <c r="R7" s="37"/>
-      <c r="S7" s="34"/>
-      <c r="T7" s="34"/>
-      <c r="U7" s="34"/>
-      <c r="V7" s="34"/>
-      <c r="W7" s="34"/>
-      <c r="X7" s="34"/>
-      <c r="Y7" s="33"/>
-      <c r="Z7" s="33"/>
-      <c r="AA7" s="33"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="63"/>
+      <c r="F7" s="63"/>
+      <c r="G7" s="63"/>
+      <c r="H7" s="63"/>
+      <c r="I7" s="63"/>
+      <c r="J7" s="63"/>
+      <c r="K7" s="63"/>
+      <c r="L7" s="63"/>
+      <c r="M7" s="63"/>
+      <c r="N7" s="63"/>
+      <c r="O7" s="63"/>
+      <c r="P7" s="63"/>
+      <c r="Q7" s="63"/>
+      <c r="R7" s="63"/>
+      <c r="S7" s="65"/>
+      <c r="T7" s="65"/>
+      <c r="U7" s="65"/>
+      <c r="V7" s="65"/>
+      <c r="W7" s="65"/>
+      <c r="X7" s="65"/>
+      <c r="Y7" s="62"/>
+      <c r="Z7" s="62"/>
+      <c r="AA7" s="62"/>
       <c r="AB7" s="4"/>
       <c r="AC7" s="4"/>
       <c r="AD7" s="4"/>
@@ -3161,41 +3236,41 @@
       <c r="BE7" s="4"/>
     </row>
     <row r="8" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="33"/>
-      <c r="B8" s="33"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="42" t="s">
+      <c r="A8" s="62"/>
+      <c r="B8" s="62"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="63"/>
+      <c r="G8" s="63"/>
+      <c r="H8" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="I8" s="42"/>
-      <c r="J8" s="42"/>
-      <c r="K8" s="42"/>
-      <c r="L8" s="42"/>
-      <c r="M8" s="42"/>
-      <c r="N8" s="42"/>
-      <c r="O8" s="42"/>
-      <c r="P8" s="37"/>
-      <c r="Q8" s="37"/>
-      <c r="R8" s="37"/>
-      <c r="S8" s="34">
+      <c r="I8" s="64"/>
+      <c r="J8" s="64"/>
+      <c r="K8" s="64"/>
+      <c r="L8" s="64"/>
+      <c r="M8" s="64"/>
+      <c r="N8" s="64"/>
+      <c r="O8" s="64"/>
+      <c r="P8" s="63"/>
+      <c r="Q8" s="63"/>
+      <c r="R8" s="63"/>
+      <c r="S8" s="65">
         <v>45078</v>
       </c>
-      <c r="T8" s="34"/>
-      <c r="U8" s="34"/>
-      <c r="V8" s="34">
+      <c r="T8" s="65"/>
+      <c r="U8" s="65"/>
+      <c r="V8" s="65">
         <v>45078</v>
       </c>
-      <c r="W8" s="34"/>
-      <c r="X8" s="34"/>
-      <c r="Y8" s="33" t="s">
+      <c r="W8" s="65"/>
+      <c r="X8" s="65"/>
+      <c r="Y8" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="Z8" s="33"/>
-      <c r="AA8" s="33"/>
+      <c r="Z8" s="62"/>
+      <c r="AA8" s="62"/>
       <c r="AB8" s="4"/>
       <c r="AC8" s="4"/>
       <c r="AD8" s="4"/>
@@ -3228,41 +3303,41 @@
       <c r="BE8" s="4"/>
     </row>
     <row r="9" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="33"/>
-      <c r="B9" s="33"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="42" t="s">
+      <c r="A9" s="62"/>
+      <c r="B9" s="62"/>
+      <c r="C9" s="63"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="63"/>
+      <c r="G9" s="63"/>
+      <c r="H9" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="I9" s="42"/>
-      <c r="J9" s="42"/>
-      <c r="K9" s="42"/>
-      <c r="L9" s="42"/>
-      <c r="M9" s="42"/>
-      <c r="N9" s="42"/>
-      <c r="O9" s="42"/>
-      <c r="P9" s="37"/>
-      <c r="Q9" s="37"/>
-      <c r="R9" s="37"/>
-      <c r="S9" s="34">
+      <c r="I9" s="64"/>
+      <c r="J9" s="64"/>
+      <c r="K9" s="64"/>
+      <c r="L9" s="64"/>
+      <c r="M9" s="64"/>
+      <c r="N9" s="64"/>
+      <c r="O9" s="64"/>
+      <c r="P9" s="63"/>
+      <c r="Q9" s="63"/>
+      <c r="R9" s="63"/>
+      <c r="S9" s="65">
         <v>45078</v>
       </c>
-      <c r="T9" s="34"/>
-      <c r="U9" s="34"/>
-      <c r="V9" s="34">
+      <c r="T9" s="65"/>
+      <c r="U9" s="65"/>
+      <c r="V9" s="65">
         <v>45079</v>
       </c>
-      <c r="W9" s="34"/>
-      <c r="X9" s="34"/>
-      <c r="Y9" s="33" t="s">
+      <c r="W9" s="65"/>
+      <c r="X9" s="65"/>
+      <c r="Y9" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="Z9" s="33"/>
-      <c r="AA9" s="33"/>
+      <c r="Z9" s="62"/>
+      <c r="AA9" s="62"/>
       <c r="AB9" s="4"/>
       <c r="AC9" s="4"/>
       <c r="AD9" s="4"/>
@@ -3295,18 +3370,18 @@
       <c r="BE9" s="4"/>
     </row>
     <row r="10" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="33"/>
-      <c r="B10" s="33"/>
-      <c r="C10" s="37" t="s">
+      <c r="A10" s="62"/>
+      <c r="B10" s="62"/>
+      <c r="C10" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="37"/>
-      <c r="Y10" s="33"/>
-      <c r="Z10" s="33"/>
-      <c r="AA10" s="33"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="63"/>
+      <c r="F10" s="63"/>
+      <c r="G10" s="63"/>
+      <c r="Y10" s="62"/>
+      <c r="Z10" s="62"/>
+      <c r="AA10" s="62"/>
       <c r="AB10" s="4"/>
       <c r="AC10" s="12"/>
       <c r="AD10" s="4"/>
@@ -3339,43 +3414,43 @@
       <c r="BE10" s="4"/>
     </row>
     <row r="11" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="33"/>
-      <c r="B11" s="33"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="42" t="s">
+      <c r="A11" s="62"/>
+      <c r="B11" s="62"/>
+      <c r="C11" s="63"/>
+      <c r="D11" s="63"/>
+      <c r="E11" s="63"/>
+      <c r="F11" s="63"/>
+      <c r="G11" s="63"/>
+      <c r="H11" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="I11" s="42"/>
-      <c r="J11" s="42"/>
-      <c r="K11" s="42"/>
-      <c r="L11" s="42"/>
-      <c r="M11" s="42"/>
-      <c r="N11" s="42"/>
-      <c r="O11" s="42"/>
-      <c r="P11" s="37" t="s">
+      <c r="I11" s="64"/>
+      <c r="J11" s="64"/>
+      <c r="K11" s="64"/>
+      <c r="L11" s="64"/>
+      <c r="M11" s="64"/>
+      <c r="N11" s="64"/>
+      <c r="O11" s="64"/>
+      <c r="P11" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="Q11" s="37"/>
-      <c r="R11" s="37"/>
-      <c r="S11" s="34">
+      <c r="Q11" s="63"/>
+      <c r="R11" s="63"/>
+      <c r="S11" s="65">
         <v>45079</v>
       </c>
-      <c r="T11" s="34"/>
-      <c r="U11" s="34"/>
-      <c r="V11" s="34">
+      <c r="T11" s="65"/>
+      <c r="U11" s="65"/>
+      <c r="V11" s="65">
         <v>45082</v>
       </c>
-      <c r="W11" s="34"/>
-      <c r="X11" s="34"/>
-      <c r="Y11" s="33" t="s">
+      <c r="W11" s="65"/>
+      <c r="X11" s="65"/>
+      <c r="Y11" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="Z11" s="33"/>
-      <c r="AA11" s="33"/>
+      <c r="Z11" s="62"/>
+      <c r="AA11" s="62"/>
       <c r="AB11" s="4"/>
       <c r="AC11" s="13"/>
       <c r="AD11" s="4"/>
@@ -3407,41 +3482,41 @@
       <c r="BE11" s="4"/>
     </row>
     <row r="12" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="33"/>
-      <c r="B12" s="33"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="68" t="s">
+      <c r="A12" s="62"/>
+      <c r="B12" s="62"/>
+      <c r="C12" s="63"/>
+      <c r="D12" s="63"/>
+      <c r="E12" s="63"/>
+      <c r="F12" s="63"/>
+      <c r="G12" s="63"/>
+      <c r="H12" s="69" t="s">
         <v>32</v>
       </c>
-      <c r="I12" s="69"/>
-      <c r="J12" s="69"/>
-      <c r="K12" s="69"/>
-      <c r="L12" s="69"/>
-      <c r="M12" s="69"/>
-      <c r="N12" s="69"/>
-      <c r="O12" s="70"/>
-      <c r="P12" s="64"/>
-      <c r="Q12" s="65"/>
-      <c r="R12" s="67"/>
-      <c r="S12" s="34">
+      <c r="I12" s="70"/>
+      <c r="J12" s="70"/>
+      <c r="K12" s="70"/>
+      <c r="L12" s="70"/>
+      <c r="M12" s="70"/>
+      <c r="N12" s="70"/>
+      <c r="O12" s="71"/>
+      <c r="P12" s="66"/>
+      <c r="Q12" s="67"/>
+      <c r="R12" s="68"/>
+      <c r="S12" s="65">
         <v>45079</v>
       </c>
-      <c r="T12" s="34"/>
-      <c r="U12" s="34"/>
-      <c r="V12" s="34">
+      <c r="T12" s="65"/>
+      <c r="U12" s="65"/>
+      <c r="V12" s="65">
         <v>45082</v>
       </c>
-      <c r="W12" s="34"/>
-      <c r="X12" s="34"/>
-      <c r="Y12" s="33" t="s">
+      <c r="W12" s="65"/>
+      <c r="X12" s="65"/>
+      <c r="Y12" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="Z12" s="33"/>
-      <c r="AA12" s="33"/>
+      <c r="Z12" s="62"/>
+      <c r="AA12" s="62"/>
       <c r="AB12" s="4"/>
       <c r="AC12" s="13"/>
       <c r="AD12" s="4"/>
@@ -3474,41 +3549,41 @@
       <c r="BE12" s="4"/>
     </row>
     <row r="13" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="33"/>
-      <c r="B13" s="33"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="42" t="s">
+      <c r="A13" s="62"/>
+      <c r="B13" s="62"/>
+      <c r="C13" s="63"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="I13" s="42"/>
-      <c r="J13" s="42"/>
-      <c r="K13" s="42"/>
-      <c r="L13" s="42"/>
-      <c r="M13" s="42"/>
-      <c r="N13" s="42"/>
-      <c r="O13" s="42"/>
-      <c r="P13" s="37"/>
-      <c r="Q13" s="37"/>
-      <c r="R13" s="37"/>
-      <c r="S13" s="34">
+      <c r="I13" s="64"/>
+      <c r="J13" s="64"/>
+      <c r="K13" s="64"/>
+      <c r="L13" s="64"/>
+      <c r="M13" s="64"/>
+      <c r="N13" s="64"/>
+      <c r="O13" s="64"/>
+      <c r="P13" s="63"/>
+      <c r="Q13" s="63"/>
+      <c r="R13" s="63"/>
+      <c r="S13" s="65">
         <v>45082</v>
       </c>
-      <c r="T13" s="34"/>
-      <c r="U13" s="34"/>
-      <c r="V13" s="34">
+      <c r="T13" s="65"/>
+      <c r="U13" s="65"/>
+      <c r="V13" s="65">
         <v>45082</v>
       </c>
-      <c r="W13" s="34"/>
-      <c r="X13" s="34"/>
-      <c r="Y13" s="33" t="s">
+      <c r="W13" s="65"/>
+      <c r="X13" s="65"/>
+      <c r="Y13" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="Z13" s="33"/>
-      <c r="AA13" s="33"/>
+      <c r="Z13" s="62"/>
+      <c r="AA13" s="62"/>
       <c r="AB13" s="4"/>
       <c r="AC13" s="4"/>
       <c r="AD13" s="4"/>
@@ -3541,33 +3616,33 @@
       <c r="BE13" s="4"/>
     </row>
     <row r="14" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="33"/>
-      <c r="B14" s="33"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="37"/>
-      <c r="I14" s="37"/>
-      <c r="J14" s="37"/>
-      <c r="K14" s="37"/>
-      <c r="L14" s="37"/>
-      <c r="M14" s="37"/>
-      <c r="N14" s="37"/>
-      <c r="O14" s="37"/>
-      <c r="P14" s="37"/>
-      <c r="Q14" s="37"/>
-      <c r="R14" s="37"/>
-      <c r="S14" s="34"/>
-      <c r="T14" s="34"/>
-      <c r="U14" s="34"/>
-      <c r="V14" s="34"/>
-      <c r="W14" s="34"/>
-      <c r="X14" s="34"/>
-      <c r="Y14" s="33"/>
-      <c r="Z14" s="33"/>
-      <c r="AA14" s="33"/>
+      <c r="A14" s="62"/>
+      <c r="B14" s="62"/>
+      <c r="C14" s="63"/>
+      <c r="D14" s="63"/>
+      <c r="E14" s="63"/>
+      <c r="F14" s="63"/>
+      <c r="G14" s="63"/>
+      <c r="H14" s="63"/>
+      <c r="I14" s="63"/>
+      <c r="J14" s="63"/>
+      <c r="K14" s="63"/>
+      <c r="L14" s="63"/>
+      <c r="M14" s="63"/>
+      <c r="N14" s="63"/>
+      <c r="O14" s="63"/>
+      <c r="P14" s="63"/>
+      <c r="Q14" s="63"/>
+      <c r="R14" s="63"/>
+      <c r="S14" s="65"/>
+      <c r="T14" s="65"/>
+      <c r="U14" s="65"/>
+      <c r="V14" s="65"/>
+      <c r="W14" s="65"/>
+      <c r="X14" s="65"/>
+      <c r="Y14" s="62"/>
+      <c r="Z14" s="62"/>
+      <c r="AA14" s="62"/>
       <c r="AB14" s="4"/>
       <c r="AC14" s="4"/>
       <c r="AD14" s="4"/>
@@ -3600,37 +3675,37 @@
       <c r="BE14" s="4"/>
     </row>
     <row r="15" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="33"/>
-      <c r="B15" s="33"/>
-      <c r="C15" s="37" t="s">
+      <c r="A15" s="62"/>
+      <c r="B15" s="62"/>
+      <c r="C15" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="37"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="37"/>
-      <c r="I15" s="37"/>
-      <c r="J15" s="37"/>
-      <c r="K15" s="37"/>
-      <c r="L15" s="37"/>
-      <c r="M15" s="37"/>
-      <c r="N15" s="37"/>
-      <c r="O15" s="37"/>
-      <c r="P15" s="37" t="s">
+      <c r="D15" s="63"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="63"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="63"/>
+      <c r="J15" s="63"/>
+      <c r="K15" s="63"/>
+      <c r="L15" s="63"/>
+      <c r="M15" s="63"/>
+      <c r="N15" s="63"/>
+      <c r="O15" s="63"/>
+      <c r="P15" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="Q15" s="37"/>
-      <c r="R15" s="37"/>
-      <c r="S15" s="34"/>
-      <c r="T15" s="34"/>
-      <c r="U15" s="34"/>
-      <c r="V15" s="34"/>
-      <c r="W15" s="34"/>
-      <c r="X15" s="34"/>
-      <c r="Y15" s="33"/>
-      <c r="Z15" s="33"/>
-      <c r="AA15" s="33"/>
+      <c r="Q15" s="63"/>
+      <c r="R15" s="63"/>
+      <c r="S15" s="65"/>
+      <c r="T15" s="65"/>
+      <c r="U15" s="65"/>
+      <c r="V15" s="65"/>
+      <c r="W15" s="65"/>
+      <c r="X15" s="65"/>
+      <c r="Y15" s="62"/>
+      <c r="Z15" s="62"/>
+      <c r="AA15" s="62"/>
       <c r="AB15" s="4"/>
       <c r="AC15" s="4"/>
       <c r="AD15" s="4"/>
@@ -3663,41 +3738,41 @@
       <c r="BE15" s="4"/>
     </row>
     <row r="16" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="33"/>
-      <c r="B16" s="33"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="42" t="s">
+      <c r="A16" s="62"/>
+      <c r="B16" s="62"/>
+      <c r="C16" s="63"/>
+      <c r="D16" s="63"/>
+      <c r="E16" s="63"/>
+      <c r="F16" s="63"/>
+      <c r="G16" s="63"/>
+      <c r="H16" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="I16" s="42"/>
-      <c r="J16" s="42"/>
-      <c r="K16" s="42"/>
-      <c r="L16" s="42"/>
-      <c r="M16" s="42"/>
-      <c r="N16" s="42"/>
-      <c r="O16" s="42"/>
-      <c r="P16" s="37"/>
-      <c r="Q16" s="37"/>
-      <c r="R16" s="37"/>
-      <c r="S16" s="34">
+      <c r="I16" s="64"/>
+      <c r="J16" s="64"/>
+      <c r="K16" s="64"/>
+      <c r="L16" s="64"/>
+      <c r="M16" s="64"/>
+      <c r="N16" s="64"/>
+      <c r="O16" s="64"/>
+      <c r="P16" s="63"/>
+      <c r="Q16" s="63"/>
+      <c r="R16" s="63"/>
+      <c r="S16" s="65">
         <v>45083</v>
       </c>
-      <c r="T16" s="34"/>
-      <c r="U16" s="34"/>
-      <c r="V16" s="34">
+      <c r="T16" s="65"/>
+      <c r="U16" s="65"/>
+      <c r="V16" s="65">
         <v>45084</v>
       </c>
-      <c r="W16" s="34"/>
-      <c r="X16" s="34"/>
-      <c r="Y16" s="33" t="s">
+      <c r="W16" s="65"/>
+      <c r="X16" s="65"/>
+      <c r="Y16" s="62" t="s">
         <v>36</v>
       </c>
-      <c r="Z16" s="33"/>
-      <c r="AA16" s="33"/>
+      <c r="Z16" s="62"/>
+      <c r="AA16" s="62"/>
       <c r="AB16" s="4"/>
       <c r="AC16" s="4"/>
       <c r="AD16" s="4"/>
@@ -3730,43 +3805,43 @@
       <c r="BE16" s="4"/>
     </row>
     <row r="17" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="33"/>
-      <c r="B17" s="33"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="37"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="39" t="s">
+      <c r="A17" s="62"/>
+      <c r="B17" s="62"/>
+      <c r="C17" s="63"/>
+      <c r="D17" s="63"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="63"/>
+      <c r="H17" s="89" t="s">
         <v>34</v>
       </c>
-      <c r="I17" s="40"/>
-      <c r="J17" s="40"/>
-      <c r="K17" s="40"/>
-      <c r="L17" s="40"/>
-      <c r="M17" s="40"/>
-      <c r="N17" s="40"/>
-      <c r="O17" s="41"/>
-      <c r="P17" s="37" t="s">
+      <c r="I17" s="90"/>
+      <c r="J17" s="90"/>
+      <c r="K17" s="90"/>
+      <c r="L17" s="90"/>
+      <c r="M17" s="90"/>
+      <c r="N17" s="90"/>
+      <c r="O17" s="91"/>
+      <c r="P17" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="Q17" s="37"/>
-      <c r="R17" s="37"/>
-      <c r="S17" s="34">
+      <c r="Q17" s="63"/>
+      <c r="R17" s="63"/>
+      <c r="S17" s="65">
         <v>45083</v>
       </c>
-      <c r="T17" s="34"/>
-      <c r="U17" s="34"/>
-      <c r="V17" s="34">
+      <c r="T17" s="65"/>
+      <c r="U17" s="65"/>
+      <c r="V17" s="65">
         <v>45084</v>
       </c>
-      <c r="W17" s="34"/>
-      <c r="X17" s="34"/>
-      <c r="Y17" s="38" t="s">
+      <c r="W17" s="65"/>
+      <c r="X17" s="65"/>
+      <c r="Y17" s="92" t="s">
         <v>36</v>
       </c>
-      <c r="Z17" s="33"/>
-      <c r="AA17" s="33"/>
+      <c r="Z17" s="62"/>
+      <c r="AA17" s="62"/>
       <c r="AB17" s="4"/>
       <c r="AC17" s="4"/>
       <c r="AD17" s="4"/>
@@ -3801,41 +3876,41 @@
     <row r="18" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="10"/>
       <c r="B18" s="11"/>
-      <c r="C18" s="61"/>
-      <c r="D18" s="62"/>
-      <c r="E18" s="62"/>
-      <c r="F18" s="62"/>
-      <c r="G18" s="63"/>
-      <c r="H18" s="39" t="s">
+      <c r="C18" s="72"/>
+      <c r="D18" s="73"/>
+      <c r="E18" s="73"/>
+      <c r="F18" s="73"/>
+      <c r="G18" s="74"/>
+      <c r="H18" s="89" t="s">
         <v>33</v>
       </c>
-      <c r="I18" s="40"/>
-      <c r="J18" s="40"/>
-      <c r="K18" s="40"/>
-      <c r="L18" s="40"/>
-      <c r="M18" s="40"/>
-      <c r="N18" s="40"/>
-      <c r="O18" s="41"/>
-      <c r="P18" s="35" t="s">
+      <c r="I18" s="90"/>
+      <c r="J18" s="90"/>
+      <c r="K18" s="90"/>
+      <c r="L18" s="90"/>
+      <c r="M18" s="90"/>
+      <c r="N18" s="90"/>
+      <c r="O18" s="91"/>
+      <c r="P18" s="75" t="s">
         <v>37</v>
       </c>
-      <c r="Q18" s="36"/>
-      <c r="R18" s="36"/>
-      <c r="S18" s="34">
+      <c r="Q18" s="76"/>
+      <c r="R18" s="76"/>
+      <c r="S18" s="65">
         <v>45083</v>
       </c>
-      <c r="T18" s="34"/>
-      <c r="U18" s="34"/>
-      <c r="V18" s="34">
+      <c r="T18" s="65"/>
+      <c r="U18" s="65"/>
+      <c r="V18" s="65">
         <v>45084</v>
       </c>
-      <c r="W18" s="34"/>
-      <c r="X18" s="34"/>
-      <c r="Y18" s="38" t="s">
+      <c r="W18" s="65"/>
+      <c r="X18" s="65"/>
+      <c r="Y18" s="92" t="s">
         <v>36</v>
       </c>
-      <c r="Z18" s="33"/>
-      <c r="AA18" s="33"/>
+      <c r="Z18" s="62"/>
+      <c r="AA18" s="62"/>
       <c r="AB18" s="4"/>
       <c r="AC18" s="4"/>
       <c r="AD18" s="4"/>
@@ -3875,36 +3950,36 @@
       <c r="E19" s="25"/>
       <c r="F19" s="25"/>
       <c r="G19" s="26"/>
-      <c r="H19" s="39" t="s">
+      <c r="H19" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="I19" s="40"/>
-      <c r="J19" s="40"/>
-      <c r="K19" s="40"/>
-      <c r="L19" s="40"/>
-      <c r="M19" s="40"/>
-      <c r="N19" s="40"/>
-      <c r="O19" s="56"/>
-      <c r="P19" s="57" t="s">
+      <c r="I19" s="90"/>
+      <c r="J19" s="90"/>
+      <c r="K19" s="90"/>
+      <c r="L19" s="90"/>
+      <c r="M19" s="90"/>
+      <c r="N19" s="90"/>
+      <c r="O19" s="93"/>
+      <c r="P19" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="Q19" s="36"/>
-      <c r="R19" s="49"/>
-      <c r="S19" s="34">
+      <c r="Q19" s="76"/>
+      <c r="R19" s="94"/>
+      <c r="S19" s="65">
         <v>45084</v>
       </c>
-      <c r="T19" s="34"/>
-      <c r="U19" s="34"/>
-      <c r="V19" s="34">
+      <c r="T19" s="65"/>
+      <c r="U19" s="65"/>
+      <c r="V19" s="65">
         <v>45084</v>
       </c>
-      <c r="W19" s="34"/>
-      <c r="X19" s="34"/>
-      <c r="Y19" s="58" t="s">
+      <c r="W19" s="65"/>
+      <c r="X19" s="65"/>
+      <c r="Y19" s="95" t="s">
         <v>36</v>
       </c>
-      <c r="Z19" s="59"/>
-      <c r="AA19" s="60"/>
+      <c r="Z19" s="96"/>
+      <c r="AA19" s="97"/>
       <c r="AB19" s="4"/>
       <c r="AC19" s="4"/>
       <c r="AD19" s="4"/>
@@ -3937,33 +4012,33 @@
       <c r="BE19" s="4"/>
     </row>
     <row r="20" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="35"/>
-      <c r="B20" s="45"/>
-      <c r="C20" s="53"/>
-      <c r="D20" s="54"/>
-      <c r="E20" s="54"/>
-      <c r="F20" s="54"/>
-      <c r="G20" s="55"/>
-      <c r="H20" s="64"/>
-      <c r="I20" s="65"/>
-      <c r="J20" s="65"/>
-      <c r="K20" s="65"/>
-      <c r="L20" s="65"/>
-      <c r="M20" s="65"/>
-      <c r="N20" s="65"/>
-      <c r="O20" s="66"/>
-      <c r="P20" s="57"/>
-      <c r="Q20" s="36"/>
-      <c r="R20" s="45"/>
-      <c r="S20" s="50"/>
-      <c r="T20" s="51"/>
-      <c r="U20" s="52"/>
-      <c r="V20" s="50"/>
-      <c r="W20" s="51"/>
-      <c r="X20" s="52"/>
-      <c r="Y20" s="35"/>
-      <c r="Z20" s="36"/>
-      <c r="AA20" s="45"/>
+      <c r="A20" s="75"/>
+      <c r="B20" s="77"/>
+      <c r="C20" s="86"/>
+      <c r="D20" s="87"/>
+      <c r="E20" s="87"/>
+      <c r="F20" s="87"/>
+      <c r="G20" s="88"/>
+      <c r="H20" s="66"/>
+      <c r="I20" s="67"/>
+      <c r="J20" s="67"/>
+      <c r="K20" s="67"/>
+      <c r="L20" s="67"/>
+      <c r="M20" s="67"/>
+      <c r="N20" s="67"/>
+      <c r="O20" s="78"/>
+      <c r="P20" s="79"/>
+      <c r="Q20" s="76"/>
+      <c r="R20" s="77"/>
+      <c r="S20" s="80"/>
+      <c r="T20" s="81"/>
+      <c r="U20" s="82"/>
+      <c r="V20" s="80"/>
+      <c r="W20" s="81"/>
+      <c r="X20" s="82"/>
+      <c r="Y20" s="75"/>
+      <c r="Z20" s="76"/>
+      <c r="AA20" s="77"/>
       <c r="AB20" s="4"/>
       <c r="AC20" s="4"/>
       <c r="AD20" s="4"/>
@@ -3996,37 +4071,37 @@
       <c r="BE20" s="4"/>
     </row>
     <row r="21" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="35"/>
-      <c r="B21" s="45"/>
-      <c r="C21" s="37" t="s">
+      <c r="A21" s="75"/>
+      <c r="B21" s="77"/>
+      <c r="C21" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="D21" s="37"/>
-      <c r="E21" s="37"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="37"/>
-      <c r="H21" s="46"/>
-      <c r="I21" s="47"/>
-      <c r="J21" s="47"/>
-      <c r="K21" s="47"/>
-      <c r="L21" s="47"/>
-      <c r="M21" s="47"/>
-      <c r="N21" s="47"/>
-      <c r="O21" s="48"/>
-      <c r="P21" s="37" t="s">
+      <c r="D21" s="63"/>
+      <c r="E21" s="63"/>
+      <c r="F21" s="63"/>
+      <c r="G21" s="63"/>
+      <c r="H21" s="83"/>
+      <c r="I21" s="84"/>
+      <c r="J21" s="84"/>
+      <c r="K21" s="84"/>
+      <c r="L21" s="84"/>
+      <c r="M21" s="84"/>
+      <c r="N21" s="84"/>
+      <c r="O21" s="85"/>
+      <c r="P21" s="63" t="s">
         <v>27</v>
       </c>
-      <c r="Q21" s="37"/>
-      <c r="R21" s="37"/>
-      <c r="S21" s="34"/>
-      <c r="T21" s="34"/>
-      <c r="U21" s="34"/>
-      <c r="V21" s="34"/>
-      <c r="W21" s="34"/>
-      <c r="X21" s="34"/>
-      <c r="Y21" s="33"/>
-      <c r="Z21" s="33"/>
-      <c r="AA21" s="33"/>
+      <c r="Q21" s="63"/>
+      <c r="R21" s="63"/>
+      <c r="S21" s="65"/>
+      <c r="T21" s="65"/>
+      <c r="U21" s="65"/>
+      <c r="V21" s="65"/>
+      <c r="W21" s="65"/>
+      <c r="X21" s="65"/>
+      <c r="Y21" s="62"/>
+      <c r="Z21" s="62"/>
+      <c r="AA21" s="62"/>
       <c r="AB21" s="4"/>
       <c r="AC21" s="4"/>
       <c r="AD21" s="4"/>
@@ -4059,41 +4134,41 @@
       <c r="BE21" s="4"/>
     </row>
     <row r="22" spans="1:57" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="35"/>
-      <c r="B22" s="45"/>
-      <c r="C22" s="35"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="36"/>
-      <c r="F22" s="36"/>
-      <c r="G22" s="45"/>
-      <c r="H22" s="46" t="s">
+      <c r="A22" s="75"/>
+      <c r="B22" s="77"/>
+      <c r="C22" s="75"/>
+      <c r="D22" s="76"/>
+      <c r="E22" s="76"/>
+      <c r="F22" s="76"/>
+      <c r="G22" s="77"/>
+      <c r="H22" s="83" t="s">
         <v>41</v>
       </c>
-      <c r="I22" s="47"/>
-      <c r="J22" s="47"/>
-      <c r="K22" s="47"/>
-      <c r="L22" s="47"/>
-      <c r="M22" s="47"/>
-      <c r="N22" s="47"/>
-      <c r="O22" s="48"/>
-      <c r="P22" s="35"/>
-      <c r="Q22" s="36"/>
-      <c r="R22" s="49"/>
-      <c r="S22" s="34">
+      <c r="I22" s="84"/>
+      <c r="J22" s="84"/>
+      <c r="K22" s="84"/>
+      <c r="L22" s="84"/>
+      <c r="M22" s="84"/>
+      <c r="N22" s="84"/>
+      <c r="O22" s="85"/>
+      <c r="P22" s="75"/>
+      <c r="Q22" s="76"/>
+      <c r="R22" s="94"/>
+      <c r="S22" s="65">
         <v>45085</v>
       </c>
-      <c r="T22" s="34"/>
-      <c r="U22" s="34"/>
-      <c r="V22" s="34">
+      <c r="T22" s="65"/>
+      <c r="U22" s="65"/>
+      <c r="V22" s="65">
         <v>45100</v>
       </c>
-      <c r="W22" s="34"/>
-      <c r="X22" s="34"/>
-      <c r="Y22" s="33" t="s">
+      <c r="W22" s="65"/>
+      <c r="X22" s="65"/>
+      <c r="Y22" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="Z22" s="33"/>
-      <c r="AA22" s="33"/>
+      <c r="Z22" s="62"/>
+      <c r="AA22" s="62"/>
       <c r="AB22" s="4"/>
       <c r="AC22" s="4"/>
       <c r="AD22" s="4"/>
@@ -4128,31 +4203,31 @@
     <row r="23" spans="1:57" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="10"/>
       <c r="B23" s="11"/>
-      <c r="C23" s="35"/>
-      <c r="D23" s="36"/>
-      <c r="E23" s="36"/>
-      <c r="F23" s="36"/>
-      <c r="G23" s="45"/>
-      <c r="H23" s="35"/>
-      <c r="I23" s="36"/>
-      <c r="J23" s="36"/>
-      <c r="K23" s="36"/>
-      <c r="L23" s="36"/>
-      <c r="M23" s="36"/>
-      <c r="N23" s="36"/>
-      <c r="O23" s="45"/>
-      <c r="P23" s="35"/>
-      <c r="Q23" s="36"/>
-      <c r="R23" s="45"/>
-      <c r="S23" s="50"/>
-      <c r="T23" s="51"/>
-      <c r="U23" s="52"/>
-      <c r="V23" s="50"/>
-      <c r="W23" s="51"/>
-      <c r="X23" s="52"/>
-      <c r="Y23" s="35"/>
-      <c r="Z23" s="36"/>
-      <c r="AA23" s="45"/>
+      <c r="C23" s="75"/>
+      <c r="D23" s="76"/>
+      <c r="E23" s="76"/>
+      <c r="F23" s="76"/>
+      <c r="G23" s="77"/>
+      <c r="H23" s="75"/>
+      <c r="I23" s="76"/>
+      <c r="J23" s="76"/>
+      <c r="K23" s="76"/>
+      <c r="L23" s="76"/>
+      <c r="M23" s="76"/>
+      <c r="N23" s="76"/>
+      <c r="O23" s="77"/>
+      <c r="P23" s="75"/>
+      <c r="Q23" s="76"/>
+      <c r="R23" s="77"/>
+      <c r="S23" s="80"/>
+      <c r="T23" s="81"/>
+      <c r="U23" s="82"/>
+      <c r="V23" s="80"/>
+      <c r="W23" s="81"/>
+      <c r="X23" s="82"/>
+      <c r="Y23" s="75"/>
+      <c r="Z23" s="76"/>
+      <c r="AA23" s="77"/>
       <c r="AB23" s="4"/>
       <c r="AC23" s="4"/>
       <c r="AD23" s="4"/>
@@ -4185,43 +4260,43 @@
       <c r="BE23" s="4"/>
     </row>
     <row r="24" spans="1:57" ht="40" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="33"/>
-      <c r="B24" s="33"/>
-      <c r="C24" s="37" t="s">
+      <c r="A24" s="62"/>
+      <c r="B24" s="62"/>
+      <c r="C24" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="D24" s="37"/>
-      <c r="E24" s="37"/>
-      <c r="F24" s="37"/>
-      <c r="G24" s="37"/>
-      <c r="H24" s="37"/>
-      <c r="I24" s="37"/>
-      <c r="J24" s="37"/>
-      <c r="K24" s="37"/>
-      <c r="L24" s="37"/>
-      <c r="M24" s="37"/>
-      <c r="N24" s="37"/>
-      <c r="O24" s="37"/>
-      <c r="P24" s="37" t="s">
+      <c r="D24" s="63"/>
+      <c r="E24" s="63"/>
+      <c r="F24" s="63"/>
+      <c r="G24" s="63"/>
+      <c r="H24" s="63"/>
+      <c r="I24" s="63"/>
+      <c r="J24" s="63"/>
+      <c r="K24" s="63"/>
+      <c r="L24" s="63"/>
+      <c r="M24" s="63"/>
+      <c r="N24" s="63"/>
+      <c r="O24" s="63"/>
+      <c r="P24" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="Q24" s="37"/>
-      <c r="R24" s="37"/>
-      <c r="S24" s="34">
+      <c r="Q24" s="63"/>
+      <c r="R24" s="63"/>
+      <c r="S24" s="65">
         <v>45089</v>
       </c>
-      <c r="T24" s="34"/>
-      <c r="U24" s="34"/>
-      <c r="V24" s="34">
+      <c r="T24" s="65"/>
+      <c r="U24" s="65"/>
+      <c r="V24" s="65">
         <v>45100</v>
       </c>
-      <c r="W24" s="34"/>
-      <c r="X24" s="34"/>
-      <c r="Y24" s="100" t="s">
+      <c r="W24" s="65"/>
+      <c r="X24" s="65"/>
+      <c r="Y24" s="98" t="s">
         <v>162</v>
       </c>
-      <c r="Z24" s="100"/>
-      <c r="AA24" s="100"/>
+      <c r="Z24" s="98"/>
+      <c r="AA24" s="98"/>
       <c r="AB24" s="4"/>
       <c r="AC24" s="4"/>
       <c r="AD24" s="4"/>
@@ -4254,33 +4329,33 @@
       <c r="BE24" s="4"/>
     </row>
     <row r="25" spans="1:57" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="33"/>
-      <c r="B25" s="33"/>
-      <c r="C25" s="37"/>
-      <c r="D25" s="37"/>
-      <c r="E25" s="37"/>
-      <c r="F25" s="37"/>
-      <c r="G25" s="37"/>
-      <c r="H25" s="37"/>
-      <c r="I25" s="37"/>
-      <c r="J25" s="37"/>
-      <c r="K25" s="37"/>
-      <c r="L25" s="37"/>
-      <c r="M25" s="37"/>
-      <c r="N25" s="37"/>
-      <c r="O25" s="37"/>
-      <c r="P25" s="37"/>
-      <c r="Q25" s="37"/>
-      <c r="R25" s="37"/>
-      <c r="S25" s="34"/>
-      <c r="T25" s="34"/>
-      <c r="U25" s="34"/>
-      <c r="V25" s="34"/>
-      <c r="W25" s="34"/>
-      <c r="X25" s="34"/>
-      <c r="Y25" s="33"/>
-      <c r="Z25" s="33"/>
-      <c r="AA25" s="33"/>
+      <c r="A25" s="62"/>
+      <c r="B25" s="62"/>
+      <c r="C25" s="63"/>
+      <c r="D25" s="63"/>
+      <c r="E25" s="63"/>
+      <c r="F25" s="63"/>
+      <c r="G25" s="63"/>
+      <c r="H25" s="63"/>
+      <c r="I25" s="63"/>
+      <c r="J25" s="63"/>
+      <c r="K25" s="63"/>
+      <c r="L25" s="63"/>
+      <c r="M25" s="63"/>
+      <c r="N25" s="63"/>
+      <c r="O25" s="63"/>
+      <c r="P25" s="63"/>
+      <c r="Q25" s="63"/>
+      <c r="R25" s="63"/>
+      <c r="S25" s="65"/>
+      <c r="T25" s="65"/>
+      <c r="U25" s="65"/>
+      <c r="V25" s="65"/>
+      <c r="W25" s="65"/>
+      <c r="X25" s="65"/>
+      <c r="Y25" s="62"/>
+      <c r="Z25" s="62"/>
+      <c r="AA25" s="62"/>
       <c r="AB25" s="4"/>
       <c r="AC25" s="4"/>
       <c r="AD25" s="4"/>
@@ -4313,41 +4388,41 @@
       <c r="BE25" s="4"/>
     </row>
     <row r="26" spans="1:57" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="33"/>
-      <c r="B26" s="33"/>
-      <c r="C26" s="37" t="s">
+      <c r="A26" s="62"/>
+      <c r="B26" s="62"/>
+      <c r="C26" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="D26" s="37"/>
-      <c r="E26" s="37"/>
-      <c r="F26" s="37"/>
-      <c r="G26" s="37"/>
-      <c r="H26" s="37"/>
-      <c r="I26" s="37"/>
-      <c r="J26" s="37"/>
-      <c r="K26" s="37"/>
-      <c r="L26" s="37"/>
-      <c r="M26" s="37"/>
-      <c r="N26" s="37"/>
-      <c r="O26" s="37"/>
-      <c r="P26" s="37" t="s">
+      <c r="D26" s="63"/>
+      <c r="E26" s="63"/>
+      <c r="F26" s="63"/>
+      <c r="G26" s="63"/>
+      <c r="H26" s="63"/>
+      <c r="I26" s="63"/>
+      <c r="J26" s="63"/>
+      <c r="K26" s="63"/>
+      <c r="L26" s="63"/>
+      <c r="M26" s="63"/>
+      <c r="N26" s="63"/>
+      <c r="O26" s="63"/>
+      <c r="P26" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="Q26" s="37"/>
-      <c r="R26" s="37"/>
-      <c r="S26" s="34">
+      <c r="Q26" s="63"/>
+      <c r="R26" s="63"/>
+      <c r="S26" s="65">
         <v>45096</v>
       </c>
-      <c r="T26" s="34"/>
-      <c r="U26" s="34"/>
-      <c r="V26" s="34">
+      <c r="T26" s="65"/>
+      <c r="U26" s="65"/>
+      <c r="V26" s="65">
         <v>45100</v>
       </c>
-      <c r="W26" s="34"/>
-      <c r="X26" s="34"/>
-      <c r="Y26" s="33"/>
-      <c r="Z26" s="33"/>
-      <c r="AA26" s="33"/>
+      <c r="W26" s="65"/>
+      <c r="X26" s="65"/>
+      <c r="Y26" s="62"/>
+      <c r="Z26" s="62"/>
+      <c r="AA26" s="62"/>
       <c r="AB26" s="4"/>
       <c r="AC26" s="4"/>
       <c r="AD26" s="4"/>
@@ -4380,41 +4455,41 @@
       <c r="BE26" s="4"/>
     </row>
     <row r="27" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="33"/>
-      <c r="B27" s="33"/>
-      <c r="C27" s="37" t="s">
+      <c r="A27" s="62"/>
+      <c r="B27" s="62"/>
+      <c r="C27" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="D27" s="37"/>
-      <c r="E27" s="37"/>
-      <c r="F27" s="37"/>
-      <c r="G27" s="37"/>
-      <c r="H27" s="37"/>
-      <c r="I27" s="37"/>
-      <c r="J27" s="37"/>
-      <c r="K27" s="37"/>
-      <c r="L27" s="37"/>
-      <c r="M27" s="37"/>
-      <c r="N27" s="37"/>
-      <c r="O27" s="37"/>
-      <c r="P27" s="37" t="s">
+      <c r="D27" s="63"/>
+      <c r="E27" s="63"/>
+      <c r="F27" s="63"/>
+      <c r="G27" s="63"/>
+      <c r="H27" s="63"/>
+      <c r="I27" s="63"/>
+      <c r="J27" s="63"/>
+      <c r="K27" s="63"/>
+      <c r="L27" s="63"/>
+      <c r="M27" s="63"/>
+      <c r="N27" s="63"/>
+      <c r="O27" s="63"/>
+      <c r="P27" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="Q27" s="37"/>
-      <c r="R27" s="37"/>
-      <c r="S27" s="34">
+      <c r="Q27" s="63"/>
+      <c r="R27" s="63"/>
+      <c r="S27" s="65">
         <v>45096</v>
       </c>
-      <c r="T27" s="34"/>
-      <c r="U27" s="34"/>
-      <c r="V27" s="34">
+      <c r="T27" s="65"/>
+      <c r="U27" s="65"/>
+      <c r="V27" s="65">
         <v>45100</v>
       </c>
-      <c r="W27" s="34"/>
-      <c r="X27" s="34"/>
-      <c r="Y27" s="33"/>
-      <c r="Z27" s="33"/>
-      <c r="AA27" s="33"/>
+      <c r="W27" s="65"/>
+      <c r="X27" s="65"/>
+      <c r="Y27" s="62"/>
+      <c r="Z27" s="62"/>
+      <c r="AA27" s="62"/>
       <c r="AB27" s="4"/>
       <c r="AC27" s="4"/>
       <c r="AD27" s="4"/>
@@ -4446,41 +4521,41 @@
       <c r="BE27" s="4"/>
     </row>
     <row r="28" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="33"/>
-      <c r="B28" s="33"/>
-      <c r="C28" s="37" t="s">
+      <c r="A28" s="62"/>
+      <c r="B28" s="62"/>
+      <c r="C28" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="D28" s="37"/>
-      <c r="E28" s="37"/>
-      <c r="F28" s="37"/>
-      <c r="G28" s="37"/>
-      <c r="H28" s="37"/>
-      <c r="I28" s="37"/>
-      <c r="J28" s="37"/>
-      <c r="K28" s="37"/>
-      <c r="L28" s="37"/>
-      <c r="M28" s="37"/>
-      <c r="N28" s="37"/>
-      <c r="O28" s="37"/>
-      <c r="P28" s="37" t="s">
+      <c r="D28" s="63"/>
+      <c r="E28" s="63"/>
+      <c r="F28" s="63"/>
+      <c r="G28" s="63"/>
+      <c r="H28" s="63"/>
+      <c r="I28" s="63"/>
+      <c r="J28" s="63"/>
+      <c r="K28" s="63"/>
+      <c r="L28" s="63"/>
+      <c r="M28" s="63"/>
+      <c r="N28" s="63"/>
+      <c r="O28" s="63"/>
+      <c r="P28" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="Q28" s="37"/>
-      <c r="R28" s="37"/>
-      <c r="S28" s="34">
+      <c r="Q28" s="63"/>
+      <c r="R28" s="63"/>
+      <c r="S28" s="65">
         <v>45103</v>
       </c>
-      <c r="T28" s="34"/>
-      <c r="U28" s="34"/>
-      <c r="V28" s="34">
+      <c r="T28" s="65"/>
+      <c r="U28" s="65"/>
+      <c r="V28" s="65">
         <v>45105</v>
       </c>
-      <c r="W28" s="34"/>
-      <c r="X28" s="34"/>
-      <c r="Y28" s="33"/>
-      <c r="Z28" s="33"/>
-      <c r="AA28" s="33"/>
+      <c r="W28" s="65"/>
+      <c r="X28" s="65"/>
+      <c r="Y28" s="62"/>
+      <c r="Z28" s="62"/>
+      <c r="AA28" s="62"/>
       <c r="AB28" s="4"/>
       <c r="AC28" s="4"/>
       <c r="AD28" s="4"/>
@@ -4513,41 +4588,41 @@
       <c r="BE28" s="4"/>
     </row>
     <row r="29" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="33"/>
-      <c r="B29" s="33"/>
-      <c r="C29" s="37" t="s">
+      <c r="A29" s="62"/>
+      <c r="B29" s="62"/>
+      <c r="C29" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="D29" s="37"/>
-      <c r="E29" s="37"/>
-      <c r="F29" s="37"/>
-      <c r="G29" s="37"/>
-      <c r="H29" s="37"/>
-      <c r="I29" s="37"/>
-      <c r="J29" s="37"/>
-      <c r="K29" s="37"/>
-      <c r="L29" s="37"/>
-      <c r="M29" s="37"/>
-      <c r="N29" s="37"/>
-      <c r="O29" s="37"/>
-      <c r="P29" s="37" t="s">
+      <c r="D29" s="63"/>
+      <c r="E29" s="63"/>
+      <c r="F29" s="63"/>
+      <c r="G29" s="63"/>
+      <c r="H29" s="63"/>
+      <c r="I29" s="63"/>
+      <c r="J29" s="63"/>
+      <c r="K29" s="63"/>
+      <c r="L29" s="63"/>
+      <c r="M29" s="63"/>
+      <c r="N29" s="63"/>
+      <c r="O29" s="63"/>
+      <c r="P29" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="Q29" s="37"/>
-      <c r="R29" s="37"/>
-      <c r="S29" s="34">
+      <c r="Q29" s="63"/>
+      <c r="R29" s="63"/>
+      <c r="S29" s="65">
         <v>45089</v>
       </c>
-      <c r="T29" s="34"/>
-      <c r="U29" s="34"/>
-      <c r="V29" s="34">
+      <c r="T29" s="65"/>
+      <c r="U29" s="65"/>
+      <c r="V29" s="65">
         <v>45105</v>
       </c>
-      <c r="W29" s="34"/>
-      <c r="X29" s="34"/>
-      <c r="Y29" s="33"/>
-      <c r="Z29" s="33"/>
-      <c r="AA29" s="33"/>
+      <c r="W29" s="65"/>
+      <c r="X29" s="65"/>
+      <c r="Y29" s="62"/>
+      <c r="Z29" s="62"/>
+      <c r="AA29" s="62"/>
       <c r="AB29" s="4"/>
       <c r="AC29" s="4"/>
       <c r="AD29" s="4"/>
@@ -4580,33 +4655,33 @@
       <c r="BE29" s="4"/>
     </row>
     <row r="30" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="33"/>
-      <c r="B30" s="33"/>
-      <c r="C30" s="37"/>
-      <c r="D30" s="37"/>
-      <c r="E30" s="37"/>
-      <c r="F30" s="37"/>
-      <c r="G30" s="37"/>
-      <c r="H30" s="37"/>
-      <c r="I30" s="37"/>
-      <c r="J30" s="37"/>
-      <c r="K30" s="37"/>
-      <c r="L30" s="37"/>
-      <c r="M30" s="37"/>
-      <c r="N30" s="37"/>
-      <c r="O30" s="37"/>
-      <c r="P30" s="37"/>
-      <c r="Q30" s="37"/>
-      <c r="R30" s="37"/>
-      <c r="S30" s="34"/>
-      <c r="T30" s="34"/>
-      <c r="U30" s="34"/>
-      <c r="V30" s="34"/>
-      <c r="W30" s="34"/>
-      <c r="X30" s="34"/>
-      <c r="Y30" s="33"/>
-      <c r="Z30" s="33"/>
-      <c r="AA30" s="33"/>
+      <c r="A30" s="62"/>
+      <c r="B30" s="62"/>
+      <c r="C30" s="63"/>
+      <c r="D30" s="63"/>
+      <c r="E30" s="63"/>
+      <c r="F30" s="63"/>
+      <c r="G30" s="63"/>
+      <c r="H30" s="63"/>
+      <c r="I30" s="63"/>
+      <c r="J30" s="63"/>
+      <c r="K30" s="63"/>
+      <c r="L30" s="63"/>
+      <c r="M30" s="63"/>
+      <c r="N30" s="63"/>
+      <c r="O30" s="63"/>
+      <c r="P30" s="63"/>
+      <c r="Q30" s="63"/>
+      <c r="R30" s="63"/>
+      <c r="S30" s="65"/>
+      <c r="T30" s="65"/>
+      <c r="U30" s="65"/>
+      <c r="V30" s="65"/>
+      <c r="W30" s="65"/>
+      <c r="X30" s="65"/>
+      <c r="Y30" s="62"/>
+      <c r="Z30" s="62"/>
+      <c r="AA30" s="62"/>
       <c r="AB30" s="4"/>
       <c r="AC30" s="4"/>
       <c r="AD30" s="4"/>
@@ -4639,35 +4714,35 @@
       <c r="BE30" s="4"/>
     </row>
     <row r="31" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="33"/>
-      <c r="B31" s="33"/>
-      <c r="C31" s="37" t="s">
+      <c r="A31" s="62"/>
+      <c r="B31" s="62"/>
+      <c r="C31" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="D31" s="37"/>
-      <c r="E31" s="37"/>
-      <c r="F31" s="37"/>
-      <c r="G31" s="37"/>
-      <c r="H31" s="37"/>
-      <c r="I31" s="37"/>
-      <c r="J31" s="37"/>
-      <c r="K31" s="37"/>
-      <c r="L31" s="37"/>
-      <c r="M31" s="37"/>
-      <c r="N31" s="37"/>
-      <c r="O31" s="37"/>
-      <c r="P31" s="37"/>
-      <c r="Q31" s="37"/>
-      <c r="R31" s="37"/>
-      <c r="S31" s="34"/>
-      <c r="T31" s="34"/>
-      <c r="U31" s="34"/>
-      <c r="V31" s="34"/>
-      <c r="W31" s="34"/>
-      <c r="X31" s="34"/>
-      <c r="Y31" s="33"/>
-      <c r="Z31" s="33"/>
-      <c r="AA31" s="33"/>
+      <c r="D31" s="63"/>
+      <c r="E31" s="63"/>
+      <c r="F31" s="63"/>
+      <c r="G31" s="63"/>
+      <c r="H31" s="63"/>
+      <c r="I31" s="63"/>
+      <c r="J31" s="63"/>
+      <c r="K31" s="63"/>
+      <c r="L31" s="63"/>
+      <c r="M31" s="63"/>
+      <c r="N31" s="63"/>
+      <c r="O31" s="63"/>
+      <c r="P31" s="63"/>
+      <c r="Q31" s="63"/>
+      <c r="R31" s="63"/>
+      <c r="S31" s="65"/>
+      <c r="T31" s="65"/>
+      <c r="U31" s="65"/>
+      <c r="V31" s="65"/>
+      <c r="W31" s="65"/>
+      <c r="X31" s="65"/>
+      <c r="Y31" s="62"/>
+      <c r="Z31" s="62"/>
+      <c r="AA31" s="62"/>
       <c r="AB31" s="4"/>
       <c r="AC31" s="4"/>
       <c r="AD31" s="4"/>
@@ -4700,33 +4775,33 @@
       <c r="BE31" s="9"/>
     </row>
     <row r="32" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="33"/>
-      <c r="B32" s="33"/>
-      <c r="C32" s="37"/>
-      <c r="D32" s="37"/>
-      <c r="E32" s="37"/>
-      <c r="F32" s="37"/>
-      <c r="G32" s="37"/>
-      <c r="H32" s="37"/>
-      <c r="I32" s="37"/>
-      <c r="J32" s="37"/>
-      <c r="K32" s="37"/>
-      <c r="L32" s="37"/>
-      <c r="M32" s="37"/>
-      <c r="N32" s="37"/>
-      <c r="O32" s="37"/>
-      <c r="P32" s="37"/>
-      <c r="Q32" s="37"/>
-      <c r="R32" s="37"/>
-      <c r="S32" s="34"/>
-      <c r="T32" s="34"/>
-      <c r="U32" s="34"/>
-      <c r="V32" s="34"/>
-      <c r="W32" s="34"/>
-      <c r="X32" s="34"/>
-      <c r="Y32" s="33"/>
-      <c r="Z32" s="33"/>
-      <c r="AA32" s="33"/>
+      <c r="A32" s="62"/>
+      <c r="B32" s="62"/>
+      <c r="C32" s="63"/>
+      <c r="D32" s="63"/>
+      <c r="E32" s="63"/>
+      <c r="F32" s="63"/>
+      <c r="G32" s="63"/>
+      <c r="H32" s="63"/>
+      <c r="I32" s="63"/>
+      <c r="J32" s="63"/>
+      <c r="K32" s="63"/>
+      <c r="L32" s="63"/>
+      <c r="M32" s="63"/>
+      <c r="N32" s="63"/>
+      <c r="O32" s="63"/>
+      <c r="P32" s="63"/>
+      <c r="Q32" s="63"/>
+      <c r="R32" s="63"/>
+      <c r="S32" s="65"/>
+      <c r="T32" s="65"/>
+      <c r="U32" s="65"/>
+      <c r="V32" s="65"/>
+      <c r="W32" s="65"/>
+      <c r="X32" s="65"/>
+      <c r="Y32" s="62"/>
+      <c r="Z32" s="62"/>
+      <c r="AA32" s="62"/>
       <c r="AB32" s="4"/>
       <c r="AC32" s="4"/>
       <c r="AD32" s="4"/>
@@ -4759,33 +4834,33 @@
       <c r="BE32" s="19"/>
     </row>
     <row r="33" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="33"/>
-      <c r="B33" s="33"/>
-      <c r="C33" s="37"/>
-      <c r="D33" s="37"/>
-      <c r="E33" s="37"/>
-      <c r="F33" s="37"/>
-      <c r="G33" s="37"/>
-      <c r="H33" s="37"/>
-      <c r="I33" s="37"/>
-      <c r="J33" s="37"/>
-      <c r="K33" s="37"/>
-      <c r="L33" s="37"/>
-      <c r="M33" s="37"/>
-      <c r="N33" s="37"/>
-      <c r="O33" s="37"/>
-      <c r="P33" s="37"/>
-      <c r="Q33" s="37"/>
-      <c r="R33" s="37"/>
-      <c r="S33" s="34"/>
-      <c r="T33" s="34"/>
-      <c r="U33" s="34"/>
-      <c r="V33" s="34"/>
-      <c r="W33" s="34"/>
-      <c r="X33" s="34"/>
-      <c r="Y33" s="33"/>
-      <c r="Z33" s="33"/>
-      <c r="AA33" s="33"/>
+      <c r="A33" s="62"/>
+      <c r="B33" s="62"/>
+      <c r="C33" s="63"/>
+      <c r="D33" s="63"/>
+      <c r="E33" s="63"/>
+      <c r="F33" s="63"/>
+      <c r="G33" s="63"/>
+      <c r="H33" s="63"/>
+      <c r="I33" s="63"/>
+      <c r="J33" s="63"/>
+      <c r="K33" s="63"/>
+      <c r="L33" s="63"/>
+      <c r="M33" s="63"/>
+      <c r="N33" s="63"/>
+      <c r="O33" s="63"/>
+      <c r="P33" s="63"/>
+      <c r="Q33" s="63"/>
+      <c r="R33" s="63"/>
+      <c r="S33" s="65"/>
+      <c r="T33" s="65"/>
+      <c r="U33" s="65"/>
+      <c r="V33" s="65"/>
+      <c r="W33" s="65"/>
+      <c r="X33" s="65"/>
+      <c r="Y33" s="62"/>
+      <c r="Z33" s="62"/>
+      <c r="AA33" s="62"/>
       <c r="AB33" s="4"/>
       <c r="AC33" s="4"/>
       <c r="AD33" s="4"/>
@@ -4818,33 +4893,33 @@
       <c r="BE33" s="4"/>
     </row>
     <row r="34" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="43"/>
-      <c r="B34" s="43"/>
-      <c r="C34" s="32"/>
-      <c r="D34" s="32"/>
-      <c r="E34" s="32"/>
-      <c r="F34" s="32"/>
-      <c r="G34" s="32"/>
-      <c r="H34" s="32"/>
-      <c r="I34" s="32"/>
-      <c r="J34" s="32"/>
-      <c r="K34" s="32"/>
-      <c r="L34" s="32"/>
-      <c r="M34" s="32"/>
-      <c r="N34" s="32"/>
-      <c r="O34" s="32"/>
-      <c r="P34" s="32"/>
-      <c r="Q34" s="32"/>
-      <c r="R34" s="32"/>
-      <c r="S34" s="44"/>
-      <c r="T34" s="44"/>
-      <c r="U34" s="44"/>
-      <c r="V34" s="44"/>
-      <c r="W34" s="44"/>
-      <c r="X34" s="44"/>
-      <c r="Y34" s="43"/>
-      <c r="Z34" s="43"/>
-      <c r="AA34" s="43"/>
+      <c r="A34" s="99"/>
+      <c r="B34" s="99"/>
+      <c r="C34" s="100"/>
+      <c r="D34" s="100"/>
+      <c r="E34" s="100"/>
+      <c r="F34" s="100"/>
+      <c r="G34" s="100"/>
+      <c r="H34" s="100"/>
+      <c r="I34" s="100"/>
+      <c r="J34" s="100"/>
+      <c r="K34" s="100"/>
+      <c r="L34" s="100"/>
+      <c r="M34" s="100"/>
+      <c r="N34" s="100"/>
+      <c r="O34" s="100"/>
+      <c r="P34" s="100"/>
+      <c r="Q34" s="100"/>
+      <c r="R34" s="100"/>
+      <c r="S34" s="101"/>
+      <c r="T34" s="101"/>
+      <c r="U34" s="101"/>
+      <c r="V34" s="101"/>
+      <c r="W34" s="101"/>
+      <c r="X34" s="101"/>
+      <c r="Y34" s="99"/>
+      <c r="Z34" s="99"/>
+      <c r="AA34" s="99"/>
       <c r="AB34" s="27"/>
       <c r="AC34" s="27"/>
       <c r="AD34" s="27"/>
@@ -4877,33 +4952,33 @@
       <c r="BE34" s="27"/>
     </row>
     <row r="35" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="29"/>
-      <c r="B35" s="31"/>
-      <c r="C35" s="32"/>
-      <c r="D35" s="32"/>
-      <c r="E35" s="32"/>
-      <c r="F35" s="32"/>
-      <c r="G35" s="32"/>
-      <c r="H35" s="29"/>
-      <c r="I35" s="30"/>
-      <c r="J35" s="30"/>
-      <c r="K35" s="30"/>
-      <c r="L35" s="30"/>
-      <c r="M35" s="30"/>
-      <c r="N35" s="30"/>
-      <c r="O35" s="31"/>
-      <c r="P35" s="29"/>
-      <c r="Q35" s="30"/>
-      <c r="R35" s="31"/>
-      <c r="S35" s="29"/>
-      <c r="T35" s="30"/>
-      <c r="U35" s="31"/>
-      <c r="V35" s="29"/>
-      <c r="W35" s="30"/>
-      <c r="X35" s="31"/>
-      <c r="Y35" s="29"/>
-      <c r="Z35" s="30"/>
-      <c r="AA35" s="31"/>
+      <c r="A35" s="40"/>
+      <c r="B35" s="41"/>
+      <c r="C35" s="100"/>
+      <c r="D35" s="100"/>
+      <c r="E35" s="100"/>
+      <c r="F35" s="100"/>
+      <c r="G35" s="100"/>
+      <c r="H35" s="40"/>
+      <c r="I35" s="42"/>
+      <c r="J35" s="42"/>
+      <c r="K35" s="42"/>
+      <c r="L35" s="42"/>
+      <c r="M35" s="42"/>
+      <c r="N35" s="42"/>
+      <c r="O35" s="41"/>
+      <c r="P35" s="40"/>
+      <c r="Q35" s="42"/>
+      <c r="R35" s="41"/>
+      <c r="S35" s="40"/>
+      <c r="T35" s="42"/>
+      <c r="U35" s="41"/>
+      <c r="V35" s="40"/>
+      <c r="W35" s="42"/>
+      <c r="X35" s="41"/>
+      <c r="Y35" s="40"/>
+      <c r="Z35" s="42"/>
+      <c r="AA35" s="41"/>
       <c r="AB35" s="28"/>
       <c r="AC35" s="28"/>
       <c r="AD35" s="28"/>
@@ -4936,33 +5011,33 @@
       <c r="BE35" s="28"/>
     </row>
     <row r="36" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="29"/>
-      <c r="B36" s="31"/>
-      <c r="C36" s="43"/>
-      <c r="D36" s="43"/>
-      <c r="E36" s="43"/>
-      <c r="F36" s="43"/>
-      <c r="G36" s="43"/>
-      <c r="H36" s="29"/>
-      <c r="I36" s="30"/>
-      <c r="J36" s="30"/>
-      <c r="K36" s="30"/>
-      <c r="L36" s="30"/>
-      <c r="M36" s="30"/>
-      <c r="N36" s="30"/>
-      <c r="O36" s="31"/>
-      <c r="P36" s="29"/>
-      <c r="Q36" s="30"/>
-      <c r="R36" s="31"/>
-      <c r="S36" s="29"/>
-      <c r="T36" s="30"/>
-      <c r="U36" s="31"/>
-      <c r="V36" s="29"/>
-      <c r="W36" s="30"/>
-      <c r="X36" s="31"/>
-      <c r="Y36" s="29"/>
-      <c r="Z36" s="30"/>
-      <c r="AA36" s="31"/>
+      <c r="A36" s="40"/>
+      <c r="B36" s="41"/>
+      <c r="C36" s="99"/>
+      <c r="D36" s="99"/>
+      <c r="E36" s="99"/>
+      <c r="F36" s="99"/>
+      <c r="G36" s="99"/>
+      <c r="H36" s="40"/>
+      <c r="I36" s="42"/>
+      <c r="J36" s="42"/>
+      <c r="K36" s="42"/>
+      <c r="L36" s="42"/>
+      <c r="M36" s="42"/>
+      <c r="N36" s="42"/>
+      <c r="O36" s="41"/>
+      <c r="P36" s="40"/>
+      <c r="Q36" s="42"/>
+      <c r="R36" s="41"/>
+      <c r="S36" s="40"/>
+      <c r="T36" s="42"/>
+      <c r="U36" s="41"/>
+      <c r="V36" s="40"/>
+      <c r="W36" s="42"/>
+      <c r="X36" s="41"/>
+      <c r="Y36" s="40"/>
+      <c r="Z36" s="42"/>
+      <c r="AA36" s="41"/>
       <c r="AB36" s="28"/>
       <c r="AC36" s="28"/>
       <c r="AD36" s="28"/>
@@ -4995,33 +5070,33 @@
       <c r="BE36" s="28"/>
     </row>
     <row r="37" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="29"/>
-      <c r="B37" s="31"/>
-      <c r="C37" s="43"/>
-      <c r="D37" s="43"/>
-      <c r="E37" s="43"/>
-      <c r="F37" s="43"/>
-      <c r="G37" s="43"/>
-      <c r="H37" s="29"/>
-      <c r="I37" s="30"/>
-      <c r="J37" s="30"/>
-      <c r="K37" s="30"/>
-      <c r="L37" s="30"/>
-      <c r="M37" s="30"/>
-      <c r="N37" s="30"/>
-      <c r="O37" s="31"/>
-      <c r="P37" s="29"/>
-      <c r="Q37" s="30"/>
-      <c r="R37" s="31"/>
-      <c r="S37" s="29"/>
-      <c r="T37" s="30"/>
-      <c r="U37" s="31"/>
-      <c r="V37" s="29"/>
-      <c r="W37" s="30"/>
-      <c r="X37" s="31"/>
-      <c r="Y37" s="29"/>
-      <c r="Z37" s="30"/>
-      <c r="AA37" s="31"/>
+      <c r="A37" s="40"/>
+      <c r="B37" s="41"/>
+      <c r="C37" s="99"/>
+      <c r="D37" s="99"/>
+      <c r="E37" s="99"/>
+      <c r="F37" s="99"/>
+      <c r="G37" s="99"/>
+      <c r="H37" s="40"/>
+      <c r="I37" s="42"/>
+      <c r="J37" s="42"/>
+      <c r="K37" s="42"/>
+      <c r="L37" s="42"/>
+      <c r="M37" s="42"/>
+      <c r="N37" s="42"/>
+      <c r="O37" s="41"/>
+      <c r="P37" s="40"/>
+      <c r="Q37" s="42"/>
+      <c r="R37" s="41"/>
+      <c r="S37" s="40"/>
+      <c r="T37" s="42"/>
+      <c r="U37" s="41"/>
+      <c r="V37" s="40"/>
+      <c r="W37" s="42"/>
+      <c r="X37" s="41"/>
+      <c r="Y37" s="40"/>
+      <c r="Z37" s="42"/>
+      <c r="AA37" s="41"/>
       <c r="AB37" s="28"/>
       <c r="AC37" s="28"/>
       <c r="AD37" s="28"/>
@@ -5054,33 +5129,33 @@
       <c r="BE37" s="28"/>
     </row>
     <row r="38" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="29"/>
-      <c r="B38" s="31"/>
-      <c r="C38" s="43"/>
-      <c r="D38" s="43"/>
-      <c r="E38" s="43"/>
-      <c r="F38" s="43"/>
-      <c r="G38" s="43"/>
-      <c r="H38" s="29"/>
-      <c r="I38" s="30"/>
-      <c r="J38" s="30"/>
-      <c r="K38" s="30"/>
-      <c r="L38" s="30"/>
-      <c r="M38" s="30"/>
-      <c r="N38" s="30"/>
-      <c r="O38" s="31"/>
-      <c r="P38" s="29"/>
-      <c r="Q38" s="30"/>
-      <c r="R38" s="31"/>
-      <c r="S38" s="29"/>
-      <c r="T38" s="30"/>
-      <c r="U38" s="31"/>
-      <c r="V38" s="29"/>
-      <c r="W38" s="30"/>
-      <c r="X38" s="31"/>
-      <c r="Y38" s="29"/>
-      <c r="Z38" s="30"/>
-      <c r="AA38" s="31"/>
+      <c r="A38" s="40"/>
+      <c r="B38" s="41"/>
+      <c r="C38" s="99"/>
+      <c r="D38" s="99"/>
+      <c r="E38" s="99"/>
+      <c r="F38" s="99"/>
+      <c r="G38" s="99"/>
+      <c r="H38" s="40"/>
+      <c r="I38" s="42"/>
+      <c r="J38" s="42"/>
+      <c r="K38" s="42"/>
+      <c r="L38" s="42"/>
+      <c r="M38" s="42"/>
+      <c r="N38" s="42"/>
+      <c r="O38" s="41"/>
+      <c r="P38" s="40"/>
+      <c r="Q38" s="42"/>
+      <c r="R38" s="41"/>
+      <c r="S38" s="40"/>
+      <c r="T38" s="42"/>
+      <c r="U38" s="41"/>
+      <c r="V38" s="40"/>
+      <c r="W38" s="42"/>
+      <c r="X38" s="41"/>
+      <c r="Y38" s="40"/>
+      <c r="Z38" s="42"/>
+      <c r="AA38" s="41"/>
       <c r="AB38" s="28"/>
       <c r="AC38" s="28"/>
       <c r="AD38" s="28"/>
@@ -5113,33 +5188,33 @@
       <c r="BE38" s="28"/>
     </row>
     <row r="39" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="29"/>
-      <c r="B39" s="31"/>
-      <c r="C39" s="43"/>
-      <c r="D39" s="43"/>
-      <c r="E39" s="43"/>
-      <c r="F39" s="43"/>
-      <c r="G39" s="43"/>
-      <c r="H39" s="29"/>
-      <c r="I39" s="30"/>
-      <c r="J39" s="30"/>
-      <c r="K39" s="30"/>
-      <c r="L39" s="30"/>
-      <c r="M39" s="30"/>
-      <c r="N39" s="30"/>
-      <c r="O39" s="31"/>
-      <c r="P39" s="29"/>
-      <c r="Q39" s="30"/>
-      <c r="R39" s="31"/>
-      <c r="S39" s="29"/>
-      <c r="T39" s="30"/>
-      <c r="U39" s="31"/>
-      <c r="V39" s="29"/>
-      <c r="W39" s="30"/>
-      <c r="X39" s="31"/>
-      <c r="Y39" s="29"/>
-      <c r="Z39" s="30"/>
-      <c r="AA39" s="31"/>
+      <c r="A39" s="40"/>
+      <c r="B39" s="41"/>
+      <c r="C39" s="99"/>
+      <c r="D39" s="99"/>
+      <c r="E39" s="99"/>
+      <c r="F39" s="99"/>
+      <c r="G39" s="99"/>
+      <c r="H39" s="40"/>
+      <c r="I39" s="42"/>
+      <c r="J39" s="42"/>
+      <c r="K39" s="42"/>
+      <c r="L39" s="42"/>
+      <c r="M39" s="42"/>
+      <c r="N39" s="42"/>
+      <c r="O39" s="41"/>
+      <c r="P39" s="40"/>
+      <c r="Q39" s="42"/>
+      <c r="R39" s="41"/>
+      <c r="S39" s="40"/>
+      <c r="T39" s="42"/>
+      <c r="U39" s="41"/>
+      <c r="V39" s="40"/>
+      <c r="W39" s="42"/>
+      <c r="X39" s="41"/>
+      <c r="Y39" s="40"/>
+      <c r="Z39" s="42"/>
+      <c r="AA39" s="41"/>
       <c r="AB39" s="28"/>
       <c r="AC39" s="28"/>
       <c r="AD39" s="28"/>
@@ -5172,33 +5247,33 @@
       <c r="BE39" s="28"/>
     </row>
     <row r="40" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="29"/>
-      <c r="B40" s="31"/>
-      <c r="C40" s="43"/>
-      <c r="D40" s="43"/>
-      <c r="E40" s="43"/>
-      <c r="F40" s="43"/>
-      <c r="G40" s="43"/>
-      <c r="H40" s="29"/>
-      <c r="I40" s="30"/>
-      <c r="J40" s="30"/>
-      <c r="K40" s="30"/>
-      <c r="L40" s="30"/>
-      <c r="M40" s="30"/>
-      <c r="N40" s="30"/>
-      <c r="O40" s="31"/>
-      <c r="P40" s="29"/>
-      <c r="Q40" s="30"/>
-      <c r="R40" s="31"/>
-      <c r="S40" s="29"/>
-      <c r="T40" s="30"/>
-      <c r="U40" s="31"/>
-      <c r="V40" s="29"/>
-      <c r="W40" s="30"/>
-      <c r="X40" s="31"/>
-      <c r="Y40" s="29"/>
-      <c r="Z40" s="30"/>
-      <c r="AA40" s="31"/>
+      <c r="A40" s="40"/>
+      <c r="B40" s="41"/>
+      <c r="C40" s="99"/>
+      <c r="D40" s="99"/>
+      <c r="E40" s="99"/>
+      <c r="F40" s="99"/>
+      <c r="G40" s="99"/>
+      <c r="H40" s="40"/>
+      <c r="I40" s="42"/>
+      <c r="J40" s="42"/>
+      <c r="K40" s="42"/>
+      <c r="L40" s="42"/>
+      <c r="M40" s="42"/>
+      <c r="N40" s="42"/>
+      <c r="O40" s="41"/>
+      <c r="P40" s="40"/>
+      <c r="Q40" s="42"/>
+      <c r="R40" s="41"/>
+      <c r="S40" s="40"/>
+      <c r="T40" s="42"/>
+      <c r="U40" s="41"/>
+      <c r="V40" s="40"/>
+      <c r="W40" s="42"/>
+      <c r="X40" s="41"/>
+      <c r="Y40" s="40"/>
+      <c r="Z40" s="42"/>
+      <c r="AA40" s="41"/>
       <c r="AB40" s="28"/>
       <c r="AC40" s="28"/>
       <c r="AD40" s="28"/>
@@ -5231,33 +5306,33 @@
       <c r="BE40" s="28"/>
     </row>
     <row r="41" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="29"/>
-      <c r="B41" s="31"/>
-      <c r="C41" s="43"/>
-      <c r="D41" s="43"/>
-      <c r="E41" s="43"/>
-      <c r="F41" s="43"/>
-      <c r="G41" s="43"/>
-      <c r="H41" s="29"/>
-      <c r="I41" s="30"/>
-      <c r="J41" s="30"/>
-      <c r="K41" s="30"/>
-      <c r="L41" s="30"/>
-      <c r="M41" s="30"/>
-      <c r="N41" s="30"/>
-      <c r="O41" s="31"/>
-      <c r="P41" s="29"/>
-      <c r="Q41" s="30"/>
-      <c r="R41" s="31"/>
-      <c r="S41" s="29"/>
-      <c r="T41" s="30"/>
-      <c r="U41" s="31"/>
-      <c r="V41" s="29"/>
-      <c r="W41" s="30"/>
-      <c r="X41" s="31"/>
-      <c r="Y41" s="29"/>
-      <c r="Z41" s="30"/>
-      <c r="AA41" s="31"/>
+      <c r="A41" s="40"/>
+      <c r="B41" s="41"/>
+      <c r="C41" s="99"/>
+      <c r="D41" s="99"/>
+      <c r="E41" s="99"/>
+      <c r="F41" s="99"/>
+      <c r="G41" s="99"/>
+      <c r="H41" s="40"/>
+      <c r="I41" s="42"/>
+      <c r="J41" s="42"/>
+      <c r="K41" s="42"/>
+      <c r="L41" s="42"/>
+      <c r="M41" s="42"/>
+      <c r="N41" s="42"/>
+      <c r="O41" s="41"/>
+      <c r="P41" s="40"/>
+      <c r="Q41" s="42"/>
+      <c r="R41" s="41"/>
+      <c r="S41" s="40"/>
+      <c r="T41" s="42"/>
+      <c r="U41" s="41"/>
+      <c r="V41" s="40"/>
+      <c r="W41" s="42"/>
+      <c r="X41" s="41"/>
+      <c r="Y41" s="40"/>
+      <c r="Z41" s="42"/>
+      <c r="AA41" s="41"/>
       <c r="AB41" s="28"/>
       <c r="AC41" s="28"/>
       <c r="AD41" s="28"/>
@@ -5290,33 +5365,33 @@
       <c r="BE41" s="28"/>
     </row>
     <row r="42" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="29"/>
-      <c r="B42" s="31"/>
-      <c r="C42" s="43"/>
-      <c r="D42" s="43"/>
-      <c r="E42" s="43"/>
-      <c r="F42" s="43"/>
-      <c r="G42" s="43"/>
-      <c r="H42" s="29"/>
-      <c r="I42" s="30"/>
-      <c r="J42" s="30"/>
-      <c r="K42" s="30"/>
-      <c r="L42" s="30"/>
-      <c r="M42" s="30"/>
-      <c r="N42" s="30"/>
-      <c r="O42" s="31"/>
-      <c r="P42" s="29"/>
-      <c r="Q42" s="30"/>
-      <c r="R42" s="31"/>
-      <c r="S42" s="29"/>
-      <c r="T42" s="30"/>
-      <c r="U42" s="31"/>
-      <c r="V42" s="29"/>
-      <c r="W42" s="30"/>
-      <c r="X42" s="31"/>
-      <c r="Y42" s="29"/>
-      <c r="Z42" s="30"/>
-      <c r="AA42" s="31"/>
+      <c r="A42" s="40"/>
+      <c r="B42" s="41"/>
+      <c r="C42" s="99"/>
+      <c r="D42" s="99"/>
+      <c r="E42" s="99"/>
+      <c r="F42" s="99"/>
+      <c r="G42" s="99"/>
+      <c r="H42" s="40"/>
+      <c r="I42" s="42"/>
+      <c r="J42" s="42"/>
+      <c r="K42" s="42"/>
+      <c r="L42" s="42"/>
+      <c r="M42" s="42"/>
+      <c r="N42" s="42"/>
+      <c r="O42" s="41"/>
+      <c r="P42" s="40"/>
+      <c r="Q42" s="42"/>
+      <c r="R42" s="41"/>
+      <c r="S42" s="40"/>
+      <c r="T42" s="42"/>
+      <c r="U42" s="41"/>
+      <c r="V42" s="40"/>
+      <c r="W42" s="42"/>
+      <c r="X42" s="41"/>
+      <c r="Y42" s="40"/>
+      <c r="Z42" s="42"/>
+      <c r="AA42" s="41"/>
       <c r="AB42" s="28"/>
       <c r="AC42" s="28"/>
       <c r="AD42" s="28"/>
@@ -5349,33 +5424,33 @@
       <c r="BE42" s="28"/>
     </row>
     <row r="43" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="29"/>
-      <c r="B43" s="31"/>
-      <c r="C43" s="43"/>
-      <c r="D43" s="43"/>
-      <c r="E43" s="43"/>
-      <c r="F43" s="43"/>
-      <c r="G43" s="43"/>
-      <c r="H43" s="29"/>
-      <c r="I43" s="30"/>
-      <c r="J43" s="30"/>
-      <c r="K43" s="30"/>
-      <c r="L43" s="30"/>
-      <c r="M43" s="30"/>
-      <c r="N43" s="30"/>
-      <c r="O43" s="31"/>
-      <c r="P43" s="29"/>
-      <c r="Q43" s="30"/>
-      <c r="R43" s="31"/>
-      <c r="S43" s="29"/>
-      <c r="T43" s="30"/>
-      <c r="U43" s="31"/>
-      <c r="V43" s="29"/>
-      <c r="W43" s="30"/>
-      <c r="X43" s="31"/>
-      <c r="Y43" s="29"/>
-      <c r="Z43" s="30"/>
-      <c r="AA43" s="31"/>
+      <c r="A43" s="40"/>
+      <c r="B43" s="41"/>
+      <c r="C43" s="99"/>
+      <c r="D43" s="99"/>
+      <c r="E43" s="99"/>
+      <c r="F43" s="99"/>
+      <c r="G43" s="99"/>
+      <c r="H43" s="40"/>
+      <c r="I43" s="42"/>
+      <c r="J43" s="42"/>
+      <c r="K43" s="42"/>
+      <c r="L43" s="42"/>
+      <c r="M43" s="42"/>
+      <c r="N43" s="42"/>
+      <c r="O43" s="41"/>
+      <c r="P43" s="40"/>
+      <c r="Q43" s="42"/>
+      <c r="R43" s="41"/>
+      <c r="S43" s="40"/>
+      <c r="T43" s="42"/>
+      <c r="U43" s="41"/>
+      <c r="V43" s="40"/>
+      <c r="W43" s="42"/>
+      <c r="X43" s="41"/>
+      <c r="Y43" s="40"/>
+      <c r="Z43" s="42"/>
+      <c r="AA43" s="41"/>
       <c r="AB43" s="28"/>
       <c r="AC43" s="28"/>
       <c r="AD43" s="28"/>
@@ -5408,33 +5483,33 @@
       <c r="BE43" s="28"/>
     </row>
     <row r="44" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="29"/>
-      <c r="B44" s="31"/>
-      <c r="C44" s="43"/>
-      <c r="D44" s="43"/>
-      <c r="E44" s="43"/>
-      <c r="F44" s="43"/>
-      <c r="G44" s="43"/>
-      <c r="H44" s="29"/>
-      <c r="I44" s="30"/>
-      <c r="J44" s="30"/>
-      <c r="K44" s="30"/>
-      <c r="L44" s="30"/>
-      <c r="M44" s="30"/>
-      <c r="N44" s="30"/>
-      <c r="O44" s="31"/>
-      <c r="P44" s="29"/>
-      <c r="Q44" s="30"/>
-      <c r="R44" s="31"/>
-      <c r="S44" s="29"/>
-      <c r="T44" s="30"/>
-      <c r="U44" s="31"/>
-      <c r="V44" s="29"/>
-      <c r="W44" s="30"/>
-      <c r="X44" s="31"/>
-      <c r="Y44" s="29"/>
-      <c r="Z44" s="30"/>
-      <c r="AA44" s="31"/>
+      <c r="A44" s="40"/>
+      <c r="B44" s="41"/>
+      <c r="C44" s="99"/>
+      <c r="D44" s="99"/>
+      <c r="E44" s="99"/>
+      <c r="F44" s="99"/>
+      <c r="G44" s="99"/>
+      <c r="H44" s="40"/>
+      <c r="I44" s="42"/>
+      <c r="J44" s="42"/>
+      <c r="K44" s="42"/>
+      <c r="L44" s="42"/>
+      <c r="M44" s="42"/>
+      <c r="N44" s="42"/>
+      <c r="O44" s="41"/>
+      <c r="P44" s="40"/>
+      <c r="Q44" s="42"/>
+      <c r="R44" s="41"/>
+      <c r="S44" s="40"/>
+      <c r="T44" s="42"/>
+      <c r="U44" s="41"/>
+      <c r="V44" s="40"/>
+      <c r="W44" s="42"/>
+      <c r="X44" s="41"/>
+      <c r="Y44" s="40"/>
+      <c r="Z44" s="42"/>
+      <c r="AA44" s="41"/>
       <c r="AB44" s="28"/>
       <c r="AC44" s="28"/>
       <c r="AD44" s="28"/>
@@ -5467,33 +5542,33 @@
       <c r="BE44" s="28"/>
     </row>
     <row r="45" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="29"/>
-      <c r="B45" s="31"/>
-      <c r="C45" s="43"/>
-      <c r="D45" s="43"/>
-      <c r="E45" s="43"/>
-      <c r="F45" s="43"/>
-      <c r="G45" s="43"/>
-      <c r="H45" s="29"/>
-      <c r="I45" s="30"/>
-      <c r="J45" s="30"/>
-      <c r="K45" s="30"/>
-      <c r="L45" s="30"/>
-      <c r="M45" s="30"/>
-      <c r="N45" s="30"/>
-      <c r="O45" s="31"/>
-      <c r="P45" s="29"/>
-      <c r="Q45" s="30"/>
-      <c r="R45" s="31"/>
-      <c r="S45" s="29"/>
-      <c r="T45" s="30"/>
-      <c r="U45" s="31"/>
-      <c r="V45" s="29"/>
-      <c r="W45" s="30"/>
-      <c r="X45" s="31"/>
-      <c r="Y45" s="29"/>
-      <c r="Z45" s="30"/>
-      <c r="AA45" s="31"/>
+      <c r="A45" s="40"/>
+      <c r="B45" s="41"/>
+      <c r="C45" s="99"/>
+      <c r="D45" s="99"/>
+      <c r="E45" s="99"/>
+      <c r="F45" s="99"/>
+      <c r="G45" s="99"/>
+      <c r="H45" s="40"/>
+      <c r="I45" s="42"/>
+      <c r="J45" s="42"/>
+      <c r="K45" s="42"/>
+      <c r="L45" s="42"/>
+      <c r="M45" s="42"/>
+      <c r="N45" s="42"/>
+      <c r="O45" s="41"/>
+      <c r="P45" s="40"/>
+      <c r="Q45" s="42"/>
+      <c r="R45" s="41"/>
+      <c r="S45" s="40"/>
+      <c r="T45" s="42"/>
+      <c r="U45" s="41"/>
+      <c r="V45" s="40"/>
+      <c r="W45" s="42"/>
+      <c r="X45" s="41"/>
+      <c r="Y45" s="40"/>
+      <c r="Z45" s="42"/>
+      <c r="AA45" s="41"/>
       <c r="AB45" s="28"/>
       <c r="AC45" s="28"/>
       <c r="AD45" s="28"/>
@@ -5526,33 +5601,33 @@
       <c r="BE45" s="28"/>
     </row>
     <row r="46" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="29"/>
-      <c r="B46" s="31"/>
-      <c r="C46" s="43"/>
-      <c r="D46" s="43"/>
-      <c r="E46" s="43"/>
-      <c r="F46" s="43"/>
-      <c r="G46" s="43"/>
-      <c r="H46" s="29"/>
-      <c r="I46" s="30"/>
-      <c r="J46" s="30"/>
-      <c r="K46" s="30"/>
-      <c r="L46" s="30"/>
-      <c r="M46" s="30"/>
-      <c r="N46" s="30"/>
-      <c r="O46" s="31"/>
-      <c r="P46" s="29"/>
-      <c r="Q46" s="30"/>
-      <c r="R46" s="31"/>
-      <c r="S46" s="29"/>
-      <c r="T46" s="30"/>
-      <c r="U46" s="31"/>
-      <c r="V46" s="29"/>
-      <c r="W46" s="30"/>
-      <c r="X46" s="31"/>
-      <c r="Y46" s="29"/>
-      <c r="Z46" s="30"/>
-      <c r="AA46" s="31"/>
+      <c r="A46" s="40"/>
+      <c r="B46" s="41"/>
+      <c r="C46" s="99"/>
+      <c r="D46" s="99"/>
+      <c r="E46" s="99"/>
+      <c r="F46" s="99"/>
+      <c r="G46" s="99"/>
+      <c r="H46" s="40"/>
+      <c r="I46" s="42"/>
+      <c r="J46" s="42"/>
+      <c r="K46" s="42"/>
+      <c r="L46" s="42"/>
+      <c r="M46" s="42"/>
+      <c r="N46" s="42"/>
+      <c r="O46" s="41"/>
+      <c r="P46" s="40"/>
+      <c r="Q46" s="42"/>
+      <c r="R46" s="41"/>
+      <c r="S46" s="40"/>
+      <c r="T46" s="42"/>
+      <c r="U46" s="41"/>
+      <c r="V46" s="40"/>
+      <c r="W46" s="42"/>
+      <c r="X46" s="41"/>
+      <c r="Y46" s="40"/>
+      <c r="Z46" s="42"/>
+      <c r="AA46" s="41"/>
       <c r="AB46" s="28"/>
       <c r="AC46" s="28"/>
       <c r="AD46" s="28"/>
@@ -5585,33 +5660,33 @@
       <c r="BE46" s="28"/>
     </row>
     <row r="47" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="29"/>
-      <c r="B47" s="31"/>
-      <c r="C47" s="43"/>
-      <c r="D47" s="43"/>
-      <c r="E47" s="43"/>
-      <c r="F47" s="43"/>
-      <c r="G47" s="43"/>
-      <c r="H47" s="29"/>
-      <c r="I47" s="30"/>
-      <c r="J47" s="30"/>
-      <c r="K47" s="30"/>
-      <c r="L47" s="30"/>
-      <c r="M47" s="30"/>
-      <c r="N47" s="30"/>
-      <c r="O47" s="31"/>
-      <c r="P47" s="29"/>
-      <c r="Q47" s="30"/>
-      <c r="R47" s="31"/>
-      <c r="S47" s="29"/>
-      <c r="T47" s="30"/>
-      <c r="U47" s="31"/>
-      <c r="V47" s="29"/>
-      <c r="W47" s="30"/>
-      <c r="X47" s="31"/>
-      <c r="Y47" s="29"/>
-      <c r="Z47" s="30"/>
-      <c r="AA47" s="31"/>
+      <c r="A47" s="40"/>
+      <c r="B47" s="41"/>
+      <c r="C47" s="99"/>
+      <c r="D47" s="99"/>
+      <c r="E47" s="99"/>
+      <c r="F47" s="99"/>
+      <c r="G47" s="99"/>
+      <c r="H47" s="40"/>
+      <c r="I47" s="42"/>
+      <c r="J47" s="42"/>
+      <c r="K47" s="42"/>
+      <c r="L47" s="42"/>
+      <c r="M47" s="42"/>
+      <c r="N47" s="42"/>
+      <c r="O47" s="41"/>
+      <c r="P47" s="40"/>
+      <c r="Q47" s="42"/>
+      <c r="R47" s="41"/>
+      <c r="S47" s="40"/>
+      <c r="T47" s="42"/>
+      <c r="U47" s="41"/>
+      <c r="V47" s="40"/>
+      <c r="W47" s="42"/>
+      <c r="X47" s="41"/>
+      <c r="Y47" s="40"/>
+      <c r="Z47" s="42"/>
+      <c r="AA47" s="41"/>
       <c r="AB47" s="28"/>
       <c r="AC47" s="28"/>
       <c r="AD47" s="28"/>
@@ -5644,33 +5719,33 @@
       <c r="BE47" s="28"/>
     </row>
     <row r="48" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="29"/>
-      <c r="B48" s="31"/>
-      <c r="C48" s="43"/>
-      <c r="D48" s="43"/>
-      <c r="E48" s="43"/>
-      <c r="F48" s="43"/>
-      <c r="G48" s="43"/>
-      <c r="H48" s="29"/>
-      <c r="I48" s="30"/>
-      <c r="J48" s="30"/>
-      <c r="K48" s="30"/>
-      <c r="L48" s="30"/>
-      <c r="M48" s="30"/>
-      <c r="N48" s="30"/>
-      <c r="O48" s="31"/>
-      <c r="P48" s="29"/>
-      <c r="Q48" s="30"/>
-      <c r="R48" s="31"/>
-      <c r="S48" s="29"/>
-      <c r="T48" s="30"/>
-      <c r="U48" s="31"/>
-      <c r="V48" s="29"/>
-      <c r="W48" s="30"/>
-      <c r="X48" s="31"/>
-      <c r="Y48" s="29"/>
-      <c r="Z48" s="30"/>
-      <c r="AA48" s="31"/>
+      <c r="A48" s="40"/>
+      <c r="B48" s="41"/>
+      <c r="C48" s="99"/>
+      <c r="D48" s="99"/>
+      <c r="E48" s="99"/>
+      <c r="F48" s="99"/>
+      <c r="G48" s="99"/>
+      <c r="H48" s="40"/>
+      <c r="I48" s="42"/>
+      <c r="J48" s="42"/>
+      <c r="K48" s="42"/>
+      <c r="L48" s="42"/>
+      <c r="M48" s="42"/>
+      <c r="N48" s="42"/>
+      <c r="O48" s="41"/>
+      <c r="P48" s="40"/>
+      <c r="Q48" s="42"/>
+      <c r="R48" s="41"/>
+      <c r="S48" s="40"/>
+      <c r="T48" s="42"/>
+      <c r="U48" s="41"/>
+      <c r="V48" s="40"/>
+      <c r="W48" s="42"/>
+      <c r="X48" s="41"/>
+      <c r="Y48" s="40"/>
+      <c r="Z48" s="42"/>
+      <c r="AA48" s="41"/>
       <c r="AB48" s="28"/>
       <c r="AC48" s="28"/>
       <c r="AD48" s="28"/>
@@ -5703,33 +5778,33 @@
       <c r="BE48" s="28"/>
     </row>
     <row r="49" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="29"/>
-      <c r="B49" s="31"/>
-      <c r="C49" s="43"/>
-      <c r="D49" s="43"/>
-      <c r="E49" s="43"/>
-      <c r="F49" s="43"/>
-      <c r="G49" s="43"/>
-      <c r="H49" s="29"/>
-      <c r="I49" s="30"/>
-      <c r="J49" s="30"/>
-      <c r="K49" s="30"/>
-      <c r="L49" s="30"/>
-      <c r="M49" s="30"/>
-      <c r="N49" s="30"/>
-      <c r="O49" s="31"/>
-      <c r="P49" s="29"/>
-      <c r="Q49" s="30"/>
-      <c r="R49" s="31"/>
-      <c r="S49" s="29"/>
-      <c r="T49" s="30"/>
-      <c r="U49" s="31"/>
-      <c r="V49" s="29"/>
-      <c r="W49" s="30"/>
-      <c r="X49" s="31"/>
-      <c r="Y49" s="29"/>
-      <c r="Z49" s="30"/>
-      <c r="AA49" s="31"/>
+      <c r="A49" s="40"/>
+      <c r="B49" s="41"/>
+      <c r="C49" s="99"/>
+      <c r="D49" s="99"/>
+      <c r="E49" s="99"/>
+      <c r="F49" s="99"/>
+      <c r="G49" s="99"/>
+      <c r="H49" s="40"/>
+      <c r="I49" s="42"/>
+      <c r="J49" s="42"/>
+      <c r="K49" s="42"/>
+      <c r="L49" s="42"/>
+      <c r="M49" s="42"/>
+      <c r="N49" s="42"/>
+      <c r="O49" s="41"/>
+      <c r="P49" s="40"/>
+      <c r="Q49" s="42"/>
+      <c r="R49" s="41"/>
+      <c r="S49" s="40"/>
+      <c r="T49" s="42"/>
+      <c r="U49" s="41"/>
+      <c r="V49" s="40"/>
+      <c r="W49" s="42"/>
+      <c r="X49" s="41"/>
+      <c r="Y49" s="40"/>
+      <c r="Z49" s="42"/>
+      <c r="AA49" s="41"/>
       <c r="AB49" s="28"/>
       <c r="AC49" s="28"/>
       <c r="AD49" s="28"/>
@@ -5762,33 +5837,33 @@
       <c r="BE49" s="28"/>
     </row>
     <row r="50" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="29"/>
-      <c r="B50" s="31"/>
-      <c r="C50" s="43"/>
-      <c r="D50" s="43"/>
-      <c r="E50" s="43"/>
-      <c r="F50" s="43"/>
-      <c r="G50" s="43"/>
-      <c r="H50" s="29"/>
-      <c r="I50" s="30"/>
-      <c r="J50" s="30"/>
-      <c r="K50" s="30"/>
-      <c r="L50" s="30"/>
-      <c r="M50" s="30"/>
-      <c r="N50" s="30"/>
-      <c r="O50" s="31"/>
-      <c r="P50" s="29"/>
-      <c r="Q50" s="30"/>
-      <c r="R50" s="31"/>
-      <c r="S50" s="29"/>
-      <c r="T50" s="30"/>
-      <c r="U50" s="31"/>
-      <c r="V50" s="29"/>
-      <c r="W50" s="30"/>
-      <c r="X50" s="31"/>
-      <c r="Y50" s="29"/>
-      <c r="Z50" s="30"/>
-      <c r="AA50" s="31"/>
+      <c r="A50" s="40"/>
+      <c r="B50" s="41"/>
+      <c r="C50" s="99"/>
+      <c r="D50" s="99"/>
+      <c r="E50" s="99"/>
+      <c r="F50" s="99"/>
+      <c r="G50" s="99"/>
+      <c r="H50" s="40"/>
+      <c r="I50" s="42"/>
+      <c r="J50" s="42"/>
+      <c r="K50" s="42"/>
+      <c r="L50" s="42"/>
+      <c r="M50" s="42"/>
+      <c r="N50" s="42"/>
+      <c r="O50" s="41"/>
+      <c r="P50" s="40"/>
+      <c r="Q50" s="42"/>
+      <c r="R50" s="41"/>
+      <c r="S50" s="40"/>
+      <c r="T50" s="42"/>
+      <c r="U50" s="41"/>
+      <c r="V50" s="40"/>
+      <c r="W50" s="42"/>
+      <c r="X50" s="41"/>
+      <c r="Y50" s="40"/>
+      <c r="Z50" s="42"/>
+      <c r="AA50" s="41"/>
       <c r="AB50" s="28"/>
       <c r="AC50" s="28"/>
       <c r="AD50" s="28"/>
@@ -5821,33 +5896,33 @@
       <c r="BE50" s="28"/>
     </row>
     <row r="51" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="29"/>
-      <c r="B51" s="31"/>
-      <c r="C51" s="43"/>
-      <c r="D51" s="43"/>
-      <c r="E51" s="43"/>
-      <c r="F51" s="43"/>
-      <c r="G51" s="43"/>
-      <c r="H51" s="29"/>
-      <c r="I51" s="30"/>
-      <c r="J51" s="30"/>
-      <c r="K51" s="30"/>
-      <c r="L51" s="30"/>
-      <c r="M51" s="30"/>
-      <c r="N51" s="30"/>
-      <c r="O51" s="31"/>
-      <c r="P51" s="29"/>
-      <c r="Q51" s="30"/>
-      <c r="R51" s="31"/>
-      <c r="S51" s="29"/>
-      <c r="T51" s="30"/>
-      <c r="U51" s="31"/>
-      <c r="V51" s="29"/>
-      <c r="W51" s="30"/>
-      <c r="X51" s="31"/>
-      <c r="Y51" s="29"/>
-      <c r="Z51" s="30"/>
-      <c r="AA51" s="31"/>
+      <c r="A51" s="40"/>
+      <c r="B51" s="41"/>
+      <c r="C51" s="99"/>
+      <c r="D51" s="99"/>
+      <c r="E51" s="99"/>
+      <c r="F51" s="99"/>
+      <c r="G51" s="99"/>
+      <c r="H51" s="40"/>
+      <c r="I51" s="42"/>
+      <c r="J51" s="42"/>
+      <c r="K51" s="42"/>
+      <c r="L51" s="42"/>
+      <c r="M51" s="42"/>
+      <c r="N51" s="42"/>
+      <c r="O51" s="41"/>
+      <c r="P51" s="40"/>
+      <c r="Q51" s="42"/>
+      <c r="R51" s="41"/>
+      <c r="S51" s="40"/>
+      <c r="T51" s="42"/>
+      <c r="U51" s="41"/>
+      <c r="V51" s="40"/>
+      <c r="W51" s="42"/>
+      <c r="X51" s="41"/>
+      <c r="Y51" s="40"/>
+      <c r="Z51" s="42"/>
+      <c r="AA51" s="41"/>
       <c r="AB51" s="28"/>
       <c r="AC51" s="28"/>
       <c r="AD51" s="28"/>
@@ -5880,33 +5955,33 @@
       <c r="BE51" s="28"/>
     </row>
     <row r="52" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="29"/>
-      <c r="B52" s="31"/>
-      <c r="C52" s="43"/>
-      <c r="D52" s="43"/>
-      <c r="E52" s="43"/>
-      <c r="F52" s="43"/>
-      <c r="G52" s="43"/>
-      <c r="H52" s="29"/>
-      <c r="I52" s="30"/>
-      <c r="J52" s="30"/>
-      <c r="K52" s="30"/>
-      <c r="L52" s="30"/>
-      <c r="M52" s="30"/>
-      <c r="N52" s="30"/>
-      <c r="O52" s="31"/>
-      <c r="P52" s="29"/>
-      <c r="Q52" s="30"/>
-      <c r="R52" s="31"/>
-      <c r="S52" s="29"/>
-      <c r="T52" s="30"/>
-      <c r="U52" s="31"/>
-      <c r="V52" s="29"/>
-      <c r="W52" s="30"/>
-      <c r="X52" s="31"/>
-      <c r="Y52" s="29"/>
-      <c r="Z52" s="30"/>
-      <c r="AA52" s="31"/>
+      <c r="A52" s="40"/>
+      <c r="B52" s="41"/>
+      <c r="C52" s="99"/>
+      <c r="D52" s="99"/>
+      <c r="E52" s="99"/>
+      <c r="F52" s="99"/>
+      <c r="G52" s="99"/>
+      <c r="H52" s="40"/>
+      <c r="I52" s="42"/>
+      <c r="J52" s="42"/>
+      <c r="K52" s="42"/>
+      <c r="L52" s="42"/>
+      <c r="M52" s="42"/>
+      <c r="N52" s="42"/>
+      <c r="O52" s="41"/>
+      <c r="P52" s="40"/>
+      <c r="Q52" s="42"/>
+      <c r="R52" s="41"/>
+      <c r="S52" s="40"/>
+      <c r="T52" s="42"/>
+      <c r="U52" s="41"/>
+      <c r="V52" s="40"/>
+      <c r="W52" s="42"/>
+      <c r="X52" s="41"/>
+      <c r="Y52" s="40"/>
+      <c r="Z52" s="42"/>
+      <c r="AA52" s="41"/>
       <c r="AB52" s="28"/>
       <c r="AC52" s="28"/>
       <c r="AD52" s="28"/>
@@ -5939,33 +6014,33 @@
       <c r="BE52" s="28"/>
     </row>
     <row r="53" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="29"/>
-      <c r="B53" s="31"/>
-      <c r="C53" s="43"/>
-      <c r="D53" s="43"/>
-      <c r="E53" s="43"/>
-      <c r="F53" s="43"/>
-      <c r="G53" s="43"/>
-      <c r="H53" s="29"/>
-      <c r="I53" s="30"/>
-      <c r="J53" s="30"/>
-      <c r="K53" s="30"/>
-      <c r="L53" s="30"/>
-      <c r="M53" s="30"/>
-      <c r="N53" s="30"/>
-      <c r="O53" s="31"/>
-      <c r="P53" s="29"/>
-      <c r="Q53" s="30"/>
-      <c r="R53" s="31"/>
-      <c r="S53" s="29"/>
-      <c r="T53" s="30"/>
-      <c r="U53" s="31"/>
-      <c r="V53" s="29"/>
-      <c r="W53" s="30"/>
-      <c r="X53" s="31"/>
-      <c r="Y53" s="29"/>
-      <c r="Z53" s="30"/>
-      <c r="AA53" s="31"/>
+      <c r="A53" s="40"/>
+      <c r="B53" s="41"/>
+      <c r="C53" s="99"/>
+      <c r="D53" s="99"/>
+      <c r="E53" s="99"/>
+      <c r="F53" s="99"/>
+      <c r="G53" s="99"/>
+      <c r="H53" s="40"/>
+      <c r="I53" s="42"/>
+      <c r="J53" s="42"/>
+      <c r="K53" s="42"/>
+      <c r="L53" s="42"/>
+      <c r="M53" s="42"/>
+      <c r="N53" s="42"/>
+      <c r="O53" s="41"/>
+      <c r="P53" s="40"/>
+      <c r="Q53" s="42"/>
+      <c r="R53" s="41"/>
+      <c r="S53" s="40"/>
+      <c r="T53" s="42"/>
+      <c r="U53" s="41"/>
+      <c r="V53" s="40"/>
+      <c r="W53" s="42"/>
+      <c r="X53" s="41"/>
+      <c r="Y53" s="40"/>
+      <c r="Z53" s="42"/>
+      <c r="AA53" s="41"/>
       <c r="AB53" s="28"/>
       <c r="AC53" s="28"/>
       <c r="AD53" s="28"/>
@@ -5998,33 +6073,33 @@
       <c r="BE53" s="28"/>
     </row>
     <row r="54" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="29"/>
-      <c r="B54" s="31"/>
-      <c r="C54" s="43"/>
-      <c r="D54" s="43"/>
-      <c r="E54" s="43"/>
-      <c r="F54" s="43"/>
-      <c r="G54" s="43"/>
-      <c r="H54" s="29"/>
-      <c r="I54" s="30"/>
-      <c r="J54" s="30"/>
-      <c r="K54" s="30"/>
-      <c r="L54" s="30"/>
-      <c r="M54" s="30"/>
-      <c r="N54" s="30"/>
-      <c r="O54" s="31"/>
-      <c r="P54" s="29"/>
-      <c r="Q54" s="30"/>
-      <c r="R54" s="31"/>
-      <c r="S54" s="29"/>
-      <c r="T54" s="30"/>
-      <c r="U54" s="31"/>
-      <c r="V54" s="29"/>
-      <c r="W54" s="30"/>
-      <c r="X54" s="31"/>
-      <c r="Y54" s="29"/>
-      <c r="Z54" s="30"/>
-      <c r="AA54" s="31"/>
+      <c r="A54" s="40"/>
+      <c r="B54" s="41"/>
+      <c r="C54" s="99"/>
+      <c r="D54" s="99"/>
+      <c r="E54" s="99"/>
+      <c r="F54" s="99"/>
+      <c r="G54" s="99"/>
+      <c r="H54" s="40"/>
+      <c r="I54" s="42"/>
+      <c r="J54" s="42"/>
+      <c r="K54" s="42"/>
+      <c r="L54" s="42"/>
+      <c r="M54" s="42"/>
+      <c r="N54" s="42"/>
+      <c r="O54" s="41"/>
+      <c r="P54" s="40"/>
+      <c r="Q54" s="42"/>
+      <c r="R54" s="41"/>
+      <c r="S54" s="40"/>
+      <c r="T54" s="42"/>
+      <c r="U54" s="41"/>
+      <c r="V54" s="40"/>
+      <c r="W54" s="42"/>
+      <c r="X54" s="41"/>
+      <c r="Y54" s="40"/>
+      <c r="Z54" s="42"/>
+      <c r="AA54" s="41"/>
       <c r="AB54" s="28"/>
       <c r="AC54" s="28"/>
       <c r="AD54" s="28"/>
@@ -6057,33 +6132,33 @@
       <c r="BE54" s="28"/>
     </row>
     <row r="55" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="29"/>
-      <c r="B55" s="31"/>
-      <c r="C55" s="43"/>
-      <c r="D55" s="43"/>
-      <c r="E55" s="43"/>
-      <c r="F55" s="43"/>
-      <c r="G55" s="43"/>
-      <c r="H55" s="29"/>
-      <c r="I55" s="30"/>
-      <c r="J55" s="30"/>
-      <c r="K55" s="30"/>
-      <c r="L55" s="30"/>
-      <c r="M55" s="30"/>
-      <c r="N55" s="30"/>
-      <c r="O55" s="31"/>
-      <c r="P55" s="29"/>
-      <c r="Q55" s="30"/>
-      <c r="R55" s="31"/>
-      <c r="S55" s="29"/>
-      <c r="T55" s="30"/>
-      <c r="U55" s="31"/>
-      <c r="V55" s="29"/>
-      <c r="W55" s="30"/>
-      <c r="X55" s="31"/>
-      <c r="Y55" s="29"/>
-      <c r="Z55" s="30"/>
-      <c r="AA55" s="31"/>
+      <c r="A55" s="40"/>
+      <c r="B55" s="41"/>
+      <c r="C55" s="99"/>
+      <c r="D55" s="99"/>
+      <c r="E55" s="99"/>
+      <c r="F55" s="99"/>
+      <c r="G55" s="99"/>
+      <c r="H55" s="40"/>
+      <c r="I55" s="42"/>
+      <c r="J55" s="42"/>
+      <c r="K55" s="42"/>
+      <c r="L55" s="42"/>
+      <c r="M55" s="42"/>
+      <c r="N55" s="42"/>
+      <c r="O55" s="41"/>
+      <c r="P55" s="40"/>
+      <c r="Q55" s="42"/>
+      <c r="R55" s="41"/>
+      <c r="S55" s="40"/>
+      <c r="T55" s="42"/>
+      <c r="U55" s="41"/>
+      <c r="V55" s="40"/>
+      <c r="W55" s="42"/>
+      <c r="X55" s="41"/>
+      <c r="Y55" s="40"/>
+      <c r="Z55" s="42"/>
+      <c r="AA55" s="41"/>
       <c r="AB55" s="28"/>
       <c r="AC55" s="28"/>
       <c r="AD55" s="28"/>
@@ -6116,33 +6191,33 @@
       <c r="BE55" s="28"/>
     </row>
     <row r="56" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="29"/>
-      <c r="B56" s="31"/>
-      <c r="C56" s="43"/>
-      <c r="D56" s="43"/>
-      <c r="E56" s="43"/>
-      <c r="F56" s="43"/>
-      <c r="G56" s="43"/>
-      <c r="H56" s="29"/>
-      <c r="I56" s="30"/>
-      <c r="J56" s="30"/>
-      <c r="K56" s="30"/>
-      <c r="L56" s="30"/>
-      <c r="M56" s="30"/>
-      <c r="N56" s="30"/>
-      <c r="O56" s="31"/>
-      <c r="P56" s="29"/>
-      <c r="Q56" s="30"/>
-      <c r="R56" s="31"/>
-      <c r="S56" s="29"/>
-      <c r="T56" s="30"/>
-      <c r="U56" s="31"/>
-      <c r="V56" s="29"/>
-      <c r="W56" s="30"/>
-      <c r="X56" s="31"/>
-      <c r="Y56" s="29"/>
-      <c r="Z56" s="30"/>
-      <c r="AA56" s="31"/>
+      <c r="A56" s="40"/>
+      <c r="B56" s="41"/>
+      <c r="C56" s="99"/>
+      <c r="D56" s="99"/>
+      <c r="E56" s="99"/>
+      <c r="F56" s="99"/>
+      <c r="G56" s="99"/>
+      <c r="H56" s="40"/>
+      <c r="I56" s="42"/>
+      <c r="J56" s="42"/>
+      <c r="K56" s="42"/>
+      <c r="L56" s="42"/>
+      <c r="M56" s="42"/>
+      <c r="N56" s="42"/>
+      <c r="O56" s="41"/>
+      <c r="P56" s="40"/>
+      <c r="Q56" s="42"/>
+      <c r="R56" s="41"/>
+      <c r="S56" s="40"/>
+      <c r="T56" s="42"/>
+      <c r="U56" s="41"/>
+      <c r="V56" s="40"/>
+      <c r="W56" s="42"/>
+      <c r="X56" s="41"/>
+      <c r="Y56" s="40"/>
+      <c r="Z56" s="42"/>
+      <c r="AA56" s="41"/>
       <c r="AB56" s="28"/>
       <c r="AC56" s="28"/>
       <c r="AD56" s="28"/>
@@ -6175,33 +6250,33 @@
       <c r="BE56" s="28"/>
     </row>
     <row r="57" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="29"/>
-      <c r="B57" s="31"/>
-      <c r="C57" s="43"/>
-      <c r="D57" s="43"/>
-      <c r="E57" s="43"/>
-      <c r="F57" s="43"/>
-      <c r="G57" s="43"/>
-      <c r="H57" s="29"/>
-      <c r="I57" s="30"/>
-      <c r="J57" s="30"/>
-      <c r="K57" s="30"/>
-      <c r="L57" s="30"/>
-      <c r="M57" s="30"/>
-      <c r="N57" s="30"/>
-      <c r="O57" s="31"/>
-      <c r="P57" s="29"/>
-      <c r="Q57" s="30"/>
-      <c r="R57" s="31"/>
-      <c r="S57" s="29"/>
-      <c r="T57" s="30"/>
-      <c r="U57" s="31"/>
-      <c r="V57" s="29"/>
-      <c r="W57" s="30"/>
-      <c r="X57" s="31"/>
-      <c r="Y57" s="29"/>
-      <c r="Z57" s="30"/>
-      <c r="AA57" s="31"/>
+      <c r="A57" s="40"/>
+      <c r="B57" s="41"/>
+      <c r="C57" s="99"/>
+      <c r="D57" s="99"/>
+      <c r="E57" s="99"/>
+      <c r="F57" s="99"/>
+      <c r="G57" s="99"/>
+      <c r="H57" s="40"/>
+      <c r="I57" s="42"/>
+      <c r="J57" s="42"/>
+      <c r="K57" s="42"/>
+      <c r="L57" s="42"/>
+      <c r="M57" s="42"/>
+      <c r="N57" s="42"/>
+      <c r="O57" s="41"/>
+      <c r="P57" s="40"/>
+      <c r="Q57" s="42"/>
+      <c r="R57" s="41"/>
+      <c r="S57" s="40"/>
+      <c r="T57" s="42"/>
+      <c r="U57" s="41"/>
+      <c r="V57" s="40"/>
+      <c r="W57" s="42"/>
+      <c r="X57" s="41"/>
+      <c r="Y57" s="40"/>
+      <c r="Z57" s="42"/>
+      <c r="AA57" s="41"/>
       <c r="AB57" s="28"/>
       <c r="AC57" s="28"/>
       <c r="AD57" s="28"/>
@@ -6234,33 +6309,33 @@
       <c r="BE57" s="28"/>
     </row>
     <row r="58" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="29"/>
-      <c r="B58" s="31"/>
-      <c r="C58" s="43"/>
-      <c r="D58" s="43"/>
-      <c r="E58" s="43"/>
-      <c r="F58" s="43"/>
-      <c r="G58" s="43"/>
-      <c r="H58" s="29"/>
-      <c r="I58" s="30"/>
-      <c r="J58" s="30"/>
-      <c r="K58" s="30"/>
-      <c r="L58" s="30"/>
-      <c r="M58" s="30"/>
-      <c r="N58" s="30"/>
-      <c r="O58" s="31"/>
-      <c r="P58" s="29"/>
-      <c r="Q58" s="30"/>
-      <c r="R58" s="31"/>
-      <c r="S58" s="29"/>
-      <c r="T58" s="30"/>
-      <c r="U58" s="31"/>
-      <c r="V58" s="29"/>
-      <c r="W58" s="30"/>
-      <c r="X58" s="31"/>
-      <c r="Y58" s="29"/>
-      <c r="Z58" s="30"/>
-      <c r="AA58" s="31"/>
+      <c r="A58" s="40"/>
+      <c r="B58" s="41"/>
+      <c r="C58" s="99"/>
+      <c r="D58" s="99"/>
+      <c r="E58" s="99"/>
+      <c r="F58" s="99"/>
+      <c r="G58" s="99"/>
+      <c r="H58" s="40"/>
+      <c r="I58" s="42"/>
+      <c r="J58" s="42"/>
+      <c r="K58" s="42"/>
+      <c r="L58" s="42"/>
+      <c r="M58" s="42"/>
+      <c r="N58" s="42"/>
+      <c r="O58" s="41"/>
+      <c r="P58" s="40"/>
+      <c r="Q58" s="42"/>
+      <c r="R58" s="41"/>
+      <c r="S58" s="40"/>
+      <c r="T58" s="42"/>
+      <c r="U58" s="41"/>
+      <c r="V58" s="40"/>
+      <c r="W58" s="42"/>
+      <c r="X58" s="41"/>
+      <c r="Y58" s="40"/>
+      <c r="Z58" s="42"/>
+      <c r="AA58" s="41"/>
       <c r="AB58" s="28"/>
       <c r="AC58" s="28"/>
       <c r="AD58" s="28"/>
@@ -6293,33 +6368,33 @@
       <c r="BE58" s="28"/>
     </row>
     <row r="59" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="29"/>
-      <c r="B59" s="31"/>
-      <c r="C59" s="43"/>
-      <c r="D59" s="43"/>
-      <c r="E59" s="43"/>
-      <c r="F59" s="43"/>
-      <c r="G59" s="43"/>
-      <c r="H59" s="29"/>
-      <c r="I59" s="30"/>
-      <c r="J59" s="30"/>
-      <c r="K59" s="30"/>
-      <c r="L59" s="30"/>
-      <c r="M59" s="30"/>
-      <c r="N59" s="30"/>
-      <c r="O59" s="31"/>
-      <c r="P59" s="29"/>
-      <c r="Q59" s="30"/>
-      <c r="R59" s="31"/>
-      <c r="S59" s="29"/>
-      <c r="T59" s="30"/>
-      <c r="U59" s="31"/>
-      <c r="V59" s="29"/>
-      <c r="W59" s="30"/>
-      <c r="X59" s="31"/>
-      <c r="Y59" s="29"/>
-      <c r="Z59" s="30"/>
-      <c r="AA59" s="31"/>
+      <c r="A59" s="40"/>
+      <c r="B59" s="41"/>
+      <c r="C59" s="99"/>
+      <c r="D59" s="99"/>
+      <c r="E59" s="99"/>
+      <c r="F59" s="99"/>
+      <c r="G59" s="99"/>
+      <c r="H59" s="40"/>
+      <c r="I59" s="42"/>
+      <c r="J59" s="42"/>
+      <c r="K59" s="42"/>
+      <c r="L59" s="42"/>
+      <c r="M59" s="42"/>
+      <c r="N59" s="42"/>
+      <c r="O59" s="41"/>
+      <c r="P59" s="40"/>
+      <c r="Q59" s="42"/>
+      <c r="R59" s="41"/>
+      <c r="S59" s="40"/>
+      <c r="T59" s="42"/>
+      <c r="U59" s="41"/>
+      <c r="V59" s="40"/>
+      <c r="W59" s="42"/>
+      <c r="X59" s="41"/>
+      <c r="Y59" s="40"/>
+      <c r="Z59" s="42"/>
+      <c r="AA59" s="41"/>
       <c r="AB59" s="28"/>
       <c r="AC59" s="28"/>
       <c r="AD59" s="28"/>
@@ -6352,33 +6427,33 @@
       <c r="BE59" s="28"/>
     </row>
     <row r="60" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="29"/>
-      <c r="B60" s="31"/>
-      <c r="C60" s="43"/>
-      <c r="D60" s="43"/>
-      <c r="E60" s="43"/>
-      <c r="F60" s="43"/>
-      <c r="G60" s="43"/>
-      <c r="H60" s="29"/>
-      <c r="I60" s="30"/>
-      <c r="J60" s="30"/>
-      <c r="K60" s="30"/>
-      <c r="L60" s="30"/>
-      <c r="M60" s="30"/>
-      <c r="N60" s="30"/>
-      <c r="O60" s="31"/>
-      <c r="P60" s="29"/>
-      <c r="Q60" s="30"/>
-      <c r="R60" s="31"/>
-      <c r="S60" s="29"/>
-      <c r="T60" s="30"/>
-      <c r="U60" s="31"/>
-      <c r="V60" s="29"/>
-      <c r="W60" s="30"/>
-      <c r="X60" s="31"/>
-      <c r="Y60" s="29"/>
-      <c r="Z60" s="30"/>
-      <c r="AA60" s="31"/>
+      <c r="A60" s="40"/>
+      <c r="B60" s="41"/>
+      <c r="C60" s="99"/>
+      <c r="D60" s="99"/>
+      <c r="E60" s="99"/>
+      <c r="F60" s="99"/>
+      <c r="G60" s="99"/>
+      <c r="H60" s="40"/>
+      <c r="I60" s="42"/>
+      <c r="J60" s="42"/>
+      <c r="K60" s="42"/>
+      <c r="L60" s="42"/>
+      <c r="M60" s="42"/>
+      <c r="N60" s="42"/>
+      <c r="O60" s="41"/>
+      <c r="P60" s="40"/>
+      <c r="Q60" s="42"/>
+      <c r="R60" s="41"/>
+      <c r="S60" s="40"/>
+      <c r="T60" s="42"/>
+      <c r="U60" s="41"/>
+      <c r="V60" s="40"/>
+      <c r="W60" s="42"/>
+      <c r="X60" s="41"/>
+      <c r="Y60" s="40"/>
+      <c r="Z60" s="42"/>
+      <c r="AA60" s="41"/>
       <c r="AB60" s="28"/>
       <c r="AC60" s="28"/>
       <c r="AD60" s="28"/>
@@ -6411,33 +6486,33 @@
       <c r="BE60" s="28"/>
     </row>
     <row r="61" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="29"/>
-      <c r="B61" s="31"/>
-      <c r="C61" s="43"/>
-      <c r="D61" s="43"/>
-      <c r="E61" s="43"/>
-      <c r="F61" s="43"/>
-      <c r="G61" s="43"/>
-      <c r="H61" s="29"/>
-      <c r="I61" s="30"/>
-      <c r="J61" s="30"/>
-      <c r="K61" s="30"/>
-      <c r="L61" s="30"/>
-      <c r="M61" s="30"/>
-      <c r="N61" s="30"/>
-      <c r="O61" s="31"/>
-      <c r="P61" s="29"/>
-      <c r="Q61" s="30"/>
-      <c r="R61" s="31"/>
-      <c r="S61" s="29"/>
-      <c r="T61" s="30"/>
-      <c r="U61" s="31"/>
-      <c r="V61" s="29"/>
-      <c r="W61" s="30"/>
-      <c r="X61" s="31"/>
-      <c r="Y61" s="29"/>
-      <c r="Z61" s="30"/>
-      <c r="AA61" s="31"/>
+      <c r="A61" s="40"/>
+      <c r="B61" s="41"/>
+      <c r="C61" s="99"/>
+      <c r="D61" s="99"/>
+      <c r="E61" s="99"/>
+      <c r="F61" s="99"/>
+      <c r="G61" s="99"/>
+      <c r="H61" s="40"/>
+      <c r="I61" s="42"/>
+      <c r="J61" s="42"/>
+      <c r="K61" s="42"/>
+      <c r="L61" s="42"/>
+      <c r="M61" s="42"/>
+      <c r="N61" s="42"/>
+      <c r="O61" s="41"/>
+      <c r="P61" s="40"/>
+      <c r="Q61" s="42"/>
+      <c r="R61" s="41"/>
+      <c r="S61" s="40"/>
+      <c r="T61" s="42"/>
+      <c r="U61" s="41"/>
+      <c r="V61" s="40"/>
+      <c r="W61" s="42"/>
+      <c r="X61" s="41"/>
+      <c r="Y61" s="40"/>
+      <c r="Z61" s="42"/>
+      <c r="AA61" s="41"/>
       <c r="AB61" s="28"/>
       <c r="AC61" s="28"/>
       <c r="AD61" s="28"/>
@@ -6470,33 +6545,33 @@
       <c r="BE61" s="28"/>
     </row>
     <row r="62" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="29"/>
-      <c r="B62" s="31"/>
-      <c r="C62" s="43"/>
-      <c r="D62" s="43"/>
-      <c r="E62" s="43"/>
-      <c r="F62" s="43"/>
-      <c r="G62" s="43"/>
-      <c r="H62" s="29"/>
-      <c r="I62" s="30"/>
-      <c r="J62" s="30"/>
-      <c r="K62" s="30"/>
-      <c r="L62" s="30"/>
-      <c r="M62" s="30"/>
-      <c r="N62" s="30"/>
-      <c r="O62" s="31"/>
-      <c r="P62" s="29"/>
-      <c r="Q62" s="30"/>
-      <c r="R62" s="31"/>
-      <c r="S62" s="29"/>
-      <c r="T62" s="30"/>
-      <c r="U62" s="31"/>
-      <c r="V62" s="29"/>
-      <c r="W62" s="30"/>
-      <c r="X62" s="31"/>
-      <c r="Y62" s="29"/>
-      <c r="Z62" s="30"/>
-      <c r="AA62" s="31"/>
+      <c r="A62" s="40"/>
+      <c r="B62" s="41"/>
+      <c r="C62" s="99"/>
+      <c r="D62" s="99"/>
+      <c r="E62" s="99"/>
+      <c r="F62" s="99"/>
+      <c r="G62" s="99"/>
+      <c r="H62" s="40"/>
+      <c r="I62" s="42"/>
+      <c r="J62" s="42"/>
+      <c r="K62" s="42"/>
+      <c r="L62" s="42"/>
+      <c r="M62" s="42"/>
+      <c r="N62" s="42"/>
+      <c r="O62" s="41"/>
+      <c r="P62" s="40"/>
+      <c r="Q62" s="42"/>
+      <c r="R62" s="41"/>
+      <c r="S62" s="40"/>
+      <c r="T62" s="42"/>
+      <c r="U62" s="41"/>
+      <c r="V62" s="40"/>
+      <c r="W62" s="42"/>
+      <c r="X62" s="41"/>
+      <c r="Y62" s="40"/>
+      <c r="Z62" s="42"/>
+      <c r="AA62" s="41"/>
       <c r="AB62" s="28"/>
       <c r="AC62" s="28"/>
       <c r="AD62" s="28"/>
@@ -6529,33 +6604,33 @@
       <c r="BE62" s="28"/>
     </row>
     <row r="63" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="29"/>
-      <c r="B63" s="31"/>
-      <c r="C63" s="43"/>
-      <c r="D63" s="43"/>
-      <c r="E63" s="43"/>
-      <c r="F63" s="43"/>
-      <c r="G63" s="43"/>
-      <c r="H63" s="29"/>
-      <c r="I63" s="30"/>
-      <c r="J63" s="30"/>
-      <c r="K63" s="30"/>
-      <c r="L63" s="30"/>
-      <c r="M63" s="30"/>
-      <c r="N63" s="30"/>
-      <c r="O63" s="31"/>
-      <c r="P63" s="29"/>
-      <c r="Q63" s="30"/>
-      <c r="R63" s="31"/>
-      <c r="S63" s="29"/>
-      <c r="T63" s="30"/>
-      <c r="U63" s="31"/>
-      <c r="V63" s="29"/>
-      <c r="W63" s="30"/>
-      <c r="X63" s="31"/>
-      <c r="Y63" s="29"/>
-      <c r="Z63" s="30"/>
-      <c r="AA63" s="31"/>
+      <c r="A63" s="40"/>
+      <c r="B63" s="41"/>
+      <c r="C63" s="99"/>
+      <c r="D63" s="99"/>
+      <c r="E63" s="99"/>
+      <c r="F63" s="99"/>
+      <c r="G63" s="99"/>
+      <c r="H63" s="40"/>
+      <c r="I63" s="42"/>
+      <c r="J63" s="42"/>
+      <c r="K63" s="42"/>
+      <c r="L63" s="42"/>
+      <c r="M63" s="42"/>
+      <c r="N63" s="42"/>
+      <c r="O63" s="41"/>
+      <c r="P63" s="40"/>
+      <c r="Q63" s="42"/>
+      <c r="R63" s="41"/>
+      <c r="S63" s="40"/>
+      <c r="T63" s="42"/>
+      <c r="U63" s="41"/>
+      <c r="V63" s="40"/>
+      <c r="W63" s="42"/>
+      <c r="X63" s="41"/>
+      <c r="Y63" s="40"/>
+      <c r="Z63" s="42"/>
+      <c r="AA63" s="41"/>
       <c r="AB63" s="28"/>
       <c r="AC63" s="28"/>
       <c r="AD63" s="28"/>
@@ -6588,33 +6663,33 @@
       <c r="BE63" s="28"/>
     </row>
     <row r="64" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="29"/>
-      <c r="B64" s="31"/>
-      <c r="C64" s="43"/>
-      <c r="D64" s="43"/>
-      <c r="E64" s="43"/>
-      <c r="F64" s="43"/>
-      <c r="G64" s="43"/>
-      <c r="H64" s="29"/>
-      <c r="I64" s="30"/>
-      <c r="J64" s="30"/>
-      <c r="K64" s="30"/>
-      <c r="L64" s="30"/>
-      <c r="M64" s="30"/>
-      <c r="N64" s="30"/>
-      <c r="O64" s="31"/>
-      <c r="P64" s="29"/>
-      <c r="Q64" s="30"/>
-      <c r="R64" s="31"/>
-      <c r="S64" s="29"/>
-      <c r="T64" s="30"/>
-      <c r="U64" s="31"/>
-      <c r="V64" s="29"/>
-      <c r="W64" s="30"/>
-      <c r="X64" s="31"/>
-      <c r="Y64" s="29"/>
-      <c r="Z64" s="30"/>
-      <c r="AA64" s="31"/>
+      <c r="A64" s="40"/>
+      <c r="B64" s="41"/>
+      <c r="C64" s="99"/>
+      <c r="D64" s="99"/>
+      <c r="E64" s="99"/>
+      <c r="F64" s="99"/>
+      <c r="G64" s="99"/>
+      <c r="H64" s="40"/>
+      <c r="I64" s="42"/>
+      <c r="J64" s="42"/>
+      <c r="K64" s="42"/>
+      <c r="L64" s="42"/>
+      <c r="M64" s="42"/>
+      <c r="N64" s="42"/>
+      <c r="O64" s="41"/>
+      <c r="P64" s="40"/>
+      <c r="Q64" s="42"/>
+      <c r="R64" s="41"/>
+      <c r="S64" s="40"/>
+      <c r="T64" s="42"/>
+      <c r="U64" s="41"/>
+      <c r="V64" s="40"/>
+      <c r="W64" s="42"/>
+      <c r="X64" s="41"/>
+      <c r="Y64" s="40"/>
+      <c r="Z64" s="42"/>
+      <c r="AA64" s="41"/>
       <c r="AB64" s="28"/>
       <c r="AC64" s="28"/>
       <c r="AD64" s="28"/>
@@ -6647,33 +6722,33 @@
       <c r="BE64" s="28"/>
     </row>
     <row r="65" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="29"/>
-      <c r="B65" s="31"/>
-      <c r="C65" s="43"/>
-      <c r="D65" s="43"/>
-      <c r="E65" s="43"/>
-      <c r="F65" s="43"/>
-      <c r="G65" s="43"/>
-      <c r="H65" s="29"/>
-      <c r="I65" s="30"/>
-      <c r="J65" s="30"/>
-      <c r="K65" s="30"/>
-      <c r="L65" s="30"/>
-      <c r="M65" s="30"/>
-      <c r="N65" s="30"/>
-      <c r="O65" s="31"/>
-      <c r="P65" s="29"/>
-      <c r="Q65" s="30"/>
-      <c r="R65" s="31"/>
-      <c r="S65" s="29"/>
-      <c r="T65" s="30"/>
-      <c r="U65" s="31"/>
-      <c r="V65" s="29"/>
-      <c r="W65" s="30"/>
-      <c r="X65" s="31"/>
-      <c r="Y65" s="29"/>
-      <c r="Z65" s="30"/>
-      <c r="AA65" s="31"/>
+      <c r="A65" s="40"/>
+      <c r="B65" s="41"/>
+      <c r="C65" s="99"/>
+      <c r="D65" s="99"/>
+      <c r="E65" s="99"/>
+      <c r="F65" s="99"/>
+      <c r="G65" s="99"/>
+      <c r="H65" s="40"/>
+      <c r="I65" s="42"/>
+      <c r="J65" s="42"/>
+      <c r="K65" s="42"/>
+      <c r="L65" s="42"/>
+      <c r="M65" s="42"/>
+      <c r="N65" s="42"/>
+      <c r="O65" s="41"/>
+      <c r="P65" s="40"/>
+      <c r="Q65" s="42"/>
+      <c r="R65" s="41"/>
+      <c r="S65" s="40"/>
+      <c r="T65" s="42"/>
+      <c r="U65" s="41"/>
+      <c r="V65" s="40"/>
+      <c r="W65" s="42"/>
+      <c r="X65" s="41"/>
+      <c r="Y65" s="40"/>
+      <c r="Z65" s="42"/>
+      <c r="AA65" s="41"/>
       <c r="AB65" s="28"/>
       <c r="AC65" s="28"/>
       <c r="AD65" s="28"/>
@@ -6706,33 +6781,33 @@
       <c r="BE65" s="28"/>
     </row>
     <row r="66" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="29"/>
-      <c r="B66" s="31"/>
-      <c r="C66" s="29"/>
-      <c r="D66" s="30"/>
-      <c r="E66" s="30"/>
-      <c r="F66" s="30"/>
-      <c r="G66" s="31"/>
-      <c r="H66" s="29"/>
-      <c r="I66" s="30"/>
-      <c r="J66" s="30"/>
-      <c r="K66" s="30"/>
-      <c r="L66" s="30"/>
-      <c r="M66" s="30"/>
-      <c r="N66" s="30"/>
-      <c r="O66" s="31"/>
-      <c r="P66" s="29"/>
-      <c r="Q66" s="30"/>
-      <c r="R66" s="31"/>
-      <c r="S66" s="29"/>
-      <c r="T66" s="30"/>
-      <c r="U66" s="31"/>
-      <c r="V66" s="29"/>
-      <c r="W66" s="30"/>
-      <c r="X66" s="31"/>
-      <c r="Y66" s="29"/>
-      <c r="Z66" s="30"/>
-      <c r="AA66" s="31"/>
+      <c r="A66" s="40"/>
+      <c r="B66" s="41"/>
+      <c r="C66" s="40"/>
+      <c r="D66" s="42"/>
+      <c r="E66" s="42"/>
+      <c r="F66" s="42"/>
+      <c r="G66" s="41"/>
+      <c r="H66" s="40"/>
+      <c r="I66" s="42"/>
+      <c r="J66" s="42"/>
+      <c r="K66" s="42"/>
+      <c r="L66" s="42"/>
+      <c r="M66" s="42"/>
+      <c r="N66" s="42"/>
+      <c r="O66" s="41"/>
+      <c r="P66" s="40"/>
+      <c r="Q66" s="42"/>
+      <c r="R66" s="41"/>
+      <c r="S66" s="40"/>
+      <c r="T66" s="42"/>
+      <c r="U66" s="41"/>
+      <c r="V66" s="40"/>
+      <c r="W66" s="42"/>
+      <c r="X66" s="41"/>
+      <c r="Y66" s="40"/>
+      <c r="Z66" s="42"/>
+      <c r="AA66" s="41"/>
       <c r="AB66" s="28"/>
       <c r="AC66" s="28"/>
       <c r="AD66" s="28"/>
@@ -6765,33 +6840,33 @@
       <c r="BE66" s="28"/>
     </row>
     <row r="67" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="29"/>
-      <c r="B67" s="31"/>
-      <c r="C67" s="29"/>
-      <c r="D67" s="30"/>
-      <c r="E67" s="30"/>
-      <c r="F67" s="30"/>
-      <c r="G67" s="31"/>
-      <c r="H67" s="29"/>
-      <c r="I67" s="30"/>
-      <c r="J67" s="30"/>
-      <c r="K67" s="30"/>
-      <c r="L67" s="30"/>
-      <c r="M67" s="30"/>
-      <c r="N67" s="30"/>
-      <c r="O67" s="31"/>
-      <c r="P67" s="29"/>
-      <c r="Q67" s="30"/>
-      <c r="R67" s="31"/>
-      <c r="S67" s="29"/>
-      <c r="T67" s="30"/>
-      <c r="U67" s="31"/>
-      <c r="V67" s="29"/>
-      <c r="W67" s="30"/>
-      <c r="X67" s="31"/>
-      <c r="Y67" s="29"/>
-      <c r="Z67" s="30"/>
-      <c r="AA67" s="31"/>
+      <c r="A67" s="40"/>
+      <c r="B67" s="41"/>
+      <c r="C67" s="40"/>
+      <c r="D67" s="42"/>
+      <c r="E67" s="42"/>
+      <c r="F67" s="42"/>
+      <c r="G67" s="41"/>
+      <c r="H67" s="40"/>
+      <c r="I67" s="42"/>
+      <c r="J67" s="42"/>
+      <c r="K67" s="42"/>
+      <c r="L67" s="42"/>
+      <c r="M67" s="42"/>
+      <c r="N67" s="42"/>
+      <c r="O67" s="41"/>
+      <c r="P67" s="40"/>
+      <c r="Q67" s="42"/>
+      <c r="R67" s="41"/>
+      <c r="S67" s="40"/>
+      <c r="T67" s="42"/>
+      <c r="U67" s="41"/>
+      <c r="V67" s="40"/>
+      <c r="W67" s="42"/>
+      <c r="X67" s="41"/>
+      <c r="Y67" s="40"/>
+      <c r="Z67" s="42"/>
+      <c r="AA67" s="41"/>
       <c r="AB67" s="28"/>
       <c r="AC67" s="28"/>
       <c r="AD67" s="28"/>
@@ -6824,500 +6899,1029 @@
       <c r="BE67" s="28"/>
     </row>
     <row r="68" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="29"/>
-      <c r="B68" s="31"/>
-      <c r="C68" s="29"/>
-      <c r="D68" s="30"/>
-      <c r="E68" s="30"/>
-      <c r="F68" s="30"/>
-      <c r="G68" s="31"/>
-      <c r="H68" s="29"/>
-      <c r="I68" s="30"/>
-      <c r="J68" s="30"/>
-      <c r="K68" s="30"/>
-      <c r="L68" s="30"/>
-      <c r="M68" s="30"/>
-      <c r="N68" s="30"/>
-      <c r="O68" s="31"/>
-      <c r="P68" s="29"/>
-      <c r="Q68" s="30"/>
-      <c r="R68" s="31"/>
-      <c r="S68" s="29"/>
-      <c r="T68" s="30"/>
-      <c r="U68" s="31"/>
-      <c r="V68" s="29"/>
-      <c r="W68" s="30"/>
-      <c r="X68" s="31"/>
-      <c r="Y68" s="29"/>
-      <c r="Z68" s="30"/>
-      <c r="AA68" s="31"/>
+      <c r="A68" s="40"/>
+      <c r="B68" s="41"/>
+      <c r="C68" s="40"/>
+      <c r="D68" s="42"/>
+      <c r="E68" s="42"/>
+      <c r="F68" s="42"/>
+      <c r="G68" s="41"/>
+      <c r="H68" s="40"/>
+      <c r="I68" s="42"/>
+      <c r="J68" s="42"/>
+      <c r="K68" s="42"/>
+      <c r="L68" s="42"/>
+      <c r="M68" s="42"/>
+      <c r="N68" s="42"/>
+      <c r="O68" s="41"/>
+      <c r="P68" s="40"/>
+      <c r="Q68" s="42"/>
+      <c r="R68" s="41"/>
+      <c r="S68" s="40"/>
+      <c r="T68" s="42"/>
+      <c r="U68" s="41"/>
+      <c r="V68" s="40"/>
+      <c r="W68" s="42"/>
+      <c r="X68" s="41"/>
+      <c r="Y68" s="40"/>
+      <c r="Z68" s="42"/>
+      <c r="AA68" s="41"/>
     </row>
     <row r="69" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="29"/>
-      <c r="B69" s="31"/>
-      <c r="C69" s="29"/>
-      <c r="D69" s="30"/>
-      <c r="E69" s="30"/>
-      <c r="F69" s="30"/>
-      <c r="G69" s="31"/>
-      <c r="H69" s="29"/>
-      <c r="I69" s="30"/>
-      <c r="J69" s="30"/>
-      <c r="K69" s="30"/>
-      <c r="L69" s="30"/>
-      <c r="M69" s="30"/>
-      <c r="N69" s="30"/>
-      <c r="O69" s="31"/>
-      <c r="P69" s="29"/>
-      <c r="Q69" s="30"/>
-      <c r="R69" s="31"/>
-      <c r="S69" s="29"/>
-      <c r="T69" s="30"/>
-      <c r="U69" s="31"/>
-      <c r="V69" s="29"/>
-      <c r="W69" s="30"/>
-      <c r="X69" s="31"/>
-      <c r="Y69" s="29"/>
-      <c r="Z69" s="30"/>
-      <c r="AA69" s="31"/>
+      <c r="A69" s="40"/>
+      <c r="B69" s="41"/>
+      <c r="C69" s="40"/>
+      <c r="D69" s="42"/>
+      <c r="E69" s="42"/>
+      <c r="F69" s="42"/>
+      <c r="G69" s="41"/>
+      <c r="H69" s="40"/>
+      <c r="I69" s="42"/>
+      <c r="J69" s="42"/>
+      <c r="K69" s="42"/>
+      <c r="L69" s="42"/>
+      <c r="M69" s="42"/>
+      <c r="N69" s="42"/>
+      <c r="O69" s="41"/>
+      <c r="P69" s="40"/>
+      <c r="Q69" s="42"/>
+      <c r="R69" s="41"/>
+      <c r="S69" s="40"/>
+      <c r="T69" s="42"/>
+      <c r="U69" s="41"/>
+      <c r="V69" s="40"/>
+      <c r="W69" s="42"/>
+      <c r="X69" s="41"/>
+      <c r="Y69" s="40"/>
+      <c r="Z69" s="42"/>
+      <c r="AA69" s="41"/>
     </row>
     <row r="70" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="29"/>
-      <c r="B70" s="31"/>
-      <c r="C70" s="29"/>
-      <c r="D70" s="30"/>
-      <c r="E70" s="30"/>
-      <c r="F70" s="30"/>
-      <c r="G70" s="31"/>
-      <c r="H70" s="29"/>
-      <c r="I70" s="30"/>
-      <c r="J70" s="30"/>
-      <c r="K70" s="30"/>
-      <c r="L70" s="30"/>
-      <c r="M70" s="30"/>
-      <c r="N70" s="30"/>
-      <c r="O70" s="31"/>
-      <c r="P70" s="29"/>
-      <c r="Q70" s="30"/>
-      <c r="R70" s="31"/>
-      <c r="S70" s="29"/>
-      <c r="T70" s="30"/>
-      <c r="U70" s="31"/>
-      <c r="V70" s="29"/>
-      <c r="W70" s="30"/>
-      <c r="X70" s="31"/>
-      <c r="Y70" s="29"/>
-      <c r="Z70" s="30"/>
-      <c r="AA70" s="31"/>
+      <c r="A70" s="40"/>
+      <c r="B70" s="41"/>
+      <c r="C70" s="40"/>
+      <c r="D70" s="42"/>
+      <c r="E70" s="42"/>
+      <c r="F70" s="42"/>
+      <c r="G70" s="41"/>
+      <c r="H70" s="40"/>
+      <c r="I70" s="42"/>
+      <c r="J70" s="42"/>
+      <c r="K70" s="42"/>
+      <c r="L70" s="42"/>
+      <c r="M70" s="42"/>
+      <c r="N70" s="42"/>
+      <c r="O70" s="41"/>
+      <c r="P70" s="40"/>
+      <c r="Q70" s="42"/>
+      <c r="R70" s="41"/>
+      <c r="S70" s="40"/>
+      <c r="T70" s="42"/>
+      <c r="U70" s="41"/>
+      <c r="V70" s="40"/>
+      <c r="W70" s="42"/>
+      <c r="X70" s="41"/>
+      <c r="Y70" s="40"/>
+      <c r="Z70" s="42"/>
+      <c r="AA70" s="41"/>
     </row>
     <row r="71" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="29"/>
-      <c r="B71" s="31"/>
-      <c r="C71" s="29"/>
-      <c r="D71" s="30"/>
-      <c r="E71" s="30"/>
-      <c r="F71" s="30"/>
-      <c r="G71" s="31"/>
-      <c r="H71" s="29"/>
-      <c r="I71" s="30"/>
-      <c r="J71" s="30"/>
-      <c r="K71" s="30"/>
-      <c r="L71" s="30"/>
-      <c r="M71" s="30"/>
-      <c r="N71" s="30"/>
-      <c r="O71" s="31"/>
-      <c r="P71" s="29"/>
-      <c r="Q71" s="30"/>
-      <c r="R71" s="31"/>
-      <c r="S71" s="29"/>
-      <c r="T71" s="30"/>
-      <c r="U71" s="31"/>
-      <c r="V71" s="29"/>
-      <c r="W71" s="30"/>
-      <c r="X71" s="31"/>
-      <c r="Y71" s="29"/>
-      <c r="Z71" s="30"/>
-      <c r="AA71" s="31"/>
+      <c r="A71" s="40"/>
+      <c r="B71" s="41"/>
+      <c r="C71" s="40"/>
+      <c r="D71" s="42"/>
+      <c r="E71" s="42"/>
+      <c r="F71" s="42"/>
+      <c r="G71" s="41"/>
+      <c r="H71" s="40"/>
+      <c r="I71" s="42"/>
+      <c r="J71" s="42"/>
+      <c r="K71" s="42"/>
+      <c r="L71" s="42"/>
+      <c r="M71" s="42"/>
+      <c r="N71" s="42"/>
+      <c r="O71" s="41"/>
+      <c r="P71" s="40"/>
+      <c r="Q71" s="42"/>
+      <c r="R71" s="41"/>
+      <c r="S71" s="40"/>
+      <c r="T71" s="42"/>
+      <c r="U71" s="41"/>
+      <c r="V71" s="40"/>
+      <c r="W71" s="42"/>
+      <c r="X71" s="41"/>
+      <c r="Y71" s="40"/>
+      <c r="Z71" s="42"/>
+      <c r="AA71" s="41"/>
     </row>
     <row r="72" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="29"/>
-      <c r="B72" s="31"/>
-      <c r="C72" s="29"/>
-      <c r="D72" s="30"/>
-      <c r="E72" s="30"/>
-      <c r="F72" s="30"/>
-      <c r="G72" s="31"/>
-      <c r="H72" s="29"/>
-      <c r="I72" s="30"/>
-      <c r="J72" s="30"/>
-      <c r="K72" s="30"/>
-      <c r="L72" s="30"/>
-      <c r="M72" s="30"/>
-      <c r="N72" s="30"/>
-      <c r="O72" s="31"/>
-      <c r="P72" s="29"/>
-      <c r="Q72" s="30"/>
-      <c r="R72" s="31"/>
-      <c r="S72" s="29"/>
-      <c r="T72" s="30"/>
-      <c r="U72" s="31"/>
-      <c r="V72" s="29"/>
-      <c r="W72" s="30"/>
-      <c r="X72" s="31"/>
-      <c r="Y72" s="29"/>
-      <c r="Z72" s="30"/>
-      <c r="AA72" s="31"/>
+      <c r="A72" s="40"/>
+      <c r="B72" s="41"/>
+      <c r="C72" s="40"/>
+      <c r="D72" s="42"/>
+      <c r="E72" s="42"/>
+      <c r="F72" s="42"/>
+      <c r="G72" s="41"/>
+      <c r="H72" s="40"/>
+      <c r="I72" s="42"/>
+      <c r="J72" s="42"/>
+      <c r="K72" s="42"/>
+      <c r="L72" s="42"/>
+      <c r="M72" s="42"/>
+      <c r="N72" s="42"/>
+      <c r="O72" s="41"/>
+      <c r="P72" s="40"/>
+      <c r="Q72" s="42"/>
+      <c r="R72" s="41"/>
+      <c r="S72" s="40"/>
+      <c r="T72" s="42"/>
+      <c r="U72" s="41"/>
+      <c r="V72" s="40"/>
+      <c r="W72" s="42"/>
+      <c r="X72" s="41"/>
+      <c r="Y72" s="40"/>
+      <c r="Z72" s="42"/>
+      <c r="AA72" s="41"/>
     </row>
     <row r="73" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="29"/>
-      <c r="B73" s="31"/>
-      <c r="C73" s="29"/>
-      <c r="D73" s="30"/>
-      <c r="E73" s="30"/>
-      <c r="F73" s="30"/>
-      <c r="G73" s="31"/>
-      <c r="H73" s="29"/>
-      <c r="I73" s="30"/>
-      <c r="J73" s="30"/>
-      <c r="K73" s="30"/>
-      <c r="L73" s="30"/>
-      <c r="M73" s="30"/>
-      <c r="N73" s="30"/>
-      <c r="O73" s="31"/>
-      <c r="P73" s="29"/>
-      <c r="Q73" s="30"/>
-      <c r="R73" s="31"/>
-      <c r="S73" s="29"/>
-      <c r="T73" s="30"/>
-      <c r="U73" s="31"/>
-      <c r="V73" s="29"/>
-      <c r="W73" s="30"/>
-      <c r="X73" s="31"/>
-      <c r="Y73" s="29"/>
-      <c r="Z73" s="30"/>
-      <c r="AA73" s="31"/>
+      <c r="A73" s="40"/>
+      <c r="B73" s="41"/>
+      <c r="C73" s="40"/>
+      <c r="D73" s="42"/>
+      <c r="E73" s="42"/>
+      <c r="F73" s="42"/>
+      <c r="G73" s="41"/>
+      <c r="H73" s="40"/>
+      <c r="I73" s="42"/>
+      <c r="J73" s="42"/>
+      <c r="K73" s="42"/>
+      <c r="L73" s="42"/>
+      <c r="M73" s="42"/>
+      <c r="N73" s="42"/>
+      <c r="O73" s="41"/>
+      <c r="P73" s="40"/>
+      <c r="Q73" s="42"/>
+      <c r="R73" s="41"/>
+      <c r="S73" s="40"/>
+      <c r="T73" s="42"/>
+      <c r="U73" s="41"/>
+      <c r="V73" s="40"/>
+      <c r="W73" s="42"/>
+      <c r="X73" s="41"/>
+      <c r="Y73" s="40"/>
+      <c r="Z73" s="42"/>
+      <c r="AA73" s="41"/>
     </row>
     <row r="74" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="29"/>
-      <c r="B74" s="31"/>
-      <c r="C74" s="29"/>
-      <c r="D74" s="30"/>
-      <c r="E74" s="30"/>
-      <c r="F74" s="30"/>
-      <c r="G74" s="31"/>
-      <c r="H74" s="29"/>
-      <c r="I74" s="30"/>
-      <c r="J74" s="30"/>
-      <c r="K74" s="30"/>
-      <c r="L74" s="30"/>
-      <c r="M74" s="30"/>
-      <c r="N74" s="30"/>
-      <c r="O74" s="31"/>
-      <c r="P74" s="29"/>
-      <c r="Q74" s="30"/>
-      <c r="R74" s="31"/>
-      <c r="S74" s="29"/>
-      <c r="T74" s="30"/>
-      <c r="U74" s="31"/>
-      <c r="V74" s="29"/>
-      <c r="W74" s="30"/>
-      <c r="X74" s="31"/>
-      <c r="Y74" s="29"/>
-      <c r="Z74" s="30"/>
-      <c r="AA74" s="31"/>
+      <c r="A74" s="40"/>
+      <c r="B74" s="41"/>
+      <c r="C74" s="40"/>
+      <c r="D74" s="42"/>
+      <c r="E74" s="42"/>
+      <c r="F74" s="42"/>
+      <c r="G74" s="41"/>
+      <c r="H74" s="40"/>
+      <c r="I74" s="42"/>
+      <c r="J74" s="42"/>
+      <c r="K74" s="42"/>
+      <c r="L74" s="42"/>
+      <c r="M74" s="42"/>
+      <c r="N74" s="42"/>
+      <c r="O74" s="41"/>
+      <c r="P74" s="40"/>
+      <c r="Q74" s="42"/>
+      <c r="R74" s="41"/>
+      <c r="S74" s="40"/>
+      <c r="T74" s="42"/>
+      <c r="U74" s="41"/>
+      <c r="V74" s="40"/>
+      <c r="W74" s="42"/>
+      <c r="X74" s="41"/>
+      <c r="Y74" s="40"/>
+      <c r="Z74" s="42"/>
+      <c r="AA74" s="41"/>
     </row>
     <row r="75" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="29"/>
-      <c r="B75" s="31"/>
-      <c r="C75" s="29"/>
-      <c r="D75" s="30"/>
-      <c r="E75" s="30"/>
-      <c r="F75" s="30"/>
-      <c r="G75" s="31"/>
-      <c r="H75" s="29"/>
-      <c r="I75" s="30"/>
-      <c r="J75" s="30"/>
-      <c r="K75" s="30"/>
-      <c r="L75" s="30"/>
-      <c r="M75" s="30"/>
-      <c r="N75" s="30"/>
-      <c r="O75" s="31"/>
-      <c r="P75" s="29"/>
-      <c r="Q75" s="30"/>
-      <c r="R75" s="31"/>
-      <c r="S75" s="29"/>
-      <c r="T75" s="30"/>
-      <c r="U75" s="31"/>
-      <c r="V75" s="29"/>
-      <c r="W75" s="30"/>
-      <c r="X75" s="31"/>
-      <c r="Y75" s="29"/>
-      <c r="Z75" s="30"/>
-      <c r="AA75" s="31"/>
+      <c r="A75" s="40"/>
+      <c r="B75" s="41"/>
+      <c r="C75" s="40"/>
+      <c r="D75" s="42"/>
+      <c r="E75" s="42"/>
+      <c r="F75" s="42"/>
+      <c r="G75" s="41"/>
+      <c r="H75" s="40"/>
+      <c r="I75" s="42"/>
+      <c r="J75" s="42"/>
+      <c r="K75" s="42"/>
+      <c r="L75" s="42"/>
+      <c r="M75" s="42"/>
+      <c r="N75" s="42"/>
+      <c r="O75" s="41"/>
+      <c r="P75" s="40"/>
+      <c r="Q75" s="42"/>
+      <c r="R75" s="41"/>
+      <c r="S75" s="40"/>
+      <c r="T75" s="42"/>
+      <c r="U75" s="41"/>
+      <c r="V75" s="40"/>
+      <c r="W75" s="42"/>
+      <c r="X75" s="41"/>
+      <c r="Y75" s="40"/>
+      <c r="Z75" s="42"/>
+      <c r="AA75" s="41"/>
     </row>
     <row r="76" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="29"/>
-      <c r="B76" s="31"/>
-      <c r="C76" s="29"/>
-      <c r="D76" s="30"/>
-      <c r="E76" s="30"/>
-      <c r="F76" s="30"/>
-      <c r="G76" s="31"/>
-      <c r="H76" s="29"/>
-      <c r="I76" s="30"/>
-      <c r="J76" s="30"/>
-      <c r="K76" s="30"/>
-      <c r="L76" s="30"/>
-      <c r="M76" s="30"/>
-      <c r="N76" s="30"/>
-      <c r="O76" s="31"/>
-      <c r="P76" s="29"/>
-      <c r="Q76" s="30"/>
-      <c r="R76" s="31"/>
-      <c r="S76" s="29"/>
-      <c r="T76" s="30"/>
-      <c r="U76" s="31"/>
-      <c r="V76" s="29"/>
-      <c r="W76" s="30"/>
-      <c r="X76" s="31"/>
-      <c r="Y76" s="29"/>
-      <c r="Z76" s="30"/>
-      <c r="AA76" s="31"/>
+      <c r="A76" s="40"/>
+      <c r="B76" s="41"/>
+      <c r="C76" s="40"/>
+      <c r="D76" s="42"/>
+      <c r="E76" s="42"/>
+      <c r="F76" s="42"/>
+      <c r="G76" s="41"/>
+      <c r="H76" s="40"/>
+      <c r="I76" s="42"/>
+      <c r="J76" s="42"/>
+      <c r="K76" s="42"/>
+      <c r="L76" s="42"/>
+      <c r="M76" s="42"/>
+      <c r="N76" s="42"/>
+      <c r="O76" s="41"/>
+      <c r="P76" s="40"/>
+      <c r="Q76" s="42"/>
+      <c r="R76" s="41"/>
+      <c r="S76" s="40"/>
+      <c r="T76" s="42"/>
+      <c r="U76" s="41"/>
+      <c r="V76" s="40"/>
+      <c r="W76" s="42"/>
+      <c r="X76" s="41"/>
+      <c r="Y76" s="40"/>
+      <c r="Z76" s="42"/>
+      <c r="AA76" s="41"/>
     </row>
     <row r="77" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="29"/>
-      <c r="B77" s="31"/>
-      <c r="C77" s="29"/>
-      <c r="D77" s="30"/>
-      <c r="E77" s="30"/>
-      <c r="F77" s="30"/>
-      <c r="G77" s="31"/>
-      <c r="H77" s="29"/>
-      <c r="I77" s="30"/>
-      <c r="J77" s="30"/>
-      <c r="K77" s="30"/>
-      <c r="L77" s="30"/>
-      <c r="M77" s="30"/>
-      <c r="N77" s="30"/>
-      <c r="O77" s="31"/>
-      <c r="P77" s="29"/>
-      <c r="Q77" s="30"/>
-      <c r="R77" s="31"/>
-      <c r="S77" s="29"/>
-      <c r="T77" s="30"/>
-      <c r="U77" s="31"/>
-      <c r="V77" s="29"/>
-      <c r="W77" s="30"/>
-      <c r="X77" s="31"/>
-      <c r="Y77" s="29"/>
-      <c r="Z77" s="30"/>
-      <c r="AA77" s="31"/>
+      <c r="A77" s="40"/>
+      <c r="B77" s="41"/>
+      <c r="C77" s="40"/>
+      <c r="D77" s="42"/>
+      <c r="E77" s="42"/>
+      <c r="F77" s="42"/>
+      <c r="G77" s="41"/>
+      <c r="H77" s="40"/>
+      <c r="I77" s="42"/>
+      <c r="J77" s="42"/>
+      <c r="K77" s="42"/>
+      <c r="L77" s="42"/>
+      <c r="M77" s="42"/>
+      <c r="N77" s="42"/>
+      <c r="O77" s="41"/>
+      <c r="P77" s="40"/>
+      <c r="Q77" s="42"/>
+      <c r="R77" s="41"/>
+      <c r="S77" s="40"/>
+      <c r="T77" s="42"/>
+      <c r="U77" s="41"/>
+      <c r="V77" s="40"/>
+      <c r="W77" s="42"/>
+      <c r="X77" s="41"/>
+      <c r="Y77" s="40"/>
+      <c r="Z77" s="42"/>
+      <c r="AA77" s="41"/>
     </row>
     <row r="78" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="29"/>
-      <c r="B78" s="31"/>
-      <c r="C78" s="29"/>
-      <c r="D78" s="30"/>
-      <c r="E78" s="30"/>
-      <c r="F78" s="30"/>
-      <c r="G78" s="31"/>
-      <c r="H78" s="29"/>
-      <c r="I78" s="30"/>
-      <c r="J78" s="30"/>
-      <c r="K78" s="30"/>
-      <c r="L78" s="30"/>
-      <c r="M78" s="30"/>
-      <c r="N78" s="30"/>
-      <c r="O78" s="31"/>
-      <c r="P78" s="29"/>
-      <c r="Q78" s="30"/>
-      <c r="R78" s="31"/>
-      <c r="S78" s="29"/>
-      <c r="T78" s="30"/>
-      <c r="U78" s="31"/>
-      <c r="V78" s="29"/>
-      <c r="W78" s="30"/>
-      <c r="X78" s="31"/>
-      <c r="Y78" s="29"/>
-      <c r="Z78" s="30"/>
-      <c r="AA78" s="31"/>
+      <c r="A78" s="40"/>
+      <c r="B78" s="41"/>
+      <c r="C78" s="40"/>
+      <c r="D78" s="42"/>
+      <c r="E78" s="42"/>
+      <c r="F78" s="42"/>
+      <c r="G78" s="41"/>
+      <c r="H78" s="40"/>
+      <c r="I78" s="42"/>
+      <c r="J78" s="42"/>
+      <c r="K78" s="42"/>
+      <c r="L78" s="42"/>
+      <c r="M78" s="42"/>
+      <c r="N78" s="42"/>
+      <c r="O78" s="41"/>
+      <c r="P78" s="40"/>
+      <c r="Q78" s="42"/>
+      <c r="R78" s="41"/>
+      <c r="S78" s="40"/>
+      <c r="T78" s="42"/>
+      <c r="U78" s="41"/>
+      <c r="V78" s="40"/>
+      <c r="W78" s="42"/>
+      <c r="X78" s="41"/>
+      <c r="Y78" s="40"/>
+      <c r="Z78" s="42"/>
+      <c r="AA78" s="41"/>
     </row>
     <row r="79" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="29"/>
-      <c r="B79" s="31"/>
-      <c r="C79" s="29"/>
-      <c r="D79" s="30"/>
-      <c r="E79" s="30"/>
-      <c r="F79" s="30"/>
-      <c r="G79" s="31"/>
-      <c r="H79" s="29"/>
-      <c r="I79" s="30"/>
-      <c r="J79" s="30"/>
-      <c r="K79" s="30"/>
-      <c r="L79" s="30"/>
-      <c r="M79" s="30"/>
-      <c r="N79" s="30"/>
-      <c r="O79" s="31"/>
-      <c r="P79" s="29"/>
-      <c r="Q79" s="30"/>
-      <c r="R79" s="31"/>
-      <c r="S79" s="29"/>
-      <c r="T79" s="30"/>
-      <c r="U79" s="31"/>
-      <c r="V79" s="29"/>
-      <c r="W79" s="30"/>
-      <c r="X79" s="31"/>
-      <c r="Y79" s="29"/>
-      <c r="Z79" s="30"/>
-      <c r="AA79" s="31"/>
+      <c r="A79" s="40"/>
+      <c r="B79" s="41"/>
+      <c r="C79" s="40"/>
+      <c r="D79" s="42"/>
+      <c r="E79" s="42"/>
+      <c r="F79" s="42"/>
+      <c r="G79" s="41"/>
+      <c r="H79" s="40"/>
+      <c r="I79" s="42"/>
+      <c r="J79" s="42"/>
+      <c r="K79" s="42"/>
+      <c r="L79" s="42"/>
+      <c r="M79" s="42"/>
+      <c r="N79" s="42"/>
+      <c r="O79" s="41"/>
+      <c r="P79" s="40"/>
+      <c r="Q79" s="42"/>
+      <c r="R79" s="41"/>
+      <c r="S79" s="40"/>
+      <c r="T79" s="42"/>
+      <c r="U79" s="41"/>
+      <c r="V79" s="40"/>
+      <c r="W79" s="42"/>
+      <c r="X79" s="41"/>
+      <c r="Y79" s="40"/>
+      <c r="Z79" s="42"/>
+      <c r="AA79" s="41"/>
     </row>
     <row r="80" spans="1:57" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="29"/>
-      <c r="B80" s="31"/>
-      <c r="C80" s="29"/>
-      <c r="D80" s="30"/>
-      <c r="E80" s="30"/>
-      <c r="F80" s="30"/>
-      <c r="G80" s="31"/>
-      <c r="H80" s="29"/>
-      <c r="I80" s="30"/>
-      <c r="J80" s="30"/>
-      <c r="K80" s="30"/>
-      <c r="L80" s="30"/>
-      <c r="M80" s="30"/>
-      <c r="N80" s="30"/>
-      <c r="O80" s="31"/>
-      <c r="P80" s="29"/>
-      <c r="Q80" s="30"/>
-      <c r="R80" s="31"/>
-      <c r="S80" s="29"/>
-      <c r="T80" s="30"/>
-      <c r="U80" s="31"/>
-      <c r="V80" s="29"/>
-      <c r="W80" s="30"/>
-      <c r="X80" s="31"/>
-      <c r="Y80" s="29"/>
-      <c r="Z80" s="30"/>
-      <c r="AA80" s="31"/>
+      <c r="A80" s="40"/>
+      <c r="B80" s="41"/>
+      <c r="C80" s="40"/>
+      <c r="D80" s="42"/>
+      <c r="E80" s="42"/>
+      <c r="F80" s="42"/>
+      <c r="G80" s="41"/>
+      <c r="H80" s="40"/>
+      <c r="I80" s="42"/>
+      <c r="J80" s="42"/>
+      <c r="K80" s="42"/>
+      <c r="L80" s="42"/>
+      <c r="M80" s="42"/>
+      <c r="N80" s="42"/>
+      <c r="O80" s="41"/>
+      <c r="P80" s="40"/>
+      <c r="Q80" s="42"/>
+      <c r="R80" s="41"/>
+      <c r="S80" s="40"/>
+      <c r="T80" s="42"/>
+      <c r="U80" s="41"/>
+      <c r="V80" s="40"/>
+      <c r="W80" s="42"/>
+      <c r="X80" s="41"/>
+      <c r="Y80" s="40"/>
+      <c r="Z80" s="42"/>
+      <c r="AA80" s="41"/>
     </row>
     <row r="81" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="29"/>
-      <c r="B81" s="31"/>
-      <c r="C81" s="29"/>
-      <c r="D81" s="30"/>
-      <c r="E81" s="30"/>
-      <c r="F81" s="30"/>
-      <c r="G81" s="31"/>
-      <c r="H81" s="29"/>
-      <c r="I81" s="30"/>
-      <c r="J81" s="30"/>
-      <c r="K81" s="30"/>
-      <c r="L81" s="30"/>
-      <c r="M81" s="30"/>
-      <c r="N81" s="30"/>
-      <c r="O81" s="31"/>
-      <c r="P81" s="29"/>
-      <c r="Q81" s="30"/>
-      <c r="R81" s="31"/>
-      <c r="S81" s="29"/>
-      <c r="T81" s="30"/>
-      <c r="U81" s="31"/>
-      <c r="V81" s="29"/>
-      <c r="W81" s="30"/>
-      <c r="X81" s="31"/>
-      <c r="Y81" s="29"/>
-      <c r="Z81" s="30"/>
-      <c r="AA81" s="31"/>
+      <c r="A81" s="40"/>
+      <c r="B81" s="41"/>
+      <c r="C81" s="40"/>
+      <c r="D81" s="42"/>
+      <c r="E81" s="42"/>
+      <c r="F81" s="42"/>
+      <c r="G81" s="41"/>
+      <c r="H81" s="40"/>
+      <c r="I81" s="42"/>
+      <c r="J81" s="42"/>
+      <c r="K81" s="42"/>
+      <c r="L81" s="42"/>
+      <c r="M81" s="42"/>
+      <c r="N81" s="42"/>
+      <c r="O81" s="41"/>
+      <c r="P81" s="40"/>
+      <c r="Q81" s="42"/>
+      <c r="R81" s="41"/>
+      <c r="S81" s="40"/>
+      <c r="T81" s="42"/>
+      <c r="U81" s="41"/>
+      <c r="V81" s="40"/>
+      <c r="W81" s="42"/>
+      <c r="X81" s="41"/>
+      <c r="Y81" s="40"/>
+      <c r="Z81" s="42"/>
+      <c r="AA81" s="41"/>
     </row>
     <row r="82" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="29"/>
-      <c r="B82" s="31"/>
-      <c r="C82" s="29"/>
-      <c r="D82" s="30"/>
-      <c r="E82" s="30"/>
-      <c r="F82" s="30"/>
-      <c r="G82" s="31"/>
-      <c r="H82" s="29"/>
-      <c r="I82" s="30"/>
-      <c r="J82" s="30"/>
-      <c r="K82" s="30"/>
-      <c r="L82" s="30"/>
-      <c r="M82" s="30"/>
-      <c r="N82" s="30"/>
-      <c r="O82" s="31"/>
-      <c r="P82" s="29"/>
-      <c r="Q82" s="30"/>
-      <c r="R82" s="31"/>
-      <c r="S82" s="29"/>
-      <c r="T82" s="30"/>
-      <c r="U82" s="31"/>
-      <c r="V82" s="29"/>
-      <c r="W82" s="30"/>
-      <c r="X82" s="31"/>
-      <c r="Y82" s="29"/>
-      <c r="Z82" s="30"/>
-      <c r="AA82" s="31"/>
+      <c r="A82" s="40"/>
+      <c r="B82" s="41"/>
+      <c r="C82" s="40"/>
+      <c r="D82" s="42"/>
+      <c r="E82" s="42"/>
+      <c r="F82" s="42"/>
+      <c r="G82" s="41"/>
+      <c r="H82" s="40"/>
+      <c r="I82" s="42"/>
+      <c r="J82" s="42"/>
+      <c r="K82" s="42"/>
+      <c r="L82" s="42"/>
+      <c r="M82" s="42"/>
+      <c r="N82" s="42"/>
+      <c r="O82" s="41"/>
+      <c r="P82" s="40"/>
+      <c r="Q82" s="42"/>
+      <c r="R82" s="41"/>
+      <c r="S82" s="40"/>
+      <c r="T82" s="42"/>
+      <c r="U82" s="41"/>
+      <c r="V82" s="40"/>
+      <c r="W82" s="42"/>
+      <c r="X82" s="41"/>
+      <c r="Y82" s="40"/>
+      <c r="Z82" s="42"/>
+      <c r="AA82" s="41"/>
     </row>
     <row r="83" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="29"/>
-      <c r="B83" s="31"/>
-      <c r="C83" s="29"/>
-      <c r="D83" s="30"/>
-      <c r="E83" s="30"/>
-      <c r="F83" s="30"/>
-      <c r="G83" s="31"/>
-      <c r="H83" s="29"/>
-      <c r="I83" s="30"/>
-      <c r="J83" s="30"/>
-      <c r="K83" s="30"/>
-      <c r="L83" s="30"/>
-      <c r="M83" s="30"/>
-      <c r="N83" s="30"/>
-      <c r="O83" s="31"/>
-      <c r="P83" s="29"/>
-      <c r="Q83" s="30"/>
-      <c r="R83" s="31"/>
-      <c r="S83" s="29"/>
-      <c r="T83" s="30"/>
-      <c r="U83" s="31"/>
-      <c r="V83" s="29"/>
-      <c r="W83" s="30"/>
-      <c r="X83" s="31"/>
-      <c r="Y83" s="29"/>
-      <c r="Z83" s="30"/>
-      <c r="AA83" s="31"/>
+      <c r="A83" s="40"/>
+      <c r="B83" s="41"/>
+      <c r="C83" s="40"/>
+      <c r="D83" s="42"/>
+      <c r="E83" s="42"/>
+      <c r="F83" s="42"/>
+      <c r="G83" s="41"/>
+      <c r="H83" s="40"/>
+      <c r="I83" s="42"/>
+      <c r="J83" s="42"/>
+      <c r="K83" s="42"/>
+      <c r="L83" s="42"/>
+      <c r="M83" s="42"/>
+      <c r="N83" s="42"/>
+      <c r="O83" s="41"/>
+      <c r="P83" s="40"/>
+      <c r="Q83" s="42"/>
+      <c r="R83" s="41"/>
+      <c r="S83" s="40"/>
+      <c r="T83" s="42"/>
+      <c r="U83" s="41"/>
+      <c r="V83" s="40"/>
+      <c r="W83" s="42"/>
+      <c r="X83" s="41"/>
+      <c r="Y83" s="40"/>
+      <c r="Z83" s="42"/>
+      <c r="AA83" s="41"/>
     </row>
     <row r="84" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="29"/>
-      <c r="B84" s="31"/>
-      <c r="C84" s="29"/>
-      <c r="D84" s="30"/>
-      <c r="E84" s="30"/>
-      <c r="F84" s="30"/>
-      <c r="G84" s="31"/>
-      <c r="H84" s="29"/>
-      <c r="I84" s="30"/>
-      <c r="J84" s="30"/>
-      <c r="K84" s="30"/>
-      <c r="L84" s="30"/>
-      <c r="M84" s="30"/>
-      <c r="N84" s="30"/>
-      <c r="O84" s="31"/>
-      <c r="P84" s="29"/>
-      <c r="Q84" s="30"/>
-      <c r="R84" s="31"/>
-      <c r="S84" s="29"/>
-      <c r="T84" s="30"/>
-      <c r="U84" s="31"/>
-      <c r="V84" s="29"/>
-      <c r="W84" s="30"/>
-      <c r="X84" s="31"/>
-      <c r="Y84" s="29"/>
-      <c r="Z84" s="30"/>
-      <c r="AA84" s="31"/>
+      <c r="A84" s="40"/>
+      <c r="B84" s="41"/>
+      <c r="C84" s="40"/>
+      <c r="D84" s="42"/>
+      <c r="E84" s="42"/>
+      <c r="F84" s="42"/>
+      <c r="G84" s="41"/>
+      <c r="H84" s="40"/>
+      <c r="I84" s="42"/>
+      <c r="J84" s="42"/>
+      <c r="K84" s="42"/>
+      <c r="L84" s="42"/>
+      <c r="M84" s="42"/>
+      <c r="N84" s="42"/>
+      <c r="O84" s="41"/>
+      <c r="P84" s="40"/>
+      <c r="Q84" s="42"/>
+      <c r="R84" s="41"/>
+      <c r="S84" s="40"/>
+      <c r="T84" s="42"/>
+      <c r="U84" s="41"/>
+      <c r="V84" s="40"/>
+      <c r="W84" s="42"/>
+      <c r="X84" s="41"/>
+      <c r="Y84" s="40"/>
+      <c r="Z84" s="42"/>
+      <c r="AA84" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="553">
+    <mergeCell ref="Y82:AA82"/>
+    <mergeCell ref="Y83:AA83"/>
+    <mergeCell ref="Y73:AA73"/>
+    <mergeCell ref="Y74:AA74"/>
+    <mergeCell ref="Y75:AA75"/>
+    <mergeCell ref="Y76:AA76"/>
+    <mergeCell ref="Y77:AA77"/>
+    <mergeCell ref="Y78:AA78"/>
+    <mergeCell ref="Y79:AA79"/>
+    <mergeCell ref="Y80:AA80"/>
+    <mergeCell ref="Y81:AA81"/>
+    <mergeCell ref="Y64:AA64"/>
+    <mergeCell ref="Y65:AA65"/>
+    <mergeCell ref="Y66:AA66"/>
+    <mergeCell ref="Y67:AA67"/>
+    <mergeCell ref="Y68:AA68"/>
+    <mergeCell ref="Y69:AA69"/>
+    <mergeCell ref="Y70:AA70"/>
+    <mergeCell ref="Y71:AA71"/>
+    <mergeCell ref="Y72:AA72"/>
+    <mergeCell ref="Y55:AA55"/>
+    <mergeCell ref="Y56:AA56"/>
+    <mergeCell ref="Y57:AA57"/>
+    <mergeCell ref="Y58:AA58"/>
+    <mergeCell ref="Y59:AA59"/>
+    <mergeCell ref="Y60:AA60"/>
+    <mergeCell ref="Y61:AA61"/>
+    <mergeCell ref="Y62:AA62"/>
+    <mergeCell ref="Y63:AA63"/>
+    <mergeCell ref="V80:X80"/>
+    <mergeCell ref="V81:X81"/>
+    <mergeCell ref="V82:X82"/>
+    <mergeCell ref="V83:X83"/>
+    <mergeCell ref="Y35:AA35"/>
+    <mergeCell ref="Y36:AA36"/>
+    <mergeCell ref="Y37:AA37"/>
+    <mergeCell ref="Y38:AA38"/>
+    <mergeCell ref="Y39:AA39"/>
+    <mergeCell ref="Y40:AA40"/>
+    <mergeCell ref="Y41:AA41"/>
+    <mergeCell ref="Y42:AA42"/>
+    <mergeCell ref="Y43:AA43"/>
+    <mergeCell ref="Y44:AA44"/>
+    <mergeCell ref="Y45:AA45"/>
+    <mergeCell ref="Y46:AA46"/>
+    <mergeCell ref="Y47:AA47"/>
+    <mergeCell ref="Y48:AA48"/>
+    <mergeCell ref="Y49:AA49"/>
+    <mergeCell ref="Y50:AA50"/>
+    <mergeCell ref="Y51:AA51"/>
+    <mergeCell ref="Y52:AA52"/>
+    <mergeCell ref="Y53:AA53"/>
+    <mergeCell ref="Y54:AA54"/>
+    <mergeCell ref="V71:X71"/>
+    <mergeCell ref="V72:X72"/>
+    <mergeCell ref="V73:X73"/>
+    <mergeCell ref="V74:X74"/>
+    <mergeCell ref="V75:X75"/>
+    <mergeCell ref="V76:X76"/>
+    <mergeCell ref="V77:X77"/>
+    <mergeCell ref="V78:X78"/>
+    <mergeCell ref="V79:X79"/>
+    <mergeCell ref="V62:X62"/>
+    <mergeCell ref="V63:X63"/>
+    <mergeCell ref="V64:X64"/>
+    <mergeCell ref="V65:X65"/>
+    <mergeCell ref="V66:X66"/>
+    <mergeCell ref="V67:X67"/>
+    <mergeCell ref="V68:X68"/>
+    <mergeCell ref="V69:X69"/>
+    <mergeCell ref="V70:X70"/>
+    <mergeCell ref="V53:X53"/>
+    <mergeCell ref="V54:X54"/>
+    <mergeCell ref="V55:X55"/>
+    <mergeCell ref="V56:X56"/>
+    <mergeCell ref="V57:X57"/>
+    <mergeCell ref="V58:X58"/>
+    <mergeCell ref="V59:X59"/>
+    <mergeCell ref="V60:X60"/>
+    <mergeCell ref="V61:X61"/>
+    <mergeCell ref="V44:X44"/>
+    <mergeCell ref="V45:X45"/>
+    <mergeCell ref="V46:X46"/>
+    <mergeCell ref="V47:X47"/>
+    <mergeCell ref="V48:X48"/>
+    <mergeCell ref="V49:X49"/>
+    <mergeCell ref="V50:X50"/>
+    <mergeCell ref="V51:X51"/>
+    <mergeCell ref="V52:X52"/>
+    <mergeCell ref="V35:X35"/>
+    <mergeCell ref="V36:X36"/>
+    <mergeCell ref="V37:X37"/>
+    <mergeCell ref="V38:X38"/>
+    <mergeCell ref="V39:X39"/>
+    <mergeCell ref="V40:X40"/>
+    <mergeCell ref="V41:X41"/>
+    <mergeCell ref="V42:X42"/>
+    <mergeCell ref="V43:X43"/>
+    <mergeCell ref="S75:U75"/>
+    <mergeCell ref="S76:U76"/>
+    <mergeCell ref="S77:U77"/>
+    <mergeCell ref="S78:U78"/>
+    <mergeCell ref="S79:U79"/>
+    <mergeCell ref="S80:U80"/>
+    <mergeCell ref="S81:U81"/>
+    <mergeCell ref="S82:U82"/>
+    <mergeCell ref="S83:U83"/>
+    <mergeCell ref="S66:U66"/>
+    <mergeCell ref="S67:U67"/>
+    <mergeCell ref="S68:U68"/>
+    <mergeCell ref="S69:U69"/>
+    <mergeCell ref="S70:U70"/>
+    <mergeCell ref="S71:U71"/>
+    <mergeCell ref="S72:U72"/>
+    <mergeCell ref="S73:U73"/>
+    <mergeCell ref="S74:U74"/>
+    <mergeCell ref="S57:U57"/>
+    <mergeCell ref="S58:U58"/>
+    <mergeCell ref="S59:U59"/>
+    <mergeCell ref="S60:U60"/>
+    <mergeCell ref="S61:U61"/>
+    <mergeCell ref="S62:U62"/>
+    <mergeCell ref="S63:U63"/>
+    <mergeCell ref="S64:U64"/>
+    <mergeCell ref="S65:U65"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="S37:U37"/>
+    <mergeCell ref="S38:U38"/>
+    <mergeCell ref="S39:U39"/>
+    <mergeCell ref="S40:U40"/>
+    <mergeCell ref="S41:U41"/>
+    <mergeCell ref="S42:U42"/>
+    <mergeCell ref="S43:U43"/>
+    <mergeCell ref="S44:U44"/>
+    <mergeCell ref="S45:U45"/>
+    <mergeCell ref="S46:U46"/>
+    <mergeCell ref="S47:U47"/>
+    <mergeCell ref="S48:U48"/>
+    <mergeCell ref="S49:U49"/>
+    <mergeCell ref="S50:U50"/>
+    <mergeCell ref="S51:U51"/>
+    <mergeCell ref="S52:U52"/>
+    <mergeCell ref="S53:U53"/>
+    <mergeCell ref="S54:U54"/>
+    <mergeCell ref="S55:U55"/>
+    <mergeCell ref="S56:U56"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="P75:R75"/>
+    <mergeCell ref="P76:R76"/>
+    <mergeCell ref="P77:R77"/>
+    <mergeCell ref="P78:R78"/>
+    <mergeCell ref="P79:R79"/>
+    <mergeCell ref="P80:R80"/>
+    <mergeCell ref="P81:R81"/>
+    <mergeCell ref="P82:R82"/>
+    <mergeCell ref="P83:R83"/>
+    <mergeCell ref="P66:R66"/>
+    <mergeCell ref="P67:R67"/>
+    <mergeCell ref="P68:R68"/>
+    <mergeCell ref="P69:R69"/>
+    <mergeCell ref="P70:R70"/>
+    <mergeCell ref="P71:R71"/>
+    <mergeCell ref="P72:R72"/>
+    <mergeCell ref="P73:R73"/>
+    <mergeCell ref="P74:R74"/>
+    <mergeCell ref="P57:R57"/>
+    <mergeCell ref="P58:R58"/>
+    <mergeCell ref="P59:R59"/>
+    <mergeCell ref="P60:R60"/>
+    <mergeCell ref="P61:R61"/>
+    <mergeCell ref="P62:R62"/>
+    <mergeCell ref="P63:R63"/>
+    <mergeCell ref="P64:R64"/>
+    <mergeCell ref="P65:R65"/>
+    <mergeCell ref="P48:R48"/>
+    <mergeCell ref="P49:R49"/>
+    <mergeCell ref="P50:R50"/>
+    <mergeCell ref="P51:R51"/>
+    <mergeCell ref="P52:R52"/>
+    <mergeCell ref="P53:R53"/>
+    <mergeCell ref="P54:R54"/>
+    <mergeCell ref="P55:R55"/>
+    <mergeCell ref="P56:R56"/>
+    <mergeCell ref="P39:R39"/>
+    <mergeCell ref="P40:R40"/>
+    <mergeCell ref="P41:R41"/>
+    <mergeCell ref="P42:R42"/>
+    <mergeCell ref="P43:R43"/>
+    <mergeCell ref="P44:R44"/>
+    <mergeCell ref="P45:R45"/>
+    <mergeCell ref="P46:R46"/>
+    <mergeCell ref="P47:R47"/>
+    <mergeCell ref="H75:O75"/>
+    <mergeCell ref="H76:O76"/>
+    <mergeCell ref="H77:O77"/>
+    <mergeCell ref="H78:O78"/>
+    <mergeCell ref="H79:O79"/>
+    <mergeCell ref="H80:O80"/>
+    <mergeCell ref="H81:O81"/>
+    <mergeCell ref="H82:O82"/>
+    <mergeCell ref="H83:O83"/>
+    <mergeCell ref="H66:O66"/>
+    <mergeCell ref="H67:O67"/>
+    <mergeCell ref="H68:O68"/>
+    <mergeCell ref="H69:O69"/>
+    <mergeCell ref="H70:O70"/>
+    <mergeCell ref="H71:O71"/>
+    <mergeCell ref="H72:O72"/>
+    <mergeCell ref="H73:O73"/>
+    <mergeCell ref="H74:O74"/>
+    <mergeCell ref="H57:O57"/>
+    <mergeCell ref="H58:O58"/>
+    <mergeCell ref="H59:O59"/>
+    <mergeCell ref="H60:O60"/>
+    <mergeCell ref="H61:O61"/>
+    <mergeCell ref="H62:O62"/>
+    <mergeCell ref="H63:O63"/>
+    <mergeCell ref="H64:O64"/>
+    <mergeCell ref="H65:O65"/>
+    <mergeCell ref="H48:O48"/>
+    <mergeCell ref="H49:O49"/>
+    <mergeCell ref="H50:O50"/>
+    <mergeCell ref="H51:O51"/>
+    <mergeCell ref="H52:O52"/>
+    <mergeCell ref="H53:O53"/>
+    <mergeCell ref="H54:O54"/>
+    <mergeCell ref="H55:O55"/>
+    <mergeCell ref="H56:O56"/>
+    <mergeCell ref="H39:O39"/>
+    <mergeCell ref="H40:O40"/>
+    <mergeCell ref="H41:O41"/>
+    <mergeCell ref="H42:O42"/>
+    <mergeCell ref="H43:O43"/>
+    <mergeCell ref="H44:O44"/>
+    <mergeCell ref="H45:O45"/>
+    <mergeCell ref="H46:O46"/>
+    <mergeCell ref="H47:O47"/>
+    <mergeCell ref="C75:G75"/>
+    <mergeCell ref="C76:G76"/>
+    <mergeCell ref="C77:G77"/>
+    <mergeCell ref="C78:G78"/>
+    <mergeCell ref="C79:G79"/>
+    <mergeCell ref="C80:G80"/>
+    <mergeCell ref="C81:G81"/>
+    <mergeCell ref="C82:G82"/>
+    <mergeCell ref="C83:G83"/>
+    <mergeCell ref="C66:G66"/>
+    <mergeCell ref="C67:G67"/>
+    <mergeCell ref="C68:G68"/>
+    <mergeCell ref="C69:G69"/>
+    <mergeCell ref="C70:G70"/>
+    <mergeCell ref="C71:G71"/>
+    <mergeCell ref="C72:G72"/>
+    <mergeCell ref="C73:G73"/>
+    <mergeCell ref="C74:G74"/>
+    <mergeCell ref="C57:G57"/>
+    <mergeCell ref="C58:G58"/>
+    <mergeCell ref="C59:G59"/>
+    <mergeCell ref="C60:G60"/>
+    <mergeCell ref="C61:G61"/>
+    <mergeCell ref="C62:G62"/>
+    <mergeCell ref="C63:G63"/>
+    <mergeCell ref="C64:G64"/>
+    <mergeCell ref="C65:G65"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="C52:G52"/>
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="C54:G54"/>
+    <mergeCell ref="C55:G55"/>
+    <mergeCell ref="C56:G56"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="P35:R35"/>
+    <mergeCell ref="H35:O35"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="P36:R36"/>
+    <mergeCell ref="S35:U35"/>
+    <mergeCell ref="S36:U36"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H36:O36"/>
+    <mergeCell ref="H37:O37"/>
+    <mergeCell ref="H38:O38"/>
+    <mergeCell ref="P37:R37"/>
+    <mergeCell ref="P38:R38"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="H7:O7"/>
+    <mergeCell ref="P7:R7"/>
+    <mergeCell ref="S7:U7"/>
+    <mergeCell ref="V7:X7"/>
+    <mergeCell ref="Y7:AA7"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="H9:O9"/>
+    <mergeCell ref="P9:R9"/>
+    <mergeCell ref="S9:U9"/>
+    <mergeCell ref="V9:X9"/>
+    <mergeCell ref="Y9:AA9"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H8:O8"/>
+    <mergeCell ref="P8:R8"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="V8:X8"/>
+    <mergeCell ref="Y8:AA8"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="Y33:AA33"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="H32:O32"/>
+    <mergeCell ref="P32:R32"/>
+    <mergeCell ref="S32:U32"/>
+    <mergeCell ref="V32:X32"/>
+    <mergeCell ref="Y30:AA30"/>
+    <mergeCell ref="Y31:AA31"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:O30"/>
+    <mergeCell ref="P30:R30"/>
+    <mergeCell ref="S30:U30"/>
+    <mergeCell ref="V30:X30"/>
+    <mergeCell ref="H31:O31"/>
+    <mergeCell ref="P31:R31"/>
+    <mergeCell ref="S31:U31"/>
+    <mergeCell ref="V31:X31"/>
+    <mergeCell ref="Y34:AA34"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H34:O34"/>
+    <mergeCell ref="P34:R34"/>
+    <mergeCell ref="S34:U34"/>
+    <mergeCell ref="V34:X34"/>
+    <mergeCell ref="Y32:AA32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H33:O33"/>
+    <mergeCell ref="P33:R33"/>
+    <mergeCell ref="S33:U33"/>
+    <mergeCell ref="V33:X33"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H28:O28"/>
+    <mergeCell ref="P28:R28"/>
+    <mergeCell ref="S28:U28"/>
+    <mergeCell ref="V28:X28"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H26:O26"/>
+    <mergeCell ref="P26:R26"/>
+    <mergeCell ref="S26:U26"/>
+    <mergeCell ref="V26:X26"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="Y28:AA28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="H29:O29"/>
+    <mergeCell ref="P29:R29"/>
+    <mergeCell ref="S29:U29"/>
+    <mergeCell ref="V29:X29"/>
+    <mergeCell ref="Y29:AA29"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="Y25:AA25"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="H25:O25"/>
+    <mergeCell ref="P25:R25"/>
+    <mergeCell ref="S25:U25"/>
+    <mergeCell ref="V25:X25"/>
+    <mergeCell ref="Y26:AA26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="H27:O27"/>
+    <mergeCell ref="P27:R27"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="V27:X27"/>
+    <mergeCell ref="Y27:AA27"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:O24"/>
+    <mergeCell ref="P24:R24"/>
+    <mergeCell ref="S24:U24"/>
+    <mergeCell ref="V24:X24"/>
+    <mergeCell ref="Y24:AA24"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:O22"/>
+    <mergeCell ref="P22:R22"/>
+    <mergeCell ref="S22:U22"/>
+    <mergeCell ref="V22:X22"/>
+    <mergeCell ref="Y22:AA22"/>
+    <mergeCell ref="S23:U23"/>
+    <mergeCell ref="V23:X23"/>
+    <mergeCell ref="Y23:AA23"/>
+    <mergeCell ref="H23:O23"/>
+    <mergeCell ref="P23:R23"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="H21:O21"/>
+    <mergeCell ref="S21:U21"/>
+    <mergeCell ref="V21:X21"/>
+    <mergeCell ref="Y21:AA21"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H18:O18"/>
+    <mergeCell ref="P21:R21"/>
+    <mergeCell ref="Y18:AA18"/>
+    <mergeCell ref="H19:O19"/>
+    <mergeCell ref="P19:R19"/>
+    <mergeCell ref="S19:U19"/>
+    <mergeCell ref="V19:X19"/>
+    <mergeCell ref="Y19:AA19"/>
+    <mergeCell ref="P18:R18"/>
+    <mergeCell ref="S18:U18"/>
+    <mergeCell ref="V18:X18"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="P17:R17"/>
+    <mergeCell ref="S17:U17"/>
+    <mergeCell ref="V17:X17"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="Y20:AA20"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="H20:O20"/>
+    <mergeCell ref="P20:R20"/>
+    <mergeCell ref="S20:U20"/>
+    <mergeCell ref="V20:X20"/>
+    <mergeCell ref="Y17:AA17"/>
+    <mergeCell ref="H17:O17"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H16:O16"/>
+    <mergeCell ref="P16:R16"/>
+    <mergeCell ref="S16:U16"/>
+    <mergeCell ref="V16:X16"/>
+    <mergeCell ref="Y16:AA16"/>
+    <mergeCell ref="Y13:AA13"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="H15:O15"/>
+    <mergeCell ref="P15:R15"/>
+    <mergeCell ref="S15:U15"/>
+    <mergeCell ref="V15:X15"/>
+    <mergeCell ref="Y15:AA15"/>
+    <mergeCell ref="Y14:AA14"/>
+    <mergeCell ref="P13:R13"/>
+    <mergeCell ref="H13:O13"/>
+    <mergeCell ref="P12:R12"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="V13:X13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:O14"/>
+    <mergeCell ref="P14:R14"/>
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="V14:X14"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H12:O12"/>
+    <mergeCell ref="V12:X12"/>
+    <mergeCell ref="S12:U12"/>
+    <mergeCell ref="Y11:AA11"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="H11:O11"/>
+    <mergeCell ref="P11:R11"/>
+    <mergeCell ref="S11:U11"/>
+    <mergeCell ref="V11:X11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="Y12:AA12"/>
+    <mergeCell ref="Y10:AA10"/>
     <mergeCell ref="A84:B84"/>
     <mergeCell ref="C84:G84"/>
     <mergeCell ref="H84:O84"/>
@@ -7342,555 +7946,26 @@
     <mergeCell ref="H1:AC2"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="C11:G11"/>
-    <mergeCell ref="Y11:AA11"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="H11:O11"/>
-    <mergeCell ref="P11:R11"/>
-    <mergeCell ref="S11:U11"/>
-    <mergeCell ref="V11:X11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="H13:O13"/>
-    <mergeCell ref="P12:R12"/>
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="V13:X13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="H14:O14"/>
-    <mergeCell ref="P14:R14"/>
-    <mergeCell ref="S14:U14"/>
-    <mergeCell ref="V14:X14"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="H12:O12"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="H16:O16"/>
-    <mergeCell ref="P16:R16"/>
-    <mergeCell ref="S16:U16"/>
-    <mergeCell ref="V16:X16"/>
-    <mergeCell ref="Y16:AA16"/>
-    <mergeCell ref="Y13:AA13"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="H15:O15"/>
-    <mergeCell ref="P15:R15"/>
-    <mergeCell ref="S15:U15"/>
-    <mergeCell ref="V15:X15"/>
-    <mergeCell ref="Y15:AA15"/>
-    <mergeCell ref="Y14:AA14"/>
-    <mergeCell ref="P13:R13"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="P17:R17"/>
-    <mergeCell ref="S17:U17"/>
-    <mergeCell ref="V17:X17"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="Y20:AA20"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="H20:O20"/>
-    <mergeCell ref="P20:R20"/>
-    <mergeCell ref="S20:U20"/>
-    <mergeCell ref="V20:X20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="H21:O21"/>
-    <mergeCell ref="S21:U21"/>
-    <mergeCell ref="V21:X21"/>
-    <mergeCell ref="Y21:AA21"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="H18:O18"/>
-    <mergeCell ref="P21:R21"/>
-    <mergeCell ref="Y18:AA18"/>
-    <mergeCell ref="H19:O19"/>
-    <mergeCell ref="P19:R19"/>
-    <mergeCell ref="S19:U19"/>
-    <mergeCell ref="V19:X19"/>
-    <mergeCell ref="Y19:AA19"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="H24:O24"/>
-    <mergeCell ref="P24:R24"/>
-    <mergeCell ref="S24:U24"/>
-    <mergeCell ref="V24:X24"/>
-    <mergeCell ref="Y24:AA24"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="H22:O22"/>
-    <mergeCell ref="P22:R22"/>
-    <mergeCell ref="S22:U22"/>
-    <mergeCell ref="V22:X22"/>
-    <mergeCell ref="Y22:AA22"/>
-    <mergeCell ref="S23:U23"/>
-    <mergeCell ref="V23:X23"/>
-    <mergeCell ref="Y23:AA23"/>
-    <mergeCell ref="H23:O23"/>
-    <mergeCell ref="P23:R23"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="Y25:AA25"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="H25:O25"/>
-    <mergeCell ref="P25:R25"/>
-    <mergeCell ref="S25:U25"/>
-    <mergeCell ref="V25:X25"/>
-    <mergeCell ref="Y26:AA26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="H27:O27"/>
-    <mergeCell ref="P27:R27"/>
-    <mergeCell ref="S27:U27"/>
-    <mergeCell ref="V27:X27"/>
-    <mergeCell ref="Y27:AA27"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="H26:O26"/>
-    <mergeCell ref="P26:R26"/>
-    <mergeCell ref="S26:U26"/>
-    <mergeCell ref="V26:X26"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="Y28:AA28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="H29:O29"/>
-    <mergeCell ref="P29:R29"/>
-    <mergeCell ref="S29:U29"/>
-    <mergeCell ref="V29:X29"/>
-    <mergeCell ref="Y29:AA29"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="Y34:AA34"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="H34:O34"/>
-    <mergeCell ref="P34:R34"/>
-    <mergeCell ref="S34:U34"/>
-    <mergeCell ref="V34:X34"/>
-    <mergeCell ref="Y32:AA32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="H33:O33"/>
-    <mergeCell ref="P33:R33"/>
-    <mergeCell ref="S33:U33"/>
-    <mergeCell ref="V33:X33"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="H28:O28"/>
-    <mergeCell ref="P28:R28"/>
-    <mergeCell ref="S28:U28"/>
-    <mergeCell ref="V28:X28"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="Y33:AA33"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="H32:O32"/>
-    <mergeCell ref="P32:R32"/>
-    <mergeCell ref="S32:U32"/>
-    <mergeCell ref="V32:X32"/>
-    <mergeCell ref="Y30:AA30"/>
-    <mergeCell ref="Y31:AA31"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="H30:O30"/>
-    <mergeCell ref="P30:R30"/>
-    <mergeCell ref="S30:U30"/>
-    <mergeCell ref="V30:X30"/>
-    <mergeCell ref="H31:O31"/>
-    <mergeCell ref="P31:R31"/>
-    <mergeCell ref="S31:U31"/>
-    <mergeCell ref="V31:X31"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="H7:O7"/>
-    <mergeCell ref="P7:R7"/>
-    <mergeCell ref="S7:U7"/>
-    <mergeCell ref="V7:X7"/>
-    <mergeCell ref="Y7:AA7"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="H9:O9"/>
-    <mergeCell ref="P9:R9"/>
-    <mergeCell ref="S9:U9"/>
-    <mergeCell ref="V9:X9"/>
-    <mergeCell ref="Y9:AA9"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="H8:O8"/>
-    <mergeCell ref="P8:R8"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="V8:X8"/>
-    <mergeCell ref="Y8:AA8"/>
-    <mergeCell ref="Y12:AA12"/>
-    <mergeCell ref="V12:X12"/>
-    <mergeCell ref="S12:U12"/>
-    <mergeCell ref="P18:R18"/>
-    <mergeCell ref="S18:U18"/>
-    <mergeCell ref="V18:X18"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="Y17:AA17"/>
-    <mergeCell ref="Y10:AA10"/>
-    <mergeCell ref="H17:O17"/>
-    <mergeCell ref="P35:R35"/>
-    <mergeCell ref="H35:O35"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="P36:R36"/>
-    <mergeCell ref="S35:U35"/>
-    <mergeCell ref="S36:U36"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="H36:O36"/>
-    <mergeCell ref="H37:O37"/>
-    <mergeCell ref="H38:O38"/>
-    <mergeCell ref="P37:R37"/>
-    <mergeCell ref="P38:R38"/>
-    <mergeCell ref="C39:G39"/>
-    <mergeCell ref="C40:G40"/>
-    <mergeCell ref="C41:G41"/>
-    <mergeCell ref="C42:G42"/>
-    <mergeCell ref="C43:G43"/>
-    <mergeCell ref="C44:G44"/>
-    <mergeCell ref="C45:G45"/>
-    <mergeCell ref="C46:G46"/>
-    <mergeCell ref="C47:G47"/>
-    <mergeCell ref="C48:G48"/>
-    <mergeCell ref="C49:G49"/>
-    <mergeCell ref="C50:G50"/>
-    <mergeCell ref="C51:G51"/>
-    <mergeCell ref="C52:G52"/>
-    <mergeCell ref="C53:G53"/>
-    <mergeCell ref="C54:G54"/>
-    <mergeCell ref="C55:G55"/>
-    <mergeCell ref="C56:G56"/>
-    <mergeCell ref="C57:G57"/>
-    <mergeCell ref="C58:G58"/>
-    <mergeCell ref="C59:G59"/>
-    <mergeCell ref="C60:G60"/>
-    <mergeCell ref="C61:G61"/>
-    <mergeCell ref="C62:G62"/>
-    <mergeCell ref="C63:G63"/>
-    <mergeCell ref="C64:G64"/>
-    <mergeCell ref="C65:G65"/>
-    <mergeCell ref="C66:G66"/>
-    <mergeCell ref="C67:G67"/>
-    <mergeCell ref="C68:G68"/>
-    <mergeCell ref="C69:G69"/>
-    <mergeCell ref="C70:G70"/>
-    <mergeCell ref="C71:G71"/>
-    <mergeCell ref="C72:G72"/>
-    <mergeCell ref="C73:G73"/>
-    <mergeCell ref="C74:G74"/>
-    <mergeCell ref="C75:G75"/>
-    <mergeCell ref="C76:G76"/>
-    <mergeCell ref="C77:G77"/>
-    <mergeCell ref="C78:G78"/>
-    <mergeCell ref="C79:G79"/>
-    <mergeCell ref="C80:G80"/>
-    <mergeCell ref="C81:G81"/>
-    <mergeCell ref="C82:G82"/>
-    <mergeCell ref="C83:G83"/>
-    <mergeCell ref="H39:O39"/>
-    <mergeCell ref="H40:O40"/>
-    <mergeCell ref="H41:O41"/>
-    <mergeCell ref="H42:O42"/>
-    <mergeCell ref="H43:O43"/>
-    <mergeCell ref="H44:O44"/>
-    <mergeCell ref="H45:O45"/>
-    <mergeCell ref="H46:O46"/>
-    <mergeCell ref="H47:O47"/>
-    <mergeCell ref="H48:O48"/>
-    <mergeCell ref="H49:O49"/>
-    <mergeCell ref="H50:O50"/>
-    <mergeCell ref="H51:O51"/>
-    <mergeCell ref="H52:O52"/>
-    <mergeCell ref="H53:O53"/>
-    <mergeCell ref="H54:O54"/>
-    <mergeCell ref="H55:O55"/>
-    <mergeCell ref="H56:O56"/>
-    <mergeCell ref="H57:O57"/>
-    <mergeCell ref="H58:O58"/>
-    <mergeCell ref="H59:O59"/>
-    <mergeCell ref="H60:O60"/>
-    <mergeCell ref="H61:O61"/>
-    <mergeCell ref="H62:O62"/>
-    <mergeCell ref="H63:O63"/>
-    <mergeCell ref="H64:O64"/>
-    <mergeCell ref="H65:O65"/>
-    <mergeCell ref="H66:O66"/>
-    <mergeCell ref="H67:O67"/>
-    <mergeCell ref="H68:O68"/>
-    <mergeCell ref="H69:O69"/>
-    <mergeCell ref="H70:O70"/>
-    <mergeCell ref="H71:O71"/>
-    <mergeCell ref="H72:O72"/>
-    <mergeCell ref="H73:O73"/>
-    <mergeCell ref="H74:O74"/>
-    <mergeCell ref="H75:O75"/>
-    <mergeCell ref="H76:O76"/>
-    <mergeCell ref="H77:O77"/>
-    <mergeCell ref="H78:O78"/>
-    <mergeCell ref="H79:O79"/>
-    <mergeCell ref="H80:O80"/>
-    <mergeCell ref="H81:O81"/>
-    <mergeCell ref="H82:O82"/>
-    <mergeCell ref="H83:O83"/>
-    <mergeCell ref="P39:R39"/>
-    <mergeCell ref="P40:R40"/>
-    <mergeCell ref="P41:R41"/>
-    <mergeCell ref="P42:R42"/>
-    <mergeCell ref="P43:R43"/>
-    <mergeCell ref="P44:R44"/>
-    <mergeCell ref="P45:R45"/>
-    <mergeCell ref="P46:R46"/>
-    <mergeCell ref="P47:R47"/>
-    <mergeCell ref="P48:R48"/>
-    <mergeCell ref="P49:R49"/>
-    <mergeCell ref="P50:R50"/>
-    <mergeCell ref="P51:R51"/>
-    <mergeCell ref="P52:R52"/>
-    <mergeCell ref="P53:R53"/>
-    <mergeCell ref="P54:R54"/>
-    <mergeCell ref="P55:R55"/>
-    <mergeCell ref="P56:R56"/>
-    <mergeCell ref="P57:R57"/>
-    <mergeCell ref="P58:R58"/>
-    <mergeCell ref="P59:R59"/>
-    <mergeCell ref="P60:R60"/>
-    <mergeCell ref="P61:R61"/>
-    <mergeCell ref="P62:R62"/>
-    <mergeCell ref="P63:R63"/>
-    <mergeCell ref="P64:R64"/>
-    <mergeCell ref="P65:R65"/>
-    <mergeCell ref="P66:R66"/>
-    <mergeCell ref="P67:R67"/>
-    <mergeCell ref="P68:R68"/>
-    <mergeCell ref="P69:R69"/>
-    <mergeCell ref="P70:R70"/>
-    <mergeCell ref="P71:R71"/>
-    <mergeCell ref="P72:R72"/>
-    <mergeCell ref="P73:R73"/>
-    <mergeCell ref="P74:R74"/>
-    <mergeCell ref="P75:R75"/>
-    <mergeCell ref="P76:R76"/>
-    <mergeCell ref="P77:R77"/>
-    <mergeCell ref="P78:R78"/>
-    <mergeCell ref="P79:R79"/>
-    <mergeCell ref="P80:R80"/>
-    <mergeCell ref="P81:R81"/>
-    <mergeCell ref="P82:R82"/>
-    <mergeCell ref="P83:R83"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="A81:B81"/>
-    <mergeCell ref="A82:B82"/>
-    <mergeCell ref="A83:B83"/>
-    <mergeCell ref="S37:U37"/>
-    <mergeCell ref="S38:U38"/>
-    <mergeCell ref="S39:U39"/>
-    <mergeCell ref="S40:U40"/>
-    <mergeCell ref="S41:U41"/>
-    <mergeCell ref="S42:U42"/>
-    <mergeCell ref="S43:U43"/>
-    <mergeCell ref="S44:U44"/>
-    <mergeCell ref="S45:U45"/>
-    <mergeCell ref="S46:U46"/>
-    <mergeCell ref="S47:U47"/>
-    <mergeCell ref="S48:U48"/>
-    <mergeCell ref="S49:U49"/>
-    <mergeCell ref="S50:U50"/>
-    <mergeCell ref="S51:U51"/>
-    <mergeCell ref="S52:U52"/>
-    <mergeCell ref="S53:U53"/>
-    <mergeCell ref="S54:U54"/>
-    <mergeCell ref="S55:U55"/>
-    <mergeCell ref="S56:U56"/>
-    <mergeCell ref="S57:U57"/>
-    <mergeCell ref="S58:U58"/>
-    <mergeCell ref="S59:U59"/>
-    <mergeCell ref="S60:U60"/>
-    <mergeCell ref="S61:U61"/>
-    <mergeCell ref="S62:U62"/>
-    <mergeCell ref="S63:U63"/>
-    <mergeCell ref="S64:U64"/>
-    <mergeCell ref="S65:U65"/>
-    <mergeCell ref="S66:U66"/>
-    <mergeCell ref="S67:U67"/>
-    <mergeCell ref="S68:U68"/>
-    <mergeCell ref="S69:U69"/>
-    <mergeCell ref="S70:U70"/>
-    <mergeCell ref="S71:U71"/>
-    <mergeCell ref="S72:U72"/>
-    <mergeCell ref="S73:U73"/>
-    <mergeCell ref="S74:U74"/>
-    <mergeCell ref="S75:U75"/>
-    <mergeCell ref="S76:U76"/>
-    <mergeCell ref="S77:U77"/>
-    <mergeCell ref="S78:U78"/>
-    <mergeCell ref="S79:U79"/>
-    <mergeCell ref="S80:U80"/>
-    <mergeCell ref="S81:U81"/>
-    <mergeCell ref="S82:U82"/>
-    <mergeCell ref="S83:U83"/>
-    <mergeCell ref="V35:X35"/>
-    <mergeCell ref="V36:X36"/>
-    <mergeCell ref="V37:X37"/>
-    <mergeCell ref="V38:X38"/>
-    <mergeCell ref="V39:X39"/>
-    <mergeCell ref="V40:X40"/>
-    <mergeCell ref="V41:X41"/>
-    <mergeCell ref="V42:X42"/>
-    <mergeCell ref="V43:X43"/>
-    <mergeCell ref="V44:X44"/>
-    <mergeCell ref="V45:X45"/>
-    <mergeCell ref="V46:X46"/>
-    <mergeCell ref="V47:X47"/>
-    <mergeCell ref="V48:X48"/>
-    <mergeCell ref="V49:X49"/>
-    <mergeCell ref="V50:X50"/>
-    <mergeCell ref="V51:X51"/>
-    <mergeCell ref="V52:X52"/>
-    <mergeCell ref="V53:X53"/>
-    <mergeCell ref="V54:X54"/>
-    <mergeCell ref="V55:X55"/>
-    <mergeCell ref="V56:X56"/>
-    <mergeCell ref="V57:X57"/>
-    <mergeCell ref="V58:X58"/>
-    <mergeCell ref="V59:X59"/>
-    <mergeCell ref="V60:X60"/>
-    <mergeCell ref="V61:X61"/>
-    <mergeCell ref="V62:X62"/>
-    <mergeCell ref="V63:X63"/>
-    <mergeCell ref="V64:X64"/>
-    <mergeCell ref="V65:X65"/>
-    <mergeCell ref="V66:X66"/>
-    <mergeCell ref="V67:X67"/>
-    <mergeCell ref="V68:X68"/>
-    <mergeCell ref="V69:X69"/>
-    <mergeCell ref="V70:X70"/>
-    <mergeCell ref="V71:X71"/>
-    <mergeCell ref="V72:X72"/>
-    <mergeCell ref="V73:X73"/>
-    <mergeCell ref="V74:X74"/>
-    <mergeCell ref="V75:X75"/>
-    <mergeCell ref="V76:X76"/>
-    <mergeCell ref="V77:X77"/>
-    <mergeCell ref="V78:X78"/>
-    <mergeCell ref="V79:X79"/>
-    <mergeCell ref="V80:X80"/>
-    <mergeCell ref="V81:X81"/>
-    <mergeCell ref="V82:X82"/>
-    <mergeCell ref="V83:X83"/>
-    <mergeCell ref="Y35:AA35"/>
-    <mergeCell ref="Y36:AA36"/>
-    <mergeCell ref="Y37:AA37"/>
-    <mergeCell ref="Y38:AA38"/>
-    <mergeCell ref="Y39:AA39"/>
-    <mergeCell ref="Y40:AA40"/>
-    <mergeCell ref="Y41:AA41"/>
-    <mergeCell ref="Y42:AA42"/>
-    <mergeCell ref="Y43:AA43"/>
-    <mergeCell ref="Y44:AA44"/>
-    <mergeCell ref="Y45:AA45"/>
-    <mergeCell ref="Y46:AA46"/>
-    <mergeCell ref="Y47:AA47"/>
-    <mergeCell ref="Y48:AA48"/>
-    <mergeCell ref="Y49:AA49"/>
-    <mergeCell ref="Y50:AA50"/>
-    <mergeCell ref="Y51:AA51"/>
-    <mergeCell ref="Y52:AA52"/>
-    <mergeCell ref="Y53:AA53"/>
-    <mergeCell ref="Y54:AA54"/>
-    <mergeCell ref="Y55:AA55"/>
-    <mergeCell ref="Y56:AA56"/>
-    <mergeCell ref="Y57:AA57"/>
-    <mergeCell ref="Y58:AA58"/>
-    <mergeCell ref="Y59:AA59"/>
-    <mergeCell ref="Y60:AA60"/>
-    <mergeCell ref="Y61:AA61"/>
-    <mergeCell ref="Y62:AA62"/>
-    <mergeCell ref="Y63:AA63"/>
-    <mergeCell ref="Y64:AA64"/>
-    <mergeCell ref="Y65:AA65"/>
-    <mergeCell ref="Y66:AA66"/>
-    <mergeCell ref="Y67:AA67"/>
-    <mergeCell ref="Y68:AA68"/>
-    <mergeCell ref="Y69:AA69"/>
-    <mergeCell ref="Y70:AA70"/>
-    <mergeCell ref="Y71:AA71"/>
-    <mergeCell ref="Y72:AA72"/>
-    <mergeCell ref="Y82:AA82"/>
-    <mergeCell ref="Y83:AA83"/>
-    <mergeCell ref="Y73:AA73"/>
-    <mergeCell ref="Y74:AA74"/>
-    <mergeCell ref="Y75:AA75"/>
-    <mergeCell ref="Y76:AA76"/>
-    <mergeCell ref="Y77:AA77"/>
-    <mergeCell ref="Y78:AA78"/>
-    <mergeCell ref="Y79:AA79"/>
-    <mergeCell ref="Y80:AA80"/>
-    <mergeCell ref="Y81:AA81"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="AC5:BE6">
-    <cfRule type="expression" dxfId="8" priority="14">
+    <cfRule type="expression" dxfId="12" priority="14">
       <formula>TEXT(AC5,"aaa")="土"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="15">
+    <cfRule type="expression" dxfId="11" priority="15">
       <formula>TEXT(AC5,"aaa")="日"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB5:AB6">
-    <cfRule type="expression" dxfId="6" priority="6">
+    <cfRule type="expression" dxfId="10" priority="6">
       <formula>TEXT(AB5,"aaa")="日"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="7">
+    <cfRule type="expression" dxfId="9" priority="7">
       <formula>TEXT(AB5,"aaa")="土"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB4:BE4">
-    <cfRule type="notContainsBlanks" dxfId="4" priority="16">
+    <cfRule type="notContainsBlanks" dxfId="8" priority="16">
       <formula>LEN(TRIM(AB4))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7901,10 +7976,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EE5FFCF-2BA3-4793-93A7-7576178DC40B}">
-  <dimension ref="B2:H51"/>
+  <dimension ref="B2:AL51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="68" workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="68" workbookViewId="0">
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -7913,1025 +7988,2046 @@
     <col min="4" max="4" width="29.58203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.83203125" customWidth="1"/>
     <col min="6" max="6" width="58.83203125" customWidth="1"/>
-    <col min="7" max="7" width="16.08203125" style="97" customWidth="1"/>
-    <col min="8" max="8" width="13.6640625" style="97" customWidth="1"/>
+    <col min="7" max="7" width="16.08203125" style="36" customWidth="1"/>
+    <col min="8" max="8" width="13.6640625" style="36" customWidth="1"/>
+    <col min="9" max="9" width="4.25" customWidth="1"/>
+    <col min="10" max="10" width="4.75" customWidth="1"/>
+    <col min="11" max="11" width="4.6640625" customWidth="1"/>
+    <col min="12" max="12" width="4.1640625" customWidth="1"/>
+    <col min="13" max="13" width="4.25" customWidth="1"/>
+    <col min="37" max="37" width="10.08203125" customWidth="1"/>
+    <col min="38" max="38" width="8.6640625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B2" s="90" t="s">
+    <row r="2" spans="2:38" ht="16" x14ac:dyDescent="0.3">
+      <c r="B2" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="90" t="s">
+      <c r="C2" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="90" t="s">
+      <c r="D2" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="E2" s="90" t="s">
+      <c r="E2" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="F2" s="90" t="s">
+      <c r="F2" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="G2" s="91" t="s">
+      <c r="G2" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="H2" s="91" t="s">
+      <c r="H2" s="30" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B3" s="92">
+      <c r="I2" s="7">
+        <v>45078</v>
+      </c>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="8"/>
+      <c r="U2" s="8"/>
+      <c r="V2" s="8"/>
+      <c r="W2" s="8"/>
+      <c r="X2" s="8"/>
+      <c r="Y2" s="8"/>
+      <c r="Z2" s="8"/>
+      <c r="AA2" s="8"/>
+      <c r="AB2" s="8"/>
+      <c r="AC2" s="8"/>
+      <c r="AD2" s="8"/>
+      <c r="AE2" s="8"/>
+      <c r="AF2" s="8"/>
+      <c r="AG2" s="8"/>
+      <c r="AH2" s="8"/>
+      <c r="AI2" s="8"/>
+      <c r="AJ2" s="8"/>
+      <c r="AK2" s="8"/>
+      <c r="AL2" s="8"/>
+    </row>
+    <row r="3" spans="2:38" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="B3" s="34">
         <v>1</v>
       </c>
-      <c r="C3" s="92" t="s">
+      <c r="C3" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="92" t="s">
+      <c r="D3" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="92" t="s">
+      <c r="E3" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="92" t="s">
+      <c r="F3" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="G3" s="93" t="s">
+      <c r="G3" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="H3" s="101" t="s">
+      <c r="H3" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" s="102">
+        <v>45078</v>
+      </c>
+      <c r="J3" s="102">
+        <v>45079</v>
+      </c>
+      <c r="K3" s="102">
+        <v>45080</v>
+      </c>
+      <c r="L3" s="102">
+        <v>45081</v>
+      </c>
+      <c r="M3" s="102">
+        <v>45082</v>
+      </c>
+      <c r="N3" s="102">
+        <v>45083</v>
+      </c>
+      <c r="O3" s="102">
+        <v>45084</v>
+      </c>
+      <c r="P3" s="102">
+        <v>45085</v>
+      </c>
+      <c r="Q3" s="102">
+        <v>45086</v>
+      </c>
+      <c r="R3" s="102">
+        <v>45087</v>
+      </c>
+      <c r="S3" s="102">
+        <v>45088</v>
+      </c>
+      <c r="T3" s="102">
+        <v>45089</v>
+      </c>
+      <c r="U3" s="102">
+        <v>45090</v>
+      </c>
+      <c r="V3" s="102">
+        <v>45091</v>
+      </c>
+      <c r="W3" s="102">
+        <v>45092</v>
+      </c>
+      <c r="X3" s="102">
+        <v>45093</v>
+      </c>
+      <c r="Y3" s="102">
+        <v>45094</v>
+      </c>
+      <c r="Z3" s="102">
+        <v>45095</v>
+      </c>
+      <c r="AA3" s="102">
+        <v>45096</v>
+      </c>
+      <c r="AB3" s="102">
+        <v>45097</v>
+      </c>
+      <c r="AC3" s="102">
+        <v>45098</v>
+      </c>
+      <c r="AD3" s="102">
+        <v>45099</v>
+      </c>
+      <c r="AE3" s="102">
+        <v>45100</v>
+      </c>
+      <c r="AF3" s="102">
+        <v>45101</v>
+      </c>
+      <c r="AG3" s="102">
+        <v>45102</v>
+      </c>
+      <c r="AH3" s="102">
+        <v>45103</v>
+      </c>
+      <c r="AI3" s="102">
+        <v>45104</v>
+      </c>
+      <c r="AJ3" s="102">
+        <v>45105</v>
+      </c>
+      <c r="AK3" s="102">
+        <v>45106</v>
+      </c>
+      <c r="AL3" s="102">
+        <v>45107</v>
+      </c>
+    </row>
+    <row r="4" spans="2:38" ht="16" x14ac:dyDescent="0.3">
+      <c r="B4" s="34">
+        <v>2</v>
+      </c>
+      <c r="C4" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="F4" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="G4" s="35" t="s">
+        <v>163</v>
+      </c>
+      <c r="H4" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="O4" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="P4" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q4" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="R4" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="S4" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="T4" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="U4" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="V4" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="W4" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="X4" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="Y4" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="Z4" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="AA4" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="AB4" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="AC4" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="AD4" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="AE4" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="AF4" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="AG4" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="AH4" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="AI4" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="AJ4" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="AK4" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="AL4" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="5" spans="2:38" ht="16" x14ac:dyDescent="0.3">
+      <c r="B5" s="34">
+        <v>3</v>
+      </c>
+      <c r="C5" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="F5" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="G5" s="35" t="s">
+        <v>164</v>
+      </c>
+      <c r="H5" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
+      <c r="X5" s="4"/>
+      <c r="Y5" s="4"/>
+      <c r="Z5" s="4"/>
+      <c r="AA5" s="4"/>
+      <c r="AB5" s="4"/>
+      <c r="AC5" s="4"/>
+      <c r="AD5" s="4"/>
+      <c r="AE5" s="4"/>
+      <c r="AF5" s="4"/>
+      <c r="AG5" s="4"/>
+      <c r="AH5" s="4"/>
+      <c r="AI5" s="4"/>
+      <c r="AJ5" s="4"/>
+      <c r="AK5" s="4"/>
+      <c r="AL5" s="4"/>
+    </row>
+    <row r="6" spans="2:38" ht="16" x14ac:dyDescent="0.3">
+      <c r="B6" s="34">
+        <v>4</v>
+      </c>
+      <c r="C6" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="F6" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="G6" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4"/>
+      <c r="X6" s="4"/>
+      <c r="Y6" s="4"/>
+      <c r="Z6" s="4"/>
+      <c r="AA6" s="4"/>
+      <c r="AB6" s="4"/>
+      <c r="AC6" s="4"/>
+      <c r="AD6" s="4"/>
+      <c r="AE6" s="4"/>
+      <c r="AF6" s="4"/>
+      <c r="AG6" s="4"/>
+      <c r="AH6" s="4"/>
+      <c r="AI6" s="4"/>
+      <c r="AJ6" s="4"/>
+      <c r="AK6" s="4"/>
+      <c r="AL6" s="4"/>
+    </row>
+    <row r="7" spans="2:38" ht="16" x14ac:dyDescent="0.3">
+      <c r="B7" s="31">
+        <v>5</v>
+      </c>
+      <c r="C7" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="F7" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="G7" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" s="33"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4"/>
+      <c r="U7" s="4"/>
+      <c r="V7" s="4"/>
+      <c r="W7" s="4"/>
+      <c r="X7" s="4"/>
+      <c r="Y7" s="4"/>
+      <c r="Z7" s="4"/>
+      <c r="AA7" s="4"/>
+      <c r="AB7" s="4"/>
+      <c r="AC7" s="4"/>
+      <c r="AD7" s="4"/>
+      <c r="AE7" s="4"/>
+      <c r="AF7" s="4"/>
+      <c r="AG7" s="4"/>
+      <c r="AH7" s="4"/>
+      <c r="AI7" s="4"/>
+      <c r="AJ7" s="4"/>
+      <c r="AK7" s="4"/>
+      <c r="AL7" s="4"/>
+    </row>
+    <row r="8" spans="2:38" ht="16" x14ac:dyDescent="0.3">
+      <c r="B8" s="31">
+        <v>6</v>
+      </c>
+      <c r="C8" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="F8" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="G8" s="32"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="4"/>
+      <c r="U8" s="4"/>
+      <c r="V8" s="4"/>
+      <c r="W8" s="4"/>
+      <c r="X8" s="4"/>
+      <c r="Y8" s="4"/>
+      <c r="Z8" s="4"/>
+      <c r="AA8" s="4"/>
+      <c r="AB8" s="4"/>
+      <c r="AC8" s="4"/>
+      <c r="AD8" s="4"/>
+      <c r="AE8" s="4"/>
+      <c r="AF8" s="4"/>
+      <c r="AG8" s="4"/>
+      <c r="AH8" s="4"/>
+      <c r="AI8" s="4"/>
+      <c r="AJ8" s="4"/>
+      <c r="AK8" s="4"/>
+      <c r="AL8" s="4"/>
+    </row>
+    <row r="9" spans="2:38" ht="16" x14ac:dyDescent="0.3">
+      <c r="B9" s="31">
+        <v>7</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="F9" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="G9" s="32"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="4"/>
+      <c r="U9" s="4"/>
+      <c r="V9" s="4"/>
+      <c r="W9" s="4"/>
+      <c r="X9" s="4"/>
+      <c r="Y9" s="4"/>
+      <c r="Z9" s="4"/>
+      <c r="AA9" s="4"/>
+      <c r="AB9" s="4"/>
+      <c r="AC9" s="4"/>
+      <c r="AD9" s="4"/>
+      <c r="AE9" s="4"/>
+      <c r="AF9" s="4"/>
+      <c r="AG9" s="4"/>
+      <c r="AH9" s="4"/>
+      <c r="AI9" s="4"/>
+      <c r="AJ9" s="4"/>
+      <c r="AK9" s="4"/>
+      <c r="AL9" s="4"/>
+    </row>
+    <row r="10" spans="2:38" ht="16" x14ac:dyDescent="0.3">
+      <c r="B10" s="34">
+        <v>8</v>
+      </c>
+      <c r="C10" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="F10" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="G10" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="H10" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="I10" s="4"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="4"/>
+      <c r="T10" s="4"/>
+      <c r="U10" s="4"/>
+      <c r="V10" s="4"/>
+      <c r="W10" s="4"/>
+      <c r="X10" s="4"/>
+      <c r="Y10" s="4"/>
+      <c r="Z10" s="4"/>
+      <c r="AA10" s="4"/>
+      <c r="AB10" s="4"/>
+      <c r="AC10" s="4"/>
+      <c r="AD10" s="4"/>
+      <c r="AE10" s="4"/>
+      <c r="AF10" s="4"/>
+      <c r="AG10" s="4"/>
+      <c r="AH10" s="4"/>
+      <c r="AI10" s="4"/>
+      <c r="AJ10" s="4"/>
+      <c r="AK10" s="4"/>
+      <c r="AL10" s="4"/>
+    </row>
+    <row r="11" spans="2:38" ht="16" x14ac:dyDescent="0.3">
+      <c r="B11" s="31">
+        <v>9</v>
+      </c>
+      <c r="C11" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="F11" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="G11" s="32"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="103"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="4"/>
+      <c r="U11" s="4"/>
+      <c r="V11" s="4"/>
+      <c r="W11" s="4"/>
+      <c r="X11" s="4"/>
+      <c r="Y11" s="4"/>
+      <c r="Z11" s="4"/>
+      <c r="AA11" s="4"/>
+      <c r="AB11" s="4"/>
+      <c r="AC11" s="4"/>
+      <c r="AD11" s="4"/>
+      <c r="AE11" s="4"/>
+      <c r="AF11" s="4"/>
+      <c r="AG11" s="4"/>
+      <c r="AH11" s="4"/>
+      <c r="AI11" s="4"/>
+      <c r="AJ11" s="4"/>
+      <c r="AK11" s="4"/>
+      <c r="AL11" s="4"/>
+    </row>
+    <row r="12" spans="2:38" ht="16" x14ac:dyDescent="0.3">
+      <c r="B12" s="34">
+        <v>10</v>
+      </c>
+      <c r="C12" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="F12" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="G12" s="35" t="s">
+        <v>72</v>
+      </c>
+      <c r="H12" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="I12" s="4"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="4"/>
+      <c r="U12" s="4"/>
+      <c r="V12" s="4"/>
+      <c r="W12" s="4"/>
+      <c r="X12" s="4"/>
+      <c r="Y12" s="4"/>
+      <c r="Z12" s="4"/>
+      <c r="AA12" s="4"/>
+      <c r="AB12" s="4"/>
+      <c r="AC12" s="4"/>
+      <c r="AD12" s="4"/>
+      <c r="AE12" s="4"/>
+      <c r="AF12" s="4"/>
+      <c r="AG12" s="4"/>
+      <c r="AH12" s="4"/>
+      <c r="AI12" s="4"/>
+      <c r="AJ12" s="4"/>
+      <c r="AK12" s="4"/>
+      <c r="AL12" s="4"/>
+    </row>
+    <row r="13" spans="2:38" ht="16" x14ac:dyDescent="0.3">
+      <c r="B13" s="31">
+        <v>11</v>
+      </c>
+      <c r="C13" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="F13" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="G13" s="32"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="4"/>
+      <c r="T13" s="4"/>
+      <c r="U13" s="4"/>
+      <c r="V13" s="4"/>
+      <c r="W13" s="4"/>
+      <c r="X13" s="4"/>
+      <c r="Y13" s="4"/>
+      <c r="Z13" s="4"/>
+      <c r="AA13" s="4"/>
+      <c r="AB13" s="4"/>
+      <c r="AC13" s="4"/>
+      <c r="AD13" s="4"/>
+      <c r="AE13" s="4"/>
+      <c r="AF13" s="4"/>
+      <c r="AG13" s="4"/>
+      <c r="AH13" s="4"/>
+      <c r="AI13" s="4"/>
+      <c r="AJ13" s="4"/>
+      <c r="AK13" s="4"/>
+      <c r="AL13" s="4"/>
+    </row>
+    <row r="14" spans="2:38" ht="16" x14ac:dyDescent="0.3">
+      <c r="B14" s="31">
+        <v>12</v>
+      </c>
+      <c r="C14" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="G14" s="32"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="23"/>
+      <c r="O14" s="23"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="4"/>
+      <c r="T14" s="4"/>
+      <c r="U14" s="4"/>
+      <c r="V14" s="4"/>
+      <c r="W14" s="4"/>
+      <c r="X14" s="4"/>
+      <c r="Y14" s="4"/>
+      <c r="Z14" s="4"/>
+      <c r="AA14" s="4"/>
+      <c r="AB14" s="4"/>
+      <c r="AC14" s="4"/>
+      <c r="AD14" s="4"/>
+      <c r="AE14" s="4"/>
+      <c r="AF14" s="4"/>
+      <c r="AG14" s="4"/>
+      <c r="AH14" s="4"/>
+      <c r="AI14" s="4"/>
+      <c r="AJ14" s="4"/>
+      <c r="AK14" s="4"/>
+      <c r="AL14" s="4"/>
+    </row>
+    <row r="15" spans="2:38" ht="16" x14ac:dyDescent="0.3">
+      <c r="B15" s="31">
+        <v>13</v>
+      </c>
+      <c r="C15" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="E15" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="F15" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="G15" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="H15" s="39" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B4" s="92">
-        <v>2</v>
-      </c>
-      <c r="C4" s="92" t="s">
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="13"/>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="4"/>
+      <c r="T15" s="4"/>
+      <c r="U15" s="4"/>
+      <c r="V15" s="4"/>
+      <c r="W15" s="4"/>
+      <c r="X15" s="4"/>
+      <c r="Y15" s="4"/>
+      <c r="Z15" s="4"/>
+      <c r="AA15" s="4"/>
+      <c r="AB15" s="4"/>
+      <c r="AC15" s="4"/>
+      <c r="AD15" s="4"/>
+      <c r="AE15" s="4"/>
+      <c r="AF15" s="4"/>
+      <c r="AG15" s="4"/>
+      <c r="AH15" s="4"/>
+      <c r="AI15" s="4"/>
+      <c r="AJ15" s="4"/>
+      <c r="AK15" s="4"/>
+      <c r="AL15" s="4"/>
+    </row>
+    <row r="16" spans="2:38" ht="16" x14ac:dyDescent="0.3">
+      <c r="B16" s="34">
+        <v>14</v>
+      </c>
+      <c r="C16" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="D4" s="92" t="s">
-        <v>50</v>
-      </c>
-      <c r="E4" s="92" t="s">
-        <v>54</v>
-      </c>
-      <c r="F4" s="92" t="s">
-        <v>55</v>
-      </c>
-      <c r="G4" s="93"/>
-      <c r="H4" s="94"/>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B5" s="92">
-        <v>3</v>
-      </c>
-      <c r="C5" s="92" t="s">
+      <c r="D16" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="E16" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="F16" s="34" t="s">
+        <v>82</v>
+      </c>
+      <c r="G16" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="H16" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="13"/>
+      <c r="P16" s="13"/>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="4"/>
+      <c r="S16" s="4"/>
+      <c r="T16" s="4"/>
+      <c r="U16" s="4"/>
+      <c r="V16" s="4"/>
+      <c r="W16" s="4"/>
+      <c r="X16" s="4"/>
+      <c r="Y16" s="4"/>
+      <c r="Z16" s="4"/>
+      <c r="AA16" s="4"/>
+      <c r="AB16" s="4"/>
+      <c r="AC16" s="4"/>
+      <c r="AD16" s="4"/>
+      <c r="AE16" s="4"/>
+      <c r="AF16" s="4"/>
+      <c r="AG16" s="4"/>
+      <c r="AH16" s="4"/>
+      <c r="AI16" s="4"/>
+      <c r="AJ16" s="4"/>
+      <c r="AK16" s="4"/>
+      <c r="AL16" s="4"/>
+    </row>
+    <row r="17" spans="2:38" ht="16" x14ac:dyDescent="0.3">
+      <c r="B17" s="34">
+        <v>15</v>
+      </c>
+      <c r="C17" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="D5" s="92" t="s">
-        <v>50</v>
-      </c>
-      <c r="E5" s="92" t="s">
-        <v>56</v>
-      </c>
-      <c r="F5" s="92" t="s">
-        <v>57</v>
-      </c>
-      <c r="G5" s="93"/>
-      <c r="H5" s="94"/>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B6" s="92">
-        <v>4</v>
-      </c>
-      <c r="C6" s="92" t="s">
+      <c r="D17" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="E17" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="F17" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="G17" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="H17" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="13"/>
+      <c r="O17" s="13"/>
+      <c r="P17" s="13"/>
+      <c r="Q17" s="12"/>
+      <c r="R17" s="4"/>
+      <c r="S17" s="4"/>
+      <c r="T17" s="4"/>
+      <c r="U17" s="4"/>
+      <c r="V17" s="4"/>
+      <c r="W17" s="4"/>
+      <c r="X17" s="4"/>
+      <c r="Y17" s="4"/>
+      <c r="Z17" s="4"/>
+      <c r="AA17" s="4"/>
+      <c r="AB17" s="4"/>
+      <c r="AC17" s="4"/>
+      <c r="AD17" s="4"/>
+      <c r="AE17" s="4"/>
+      <c r="AF17" s="4"/>
+      <c r="AG17" s="4"/>
+      <c r="AH17" s="4"/>
+      <c r="AI17" s="4"/>
+      <c r="AJ17" s="4"/>
+      <c r="AK17" s="4"/>
+      <c r="AL17" s="4"/>
+    </row>
+    <row r="18" spans="2:38" ht="16" x14ac:dyDescent="0.3">
+      <c r="B18" s="34">
+        <v>16</v>
+      </c>
+      <c r="C18" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="D6" s="92" t="s">
-        <v>50</v>
-      </c>
-      <c r="E6" s="92" t="s">
-        <v>58</v>
-      </c>
-      <c r="F6" s="92" t="s">
-        <v>59</v>
-      </c>
-      <c r="G6" s="93"/>
-      <c r="H6" s="94"/>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B7" s="92">
-        <v>5</v>
-      </c>
-      <c r="C7" s="92" t="s">
+      <c r="D18" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="E18" s="34" t="s">
+        <v>86</v>
+      </c>
+      <c r="F18" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="G18" s="35" t="s">
+        <v>163</v>
+      </c>
+      <c r="H18" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="12"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="4"/>
+      <c r="S18" s="4"/>
+      <c r="T18" s="4"/>
+      <c r="U18" s="4"/>
+      <c r="V18" s="4"/>
+      <c r="W18" s="4"/>
+      <c r="X18" s="4"/>
+      <c r="Y18" s="4"/>
+      <c r="Z18" s="4"/>
+      <c r="AA18" s="4"/>
+      <c r="AB18" s="4"/>
+      <c r="AC18" s="4"/>
+      <c r="AD18" s="4"/>
+      <c r="AE18" s="4"/>
+      <c r="AF18" s="4"/>
+      <c r="AG18" s="4"/>
+      <c r="AH18" s="4"/>
+      <c r="AI18" s="4"/>
+      <c r="AJ18" s="4"/>
+      <c r="AK18" s="4"/>
+      <c r="AL18" s="4"/>
+    </row>
+    <row r="19" spans="2:38" ht="16" x14ac:dyDescent="0.3">
+      <c r="B19" s="31">
+        <v>17</v>
+      </c>
+      <c r="C19" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="92" t="s">
-        <v>50</v>
-      </c>
-      <c r="E7" s="92" t="s">
-        <v>60</v>
-      </c>
-      <c r="F7" s="92" t="s">
-        <v>61</v>
-      </c>
-      <c r="G7" s="93"/>
-      <c r="H7" s="94"/>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B8" s="92">
-        <v>6</v>
-      </c>
-      <c r="C8" s="92" t="s">
+      <c r="D19" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="E19" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="F19" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="G19" s="32" t="s">
+        <v>164</v>
+      </c>
+      <c r="H19" s="39" t="s">
+        <v>160</v>
+      </c>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="12"/>
+      <c r="O19" s="12"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="4"/>
+      <c r="S19" s="4"/>
+      <c r="T19" s="4"/>
+      <c r="U19" s="4"/>
+      <c r="V19" s="4"/>
+      <c r="W19" s="4"/>
+      <c r="X19" s="4"/>
+      <c r="Y19" s="4"/>
+      <c r="Z19" s="4"/>
+      <c r="AA19" s="4"/>
+      <c r="AB19" s="4"/>
+      <c r="AC19" s="4"/>
+      <c r="AD19" s="4"/>
+      <c r="AE19" s="4"/>
+      <c r="AF19" s="4"/>
+      <c r="AG19" s="4"/>
+      <c r="AH19" s="4"/>
+      <c r="AI19" s="4"/>
+      <c r="AJ19" s="4"/>
+      <c r="AK19" s="4"/>
+      <c r="AL19" s="4"/>
+    </row>
+    <row r="20" spans="2:38" ht="16" x14ac:dyDescent="0.3">
+      <c r="B20" s="31">
+        <v>18</v>
+      </c>
+      <c r="C20" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="D8" s="92" t="s">
-        <v>50</v>
-      </c>
-      <c r="E8" s="92" t="s">
-        <v>62</v>
-      </c>
-      <c r="F8" s="92" t="s">
-        <v>63</v>
-      </c>
-      <c r="G8" s="93"/>
-      <c r="H8" s="94"/>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B9" s="92">
-        <v>7</v>
-      </c>
-      <c r="C9" s="92" t="s">
+      <c r="D20" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="E20" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="F20" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="G20" s="32"/>
+      <c r="H20" s="33"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="13"/>
+      <c r="Q20" s="13"/>
+      <c r="R20" s="4"/>
+      <c r="S20" s="4"/>
+      <c r="T20" s="15"/>
+      <c r="U20" s="15"/>
+      <c r="V20" s="15"/>
+      <c r="W20" s="15"/>
+      <c r="X20" s="15"/>
+      <c r="Y20" s="15"/>
+      <c r="Z20" s="15"/>
+      <c r="AA20" s="15"/>
+      <c r="AB20" s="15"/>
+      <c r="AC20" s="15"/>
+      <c r="AD20" s="15"/>
+      <c r="AE20" s="15"/>
+      <c r="AF20" s="4"/>
+      <c r="AG20" s="4"/>
+      <c r="AH20" s="4"/>
+      <c r="AI20" s="4"/>
+      <c r="AJ20" s="4"/>
+      <c r="AK20" s="4"/>
+      <c r="AL20" s="4"/>
+    </row>
+    <row r="21" spans="2:38" ht="16" x14ac:dyDescent="0.3">
+      <c r="B21" s="31">
+        <v>19</v>
+      </c>
+      <c r="C21" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="D9" s="92" t="s">
-        <v>50</v>
-      </c>
-      <c r="E9" s="92" t="s">
-        <v>64</v>
-      </c>
-      <c r="F9" s="92" t="s">
-        <v>65</v>
-      </c>
-      <c r="G9" s="93"/>
-      <c r="H9" s="94"/>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B10" s="92">
-        <v>8</v>
-      </c>
-      <c r="C10" s="92" t="s">
+      <c r="D21" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="E21" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="F21" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="G21" s="32"/>
+      <c r="H21" s="33"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
+      <c r="P21" s="12"/>
+      <c r="Q21" s="12"/>
+      <c r="R21" s="4"/>
+      <c r="S21" s="4"/>
+      <c r="T21" s="4"/>
+      <c r="U21" s="4"/>
+      <c r="V21" s="4"/>
+      <c r="W21" s="4"/>
+      <c r="X21" s="4"/>
+      <c r="Y21" s="4"/>
+      <c r="Z21" s="4"/>
+      <c r="AA21" s="4"/>
+      <c r="AB21" s="4"/>
+      <c r="AC21" s="4"/>
+      <c r="AD21" s="4"/>
+      <c r="AE21" s="4"/>
+      <c r="AF21" s="4"/>
+      <c r="AG21" s="4"/>
+      <c r="AH21" s="4"/>
+      <c r="AI21" s="4"/>
+      <c r="AJ21" s="4"/>
+      <c r="AK21" s="4"/>
+      <c r="AL21" s="4"/>
+    </row>
+    <row r="22" spans="2:38" ht="16" x14ac:dyDescent="0.3">
+      <c r="B22" s="31">
+        <v>20</v>
+      </c>
+      <c r="C22" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="D10" s="92" t="s">
-        <v>50</v>
-      </c>
-      <c r="E10" s="92" t="s">
-        <v>66</v>
-      </c>
-      <c r="F10" s="92" t="s">
-        <v>67</v>
-      </c>
-      <c r="G10" s="93" t="s">
+      <c r="D22" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="E22" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="F22" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="G22" s="32"/>
+      <c r="H22" s="33"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="12"/>
+      <c r="Q22" s="12"/>
+      <c r="R22" s="4"/>
+      <c r="S22" s="4"/>
+      <c r="T22" s="16"/>
+      <c r="U22" s="16"/>
+      <c r="V22" s="16"/>
+      <c r="W22" s="16"/>
+      <c r="X22" s="16"/>
+      <c r="Y22" s="16"/>
+      <c r="Z22" s="16"/>
+      <c r="AA22" s="16"/>
+      <c r="AB22" s="16"/>
+      <c r="AC22" s="16"/>
+      <c r="AD22" s="16"/>
+      <c r="AE22" s="16"/>
+      <c r="AF22" s="4"/>
+      <c r="AG22" s="4"/>
+      <c r="AH22" s="4"/>
+      <c r="AI22" s="4"/>
+      <c r="AJ22" s="4"/>
+      <c r="AK22" s="4"/>
+      <c r="AL22" s="4"/>
+    </row>
+    <row r="23" spans="2:38" ht="16" x14ac:dyDescent="0.3">
+      <c r="B23" s="31">
+        <v>21</v>
+      </c>
+      <c r="C23" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="E23" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="F23" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="G23" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="H23" s="39" t="s">
+        <v>160</v>
+      </c>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="4"/>
+      <c r="P23" s="18"/>
+      <c r="Q23" s="17"/>
+      <c r="R23" s="4"/>
+      <c r="S23" s="4"/>
+      <c r="T23" s="4"/>
+      <c r="U23" s="4"/>
+      <c r="V23" s="4"/>
+      <c r="W23" s="4"/>
+      <c r="X23" s="4"/>
+      <c r="Y23" s="4"/>
+      <c r="Z23" s="4"/>
+      <c r="AA23" s="4"/>
+      <c r="AB23" s="4"/>
+      <c r="AC23" s="4"/>
+      <c r="AD23" s="4"/>
+      <c r="AE23" s="4"/>
+      <c r="AF23" s="4"/>
+      <c r="AG23" s="4"/>
+      <c r="AH23" s="4"/>
+      <c r="AI23" s="4"/>
+      <c r="AJ23" s="4"/>
+      <c r="AK23" s="4"/>
+      <c r="AL23" s="4"/>
+    </row>
+    <row r="24" spans="2:38" ht="16" x14ac:dyDescent="0.3">
+      <c r="B24" s="31">
+        <v>22</v>
+      </c>
+      <c r="C24" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="D24" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="E24" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="F24" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="G24" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="H24" s="39" t="s">
+        <v>160</v>
+      </c>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
+      <c r="O24" s="4"/>
+      <c r="P24" s="4"/>
+      <c r="Q24" s="4"/>
+      <c r="R24" s="4"/>
+      <c r="S24" s="4"/>
+      <c r="T24" s="4"/>
+      <c r="U24" s="4"/>
+      <c r="V24" s="4"/>
+      <c r="W24" s="4"/>
+      <c r="X24" s="4"/>
+      <c r="Y24" s="4"/>
+      <c r="Z24" s="4"/>
+      <c r="AA24" s="4"/>
+      <c r="AB24" s="4"/>
+      <c r="AC24" s="4"/>
+      <c r="AD24" s="4"/>
+      <c r="AE24" s="4"/>
+      <c r="AF24" s="4"/>
+      <c r="AG24" s="4"/>
+      <c r="AH24" s="4"/>
+      <c r="AI24" s="4"/>
+      <c r="AJ24" s="4"/>
+      <c r="AK24" s="4"/>
+      <c r="AL24" s="4"/>
+    </row>
+    <row r="25" spans="2:38" ht="16" x14ac:dyDescent="0.3">
+      <c r="B25" s="34">
+        <v>23</v>
+      </c>
+      <c r="C25" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="D25" s="34" t="s">
+        <v>96</v>
+      </c>
+      <c r="E25" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="F25" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="G25" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="H25" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="4"/>
+      <c r="P25" s="4"/>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="4"/>
+      <c r="S25" s="12"/>
+      <c r="T25" s="19"/>
+      <c r="U25" s="20"/>
+      <c r="V25" s="20"/>
+      <c r="W25" s="21"/>
+      <c r="X25" s="20"/>
+      <c r="Y25" s="20"/>
+      <c r="Z25" s="20"/>
+      <c r="AA25" s="20"/>
+      <c r="AB25" s="20"/>
+      <c r="AC25" s="20"/>
+      <c r="AD25" s="20"/>
+      <c r="AE25" s="1"/>
+      <c r="AF25" s="4"/>
+      <c r="AG25" s="4"/>
+      <c r="AH25" s="4"/>
+      <c r="AI25" s="4"/>
+      <c r="AJ25" s="4"/>
+      <c r="AK25" s="4"/>
+      <c r="AL25" s="4"/>
+    </row>
+    <row r="26" spans="2:38" ht="16" x14ac:dyDescent="0.3">
+      <c r="B26" s="31">
+        <v>24</v>
+      </c>
+      <c r="C26" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="D26" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="E26" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="F26" s="31" t="s">
+        <v>104</v>
+      </c>
+      <c r="G26" s="32"/>
+      <c r="H26" s="33"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
+      <c r="O26" s="4"/>
+      <c r="P26" s="4"/>
+      <c r="Q26" s="4"/>
+      <c r="R26" s="4"/>
+      <c r="S26" s="4"/>
+      <c r="T26" s="4"/>
+      <c r="U26" s="4"/>
+      <c r="V26" s="4"/>
+      <c r="W26" s="4"/>
+      <c r="X26" s="4"/>
+      <c r="Y26" s="4"/>
+      <c r="Z26" s="4"/>
+      <c r="AA26" s="4"/>
+      <c r="AB26" s="4"/>
+      <c r="AC26" s="4"/>
+      <c r="AD26" s="4"/>
+      <c r="AE26" s="4"/>
+      <c r="AF26" s="4"/>
+      <c r="AG26" s="4"/>
+      <c r="AH26" s="4"/>
+      <c r="AI26" s="4"/>
+      <c r="AJ26" s="4"/>
+      <c r="AK26" s="4"/>
+      <c r="AL26" s="4"/>
+    </row>
+    <row r="27" spans="2:38" ht="16" x14ac:dyDescent="0.3">
+      <c r="B27" s="31">
+        <v>25</v>
+      </c>
+      <c r="C27" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="D27" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="E27" s="31" t="s">
+        <v>105</v>
+      </c>
+      <c r="F27" s="31" t="s">
+        <v>106</v>
+      </c>
+      <c r="G27" s="32"/>
+      <c r="H27" s="33"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
+      <c r="O27" s="4"/>
+      <c r="P27" s="4"/>
+      <c r="Q27" s="4"/>
+      <c r="R27" s="4"/>
+      <c r="S27" s="4"/>
+      <c r="T27" s="4"/>
+      <c r="U27" s="4"/>
+      <c r="V27" s="4"/>
+      <c r="W27" s="4"/>
+      <c r="X27" s="4"/>
+      <c r="Y27" s="4"/>
+      <c r="Z27" s="4"/>
+      <c r="AA27" s="4"/>
+      <c r="AB27" s="4"/>
+      <c r="AC27" s="4"/>
+      <c r="AD27" s="4"/>
+      <c r="AE27" s="4"/>
+      <c r="AF27" s="4"/>
+      <c r="AG27" s="4"/>
+      <c r="AH27" s="4"/>
+      <c r="AI27" s="4"/>
+      <c r="AJ27" s="4"/>
+      <c r="AK27" s="4"/>
+      <c r="AL27" s="4"/>
+    </row>
+    <row r="28" spans="2:38" ht="16" x14ac:dyDescent="0.3">
+      <c r="B28" s="31">
+        <v>26</v>
+      </c>
+      <c r="C28" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="D28" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="E28" s="31" t="s">
+        <v>107</v>
+      </c>
+      <c r="F28" s="31" t="s">
+        <v>108</v>
+      </c>
+      <c r="G28" s="32"/>
+      <c r="H28" s="33"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4"/>
+      <c r="O28" s="4"/>
+      <c r="P28" s="4"/>
+      <c r="Q28" s="4"/>
+      <c r="R28" s="4"/>
+      <c r="S28" s="4"/>
+      <c r="T28" s="4"/>
+      <c r="U28" s="4"/>
+      <c r="V28" s="4"/>
+      <c r="W28" s="4"/>
+      <c r="X28" s="4"/>
+      <c r="Y28" s="4"/>
+      <c r="Z28" s="4"/>
+      <c r="AA28" s="4"/>
+      <c r="AB28" s="4"/>
+      <c r="AC28" s="4"/>
+      <c r="AD28" s="4"/>
+      <c r="AE28" s="4"/>
+      <c r="AF28" s="4"/>
+      <c r="AG28" s="4"/>
+      <c r="AH28" s="12"/>
+      <c r="AI28" s="12"/>
+      <c r="AJ28" s="12"/>
+      <c r="AK28" s="12"/>
+      <c r="AL28" s="4"/>
+    </row>
+    <row r="29" spans="2:38" ht="16" x14ac:dyDescent="0.3">
+      <c r="B29" s="31">
+        <v>27</v>
+      </c>
+      <c r="C29" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="D29" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="E29" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="F29" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="G29" s="32"/>
+      <c r="H29" s="33"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="4"/>
+      <c r="O29" s="4"/>
+      <c r="P29" s="4"/>
+      <c r="Q29" s="4"/>
+      <c r="R29" s="4"/>
+      <c r="S29" s="4"/>
+      <c r="T29" s="4"/>
+      <c r="U29" s="4"/>
+      <c r="V29" s="4"/>
+      <c r="W29" s="4"/>
+      <c r="X29" s="4"/>
+      <c r="Y29" s="4"/>
+      <c r="Z29" s="4"/>
+      <c r="AA29" s="4"/>
+      <c r="AB29" s="4"/>
+      <c r="AC29" s="4"/>
+      <c r="AD29" s="4"/>
+      <c r="AE29" s="4"/>
+      <c r="AF29" s="4"/>
+      <c r="AG29" s="4"/>
+      <c r="AH29" s="12"/>
+      <c r="AI29" s="12"/>
+      <c r="AJ29" s="12"/>
+      <c r="AK29" s="12"/>
+      <c r="AL29" s="9"/>
+    </row>
+    <row r="30" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B30" s="31">
+        <v>28</v>
+      </c>
+      <c r="C30" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="D30" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="E30" s="31" t="s">
+        <v>111</v>
+      </c>
+      <c r="F30" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="G30" s="32"/>
+      <c r="H30" s="33"/>
+    </row>
+    <row r="31" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B31" s="31">
+        <v>29</v>
+      </c>
+      <c r="C31" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="D31" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="E31" s="31" t="s">
+        <v>101</v>
+      </c>
+      <c r="F31" s="31" t="s">
+        <v>113</v>
+      </c>
+      <c r="G31" s="32"/>
+      <c r="H31" s="33"/>
+    </row>
+    <row r="32" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="B32" s="31">
+        <v>30</v>
+      </c>
+      <c r="C32" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="D32" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="E32" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="F32" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="G32" s="32"/>
+      <c r="H32" s="33"/>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B33" s="34">
+        <v>31</v>
+      </c>
+      <c r="C33" s="34" t="s">
+        <v>116</v>
+      </c>
+      <c r="D33" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="E33" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="F33" s="34" t="s">
+        <v>119</v>
+      </c>
+      <c r="G33" s="35" t="s">
+        <v>72</v>
+      </c>
+      <c r="H33" s="35" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B34" s="34">
+        <v>32</v>
+      </c>
+      <c r="C34" s="34" t="s">
+        <v>116</v>
+      </c>
+      <c r="D34" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="E34" s="34" t="s">
+        <v>120</v>
+      </c>
+      <c r="F34" s="34" t="s">
+        <v>121</v>
+      </c>
+      <c r="G34" s="35" t="s">
+        <v>163</v>
+      </c>
+      <c r="H34" s="35" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B35" s="34">
+        <v>33</v>
+      </c>
+      <c r="C35" s="34" t="s">
+        <v>116</v>
+      </c>
+      <c r="D35" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="E35" s="34" t="s">
+        <v>122</v>
+      </c>
+      <c r="F35" s="34" t="s">
+        <v>123</v>
+      </c>
+      <c r="G35" s="35" t="s">
+        <v>164</v>
+      </c>
+      <c r="H35" s="35" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B36" s="34">
+        <v>34</v>
+      </c>
+      <c r="C36" s="34" t="s">
+        <v>116</v>
+      </c>
+      <c r="D36" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="E36" s="34" t="s">
+        <v>124</v>
+      </c>
+      <c r="F36" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="G36" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="H36" s="35" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B37" s="31">
+        <v>35</v>
+      </c>
+      <c r="C37" s="31" t="s">
+        <v>116</v>
+      </c>
+      <c r="D37" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="E37" s="31" t="s">
+        <v>126</v>
+      </c>
+      <c r="F37" s="31" t="s">
+        <v>127</v>
+      </c>
+      <c r="G37" s="32"/>
+      <c r="H37" s="33"/>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B38" s="31">
+        <v>36</v>
+      </c>
+      <c r="C38" s="31" t="s">
+        <v>116</v>
+      </c>
+      <c r="D38" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="E38" s="31" t="s">
+        <v>128</v>
+      </c>
+      <c r="F38" s="31" t="s">
+        <v>129</v>
+      </c>
+      <c r="G38" s="32"/>
+      <c r="H38" s="33"/>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B39" s="34">
+        <v>37</v>
+      </c>
+      <c r="C39" s="34" t="s">
+        <v>116</v>
+      </c>
+      <c r="D39" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="E39" s="34" t="s">
+        <v>130</v>
+      </c>
+      <c r="F39" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="G39" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="H10" s="101" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B11" s="92">
-        <v>9</v>
-      </c>
-      <c r="C11" s="92" t="s">
+      <c r="H39" s="35" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B40" s="31">
+        <v>38</v>
+      </c>
+      <c r="C40" s="31" t="s">
+        <v>116</v>
+      </c>
+      <c r="D40" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="E40" s="31" t="s">
+        <v>132</v>
+      </c>
+      <c r="F40" s="31" t="s">
+        <v>133</v>
+      </c>
+      <c r="G40" s="32"/>
+      <c r="H40" s="33"/>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B41" s="31">
+        <v>39</v>
+      </c>
+      <c r="C41" s="31" t="s">
+        <v>116</v>
+      </c>
+      <c r="D41" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="E41" s="31" t="s">
+        <v>134</v>
+      </c>
+      <c r="F41" s="31" t="s">
+        <v>135</v>
+      </c>
+      <c r="G41" s="32"/>
+      <c r="H41" s="33"/>
+    </row>
+    <row r="42" spans="2:8" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="34">
+        <v>40</v>
+      </c>
+      <c r="C42" s="34" t="s">
+        <v>116</v>
+      </c>
+      <c r="D42" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="E42" s="34" t="s">
+        <v>136</v>
+      </c>
+      <c r="F42" s="34" t="s">
+        <v>137</v>
+      </c>
+      <c r="G42" s="35" t="s">
+        <v>72</v>
+      </c>
+      <c r="H42" s="35" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B43" s="31">
+        <v>41</v>
+      </c>
+      <c r="C43" s="31" t="s">
+        <v>138</v>
+      </c>
+      <c r="D43" s="31" t="s">
+        <v>139</v>
+      </c>
+      <c r="E43" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="F43" s="31" t="s">
+        <v>141</v>
+      </c>
+      <c r="G43" s="32"/>
+      <c r="H43" s="32"/>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B44" s="31">
+        <v>42</v>
+      </c>
+      <c r="C44" s="31" t="s">
+        <v>138</v>
+      </c>
+      <c r="D44" s="31" t="s">
+        <v>139</v>
+      </c>
+      <c r="E44" s="31" t="s">
+        <v>142</v>
+      </c>
+      <c r="F44" s="31" t="s">
+        <v>143</v>
+      </c>
+      <c r="G44" s="32"/>
+      <c r="H44" s="32"/>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B45" s="31">
+        <v>43</v>
+      </c>
+      <c r="C45" s="31" t="s">
+        <v>138</v>
+      </c>
+      <c r="D45" s="31" t="s">
+        <v>139</v>
+      </c>
+      <c r="E45" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="F45" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="G45" s="32"/>
+      <c r="H45" s="32"/>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B46" s="31">
+        <v>44</v>
+      </c>
+      <c r="C46" s="31" t="s">
+        <v>146</v>
+      </c>
+      <c r="D46" s="31" t="s">
+        <v>147</v>
+      </c>
+      <c r="E46" s="31" t="s">
+        <v>148</v>
+      </c>
+      <c r="F46" s="31" t="s">
+        <v>149</v>
+      </c>
+      <c r="G46" s="32"/>
+      <c r="H46" s="32"/>
+    </row>
+    <row r="47" spans="2:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="31">
+        <v>45</v>
+      </c>
+      <c r="C47" s="31" t="s">
+        <v>146</v>
+      </c>
+      <c r="D47" s="31" t="s">
+        <v>147</v>
+      </c>
+      <c r="E47" s="31" t="s">
+        <v>150</v>
+      </c>
+      <c r="F47" s="38" t="s">
+        <v>151</v>
+      </c>
+      <c r="G47" s="32"/>
+      <c r="H47" s="32"/>
+    </row>
+    <row r="48" spans="2:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="31">
+        <v>46</v>
+      </c>
+      <c r="C48" s="31" t="s">
+        <v>146</v>
+      </c>
+      <c r="D48" s="31" t="s">
+        <v>147</v>
+      </c>
+      <c r="E48" s="31" t="s">
+        <v>152</v>
+      </c>
+      <c r="F48" s="38" t="s">
+        <v>153</v>
+      </c>
+      <c r="G48" s="32"/>
+      <c r="H48" s="32"/>
+    </row>
+    <row r="49" spans="2:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="31">
+        <v>47</v>
+      </c>
+      <c r="C49" s="31" t="s">
+        <v>146</v>
+      </c>
+      <c r="D49" s="31" t="s">
+        <v>147</v>
+      </c>
+      <c r="E49" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="F49" s="38" t="s">
+        <v>155</v>
+      </c>
+      <c r="G49" s="32"/>
+      <c r="H49" s="32"/>
+    </row>
+    <row r="50" spans="2:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="31">
+        <v>48</v>
+      </c>
+      <c r="C50" s="31" t="s">
+        <v>146</v>
+      </c>
+      <c r="D50" s="31" t="s">
+        <v>147</v>
+      </c>
+      <c r="E50" s="31" t="s">
+        <v>156</v>
+      </c>
+      <c r="F50" s="38" t="s">
+        <v>157</v>
+      </c>
+      <c r="G50" s="32"/>
+      <c r="H50" s="32"/>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B51" s="31">
         <v>49</v>
       </c>
-      <c r="D11" s="92" t="s">
-        <v>50</v>
-      </c>
-      <c r="E11" s="92" t="s">
-        <v>68</v>
-      </c>
-      <c r="F11" s="92" t="s">
-        <v>69</v>
-      </c>
-      <c r="G11" s="93"/>
-      <c r="H11" s="94"/>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B12" s="95">
-        <v>10</v>
-      </c>
-      <c r="C12" s="95" t="s">
-        <v>49</v>
-      </c>
-      <c r="D12" s="95" t="s">
-        <v>50</v>
-      </c>
-      <c r="E12" s="95" t="s">
-        <v>70</v>
-      </c>
-      <c r="F12" s="95" t="s">
-        <v>71</v>
-      </c>
-      <c r="G12" s="96" t="s">
-        <v>72</v>
-      </c>
-      <c r="H12" s="96" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B13" s="92">
-        <v>11</v>
-      </c>
-      <c r="C13" s="92" t="s">
-        <v>49</v>
-      </c>
-      <c r="D13" s="92" t="s">
-        <v>50</v>
-      </c>
-      <c r="E13" s="92" t="s">
-        <v>74</v>
-      </c>
-      <c r="F13" s="92" t="s">
-        <v>75</v>
-      </c>
-      <c r="G13" s="93"/>
-      <c r="H13" s="94"/>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B14" s="92">
-        <v>12</v>
-      </c>
-      <c r="C14" s="92" t="s">
-        <v>49</v>
-      </c>
-      <c r="D14" s="92" t="s">
-        <v>50</v>
-      </c>
-      <c r="E14" s="92" t="s">
-        <v>76</v>
-      </c>
-      <c r="F14" s="92" t="s">
-        <v>52</v>
-      </c>
-      <c r="G14" s="93"/>
-      <c r="H14" s="94"/>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B15" s="92">
-        <v>13</v>
-      </c>
-      <c r="C15" s="92" t="s">
-        <v>49</v>
-      </c>
-      <c r="D15" s="92" t="s">
-        <v>77</v>
-      </c>
-      <c r="E15" s="92" t="s">
-        <v>78</v>
-      </c>
-      <c r="F15" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="G15" s="93" t="s">
-        <v>80</v>
-      </c>
-      <c r="H15" s="101" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B16" s="95">
-        <v>14</v>
-      </c>
-      <c r="C16" s="95" t="s">
-        <v>49</v>
-      </c>
-      <c r="D16" s="95" t="s">
-        <v>77</v>
-      </c>
-      <c r="E16" s="95" t="s">
-        <v>81</v>
-      </c>
-      <c r="F16" s="95" t="s">
-        <v>82</v>
-      </c>
-      <c r="G16" s="96" t="s">
-        <v>83</v>
-      </c>
-      <c r="H16" s="96" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B17" s="92">
-        <v>15</v>
-      </c>
-      <c r="C17" s="92" t="s">
-        <v>49</v>
-      </c>
-      <c r="D17" s="92" t="s">
-        <v>77</v>
-      </c>
-      <c r="E17" s="92" t="s">
-        <v>84</v>
-      </c>
-      <c r="F17" s="92" t="s">
-        <v>85</v>
-      </c>
-      <c r="G17" s="93"/>
-      <c r="H17" s="94"/>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B18" s="92">
-        <v>16</v>
-      </c>
-      <c r="C18" s="92" t="s">
-        <v>49</v>
-      </c>
-      <c r="D18" s="92" t="s">
-        <v>77</v>
-      </c>
-      <c r="E18" s="92" t="s">
-        <v>86</v>
-      </c>
-      <c r="F18" s="92" t="s">
-        <v>87</v>
-      </c>
-      <c r="G18" s="93"/>
-      <c r="H18" s="94"/>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B19" s="92">
-        <v>17</v>
-      </c>
-      <c r="C19" s="92" t="s">
-        <v>49</v>
-      </c>
-      <c r="D19" s="92" t="s">
-        <v>77</v>
-      </c>
-      <c r="E19" s="92" t="s">
-        <v>88</v>
-      </c>
-      <c r="F19" s="92" t="s">
-        <v>89</v>
-      </c>
-      <c r="G19" s="93"/>
-      <c r="H19" s="94"/>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B20" s="92">
-        <v>18</v>
-      </c>
-      <c r="C20" s="92" t="s">
-        <v>49</v>
-      </c>
-      <c r="D20" s="92" t="s">
-        <v>77</v>
-      </c>
-      <c r="E20" s="92" t="s">
-        <v>90</v>
-      </c>
-      <c r="F20" s="92" t="s">
-        <v>91</v>
-      </c>
-      <c r="G20" s="93"/>
-      <c r="H20" s="94"/>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B21" s="92">
-        <v>19</v>
-      </c>
-      <c r="C21" s="92" t="s">
-        <v>49</v>
-      </c>
-      <c r="D21" s="92" t="s">
-        <v>77</v>
-      </c>
-      <c r="E21" s="92" t="s">
-        <v>92</v>
-      </c>
-      <c r="F21" s="92" t="s">
-        <v>93</v>
-      </c>
-      <c r="G21" s="93"/>
-      <c r="H21" s="94"/>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B22" s="92">
-        <v>20</v>
-      </c>
-      <c r="C22" s="92" t="s">
-        <v>49</v>
-      </c>
-      <c r="D22" s="92" t="s">
-        <v>77</v>
-      </c>
-      <c r="E22" s="92" t="s">
-        <v>94</v>
-      </c>
-      <c r="F22" s="92" t="s">
-        <v>95</v>
-      </c>
-      <c r="G22" s="93"/>
-      <c r="H22" s="94"/>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B23" s="92">
-        <v>21</v>
-      </c>
-      <c r="C23" s="92" t="s">
-        <v>49</v>
-      </c>
-      <c r="D23" s="92" t="s">
-        <v>96</v>
-      </c>
-      <c r="E23" s="92" t="s">
-        <v>97</v>
-      </c>
-      <c r="F23" s="92" t="s">
-        <v>98</v>
-      </c>
-      <c r="G23" s="93" t="s">
-        <v>80</v>
-      </c>
-      <c r="H23" s="101" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B24" s="92">
-        <v>22</v>
-      </c>
-      <c r="C24" s="92" t="s">
-        <v>49</v>
-      </c>
-      <c r="D24" s="92" t="s">
-        <v>96</v>
-      </c>
-      <c r="E24" s="92" t="s">
-        <v>99</v>
-      </c>
-      <c r="F24" s="92" t="s">
-        <v>100</v>
-      </c>
-      <c r="G24" s="93" t="s">
-        <v>80</v>
-      </c>
-      <c r="H24" s="101" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B25" s="95">
-        <v>23</v>
-      </c>
-      <c r="C25" s="95" t="s">
-        <v>49</v>
-      </c>
-      <c r="D25" s="95" t="s">
-        <v>96</v>
-      </c>
-      <c r="E25" s="95" t="s">
-        <v>101</v>
-      </c>
-      <c r="F25" s="95" t="s">
-        <v>102</v>
-      </c>
-      <c r="G25" s="96" t="s">
-        <v>83</v>
-      </c>
-      <c r="H25" s="96" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B26" s="92">
-        <v>24</v>
-      </c>
-      <c r="C26" s="92" t="s">
-        <v>49</v>
-      </c>
-      <c r="D26" s="92" t="s">
-        <v>96</v>
-      </c>
-      <c r="E26" s="92" t="s">
-        <v>103</v>
-      </c>
-      <c r="F26" s="92" t="s">
-        <v>104</v>
-      </c>
-      <c r="G26" s="93"/>
-      <c r="H26" s="94"/>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B27" s="92">
-        <v>25</v>
-      </c>
-      <c r="C27" s="92" t="s">
-        <v>49</v>
-      </c>
-      <c r="D27" s="92" t="s">
-        <v>96</v>
-      </c>
-      <c r="E27" s="92" t="s">
-        <v>105</v>
-      </c>
-      <c r="F27" s="92" t="s">
-        <v>106</v>
-      </c>
-      <c r="G27" s="93"/>
-      <c r="H27" s="94"/>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B28" s="92">
-        <v>26</v>
-      </c>
-      <c r="C28" s="92" t="s">
-        <v>49</v>
-      </c>
-      <c r="D28" s="92" t="s">
-        <v>96</v>
-      </c>
-      <c r="E28" s="92" t="s">
-        <v>107</v>
-      </c>
-      <c r="F28" s="92" t="s">
-        <v>108</v>
-      </c>
-      <c r="G28" s="93"/>
-      <c r="H28" s="94"/>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B29" s="92">
-        <v>27</v>
-      </c>
-      <c r="C29" s="92" t="s">
-        <v>49</v>
-      </c>
-      <c r="D29" s="92" t="s">
-        <v>96</v>
-      </c>
-      <c r="E29" s="92" t="s">
-        <v>109</v>
-      </c>
-      <c r="F29" s="92" t="s">
-        <v>110</v>
-      </c>
-      <c r="G29" s="93"/>
-      <c r="H29" s="94"/>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B30" s="92">
-        <v>28</v>
-      </c>
-      <c r="C30" s="92" t="s">
-        <v>49</v>
-      </c>
-      <c r="D30" s="92" t="s">
-        <v>96</v>
-      </c>
-      <c r="E30" s="92" t="s">
-        <v>111</v>
-      </c>
-      <c r="F30" s="92" t="s">
-        <v>112</v>
-      </c>
-      <c r="G30" s="93"/>
-      <c r="H30" s="94"/>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B31" s="92">
-        <v>29</v>
-      </c>
-      <c r="C31" s="92" t="s">
-        <v>49</v>
-      </c>
-      <c r="D31" s="92" t="s">
-        <v>96</v>
-      </c>
-      <c r="E31" s="92" t="s">
-        <v>101</v>
-      </c>
-      <c r="F31" s="92" t="s">
-        <v>113</v>
-      </c>
-      <c r="G31" s="93"/>
-      <c r="H31" s="94"/>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B32" s="92">
-        <v>30</v>
-      </c>
-      <c r="C32" s="92" t="s">
-        <v>49</v>
-      </c>
-      <c r="D32" s="92" t="s">
-        <v>96</v>
-      </c>
-      <c r="E32" s="92" t="s">
-        <v>114</v>
-      </c>
-      <c r="F32" s="92" t="s">
-        <v>115</v>
-      </c>
-      <c r="G32" s="93"/>
-      <c r="H32" s="94"/>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B33" s="95">
-        <v>31</v>
-      </c>
-      <c r="C33" s="95" t="s">
-        <v>116</v>
-      </c>
-      <c r="D33" s="95" t="s">
-        <v>117</v>
-      </c>
-      <c r="E33" s="95" t="s">
-        <v>118</v>
-      </c>
-      <c r="F33" s="95" t="s">
-        <v>119</v>
-      </c>
-      <c r="G33" s="96" t="s">
-        <v>72</v>
-      </c>
-      <c r="H33" s="96" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B34" s="92">
-        <v>32</v>
-      </c>
-      <c r="C34" s="92" t="s">
-        <v>116</v>
-      </c>
-      <c r="D34" s="92" t="s">
-        <v>117</v>
-      </c>
-      <c r="E34" s="92" t="s">
-        <v>120</v>
-      </c>
-      <c r="F34" s="92" t="s">
-        <v>121</v>
-      </c>
-      <c r="G34" s="93"/>
-      <c r="H34" s="94"/>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B35" s="92">
-        <v>33</v>
-      </c>
-      <c r="C35" s="92" t="s">
-        <v>116</v>
-      </c>
-      <c r="D35" s="92" t="s">
-        <v>117</v>
-      </c>
-      <c r="E35" s="92" t="s">
-        <v>122</v>
-      </c>
-      <c r="F35" s="92" t="s">
-        <v>123</v>
-      </c>
-      <c r="G35" s="93"/>
-      <c r="H35" s="94"/>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B36" s="92">
-        <v>34</v>
-      </c>
-      <c r="C36" s="92" t="s">
-        <v>116</v>
-      </c>
-      <c r="D36" s="92" t="s">
-        <v>117</v>
-      </c>
-      <c r="E36" s="92" t="s">
-        <v>124</v>
-      </c>
-      <c r="F36" s="92" t="s">
-        <v>125</v>
-      </c>
-      <c r="G36" s="93"/>
-      <c r="H36" s="94"/>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B37" s="92">
-        <v>35</v>
-      </c>
-      <c r="C37" s="92" t="s">
-        <v>116</v>
-      </c>
-      <c r="D37" s="92" t="s">
-        <v>117</v>
-      </c>
-      <c r="E37" s="92" t="s">
-        <v>126</v>
-      </c>
-      <c r="F37" s="92" t="s">
-        <v>127</v>
-      </c>
-      <c r="G37" s="93"/>
-      <c r="H37" s="94"/>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B38" s="92">
-        <v>36</v>
-      </c>
-      <c r="C38" s="92" t="s">
-        <v>116</v>
-      </c>
-      <c r="D38" s="92" t="s">
-        <v>117</v>
-      </c>
-      <c r="E38" s="92" t="s">
-        <v>128</v>
-      </c>
-      <c r="F38" s="92" t="s">
-        <v>129</v>
-      </c>
-      <c r="G38" s="93"/>
-      <c r="H38" s="94"/>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B39" s="92">
-        <v>37</v>
-      </c>
-      <c r="C39" s="92" t="s">
-        <v>116</v>
-      </c>
-      <c r="D39" s="92" t="s">
-        <v>117</v>
-      </c>
-      <c r="E39" s="92" t="s">
-        <v>130</v>
-      </c>
-      <c r="F39" s="92" t="s">
-        <v>131</v>
-      </c>
-      <c r="G39" s="93" t="s">
-        <v>53</v>
-      </c>
-      <c r="H39" s="101" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B40" s="92">
-        <v>38</v>
-      </c>
-      <c r="C40" s="92" t="s">
-        <v>116</v>
-      </c>
-      <c r="D40" s="92" t="s">
-        <v>117</v>
-      </c>
-      <c r="E40" s="92" t="s">
-        <v>132</v>
-      </c>
-      <c r="F40" s="92" t="s">
-        <v>133</v>
-      </c>
-      <c r="G40" s="93"/>
-      <c r="H40" s="94"/>
-    </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B41" s="92">
-        <v>39</v>
-      </c>
-      <c r="C41" s="92" t="s">
-        <v>116</v>
-      </c>
-      <c r="D41" s="92" t="s">
-        <v>117</v>
-      </c>
-      <c r="E41" s="92" t="s">
-        <v>134</v>
-      </c>
-      <c r="F41" s="92" t="s">
-        <v>135</v>
-      </c>
-      <c r="G41" s="93"/>
-      <c r="H41" s="94"/>
-    </row>
-    <row r="42" spans="2:8" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="95">
-        <v>40</v>
-      </c>
-      <c r="C42" s="95" t="s">
-        <v>116</v>
-      </c>
-      <c r="D42" s="95" t="s">
-        <v>117</v>
-      </c>
-      <c r="E42" s="95" t="s">
-        <v>136</v>
-      </c>
-      <c r="F42" s="95" t="s">
-        <v>137</v>
-      </c>
-      <c r="G42" s="96" t="s">
-        <v>72</v>
-      </c>
-      <c r="H42" s="96" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B43" s="92">
-        <v>41</v>
-      </c>
-      <c r="C43" s="92" t="s">
-        <v>138</v>
-      </c>
-      <c r="D43" s="92" t="s">
-        <v>139</v>
-      </c>
-      <c r="E43" s="92" t="s">
-        <v>140</v>
-      </c>
-      <c r="F43" s="92" t="s">
-        <v>141</v>
-      </c>
-      <c r="G43" s="93"/>
-      <c r="H43" s="93"/>
-    </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B44" s="92">
-        <v>42</v>
-      </c>
-      <c r="C44" s="92" t="s">
-        <v>138</v>
-      </c>
-      <c r="D44" s="92" t="s">
-        <v>139</v>
-      </c>
-      <c r="E44" s="92" t="s">
-        <v>142</v>
-      </c>
-      <c r="F44" s="92" t="s">
-        <v>143</v>
-      </c>
-      <c r="G44" s="93"/>
-      <c r="H44" s="93"/>
-    </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B45" s="92">
-        <v>43</v>
-      </c>
-      <c r="C45" s="92" t="s">
-        <v>138</v>
-      </c>
-      <c r="D45" s="92" t="s">
-        <v>139</v>
-      </c>
-      <c r="E45" s="92" t="s">
-        <v>144</v>
-      </c>
-      <c r="F45" s="92" t="s">
-        <v>145</v>
-      </c>
-      <c r="G45" s="93"/>
-      <c r="H45" s="93"/>
-    </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B46" s="92">
-        <v>44</v>
-      </c>
-      <c r="C46" s="92" t="s">
+      <c r="C51" s="31" t="s">
         <v>146</v>
       </c>
-      <c r="D46" s="92" t="s">
+      <c r="D51" s="31" t="s">
         <v>147</v>
       </c>
-      <c r="E46" s="92" t="s">
-        <v>148</v>
-      </c>
-      <c r="F46" s="92" t="s">
-        <v>149</v>
-      </c>
-      <c r="G46" s="93"/>
-      <c r="H46" s="93"/>
-    </row>
-    <row r="47" spans="2:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="92">
-        <v>45</v>
-      </c>
-      <c r="C47" s="92" t="s">
-        <v>146</v>
-      </c>
-      <c r="D47" s="92" t="s">
-        <v>147</v>
-      </c>
-      <c r="E47" s="92" t="s">
-        <v>150</v>
-      </c>
-      <c r="F47" s="99" t="s">
-        <v>151</v>
-      </c>
-      <c r="G47" s="93"/>
-      <c r="H47" s="93"/>
-    </row>
-    <row r="48" spans="2:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="92">
-        <v>46</v>
-      </c>
-      <c r="C48" s="92" t="s">
-        <v>146</v>
-      </c>
-      <c r="D48" s="92" t="s">
-        <v>147</v>
-      </c>
-      <c r="E48" s="92" t="s">
-        <v>152</v>
-      </c>
-      <c r="F48" s="99" t="s">
-        <v>153</v>
-      </c>
-      <c r="G48" s="93"/>
-      <c r="H48" s="93"/>
-    </row>
-    <row r="49" spans="2:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="92">
-        <v>47</v>
-      </c>
-      <c r="C49" s="92" t="s">
-        <v>146</v>
-      </c>
-      <c r="D49" s="92" t="s">
-        <v>147</v>
-      </c>
-      <c r="E49" s="92" t="s">
-        <v>154</v>
-      </c>
-      <c r="F49" s="99" t="s">
-        <v>155</v>
-      </c>
-      <c r="G49" s="93"/>
-      <c r="H49" s="93"/>
-    </row>
-    <row r="50" spans="2:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="92">
-        <v>48</v>
-      </c>
-      <c r="C50" s="92" t="s">
-        <v>146</v>
-      </c>
-      <c r="D50" s="92" t="s">
-        <v>147</v>
-      </c>
-      <c r="E50" s="92" t="s">
-        <v>156</v>
-      </c>
-      <c r="F50" s="99" t="s">
-        <v>157</v>
-      </c>
-      <c r="G50" s="93"/>
-      <c r="H50" s="93"/>
-    </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B51" s="92">
-        <v>49</v>
-      </c>
-      <c r="C51" s="92" t="s">
-        <v>146</v>
-      </c>
-      <c r="D51" s="92" t="s">
-        <v>147</v>
-      </c>
-      <c r="E51" s="92" t="s">
+      <c r="E51" s="31" t="s">
         <v>158</v>
       </c>
-      <c r="F51" s="92" t="s">
+      <c r="F51" s="31" t="s">
         <v>159</v>
       </c>
-      <c r="G51" s="93"/>
-      <c r="H51" s="93"/>
+      <c r="G51" s="32"/>
+      <c r="H51" s="32"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="H25:H1048576 H17:H23 H1:H15">
-    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="〇">
+  <conditionalFormatting sqref="H25:H1048576 H1:H15 H19:H23">
+    <cfRule type="containsText" dxfId="7" priority="9" operator="containsText" text="〇">
       <formula>NOT(ISERROR(SEARCH("〇",H1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H16">
-    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="〇">
+  <conditionalFormatting sqref="H16:H18">
+    <cfRule type="containsText" dxfId="6" priority="8" operator="containsText" text="〇">
       <formula>NOT(ISERROR(SEARCH("〇",H16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="〇">
+    <cfRule type="containsText" dxfId="5" priority="6" operator="containsText" text="〇">
       <formula>NOT(ISERROR(SEARCH("〇",H24)))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="I3:AL4">
+    <cfRule type="expression" dxfId="2" priority="1">
+      <formula>TEXT(I3,"aaa")="日"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>TEXT(I3,"aaa")="土"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2:AL2">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="5">
+      <formula>LEN(TRIM(I2))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/doc/進捗管理表_D3.xlsx
+++ b/doc/進捗管理表_D3.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="176">
   <si>
     <t>プロジェクト名</t>
   </si>
@@ -155,13 +155,13 @@
     <t>PWResetServlet.java</t>
   </si>
   <si>
-    <t>確認中</t>
-  </si>
-  <si>
     <t>川口</t>
   </si>
   <si>
     <t>ReportServlet.java</t>
+  </si>
+  <si>
+    <t>確認中</t>
   </si>
   <si>
     <t>POSTERDao.java</t>
@@ -180,9 +180,6 @@
   </si>
   <si>
     <t>common.js</t>
-  </si>
-  <si>
-    <t>未着手</t>
   </si>
   <si>
     <t>common.css</t>
@@ -246,6 +243,9 @@
   </si>
   <si>
     <t>list.css</t>
+  </si>
+  <si>
+    <t>未着手</t>
   </si>
   <si>
     <t>LoginServlet.java</t>
@@ -991,6 +991,14 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -1104,20 +1112,12 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="169">
+  <cellXfs count="174">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
@@ -1292,6 +1292,9 @@
     <xf borderId="5" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
+    <xf borderId="17" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf borderId="14" fillId="6" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -1316,13 +1319,16 @@
     <xf borderId="5" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="17" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="28" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="28" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="26" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="29" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="29" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="30" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf borderId="22" fillId="10" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
@@ -1331,16 +1337,16 @@
     <xf borderId="22" fillId="9" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="30" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="31" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf borderId="16" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="31" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="32" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="32" fillId="10" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="33" fillId="10" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf borderId="12" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -1355,10 +1361,10 @@
     <xf borderId="7" fillId="0" fontId="4" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="33" fillId="9" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="34" fillId="9" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="17" fillId="9" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="21" fillId="9" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="7" fillId="9" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -1391,34 +1397,34 @@
     <xf borderId="5" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="34" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="35" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="35" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="36" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="36" fillId="9" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="36" fillId="7" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="35" fillId="10" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf borderId="35" fillId="9" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="35" fillId="7" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="33" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="34" fillId="10" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="33" fillId="7" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="34" fillId="9" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="33" fillId="8" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="32" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="32" fillId="7" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="32" fillId="8" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="32" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="33" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -1454,7 +1460,7 @@
     <xf borderId="5" fillId="9" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="32" fillId="11" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="33" fillId="11" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf borderId="7" fillId="12" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
@@ -1469,7 +1475,7 @@
     <xf borderId="7" fillId="12" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="34" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="35" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="7" fillId="13" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
@@ -1514,10 +1520,10 @@
     <xf borderId="14" fillId="7" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="34" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="35" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="36" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="37" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf borderId="14" fillId="16" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
@@ -1529,10 +1535,10 @@
     <xf borderId="14" fillId="8" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="35" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="36" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="36" fillId="9" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="37" fillId="9" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf borderId="0" fillId="13" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -1604,23 +1610,32 @@
     <xf borderId="21" fillId="9" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="37" fillId="9" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="38" fillId="9" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="37" fillId="9" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="38" fillId="9" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="37" fillId="9" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="38" fillId="9" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="37" fillId="9" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="7" fillId="9" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="7" fillId="9" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="38" fillId="9" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="38" fillId="9" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="28" fillId="9" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="3" fillId="9" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="3" fillId="9" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="39" fillId="9" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
@@ -1738,11 +1753,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>-133350</xdr:rowOff>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="4943475" cy="2771775"/>
+    <xdr:ext cx="4638675" cy="2790825"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="0" name="image1.png" title="画像"/>
@@ -1983,8 +1998,8 @@
     <col customWidth="1" min="16" max="17" width="3.29"/>
     <col customWidth="1" min="18" max="18" width="9.71"/>
     <col customWidth="1" min="19" max="22" width="8.0"/>
-    <col customWidth="1" hidden="1" min="23" max="40" width="3.29"/>
-    <col customWidth="1" min="41" max="54" width="3.29"/>
+    <col customWidth="1" hidden="1" min="23" max="41" width="3.29"/>
+    <col customWidth="1" min="42" max="54" width="3.29"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3134,36 +3149,36 @@
       <c r="Q17" s="8"/>
       <c r="R17" s="45"/>
       <c r="S17" s="48"/>
-      <c r="T17" s="48" t="s">
+      <c r="T17" s="58" t="s">
         <v>27</v>
       </c>
       <c r="U17" s="48"/>
       <c r="V17" s="48"/>
-      <c r="W17" s="58"/>
-      <c r="X17" s="59"/>
-      <c r="Y17" s="59"/>
-      <c r="Z17" s="59"/>
-      <c r="AA17" s="59"/>
-      <c r="AB17" s="59"/>
-      <c r="AC17" s="59"/>
-      <c r="AD17" s="59"/>
-      <c r="AE17" s="59"/>
-      <c r="AF17" s="59"/>
-      <c r="AG17" s="59"/>
-      <c r="AH17" s="59"/>
-      <c r="AI17" s="59"/>
-      <c r="AJ17" s="59"/>
-      <c r="AK17" s="59"/>
-      <c r="AL17" s="59"/>
-      <c r="AM17" s="60"/>
-      <c r="AN17" s="60"/>
-      <c r="AO17" s="59"/>
-      <c r="AP17" s="59"/>
-      <c r="AQ17" s="59"/>
-      <c r="AR17" s="59"/>
-      <c r="AS17" s="59"/>
-      <c r="AT17" s="61"/>
-      <c r="AU17" s="61"/>
+      <c r="W17" s="59"/>
+      <c r="X17" s="60"/>
+      <c r="Y17" s="60"/>
+      <c r="Z17" s="60"/>
+      <c r="AA17" s="60"/>
+      <c r="AB17" s="60"/>
+      <c r="AC17" s="60"/>
+      <c r="AD17" s="60"/>
+      <c r="AE17" s="60"/>
+      <c r="AF17" s="60"/>
+      <c r="AG17" s="60"/>
+      <c r="AH17" s="60"/>
+      <c r="AI17" s="60"/>
+      <c r="AJ17" s="60"/>
+      <c r="AK17" s="60"/>
+      <c r="AL17" s="60"/>
+      <c r="AM17" s="61"/>
+      <c r="AN17" s="61"/>
+      <c r="AO17" s="60"/>
+      <c r="AP17" s="60"/>
+      <c r="AQ17" s="60"/>
+      <c r="AR17" s="60"/>
+      <c r="AS17" s="60"/>
+      <c r="AT17" s="62"/>
+      <c r="AU17" s="62"/>
       <c r="AV17" s="50"/>
       <c r="AW17" s="50"/>
       <c r="AX17" s="50"/>
@@ -3173,12 +3188,12 @@
       <c r="BB17" s="13"/>
     </row>
     <row r="18" ht="18.0" customHeight="1">
-      <c r="A18" s="62"/>
+      <c r="A18" s="63"/>
       <c r="B18" s="16"/>
-      <c r="C18" s="63"/>
-      <c r="D18" s="63"/>
-      <c r="E18" s="64"/>
-      <c r="F18" s="65" t="s">
+      <c r="C18" s="64"/>
+      <c r="D18" s="64"/>
+      <c r="E18" s="65"/>
+      <c r="F18" s="66" t="s">
         <v>43</v>
       </c>
       <c r="G18" s="8"/>
@@ -3195,23 +3210,23 @@
         <v>45092.0</v>
       </c>
       <c r="P18" s="54" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="Q18" s="8"/>
       <c r="R18" s="45"/>
-      <c r="S18" s="66">
+      <c r="S18" s="67">
         <f t="shared" ref="S18:S68" si="1">IF(P18="未着手",0,IF(P18="作業中",50,IF(P18="確認中",75,IF(P18="終了",100,""))))</f>
-        <v>75</v>
-      </c>
-      <c r="T18" s="66" t="s">
-        <v>45</v>
-      </c>
-      <c r="U18" s="55">
+        <v>100</v>
+      </c>
+      <c r="T18" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="U18" s="68">
         <v>2.0</v>
       </c>
       <c r="V18" s="48">
         <f t="shared" ref="V18:V68" si="2">U18*S18/100</f>
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="W18" s="49"/>
       <c r="X18" s="50"/>
@@ -3220,24 +3235,24 @@
       <c r="AA18" s="50"/>
       <c r="AB18" s="50"/>
       <c r="AC18" s="50"/>
-      <c r="AD18" s="67"/>
-      <c r="AE18" s="68"/>
+      <c r="AD18" s="69"/>
+      <c r="AE18" s="70"/>
       <c r="AF18" s="50"/>
       <c r="AG18" s="50"/>
-      <c r="AH18" s="69"/>
-      <c r="AI18" s="69"/>
-      <c r="AJ18" s="70"/>
-      <c r="AK18" s="70"/>
-      <c r="AL18" s="70"/>
-      <c r="AM18" s="60"/>
-      <c r="AN18" s="60"/>
+      <c r="AH18" s="71"/>
+      <c r="AI18" s="71"/>
+      <c r="AJ18" s="72"/>
+      <c r="AK18" s="72"/>
+      <c r="AL18" s="72"/>
+      <c r="AM18" s="61"/>
+      <c r="AN18" s="61"/>
       <c r="AO18" s="50"/>
       <c r="AP18" s="50"/>
       <c r="AQ18" s="50"/>
       <c r="AR18" s="50"/>
       <c r="AS18" s="50"/>
-      <c r="AT18" s="61"/>
-      <c r="AU18" s="61"/>
+      <c r="AT18" s="62"/>
+      <c r="AU18" s="62"/>
       <c r="AV18" s="50"/>
       <c r="AW18" s="50"/>
       <c r="AX18" s="50"/>
@@ -3252,8 +3267,8 @@
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
       <c r="E19" s="45"/>
-      <c r="F19" s="65" t="s">
-        <v>46</v>
+      <c r="F19" s="66" t="s">
+        <v>45</v>
       </c>
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
@@ -3269,16 +3284,16 @@
         <v>45092.0</v>
       </c>
       <c r="P19" s="54" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="Q19" s="8"/>
       <c r="R19" s="45"/>
-      <c r="S19" s="66">
+      <c r="S19" s="67">
         <f t="shared" si="1"/>
         <v>75</v>
       </c>
       <c r="T19" s="34"/>
-      <c r="U19" s="55">
+      <c r="U19" s="68">
         <v>2.0</v>
       </c>
       <c r="V19" s="48">
@@ -3292,24 +3307,24 @@
       <c r="AA19" s="50"/>
       <c r="AB19" s="50"/>
       <c r="AC19" s="50"/>
-      <c r="AD19" s="71"/>
-      <c r="AE19" s="72"/>
+      <c r="AD19" s="73"/>
+      <c r="AE19" s="74"/>
       <c r="AF19" s="50"/>
       <c r="AG19" s="50"/>
-      <c r="AH19" s="69"/>
-      <c r="AI19" s="69"/>
-      <c r="AJ19" s="70"/>
-      <c r="AK19" s="70"/>
-      <c r="AL19" s="70"/>
-      <c r="AM19" s="60"/>
-      <c r="AN19" s="60"/>
+      <c r="AH19" s="71"/>
+      <c r="AI19" s="71"/>
+      <c r="AJ19" s="72"/>
+      <c r="AK19" s="72"/>
+      <c r="AL19" s="72"/>
+      <c r="AM19" s="61"/>
+      <c r="AN19" s="61"/>
       <c r="AO19" s="50"/>
       <c r="AP19" s="50"/>
       <c r="AQ19" s="50"/>
       <c r="AR19" s="50"/>
       <c r="AS19" s="50"/>
-      <c r="AT19" s="61"/>
-      <c r="AU19" s="61"/>
+      <c r="AT19" s="62"/>
+      <c r="AU19" s="62"/>
       <c r="AV19" s="50"/>
       <c r="AW19" s="50"/>
       <c r="AX19" s="50"/>
@@ -3324,7 +3339,7 @@
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
       <c r="E20" s="45"/>
-      <c r="F20" s="65" t="s">
+      <c r="F20" s="66" t="s">
         <v>47</v>
       </c>
       <c r="G20" s="8"/>
@@ -3345,12 +3360,12 @@
       </c>
       <c r="Q20" s="8"/>
       <c r="R20" s="45"/>
-      <c r="S20" s="66">
+      <c r="S20" s="67">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="T20" s="34"/>
-      <c r="U20" s="55">
+      <c r="U20" s="68">
         <v>2.0</v>
       </c>
       <c r="V20" s="48">
@@ -3364,24 +3379,24 @@
       <c r="AA20" s="50"/>
       <c r="AB20" s="50"/>
       <c r="AC20" s="50"/>
-      <c r="AD20" s="73"/>
-      <c r="AE20" s="72"/>
+      <c r="AD20" s="75"/>
+      <c r="AE20" s="74"/>
       <c r="AF20" s="50"/>
       <c r="AG20" s="50"/>
-      <c r="AH20" s="74"/>
-      <c r="AI20" s="69"/>
-      <c r="AJ20" s="70"/>
-      <c r="AK20" s="70"/>
-      <c r="AL20" s="70"/>
-      <c r="AM20" s="60"/>
-      <c r="AN20" s="60"/>
+      <c r="AH20" s="76"/>
+      <c r="AI20" s="71"/>
+      <c r="AJ20" s="72"/>
+      <c r="AK20" s="72"/>
+      <c r="AL20" s="72"/>
+      <c r="AM20" s="61"/>
+      <c r="AN20" s="61"/>
       <c r="AO20" s="50"/>
       <c r="AP20" s="50"/>
       <c r="AQ20" s="50"/>
       <c r="AR20" s="50"/>
       <c r="AS20" s="50"/>
-      <c r="AT20" s="61"/>
-      <c r="AU20" s="61"/>
+      <c r="AT20" s="62"/>
+      <c r="AU20" s="62"/>
       <c r="AV20" s="50"/>
       <c r="AW20" s="50"/>
       <c r="AX20" s="50"/>
@@ -3396,7 +3411,7 @@
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
       <c r="E21" s="45"/>
-      <c r="F21" s="65" t="s">
+      <c r="F21" s="66" t="s">
         <v>48</v>
       </c>
       <c r="G21" s="8"/>
@@ -3417,12 +3432,12 @@
       </c>
       <c r="Q21" s="8"/>
       <c r="R21" s="45"/>
-      <c r="S21" s="66">
+      <c r="S21" s="67">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="T21" s="34"/>
-      <c r="U21" s="55">
+      <c r="U21" s="68">
         <v>2.0</v>
       </c>
       <c r="V21" s="48">
@@ -3436,24 +3451,24 @@
       <c r="AA21" s="50"/>
       <c r="AB21" s="50"/>
       <c r="AC21" s="50"/>
-      <c r="AD21" s="73"/>
-      <c r="AE21" s="72"/>
+      <c r="AD21" s="75"/>
+      <c r="AE21" s="74"/>
       <c r="AF21" s="50"/>
-      <c r="AG21" s="75"/>
-      <c r="AH21" s="76"/>
-      <c r="AI21" s="77"/>
-      <c r="AJ21" s="69"/>
-      <c r="AK21" s="70"/>
-      <c r="AL21" s="70"/>
-      <c r="AM21" s="60"/>
-      <c r="AN21" s="60"/>
+      <c r="AG21" s="77"/>
+      <c r="AH21" s="78"/>
+      <c r="AI21" s="79"/>
+      <c r="AJ21" s="71"/>
+      <c r="AK21" s="72"/>
+      <c r="AL21" s="72"/>
+      <c r="AM21" s="61"/>
+      <c r="AN21" s="61"/>
       <c r="AO21" s="50"/>
       <c r="AP21" s="50"/>
       <c r="AQ21" s="50"/>
       <c r="AR21" s="50"/>
       <c r="AS21" s="50"/>
-      <c r="AT21" s="61"/>
-      <c r="AU21" s="61"/>
+      <c r="AT21" s="62"/>
+      <c r="AU21" s="62"/>
       <c r="AV21" s="50"/>
       <c r="AW21" s="50"/>
       <c r="AX21" s="50"/>
@@ -3468,7 +3483,7 @@
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
       <c r="E22" s="45"/>
-      <c r="F22" s="65" t="s">
+      <c r="F22" s="66" t="s">
         <v>49</v>
       </c>
       <c r="G22" s="8"/>
@@ -3489,12 +3504,12 @@
       </c>
       <c r="Q22" s="8"/>
       <c r="R22" s="45"/>
-      <c r="S22" s="66">
+      <c r="S22" s="67">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="T22" s="34"/>
-      <c r="U22" s="55">
+      <c r="U22" s="68">
         <v>2.0</v>
       </c>
       <c r="V22" s="48">
@@ -3508,24 +3523,24 @@
       <c r="AA22" s="50"/>
       <c r="AB22" s="50"/>
       <c r="AC22" s="50"/>
-      <c r="AD22" s="73"/>
-      <c r="AE22" s="72"/>
+      <c r="AD22" s="75"/>
+      <c r="AE22" s="74"/>
       <c r="AF22" s="50"/>
-      <c r="AG22" s="75"/>
-      <c r="AH22" s="76"/>
-      <c r="AI22" s="77"/>
-      <c r="AJ22" s="69"/>
-      <c r="AK22" s="70"/>
-      <c r="AL22" s="70"/>
-      <c r="AM22" s="60"/>
-      <c r="AN22" s="60"/>
+      <c r="AG22" s="77"/>
+      <c r="AH22" s="78"/>
+      <c r="AI22" s="79"/>
+      <c r="AJ22" s="71"/>
+      <c r="AK22" s="72"/>
+      <c r="AL22" s="72"/>
+      <c r="AM22" s="61"/>
+      <c r="AN22" s="61"/>
       <c r="AO22" s="50"/>
       <c r="AP22" s="50"/>
       <c r="AQ22" s="50"/>
       <c r="AR22" s="50"/>
       <c r="AS22" s="50"/>
-      <c r="AT22" s="61"/>
-      <c r="AU22" s="61"/>
+      <c r="AT22" s="62"/>
+      <c r="AU22" s="62"/>
       <c r="AV22" s="50"/>
       <c r="AW22" s="50"/>
       <c r="AX22" s="50"/>
@@ -3540,7 +3555,7 @@
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
       <c r="E23" s="45"/>
-      <c r="F23" s="65" t="s">
+      <c r="F23" s="66" t="s">
         <v>50</v>
       </c>
       <c r="G23" s="8"/>
@@ -3561,12 +3576,12 @@
       </c>
       <c r="Q23" s="8"/>
       <c r="R23" s="45"/>
-      <c r="S23" s="66">
+      <c r="S23" s="67">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="T23" s="34"/>
-      <c r="U23" s="55">
+      <c r="U23" s="68">
         <v>2.0</v>
       </c>
       <c r="V23" s="48">
@@ -3580,24 +3595,24 @@
       <c r="AA23" s="50"/>
       <c r="AB23" s="50"/>
       <c r="AC23" s="50"/>
-      <c r="AD23" s="73"/>
-      <c r="AE23" s="72"/>
+      <c r="AD23" s="75"/>
+      <c r="AE23" s="74"/>
       <c r="AF23" s="50"/>
-      <c r="AG23" s="75"/>
-      <c r="AH23" s="76"/>
-      <c r="AI23" s="77"/>
-      <c r="AJ23" s="69"/>
-      <c r="AK23" s="70"/>
-      <c r="AL23" s="70"/>
-      <c r="AM23" s="60"/>
-      <c r="AN23" s="60"/>
+      <c r="AG23" s="77"/>
+      <c r="AH23" s="78"/>
+      <c r="AI23" s="79"/>
+      <c r="AJ23" s="71"/>
+      <c r="AK23" s="72"/>
+      <c r="AL23" s="72"/>
+      <c r="AM23" s="61"/>
+      <c r="AN23" s="61"/>
       <c r="AO23" s="50"/>
       <c r="AP23" s="50"/>
       <c r="AQ23" s="50"/>
       <c r="AR23" s="50"/>
       <c r="AS23" s="50"/>
-      <c r="AT23" s="61"/>
-      <c r="AU23" s="61"/>
+      <c r="AT23" s="62"/>
+      <c r="AU23" s="62"/>
       <c r="AV23" s="50"/>
       <c r="AW23" s="50"/>
       <c r="AX23" s="50"/>
@@ -3612,7 +3627,7 @@
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
       <c r="E24" s="45"/>
-      <c r="F24" s="65" t="s">
+      <c r="F24" s="66" t="s">
         <v>51</v>
       </c>
       <c r="G24" s="8"/>
@@ -3629,21 +3644,21 @@
         <v>45091.0</v>
       </c>
       <c r="P24" s="54" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="Q24" s="8"/>
       <c r="R24" s="45"/>
-      <c r="S24" s="66">
+      <c r="S24" s="67">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="T24" s="34"/>
-      <c r="U24" s="55">
+      <c r="U24" s="68">
         <v>2.0</v>
       </c>
       <c r="V24" s="48">
         <f t="shared" si="2"/>
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="W24" s="49"/>
       <c r="X24" s="50"/>
@@ -3652,24 +3667,24 @@
       <c r="AA24" s="50"/>
       <c r="AB24" s="50"/>
       <c r="AC24" s="50"/>
-      <c r="AD24" s="73"/>
-      <c r="AE24" s="72"/>
+      <c r="AD24" s="75"/>
+      <c r="AE24" s="74"/>
       <c r="AF24" s="50"/>
-      <c r="AG24" s="75"/>
-      <c r="AH24" s="76"/>
-      <c r="AI24" s="77"/>
-      <c r="AJ24" s="69"/>
-      <c r="AK24" s="70"/>
-      <c r="AL24" s="70"/>
-      <c r="AM24" s="60"/>
-      <c r="AN24" s="60"/>
+      <c r="AG24" s="77"/>
+      <c r="AH24" s="78"/>
+      <c r="AI24" s="79"/>
+      <c r="AJ24" s="71"/>
+      <c r="AK24" s="72"/>
+      <c r="AL24" s="72"/>
+      <c r="AM24" s="61"/>
+      <c r="AN24" s="61"/>
       <c r="AO24" s="50"/>
       <c r="AP24" s="50"/>
       <c r="AQ24" s="50"/>
       <c r="AR24" s="50"/>
       <c r="AS24" s="50"/>
-      <c r="AT24" s="61"/>
-      <c r="AU24" s="61"/>
+      <c r="AT24" s="62"/>
+      <c r="AU24" s="62"/>
       <c r="AV24" s="50"/>
       <c r="AW24" s="50"/>
       <c r="AX24" s="50"/>
@@ -3684,7 +3699,7 @@
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
       <c r="E25" s="45"/>
-      <c r="F25" s="65" t="s">
+      <c r="F25" s="66" t="s">
         <v>52</v>
       </c>
       <c r="G25" s="8"/>
@@ -3694,28 +3709,28 @@
       <c r="K25" s="8"/>
       <c r="L25" s="8"/>
       <c r="M25" s="45"/>
-      <c r="N25" s="78">
+      <c r="N25" s="80">
         <v>45096.0</v>
       </c>
-      <c r="O25" s="78">
+      <c r="O25" s="80">
         <v>45099.0</v>
       </c>
       <c r="P25" s="54" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="Q25" s="8"/>
       <c r="R25" s="45"/>
-      <c r="S25" s="66">
+      <c r="S25" s="67">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="T25" s="34"/>
-      <c r="U25" s="55">
+      <c r="U25" s="68">
         <v>4.0</v>
       </c>
       <c r="V25" s="48">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W25" s="49"/>
       <c r="X25" s="50"/>
@@ -3724,24 +3739,24 @@
       <c r="AA25" s="50"/>
       <c r="AB25" s="50"/>
       <c r="AC25" s="50"/>
-      <c r="AD25" s="73"/>
-      <c r="AE25" s="72"/>
+      <c r="AD25" s="75"/>
+      <c r="AE25" s="74"/>
       <c r="AF25" s="50"/>
       <c r="AG25" s="50"/>
-      <c r="AH25" s="79"/>
-      <c r="AI25" s="70"/>
-      <c r="AJ25" s="70"/>
-      <c r="AK25" s="70"/>
-      <c r="AL25" s="70"/>
-      <c r="AM25" s="60"/>
-      <c r="AN25" s="60"/>
-      <c r="AO25" s="69"/>
-      <c r="AP25" s="69"/>
-      <c r="AQ25" s="69"/>
-      <c r="AR25" s="69"/>
+      <c r="AH25" s="81"/>
+      <c r="AI25" s="72"/>
+      <c r="AJ25" s="72"/>
+      <c r="AK25" s="72"/>
+      <c r="AL25" s="72"/>
+      <c r="AM25" s="61"/>
+      <c r="AN25" s="61"/>
+      <c r="AO25" s="71"/>
+      <c r="AP25" s="71"/>
+      <c r="AQ25" s="71"/>
+      <c r="AR25" s="71"/>
       <c r="AS25" s="50"/>
-      <c r="AT25" s="61"/>
-      <c r="AU25" s="61"/>
+      <c r="AT25" s="62"/>
+      <c r="AU25" s="62"/>
       <c r="AV25" s="50"/>
       <c r="AW25" s="50"/>
       <c r="AX25" s="50"/>
@@ -3756,8 +3771,8 @@
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
       <c r="E26" s="45"/>
-      <c r="F26" s="65" t="s">
-        <v>54</v>
+      <c r="F26" s="66" t="s">
+        <v>53</v>
       </c>
       <c r="G26" s="8"/>
       <c r="H26" s="8"/>
@@ -3766,10 +3781,10 @@
       <c r="K26" s="8"/>
       <c r="L26" s="8"/>
       <c r="M26" s="45"/>
-      <c r="N26" s="78">
+      <c r="N26" s="80">
         <v>45096.0</v>
       </c>
-      <c r="O26" s="78">
+      <c r="O26" s="80">
         <v>45099.0</v>
       </c>
       <c r="P26" s="54" t="s">
@@ -3777,12 +3792,12 @@
       </c>
       <c r="Q26" s="8"/>
       <c r="R26" s="45"/>
-      <c r="S26" s="66">
+      <c r="S26" s="67">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="T26" s="34"/>
-      <c r="U26" s="55">
+      <c r="U26" s="68">
         <v>4.0</v>
       </c>
       <c r="V26" s="48">
@@ -3796,24 +3811,24 @@
       <c r="AA26" s="50"/>
       <c r="AB26" s="50"/>
       <c r="AC26" s="50"/>
-      <c r="AD26" s="73"/>
-      <c r="AE26" s="72"/>
+      <c r="AD26" s="75"/>
+      <c r="AE26" s="74"/>
       <c r="AF26" s="50"/>
       <c r="AG26" s="50"/>
-      <c r="AH26" s="70"/>
-      <c r="AI26" s="70"/>
-      <c r="AJ26" s="70"/>
-      <c r="AK26" s="70"/>
-      <c r="AL26" s="70"/>
-      <c r="AM26" s="60"/>
-      <c r="AN26" s="60"/>
-      <c r="AO26" s="69"/>
-      <c r="AP26" s="69"/>
-      <c r="AQ26" s="69"/>
-      <c r="AR26" s="69"/>
+      <c r="AH26" s="72"/>
+      <c r="AI26" s="72"/>
+      <c r="AJ26" s="72"/>
+      <c r="AK26" s="72"/>
+      <c r="AL26" s="72"/>
+      <c r="AM26" s="61"/>
+      <c r="AN26" s="61"/>
+      <c r="AO26" s="71"/>
+      <c r="AP26" s="71"/>
+      <c r="AQ26" s="71"/>
+      <c r="AR26" s="71"/>
       <c r="AS26" s="50"/>
-      <c r="AT26" s="61"/>
-      <c r="AU26" s="61"/>
+      <c r="AT26" s="62"/>
+      <c r="AU26" s="62"/>
       <c r="AV26" s="50"/>
       <c r="AW26" s="50"/>
       <c r="AX26" s="50"/>
@@ -3828,8 +3843,8 @@
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
       <c r="E27" s="45"/>
-      <c r="F27" s="65" t="s">
-        <v>55</v>
+      <c r="F27" s="66" t="s">
+        <v>54</v>
       </c>
       <c r="G27" s="8"/>
       <c r="H27" s="8"/>
@@ -3838,28 +3853,28 @@
       <c r="K27" s="8"/>
       <c r="L27" s="8"/>
       <c r="M27" s="45"/>
-      <c r="N27" s="78">
+      <c r="N27" s="80">
         <v>45092.0</v>
       </c>
-      <c r="O27" s="78">
+      <c r="O27" s="80">
         <v>45092.0</v>
       </c>
       <c r="P27" s="54" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="Q27" s="8"/>
       <c r="R27" s="45"/>
-      <c r="S27" s="66">
+      <c r="S27" s="67">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T27" s="34"/>
-      <c r="U27" s="55">
+        <v>50</v>
+      </c>
+      <c r="T27" s="41"/>
+      <c r="U27" s="68">
         <v>4.0</v>
       </c>
       <c r="V27" s="48">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W27" s="49"/>
       <c r="X27" s="50"/>
@@ -3868,24 +3883,24 @@
       <c r="AA27" s="50"/>
       <c r="AB27" s="50"/>
       <c r="AC27" s="50"/>
-      <c r="AD27" s="73"/>
-      <c r="AE27" s="72"/>
+      <c r="AD27" s="75"/>
+      <c r="AE27" s="74"/>
       <c r="AF27" s="50"/>
       <c r="AG27" s="50"/>
-      <c r="AH27" s="70"/>
-      <c r="AI27" s="70"/>
-      <c r="AJ27" s="70"/>
-      <c r="AK27" s="70"/>
-      <c r="AL27" s="70"/>
-      <c r="AM27" s="60"/>
-      <c r="AN27" s="60"/>
-      <c r="AO27" s="69"/>
-      <c r="AP27" s="69"/>
-      <c r="AQ27" s="69"/>
-      <c r="AR27" s="69"/>
+      <c r="AH27" s="72"/>
+      <c r="AI27" s="72"/>
+      <c r="AJ27" s="72"/>
+      <c r="AK27" s="72"/>
+      <c r="AL27" s="72"/>
+      <c r="AM27" s="61"/>
+      <c r="AN27" s="61"/>
+      <c r="AO27" s="71"/>
+      <c r="AP27" s="71"/>
+      <c r="AQ27" s="71"/>
+      <c r="AR27" s="71"/>
       <c r="AS27" s="50"/>
-      <c r="AT27" s="61"/>
-      <c r="AU27" s="61"/>
+      <c r="AT27" s="62"/>
+      <c r="AU27" s="62"/>
       <c r="AV27" s="50"/>
       <c r="AW27" s="50"/>
       <c r="AX27" s="50"/>
@@ -3900,8 +3915,8 @@
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
       <c r="E28" s="45"/>
-      <c r="F28" s="65" t="s">
-        <v>56</v>
+      <c r="F28" s="66" t="s">
+        <v>55</v>
       </c>
       <c r="G28" s="8"/>
       <c r="H28" s="8"/>
@@ -3917,23 +3932,23 @@
         <v>45093.0</v>
       </c>
       <c r="P28" s="54" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="Q28" s="8"/>
       <c r="R28" s="45"/>
-      <c r="S28" s="66">
+      <c r="S28" s="58">
         <f t="shared" si="1"/>
-        <v>75</v>
-      </c>
-      <c r="T28" s="80" t="s">
+        <v>100</v>
+      </c>
+      <c r="T28" s="82" t="s">
         <v>37</v>
       </c>
-      <c r="U28" s="81">
+      <c r="U28" s="83">
         <v>3.0</v>
       </c>
       <c r="V28" s="48">
         <f t="shared" si="2"/>
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="W28" s="49"/>
       <c r="X28" s="50"/>
@@ -3942,24 +3957,24 @@
       <c r="AA28" s="50"/>
       <c r="AB28" s="50"/>
       <c r="AC28" s="50"/>
-      <c r="AD28" s="73"/>
-      <c r="AE28" s="72"/>
+      <c r="AD28" s="75"/>
+      <c r="AE28" s="74"/>
       <c r="AF28" s="50"/>
       <c r="AG28" s="50"/>
-      <c r="AH28" s="70"/>
-      <c r="AI28" s="70"/>
-      <c r="AJ28" s="69"/>
-      <c r="AK28" s="69"/>
-      <c r="AL28" s="69"/>
-      <c r="AM28" s="60"/>
-      <c r="AN28" s="60"/>
+      <c r="AH28" s="72"/>
+      <c r="AI28" s="72"/>
+      <c r="AJ28" s="71"/>
+      <c r="AK28" s="71"/>
+      <c r="AL28" s="71"/>
+      <c r="AM28" s="61"/>
+      <c r="AN28" s="61"/>
       <c r="AO28" s="50"/>
       <c r="AP28" s="50"/>
       <c r="AQ28" s="50"/>
       <c r="AR28" s="50"/>
       <c r="AS28" s="50"/>
-      <c r="AT28" s="61"/>
-      <c r="AU28" s="61"/>
+      <c r="AT28" s="62"/>
+      <c r="AU28" s="62"/>
       <c r="AV28" s="50"/>
       <c r="AW28" s="50"/>
       <c r="AX28" s="50"/>
@@ -3974,8 +3989,8 @@
       <c r="C29" s="8"/>
       <c r="D29" s="8"/>
       <c r="E29" s="45"/>
-      <c r="F29" s="65" t="s">
-        <v>57</v>
+      <c r="F29" s="66" t="s">
+        <v>56</v>
       </c>
       <c r="G29" s="8"/>
       <c r="H29" s="8"/>
@@ -3995,12 +4010,12 @@
       </c>
       <c r="Q29" s="8"/>
       <c r="R29" s="45"/>
-      <c r="S29" s="66">
+      <c r="S29" s="58">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="T29" s="34"/>
-      <c r="U29" s="81">
+      <c r="U29" s="83">
         <v>3.0</v>
       </c>
       <c r="V29" s="48">
@@ -4014,24 +4029,24 @@
       <c r="AA29" s="50"/>
       <c r="AB29" s="50"/>
       <c r="AC29" s="50"/>
-      <c r="AD29" s="73"/>
-      <c r="AE29" s="72"/>
+      <c r="AD29" s="75"/>
+      <c r="AE29" s="74"/>
       <c r="AF29" s="50"/>
       <c r="AG29" s="50"/>
-      <c r="AH29" s="69"/>
-      <c r="AI29" s="69"/>
-      <c r="AJ29" s="69"/>
-      <c r="AK29" s="70"/>
-      <c r="AL29" s="70"/>
-      <c r="AM29" s="60"/>
-      <c r="AN29" s="60"/>
+      <c r="AH29" s="71"/>
+      <c r="AI29" s="71"/>
+      <c r="AJ29" s="71"/>
+      <c r="AK29" s="72"/>
+      <c r="AL29" s="72"/>
+      <c r="AM29" s="61"/>
+      <c r="AN29" s="61"/>
       <c r="AO29" s="50"/>
       <c r="AP29" s="50"/>
       <c r="AQ29" s="50"/>
       <c r="AR29" s="50"/>
       <c r="AS29" s="50"/>
-      <c r="AT29" s="61"/>
-      <c r="AU29" s="61"/>
+      <c r="AT29" s="62"/>
+      <c r="AU29" s="62"/>
       <c r="AV29" s="50"/>
       <c r="AW29" s="50"/>
       <c r="AX29" s="50"/>
@@ -4046,8 +4061,8 @@
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
       <c r="E30" s="45"/>
-      <c r="F30" s="65" t="s">
-        <v>58</v>
+      <c r="F30" s="66" t="s">
+        <v>57</v>
       </c>
       <c r="G30" s="8"/>
       <c r="H30" s="8"/>
@@ -4067,12 +4082,12 @@
       </c>
       <c r="Q30" s="8"/>
       <c r="R30" s="45"/>
-      <c r="S30" s="66">
+      <c r="S30" s="58">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="T30" s="34"/>
-      <c r="U30" s="81">
+      <c r="U30" s="83">
         <v>1.0</v>
       </c>
       <c r="V30" s="48">
@@ -4086,24 +4101,24 @@
       <c r="AA30" s="50"/>
       <c r="AB30" s="50"/>
       <c r="AC30" s="50"/>
-      <c r="AD30" s="73"/>
-      <c r="AE30" s="72"/>
+      <c r="AD30" s="75"/>
+      <c r="AE30" s="74"/>
       <c r="AF30" s="50"/>
       <c r="AG30" s="50"/>
-      <c r="AH30" s="70"/>
-      <c r="AI30" s="69"/>
-      <c r="AJ30" s="70"/>
-      <c r="AK30" s="70"/>
-      <c r="AL30" s="70"/>
-      <c r="AM30" s="60"/>
-      <c r="AN30" s="60"/>
+      <c r="AH30" s="72"/>
+      <c r="AI30" s="71"/>
+      <c r="AJ30" s="72"/>
+      <c r="AK30" s="72"/>
+      <c r="AL30" s="72"/>
+      <c r="AM30" s="61"/>
+      <c r="AN30" s="61"/>
       <c r="AO30" s="50"/>
       <c r="AP30" s="50"/>
       <c r="AQ30" s="50"/>
       <c r="AR30" s="50"/>
       <c r="AS30" s="50"/>
-      <c r="AT30" s="61"/>
-      <c r="AU30" s="61"/>
+      <c r="AT30" s="62"/>
+      <c r="AU30" s="62"/>
       <c r="AV30" s="50"/>
       <c r="AW30" s="50"/>
       <c r="AX30" s="50"/>
@@ -4118,8 +4133,8 @@
       <c r="C31" s="8"/>
       <c r="D31" s="8"/>
       <c r="E31" s="45"/>
-      <c r="F31" s="65" t="s">
-        <v>59</v>
+      <c r="F31" s="66" t="s">
+        <v>58</v>
       </c>
       <c r="G31" s="8"/>
       <c r="H31" s="8"/>
@@ -4128,10 +4143,10 @@
       <c r="K31" s="8"/>
       <c r="L31" s="8"/>
       <c r="M31" s="45"/>
-      <c r="N31" s="82">
+      <c r="N31" s="84">
         <v>45090.0</v>
       </c>
-      <c r="O31" s="83">
+      <c r="O31" s="85">
         <v>45093.0</v>
       </c>
       <c r="P31" s="54" t="s">
@@ -4139,12 +4154,12 @@
       </c>
       <c r="Q31" s="8"/>
       <c r="R31" s="45"/>
-      <c r="S31" s="66">
+      <c r="S31" s="58">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="T31" s="34"/>
-      <c r="U31" s="81">
+      <c r="U31" s="83">
         <v>1.0</v>
       </c>
       <c r="V31" s="48">
@@ -4158,24 +4173,24 @@
       <c r="AA31" s="50"/>
       <c r="AB31" s="50"/>
       <c r="AC31" s="50"/>
-      <c r="AD31" s="73"/>
-      <c r="AE31" s="72"/>
+      <c r="AD31" s="75"/>
+      <c r="AE31" s="74"/>
       <c r="AF31" s="50"/>
       <c r="AG31" s="50"/>
-      <c r="AH31" s="70"/>
-      <c r="AI31" s="69"/>
-      <c r="AJ31" s="70"/>
-      <c r="AK31" s="70"/>
-      <c r="AL31" s="70"/>
-      <c r="AM31" s="60"/>
-      <c r="AN31" s="60"/>
+      <c r="AH31" s="72"/>
+      <c r="AI31" s="71"/>
+      <c r="AJ31" s="72"/>
+      <c r="AK31" s="72"/>
+      <c r="AL31" s="72"/>
+      <c r="AM31" s="61"/>
+      <c r="AN31" s="61"/>
       <c r="AO31" s="50"/>
       <c r="AP31" s="50"/>
       <c r="AQ31" s="50"/>
       <c r="AR31" s="50"/>
       <c r="AS31" s="50"/>
-      <c r="AT31" s="61"/>
-      <c r="AU31" s="61"/>
+      <c r="AT31" s="62"/>
+      <c r="AU31" s="62"/>
       <c r="AV31" s="50"/>
       <c r="AW31" s="50"/>
       <c r="AX31" s="50"/>
@@ -4190,8 +4205,8 @@
       <c r="C32" s="8"/>
       <c r="D32" s="8"/>
       <c r="E32" s="45"/>
-      <c r="F32" s="65" t="s">
-        <v>60</v>
+      <c r="F32" s="66" t="s">
+        <v>59</v>
       </c>
       <c r="G32" s="8"/>
       <c r="H32" s="8"/>
@@ -4200,10 +4215,10 @@
       <c r="K32" s="8"/>
       <c r="L32" s="8"/>
       <c r="M32" s="45"/>
-      <c r="N32" s="82">
+      <c r="N32" s="84">
         <v>45090.0</v>
       </c>
-      <c r="O32" s="82">
+      <c r="O32" s="84">
         <v>45090.0</v>
       </c>
       <c r="P32" s="54" t="s">
@@ -4211,12 +4226,12 @@
       </c>
       <c r="Q32" s="8"/>
       <c r="R32" s="45"/>
-      <c r="S32" s="66">
+      <c r="S32" s="58">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="T32" s="34"/>
-      <c r="U32" s="81">
+      <c r="U32" s="83">
         <v>1.0</v>
       </c>
       <c r="V32" s="48">
@@ -4230,24 +4245,24 @@
       <c r="AA32" s="50"/>
       <c r="AB32" s="50"/>
       <c r="AC32" s="50"/>
-      <c r="AD32" s="73"/>
-      <c r="AE32" s="72"/>
+      <c r="AD32" s="75"/>
+      <c r="AE32" s="74"/>
       <c r="AF32" s="50"/>
       <c r="AG32" s="50"/>
-      <c r="AH32" s="70"/>
-      <c r="AI32" s="70"/>
-      <c r="AJ32" s="69"/>
-      <c r="AK32" s="70"/>
-      <c r="AL32" s="70"/>
-      <c r="AM32" s="60"/>
-      <c r="AN32" s="60"/>
+      <c r="AH32" s="72"/>
+      <c r="AI32" s="72"/>
+      <c r="AJ32" s="71"/>
+      <c r="AK32" s="72"/>
+      <c r="AL32" s="72"/>
+      <c r="AM32" s="61"/>
+      <c r="AN32" s="61"/>
       <c r="AO32" s="50"/>
       <c r="AP32" s="50"/>
       <c r="AQ32" s="50"/>
       <c r="AR32" s="50"/>
       <c r="AS32" s="50"/>
-      <c r="AT32" s="61"/>
-      <c r="AU32" s="61"/>
+      <c r="AT32" s="62"/>
+      <c r="AU32" s="62"/>
       <c r="AV32" s="50"/>
       <c r="AW32" s="50"/>
       <c r="AX32" s="50"/>
@@ -4262,8 +4277,8 @@
       <c r="C33" s="8"/>
       <c r="D33" s="8"/>
       <c r="E33" s="45"/>
-      <c r="F33" s="84" t="s">
-        <v>61</v>
+      <c r="F33" s="86" t="s">
+        <v>60</v>
       </c>
       <c r="G33" s="8"/>
       <c r="H33" s="8"/>
@@ -4272,10 +4287,10 @@
       <c r="K33" s="8"/>
       <c r="L33" s="8"/>
       <c r="M33" s="45"/>
-      <c r="N33" s="78">
+      <c r="N33" s="80">
         <v>45096.0</v>
       </c>
-      <c r="O33" s="78">
+      <c r="O33" s="80">
         <v>45099.0</v>
       </c>
       <c r="P33" s="54" t="s">
@@ -4283,12 +4298,12 @@
       </c>
       <c r="Q33" s="8"/>
       <c r="R33" s="45"/>
-      <c r="S33" s="66">
+      <c r="S33" s="58">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="T33" s="34"/>
-      <c r="U33" s="81">
+      <c r="U33" s="83">
         <v>2.0</v>
       </c>
       <c r="V33" s="48">
@@ -4302,24 +4317,24 @@
       <c r="AA33" s="50"/>
       <c r="AB33" s="50"/>
       <c r="AC33" s="50"/>
-      <c r="AD33" s="73"/>
-      <c r="AE33" s="72"/>
+      <c r="AD33" s="75"/>
+      <c r="AE33" s="74"/>
       <c r="AF33" s="50"/>
       <c r="AG33" s="50"/>
-      <c r="AH33" s="70"/>
-      <c r="AI33" s="70"/>
-      <c r="AJ33" s="70"/>
-      <c r="AK33" s="70"/>
-      <c r="AL33" s="70"/>
-      <c r="AM33" s="60"/>
-      <c r="AN33" s="60"/>
-      <c r="AO33" s="69"/>
-      <c r="AP33" s="69"/>
+      <c r="AH33" s="72"/>
+      <c r="AI33" s="72"/>
+      <c r="AJ33" s="72"/>
+      <c r="AK33" s="72"/>
+      <c r="AL33" s="72"/>
+      <c r="AM33" s="61"/>
+      <c r="AN33" s="61"/>
+      <c r="AO33" s="71"/>
+      <c r="AP33" s="71"/>
       <c r="AQ33" s="50"/>
       <c r="AR33" s="50"/>
       <c r="AS33" s="50"/>
-      <c r="AT33" s="61"/>
-      <c r="AU33" s="61"/>
+      <c r="AT33" s="62"/>
+      <c r="AU33" s="62"/>
       <c r="AV33" s="50"/>
       <c r="AW33" s="50"/>
       <c r="AX33" s="50"/>
@@ -4334,8 +4349,8 @@
       <c r="C34" s="8"/>
       <c r="D34" s="8"/>
       <c r="E34" s="45"/>
-      <c r="F34" s="65" t="s">
-        <v>62</v>
+      <c r="F34" s="66" t="s">
+        <v>61</v>
       </c>
       <c r="G34" s="8"/>
       <c r="H34" s="8"/>
@@ -4344,28 +4359,28 @@
       <c r="K34" s="8"/>
       <c r="L34" s="8"/>
       <c r="M34" s="45"/>
-      <c r="N34" s="82">
+      <c r="N34" s="84">
         <v>45090.0</v>
       </c>
-      <c r="O34" s="82">
+      <c r="O34" s="84">
         <v>45091.0</v>
       </c>
       <c r="P34" s="54" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="Q34" s="8"/>
       <c r="R34" s="45"/>
-      <c r="S34" s="66">
+      <c r="S34" s="58">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="T34" s="34"/>
-      <c r="U34" s="81">
+      <c r="U34" s="83">
         <v>4.0</v>
       </c>
       <c r="V34" s="48">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W34" s="49"/>
       <c r="X34" s="50"/>
@@ -4374,24 +4389,24 @@
       <c r="AA34" s="50"/>
       <c r="AB34" s="50"/>
       <c r="AC34" s="50"/>
-      <c r="AD34" s="73"/>
-      <c r="AE34" s="72"/>
+      <c r="AD34" s="75"/>
+      <c r="AE34" s="74"/>
       <c r="AF34" s="50"/>
       <c r="AG34" s="50"/>
-      <c r="AH34" s="70"/>
-      <c r="AI34" s="70"/>
-      <c r="AJ34" s="70"/>
-      <c r="AK34" s="70"/>
-      <c r="AL34" s="70"/>
-      <c r="AM34" s="60"/>
-      <c r="AN34" s="60"/>
-      <c r="AO34" s="69"/>
-      <c r="AP34" s="69"/>
-      <c r="AQ34" s="69"/>
-      <c r="AR34" s="69"/>
+      <c r="AH34" s="72"/>
+      <c r="AI34" s="72"/>
+      <c r="AJ34" s="72"/>
+      <c r="AK34" s="72"/>
+      <c r="AL34" s="72"/>
+      <c r="AM34" s="61"/>
+      <c r="AN34" s="61"/>
+      <c r="AO34" s="71"/>
+      <c r="AP34" s="71"/>
+      <c r="AQ34" s="71"/>
+      <c r="AR34" s="71"/>
       <c r="AS34" s="50"/>
-      <c r="AT34" s="61"/>
-      <c r="AU34" s="61"/>
+      <c r="AT34" s="62"/>
+      <c r="AU34" s="62"/>
       <c r="AV34" s="50"/>
       <c r="AW34" s="50"/>
       <c r="AX34" s="50"/>
@@ -4406,8 +4421,8 @@
       <c r="C35" s="8"/>
       <c r="D35" s="8"/>
       <c r="E35" s="45"/>
-      <c r="F35" s="65" t="s">
-        <v>63</v>
+      <c r="F35" s="66" t="s">
+        <v>62</v>
       </c>
       <c r="G35" s="8"/>
       <c r="H35" s="8"/>
@@ -4416,10 +4431,10 @@
       <c r="K35" s="8"/>
       <c r="L35" s="8"/>
       <c r="M35" s="45"/>
-      <c r="N35" s="83">
+      <c r="N35" s="85">
         <v>45089.0</v>
       </c>
-      <c r="O35" s="83">
+      <c r="O35" s="85">
         <v>45089.0</v>
       </c>
       <c r="P35" s="54" t="s">
@@ -4427,12 +4442,12 @@
       </c>
       <c r="Q35" s="8"/>
       <c r="R35" s="45"/>
-      <c r="S35" s="66">
+      <c r="S35" s="58">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="T35" s="85" t="s">
-        <v>64</v>
+      <c r="T35" s="87" t="s">
+        <v>63</v>
       </c>
       <c r="U35" s="55">
         <v>1.0</v>
@@ -4448,24 +4463,24 @@
       <c r="AA35" s="50"/>
       <c r="AB35" s="50"/>
       <c r="AC35" s="50"/>
-      <c r="AD35" s="73"/>
-      <c r="AE35" s="72"/>
+      <c r="AD35" s="75"/>
+      <c r="AE35" s="74"/>
       <c r="AF35" s="50"/>
       <c r="AG35" s="50"/>
-      <c r="AH35" s="69"/>
-      <c r="AI35" s="70"/>
-      <c r="AJ35" s="70"/>
-      <c r="AK35" s="70"/>
-      <c r="AL35" s="70"/>
-      <c r="AM35" s="60"/>
-      <c r="AN35" s="60"/>
+      <c r="AH35" s="71"/>
+      <c r="AI35" s="72"/>
+      <c r="AJ35" s="72"/>
+      <c r="AK35" s="72"/>
+      <c r="AL35" s="72"/>
+      <c r="AM35" s="61"/>
+      <c r="AN35" s="61"/>
       <c r="AO35" s="50"/>
       <c r="AP35" s="50"/>
       <c r="AQ35" s="50"/>
       <c r="AR35" s="50"/>
       <c r="AS35" s="50"/>
-      <c r="AT35" s="61"/>
-      <c r="AU35" s="61"/>
+      <c r="AT35" s="62"/>
+      <c r="AU35" s="62"/>
       <c r="AV35" s="50"/>
       <c r="AW35" s="50"/>
       <c r="AX35" s="50"/>
@@ -4480,8 +4495,8 @@
       <c r="C36" s="8"/>
       <c r="D36" s="8"/>
       <c r="E36" s="45"/>
-      <c r="F36" s="65" t="s">
-        <v>65</v>
+      <c r="F36" s="66" t="s">
+        <v>64</v>
       </c>
       <c r="G36" s="8"/>
       <c r="H36" s="8"/>
@@ -4490,10 +4505,10 @@
       <c r="K36" s="8"/>
       <c r="L36" s="8"/>
       <c r="M36" s="45"/>
-      <c r="N36" s="83">
+      <c r="N36" s="85">
         <v>45089.0</v>
       </c>
-      <c r="O36" s="83">
+      <c r="O36" s="85">
         <v>45089.0</v>
       </c>
       <c r="P36" s="54" t="s">
@@ -4501,7 +4516,7 @@
       </c>
       <c r="Q36" s="8"/>
       <c r="R36" s="45"/>
-      <c r="S36" s="66">
+      <c r="S36" s="58">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
@@ -4520,24 +4535,24 @@
       <c r="AA36" s="50"/>
       <c r="AB36" s="50"/>
       <c r="AC36" s="50"/>
-      <c r="AD36" s="73"/>
-      <c r="AE36" s="72"/>
+      <c r="AD36" s="75"/>
+      <c r="AE36" s="74"/>
       <c r="AF36" s="50"/>
       <c r="AG36" s="50"/>
-      <c r="AH36" s="69"/>
-      <c r="AI36" s="70"/>
-      <c r="AJ36" s="70"/>
-      <c r="AK36" s="70"/>
-      <c r="AL36" s="70"/>
-      <c r="AM36" s="60"/>
-      <c r="AN36" s="60"/>
+      <c r="AH36" s="71"/>
+      <c r="AI36" s="72"/>
+      <c r="AJ36" s="72"/>
+      <c r="AK36" s="72"/>
+      <c r="AL36" s="72"/>
+      <c r="AM36" s="61"/>
+      <c r="AN36" s="61"/>
       <c r="AO36" s="50"/>
       <c r="AP36" s="50"/>
       <c r="AQ36" s="50"/>
       <c r="AR36" s="50"/>
       <c r="AS36" s="50"/>
-      <c r="AT36" s="61"/>
-      <c r="AU36" s="61"/>
+      <c r="AT36" s="62"/>
+      <c r="AU36" s="62"/>
       <c r="AV36" s="50"/>
       <c r="AW36" s="50"/>
       <c r="AX36" s="50"/>
@@ -4552,8 +4567,8 @@
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="45"/>
-      <c r="F37" s="65" t="s">
-        <v>66</v>
+      <c r="F37" s="66" t="s">
+        <v>65</v>
       </c>
       <c r="G37" s="8"/>
       <c r="H37" s="8"/>
@@ -4562,18 +4577,18 @@
       <c r="K37" s="8"/>
       <c r="L37" s="8"/>
       <c r="M37" s="45"/>
-      <c r="N37" s="78">
+      <c r="N37" s="80">
         <v>45091.0</v>
       </c>
-      <c r="O37" s="78">
+      <c r="O37" s="80">
         <v>45093.0</v>
       </c>
       <c r="P37" s="54" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="Q37" s="8"/>
       <c r="R37" s="45"/>
-      <c r="S37" s="66">
+      <c r="S37" s="58">
         <f t="shared" si="1"/>
         <v>75</v>
       </c>
@@ -4592,24 +4607,24 @@
       <c r="AA37" s="50"/>
       <c r="AB37" s="50"/>
       <c r="AC37" s="50"/>
-      <c r="AD37" s="73"/>
-      <c r="AE37" s="72"/>
+      <c r="AD37" s="75"/>
+      <c r="AE37" s="74"/>
       <c r="AF37" s="50"/>
       <c r="AG37" s="50"/>
-      <c r="AH37" s="70"/>
-      <c r="AI37" s="70"/>
-      <c r="AJ37" s="69"/>
-      <c r="AK37" s="69"/>
-      <c r="AL37" s="69"/>
-      <c r="AM37" s="60"/>
-      <c r="AN37" s="60"/>
+      <c r="AH37" s="72"/>
+      <c r="AI37" s="72"/>
+      <c r="AJ37" s="71"/>
+      <c r="AK37" s="71"/>
+      <c r="AL37" s="71"/>
+      <c r="AM37" s="61"/>
+      <c r="AN37" s="61"/>
       <c r="AO37" s="50"/>
       <c r="AP37" s="50"/>
       <c r="AQ37" s="50"/>
       <c r="AR37" s="50"/>
       <c r="AS37" s="50"/>
-      <c r="AT37" s="61"/>
-      <c r="AU37" s="61"/>
+      <c r="AT37" s="62"/>
+      <c r="AU37" s="62"/>
       <c r="AV37" s="50"/>
       <c r="AW37" s="50"/>
       <c r="AX37" s="50"/>
@@ -4624,8 +4639,8 @@
       <c r="C38" s="8"/>
       <c r="D38" s="8"/>
       <c r="E38" s="45"/>
-      <c r="F38" s="65" t="s">
-        <v>67</v>
+      <c r="F38" s="66" t="s">
+        <v>66</v>
       </c>
       <c r="G38" s="8"/>
       <c r="H38" s="8"/>
@@ -4637,7 +4652,7 @@
       <c r="N38" s="47">
         <v>45090.0</v>
       </c>
-      <c r="O38" s="78">
+      <c r="O38" s="80">
         <v>45091.0</v>
       </c>
       <c r="P38" s="54" t="s">
@@ -4645,7 +4660,7 @@
       </c>
       <c r="Q38" s="8"/>
       <c r="R38" s="45"/>
-      <c r="S38" s="66">
+      <c r="S38" s="58">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
@@ -4664,24 +4679,24 @@
       <c r="AA38" s="50"/>
       <c r="AB38" s="50"/>
       <c r="AC38" s="50"/>
-      <c r="AD38" s="73"/>
-      <c r="AE38" s="72"/>
+      <c r="AD38" s="75"/>
+      <c r="AE38" s="74"/>
       <c r="AF38" s="50"/>
       <c r="AG38" s="50"/>
-      <c r="AH38" s="70"/>
-      <c r="AI38" s="69"/>
-      <c r="AJ38" s="69"/>
-      <c r="AK38" s="70"/>
-      <c r="AL38" s="70"/>
-      <c r="AM38" s="60"/>
-      <c r="AN38" s="60"/>
+      <c r="AH38" s="72"/>
+      <c r="AI38" s="71"/>
+      <c r="AJ38" s="71"/>
+      <c r="AK38" s="72"/>
+      <c r="AL38" s="72"/>
+      <c r="AM38" s="61"/>
+      <c r="AN38" s="61"/>
       <c r="AO38" s="50"/>
       <c r="AP38" s="50"/>
       <c r="AQ38" s="50"/>
       <c r="AR38" s="50"/>
       <c r="AS38" s="50"/>
-      <c r="AT38" s="61"/>
-      <c r="AU38" s="61"/>
+      <c r="AT38" s="62"/>
+      <c r="AU38" s="62"/>
       <c r="AV38" s="50"/>
       <c r="AW38" s="50"/>
       <c r="AX38" s="50"/>
@@ -4696,8 +4711,8 @@
       <c r="C39" s="8"/>
       <c r="D39" s="8"/>
       <c r="E39" s="45"/>
-      <c r="F39" s="65" t="s">
-        <v>68</v>
+      <c r="F39" s="66" t="s">
+        <v>67</v>
       </c>
       <c r="G39" s="8"/>
       <c r="H39" s="8"/>
@@ -4709,7 +4724,7 @@
       <c r="N39" s="47">
         <v>45090.0</v>
       </c>
-      <c r="O39" s="78">
+      <c r="O39" s="80">
         <v>45090.0</v>
       </c>
       <c r="P39" s="54" t="s">
@@ -4717,7 +4732,7 @@
       </c>
       <c r="Q39" s="8"/>
       <c r="R39" s="45"/>
-      <c r="S39" s="66">
+      <c r="S39" s="58">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
@@ -4736,24 +4751,24 @@
       <c r="AA39" s="50"/>
       <c r="AB39" s="50"/>
       <c r="AC39" s="50"/>
-      <c r="AD39" s="73"/>
-      <c r="AE39" s="72"/>
+      <c r="AD39" s="75"/>
+      <c r="AE39" s="74"/>
       <c r="AF39" s="50"/>
       <c r="AG39" s="50"/>
-      <c r="AH39" s="70"/>
-      <c r="AI39" s="69"/>
-      <c r="AJ39" s="70"/>
-      <c r="AK39" s="70"/>
-      <c r="AL39" s="70"/>
-      <c r="AM39" s="60"/>
-      <c r="AN39" s="60"/>
+      <c r="AH39" s="72"/>
+      <c r="AI39" s="71"/>
+      <c r="AJ39" s="72"/>
+      <c r="AK39" s="72"/>
+      <c r="AL39" s="72"/>
+      <c r="AM39" s="61"/>
+      <c r="AN39" s="61"/>
       <c r="AO39" s="50"/>
       <c r="AP39" s="50"/>
       <c r="AQ39" s="50"/>
       <c r="AR39" s="50"/>
       <c r="AS39" s="50"/>
-      <c r="AT39" s="61"/>
-      <c r="AU39" s="61"/>
+      <c r="AT39" s="62"/>
+      <c r="AU39" s="62"/>
       <c r="AV39" s="50"/>
       <c r="AW39" s="50"/>
       <c r="AX39" s="50"/>
@@ -4768,8 +4783,8 @@
       <c r="C40" s="8"/>
       <c r="D40" s="8"/>
       <c r="E40" s="45"/>
-      <c r="F40" s="65" t="s">
-        <v>69</v>
+      <c r="F40" s="66" t="s">
+        <v>68</v>
       </c>
       <c r="G40" s="8"/>
       <c r="H40" s="8"/>
@@ -4778,20 +4793,20 @@
       <c r="K40" s="8"/>
       <c r="L40" s="8"/>
       <c r="M40" s="45"/>
-      <c r="N40" s="78">
+      <c r="N40" s="80">
         <v>45089.0</v>
       </c>
-      <c r="O40" s="78">
+      <c r="O40" s="80">
         <v>45089.0</v>
       </c>
       <c r="P40" s="54" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="Q40" s="8"/>
       <c r="R40" s="45"/>
-      <c r="S40" s="66">
+      <c r="S40" s="58">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="T40" s="34"/>
       <c r="U40" s="55">
@@ -4799,7 +4814,7 @@
       </c>
       <c r="V40" s="48">
         <f t="shared" si="2"/>
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="W40" s="49"/>
       <c r="X40" s="50"/>
@@ -4808,24 +4823,24 @@
       <c r="AA40" s="50"/>
       <c r="AB40" s="50"/>
       <c r="AC40" s="50"/>
-      <c r="AD40" s="73"/>
-      <c r="AE40" s="72"/>
+      <c r="AD40" s="75"/>
+      <c r="AE40" s="74"/>
       <c r="AF40" s="50"/>
       <c r="AG40" s="50"/>
-      <c r="AH40" s="69"/>
-      <c r="AI40" s="70"/>
-      <c r="AJ40" s="70"/>
-      <c r="AK40" s="70"/>
-      <c r="AL40" s="70"/>
-      <c r="AM40" s="60"/>
-      <c r="AN40" s="60"/>
+      <c r="AH40" s="71"/>
+      <c r="AI40" s="72"/>
+      <c r="AJ40" s="72"/>
+      <c r="AK40" s="72"/>
+      <c r="AL40" s="72"/>
+      <c r="AM40" s="61"/>
+      <c r="AN40" s="61"/>
       <c r="AO40" s="50"/>
       <c r="AP40" s="50"/>
       <c r="AQ40" s="50"/>
       <c r="AR40" s="50"/>
       <c r="AS40" s="50"/>
-      <c r="AT40" s="61"/>
-      <c r="AU40" s="61"/>
+      <c r="AT40" s="62"/>
+      <c r="AU40" s="62"/>
       <c r="AV40" s="50"/>
       <c r="AW40" s="50"/>
       <c r="AX40" s="50"/>
@@ -4840,8 +4855,8 @@
       <c r="C41" s="8"/>
       <c r="D41" s="8"/>
       <c r="E41" s="45"/>
-      <c r="F41" s="65" t="s">
-        <v>70</v>
+      <c r="F41" s="66" t="s">
+        <v>69</v>
       </c>
       <c r="G41" s="8"/>
       <c r="H41" s="8"/>
@@ -4850,20 +4865,20 @@
       <c r="K41" s="8"/>
       <c r="L41" s="8"/>
       <c r="M41" s="45"/>
-      <c r="N41" s="78">
+      <c r="N41" s="80">
         <v>45089.0</v>
       </c>
-      <c r="O41" s="78">
+      <c r="O41" s="80">
         <v>45089.0</v>
       </c>
       <c r="P41" s="54" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="Q41" s="8"/>
       <c r="R41" s="45"/>
-      <c r="S41" s="66">
+      <c r="S41" s="58">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="T41" s="34"/>
       <c r="U41" s="55">
@@ -4871,7 +4886,7 @@
       </c>
       <c r="V41" s="48">
         <f t="shared" si="2"/>
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="W41" s="49"/>
       <c r="X41" s="50"/>
@@ -4880,24 +4895,24 @@
       <c r="AA41" s="50"/>
       <c r="AB41" s="50"/>
       <c r="AC41" s="50"/>
-      <c r="AD41" s="73"/>
-      <c r="AE41" s="72"/>
+      <c r="AD41" s="75"/>
+      <c r="AE41" s="74"/>
       <c r="AF41" s="50"/>
       <c r="AG41" s="50"/>
-      <c r="AH41" s="69"/>
-      <c r="AI41" s="70"/>
-      <c r="AJ41" s="70"/>
-      <c r="AK41" s="70"/>
-      <c r="AL41" s="70"/>
-      <c r="AM41" s="60"/>
-      <c r="AN41" s="60"/>
+      <c r="AH41" s="71"/>
+      <c r="AI41" s="72"/>
+      <c r="AJ41" s="72"/>
+      <c r="AK41" s="72"/>
+      <c r="AL41" s="72"/>
+      <c r="AM41" s="61"/>
+      <c r="AN41" s="61"/>
       <c r="AO41" s="50"/>
       <c r="AP41" s="50"/>
       <c r="AQ41" s="50"/>
       <c r="AR41" s="50"/>
       <c r="AS41" s="50"/>
-      <c r="AT41" s="61"/>
-      <c r="AU41" s="61"/>
+      <c r="AT41" s="62"/>
+      <c r="AU41" s="62"/>
       <c r="AV41" s="50"/>
       <c r="AW41" s="50"/>
       <c r="AX41" s="50"/>
@@ -4912,8 +4927,8 @@
       <c r="C42" s="8"/>
       <c r="D42" s="8"/>
       <c r="E42" s="45"/>
-      <c r="F42" s="65" t="s">
-        <v>71</v>
+      <c r="F42" s="66" t="s">
+        <v>70</v>
       </c>
       <c r="G42" s="8"/>
       <c r="H42" s="8"/>
@@ -4922,18 +4937,18 @@
       <c r="K42" s="8"/>
       <c r="L42" s="8"/>
       <c r="M42" s="45"/>
-      <c r="N42" s="78">
+      <c r="N42" s="80">
         <v>45091.0</v>
       </c>
       <c r="O42" s="47">
         <v>45092.0</v>
       </c>
       <c r="P42" s="54" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="Q42" s="8"/>
       <c r="R42" s="45"/>
-      <c r="S42" s="66">
+      <c r="S42" s="58">
         <f t="shared" si="1"/>
         <v>75</v>
       </c>
@@ -4952,24 +4967,24 @@
       <c r="AA42" s="50"/>
       <c r="AB42" s="50"/>
       <c r="AC42" s="50"/>
-      <c r="AD42" s="73"/>
-      <c r="AE42" s="72"/>
+      <c r="AD42" s="75"/>
+      <c r="AE42" s="74"/>
       <c r="AF42" s="50"/>
       <c r="AG42" s="50"/>
-      <c r="AH42" s="70"/>
-      <c r="AI42" s="69"/>
-      <c r="AJ42" s="70"/>
-      <c r="AK42" s="70"/>
-      <c r="AL42" s="70"/>
-      <c r="AM42" s="60"/>
-      <c r="AN42" s="60"/>
+      <c r="AH42" s="72"/>
+      <c r="AI42" s="71"/>
+      <c r="AJ42" s="72"/>
+      <c r="AK42" s="72"/>
+      <c r="AL42" s="72"/>
+      <c r="AM42" s="61"/>
+      <c r="AN42" s="61"/>
       <c r="AO42" s="50"/>
       <c r="AP42" s="50"/>
       <c r="AQ42" s="50"/>
       <c r="AR42" s="50"/>
       <c r="AS42" s="50"/>
-      <c r="AT42" s="61"/>
-      <c r="AU42" s="61"/>
+      <c r="AT42" s="62"/>
+      <c r="AU42" s="62"/>
       <c r="AV42" s="50"/>
       <c r="AW42" s="50"/>
       <c r="AX42" s="50"/>
@@ -4984,8 +4999,8 @@
       <c r="C43" s="8"/>
       <c r="D43" s="8"/>
       <c r="E43" s="45"/>
-      <c r="F43" s="65" t="s">
-        <v>72</v>
+      <c r="F43" s="66" t="s">
+        <v>71</v>
       </c>
       <c r="G43" s="8"/>
       <c r="H43" s="8"/>
@@ -4994,10 +5009,10 @@
       <c r="K43" s="8"/>
       <c r="L43" s="8"/>
       <c r="M43" s="45"/>
-      <c r="N43" s="78">
+      <c r="N43" s="80">
         <v>45096.0</v>
       </c>
-      <c r="O43" s="78">
+      <c r="O43" s="80">
         <v>45096.0</v>
       </c>
       <c r="P43" s="54" t="s">
@@ -5005,7 +5020,7 @@
       </c>
       <c r="Q43" s="8"/>
       <c r="R43" s="45"/>
-      <c r="S43" s="66">
+      <c r="S43" s="58">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
@@ -5024,24 +5039,24 @@
       <c r="AA43" s="50"/>
       <c r="AB43" s="50"/>
       <c r="AC43" s="50"/>
-      <c r="AD43" s="73"/>
-      <c r="AE43" s="72"/>
+      <c r="AD43" s="75"/>
+      <c r="AE43" s="74"/>
       <c r="AF43" s="50"/>
       <c r="AG43" s="50"/>
-      <c r="AH43" s="70"/>
-      <c r="AI43" s="70"/>
-      <c r="AJ43" s="70"/>
-      <c r="AK43" s="70"/>
-      <c r="AL43" s="70"/>
-      <c r="AM43" s="60"/>
-      <c r="AN43" s="60"/>
-      <c r="AO43" s="69"/>
+      <c r="AH43" s="72"/>
+      <c r="AI43" s="72"/>
+      <c r="AJ43" s="72"/>
+      <c r="AK43" s="72"/>
+      <c r="AL43" s="72"/>
+      <c r="AM43" s="61"/>
+      <c r="AN43" s="61"/>
+      <c r="AO43" s="71"/>
       <c r="AP43" s="50"/>
       <c r="AQ43" s="50"/>
       <c r="AR43" s="50"/>
       <c r="AS43" s="50"/>
-      <c r="AT43" s="61"/>
-      <c r="AU43" s="61"/>
+      <c r="AT43" s="62"/>
+      <c r="AU43" s="62"/>
       <c r="AV43" s="50"/>
       <c r="AW43" s="50"/>
       <c r="AX43" s="50"/>
@@ -5056,8 +5071,8 @@
       <c r="C44" s="8"/>
       <c r="D44" s="8"/>
       <c r="E44" s="45"/>
-      <c r="F44" s="65" t="s">
-        <v>73</v>
+      <c r="F44" s="66" t="s">
+        <v>72</v>
       </c>
       <c r="G44" s="8"/>
       <c r="H44" s="8"/>
@@ -5077,7 +5092,7 @@
       </c>
       <c r="Q44" s="8"/>
       <c r="R44" s="45"/>
-      <c r="S44" s="66">
+      <c r="S44" s="58">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
@@ -5096,24 +5111,24 @@
       <c r="AA44" s="50"/>
       <c r="AB44" s="50"/>
       <c r="AC44" s="50"/>
-      <c r="AD44" s="73"/>
-      <c r="AE44" s="72"/>
+      <c r="AD44" s="75"/>
+      <c r="AE44" s="74"/>
       <c r="AF44" s="50"/>
       <c r="AG44" s="50"/>
-      <c r="AH44" s="70"/>
-      <c r="AI44" s="70"/>
-      <c r="AJ44" s="70"/>
-      <c r="AK44" s="70"/>
-      <c r="AL44" s="70"/>
-      <c r="AM44" s="60"/>
-      <c r="AN44" s="60"/>
-      <c r="AO44" s="69"/>
-      <c r="AP44" s="69"/>
-      <c r="AQ44" s="69"/>
+      <c r="AH44" s="72"/>
+      <c r="AI44" s="72"/>
+      <c r="AJ44" s="72"/>
+      <c r="AK44" s="72"/>
+      <c r="AL44" s="72"/>
+      <c r="AM44" s="61"/>
+      <c r="AN44" s="61"/>
+      <c r="AO44" s="71"/>
+      <c r="AP44" s="71"/>
+      <c r="AQ44" s="71"/>
       <c r="AR44" s="50"/>
       <c r="AS44" s="50"/>
-      <c r="AT44" s="61"/>
-      <c r="AU44" s="61"/>
+      <c r="AT44" s="62"/>
+      <c r="AU44" s="62"/>
       <c r="AV44" s="50"/>
       <c r="AW44" s="50"/>
       <c r="AX44" s="50"/>
@@ -5128,8 +5143,8 @@
       <c r="C45" s="8"/>
       <c r="D45" s="8"/>
       <c r="E45" s="45"/>
-      <c r="F45" s="65" t="s">
-        <v>74</v>
+      <c r="F45" s="66" t="s">
+        <v>73</v>
       </c>
       <c r="G45" s="8"/>
       <c r="H45" s="8"/>
@@ -5138,18 +5153,18 @@
       <c r="K45" s="8"/>
       <c r="L45" s="8"/>
       <c r="M45" s="45"/>
-      <c r="N45" s="78">
+      <c r="N45" s="80">
         <v>45090.0</v>
       </c>
-      <c r="O45" s="78">
+      <c r="O45" s="80">
         <v>45093.0</v>
       </c>
       <c r="P45" s="54" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="Q45" s="8"/>
       <c r="R45" s="45"/>
-      <c r="S45" s="66">
+      <c r="S45" s="58">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -5168,24 +5183,24 @@
       <c r="AA45" s="50"/>
       <c r="AB45" s="50"/>
       <c r="AC45" s="50"/>
-      <c r="AD45" s="73"/>
-      <c r="AE45" s="72"/>
+      <c r="AD45" s="75"/>
+      <c r="AE45" s="74"/>
       <c r="AF45" s="50"/>
       <c r="AG45" s="50"/>
-      <c r="AH45" s="70"/>
-      <c r="AI45" s="70"/>
-      <c r="AJ45" s="70"/>
-      <c r="AK45" s="70"/>
-      <c r="AL45" s="70"/>
-      <c r="AM45" s="60"/>
-      <c r="AN45" s="60"/>
-      <c r="AO45" s="69"/>
-      <c r="AP45" s="69"/>
-      <c r="AQ45" s="69"/>
+      <c r="AH45" s="72"/>
+      <c r="AI45" s="72"/>
+      <c r="AJ45" s="72"/>
+      <c r="AK45" s="72"/>
+      <c r="AL45" s="72"/>
+      <c r="AM45" s="61"/>
+      <c r="AN45" s="61"/>
+      <c r="AO45" s="71"/>
+      <c r="AP45" s="71"/>
+      <c r="AQ45" s="71"/>
       <c r="AR45" s="50"/>
       <c r="AS45" s="50"/>
-      <c r="AT45" s="61"/>
-      <c r="AU45" s="61"/>
+      <c r="AT45" s="62"/>
+      <c r="AU45" s="62"/>
       <c r="AV45" s="50"/>
       <c r="AW45" s="50"/>
       <c r="AX45" s="50"/>
@@ -5200,7 +5215,7 @@
       <c r="C46" s="8"/>
       <c r="D46" s="8"/>
       <c r="E46" s="45"/>
-      <c r="F46" s="65" t="s">
+      <c r="F46" s="66" t="s">
         <v>75</v>
       </c>
       <c r="G46" s="8"/>
@@ -5210,30 +5225,30 @@
       <c r="K46" s="8"/>
       <c r="L46" s="8"/>
       <c r="M46" s="45"/>
-      <c r="N46" s="78">
+      <c r="N46" s="80">
         <v>45090.0</v>
       </c>
-      <c r="O46" s="78">
+      <c r="O46" s="80">
         <v>45092.0</v>
       </c>
       <c r="P46" s="54" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="Q46" s="8"/>
       <c r="R46" s="45"/>
-      <c r="S46" s="66">
+      <c r="S46" s="58">
         <f t="shared" si="1"/>
-        <v>75</v>
-      </c>
-      <c r="T46" s="86" t="s">
+        <v>100</v>
+      </c>
+      <c r="T46" s="88" t="s">
         <v>76</v>
       </c>
-      <c r="U46" s="87">
+      <c r="U46" s="89">
         <v>5.0</v>
       </c>
       <c r="V46" s="48">
         <f t="shared" si="2"/>
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="W46" s="49"/>
       <c r="X46" s="50"/>
@@ -5242,24 +5257,24 @@
       <c r="AA46" s="50"/>
       <c r="AB46" s="50"/>
       <c r="AC46" s="50"/>
-      <c r="AD46" s="73"/>
-      <c r="AE46" s="72"/>
+      <c r="AD46" s="75"/>
+      <c r="AE46" s="74"/>
       <c r="AF46" s="50"/>
       <c r="AG46" s="50"/>
-      <c r="AH46" s="69"/>
-      <c r="AI46" s="69"/>
-      <c r="AJ46" s="69"/>
-      <c r="AK46" s="69"/>
-      <c r="AL46" s="69"/>
-      <c r="AM46" s="60"/>
-      <c r="AN46" s="60"/>
+      <c r="AH46" s="71"/>
+      <c r="AI46" s="71"/>
+      <c r="AJ46" s="71"/>
+      <c r="AK46" s="71"/>
+      <c r="AL46" s="71"/>
+      <c r="AM46" s="61"/>
+      <c r="AN46" s="61"/>
       <c r="AO46" s="50"/>
       <c r="AP46" s="50"/>
       <c r="AQ46" s="50"/>
       <c r="AR46" s="50"/>
       <c r="AS46" s="50"/>
-      <c r="AT46" s="61"/>
-      <c r="AU46" s="61"/>
+      <c r="AT46" s="62"/>
+      <c r="AU46" s="62"/>
       <c r="AV46" s="50"/>
       <c r="AW46" s="50"/>
       <c r="AX46" s="50"/>
@@ -5274,7 +5289,7 @@
       <c r="C47" s="8"/>
       <c r="D47" s="8"/>
       <c r="E47" s="45"/>
-      <c r="F47" s="65" t="s">
+      <c r="F47" s="66" t="s">
         <v>77</v>
       </c>
       <c r="G47" s="8"/>
@@ -5284,23 +5299,23 @@
       <c r="K47" s="8"/>
       <c r="L47" s="8"/>
       <c r="M47" s="45"/>
-      <c r="N47" s="88">
+      <c r="N47" s="90">
         <v>45089.0</v>
       </c>
-      <c r="O47" s="88">
+      <c r="O47" s="90">
         <v>45090.0</v>
       </c>
       <c r="P47" s="54" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="Q47" s="8"/>
       <c r="R47" s="45"/>
-      <c r="S47" s="66">
+      <c r="S47" s="58">
         <f t="shared" si="1"/>
         <v>75</v>
       </c>
       <c r="T47" s="34"/>
-      <c r="U47" s="87">
+      <c r="U47" s="89">
         <v>2.0</v>
       </c>
       <c r="V47" s="48">
@@ -5314,24 +5329,24 @@
       <c r="AA47" s="50"/>
       <c r="AB47" s="50"/>
       <c r="AC47" s="50"/>
-      <c r="AD47" s="73"/>
-      <c r="AE47" s="72"/>
+      <c r="AD47" s="75"/>
+      <c r="AE47" s="74"/>
       <c r="AF47" s="50"/>
       <c r="AG47" s="50"/>
-      <c r="AH47" s="69"/>
-      <c r="AI47" s="69"/>
-      <c r="AJ47" s="70"/>
-      <c r="AK47" s="70"/>
-      <c r="AL47" s="70"/>
-      <c r="AM47" s="60"/>
-      <c r="AN47" s="60"/>
+      <c r="AH47" s="71"/>
+      <c r="AI47" s="71"/>
+      <c r="AJ47" s="72"/>
+      <c r="AK47" s="72"/>
+      <c r="AL47" s="72"/>
+      <c r="AM47" s="61"/>
+      <c r="AN47" s="61"/>
       <c r="AO47" s="50"/>
       <c r="AP47" s="50"/>
       <c r="AQ47" s="50"/>
       <c r="AR47" s="50"/>
       <c r="AS47" s="50"/>
-      <c r="AT47" s="61"/>
-      <c r="AU47" s="61"/>
+      <c r="AT47" s="62"/>
+      <c r="AU47" s="62"/>
       <c r="AV47" s="50"/>
       <c r="AW47" s="50"/>
       <c r="AX47" s="50"/>
@@ -5346,7 +5361,7 @@
       <c r="C48" s="8"/>
       <c r="D48" s="8"/>
       <c r="E48" s="45"/>
-      <c r="F48" s="65" t="s">
+      <c r="F48" s="66" t="s">
         <v>78</v>
       </c>
       <c r="G48" s="8"/>
@@ -5356,23 +5371,23 @@
       <c r="K48" s="8"/>
       <c r="L48" s="8"/>
       <c r="M48" s="45"/>
-      <c r="N48" s="88">
+      <c r="N48" s="90">
         <v>45089.0</v>
       </c>
-      <c r="O48" s="88">
+      <c r="O48" s="90">
         <v>45089.0</v>
       </c>
       <c r="P48" s="54" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="Q48" s="8"/>
       <c r="R48" s="45"/>
-      <c r="S48" s="66">
+      <c r="S48" s="58">
         <f t="shared" si="1"/>
         <v>75</v>
       </c>
       <c r="T48" s="34"/>
-      <c r="U48" s="87">
+      <c r="U48" s="89">
         <v>1.0</v>
       </c>
       <c r="V48" s="48">
@@ -5386,29 +5401,29 @@
       <c r="AA48" s="50"/>
       <c r="AB48" s="50"/>
       <c r="AC48" s="50"/>
-      <c r="AD48" s="73"/>
-      <c r="AE48" s="72"/>
+      <c r="AD48" s="75"/>
+      <c r="AE48" s="74"/>
       <c r="AF48" s="50"/>
       <c r="AG48" s="50"/>
-      <c r="AH48" s="69"/>
-      <c r="AI48" s="70"/>
-      <c r="AJ48" s="70"/>
-      <c r="AK48" s="70"/>
-      <c r="AL48" s="70"/>
-      <c r="AM48" s="60"/>
-      <c r="AN48" s="60"/>
-      <c r="AO48" s="70"/>
-      <c r="AP48" s="70"/>
-      <c r="AQ48" s="70"/>
-      <c r="AR48" s="70"/>
-      <c r="AS48" s="70"/>
-      <c r="AT48" s="61"/>
-      <c r="AU48" s="61"/>
-      <c r="AV48" s="70"/>
-      <c r="AW48" s="70"/>
-      <c r="AX48" s="70"/>
-      <c r="AY48" s="70"/>
-      <c r="AZ48" s="70"/>
+      <c r="AH48" s="71"/>
+      <c r="AI48" s="72"/>
+      <c r="AJ48" s="72"/>
+      <c r="AK48" s="72"/>
+      <c r="AL48" s="72"/>
+      <c r="AM48" s="61"/>
+      <c r="AN48" s="61"/>
+      <c r="AO48" s="72"/>
+      <c r="AP48" s="72"/>
+      <c r="AQ48" s="72"/>
+      <c r="AR48" s="72"/>
+      <c r="AS48" s="72"/>
+      <c r="AT48" s="62"/>
+      <c r="AU48" s="62"/>
+      <c r="AV48" s="72"/>
+      <c r="AW48" s="72"/>
+      <c r="AX48" s="72"/>
+      <c r="AY48" s="72"/>
+      <c r="AZ48" s="72"/>
       <c r="BA48" s="13"/>
       <c r="BB48" s="13"/>
     </row>
@@ -5418,7 +5433,7 @@
       <c r="C49" s="8"/>
       <c r="D49" s="8"/>
       <c r="E49" s="45"/>
-      <c r="F49" s="65" t="s">
+      <c r="F49" s="66" t="s">
         <v>79</v>
       </c>
       <c r="G49" s="8"/>
@@ -5428,10 +5443,10 @@
       <c r="K49" s="8"/>
       <c r="L49" s="8"/>
       <c r="M49" s="45"/>
-      <c r="N49" s="88">
+      <c r="N49" s="90">
         <v>45093.0</v>
       </c>
-      <c r="O49" s="88">
+      <c r="O49" s="90">
         <v>45096.0</v>
       </c>
       <c r="P49" s="54" t="s">
@@ -5439,12 +5454,12 @@
       </c>
       <c r="Q49" s="8"/>
       <c r="R49" s="45"/>
-      <c r="S49" s="66">
+      <c r="S49" s="58">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="T49" s="34"/>
-      <c r="U49" s="87">
+      <c r="U49" s="89">
         <v>2.0</v>
       </c>
       <c r="V49" s="48">
@@ -5458,39 +5473,39 @@
       <c r="AA49" s="50"/>
       <c r="AB49" s="50"/>
       <c r="AC49" s="50"/>
-      <c r="AD49" s="73"/>
-      <c r="AE49" s="72"/>
+      <c r="AD49" s="75"/>
+      <c r="AE49" s="74"/>
       <c r="AF49" s="50"/>
       <c r="AG49" s="50"/>
-      <c r="AH49" s="70"/>
-      <c r="AI49" s="70"/>
-      <c r="AJ49" s="89"/>
-      <c r="AK49" s="70"/>
-      <c r="AL49" s="69"/>
-      <c r="AM49" s="60"/>
-      <c r="AN49" s="60"/>
-      <c r="AO49" s="69"/>
-      <c r="AP49" s="70"/>
-      <c r="AQ49" s="70"/>
-      <c r="AR49" s="70"/>
-      <c r="AS49" s="70"/>
-      <c r="AT49" s="61"/>
-      <c r="AU49" s="61"/>
-      <c r="AV49" s="70"/>
-      <c r="AW49" s="70"/>
-      <c r="AX49" s="70"/>
-      <c r="AY49" s="70"/>
-      <c r="AZ49" s="70"/>
+      <c r="AH49" s="72"/>
+      <c r="AI49" s="72"/>
+      <c r="AJ49" s="91"/>
+      <c r="AK49" s="72"/>
+      <c r="AL49" s="71"/>
+      <c r="AM49" s="61"/>
+      <c r="AN49" s="61"/>
+      <c r="AO49" s="71"/>
+      <c r="AP49" s="72"/>
+      <c r="AQ49" s="72"/>
+      <c r="AR49" s="72"/>
+      <c r="AS49" s="72"/>
+      <c r="AT49" s="62"/>
+      <c r="AU49" s="62"/>
+      <c r="AV49" s="72"/>
+      <c r="AW49" s="72"/>
+      <c r="AX49" s="72"/>
+      <c r="AY49" s="72"/>
+      <c r="AZ49" s="72"/>
       <c r="BA49" s="13"/>
       <c r="BB49" s="13"/>
     </row>
     <row r="50" ht="18.0" customHeight="1">
-      <c r="A50" s="90"/>
+      <c r="A50" s="92"/>
       <c r="B50" s="8"/>
       <c r="C50" s="8"/>
       <c r="D50" s="8"/>
       <c r="E50" s="45"/>
-      <c r="F50" s="65" t="s">
+      <c r="F50" s="66" t="s">
         <v>80</v>
       </c>
       <c r="G50" s="8"/>
@@ -5507,16 +5522,16 @@
         <v>45098.0</v>
       </c>
       <c r="P50" s="54" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="Q50" s="8"/>
       <c r="R50" s="45"/>
-      <c r="S50" s="66">
+      <c r="S50" s="58">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T50" s="34"/>
-      <c r="U50" s="87">
+      <c r="U50" s="89">
         <v>3.0</v>
       </c>
       <c r="V50" s="48">
@@ -5530,39 +5545,39 @@
       <c r="AA50" s="50"/>
       <c r="AB50" s="50"/>
       <c r="AC50" s="50"/>
-      <c r="AD50" s="91"/>
+      <c r="AD50" s="93"/>
       <c r="AE50" s="49"/>
       <c r="AF50" s="50"/>
       <c r="AG50" s="50"/>
       <c r="AH50" s="50"/>
       <c r="AI50" s="50"/>
-      <c r="AJ50" s="70"/>
-      <c r="AK50" s="70"/>
-      <c r="AL50" s="70"/>
-      <c r="AM50" s="60"/>
-      <c r="AN50" s="60"/>
-      <c r="AO50" s="70"/>
-      <c r="AP50" s="69"/>
-      <c r="AQ50" s="69"/>
-      <c r="AR50" s="69"/>
-      <c r="AS50" s="70"/>
-      <c r="AT50" s="61"/>
-      <c r="AU50" s="61"/>
-      <c r="AV50" s="70"/>
-      <c r="AW50" s="70"/>
-      <c r="AX50" s="70"/>
-      <c r="AY50" s="70"/>
-      <c r="AZ50" s="70"/>
+      <c r="AJ50" s="72"/>
+      <c r="AK50" s="72"/>
+      <c r="AL50" s="72"/>
+      <c r="AM50" s="61"/>
+      <c r="AN50" s="61"/>
+      <c r="AO50" s="72"/>
+      <c r="AP50" s="71"/>
+      <c r="AQ50" s="71"/>
+      <c r="AR50" s="71"/>
+      <c r="AS50" s="72"/>
+      <c r="AT50" s="62"/>
+      <c r="AU50" s="62"/>
+      <c r="AV50" s="72"/>
+      <c r="AW50" s="72"/>
+      <c r="AX50" s="72"/>
+      <c r="AY50" s="72"/>
+      <c r="AZ50" s="72"/>
       <c r="BA50" s="13"/>
       <c r="BB50" s="13"/>
     </row>
     <row r="51" ht="18.75" customHeight="1">
-      <c r="A51" s="90"/>
+      <c r="A51" s="92"/>
       <c r="B51" s="8"/>
       <c r="C51" s="8"/>
       <c r="D51" s="8"/>
       <c r="E51" s="45"/>
-      <c r="F51" s="65" t="s">
+      <c r="F51" s="66" t="s">
         <v>81</v>
       </c>
       <c r="G51" s="8"/>
@@ -5579,16 +5594,16 @@
         <v>45099.0</v>
       </c>
       <c r="P51" s="54" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="Q51" s="8"/>
       <c r="R51" s="45"/>
-      <c r="S51" s="66">
+      <c r="S51" s="58">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="T51" s="34"/>
-      <c r="U51" s="87">
+      <c r="U51" s="89">
         <v>2.0</v>
       </c>
       <c r="V51" s="48">
@@ -5602,39 +5617,39 @@
       <c r="AA51" s="50"/>
       <c r="AB51" s="50"/>
       <c r="AC51" s="50"/>
-      <c r="AD51" s="91"/>
+      <c r="AD51" s="93"/>
       <c r="AE51" s="49"/>
       <c r="AF51" s="50"/>
       <c r="AG51" s="51"/>
       <c r="AH51" s="50"/>
-      <c r="AI51" s="92"/>
-      <c r="AJ51" s="93"/>
-      <c r="AK51" s="93"/>
-      <c r="AL51" s="93"/>
-      <c r="AM51" s="94"/>
-      <c r="AN51" s="94"/>
-      <c r="AO51" s="93"/>
-      <c r="AP51" s="93"/>
-      <c r="AQ51" s="93"/>
-      <c r="AR51" s="69"/>
-      <c r="AS51" s="69"/>
-      <c r="AT51" s="61"/>
-      <c r="AU51" s="61"/>
-      <c r="AV51" s="70"/>
-      <c r="AW51" s="70"/>
-      <c r="AX51" s="70"/>
-      <c r="AY51" s="70"/>
-      <c r="AZ51" s="70"/>
+      <c r="AI51" s="94"/>
+      <c r="AJ51" s="95"/>
+      <c r="AK51" s="95"/>
+      <c r="AL51" s="95"/>
+      <c r="AM51" s="96"/>
+      <c r="AN51" s="96"/>
+      <c r="AO51" s="95"/>
+      <c r="AP51" s="95"/>
+      <c r="AQ51" s="95"/>
+      <c r="AR51" s="71"/>
+      <c r="AS51" s="71"/>
+      <c r="AT51" s="62"/>
+      <c r="AU51" s="62"/>
+      <c r="AV51" s="72"/>
+      <c r="AW51" s="72"/>
+      <c r="AX51" s="72"/>
+      <c r="AY51" s="72"/>
+      <c r="AZ51" s="72"/>
       <c r="BA51" s="13"/>
       <c r="BB51" s="13"/>
     </row>
     <row r="52" ht="18.75" customHeight="1">
-      <c r="A52" s="90"/>
+      <c r="A52" s="92"/>
       <c r="B52" s="8"/>
       <c r="C52" s="8"/>
       <c r="D52" s="8"/>
       <c r="E52" s="45"/>
-      <c r="F52" s="65" t="s">
+      <c r="F52" s="66" t="s">
         <v>82</v>
       </c>
       <c r="G52" s="8"/>
@@ -5655,11 +5670,11 @@
       </c>
       <c r="Q52" s="8"/>
       <c r="R52" s="45"/>
-      <c r="S52" s="66">
+      <c r="S52" s="58">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="T52" s="85" t="s">
+      <c r="T52" s="87" t="s">
         <v>83</v>
       </c>
       <c r="U52" s="55">
@@ -5676,39 +5691,39 @@
       <c r="AA52" s="50"/>
       <c r="AB52" s="50"/>
       <c r="AC52" s="50"/>
-      <c r="AD52" s="91"/>
+      <c r="AD52" s="93"/>
       <c r="AE52" s="49"/>
       <c r="AF52" s="50"/>
       <c r="AG52" s="50"/>
-      <c r="AH52" s="95"/>
-      <c r="AI52" s="69"/>
-      <c r="AJ52" s="70"/>
-      <c r="AK52" s="70"/>
-      <c r="AL52" s="70"/>
-      <c r="AM52" s="60"/>
-      <c r="AN52" s="60"/>
-      <c r="AO52" s="70"/>
-      <c r="AP52" s="70"/>
-      <c r="AQ52" s="70"/>
-      <c r="AR52" s="70"/>
-      <c r="AS52" s="70"/>
-      <c r="AT52" s="61"/>
-      <c r="AU52" s="61"/>
-      <c r="AV52" s="70"/>
-      <c r="AW52" s="70"/>
-      <c r="AX52" s="70"/>
-      <c r="AY52" s="70"/>
-      <c r="AZ52" s="70"/>
+      <c r="AH52" s="97"/>
+      <c r="AI52" s="71"/>
+      <c r="AJ52" s="72"/>
+      <c r="AK52" s="72"/>
+      <c r="AL52" s="72"/>
+      <c r="AM52" s="61"/>
+      <c r="AN52" s="61"/>
+      <c r="AO52" s="72"/>
+      <c r="AP52" s="72"/>
+      <c r="AQ52" s="72"/>
+      <c r="AR52" s="72"/>
+      <c r="AS52" s="72"/>
+      <c r="AT52" s="62"/>
+      <c r="AU52" s="62"/>
+      <c r="AV52" s="72"/>
+      <c r="AW52" s="72"/>
+      <c r="AX52" s="72"/>
+      <c r="AY52" s="72"/>
+      <c r="AZ52" s="72"/>
       <c r="BA52" s="13"/>
       <c r="BB52" s="13"/>
     </row>
     <row r="53" ht="18.75" customHeight="1">
-      <c r="A53" s="90"/>
+      <c r="A53" s="92"/>
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
       <c r="D53" s="8"/>
       <c r="E53" s="45"/>
-      <c r="F53" s="65" t="s">
+      <c r="F53" s="66" t="s">
         <v>84</v>
       </c>
       <c r="G53" s="8"/>
@@ -5721,7 +5736,7 @@
       <c r="N53" s="47">
         <v>45093.0</v>
       </c>
-      <c r="O53" s="78">
+      <c r="O53" s="80">
         <v>45096.0</v>
       </c>
       <c r="P53" s="54" t="s">
@@ -5729,7 +5744,7 @@
       </c>
       <c r="Q53" s="8"/>
       <c r="R53" s="45"/>
-      <c r="S53" s="66">
+      <c r="S53" s="58">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
@@ -5748,39 +5763,39 @@
       <c r="AA53" s="50"/>
       <c r="AB53" s="50"/>
       <c r="AC53" s="50"/>
-      <c r="AD53" s="91"/>
+      <c r="AD53" s="93"/>
       <c r="AE53" s="49"/>
       <c r="AF53" s="50"/>
       <c r="AG53" s="50"/>
       <c r="AH53" s="50"/>
-      <c r="AI53" s="96"/>
-      <c r="AJ53" s="70"/>
-      <c r="AK53" s="70"/>
-      <c r="AL53" s="69"/>
-      <c r="AM53" s="60"/>
-      <c r="AN53" s="60"/>
-      <c r="AO53" s="69"/>
-      <c r="AP53" s="70"/>
-      <c r="AQ53" s="70"/>
-      <c r="AR53" s="70"/>
-      <c r="AS53" s="70"/>
-      <c r="AT53" s="61"/>
-      <c r="AU53" s="61"/>
-      <c r="AV53" s="70"/>
-      <c r="AW53" s="70"/>
-      <c r="AX53" s="70"/>
-      <c r="AY53" s="70"/>
-      <c r="AZ53" s="70"/>
+      <c r="AI53" s="98"/>
+      <c r="AJ53" s="72"/>
+      <c r="AK53" s="72"/>
+      <c r="AL53" s="71"/>
+      <c r="AM53" s="61"/>
+      <c r="AN53" s="61"/>
+      <c r="AO53" s="71"/>
+      <c r="AP53" s="72"/>
+      <c r="AQ53" s="72"/>
+      <c r="AR53" s="72"/>
+      <c r="AS53" s="72"/>
+      <c r="AT53" s="62"/>
+      <c r="AU53" s="62"/>
+      <c r="AV53" s="72"/>
+      <c r="AW53" s="72"/>
+      <c r="AX53" s="72"/>
+      <c r="AY53" s="72"/>
+      <c r="AZ53" s="72"/>
       <c r="BA53" s="13"/>
       <c r="BB53" s="13"/>
     </row>
     <row r="54" ht="18.75" customHeight="1">
-      <c r="A54" s="90"/>
+      <c r="A54" s="92"/>
       <c r="B54" s="8"/>
       <c r="C54" s="8"/>
       <c r="D54" s="8"/>
       <c r="E54" s="45"/>
-      <c r="F54" s="65" t="s">
+      <c r="F54" s="66" t="s">
         <v>85</v>
       </c>
       <c r="G54" s="8"/>
@@ -5797,7 +5812,7 @@
       </c>
       <c r="Q54" s="8"/>
       <c r="R54" s="45"/>
-      <c r="S54" s="66">
+      <c r="S54" s="58">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
@@ -5816,39 +5831,39 @@
       <c r="AA54" s="50"/>
       <c r="AB54" s="50"/>
       <c r="AC54" s="50"/>
-      <c r="AD54" s="91"/>
+      <c r="AD54" s="93"/>
       <c r="AE54" s="49"/>
       <c r="AF54" s="50"/>
       <c r="AG54" s="50"/>
       <c r="AH54" s="50"/>
       <c r="AI54" s="50"/>
-      <c r="AJ54" s="95"/>
-      <c r="AK54" s="69"/>
-      <c r="AL54" s="70"/>
-      <c r="AM54" s="60"/>
-      <c r="AN54" s="60"/>
-      <c r="AO54" s="70"/>
-      <c r="AP54" s="70"/>
-      <c r="AQ54" s="70"/>
-      <c r="AR54" s="70"/>
-      <c r="AS54" s="70"/>
-      <c r="AT54" s="61"/>
-      <c r="AU54" s="61"/>
-      <c r="AV54" s="70"/>
-      <c r="AW54" s="70"/>
-      <c r="AX54" s="70"/>
-      <c r="AY54" s="70"/>
-      <c r="AZ54" s="70"/>
+      <c r="AJ54" s="97"/>
+      <c r="AK54" s="71"/>
+      <c r="AL54" s="72"/>
+      <c r="AM54" s="61"/>
+      <c r="AN54" s="61"/>
+      <c r="AO54" s="72"/>
+      <c r="AP54" s="72"/>
+      <c r="AQ54" s="72"/>
+      <c r="AR54" s="72"/>
+      <c r="AS54" s="72"/>
+      <c r="AT54" s="62"/>
+      <c r="AU54" s="62"/>
+      <c r="AV54" s="72"/>
+      <c r="AW54" s="72"/>
+      <c r="AX54" s="72"/>
+      <c r="AY54" s="72"/>
+      <c r="AZ54" s="72"/>
       <c r="BA54" s="13"/>
       <c r="BB54" s="13"/>
     </row>
     <row r="55" ht="18.75" customHeight="1">
-      <c r="A55" s="90"/>
+      <c r="A55" s="92"/>
       <c r="B55" s="8"/>
       <c r="C55" s="8"/>
       <c r="D55" s="8"/>
       <c r="E55" s="45"/>
-      <c r="F55" s="65" t="s">
+      <c r="F55" s="66" t="s">
         <v>86</v>
       </c>
       <c r="G55" s="8"/>
@@ -5865,7 +5880,7 @@
       </c>
       <c r="Q55" s="8"/>
       <c r="R55" s="45"/>
-      <c r="S55" s="66">
+      <c r="S55" s="58">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
@@ -5877,46 +5892,46 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="W55" s="72"/>
-      <c r="X55" s="97"/>
-      <c r="Y55" s="97"/>
-      <c r="Z55" s="97"/>
-      <c r="AA55" s="97"/>
-      <c r="AB55" s="97"/>
-      <c r="AC55" s="97"/>
-      <c r="AD55" s="73"/>
-      <c r="AE55" s="72"/>
-      <c r="AF55" s="97"/>
-      <c r="AG55" s="97"/>
-      <c r="AH55" s="97"/>
-      <c r="AI55" s="97"/>
-      <c r="AJ55" s="95"/>
-      <c r="AK55" s="69"/>
-      <c r="AL55" s="97"/>
-      <c r="AM55" s="98"/>
-      <c r="AN55" s="98"/>
-      <c r="AO55" s="97"/>
-      <c r="AP55" s="97"/>
-      <c r="AQ55" s="97"/>
-      <c r="AR55" s="97"/>
-      <c r="AS55" s="97"/>
-      <c r="AT55" s="99"/>
-      <c r="AU55" s="99"/>
-      <c r="AV55" s="100"/>
-      <c r="AW55" s="100"/>
-      <c r="AX55" s="100"/>
-      <c r="AY55" s="100"/>
+      <c r="W55" s="74"/>
+      <c r="X55" s="99"/>
+      <c r="Y55" s="99"/>
+      <c r="Z55" s="99"/>
+      <c r="AA55" s="99"/>
+      <c r="AB55" s="99"/>
+      <c r="AC55" s="99"/>
+      <c r="AD55" s="75"/>
+      <c r="AE55" s="74"/>
+      <c r="AF55" s="99"/>
+      <c r="AG55" s="99"/>
+      <c r="AH55" s="99"/>
+      <c r="AI55" s="99"/>
+      <c r="AJ55" s="97"/>
+      <c r="AK55" s="71"/>
+      <c r="AL55" s="99"/>
+      <c r="AM55" s="100"/>
+      <c r="AN55" s="100"/>
+      <c r="AO55" s="99"/>
+      <c r="AP55" s="99"/>
+      <c r="AQ55" s="99"/>
+      <c r="AR55" s="99"/>
+      <c r="AS55" s="99"/>
+      <c r="AT55" s="101"/>
+      <c r="AU55" s="101"/>
+      <c r="AV55" s="102"/>
+      <c r="AW55" s="102"/>
+      <c r="AX55" s="102"/>
+      <c r="AY55" s="102"/>
       <c r="AZ55" s="50"/>
       <c r="BA55" s="13"/>
       <c r="BB55" s="13"/>
     </row>
     <row r="56" ht="18.75" customHeight="1">
-      <c r="A56" s="101"/>
-      <c r="B56" s="101"/>
-      <c r="C56" s="101"/>
-      <c r="D56" s="101"/>
-      <c r="E56" s="101"/>
-      <c r="F56" s="65" t="s">
+      <c r="A56" s="103"/>
+      <c r="B56" s="103"/>
+      <c r="C56" s="103"/>
+      <c r="D56" s="103"/>
+      <c r="E56" s="103"/>
+      <c r="F56" s="66" t="s">
         <v>87</v>
       </c>
       <c r="G56" s="8"/>
@@ -5933,11 +5948,11 @@
       </c>
       <c r="Q56" s="8"/>
       <c r="R56" s="45"/>
-      <c r="S56" s="66">
+      <c r="S56" s="58">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="T56" s="85" t="s">
+      <c r="T56" s="87" t="s">
         <v>35</v>
       </c>
       <c r="U56" s="55">
@@ -5947,46 +5962,46 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="W56" s="102"/>
-      <c r="X56" s="102"/>
-      <c r="Y56" s="102"/>
-      <c r="Z56" s="102"/>
-      <c r="AA56" s="102"/>
-      <c r="AB56" s="102"/>
-      <c r="AC56" s="102"/>
-      <c r="AD56" s="102"/>
-      <c r="AE56" s="102"/>
-      <c r="AF56" s="102"/>
-      <c r="AG56" s="102"/>
-      <c r="AH56" s="103"/>
-      <c r="AI56" s="103"/>
-      <c r="AJ56" s="102"/>
-      <c r="AK56" s="102"/>
-      <c r="AL56" s="102"/>
-      <c r="AM56" s="104"/>
-      <c r="AN56" s="104"/>
-      <c r="AO56" s="102"/>
-      <c r="AP56" s="102"/>
-      <c r="AQ56" s="102"/>
-      <c r="AR56" s="102"/>
-      <c r="AS56" s="102"/>
-      <c r="AT56" s="105"/>
-      <c r="AU56" s="105"/>
-      <c r="AV56" s="106"/>
-      <c r="AW56" s="106"/>
-      <c r="AX56" s="106"/>
-      <c r="AY56" s="106"/>
-      <c r="AZ56" s="102"/>
+      <c r="W56" s="104"/>
+      <c r="X56" s="104"/>
+      <c r="Y56" s="104"/>
+      <c r="Z56" s="104"/>
+      <c r="AA56" s="104"/>
+      <c r="AB56" s="104"/>
+      <c r="AC56" s="104"/>
+      <c r="AD56" s="104"/>
+      <c r="AE56" s="104"/>
+      <c r="AF56" s="104"/>
+      <c r="AG56" s="104"/>
+      <c r="AH56" s="105"/>
+      <c r="AI56" s="105"/>
+      <c r="AJ56" s="104"/>
+      <c r="AK56" s="104"/>
+      <c r="AL56" s="104"/>
+      <c r="AM56" s="106"/>
+      <c r="AN56" s="106"/>
+      <c r="AO56" s="104"/>
+      <c r="AP56" s="104"/>
+      <c r="AQ56" s="104"/>
+      <c r="AR56" s="104"/>
+      <c r="AS56" s="104"/>
+      <c r="AT56" s="107"/>
+      <c r="AU56" s="107"/>
+      <c r="AV56" s="108"/>
+      <c r="AW56" s="108"/>
+      <c r="AX56" s="108"/>
+      <c r="AY56" s="108"/>
+      <c r="AZ56" s="104"/>
       <c r="BA56" s="13"/>
       <c r="BB56" s="13"/>
     </row>
     <row r="57" ht="18.75" customHeight="1">
-      <c r="A57" s="90"/>
+      <c r="A57" s="92"/>
       <c r="B57" s="8"/>
       <c r="C57" s="8"/>
       <c r="D57" s="8"/>
       <c r="E57" s="45"/>
-      <c r="F57" s="65" t="s">
+      <c r="F57" s="66" t="s">
         <v>88</v>
       </c>
       <c r="G57" s="8"/>
@@ -5999,13 +6014,13 @@
       <c r="N57" s="47"/>
       <c r="O57" s="47"/>
       <c r="P57" s="54" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="Q57" s="8"/>
       <c r="R57" s="45"/>
-      <c r="S57" s="66">
+      <c r="S57" s="58">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="T57" s="34"/>
       <c r="U57" s="55">
@@ -6013,48 +6028,48 @@
       </c>
       <c r="V57" s="48">
         <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="W57" s="102"/>
-      <c r="X57" s="102"/>
-      <c r="Y57" s="102"/>
-      <c r="Z57" s="102"/>
-      <c r="AA57" s="102"/>
-      <c r="AB57" s="102"/>
-      <c r="AC57" s="102"/>
-      <c r="AD57" s="102"/>
-      <c r="AE57" s="102"/>
-      <c r="AF57" s="102"/>
-      <c r="AG57" s="102"/>
-      <c r="AH57" s="102"/>
-      <c r="AI57" s="103"/>
-      <c r="AJ57" s="103"/>
-      <c r="AK57" s="103"/>
-      <c r="AL57" s="103"/>
-      <c r="AM57" s="104"/>
-      <c r="AN57" s="104"/>
-      <c r="AO57" s="102"/>
-      <c r="AP57" s="102"/>
-      <c r="AQ57" s="102"/>
-      <c r="AR57" s="102"/>
-      <c r="AS57" s="102"/>
-      <c r="AT57" s="105"/>
-      <c r="AU57" s="105"/>
-      <c r="AV57" s="106"/>
-      <c r="AW57" s="106"/>
-      <c r="AX57" s="106"/>
-      <c r="AY57" s="106"/>
-      <c r="AZ57" s="102"/>
+        <v>4</v>
+      </c>
+      <c r="W57" s="104"/>
+      <c r="X57" s="104"/>
+      <c r="Y57" s="104"/>
+      <c r="Z57" s="104"/>
+      <c r="AA57" s="104"/>
+      <c r="AB57" s="104"/>
+      <c r="AC57" s="104"/>
+      <c r="AD57" s="104"/>
+      <c r="AE57" s="104"/>
+      <c r="AF57" s="104"/>
+      <c r="AG57" s="104"/>
+      <c r="AH57" s="104"/>
+      <c r="AI57" s="105"/>
+      <c r="AJ57" s="105"/>
+      <c r="AK57" s="105"/>
+      <c r="AL57" s="105"/>
+      <c r="AM57" s="106"/>
+      <c r="AN57" s="106"/>
+      <c r="AO57" s="104"/>
+      <c r="AP57" s="104"/>
+      <c r="AQ57" s="104"/>
+      <c r="AR57" s="104"/>
+      <c r="AS57" s="104"/>
+      <c r="AT57" s="107"/>
+      <c r="AU57" s="107"/>
+      <c r="AV57" s="108"/>
+      <c r="AW57" s="108"/>
+      <c r="AX57" s="108"/>
+      <c r="AY57" s="108"/>
+      <c r="AZ57" s="104"/>
       <c r="BA57" s="13"/>
       <c r="BB57" s="13"/>
     </row>
     <row r="58" ht="18.75" customHeight="1">
-      <c r="A58" s="90"/>
+      <c r="A58" s="92"/>
       <c r="B58" s="8"/>
       <c r="C58" s="8"/>
       <c r="D58" s="8"/>
       <c r="E58" s="45"/>
-      <c r="F58" s="65" t="s">
+      <c r="F58" s="66" t="s">
         <v>89</v>
       </c>
       <c r="G58" s="8"/>
@@ -6071,7 +6086,7 @@
       </c>
       <c r="Q58" s="8"/>
       <c r="R58" s="45"/>
-      <c r="S58" s="66">
+      <c r="S58" s="58">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
@@ -6083,46 +6098,46 @@
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="W58" s="102"/>
-      <c r="X58" s="102"/>
-      <c r="Y58" s="102"/>
-      <c r="Z58" s="102"/>
-      <c r="AA58" s="102"/>
-      <c r="AB58" s="102"/>
-      <c r="AC58" s="102"/>
-      <c r="AD58" s="102"/>
-      <c r="AE58" s="102"/>
-      <c r="AF58" s="102"/>
-      <c r="AG58" s="102"/>
-      <c r="AH58" s="103"/>
-      <c r="AI58" s="103"/>
-      <c r="AJ58" s="103"/>
-      <c r="AK58" s="107"/>
-      <c r="AL58" s="102"/>
-      <c r="AM58" s="104"/>
-      <c r="AN58" s="104"/>
-      <c r="AO58" s="102"/>
-      <c r="AP58" s="102"/>
-      <c r="AQ58" s="102"/>
-      <c r="AR58" s="102"/>
-      <c r="AS58" s="102"/>
-      <c r="AT58" s="105"/>
-      <c r="AU58" s="105"/>
-      <c r="AV58" s="106"/>
-      <c r="AW58" s="106"/>
-      <c r="AX58" s="106"/>
-      <c r="AY58" s="106"/>
-      <c r="AZ58" s="102"/>
+      <c r="W58" s="104"/>
+      <c r="X58" s="104"/>
+      <c r="Y58" s="104"/>
+      <c r="Z58" s="104"/>
+      <c r="AA58" s="104"/>
+      <c r="AB58" s="104"/>
+      <c r="AC58" s="104"/>
+      <c r="AD58" s="104"/>
+      <c r="AE58" s="104"/>
+      <c r="AF58" s="104"/>
+      <c r="AG58" s="104"/>
+      <c r="AH58" s="105"/>
+      <c r="AI58" s="105"/>
+      <c r="AJ58" s="105"/>
+      <c r="AK58" s="109"/>
+      <c r="AL58" s="104"/>
+      <c r="AM58" s="106"/>
+      <c r="AN58" s="106"/>
+      <c r="AO58" s="104"/>
+      <c r="AP58" s="104"/>
+      <c r="AQ58" s="104"/>
+      <c r="AR58" s="104"/>
+      <c r="AS58" s="104"/>
+      <c r="AT58" s="107"/>
+      <c r="AU58" s="107"/>
+      <c r="AV58" s="108"/>
+      <c r="AW58" s="108"/>
+      <c r="AX58" s="108"/>
+      <c r="AY58" s="108"/>
+      <c r="AZ58" s="104"/>
       <c r="BA58" s="13"/>
       <c r="BB58" s="13"/>
     </row>
     <row r="59" ht="18.75" customHeight="1">
-      <c r="A59" s="90"/>
+      <c r="A59" s="92"/>
       <c r="B59" s="8"/>
       <c r="C59" s="8"/>
       <c r="D59" s="8"/>
       <c r="E59" s="45"/>
-      <c r="F59" s="65" t="s">
+      <c r="F59" s="66" t="s">
         <v>90</v>
       </c>
       <c r="G59" s="8"/>
@@ -6139,7 +6154,7 @@
       </c>
       <c r="Q59" s="8"/>
       <c r="R59" s="45"/>
-      <c r="S59" s="66">
+      <c r="S59" s="58">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
@@ -6151,46 +6166,46 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="W59" s="102"/>
-      <c r="X59" s="102"/>
-      <c r="Y59" s="102"/>
-      <c r="Z59" s="102"/>
-      <c r="AA59" s="102"/>
-      <c r="AB59" s="102"/>
-      <c r="AC59" s="102"/>
-      <c r="AD59" s="102"/>
-      <c r="AE59" s="102"/>
-      <c r="AF59" s="102"/>
-      <c r="AG59" s="102"/>
-      <c r="AH59" s="103"/>
-      <c r="AI59" s="102"/>
-      <c r="AJ59" s="102"/>
-      <c r="AK59" s="102"/>
-      <c r="AL59" s="102"/>
-      <c r="AM59" s="104"/>
-      <c r="AN59" s="104"/>
-      <c r="AO59" s="102"/>
-      <c r="AP59" s="102"/>
-      <c r="AQ59" s="102"/>
-      <c r="AR59" s="102"/>
-      <c r="AS59" s="102"/>
-      <c r="AT59" s="105"/>
-      <c r="AU59" s="105"/>
-      <c r="AV59" s="106"/>
-      <c r="AW59" s="106"/>
-      <c r="AX59" s="106"/>
-      <c r="AY59" s="106"/>
-      <c r="AZ59" s="102"/>
+      <c r="W59" s="104"/>
+      <c r="X59" s="104"/>
+      <c r="Y59" s="104"/>
+      <c r="Z59" s="104"/>
+      <c r="AA59" s="104"/>
+      <c r="AB59" s="104"/>
+      <c r="AC59" s="104"/>
+      <c r="AD59" s="104"/>
+      <c r="AE59" s="104"/>
+      <c r="AF59" s="104"/>
+      <c r="AG59" s="104"/>
+      <c r="AH59" s="105"/>
+      <c r="AI59" s="104"/>
+      <c r="AJ59" s="104"/>
+      <c r="AK59" s="104"/>
+      <c r="AL59" s="104"/>
+      <c r="AM59" s="106"/>
+      <c r="AN59" s="106"/>
+      <c r="AO59" s="104"/>
+      <c r="AP59" s="104"/>
+      <c r="AQ59" s="104"/>
+      <c r="AR59" s="104"/>
+      <c r="AS59" s="104"/>
+      <c r="AT59" s="107"/>
+      <c r="AU59" s="107"/>
+      <c r="AV59" s="108"/>
+      <c r="AW59" s="108"/>
+      <c r="AX59" s="108"/>
+      <c r="AY59" s="108"/>
+      <c r="AZ59" s="104"/>
       <c r="BA59" s="13"/>
       <c r="BB59" s="13"/>
     </row>
     <row r="60" ht="18.75" customHeight="1">
-      <c r="A60" s="90"/>
+      <c r="A60" s="92"/>
       <c r="B60" s="8"/>
       <c r="C60" s="8"/>
       <c r="D60" s="8"/>
       <c r="E60" s="45"/>
-      <c r="F60" s="65" t="s">
+      <c r="F60" s="66" t="s">
         <v>91</v>
       </c>
       <c r="G60" s="8"/>
@@ -6207,7 +6222,7 @@
       </c>
       <c r="Q60" s="8"/>
       <c r="R60" s="45"/>
-      <c r="S60" s="66">
+      <c r="S60" s="58">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
@@ -6219,46 +6234,46 @@
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="W60" s="102"/>
-      <c r="X60" s="102"/>
-      <c r="Y60" s="102"/>
-      <c r="Z60" s="102"/>
-      <c r="AA60" s="102"/>
-      <c r="AB60" s="102"/>
-      <c r="AC60" s="102"/>
-      <c r="AD60" s="102"/>
-      <c r="AE60" s="102"/>
-      <c r="AF60" s="102"/>
-      <c r="AG60" s="102"/>
-      <c r="AH60" s="103"/>
-      <c r="AI60" s="103"/>
-      <c r="AJ60" s="103"/>
-      <c r="AK60" s="102"/>
-      <c r="AL60" s="102"/>
-      <c r="AM60" s="104"/>
-      <c r="AN60" s="104"/>
-      <c r="AO60" s="102"/>
-      <c r="AP60" s="102"/>
-      <c r="AQ60" s="102"/>
-      <c r="AR60" s="102"/>
-      <c r="AS60" s="102"/>
-      <c r="AT60" s="105"/>
-      <c r="AU60" s="105"/>
-      <c r="AV60" s="106"/>
-      <c r="AW60" s="106"/>
-      <c r="AX60" s="106"/>
-      <c r="AY60" s="106"/>
-      <c r="AZ60" s="102"/>
+      <c r="W60" s="104"/>
+      <c r="X60" s="104"/>
+      <c r="Y60" s="104"/>
+      <c r="Z60" s="104"/>
+      <c r="AA60" s="104"/>
+      <c r="AB60" s="104"/>
+      <c r="AC60" s="104"/>
+      <c r="AD60" s="104"/>
+      <c r="AE60" s="104"/>
+      <c r="AF60" s="104"/>
+      <c r="AG60" s="104"/>
+      <c r="AH60" s="105"/>
+      <c r="AI60" s="105"/>
+      <c r="AJ60" s="105"/>
+      <c r="AK60" s="104"/>
+      <c r="AL60" s="104"/>
+      <c r="AM60" s="106"/>
+      <c r="AN60" s="106"/>
+      <c r="AO60" s="104"/>
+      <c r="AP60" s="104"/>
+      <c r="AQ60" s="104"/>
+      <c r="AR60" s="104"/>
+      <c r="AS60" s="104"/>
+      <c r="AT60" s="107"/>
+      <c r="AU60" s="107"/>
+      <c r="AV60" s="108"/>
+      <c r="AW60" s="108"/>
+      <c r="AX60" s="108"/>
+      <c r="AY60" s="108"/>
+      <c r="AZ60" s="104"/>
       <c r="BA60" s="13"/>
       <c r="BB60" s="13"/>
     </row>
     <row r="61" ht="18.75" customHeight="1">
-      <c r="A61" s="90"/>
+      <c r="A61" s="92"/>
       <c r="B61" s="8"/>
       <c r="C61" s="8"/>
       <c r="D61" s="8"/>
       <c r="E61" s="45"/>
-      <c r="F61" s="65" t="s">
+      <c r="F61" s="66" t="s">
         <v>92</v>
       </c>
       <c r="G61" s="8"/>
@@ -6275,7 +6290,7 @@
       </c>
       <c r="Q61" s="8"/>
       <c r="R61" s="45"/>
-      <c r="S61" s="66">
+      <c r="S61" s="58">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
@@ -6287,36 +6302,36 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="W61" s="102"/>
-      <c r="X61" s="102"/>
-      <c r="Y61" s="102"/>
-      <c r="Z61" s="102"/>
-      <c r="AA61" s="102"/>
-      <c r="AB61" s="102"/>
-      <c r="AC61" s="102"/>
-      <c r="AD61" s="102"/>
-      <c r="AE61" s="102"/>
-      <c r="AF61" s="102"/>
-      <c r="AG61" s="102"/>
-      <c r="AH61" s="102"/>
-      <c r="AI61" s="103"/>
-      <c r="AJ61" s="102"/>
-      <c r="AK61" s="102"/>
-      <c r="AL61" s="102"/>
-      <c r="AM61" s="104"/>
-      <c r="AN61" s="104"/>
-      <c r="AO61" s="102"/>
-      <c r="AP61" s="102"/>
-      <c r="AQ61" s="102"/>
-      <c r="AR61" s="102"/>
-      <c r="AS61" s="102"/>
-      <c r="AT61" s="105"/>
-      <c r="AU61" s="105"/>
-      <c r="AV61" s="102"/>
-      <c r="AW61" s="102"/>
-      <c r="AX61" s="102"/>
-      <c r="AY61" s="102"/>
-      <c r="AZ61" s="102"/>
+      <c r="W61" s="104"/>
+      <c r="X61" s="104"/>
+      <c r="Y61" s="104"/>
+      <c r="Z61" s="104"/>
+      <c r="AA61" s="104"/>
+      <c r="AB61" s="104"/>
+      <c r="AC61" s="104"/>
+      <c r="AD61" s="104"/>
+      <c r="AE61" s="104"/>
+      <c r="AF61" s="104"/>
+      <c r="AG61" s="104"/>
+      <c r="AH61" s="104"/>
+      <c r="AI61" s="105"/>
+      <c r="AJ61" s="104"/>
+      <c r="AK61" s="104"/>
+      <c r="AL61" s="104"/>
+      <c r="AM61" s="106"/>
+      <c r="AN61" s="106"/>
+      <c r="AO61" s="104"/>
+      <c r="AP61" s="104"/>
+      <c r="AQ61" s="104"/>
+      <c r="AR61" s="104"/>
+      <c r="AS61" s="104"/>
+      <c r="AT61" s="107"/>
+      <c r="AU61" s="107"/>
+      <c r="AV61" s="104"/>
+      <c r="AW61" s="104"/>
+      <c r="AX61" s="104"/>
+      <c r="AY61" s="104"/>
+      <c r="AZ61" s="104"/>
       <c r="BA61" s="13"/>
       <c r="BB61" s="13"/>
     </row>
@@ -6326,7 +6341,7 @@
       <c r="C62" s="8"/>
       <c r="D62" s="8"/>
       <c r="E62" s="45"/>
-      <c r="F62" s="65" t="s">
+      <c r="F62" s="66" t="s">
         <v>93</v>
       </c>
       <c r="G62" s="8"/>
@@ -6343,7 +6358,7 @@
       </c>
       <c r="Q62" s="8"/>
       <c r="R62" s="45"/>
-      <c r="S62" s="66">
+      <c r="S62" s="58">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
@@ -6355,36 +6370,36 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="W62" s="102"/>
-      <c r="X62" s="102"/>
-      <c r="Y62" s="102"/>
-      <c r="Z62" s="102"/>
-      <c r="AA62" s="102"/>
-      <c r="AB62" s="102"/>
-      <c r="AC62" s="102"/>
-      <c r="AD62" s="102"/>
-      <c r="AE62" s="102"/>
-      <c r="AF62" s="102"/>
-      <c r="AG62" s="102"/>
-      <c r="AH62" s="103"/>
-      <c r="AI62" s="103"/>
-      <c r="AJ62" s="102"/>
-      <c r="AK62" s="102"/>
-      <c r="AL62" s="102"/>
-      <c r="AM62" s="104"/>
-      <c r="AN62" s="104"/>
-      <c r="AO62" s="102"/>
-      <c r="AP62" s="102"/>
-      <c r="AQ62" s="102"/>
-      <c r="AR62" s="102"/>
-      <c r="AS62" s="102"/>
-      <c r="AT62" s="105"/>
-      <c r="AU62" s="105"/>
-      <c r="AV62" s="102"/>
-      <c r="AW62" s="102"/>
-      <c r="AX62" s="102"/>
-      <c r="AY62" s="102"/>
-      <c r="AZ62" s="102"/>
+      <c r="W62" s="104"/>
+      <c r="X62" s="104"/>
+      <c r="Y62" s="104"/>
+      <c r="Z62" s="104"/>
+      <c r="AA62" s="104"/>
+      <c r="AB62" s="104"/>
+      <c r="AC62" s="104"/>
+      <c r="AD62" s="104"/>
+      <c r="AE62" s="104"/>
+      <c r="AF62" s="104"/>
+      <c r="AG62" s="104"/>
+      <c r="AH62" s="105"/>
+      <c r="AI62" s="105"/>
+      <c r="AJ62" s="104"/>
+      <c r="AK62" s="104"/>
+      <c r="AL62" s="104"/>
+      <c r="AM62" s="106"/>
+      <c r="AN62" s="106"/>
+      <c r="AO62" s="104"/>
+      <c r="AP62" s="104"/>
+      <c r="AQ62" s="104"/>
+      <c r="AR62" s="104"/>
+      <c r="AS62" s="104"/>
+      <c r="AT62" s="107"/>
+      <c r="AU62" s="107"/>
+      <c r="AV62" s="104"/>
+      <c r="AW62" s="104"/>
+      <c r="AX62" s="104"/>
+      <c r="AY62" s="104"/>
+      <c r="AZ62" s="104"/>
       <c r="BA62" s="13"/>
       <c r="BB62" s="13"/>
     </row>
@@ -6394,7 +6409,7 @@
       <c r="C63" s="8"/>
       <c r="D63" s="8"/>
       <c r="E63" s="45"/>
-      <c r="F63" s="65" t="s">
+      <c r="F63" s="66" t="s">
         <v>94</v>
       </c>
       <c r="G63" s="8"/>
@@ -6407,13 +6422,13 @@
       <c r="N63" s="48"/>
       <c r="O63" s="48"/>
       <c r="P63" s="54" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="Q63" s="8"/>
       <c r="R63" s="45"/>
-      <c r="S63" s="66">
+      <c r="S63" s="58">
         <f t="shared" si="1"/>
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="T63" s="34"/>
       <c r="U63" s="55">
@@ -6421,38 +6436,38 @@
       </c>
       <c r="V63" s="48">
         <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="W63" s="102"/>
-      <c r="X63" s="102"/>
-      <c r="Y63" s="102"/>
-      <c r="Z63" s="102"/>
-      <c r="AA63" s="102"/>
-      <c r="AB63" s="102"/>
-      <c r="AC63" s="102"/>
-      <c r="AD63" s="102"/>
-      <c r="AE63" s="102"/>
-      <c r="AF63" s="102"/>
-      <c r="AG63" s="102"/>
-      <c r="AH63" s="102"/>
-      <c r="AI63" s="103"/>
-      <c r="AJ63" s="103"/>
-      <c r="AK63" s="103"/>
-      <c r="AL63" s="103"/>
-      <c r="AM63" s="104"/>
-      <c r="AN63" s="104"/>
-      <c r="AO63" s="102"/>
-      <c r="AP63" s="102"/>
-      <c r="AQ63" s="102"/>
-      <c r="AR63" s="102"/>
-      <c r="AS63" s="102"/>
-      <c r="AT63" s="105"/>
-      <c r="AU63" s="105"/>
-      <c r="AV63" s="102"/>
-      <c r="AW63" s="102"/>
-      <c r="AX63" s="102"/>
-      <c r="AY63" s="102"/>
-      <c r="AZ63" s="102"/>
+        <v>4</v>
+      </c>
+      <c r="W63" s="104"/>
+      <c r="X63" s="104"/>
+      <c r="Y63" s="104"/>
+      <c r="Z63" s="104"/>
+      <c r="AA63" s="104"/>
+      <c r="AB63" s="104"/>
+      <c r="AC63" s="104"/>
+      <c r="AD63" s="104"/>
+      <c r="AE63" s="104"/>
+      <c r="AF63" s="104"/>
+      <c r="AG63" s="104"/>
+      <c r="AH63" s="104"/>
+      <c r="AI63" s="105"/>
+      <c r="AJ63" s="105"/>
+      <c r="AK63" s="105"/>
+      <c r="AL63" s="105"/>
+      <c r="AM63" s="106"/>
+      <c r="AN63" s="106"/>
+      <c r="AO63" s="104"/>
+      <c r="AP63" s="104"/>
+      <c r="AQ63" s="104"/>
+      <c r="AR63" s="104"/>
+      <c r="AS63" s="104"/>
+      <c r="AT63" s="107"/>
+      <c r="AU63" s="107"/>
+      <c r="AV63" s="104"/>
+      <c r="AW63" s="104"/>
+      <c r="AX63" s="104"/>
+      <c r="AY63" s="104"/>
+      <c r="AZ63" s="104"/>
       <c r="BA63" s="13"/>
       <c r="BB63" s="13"/>
     </row>
@@ -6462,7 +6477,7 @@
       <c r="C64" s="8"/>
       <c r="D64" s="8"/>
       <c r="E64" s="45"/>
-      <c r="F64" s="84" t="s">
+      <c r="F64" s="86" t="s">
         <v>95</v>
       </c>
       <c r="G64" s="8"/>
@@ -6479,7 +6494,7 @@
       </c>
       <c r="Q64" s="8"/>
       <c r="R64" s="45"/>
-      <c r="S64" s="66">
+      <c r="S64" s="58">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
@@ -6491,36 +6506,36 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="W64" s="102"/>
-      <c r="X64" s="102"/>
-      <c r="Y64" s="102"/>
-      <c r="Z64" s="102"/>
-      <c r="AA64" s="102"/>
-      <c r="AB64" s="102"/>
-      <c r="AC64" s="102"/>
-      <c r="AD64" s="102"/>
-      <c r="AE64" s="102"/>
-      <c r="AF64" s="102"/>
-      <c r="AG64" s="102"/>
-      <c r="AH64" s="102"/>
-      <c r="AI64" s="102"/>
-      <c r="AJ64" s="102"/>
-      <c r="AK64" s="102"/>
-      <c r="AL64" s="102"/>
-      <c r="AM64" s="104"/>
-      <c r="AN64" s="104"/>
-      <c r="AO64" s="103"/>
-      <c r="AP64" s="103"/>
-      <c r="AQ64" s="102"/>
-      <c r="AR64" s="102"/>
-      <c r="AS64" s="102"/>
-      <c r="AT64" s="105"/>
-      <c r="AU64" s="105"/>
-      <c r="AV64" s="102"/>
-      <c r="AW64" s="102"/>
-      <c r="AX64" s="102"/>
-      <c r="AY64" s="102"/>
-      <c r="AZ64" s="102"/>
+      <c r="W64" s="104"/>
+      <c r="X64" s="104"/>
+      <c r="Y64" s="104"/>
+      <c r="Z64" s="104"/>
+      <c r="AA64" s="104"/>
+      <c r="AB64" s="104"/>
+      <c r="AC64" s="104"/>
+      <c r="AD64" s="104"/>
+      <c r="AE64" s="104"/>
+      <c r="AF64" s="104"/>
+      <c r="AG64" s="104"/>
+      <c r="AH64" s="104"/>
+      <c r="AI64" s="104"/>
+      <c r="AJ64" s="104"/>
+      <c r="AK64" s="104"/>
+      <c r="AL64" s="104"/>
+      <c r="AM64" s="106"/>
+      <c r="AN64" s="106"/>
+      <c r="AO64" s="105"/>
+      <c r="AP64" s="105"/>
+      <c r="AQ64" s="104"/>
+      <c r="AR64" s="104"/>
+      <c r="AS64" s="104"/>
+      <c r="AT64" s="107"/>
+      <c r="AU64" s="107"/>
+      <c r="AV64" s="104"/>
+      <c r="AW64" s="104"/>
+      <c r="AX64" s="104"/>
+      <c r="AY64" s="104"/>
+      <c r="AZ64" s="104"/>
       <c r="BA64" s="13"/>
       <c r="BB64" s="13"/>
     </row>
@@ -6530,7 +6545,7 @@
       <c r="C65" s="8"/>
       <c r="D65" s="8"/>
       <c r="E65" s="45"/>
-      <c r="F65" s="65" t="s">
+      <c r="F65" s="66" t="s">
         <v>96</v>
       </c>
       <c r="G65" s="8"/>
@@ -6543,13 +6558,13 @@
       <c r="N65" s="48"/>
       <c r="O65" s="48"/>
       <c r="P65" s="54" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="Q65" s="8"/>
       <c r="R65" s="45"/>
-      <c r="S65" s="66">
+      <c r="S65" s="58">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="T65" s="41"/>
       <c r="U65" s="55">
@@ -6557,38 +6572,38 @@
       </c>
       <c r="V65" s="48">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="W65" s="102"/>
-      <c r="X65" s="102"/>
-      <c r="Y65" s="102"/>
-      <c r="Z65" s="102"/>
-      <c r="AA65" s="102"/>
-      <c r="AB65" s="102"/>
-      <c r="AC65" s="102"/>
-      <c r="AD65" s="102"/>
-      <c r="AE65" s="102"/>
-      <c r="AF65" s="102"/>
-      <c r="AG65" s="102"/>
-      <c r="AH65" s="102"/>
-      <c r="AI65" s="102"/>
-      <c r="AJ65" s="102"/>
-      <c r="AK65" s="102"/>
-      <c r="AL65" s="102"/>
-      <c r="AM65" s="104"/>
-      <c r="AN65" s="104"/>
-      <c r="AO65" s="103"/>
-      <c r="AP65" s="103"/>
-      <c r="AQ65" s="103"/>
-      <c r="AR65" s="102"/>
-      <c r="AS65" s="102"/>
-      <c r="AT65" s="105"/>
-      <c r="AU65" s="105"/>
-      <c r="AV65" s="102"/>
-      <c r="AW65" s="102"/>
-      <c r="AX65" s="102"/>
-      <c r="AY65" s="102"/>
-      <c r="AZ65" s="102"/>
+        <v>1.5</v>
+      </c>
+      <c r="W65" s="104"/>
+      <c r="X65" s="104"/>
+      <c r="Y65" s="104"/>
+      <c r="Z65" s="104"/>
+      <c r="AA65" s="104"/>
+      <c r="AB65" s="104"/>
+      <c r="AC65" s="104"/>
+      <c r="AD65" s="104"/>
+      <c r="AE65" s="104"/>
+      <c r="AF65" s="104"/>
+      <c r="AG65" s="104"/>
+      <c r="AH65" s="104"/>
+      <c r="AI65" s="104"/>
+      <c r="AJ65" s="104"/>
+      <c r="AK65" s="104"/>
+      <c r="AL65" s="104"/>
+      <c r="AM65" s="106"/>
+      <c r="AN65" s="106"/>
+      <c r="AO65" s="105"/>
+      <c r="AP65" s="105"/>
+      <c r="AQ65" s="105"/>
+      <c r="AR65" s="104"/>
+      <c r="AS65" s="104"/>
+      <c r="AT65" s="107"/>
+      <c r="AU65" s="107"/>
+      <c r="AV65" s="104"/>
+      <c r="AW65" s="104"/>
+      <c r="AX65" s="104"/>
+      <c r="AY65" s="104"/>
+      <c r="AZ65" s="104"/>
       <c r="BA65" s="13"/>
       <c r="BB65" s="13"/>
     </row>
@@ -6600,7 +6615,7 @@
       <c r="C66" s="8"/>
       <c r="D66" s="8"/>
       <c r="E66" s="45"/>
-      <c r="F66" s="65"/>
+      <c r="F66" s="66"/>
       <c r="G66" s="8"/>
       <c r="H66" s="8"/>
       <c r="I66" s="8"/>
@@ -6611,15 +6626,15 @@
       <c r="N66" s="48"/>
       <c r="O66" s="48"/>
       <c r="P66" s="54" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Q66" s="8"/>
       <c r="R66" s="45"/>
-      <c r="S66" s="66">
+      <c r="S66" s="58">
         <f t="shared" si="1"/>
-        <v>75</v>
-      </c>
-      <c r="T66" s="85" t="s">
+        <v>50</v>
+      </c>
+      <c r="T66" s="87" t="s">
         <v>83</v>
       </c>
       <c r="U66" s="55">
@@ -6627,38 +6642,38 @@
       </c>
       <c r="V66" s="48">
         <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="W66" s="102"/>
-      <c r="X66" s="102"/>
-      <c r="Y66" s="102"/>
-      <c r="Z66" s="102"/>
-      <c r="AA66" s="102"/>
-      <c r="AB66" s="102"/>
-      <c r="AC66" s="102"/>
-      <c r="AD66" s="102"/>
-      <c r="AE66" s="102"/>
-      <c r="AF66" s="102"/>
-      <c r="AG66" s="102"/>
-      <c r="AH66" s="69"/>
-      <c r="AI66" s="69"/>
-      <c r="AJ66" s="69"/>
-      <c r="AK66" s="69"/>
-      <c r="AL66" s="103"/>
-      <c r="AM66" s="104"/>
-      <c r="AN66" s="104"/>
-      <c r="AO66" s="69"/>
-      <c r="AP66" s="69"/>
-      <c r="AQ66" s="69"/>
-      <c r="AR66" s="102"/>
-      <c r="AS66" s="102"/>
-      <c r="AT66" s="105"/>
-      <c r="AU66" s="105"/>
-      <c r="AV66" s="102"/>
-      <c r="AW66" s="102"/>
-      <c r="AX66" s="102"/>
-      <c r="AY66" s="102"/>
-      <c r="AZ66" s="102"/>
+        <v>4</v>
+      </c>
+      <c r="W66" s="104"/>
+      <c r="X66" s="104"/>
+      <c r="Y66" s="104"/>
+      <c r="Z66" s="104"/>
+      <c r="AA66" s="104"/>
+      <c r="AB66" s="104"/>
+      <c r="AC66" s="104"/>
+      <c r="AD66" s="104"/>
+      <c r="AE66" s="104"/>
+      <c r="AF66" s="104"/>
+      <c r="AG66" s="104"/>
+      <c r="AH66" s="71"/>
+      <c r="AI66" s="71"/>
+      <c r="AJ66" s="71"/>
+      <c r="AK66" s="71"/>
+      <c r="AL66" s="105"/>
+      <c r="AM66" s="106"/>
+      <c r="AN66" s="106"/>
+      <c r="AO66" s="71"/>
+      <c r="AP66" s="71"/>
+      <c r="AQ66" s="71"/>
+      <c r="AR66" s="104"/>
+      <c r="AS66" s="104"/>
+      <c r="AT66" s="107"/>
+      <c r="AU66" s="107"/>
+      <c r="AV66" s="104"/>
+      <c r="AW66" s="104"/>
+      <c r="AX66" s="104"/>
+      <c r="AY66" s="104"/>
+      <c r="AZ66" s="104"/>
       <c r="BA66" s="13"/>
       <c r="BB66" s="13"/>
     </row>
@@ -6670,7 +6685,7 @@
       <c r="C67" s="8"/>
       <c r="D67" s="8"/>
       <c r="E67" s="45"/>
-      <c r="F67" s="65"/>
+      <c r="F67" s="66"/>
       <c r="G67" s="8"/>
       <c r="H67" s="8"/>
       <c r="I67" s="8"/>
@@ -6685,7 +6700,7 @@
       </c>
       <c r="Q67" s="8"/>
       <c r="R67" s="45"/>
-      <c r="S67" s="66">
+      <c r="S67" s="58">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
@@ -6697,48 +6712,48 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="W67" s="102"/>
-      <c r="X67" s="102"/>
-      <c r="Y67" s="102"/>
-      <c r="Z67" s="102"/>
-      <c r="AA67" s="102"/>
-      <c r="AB67" s="102"/>
-      <c r="AC67" s="102"/>
-      <c r="AD67" s="102"/>
-      <c r="AE67" s="102"/>
-      <c r="AF67" s="102"/>
-      <c r="AG67" s="102"/>
-      <c r="AH67" s="69"/>
-      <c r="AI67" s="69"/>
-      <c r="AJ67" s="69"/>
-      <c r="AK67" s="69"/>
-      <c r="AL67" s="103"/>
-      <c r="AM67" s="104"/>
-      <c r="AN67" s="104"/>
-      <c r="AO67" s="69"/>
-      <c r="AP67" s="69"/>
-      <c r="AQ67" s="69"/>
-      <c r="AR67" s="102"/>
-      <c r="AS67" s="102"/>
-      <c r="AT67" s="105"/>
-      <c r="AU67" s="105"/>
-      <c r="AV67" s="102"/>
-      <c r="AW67" s="102"/>
-      <c r="AX67" s="102"/>
-      <c r="AY67" s="102"/>
-      <c r="AZ67" s="102"/>
+      <c r="W67" s="104"/>
+      <c r="X67" s="104"/>
+      <c r="Y67" s="104"/>
+      <c r="Z67" s="104"/>
+      <c r="AA67" s="104"/>
+      <c r="AB67" s="104"/>
+      <c r="AC67" s="104"/>
+      <c r="AD67" s="104"/>
+      <c r="AE67" s="104"/>
+      <c r="AF67" s="104"/>
+      <c r="AG67" s="104"/>
+      <c r="AH67" s="71"/>
+      <c r="AI67" s="71"/>
+      <c r="AJ67" s="71"/>
+      <c r="AK67" s="71"/>
+      <c r="AL67" s="105"/>
+      <c r="AM67" s="106"/>
+      <c r="AN67" s="106"/>
+      <c r="AO67" s="71"/>
+      <c r="AP67" s="71"/>
+      <c r="AQ67" s="71"/>
+      <c r="AR67" s="104"/>
+      <c r="AS67" s="104"/>
+      <c r="AT67" s="107"/>
+      <c r="AU67" s="107"/>
+      <c r="AV67" s="104"/>
+      <c r="AW67" s="104"/>
+      <c r="AX67" s="104"/>
+      <c r="AY67" s="104"/>
+      <c r="AZ67" s="104"/>
       <c r="BA67" s="13"/>
       <c r="BB67" s="13"/>
     </row>
     <row r="68" ht="18.75" customHeight="1">
-      <c r="A68" s="108" t="s">
+      <c r="A68" s="110" t="s">
         <v>99</v>
       </c>
       <c r="B68" s="8"/>
       <c r="C68" s="8"/>
       <c r="D68" s="8"/>
       <c r="E68" s="45"/>
-      <c r="F68" s="65"/>
+      <c r="F68" s="66"/>
       <c r="G68" s="8"/>
       <c r="H68" s="8"/>
       <c r="I68" s="8"/>
@@ -6749,13 +6764,13 @@
       <c r="N68" s="48"/>
       <c r="O68" s="48"/>
       <c r="P68" s="54" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="Q68" s="8"/>
       <c r="R68" s="45"/>
-      <c r="S68" s="66">
+      <c r="S68" s="58">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="T68" s="41"/>
       <c r="U68" s="55">
@@ -6763,50 +6778,50 @@
       </c>
       <c r="V68" s="48">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="W68" s="102"/>
-      <c r="X68" s="102"/>
-      <c r="Y68" s="102"/>
-      <c r="Z68" s="102"/>
-      <c r="AA68" s="102"/>
-      <c r="AB68" s="102"/>
-      <c r="AC68" s="102"/>
-      <c r="AD68" s="102"/>
-      <c r="AE68" s="102"/>
-      <c r="AF68" s="102"/>
-      <c r="AG68" s="102"/>
-      <c r="AH68" s="69"/>
-      <c r="AI68" s="69"/>
-      <c r="AJ68" s="69"/>
-      <c r="AK68" s="69"/>
-      <c r="AL68" s="103"/>
-      <c r="AM68" s="104"/>
-      <c r="AN68" s="104"/>
-      <c r="AO68" s="69"/>
-      <c r="AP68" s="69"/>
-      <c r="AQ68" s="69"/>
-      <c r="AR68" s="102"/>
-      <c r="AS68" s="102"/>
-      <c r="AT68" s="105"/>
-      <c r="AU68" s="105"/>
-      <c r="AV68" s="102"/>
-      <c r="AW68" s="102"/>
-      <c r="AX68" s="102"/>
-      <c r="AY68" s="102"/>
-      <c r="AZ68" s="102"/>
+        <v>4</v>
+      </c>
+      <c r="W68" s="104"/>
+      <c r="X68" s="104"/>
+      <c r="Y68" s="104"/>
+      <c r="Z68" s="104"/>
+      <c r="AA68" s="104"/>
+      <c r="AB68" s="104"/>
+      <c r="AC68" s="104"/>
+      <c r="AD68" s="104"/>
+      <c r="AE68" s="104"/>
+      <c r="AF68" s="104"/>
+      <c r="AG68" s="104"/>
+      <c r="AH68" s="71"/>
+      <c r="AI68" s="71"/>
+      <c r="AJ68" s="71"/>
+      <c r="AK68" s="71"/>
+      <c r="AL68" s="105"/>
+      <c r="AM68" s="106"/>
+      <c r="AN68" s="106"/>
+      <c r="AO68" s="71"/>
+      <c r="AP68" s="71"/>
+      <c r="AQ68" s="71"/>
+      <c r="AR68" s="104"/>
+      <c r="AS68" s="104"/>
+      <c r="AT68" s="107"/>
+      <c r="AU68" s="107"/>
+      <c r="AV68" s="104"/>
+      <c r="AW68" s="104"/>
+      <c r="AX68" s="104"/>
+      <c r="AY68" s="104"/>
+      <c r="AZ68" s="104"/>
       <c r="BA68" s="13"/>
       <c r="BB68" s="13"/>
     </row>
     <row r="69" ht="18.75" customHeight="1">
-      <c r="A69" s="108" t="s">
+      <c r="A69" s="110" t="s">
         <v>100</v>
       </c>
       <c r="B69" s="8"/>
       <c r="C69" s="8"/>
       <c r="D69" s="8"/>
       <c r="E69" s="45"/>
-      <c r="F69" s="65"/>
+      <c r="F69" s="66"/>
       <c r="G69" s="8"/>
       <c r="H69" s="8"/>
       <c r="I69" s="8"/>
@@ -6817,56 +6832,56 @@
       <c r="N69" s="48"/>
       <c r="O69" s="48"/>
       <c r="P69" s="54" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="Q69" s="8"/>
       <c r="R69" s="45"/>
       <c r="S69" s="55"/>
       <c r="T69" s="55" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="U69" s="55"/>
       <c r="V69" s="48"/>
-      <c r="W69" s="102"/>
-      <c r="X69" s="102"/>
-      <c r="Y69" s="102"/>
-      <c r="Z69" s="102"/>
-      <c r="AA69" s="102"/>
-      <c r="AB69" s="102"/>
-      <c r="AC69" s="102"/>
-      <c r="AD69" s="102"/>
-      <c r="AE69" s="102"/>
-      <c r="AF69" s="102"/>
-      <c r="AG69" s="102"/>
-      <c r="AH69" s="102"/>
-      <c r="AI69" s="102"/>
-      <c r="AJ69" s="102"/>
-      <c r="AK69" s="102"/>
-      <c r="AL69" s="102"/>
-      <c r="AM69" s="104"/>
-      <c r="AN69" s="104"/>
-      <c r="AO69" s="102"/>
-      <c r="AP69" s="102"/>
-      <c r="AQ69" s="102"/>
-      <c r="AR69" s="102"/>
-      <c r="AS69" s="102"/>
-      <c r="AT69" s="105"/>
-      <c r="AU69" s="105"/>
-      <c r="AV69" s="69"/>
-      <c r="AW69" s="69"/>
-      <c r="AX69" s="69"/>
-      <c r="AY69" s="69"/>
-      <c r="AZ69" s="102"/>
+      <c r="W69" s="104"/>
+      <c r="X69" s="104"/>
+      <c r="Y69" s="104"/>
+      <c r="Z69" s="104"/>
+      <c r="AA69" s="104"/>
+      <c r="AB69" s="104"/>
+      <c r="AC69" s="104"/>
+      <c r="AD69" s="104"/>
+      <c r="AE69" s="104"/>
+      <c r="AF69" s="104"/>
+      <c r="AG69" s="104"/>
+      <c r="AH69" s="104"/>
+      <c r="AI69" s="104"/>
+      <c r="AJ69" s="104"/>
+      <c r="AK69" s="104"/>
+      <c r="AL69" s="104"/>
+      <c r="AM69" s="106"/>
+      <c r="AN69" s="106"/>
+      <c r="AO69" s="104"/>
+      <c r="AP69" s="104"/>
+      <c r="AQ69" s="104"/>
+      <c r="AR69" s="104"/>
+      <c r="AS69" s="104"/>
+      <c r="AT69" s="107"/>
+      <c r="AU69" s="107"/>
+      <c r="AV69" s="71"/>
+      <c r="AW69" s="71"/>
+      <c r="AX69" s="71"/>
+      <c r="AY69" s="71"/>
+      <c r="AZ69" s="104"/>
       <c r="BA69" s="13"/>
       <c r="BB69" s="13"/>
     </row>
     <row r="70" ht="18.75" customHeight="1">
-      <c r="A70" s="108"/>
+      <c r="A70" s="110"/>
       <c r="B70" s="8"/>
       <c r="C70" s="8"/>
       <c r="D70" s="8"/>
       <c r="E70" s="45"/>
-      <c r="F70" s="65"/>
+      <c r="F70" s="66"/>
       <c r="G70" s="8"/>
       <c r="H70" s="8"/>
       <c r="I70" s="8"/>
@@ -6877,62 +6892,62 @@
       <c r="N70" s="48"/>
       <c r="O70" s="48"/>
       <c r="P70" s="54" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="Q70" s="8"/>
       <c r="R70" s="45"/>
-      <c r="S70" s="109"/>
+      <c r="S70" s="111"/>
       <c r="T70" s="48"/>
       <c r="U70" s="48">
         <f t="shared" ref="U70:V70" si="3">SUM(U18:U68)</f>
         <v>131</v>
       </c>
-      <c r="V70" s="110">
+      <c r="V70" s="112">
         <f t="shared" si="3"/>
-        <v>79.25</v>
-      </c>
-      <c r="W70" s="102"/>
-      <c r="X70" s="102"/>
-      <c r="Y70" s="102"/>
-      <c r="Z70" s="102"/>
-      <c r="AA70" s="102"/>
-      <c r="AB70" s="102"/>
-      <c r="AC70" s="102"/>
-      <c r="AD70" s="102"/>
-      <c r="AE70" s="102"/>
-      <c r="AF70" s="102"/>
-      <c r="AG70" s="102"/>
-      <c r="AH70" s="102"/>
-      <c r="AI70" s="102"/>
-      <c r="AJ70" s="102"/>
-      <c r="AK70" s="102"/>
-      <c r="AL70" s="102"/>
-      <c r="AM70" s="104"/>
-      <c r="AN70" s="104"/>
-      <c r="AO70" s="102"/>
-      <c r="AP70" s="102"/>
-      <c r="AQ70" s="102"/>
-      <c r="AR70" s="102"/>
-      <c r="AS70" s="102"/>
-      <c r="AT70" s="105"/>
-      <c r="AU70" s="105"/>
-      <c r="AV70" s="102"/>
-      <c r="AW70" s="102"/>
-      <c r="AX70" s="102"/>
-      <c r="AY70" s="102"/>
-      <c r="AZ70" s="102"/>
+        <v>94.25</v>
+      </c>
+      <c r="W70" s="104"/>
+      <c r="X70" s="104"/>
+      <c r="Y70" s="104"/>
+      <c r="Z70" s="104"/>
+      <c r="AA70" s="104"/>
+      <c r="AB70" s="104"/>
+      <c r="AC70" s="104"/>
+      <c r="AD70" s="104"/>
+      <c r="AE70" s="104"/>
+      <c r="AF70" s="104"/>
+      <c r="AG70" s="104"/>
+      <c r="AH70" s="104"/>
+      <c r="AI70" s="104"/>
+      <c r="AJ70" s="104"/>
+      <c r="AK70" s="104"/>
+      <c r="AL70" s="104"/>
+      <c r="AM70" s="106"/>
+      <c r="AN70" s="106"/>
+      <c r="AO70" s="104"/>
+      <c r="AP70" s="104"/>
+      <c r="AQ70" s="104"/>
+      <c r="AR70" s="104"/>
+      <c r="AS70" s="104"/>
+      <c r="AT70" s="107"/>
+      <c r="AU70" s="107"/>
+      <c r="AV70" s="104"/>
+      <c r="AW70" s="104"/>
+      <c r="AX70" s="104"/>
+      <c r="AY70" s="104"/>
+      <c r="AZ70" s="104"/>
       <c r="BA70" s="13"/>
       <c r="BB70" s="13"/>
     </row>
     <row r="71" ht="15.0" customHeight="1">
-      <c r="A71" s="111" t="s">
+      <c r="A71" s="113" t="s">
         <v>101</v>
       </c>
       <c r="B71" s="8"/>
       <c r="C71" s="8"/>
       <c r="D71" s="8"/>
       <c r="E71" s="45"/>
-      <c r="F71" s="65"/>
+      <c r="F71" s="66"/>
       <c r="G71" s="8"/>
       <c r="H71" s="8"/>
       <c r="I71" s="8"/>
@@ -6943,7 +6958,7 @@
       <c r="N71" s="48"/>
       <c r="O71" s="48"/>
       <c r="P71" s="54" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="Q71" s="8"/>
       <c r="R71" s="45"/>
@@ -6954,36 +6969,36 @@
         <f>U71*S71/100</f>
         <v>0</v>
       </c>
-      <c r="W71" s="102"/>
-      <c r="X71" s="102"/>
-      <c r="Y71" s="102"/>
-      <c r="Z71" s="102"/>
-      <c r="AA71" s="102"/>
-      <c r="AB71" s="102"/>
-      <c r="AC71" s="102"/>
-      <c r="AD71" s="102"/>
-      <c r="AE71" s="102"/>
-      <c r="AF71" s="102"/>
-      <c r="AG71" s="102"/>
-      <c r="AH71" s="102"/>
-      <c r="AI71" s="102"/>
-      <c r="AJ71" s="102"/>
-      <c r="AK71" s="102"/>
-      <c r="AL71" s="102"/>
-      <c r="AM71" s="104"/>
-      <c r="AN71" s="104"/>
-      <c r="AO71" s="102"/>
-      <c r="AP71" s="102"/>
-      <c r="AQ71" s="102"/>
-      <c r="AR71" s="102"/>
-      <c r="AS71" s="102"/>
-      <c r="AT71" s="105"/>
-      <c r="AU71" s="105"/>
-      <c r="AV71" s="102"/>
-      <c r="AW71" s="102"/>
-      <c r="AX71" s="102"/>
-      <c r="AY71" s="102"/>
-      <c r="AZ71" s="112"/>
+      <c r="W71" s="104"/>
+      <c r="X71" s="104"/>
+      <c r="Y71" s="104"/>
+      <c r="Z71" s="104"/>
+      <c r="AA71" s="104"/>
+      <c r="AB71" s="104"/>
+      <c r="AC71" s="104"/>
+      <c r="AD71" s="104"/>
+      <c r="AE71" s="104"/>
+      <c r="AF71" s="104"/>
+      <c r="AG71" s="104"/>
+      <c r="AH71" s="104"/>
+      <c r="AI71" s="104"/>
+      <c r="AJ71" s="104"/>
+      <c r="AK71" s="104"/>
+      <c r="AL71" s="104"/>
+      <c r="AM71" s="106"/>
+      <c r="AN71" s="106"/>
+      <c r="AO71" s="104"/>
+      <c r="AP71" s="104"/>
+      <c r="AQ71" s="104"/>
+      <c r="AR71" s="104"/>
+      <c r="AS71" s="104"/>
+      <c r="AT71" s="107"/>
+      <c r="AU71" s="107"/>
+      <c r="AV71" s="104"/>
+      <c r="AW71" s="104"/>
+      <c r="AX71" s="104"/>
+      <c r="AY71" s="104"/>
+      <c r="AZ71" s="114"/>
       <c r="BA71" s="13"/>
       <c r="BB71" s="13"/>
     </row>
@@ -58799,71 +58814,102 @@
     </row>
   </sheetData>
   <mergeCells count="329">
-    <mergeCell ref="P39:R39"/>
-    <mergeCell ref="P40:R40"/>
-    <mergeCell ref="P41:R41"/>
-    <mergeCell ref="P42:R42"/>
-    <mergeCell ref="P43:R43"/>
-    <mergeCell ref="P44:R44"/>
-    <mergeCell ref="P29:R29"/>
-    <mergeCell ref="P30:R30"/>
-    <mergeCell ref="P31:R31"/>
-    <mergeCell ref="P32:R32"/>
-    <mergeCell ref="P34:R34"/>
-    <mergeCell ref="T35:T45"/>
-    <mergeCell ref="T28:T34"/>
-    <mergeCell ref="P33:R33"/>
-    <mergeCell ref="P45:R45"/>
-    <mergeCell ref="P46:R46"/>
-    <mergeCell ref="T46:T51"/>
-    <mergeCell ref="P47:R47"/>
-    <mergeCell ref="P48:R48"/>
-    <mergeCell ref="P49:R49"/>
-    <mergeCell ref="P50:R50"/>
+    <mergeCell ref="P61:R61"/>
+    <mergeCell ref="P62:R62"/>
+    <mergeCell ref="P54:R54"/>
+    <mergeCell ref="P55:R55"/>
     <mergeCell ref="P56:R56"/>
     <mergeCell ref="P57:R57"/>
     <mergeCell ref="P58:R58"/>
     <mergeCell ref="P59:R59"/>
     <mergeCell ref="P60:R60"/>
-    <mergeCell ref="P61:R61"/>
-    <mergeCell ref="P62:R62"/>
-    <mergeCell ref="P63:R63"/>
-    <mergeCell ref="P51:R51"/>
-    <mergeCell ref="P52:R52"/>
+    <mergeCell ref="P20:R20"/>
+    <mergeCell ref="P21:R21"/>
+    <mergeCell ref="P22:R22"/>
+    <mergeCell ref="P23:R23"/>
+    <mergeCell ref="P24:R24"/>
+    <mergeCell ref="P25:R25"/>
+    <mergeCell ref="P26:R26"/>
+    <mergeCell ref="P27:R27"/>
+    <mergeCell ref="P28:R28"/>
+    <mergeCell ref="P12:R12"/>
+    <mergeCell ref="P13:R13"/>
+    <mergeCell ref="P14:R14"/>
+    <mergeCell ref="P15:R15"/>
+    <mergeCell ref="P16:R16"/>
+    <mergeCell ref="P17:R17"/>
+    <mergeCell ref="T18:T27"/>
+    <mergeCell ref="T28:T34"/>
+    <mergeCell ref="T35:T45"/>
+    <mergeCell ref="T46:T51"/>
     <mergeCell ref="T52:T55"/>
-    <mergeCell ref="P53:R53"/>
-    <mergeCell ref="P54:R54"/>
-    <mergeCell ref="P55:R55"/>
     <mergeCell ref="T56:T65"/>
-    <mergeCell ref="P64:R64"/>
-    <mergeCell ref="P65:R65"/>
-    <mergeCell ref="P66:R66"/>
     <mergeCell ref="T66:T68"/>
-    <mergeCell ref="P67:R67"/>
-    <mergeCell ref="P68:R68"/>
-    <mergeCell ref="P69:R69"/>
-    <mergeCell ref="P70:R70"/>
-    <mergeCell ref="P71:R71"/>
-    <mergeCell ref="P72:R72"/>
-    <mergeCell ref="P73:R73"/>
-    <mergeCell ref="P74:R74"/>
-    <mergeCell ref="P75:R75"/>
-    <mergeCell ref="P76:R76"/>
-    <mergeCell ref="P77:R77"/>
-    <mergeCell ref="P78:R78"/>
-    <mergeCell ref="P79:R79"/>
-    <mergeCell ref="P80:R80"/>
-    <mergeCell ref="P81:R81"/>
-    <mergeCell ref="P82:R82"/>
-    <mergeCell ref="P83:R83"/>
-    <mergeCell ref="P84:R84"/>
-    <mergeCell ref="P85:R85"/>
-    <mergeCell ref="P86:R86"/>
-    <mergeCell ref="P87:R87"/>
-    <mergeCell ref="P88:R88"/>
-    <mergeCell ref="P89:R89"/>
-    <mergeCell ref="P90:R90"/>
-    <mergeCell ref="P91:R91"/>
+    <mergeCell ref="P29:R29"/>
+    <mergeCell ref="P30:R30"/>
+    <mergeCell ref="P31:R31"/>
+    <mergeCell ref="P32:R32"/>
+    <mergeCell ref="P33:R33"/>
+    <mergeCell ref="P34:R34"/>
+    <mergeCell ref="P35:R35"/>
+    <mergeCell ref="F102:M102"/>
+    <mergeCell ref="F103:M103"/>
+    <mergeCell ref="F95:M95"/>
+    <mergeCell ref="F96:M96"/>
+    <mergeCell ref="F97:M97"/>
+    <mergeCell ref="F98:M98"/>
+    <mergeCell ref="F99:M99"/>
+    <mergeCell ref="F100:M100"/>
+    <mergeCell ref="F101:M101"/>
+    <mergeCell ref="F46:M46"/>
+    <mergeCell ref="F47:M47"/>
+    <mergeCell ref="F48:M48"/>
+    <mergeCell ref="F49:M49"/>
+    <mergeCell ref="F50:M50"/>
+    <mergeCell ref="F51:M51"/>
+    <mergeCell ref="F52:M52"/>
+    <mergeCell ref="F53:M53"/>
+    <mergeCell ref="F54:M54"/>
+    <mergeCell ref="F55:M55"/>
+    <mergeCell ref="F56:M56"/>
+    <mergeCell ref="F57:M57"/>
+    <mergeCell ref="F58:M58"/>
+    <mergeCell ref="F59:M59"/>
+    <mergeCell ref="F60:M60"/>
+    <mergeCell ref="F61:M61"/>
+    <mergeCell ref="F62:M62"/>
+    <mergeCell ref="F63:M63"/>
+    <mergeCell ref="F64:M64"/>
+    <mergeCell ref="F65:M65"/>
+    <mergeCell ref="F66:M66"/>
+    <mergeCell ref="F67:M67"/>
+    <mergeCell ref="F68:M68"/>
+    <mergeCell ref="F69:M69"/>
+    <mergeCell ref="F70:M70"/>
+    <mergeCell ref="F72:M72"/>
+    <mergeCell ref="F73:M73"/>
+    <mergeCell ref="F71:M71"/>
+    <mergeCell ref="F74:M74"/>
+    <mergeCell ref="F75:M75"/>
+    <mergeCell ref="F76:M76"/>
+    <mergeCell ref="F77:M77"/>
+    <mergeCell ref="F78:M78"/>
+    <mergeCell ref="F79:M79"/>
+    <mergeCell ref="F80:M80"/>
+    <mergeCell ref="F81:M81"/>
+    <mergeCell ref="F82:M82"/>
+    <mergeCell ref="F83:M83"/>
+    <mergeCell ref="F84:M84"/>
+    <mergeCell ref="F85:M85"/>
+    <mergeCell ref="F86:M86"/>
+    <mergeCell ref="F87:M87"/>
+    <mergeCell ref="F88:M88"/>
+    <mergeCell ref="F89:M89"/>
+    <mergeCell ref="F90:M90"/>
+    <mergeCell ref="F91:M91"/>
+    <mergeCell ref="F92:M92"/>
+    <mergeCell ref="F93:M93"/>
+    <mergeCell ref="F94:M94"/>
     <mergeCell ref="S4:S6"/>
     <mergeCell ref="T4:T6"/>
     <mergeCell ref="U4:U6"/>
@@ -58906,26 +58952,24 @@
     <mergeCell ref="F21:M21"/>
     <mergeCell ref="P18:R18"/>
     <mergeCell ref="P19:R19"/>
-    <mergeCell ref="P20:R20"/>
-    <mergeCell ref="P21:R21"/>
-    <mergeCell ref="P22:R22"/>
-    <mergeCell ref="P23:R23"/>
-    <mergeCell ref="P24:R24"/>
-    <mergeCell ref="P25:R25"/>
-    <mergeCell ref="P26:R26"/>
-    <mergeCell ref="P27:R27"/>
-    <mergeCell ref="P28:R28"/>
-    <mergeCell ref="P12:R12"/>
-    <mergeCell ref="P13:R13"/>
-    <mergeCell ref="P14:R14"/>
-    <mergeCell ref="P15:R15"/>
-    <mergeCell ref="P16:R16"/>
-    <mergeCell ref="P17:R17"/>
-    <mergeCell ref="T18:T27"/>
-    <mergeCell ref="P35:R35"/>
+    <mergeCell ref="P43:R43"/>
+    <mergeCell ref="P44:R44"/>
     <mergeCell ref="P36:R36"/>
     <mergeCell ref="P37:R37"/>
     <mergeCell ref="P38:R38"/>
+    <mergeCell ref="P39:R39"/>
+    <mergeCell ref="P40:R40"/>
+    <mergeCell ref="P41:R41"/>
+    <mergeCell ref="P42:R42"/>
+    <mergeCell ref="P52:R52"/>
+    <mergeCell ref="P53:R53"/>
+    <mergeCell ref="P45:R45"/>
+    <mergeCell ref="P46:R46"/>
+    <mergeCell ref="P47:R47"/>
+    <mergeCell ref="P48:R48"/>
+    <mergeCell ref="P49:R49"/>
+    <mergeCell ref="P50:R50"/>
+    <mergeCell ref="P51:R51"/>
     <mergeCell ref="A14:E14"/>
     <mergeCell ref="F14:M14"/>
     <mergeCell ref="A15:E15"/>
@@ -58956,27 +59000,74 @@
     <mergeCell ref="F31:M31"/>
     <mergeCell ref="A31:E31"/>
     <mergeCell ref="A32:E32"/>
+    <mergeCell ref="A33:E33"/>
     <mergeCell ref="A34:E34"/>
     <mergeCell ref="A35:E35"/>
     <mergeCell ref="A36:E36"/>
     <mergeCell ref="A37:E37"/>
-    <mergeCell ref="A38:E38"/>
-    <mergeCell ref="A33:E33"/>
     <mergeCell ref="F32:M32"/>
+    <mergeCell ref="F33:M33"/>
     <mergeCell ref="F34:M34"/>
     <mergeCell ref="F35:M35"/>
     <mergeCell ref="F36:M36"/>
     <mergeCell ref="F37:M37"/>
     <mergeCell ref="F38:M38"/>
     <mergeCell ref="F39:M39"/>
-    <mergeCell ref="F33:M33"/>
     <mergeCell ref="F40:M40"/>
     <mergeCell ref="F41:M41"/>
     <mergeCell ref="F42:M42"/>
     <mergeCell ref="F43:M43"/>
     <mergeCell ref="F44:M44"/>
     <mergeCell ref="F45:M45"/>
-    <mergeCell ref="F46:M46"/>
+    <mergeCell ref="P63:R63"/>
+    <mergeCell ref="P64:R64"/>
+    <mergeCell ref="P65:R65"/>
+    <mergeCell ref="P66:R66"/>
+    <mergeCell ref="P67:R67"/>
+    <mergeCell ref="P68:R68"/>
+    <mergeCell ref="P69:R69"/>
+    <mergeCell ref="P70:R70"/>
+    <mergeCell ref="P72:R72"/>
+    <mergeCell ref="P73:R73"/>
+    <mergeCell ref="P74:R74"/>
+    <mergeCell ref="P75:R75"/>
+    <mergeCell ref="P76:R76"/>
+    <mergeCell ref="P71:R71"/>
+    <mergeCell ref="P77:R77"/>
+    <mergeCell ref="P78:R78"/>
+    <mergeCell ref="P79:R79"/>
+    <mergeCell ref="P80:R80"/>
+    <mergeCell ref="P81:R81"/>
+    <mergeCell ref="P82:R82"/>
+    <mergeCell ref="P83:R83"/>
+    <mergeCell ref="P84:R84"/>
+    <mergeCell ref="P85:R85"/>
+    <mergeCell ref="P86:R86"/>
+    <mergeCell ref="P87:R87"/>
+    <mergeCell ref="P88:R88"/>
+    <mergeCell ref="P89:R89"/>
+    <mergeCell ref="P90:R90"/>
+    <mergeCell ref="P91:R91"/>
+    <mergeCell ref="P92:R92"/>
+    <mergeCell ref="P93:R93"/>
+    <mergeCell ref="P94:R94"/>
+    <mergeCell ref="P95:R95"/>
+    <mergeCell ref="P96:R96"/>
+    <mergeCell ref="P97:R97"/>
+    <mergeCell ref="P105:R105"/>
+    <mergeCell ref="P106:R106"/>
+    <mergeCell ref="P107:R107"/>
+    <mergeCell ref="P108:R108"/>
+    <mergeCell ref="P109:R109"/>
+    <mergeCell ref="P98:R98"/>
+    <mergeCell ref="P99:R99"/>
+    <mergeCell ref="P100:R100"/>
+    <mergeCell ref="P101:R101"/>
+    <mergeCell ref="P102:R102"/>
+    <mergeCell ref="P103:R103"/>
+    <mergeCell ref="P104:R104"/>
+    <mergeCell ref="A88:E88"/>
+    <mergeCell ref="A89:E89"/>
     <mergeCell ref="A90:E90"/>
     <mergeCell ref="A91:E91"/>
     <mergeCell ref="A92:E92"/>
@@ -58984,19 +59075,26 @@
     <mergeCell ref="A94:E94"/>
     <mergeCell ref="A95:E95"/>
     <mergeCell ref="A96:E96"/>
-    <mergeCell ref="A104:E104"/>
-    <mergeCell ref="A105:E105"/>
-    <mergeCell ref="A106:E106"/>
-    <mergeCell ref="A107:E107"/>
-    <mergeCell ref="A108:E108"/>
-    <mergeCell ref="A109:E109"/>
     <mergeCell ref="A97:E97"/>
     <mergeCell ref="A98:E98"/>
     <mergeCell ref="A99:E99"/>
     <mergeCell ref="A100:E100"/>
     <mergeCell ref="A101:E101"/>
+    <mergeCell ref="A106:E106"/>
+    <mergeCell ref="A107:E107"/>
+    <mergeCell ref="A108:E108"/>
+    <mergeCell ref="A109:E109"/>
+    <mergeCell ref="F107:M107"/>
+    <mergeCell ref="F108:M108"/>
+    <mergeCell ref="F109:M109"/>
     <mergeCell ref="A102:E102"/>
     <mergeCell ref="A103:E103"/>
+    <mergeCell ref="A104:E104"/>
+    <mergeCell ref="F104:M104"/>
+    <mergeCell ref="A105:E105"/>
+    <mergeCell ref="F105:M105"/>
+    <mergeCell ref="F106:M106"/>
+    <mergeCell ref="A38:E38"/>
     <mergeCell ref="A39:E39"/>
     <mergeCell ref="A40:E40"/>
     <mergeCell ref="A41:E41"/>
@@ -59021,11 +59119,11 @@
     <mergeCell ref="A61:E61"/>
     <mergeCell ref="A62:E62"/>
     <mergeCell ref="A63:E63"/>
+    <mergeCell ref="A64:E64"/>
     <mergeCell ref="A65:E65"/>
     <mergeCell ref="A66:E66"/>
     <mergeCell ref="A67:E67"/>
     <mergeCell ref="A68:E68"/>
-    <mergeCell ref="A64:E64"/>
     <mergeCell ref="A69:E69"/>
     <mergeCell ref="A70:E70"/>
     <mergeCell ref="A71:E71"/>
@@ -59045,89 +59143,6 @@
     <mergeCell ref="A85:E85"/>
     <mergeCell ref="A86:E86"/>
     <mergeCell ref="A87:E87"/>
-    <mergeCell ref="A88:E88"/>
-    <mergeCell ref="A89:E89"/>
-    <mergeCell ref="P92:R92"/>
-    <mergeCell ref="P93:R93"/>
-    <mergeCell ref="P94:R94"/>
-    <mergeCell ref="P95:R95"/>
-    <mergeCell ref="P96:R96"/>
-    <mergeCell ref="P97:R97"/>
-    <mergeCell ref="P98:R98"/>
-    <mergeCell ref="P106:R106"/>
-    <mergeCell ref="P107:R107"/>
-    <mergeCell ref="P108:R108"/>
-    <mergeCell ref="P109:R109"/>
-    <mergeCell ref="P99:R99"/>
-    <mergeCell ref="P100:R100"/>
-    <mergeCell ref="P101:R101"/>
-    <mergeCell ref="P102:R102"/>
-    <mergeCell ref="P103:R103"/>
-    <mergeCell ref="P104:R104"/>
-    <mergeCell ref="P105:R105"/>
-    <mergeCell ref="F104:M104"/>
-    <mergeCell ref="F105:M105"/>
-    <mergeCell ref="F106:M106"/>
-    <mergeCell ref="F107:M107"/>
-    <mergeCell ref="F108:M108"/>
-    <mergeCell ref="F109:M109"/>
-    <mergeCell ref="F97:M97"/>
-    <mergeCell ref="F98:M98"/>
-    <mergeCell ref="F99:M99"/>
-    <mergeCell ref="F100:M100"/>
-    <mergeCell ref="F101:M101"/>
-    <mergeCell ref="F102:M102"/>
-    <mergeCell ref="F103:M103"/>
-    <mergeCell ref="F47:M47"/>
-    <mergeCell ref="F48:M48"/>
-    <mergeCell ref="F49:M49"/>
-    <mergeCell ref="F50:M50"/>
-    <mergeCell ref="F51:M51"/>
-    <mergeCell ref="F52:M52"/>
-    <mergeCell ref="F53:M53"/>
-    <mergeCell ref="F54:M54"/>
-    <mergeCell ref="F55:M55"/>
-    <mergeCell ref="F56:M56"/>
-    <mergeCell ref="F57:M57"/>
-    <mergeCell ref="F58:M58"/>
-    <mergeCell ref="F59:M59"/>
-    <mergeCell ref="F60:M60"/>
-    <mergeCell ref="F61:M61"/>
-    <mergeCell ref="F62:M62"/>
-    <mergeCell ref="F63:M63"/>
-    <mergeCell ref="F65:M65"/>
-    <mergeCell ref="F66:M66"/>
-    <mergeCell ref="F67:M67"/>
-    <mergeCell ref="F68:M68"/>
-    <mergeCell ref="F64:M64"/>
-    <mergeCell ref="F69:M69"/>
-    <mergeCell ref="F70:M70"/>
-    <mergeCell ref="F71:M71"/>
-    <mergeCell ref="F72:M72"/>
-    <mergeCell ref="F73:M73"/>
-    <mergeCell ref="F74:M74"/>
-    <mergeCell ref="F75:M75"/>
-    <mergeCell ref="F76:M76"/>
-    <mergeCell ref="F77:M77"/>
-    <mergeCell ref="F78:M78"/>
-    <mergeCell ref="F79:M79"/>
-    <mergeCell ref="F80:M80"/>
-    <mergeCell ref="F81:M81"/>
-    <mergeCell ref="F82:M82"/>
-    <mergeCell ref="F83:M83"/>
-    <mergeCell ref="F84:M84"/>
-    <mergeCell ref="F85:M85"/>
-    <mergeCell ref="F86:M86"/>
-    <mergeCell ref="F87:M87"/>
-    <mergeCell ref="F88:M88"/>
-    <mergeCell ref="F89:M89"/>
-    <mergeCell ref="F90:M90"/>
-    <mergeCell ref="F91:M91"/>
-    <mergeCell ref="F92:M92"/>
-    <mergeCell ref="F93:M93"/>
-    <mergeCell ref="F94:M94"/>
-    <mergeCell ref="F95:M95"/>
-    <mergeCell ref="F96:M96"/>
   </mergeCells>
   <conditionalFormatting sqref="F33 F64">
     <cfRule type="expression" dxfId="0" priority="1">
@@ -59421,34 +59436,34 @@
   </cols>
   <sheetData>
     <row r="1" ht="13.5" customHeight="1">
-      <c r="B1" s="113" t="s">
+      <c r="B1" s="115" t="s">
         <v>102</v>
       </c>
-      <c r="C1" s="114" t="s">
+      <c r="C1" s="116" t="s">
         <v>103</v>
       </c>
-      <c r="D1" s="114" t="s">
+      <c r="D1" s="116" t="s">
         <v>104</v>
       </c>
-      <c r="E1" s="114" t="s">
+      <c r="E1" s="116" t="s">
         <v>105</v>
       </c>
-      <c r="F1" s="114" t="s">
+      <c r="F1" s="116" t="s">
         <v>106</v>
       </c>
-      <c r="G1" s="115" t="s">
+      <c r="G1" s="117" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="115" t="s">
+      <c r="H1" s="117" t="s">
         <v>107</v>
       </c>
-      <c r="I1" s="116" t="s">
+      <c r="I1" s="118" t="s">
         <v>97</v>
       </c>
-      <c r="J1" s="116" t="s">
+      <c r="J1" s="118" t="s">
         <v>108</v>
       </c>
-      <c r="K1" s="116" t="s">
+      <c r="K1" s="118" t="s">
         <v>109</v>
       </c>
       <c r="L1" s="42" t="s">
@@ -59505,7 +59520,7 @@
       <c r="AC1" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="AD1" s="117" t="s">
+      <c r="AD1" s="119" t="s">
         <v>15</v>
       </c>
       <c r="AO1" s="42" t="s">
@@ -59513,19 +59528,19 @@
       </c>
     </row>
     <row r="2" ht="13.5" customHeight="1">
-      <c r="B2" s="102">
+      <c r="B2" s="104">
         <v>1.0</v>
       </c>
-      <c r="C2" s="102" t="s">
+      <c r="C2" s="104" t="s">
         <v>110</v>
       </c>
-      <c r="D2" s="102" t="s">
+      <c r="D2" s="104" t="s">
         <v>111</v>
       </c>
-      <c r="E2" s="102" t="s">
+      <c r="E2" s="104" t="s">
         <v>75</v>
       </c>
-      <c r="F2" s="102" t="s">
+      <c r="F2" s="104" t="s">
         <v>112</v>
       </c>
       <c r="G2" s="48" t="s">
@@ -59540,11 +59555,13 @@
       <c r="J2" s="55" t="s">
         <v>113</v>
       </c>
-      <c r="K2" s="55"/>
+      <c r="K2" s="55" t="s">
+        <v>113</v>
+      </c>
       <c r="L2" s="49"/>
       <c r="M2" s="50"/>
       <c r="N2" s="50"/>
-      <c r="O2" s="118"/>
+      <c r="O2" s="120"/>
       <c r="P2" s="50"/>
       <c r="Q2" s="50"/>
       <c r="R2" s="50"/>
@@ -59559,7 +59576,7 @@
       <c r="AA2" s="50"/>
       <c r="AB2" s="50"/>
       <c r="AC2" s="50"/>
-      <c r="AD2" s="91"/>
+      <c r="AD2" s="93"/>
       <c r="AE2" s="13"/>
       <c r="AF2" s="13"/>
       <c r="AG2" s="13"/>
@@ -59573,19 +59590,19 @@
       <c r="AO2" s="49"/>
     </row>
     <row r="3" ht="13.5" customHeight="1">
-      <c r="B3" s="102">
+      <c r="B3" s="104">
         <v>2.0</v>
       </c>
-      <c r="C3" s="102" t="s">
+      <c r="C3" s="104" t="s">
         <v>110</v>
       </c>
-      <c r="D3" s="102" t="s">
+      <c r="D3" s="104" t="s">
         <v>111</v>
       </c>
-      <c r="E3" s="102" t="s">
+      <c r="E3" s="104" t="s">
         <v>87</v>
       </c>
-      <c r="F3" s="119" t="s">
+      <c r="F3" s="121" t="s">
         <v>114</v>
       </c>
       <c r="G3" s="48" t="s">
@@ -59598,12 +59615,14 @@
         <v>113</v>
       </c>
       <c r="J3" s="55"/>
-      <c r="K3" s="55"/>
-      <c r="L3" s="120"/>
-      <c r="M3" s="121"/>
-      <c r="N3" s="121"/>
-      <c r="O3" s="121"/>
-      <c r="P3" s="121"/>
+      <c r="K3" s="55" t="s">
+        <v>113</v>
+      </c>
+      <c r="L3" s="122"/>
+      <c r="M3" s="123"/>
+      <c r="N3" s="123"/>
+      <c r="O3" s="123"/>
+      <c r="P3" s="123"/>
       <c r="Q3" s="50"/>
       <c r="R3" s="50"/>
       <c r="S3" s="50"/>
@@ -59617,7 +59636,7 @@
       <c r="AA3" s="50"/>
       <c r="AB3" s="50"/>
       <c r="AC3" s="50"/>
-      <c r="AD3" s="91"/>
+      <c r="AD3" s="93"/>
       <c r="AE3" s="13"/>
       <c r="AF3" s="13"/>
       <c r="AG3" s="13"/>
@@ -59631,23 +59650,23 @@
       <c r="AO3" s="49"/>
     </row>
     <row r="4" ht="13.5" customHeight="1">
-      <c r="B4" s="102">
+      <c r="B4" s="104">
         <v>3.0</v>
       </c>
-      <c r="C4" s="102" t="s">
+      <c r="C4" s="104" t="s">
         <v>110</v>
       </c>
-      <c r="D4" s="102" t="s">
+      <c r="D4" s="104" t="s">
         <v>111</v>
       </c>
-      <c r="E4" s="102" t="s">
+      <c r="E4" s="104" t="s">
+        <v>62</v>
+      </c>
+      <c r="F4" s="104" t="s">
+        <v>115</v>
+      </c>
+      <c r="G4" s="48" t="s">
         <v>63</v>
-      </c>
-      <c r="F4" s="102" t="s">
-        <v>115</v>
-      </c>
-      <c r="G4" s="48" t="s">
-        <v>64</v>
       </c>
       <c r="H4" s="55" t="s">
         <v>23</v>
@@ -59655,13 +59674,17 @@
       <c r="I4" s="55" t="s">
         <v>113</v>
       </c>
-      <c r="J4" s="55"/>
-      <c r="K4" s="55"/>
-      <c r="L4" s="120"/>
-      <c r="M4" s="121"/>
-      <c r="N4" s="121"/>
-      <c r="O4" s="121"/>
-      <c r="P4" s="121"/>
+      <c r="J4" s="55" t="s">
+        <v>113</v>
+      </c>
+      <c r="K4" s="55" t="s">
+        <v>113</v>
+      </c>
+      <c r="L4" s="122"/>
+      <c r="M4" s="123"/>
+      <c r="N4" s="123"/>
+      <c r="O4" s="123"/>
+      <c r="P4" s="123"/>
       <c r="Q4" s="50"/>
       <c r="R4" s="50"/>
       <c r="S4" s="50"/>
@@ -59675,7 +59698,7 @@
       <c r="AA4" s="50"/>
       <c r="AB4" s="50"/>
       <c r="AC4" s="50"/>
-      <c r="AD4" s="91"/>
+      <c r="AD4" s="93"/>
       <c r="AE4" s="13"/>
       <c r="AF4" s="13"/>
       <c r="AG4" s="13"/>
@@ -59689,37 +59712,41 @@
       <c r="AO4" s="49"/>
     </row>
     <row r="5" ht="13.5" customHeight="1">
-      <c r="B5" s="102">
+      <c r="B5" s="104">
         <v>4.0</v>
       </c>
-      <c r="C5" s="102" t="s">
+      <c r="C5" s="104" t="s">
         <v>110</v>
       </c>
-      <c r="D5" s="102" t="s">
+      <c r="D5" s="104" t="s">
         <v>111</v>
       </c>
-      <c r="E5" s="102" t="s">
-        <v>56</v>
-      </c>
-      <c r="F5" s="102" t="s">
+      <c r="E5" s="104" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5" s="104" t="s">
         <v>116</v>
       </c>
       <c r="G5" s="48" t="s">
         <v>37</v>
       </c>
       <c r="H5" s="55" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="I5" s="55" t="s">
         <v>113</v>
       </c>
-      <c r="J5" s="55"/>
-      <c r="K5" s="55"/>
-      <c r="L5" s="120"/>
-      <c r="M5" s="121"/>
-      <c r="N5" s="121"/>
-      <c r="O5" s="121"/>
-      <c r="P5" s="122"/>
+      <c r="J5" s="55" t="s">
+        <v>113</v>
+      </c>
+      <c r="K5" s="55" t="s">
+        <v>113</v>
+      </c>
+      <c r="L5" s="122"/>
+      <c r="M5" s="123"/>
+      <c r="N5" s="123"/>
+      <c r="O5" s="123"/>
+      <c r="P5" s="124"/>
       <c r="Q5" s="50"/>
       <c r="R5" s="50"/>
       <c r="S5" s="50"/>
@@ -59733,7 +59760,7 @@
       <c r="AA5" s="50"/>
       <c r="AB5" s="50"/>
       <c r="AC5" s="50"/>
-      <c r="AD5" s="91"/>
+      <c r="AD5" s="93"/>
       <c r="AE5" s="13"/>
       <c r="AF5" s="13"/>
       <c r="AG5" s="13"/>
@@ -59747,35 +59774,41 @@
       <c r="AO5" s="49"/>
     </row>
     <row r="6" ht="13.5" customHeight="1">
-      <c r="B6" s="102">
+      <c r="B6" s="104">
         <v>5.0</v>
       </c>
-      <c r="C6" s="102" t="s">
+      <c r="C6" s="104" t="s">
         <v>110</v>
       </c>
-      <c r="D6" s="102" t="s">
+      <c r="D6" s="104" t="s">
         <v>111</v>
       </c>
-      <c r="E6" s="102" t="s">
+      <c r="E6" s="104" t="s">
         <v>43</v>
       </c>
-      <c r="F6" s="102" t="s">
+      <c r="F6" s="104" t="s">
         <v>117</v>
       </c>
       <c r="G6" s="48" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H6" s="55" t="s">
-        <v>44</v>
-      </c>
-      <c r="I6" s="55"/>
-      <c r="J6" s="55"/>
-      <c r="K6" s="55"/>
-      <c r="L6" s="120"/>
-      <c r="M6" s="121"/>
-      <c r="N6" s="121"/>
-      <c r="O6" s="121"/>
-      <c r="P6" s="123"/>
+        <v>23</v>
+      </c>
+      <c r="I6" s="55" t="s">
+        <v>113</v>
+      </c>
+      <c r="J6" s="55" t="s">
+        <v>113</v>
+      </c>
+      <c r="K6" s="55" t="s">
+        <v>113</v>
+      </c>
+      <c r="L6" s="122"/>
+      <c r="M6" s="123"/>
+      <c r="N6" s="123"/>
+      <c r="O6" s="123"/>
+      <c r="P6" s="125"/>
       <c r="Q6" s="50"/>
       <c r="R6" s="50"/>
       <c r="S6" s="50"/>
@@ -59789,7 +59822,7 @@
       <c r="AA6" s="50"/>
       <c r="AB6" s="50"/>
       <c r="AC6" s="50"/>
-      <c r="AD6" s="91"/>
+      <c r="AD6" s="93"/>
       <c r="AE6" s="13"/>
       <c r="AF6" s="13"/>
       <c r="AG6" s="13"/>
@@ -59803,35 +59836,41 @@
       <c r="AO6" s="49"/>
     </row>
     <row r="7" ht="13.5" customHeight="1">
-      <c r="B7" s="102">
+      <c r="B7" s="104">
         <v>6.0</v>
       </c>
-      <c r="C7" s="102" t="s">
+      <c r="C7" s="104" t="s">
         <v>110</v>
       </c>
-      <c r="D7" s="102" t="s">
+      <c r="D7" s="104" t="s">
         <v>111</v>
       </c>
-      <c r="E7" s="102" t="s">
+      <c r="E7" s="104" t="s">
         <v>88</v>
       </c>
-      <c r="F7" s="102" t="s">
+      <c r="F7" s="104" t="s">
         <v>118</v>
       </c>
       <c r="G7" s="55" t="s">
         <v>35</v>
       </c>
       <c r="H7" s="55" t="s">
-        <v>44</v>
-      </c>
-      <c r="I7" s="55"/>
-      <c r="J7" s="55"/>
-      <c r="K7" s="55"/>
-      <c r="L7" s="124"/>
-      <c r="M7" s="125"/>
-      <c r="N7" s="125"/>
-      <c r="O7" s="70"/>
-      <c r="P7" s="126"/>
+        <v>23</v>
+      </c>
+      <c r="I7" s="55" t="s">
+        <v>113</v>
+      </c>
+      <c r="J7" s="55" t="s">
+        <v>113</v>
+      </c>
+      <c r="K7" s="55" t="s">
+        <v>113</v>
+      </c>
+      <c r="L7" s="126"/>
+      <c r="M7" s="127"/>
+      <c r="N7" s="127"/>
+      <c r="O7" s="72"/>
+      <c r="P7" s="128"/>
       <c r="Q7" s="50"/>
       <c r="R7" s="50"/>
       <c r="S7" s="50"/>
@@ -59845,7 +59884,7 @@
       <c r="AA7" s="50"/>
       <c r="AB7" s="50"/>
       <c r="AC7" s="50"/>
-      <c r="AD7" s="91"/>
+      <c r="AD7" s="93"/>
       <c r="AE7" s="13"/>
       <c r="AF7" s="13"/>
       <c r="AG7" s="13"/>
@@ -59859,35 +59898,35 @@
       <c r="AO7" s="49"/>
     </row>
     <row r="8" ht="13.5" customHeight="1">
-      <c r="B8" s="102">
+      <c r="B8" s="104">
         <v>7.0</v>
       </c>
-      <c r="C8" s="102" t="s">
+      <c r="C8" s="104" t="s">
         <v>110</v>
       </c>
-      <c r="D8" s="102" t="s">
+      <c r="D8" s="104" t="s">
         <v>111</v>
       </c>
-      <c r="E8" s="102" t="s">
+      <c r="E8" s="104" t="s">
         <v>77</v>
       </c>
-      <c r="F8" s="102" t="s">
+      <c r="F8" s="104" t="s">
         <v>119</v>
       </c>
       <c r="G8" s="48" t="s">
         <v>76</v>
       </c>
       <c r="H8" s="55" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="I8" s="55"/>
       <c r="J8" s="55"/>
       <c r="K8" s="55"/>
-      <c r="L8" s="120"/>
-      <c r="M8" s="121"/>
-      <c r="N8" s="121"/>
-      <c r="O8" s="121"/>
-      <c r="P8" s="121"/>
+      <c r="L8" s="122"/>
+      <c r="M8" s="123"/>
+      <c r="N8" s="123"/>
+      <c r="O8" s="123"/>
+      <c r="P8" s="123"/>
       <c r="Q8" s="50"/>
       <c r="R8" s="50"/>
       <c r="S8" s="50"/>
@@ -59901,7 +59940,7 @@
       <c r="AA8" s="50"/>
       <c r="AB8" s="50"/>
       <c r="AC8" s="50"/>
-      <c r="AD8" s="91"/>
+      <c r="AD8" s="93"/>
       <c r="AE8" s="13"/>
       <c r="AF8" s="13"/>
       <c r="AG8" s="13"/>
@@ -59915,39 +59954,39 @@
       <c r="AO8" s="49"/>
     </row>
     <row r="9" ht="13.5" customHeight="1">
-      <c r="B9" s="102">
+      <c r="B9" s="104">
         <v>8.0</v>
       </c>
-      <c r="C9" s="102" t="s">
+      <c r="C9" s="104" t="s">
         <v>110</v>
       </c>
-      <c r="D9" s="102" t="s">
+      <c r="D9" s="104" t="s">
         <v>111</v>
       </c>
-      <c r="E9" s="102" t="s">
+      <c r="E9" s="104" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" s="104" t="s">
+        <v>120</v>
+      </c>
+      <c r="G9" s="48" t="s">
+        <v>44</v>
+      </c>
+      <c r="H9" s="55" t="s">
         <v>46</v>
-      </c>
-      <c r="F9" s="102" t="s">
-        <v>120</v>
-      </c>
-      <c r="G9" s="48" t="s">
-        <v>45</v>
-      </c>
-      <c r="H9" s="55" t="s">
-        <v>44</v>
       </c>
       <c r="I9" s="55"/>
       <c r="J9" s="55"/>
       <c r="K9" s="55"/>
-      <c r="L9" s="127"/>
-      <c r="M9" s="70"/>
-      <c r="N9" s="121"/>
-      <c r="O9" s="121"/>
+      <c r="L9" s="129"/>
+      <c r="M9" s="72"/>
+      <c r="N9" s="123"/>
+      <c r="O9" s="123"/>
       <c r="P9" s="50"/>
       <c r="Q9" s="51"/>
       <c r="R9" s="51"/>
       <c r="S9" s="50"/>
-      <c r="T9" s="128"/>
+      <c r="T9" s="130"/>
       <c r="U9" s="50"/>
       <c r="V9" s="50"/>
       <c r="W9" s="50"/>
@@ -59957,7 +59996,7 @@
       <c r="AA9" s="50"/>
       <c r="AB9" s="50"/>
       <c r="AC9" s="50"/>
-      <c r="AD9" s="91"/>
+      <c r="AD9" s="93"/>
       <c r="AE9" s="13"/>
       <c r="AF9" s="13"/>
       <c r="AG9" s="13"/>
@@ -59971,19 +60010,19 @@
       <c r="AO9" s="49"/>
     </row>
     <row r="10" ht="13.5" customHeight="1">
-      <c r="B10" s="102">
+      <c r="B10" s="104">
         <v>9.0</v>
       </c>
-      <c r="C10" s="129" t="s">
+      <c r="C10" s="131" t="s">
         <v>110</v>
       </c>
-      <c r="D10" s="129" t="s">
+      <c r="D10" s="131" t="s">
         <v>111</v>
       </c>
-      <c r="E10" s="129" t="s">
+      <c r="E10" s="131" t="s">
         <v>95</v>
       </c>
-      <c r="F10" s="129" t="s">
+      <c r="F10" s="131" t="s">
         <v>121</v>
       </c>
       <c r="G10" s="55" t="s">
@@ -59995,15 +60034,15 @@
       <c r="I10" s="55"/>
       <c r="J10" s="55"/>
       <c r="K10" s="55"/>
-      <c r="L10" s="127"/>
-      <c r="M10" s="70"/>
-      <c r="N10" s="121"/>
-      <c r="O10" s="121"/>
+      <c r="L10" s="129"/>
+      <c r="M10" s="72"/>
+      <c r="N10" s="123"/>
+      <c r="O10" s="123"/>
       <c r="P10" s="50"/>
       <c r="Q10" s="51"/>
       <c r="R10" s="51"/>
       <c r="S10" s="50"/>
-      <c r="T10" s="128"/>
+      <c r="T10" s="130"/>
       <c r="U10" s="50"/>
       <c r="V10" s="50"/>
       <c r="W10" s="50"/>
@@ -60013,7 +60052,7 @@
       <c r="AA10" s="50"/>
       <c r="AB10" s="50"/>
       <c r="AC10" s="50"/>
-      <c r="AD10" s="91"/>
+      <c r="AD10" s="93"/>
       <c r="AE10" s="13"/>
       <c r="AF10" s="13"/>
       <c r="AG10" s="13"/>
@@ -60027,23 +60066,23 @@
       <c r="AO10" s="49"/>
     </row>
     <row r="11" ht="13.5" customHeight="1">
-      <c r="B11" s="102">
+      <c r="B11" s="104">
         <v>10.0</v>
       </c>
-      <c r="C11" s="102" t="s">
+      <c r="C11" s="104" t="s">
         <v>110</v>
       </c>
-      <c r="D11" s="102" t="s">
+      <c r="D11" s="104" t="s">
         <v>111</v>
       </c>
-      <c r="E11" s="102" t="s">
-        <v>65</v>
-      </c>
-      <c r="F11" s="102" t="s">
+      <c r="E11" s="104" t="s">
+        <v>64</v>
+      </c>
+      <c r="F11" s="104" t="s">
         <v>122</v>
       </c>
       <c r="G11" s="48" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H11" s="55" t="s">
         <v>23</v>
@@ -60051,8 +60090,12 @@
       <c r="I11" s="55" t="s">
         <v>113</v>
       </c>
-      <c r="J11" s="55"/>
-      <c r="K11" s="55"/>
+      <c r="J11" s="55" t="s">
+        <v>113</v>
+      </c>
+      <c r="K11" s="55" t="s">
+        <v>113</v>
+      </c>
       <c r="L11" s="49"/>
       <c r="M11" s="50"/>
       <c r="N11" s="50"/>
@@ -60071,7 +60114,7 @@
       <c r="AA11" s="50"/>
       <c r="AB11" s="50"/>
       <c r="AC11" s="50"/>
-      <c r="AD11" s="91"/>
+      <c r="AD11" s="93"/>
       <c r="AE11" s="13"/>
       <c r="AF11" s="13"/>
       <c r="AG11" s="13"/>
@@ -60085,33 +60128,33 @@
       <c r="AO11" s="49"/>
     </row>
     <row r="12" ht="13.5" customHeight="1">
-      <c r="B12" s="102">
+      <c r="B12" s="104">
         <v>11.0</v>
       </c>
-      <c r="C12" s="102" t="s">
+      <c r="C12" s="104" t="s">
         <v>110</v>
       </c>
-      <c r="D12" s="102" t="s">
+      <c r="D12" s="104" t="s">
         <v>111</v>
       </c>
-      <c r="E12" s="102" t="s">
-        <v>66</v>
-      </c>
-      <c r="F12" s="102" t="s">
+      <c r="E12" s="104" t="s">
+        <v>65</v>
+      </c>
+      <c r="F12" s="104" t="s">
         <v>123</v>
       </c>
       <c r="G12" s="48" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H12" s="55" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="I12" s="55"/>
       <c r="J12" s="55"/>
       <c r="K12" s="55"/>
-      <c r="L12" s="124"/>
-      <c r="M12" s="125"/>
-      <c r="N12" s="130"/>
+      <c r="L12" s="126"/>
+      <c r="M12" s="127"/>
+      <c r="N12" s="132"/>
       <c r="O12" s="50"/>
       <c r="P12" s="50"/>
       <c r="Q12" s="51"/>
@@ -60127,7 +60170,7 @@
       <c r="AA12" s="50"/>
       <c r="AB12" s="50"/>
       <c r="AC12" s="50"/>
-      <c r="AD12" s="91"/>
+      <c r="AD12" s="93"/>
       <c r="AE12" s="13"/>
       <c r="AF12" s="13"/>
       <c r="AG12" s="13"/>
@@ -60141,19 +60184,19 @@
       <c r="AO12" s="49"/>
     </row>
     <row r="13" ht="13.5" customHeight="1">
-      <c r="B13" s="102">
+      <c r="B13" s="104">
         <v>12.0</v>
       </c>
-      <c r="C13" s="102" t="s">
+      <c r="C13" s="104" t="s">
         <v>110</v>
       </c>
-      <c r="D13" s="102" t="s">
+      <c r="D13" s="104" t="s">
         <v>111</v>
       </c>
-      <c r="E13" s="102" t="s">
+      <c r="E13" s="104" t="s">
         <v>124</v>
       </c>
-      <c r="F13" s="102" t="s">
+      <c r="F13" s="104" t="s">
         <v>112</v>
       </c>
       <c r="G13" s="48" t="s">
@@ -60167,8 +60210,8 @@
       </c>
       <c r="J13" s="55"/>
       <c r="K13" s="55"/>
-      <c r="L13" s="131"/>
-      <c r="M13" s="60"/>
+      <c r="L13" s="133"/>
+      <c r="M13" s="61"/>
       <c r="N13" s="50"/>
       <c r="O13" s="50"/>
       <c r="P13" s="50"/>
@@ -60185,7 +60228,7 @@
       <c r="AA13" s="50"/>
       <c r="AB13" s="50"/>
       <c r="AC13" s="50"/>
-      <c r="AD13" s="91"/>
+      <c r="AD13" s="93"/>
       <c r="AE13" s="13"/>
       <c r="AF13" s="13"/>
       <c r="AG13" s="13"/>
@@ -60199,19 +60242,19 @@
       <c r="AO13" s="49"/>
     </row>
     <row r="14" ht="13.5" customHeight="1">
-      <c r="B14" s="102">
+      <c r="B14" s="104">
         <v>13.0</v>
       </c>
-      <c r="C14" s="102" t="s">
+      <c r="C14" s="104" t="s">
         <v>110</v>
       </c>
-      <c r="D14" s="102" t="s">
+      <c r="D14" s="104" t="s">
         <v>125</v>
       </c>
-      <c r="E14" s="102" t="s">
-        <v>57</v>
-      </c>
-      <c r="F14" s="102" t="s">
+      <c r="E14" s="104" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14" s="104" t="s">
         <v>126</v>
       </c>
       <c r="G14" s="48" t="s">
@@ -60225,11 +60268,11 @@
       </c>
       <c r="J14" s="55"/>
       <c r="K14" s="55"/>
-      <c r="L14" s="124"/>
-      <c r="M14" s="125"/>
-      <c r="N14" s="125"/>
-      <c r="O14" s="70"/>
-      <c r="P14" s="70"/>
+      <c r="L14" s="126"/>
+      <c r="M14" s="127"/>
+      <c r="N14" s="127"/>
+      <c r="O14" s="72"/>
+      <c r="P14" s="72"/>
       <c r="Q14" s="51"/>
       <c r="R14" s="51"/>
       <c r="S14" s="51"/>
@@ -60243,7 +60286,7 @@
       <c r="AA14" s="50"/>
       <c r="AB14" s="50"/>
       <c r="AC14" s="50"/>
-      <c r="AD14" s="91"/>
+      <c r="AD14" s="93"/>
       <c r="AE14" s="13"/>
       <c r="AF14" s="13"/>
       <c r="AG14" s="13"/>
@@ -60257,19 +60300,19 @@
       <c r="AO14" s="49"/>
     </row>
     <row r="15" ht="13.5" customHeight="1">
-      <c r="B15" s="102">
+      <c r="B15" s="104">
         <v>14.0</v>
       </c>
-      <c r="C15" s="102" t="s">
+      <c r="C15" s="104" t="s">
         <v>110</v>
       </c>
-      <c r="D15" s="102" t="s">
+      <c r="D15" s="104" t="s">
         <v>125</v>
       </c>
-      <c r="E15" s="102" t="s">
+      <c r="E15" s="104" t="s">
         <v>82</v>
       </c>
-      <c r="F15" s="102" t="s">
+      <c r="F15" s="104" t="s">
         <v>127</v>
       </c>
       <c r="G15" s="48" t="s">
@@ -60301,7 +60344,7 @@
       <c r="AA15" s="50"/>
       <c r="AB15" s="50"/>
       <c r="AC15" s="50"/>
-      <c r="AD15" s="91"/>
+      <c r="AD15" s="93"/>
       <c r="AE15" s="13"/>
       <c r="AF15" s="13"/>
       <c r="AG15" s="13"/>
@@ -60315,23 +60358,23 @@
       <c r="AO15" s="49"/>
     </row>
     <row r="16" ht="13.5" customHeight="1">
-      <c r="B16" s="102">
+      <c r="B16" s="104">
         <v>15.0</v>
       </c>
-      <c r="C16" s="102" t="s">
+      <c r="C16" s="104" t="s">
         <v>110</v>
       </c>
-      <c r="D16" s="102" t="s">
+      <c r="D16" s="104" t="s">
         <v>125</v>
       </c>
-      <c r="E16" s="102" t="s">
+      <c r="E16" s="104" t="s">
         <v>47</v>
       </c>
-      <c r="F16" s="102" t="s">
+      <c r="F16" s="104" t="s">
         <v>128</v>
       </c>
       <c r="G16" s="48" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H16" s="55" t="s">
         <v>23</v>
@@ -60359,7 +60402,7 @@
       <c r="AA16" s="50"/>
       <c r="AB16" s="50"/>
       <c r="AC16" s="50"/>
-      <c r="AD16" s="91"/>
+      <c r="AD16" s="93"/>
       <c r="AE16" s="13"/>
       <c r="AF16" s="13"/>
       <c r="AG16" s="13"/>
@@ -60373,19 +60416,19 @@
       <c r="AO16" s="49"/>
     </row>
     <row r="17" ht="13.5" customHeight="1">
-      <c r="B17" s="102">
+      <c r="B17" s="104">
         <v>16.0</v>
       </c>
-      <c r="C17" s="102" t="s">
+      <c r="C17" s="104" t="s">
         <v>110</v>
       </c>
-      <c r="D17" s="102" t="s">
+      <c r="D17" s="104" t="s">
         <v>125</v>
       </c>
-      <c r="E17" s="102" t="s">
+      <c r="E17" s="104" t="s">
         <v>89</v>
       </c>
-      <c r="F17" s="102" t="s">
+      <c r="F17" s="104" t="s">
         <v>129</v>
       </c>
       <c r="G17" s="48" t="s">
@@ -60399,11 +60442,11 @@
       </c>
       <c r="J17" s="55"/>
       <c r="K17" s="55"/>
-      <c r="L17" s="120"/>
-      <c r="M17" s="121"/>
-      <c r="N17" s="121"/>
-      <c r="O17" s="121"/>
-      <c r="P17" s="121"/>
+      <c r="L17" s="122"/>
+      <c r="M17" s="123"/>
+      <c r="N17" s="123"/>
+      <c r="O17" s="123"/>
+      <c r="P17" s="123"/>
       <c r="Q17" s="51"/>
       <c r="R17" s="51"/>
       <c r="S17" s="51"/>
@@ -60417,11 +60460,11 @@
       <c r="AA17" s="51"/>
       <c r="AB17" s="51"/>
       <c r="AC17" s="51"/>
-      <c r="AD17" s="132"/>
-      <c r="AE17" s="133"/>
-      <c r="AF17" s="133"/>
-      <c r="AG17" s="133"/>
-      <c r="AH17" s="133"/>
+      <c r="AD17" s="134"/>
+      <c r="AE17" s="135"/>
+      <c r="AF17" s="135"/>
+      <c r="AG17" s="135"/>
+      <c r="AH17" s="135"/>
       <c r="AI17" s="13"/>
       <c r="AJ17" s="13"/>
       <c r="AK17" s="13"/>
@@ -60431,23 +60474,23 @@
       <c r="AO17" s="49"/>
     </row>
     <row r="18" ht="13.5" customHeight="1">
-      <c r="B18" s="102">
+      <c r="B18" s="104">
         <v>17.0</v>
       </c>
-      <c r="C18" s="102" t="s">
+      <c r="C18" s="104" t="s">
         <v>110</v>
       </c>
-      <c r="D18" s="102" t="s">
+      <c r="D18" s="104" t="s">
         <v>125</v>
       </c>
-      <c r="E18" s="102" t="s">
-        <v>67</v>
-      </c>
-      <c r="F18" s="102" t="s">
+      <c r="E18" s="104" t="s">
+        <v>66</v>
+      </c>
+      <c r="F18" s="104" t="s">
         <v>130</v>
       </c>
       <c r="G18" s="48" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H18" s="55" t="s">
         <v>23</v>
@@ -60457,11 +60500,11 @@
       </c>
       <c r="J18" s="55"/>
       <c r="K18" s="55"/>
-      <c r="L18" s="134"/>
-      <c r="M18" s="135"/>
-      <c r="N18" s="135"/>
-      <c r="O18" s="135"/>
-      <c r="P18" s="135"/>
+      <c r="L18" s="136"/>
+      <c r="M18" s="137"/>
+      <c r="N18" s="137"/>
+      <c r="O18" s="137"/>
+      <c r="P18" s="137"/>
       <c r="Q18" s="50"/>
       <c r="R18" s="50"/>
       <c r="S18" s="51"/>
@@ -60475,11 +60518,11 @@
       <c r="AA18" s="51"/>
       <c r="AB18" s="51"/>
       <c r="AC18" s="51"/>
-      <c r="AD18" s="132"/>
-      <c r="AE18" s="133"/>
-      <c r="AF18" s="133"/>
-      <c r="AG18" s="133"/>
-      <c r="AH18" s="133"/>
+      <c r="AD18" s="134"/>
+      <c r="AE18" s="135"/>
+      <c r="AF18" s="135"/>
+      <c r="AG18" s="135"/>
+      <c r="AH18" s="135"/>
       <c r="AI18" s="13"/>
       <c r="AJ18" s="13"/>
       <c r="AK18" s="13"/>
@@ -60489,19 +60532,19 @@
       <c r="AO18" s="49"/>
     </row>
     <row r="19" ht="13.5" customHeight="1">
-      <c r="B19" s="102">
+      <c r="B19" s="104">
         <v>18.0</v>
       </c>
-      <c r="C19" s="102" t="s">
+      <c r="C19" s="104" t="s">
         <v>110</v>
       </c>
-      <c r="D19" s="102" t="s">
+      <c r="D19" s="104" t="s">
         <v>125</v>
       </c>
-      <c r="E19" s="102" t="s">
+      <c r="E19" s="104" t="s">
         <v>90</v>
       </c>
-      <c r="F19" s="102" t="s">
+      <c r="F19" s="104" t="s">
         <v>131</v>
       </c>
       <c r="G19" s="48" t="s">
@@ -60515,11 +60558,11 @@
       </c>
       <c r="J19" s="55"/>
       <c r="K19" s="55"/>
-      <c r="L19" s="124"/>
-      <c r="M19" s="125"/>
-      <c r="N19" s="121"/>
-      <c r="O19" s="121"/>
-      <c r="P19" s="121"/>
+      <c r="L19" s="126"/>
+      <c r="M19" s="127"/>
+      <c r="N19" s="123"/>
+      <c r="O19" s="123"/>
+      <c r="P19" s="123"/>
       <c r="Q19" s="50"/>
       <c r="R19" s="50"/>
       <c r="S19" s="51"/>
@@ -60533,11 +60576,11 @@
       <c r="AA19" s="51"/>
       <c r="AB19" s="51"/>
       <c r="AC19" s="51"/>
-      <c r="AD19" s="132"/>
-      <c r="AE19" s="133"/>
-      <c r="AF19" s="133"/>
-      <c r="AG19" s="133"/>
-      <c r="AH19" s="133"/>
+      <c r="AD19" s="134"/>
+      <c r="AE19" s="135"/>
+      <c r="AF19" s="135"/>
+      <c r="AG19" s="135"/>
+      <c r="AH19" s="135"/>
       <c r="AI19" s="13"/>
       <c r="AJ19" s="13"/>
       <c r="AK19" s="13"/>
@@ -60547,19 +60590,19 @@
       <c r="AO19" s="49"/>
     </row>
     <row r="20" ht="13.5" customHeight="1">
-      <c r="B20" s="102">
+      <c r="B20" s="104">
         <v>19.0</v>
       </c>
-      <c r="C20" s="102" t="s">
+      <c r="C20" s="104" t="s">
         <v>110</v>
       </c>
-      <c r="D20" s="102" t="s">
+      <c r="D20" s="104" t="s">
         <v>125</v>
       </c>
-      <c r="E20" s="102" t="s">
+      <c r="E20" s="104" t="s">
         <v>84</v>
       </c>
-      <c r="F20" s="102" t="s">
+      <c r="F20" s="104" t="s">
         <v>132</v>
       </c>
       <c r="G20" s="55" t="s">
@@ -60573,15 +60616,15 @@
       </c>
       <c r="J20" s="55"/>
       <c r="K20" s="55"/>
-      <c r="L20" s="136"/>
-      <c r="M20" s="61"/>
+      <c r="L20" s="138"/>
+      <c r="M20" s="62"/>
       <c r="N20" s="50"/>
       <c r="O20" s="50"/>
       <c r="P20" s="50"/>
       <c r="Q20" s="50"/>
       <c r="R20" s="50"/>
-      <c r="S20" s="67"/>
-      <c r="T20" s="68"/>
+      <c r="S20" s="69"/>
+      <c r="T20" s="70"/>
       <c r="U20" s="50"/>
       <c r="V20" s="50"/>
       <c r="W20" s="50"/>
@@ -60591,7 +60634,7 @@
       <c r="AA20" s="50"/>
       <c r="AB20" s="50"/>
       <c r="AC20" s="50"/>
-      <c r="AD20" s="91"/>
+      <c r="AD20" s="93"/>
       <c r="AE20" s="13"/>
       <c r="AF20" s="13"/>
       <c r="AG20" s="13"/>
@@ -60605,23 +60648,23 @@
       <c r="AO20" s="49"/>
     </row>
     <row r="21" ht="13.5" customHeight="1">
-      <c r="B21" s="102">
+      <c r="B21" s="104">
         <v>20.0</v>
       </c>
-      <c r="C21" s="102" t="s">
+      <c r="C21" s="104" t="s">
         <v>110</v>
       </c>
-      <c r="D21" s="102" t="s">
+      <c r="D21" s="104" t="s">
         <v>125</v>
       </c>
-      <c r="E21" s="102" t="s">
+      <c r="E21" s="104" t="s">
         <v>48</v>
       </c>
-      <c r="F21" s="102" t="s">
+      <c r="F21" s="104" t="s">
         <v>133</v>
       </c>
       <c r="G21" s="48" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H21" s="55" t="s">
         <v>23</v>
@@ -60631,11 +60674,11 @@
       </c>
       <c r="J21" s="55"/>
       <c r="K21" s="55"/>
-      <c r="L21" s="124"/>
-      <c r="M21" s="125"/>
-      <c r="N21" s="125"/>
-      <c r="O21" s="121"/>
-      <c r="P21" s="121"/>
+      <c r="L21" s="126"/>
+      <c r="M21" s="127"/>
+      <c r="N21" s="127"/>
+      <c r="O21" s="123"/>
+      <c r="P21" s="123"/>
       <c r="Q21" s="50"/>
       <c r="R21" s="50"/>
       <c r="S21" s="50"/>
@@ -60649,7 +60692,7 @@
       <c r="AA21" s="50"/>
       <c r="AB21" s="50"/>
       <c r="AC21" s="50"/>
-      <c r="AD21" s="91"/>
+      <c r="AD21" s="93"/>
       <c r="AE21" s="13"/>
       <c r="AF21" s="13"/>
       <c r="AG21" s="13"/>
@@ -60663,19 +60706,19 @@
       <c r="AO21" s="49"/>
     </row>
     <row r="22" ht="13.5" customHeight="1">
-      <c r="B22" s="102">
+      <c r="B22" s="104">
         <v>21.0</v>
       </c>
-      <c r="C22" s="102" t="s">
+      <c r="C22" s="104" t="s">
         <v>110</v>
       </c>
-      <c r="D22" s="102" t="s">
+      <c r="D22" s="104" t="s">
         <v>134</v>
       </c>
-      <c r="E22" s="102" t="s">
-        <v>58</v>
-      </c>
-      <c r="F22" s="102" t="s">
+      <c r="E22" s="104" t="s">
+        <v>57</v>
+      </c>
+      <c r="F22" s="104" t="s">
         <v>135</v>
       </c>
       <c r="G22" s="48" t="s">
@@ -60689,25 +60732,25 @@
       </c>
       <c r="J22" s="55"/>
       <c r="K22" s="55"/>
-      <c r="L22" s="131"/>
-      <c r="M22" s="60"/>
-      <c r="N22" s="70"/>
-      <c r="O22" s="70"/>
-      <c r="P22" s="70"/>
+      <c r="L22" s="133"/>
+      <c r="M22" s="61"/>
+      <c r="N22" s="72"/>
+      <c r="O22" s="72"/>
+      <c r="P22" s="72"/>
       <c r="Q22" s="50"/>
       <c r="R22" s="50"/>
       <c r="S22" s="50"/>
       <c r="T22" s="50"/>
       <c r="U22" s="50"/>
       <c r="V22" s="51"/>
-      <c r="W22" s="91"/>
-      <c r="X22" s="92"/>
-      <c r="Y22" s="92"/>
-      <c r="Z22" s="137"/>
-      <c r="AA22" s="92"/>
-      <c r="AB22" s="92"/>
-      <c r="AC22" s="92"/>
-      <c r="AD22" s="92"/>
+      <c r="W22" s="93"/>
+      <c r="X22" s="94"/>
+      <c r="Y22" s="94"/>
+      <c r="Z22" s="139"/>
+      <c r="AA22" s="94"/>
+      <c r="AB22" s="94"/>
+      <c r="AC22" s="94"/>
+      <c r="AD22" s="94"/>
       <c r="AE22" s="13"/>
       <c r="AF22" s="13"/>
       <c r="AG22" s="13"/>
@@ -60721,19 +60764,19 @@
       <c r="AO22" s="49"/>
     </row>
     <row r="23" ht="13.5" customHeight="1">
-      <c r="B23" s="102">
+      <c r="B23" s="104">
         <v>22.0</v>
       </c>
-      <c r="C23" s="102" t="s">
+      <c r="C23" s="104" t="s">
         <v>110</v>
       </c>
-      <c r="D23" s="102" t="s">
+      <c r="D23" s="104" t="s">
         <v>134</v>
       </c>
-      <c r="E23" s="102" t="s">
-        <v>59</v>
-      </c>
-      <c r="F23" s="102" t="s">
+      <c r="E23" s="104" t="s">
+        <v>58</v>
+      </c>
+      <c r="F23" s="104" t="s">
         <v>136</v>
       </c>
       <c r="G23" s="48" t="s">
@@ -60747,11 +60790,11 @@
       </c>
       <c r="J23" s="55"/>
       <c r="K23" s="55"/>
-      <c r="L23" s="131"/>
-      <c r="M23" s="60"/>
-      <c r="N23" s="70"/>
-      <c r="O23" s="70"/>
-      <c r="P23" s="70"/>
+      <c r="L23" s="133"/>
+      <c r="M23" s="61"/>
+      <c r="N23" s="72"/>
+      <c r="O23" s="72"/>
+      <c r="P23" s="72"/>
       <c r="Q23" s="50"/>
       <c r="R23" s="50"/>
       <c r="S23" s="50"/>
@@ -60765,7 +60808,7 @@
       <c r="AA23" s="50"/>
       <c r="AB23" s="50"/>
       <c r="AC23" s="50"/>
-      <c r="AD23" s="91"/>
+      <c r="AD23" s="93"/>
       <c r="AE23" s="13"/>
       <c r="AF23" s="13"/>
       <c r="AG23" s="13"/>
@@ -60779,19 +60822,19 @@
       <c r="AO23" s="49"/>
     </row>
     <row r="24" ht="13.5" customHeight="1">
-      <c r="B24" s="102">
+      <c r="B24" s="104">
         <v>23.0</v>
       </c>
-      <c r="C24" s="102" t="s">
+      <c r="C24" s="104" t="s">
         <v>110</v>
       </c>
-      <c r="D24" s="102" t="s">
+      <c r="D24" s="104" t="s">
         <v>134</v>
       </c>
-      <c r="E24" s="102" t="s">
+      <c r="E24" s="104" t="s">
         <v>85</v>
       </c>
-      <c r="F24" s="102" t="s">
+      <c r="F24" s="104" t="s">
         <v>137</v>
       </c>
       <c r="G24" s="48" t="s">
@@ -60823,7 +60866,7 @@
       <c r="AA24" s="50"/>
       <c r="AB24" s="50"/>
       <c r="AC24" s="50"/>
-      <c r="AD24" s="91"/>
+      <c r="AD24" s="93"/>
       <c r="AE24" s="13"/>
       <c r="AF24" s="13"/>
       <c r="AG24" s="13"/>
@@ -60837,23 +60880,23 @@
       <c r="AO24" s="49"/>
     </row>
     <row r="25" ht="13.5" customHeight="1">
-      <c r="B25" s="102">
+      <c r="B25" s="104">
         <v>24.0</v>
       </c>
-      <c r="C25" s="102" t="s">
+      <c r="C25" s="104" t="s">
         <v>110</v>
       </c>
-      <c r="D25" s="102" t="s">
+      <c r="D25" s="104" t="s">
         <v>134</v>
       </c>
-      <c r="E25" s="102" t="s">
+      <c r="E25" s="104" t="s">
         <v>49</v>
       </c>
-      <c r="F25" s="102" t="s">
+      <c r="F25" s="104" t="s">
         <v>138</v>
       </c>
       <c r="G25" s="48" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H25" s="55" t="s">
         <v>23</v>
@@ -60863,52 +60906,52 @@
       </c>
       <c r="J25" s="55"/>
       <c r="K25" s="55"/>
-      <c r="L25" s="72"/>
-      <c r="M25" s="97"/>
-      <c r="N25" s="97"/>
-      <c r="O25" s="97"/>
-      <c r="P25" s="97"/>
-      <c r="Q25" s="97"/>
-      <c r="R25" s="97"/>
-      <c r="S25" s="97"/>
-      <c r="T25" s="97"/>
-      <c r="U25" s="97"/>
-      <c r="V25" s="97"/>
-      <c r="W25" s="97"/>
-      <c r="X25" s="97"/>
-      <c r="Y25" s="97"/>
-      <c r="Z25" s="97"/>
-      <c r="AA25" s="97"/>
-      <c r="AB25" s="97"/>
-      <c r="AC25" s="97"/>
-      <c r="AD25" s="73"/>
+      <c r="L25" s="74"/>
+      <c r="M25" s="99"/>
+      <c r="N25" s="99"/>
+      <c r="O25" s="99"/>
+      <c r="P25" s="99"/>
+      <c r="Q25" s="99"/>
+      <c r="R25" s="99"/>
+      <c r="S25" s="99"/>
+      <c r="T25" s="99"/>
+      <c r="U25" s="99"/>
+      <c r="V25" s="99"/>
+      <c r="W25" s="99"/>
+      <c r="X25" s="99"/>
+      <c r="Y25" s="99"/>
+      <c r="Z25" s="99"/>
+      <c r="AA25" s="99"/>
+      <c r="AB25" s="99"/>
+      <c r="AC25" s="99"/>
+      <c r="AD25" s="75"/>
       <c r="AE25" s="13"/>
       <c r="AF25" s="13"/>
       <c r="AG25" s="13"/>
       <c r="AH25" s="13"/>
       <c r="AI25" s="13"/>
       <c r="AJ25" s="13"/>
-      <c r="AK25" s="133"/>
-      <c r="AL25" s="133"/>
-      <c r="AM25" s="133"/>
-      <c r="AN25" s="133"/>
+      <c r="AK25" s="135"/>
+      <c r="AL25" s="135"/>
+      <c r="AM25" s="135"/>
+      <c r="AN25" s="135"/>
       <c r="AO25" s="49"/>
     </row>
     <row r="26" ht="15.0" customHeight="1">
-      <c r="A26" s="138"/>
-      <c r="B26" s="102">
+      <c r="A26" s="140"/>
+      <c r="B26" s="104">
         <v>25.0</v>
       </c>
-      <c r="C26" s="102" t="s">
+      <c r="C26" s="104" t="s">
         <v>110</v>
       </c>
-      <c r="D26" s="102" t="s">
+      <c r="D26" s="104" t="s">
         <v>134</v>
       </c>
-      <c r="E26" s="102" t="s">
+      <c r="E26" s="104" t="s">
         <v>91</v>
       </c>
-      <c r="F26" s="102" t="s">
+      <c r="F26" s="104" t="s">
         <v>139</v>
       </c>
       <c r="G26" s="48" t="s">
@@ -60922,44 +60965,44 @@
       </c>
       <c r="J26" s="55"/>
       <c r="K26" s="55"/>
-      <c r="L26" s="139"/>
-      <c r="M26" s="139"/>
-      <c r="N26" s="139"/>
-      <c r="O26" s="118"/>
-      <c r="P26" s="118"/>
-      <c r="Q26" s="102"/>
-      <c r="R26" s="102"/>
-      <c r="S26" s="102"/>
-      <c r="T26" s="102"/>
-      <c r="U26" s="102"/>
-      <c r="V26" s="102"/>
-      <c r="W26" s="102"/>
-      <c r="X26" s="102"/>
-      <c r="Y26" s="102"/>
-      <c r="Z26" s="102"/>
-      <c r="AA26" s="102"/>
-      <c r="AB26" s="102"/>
-      <c r="AC26" s="102"/>
-      <c r="AD26" s="102"/>
+      <c r="L26" s="141"/>
+      <c r="M26" s="141"/>
+      <c r="N26" s="141"/>
+      <c r="O26" s="120"/>
+      <c r="P26" s="120"/>
+      <c r="Q26" s="104"/>
+      <c r="R26" s="104"/>
+      <c r="S26" s="104"/>
+      <c r="T26" s="104"/>
+      <c r="U26" s="104"/>
+      <c r="V26" s="104"/>
+      <c r="W26" s="104"/>
+      <c r="X26" s="104"/>
+      <c r="Y26" s="104"/>
+      <c r="Z26" s="104"/>
+      <c r="AA26" s="104"/>
+      <c r="AB26" s="104"/>
+      <c r="AC26" s="104"/>
+      <c r="AD26" s="104"/>
     </row>
     <row r="27" ht="15.0" customHeight="1">
-      <c r="B27" s="102">
+      <c r="B27" s="104">
         <v>26.0</v>
       </c>
-      <c r="C27" s="102" t="s">
+      <c r="C27" s="104" t="s">
         <v>110</v>
       </c>
-      <c r="D27" s="102" t="s">
+      <c r="D27" s="104" t="s">
         <v>134</v>
       </c>
-      <c r="E27" s="102" t="s">
-        <v>68</v>
-      </c>
-      <c r="F27" s="102" t="s">
+      <c r="E27" s="104" t="s">
+        <v>67</v>
+      </c>
+      <c r="F27" s="104" t="s">
         <v>140</v>
       </c>
       <c r="G27" s="48" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H27" s="55" t="s">
         <v>23</v>
@@ -60969,40 +61012,40 @@
       </c>
       <c r="J27" s="55"/>
       <c r="K27" s="55"/>
-      <c r="L27" s="118"/>
-      <c r="M27" s="118"/>
-      <c r="N27" s="118"/>
-      <c r="O27" s="118"/>
-      <c r="P27" s="118"/>
-      <c r="Q27" s="102"/>
-      <c r="R27" s="102"/>
-      <c r="S27" s="102"/>
-      <c r="T27" s="102"/>
-      <c r="U27" s="102"/>
-      <c r="V27" s="102"/>
-      <c r="W27" s="102"/>
-      <c r="X27" s="102"/>
-      <c r="Y27" s="102"/>
-      <c r="Z27" s="102"/>
-      <c r="AA27" s="102"/>
-      <c r="AB27" s="102"/>
-      <c r="AC27" s="102"/>
-      <c r="AD27" s="102"/>
+      <c r="L27" s="120"/>
+      <c r="M27" s="120"/>
+      <c r="N27" s="120"/>
+      <c r="O27" s="120"/>
+      <c r="P27" s="120"/>
+      <c r="Q27" s="104"/>
+      <c r="R27" s="104"/>
+      <c r="S27" s="104"/>
+      <c r="T27" s="104"/>
+      <c r="U27" s="104"/>
+      <c r="V27" s="104"/>
+      <c r="W27" s="104"/>
+      <c r="X27" s="104"/>
+      <c r="Y27" s="104"/>
+      <c r="Z27" s="104"/>
+      <c r="AA27" s="104"/>
+      <c r="AB27" s="104"/>
+      <c r="AC27" s="104"/>
+      <c r="AD27" s="104"/>
     </row>
     <row r="28" ht="15.0" customHeight="1">
-      <c r="B28" s="102">
+      <c r="B28" s="104">
         <v>27.0</v>
       </c>
-      <c r="C28" s="102" t="s">
+      <c r="C28" s="104" t="s">
         <v>110</v>
       </c>
-      <c r="D28" s="102" t="s">
+      <c r="D28" s="104" t="s">
         <v>134</v>
       </c>
-      <c r="E28" s="102" t="s">
+      <c r="E28" s="104" t="s">
         <v>92</v>
       </c>
-      <c r="F28" s="102" t="s">
+      <c r="F28" s="104" t="s">
         <v>141</v>
       </c>
       <c r="G28" s="48" t="s">
@@ -61016,40 +61059,40 @@
       </c>
       <c r="J28" s="55"/>
       <c r="K28" s="55"/>
-      <c r="L28" s="118"/>
-      <c r="M28" s="118"/>
-      <c r="N28" s="118"/>
-      <c r="O28" s="118"/>
-      <c r="P28" s="118"/>
-      <c r="Q28" s="102"/>
-      <c r="R28" s="102"/>
-      <c r="S28" s="102"/>
-      <c r="T28" s="102"/>
-      <c r="U28" s="102"/>
-      <c r="V28" s="102"/>
-      <c r="W28" s="102"/>
-      <c r="X28" s="102"/>
-      <c r="Y28" s="102"/>
-      <c r="Z28" s="102"/>
-      <c r="AA28" s="102"/>
-      <c r="AB28" s="102"/>
-      <c r="AC28" s="102"/>
-      <c r="AD28" s="102"/>
+      <c r="L28" s="120"/>
+      <c r="M28" s="120"/>
+      <c r="N28" s="120"/>
+      <c r="O28" s="120"/>
+      <c r="P28" s="120"/>
+      <c r="Q28" s="104"/>
+      <c r="R28" s="104"/>
+      <c r="S28" s="104"/>
+      <c r="T28" s="104"/>
+      <c r="U28" s="104"/>
+      <c r="V28" s="104"/>
+      <c r="W28" s="104"/>
+      <c r="X28" s="104"/>
+      <c r="Y28" s="104"/>
+      <c r="Z28" s="104"/>
+      <c r="AA28" s="104"/>
+      <c r="AB28" s="104"/>
+      <c r="AC28" s="104"/>
+      <c r="AD28" s="104"/>
     </row>
     <row r="29" ht="15.0" customHeight="1">
-      <c r="B29" s="102">
+      <c r="B29" s="104">
         <v>28.0</v>
       </c>
-      <c r="C29" s="102" t="s">
+      <c r="C29" s="104" t="s">
         <v>110</v>
       </c>
-      <c r="D29" s="102" t="s">
+      <c r="D29" s="104" t="s">
         <v>134</v>
       </c>
-      <c r="E29" s="102" t="s">
+      <c r="E29" s="104" t="s">
         <v>86</v>
       </c>
-      <c r="F29" s="102" t="s">
+      <c r="F29" s="104" t="s">
         <v>142</v>
       </c>
       <c r="G29" s="55" t="s">
@@ -61063,130 +61106,136 @@
       </c>
       <c r="J29" s="55"/>
       <c r="K29" s="55"/>
-      <c r="L29" s="104"/>
-      <c r="M29" s="104"/>
-      <c r="N29" s="107"/>
-      <c r="O29" s="102"/>
-      <c r="P29" s="102"/>
-      <c r="Q29" s="102"/>
-      <c r="R29" s="102"/>
-      <c r="S29" s="102"/>
-      <c r="T29" s="102"/>
-      <c r="U29" s="102"/>
-      <c r="V29" s="102"/>
-      <c r="W29" s="102"/>
-      <c r="X29" s="102"/>
-      <c r="Y29" s="102"/>
-      <c r="Z29" s="102"/>
-      <c r="AA29" s="102"/>
-      <c r="AB29" s="102"/>
-      <c r="AC29" s="102"/>
-      <c r="AD29" s="102"/>
+      <c r="L29" s="106"/>
+      <c r="M29" s="106"/>
+      <c r="N29" s="109"/>
+      <c r="O29" s="104"/>
+      <c r="P29" s="104"/>
+      <c r="Q29" s="104"/>
+      <c r="R29" s="104"/>
+      <c r="S29" s="104"/>
+      <c r="T29" s="104"/>
+      <c r="U29" s="104"/>
+      <c r="V29" s="104"/>
+      <c r="W29" s="104"/>
+      <c r="X29" s="104"/>
+      <c r="Y29" s="104"/>
+      <c r="Z29" s="104"/>
+      <c r="AA29" s="104"/>
+      <c r="AB29" s="104"/>
+      <c r="AC29" s="104"/>
+      <c r="AD29" s="104"/>
     </row>
     <row r="30" ht="15.0" customHeight="1">
-      <c r="B30" s="102">
+      <c r="B30" s="104">
         <v>29.0</v>
       </c>
-      <c r="C30" s="102" t="s">
+      <c r="C30" s="104" t="s">
         <v>110</v>
       </c>
-      <c r="D30" s="102" t="s">
+      <c r="D30" s="104" t="s">
         <v>134</v>
       </c>
-      <c r="E30" s="102" t="s">
+      <c r="E30" s="104" t="s">
         <v>50</v>
       </c>
-      <c r="F30" s="102" t="s">
+      <c r="F30" s="104" t="s">
         <v>143</v>
       </c>
       <c r="G30" s="48" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H30" s="55" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="I30" s="55"/>
       <c r="J30" s="55"/>
       <c r="K30" s="55"/>
-      <c r="L30" s="118"/>
-      <c r="M30" s="118"/>
-      <c r="N30" s="118"/>
-      <c r="O30" s="118"/>
-      <c r="P30" s="118"/>
-      <c r="Q30" s="102"/>
-      <c r="R30" s="102"/>
-      <c r="S30" s="102"/>
-      <c r="T30" s="102"/>
-      <c r="U30" s="102"/>
-      <c r="V30" s="102"/>
-      <c r="W30" s="102"/>
-      <c r="X30" s="102"/>
-      <c r="Y30" s="102"/>
-      <c r="Z30" s="102"/>
-      <c r="AA30" s="102"/>
-      <c r="AB30" s="102"/>
-      <c r="AC30" s="102"/>
-      <c r="AD30" s="102"/>
+      <c r="L30" s="120"/>
+      <c r="M30" s="120"/>
+      <c r="N30" s="120"/>
+      <c r="O30" s="120"/>
+      <c r="P30" s="120"/>
+      <c r="Q30" s="104"/>
+      <c r="R30" s="104"/>
+      <c r="S30" s="104"/>
+      <c r="T30" s="104"/>
+      <c r="U30" s="104"/>
+      <c r="V30" s="104"/>
+      <c r="W30" s="104"/>
+      <c r="X30" s="104"/>
+      <c r="Y30" s="104"/>
+      <c r="Z30" s="104"/>
+      <c r="AA30" s="104"/>
+      <c r="AB30" s="104"/>
+      <c r="AC30" s="104"/>
+      <c r="AD30" s="104"/>
     </row>
     <row r="31" ht="15.0" customHeight="1">
-      <c r="B31" s="102">
+      <c r="B31" s="104">
         <v>30.0</v>
       </c>
-      <c r="C31" s="102" t="s">
+      <c r="C31" s="104" t="s">
         <v>144</v>
       </c>
-      <c r="D31" s="102" t="s">
+      <c r="D31" s="104" t="s">
         <v>145</v>
       </c>
-      <c r="E31" s="102" t="s">
-        <v>69</v>
-      </c>
-      <c r="F31" s="102" t="s">
+      <c r="E31" s="104" t="s">
+        <v>68</v>
+      </c>
+      <c r="F31" s="104" t="s">
         <v>146</v>
       </c>
       <c r="G31" s="48" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H31" s="55" t="s">
-        <v>44</v>
-      </c>
-      <c r="I31" s="55"/>
-      <c r="J31" s="55"/>
-      <c r="K31" s="55"/>
-      <c r="L31" s="118"/>
-      <c r="M31" s="118"/>
-      <c r="N31" s="118"/>
-      <c r="O31" s="118"/>
-      <c r="P31" s="118"/>
-      <c r="Q31" s="102"/>
-      <c r="R31" s="102"/>
-      <c r="S31" s="102"/>
-      <c r="T31" s="102"/>
-      <c r="U31" s="102"/>
-      <c r="V31" s="102"/>
-      <c r="W31" s="102"/>
-      <c r="X31" s="102"/>
-      <c r="Y31" s="102"/>
-      <c r="Z31" s="102"/>
-      <c r="AA31" s="102"/>
-      <c r="AB31" s="102"/>
-      <c r="AC31" s="102"/>
-      <c r="AD31" s="102"/>
+        <v>23</v>
+      </c>
+      <c r="I31" s="55" t="s">
+        <v>113</v>
+      </c>
+      <c r="J31" s="55" t="s">
+        <v>113</v>
+      </c>
+      <c r="K31" s="55" t="s">
+        <v>113</v>
+      </c>
+      <c r="L31" s="120"/>
+      <c r="M31" s="120"/>
+      <c r="N31" s="120"/>
+      <c r="O31" s="120"/>
+      <c r="P31" s="120"/>
+      <c r="Q31" s="104"/>
+      <c r="R31" s="104"/>
+      <c r="S31" s="104"/>
+      <c r="T31" s="104"/>
+      <c r="U31" s="104"/>
+      <c r="V31" s="104"/>
+      <c r="W31" s="104"/>
+      <c r="X31" s="104"/>
+      <c r="Y31" s="104"/>
+      <c r="Z31" s="104"/>
+      <c r="AA31" s="104"/>
+      <c r="AB31" s="104"/>
+      <c r="AC31" s="104"/>
+      <c r="AD31" s="104"/>
     </row>
     <row r="32" ht="15.0" customHeight="1">
-      <c r="B32" s="102">
+      <c r="B32" s="104">
         <v>31.0</v>
       </c>
-      <c r="C32" s="102" t="s">
+      <c r="C32" s="104" t="s">
         <v>144</v>
       </c>
-      <c r="D32" s="102" t="s">
+      <c r="D32" s="104" t="s">
         <v>145</v>
       </c>
-      <c r="E32" s="102" t="s">
+      <c r="E32" s="104" t="s">
         <v>93</v>
       </c>
-      <c r="F32" s="102" t="s">
+      <c r="F32" s="104" t="s">
         <v>147</v>
       </c>
       <c r="G32" s="48" t="s">
@@ -61196,281 +61245,307 @@
         <v>23</v>
       </c>
       <c r="I32" s="55"/>
-      <c r="J32" s="55"/>
-      <c r="K32" s="55"/>
-      <c r="L32" s="118"/>
-      <c r="M32" s="118"/>
-      <c r="N32" s="118"/>
-      <c r="O32" s="118"/>
-      <c r="P32" s="118"/>
-      <c r="Q32" s="102"/>
-      <c r="R32" s="102"/>
-      <c r="S32" s="102"/>
-      <c r="T32" s="102"/>
-      <c r="U32" s="102"/>
-      <c r="V32" s="102"/>
-      <c r="W32" s="102"/>
-      <c r="X32" s="102"/>
-      <c r="Y32" s="102"/>
-      <c r="Z32" s="102"/>
-      <c r="AA32" s="102"/>
-      <c r="AB32" s="102"/>
-      <c r="AC32" s="102"/>
-      <c r="AD32" s="102"/>
+      <c r="J32" s="55" t="s">
+        <v>113</v>
+      </c>
+      <c r="K32" s="55" t="s">
+        <v>113</v>
+      </c>
+      <c r="L32" s="120"/>
+      <c r="M32" s="120"/>
+      <c r="N32" s="120"/>
+      <c r="O32" s="120"/>
+      <c r="P32" s="120"/>
+      <c r="Q32" s="104"/>
+      <c r="R32" s="104"/>
+      <c r="S32" s="104"/>
+      <c r="T32" s="104"/>
+      <c r="U32" s="104"/>
+      <c r="V32" s="104"/>
+      <c r="W32" s="104"/>
+      <c r="X32" s="104"/>
+      <c r="Y32" s="104"/>
+      <c r="Z32" s="104"/>
+      <c r="AA32" s="104"/>
+      <c r="AB32" s="104"/>
+      <c r="AC32" s="104"/>
+      <c r="AD32" s="104"/>
     </row>
     <row r="33" ht="15.0" customHeight="1">
-      <c r="B33" s="102">
+      <c r="B33" s="104">
         <v>32.0</v>
       </c>
-      <c r="C33" s="102" t="s">
+      <c r="C33" s="104" t="s">
         <v>144</v>
       </c>
-      <c r="D33" s="102" t="s">
+      <c r="D33" s="104" t="s">
         <v>145</v>
       </c>
-      <c r="E33" s="102" t="s">
-        <v>70</v>
-      </c>
-      <c r="F33" s="102" t="s">
+      <c r="E33" s="104" t="s">
+        <v>69</v>
+      </c>
+      <c r="F33" s="104" t="s">
         <v>148</v>
       </c>
       <c r="G33" s="48" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H33" s="55" t="s">
-        <v>44</v>
-      </c>
-      <c r="I33" s="55"/>
-      <c r="J33" s="55"/>
-      <c r="K33" s="55"/>
-      <c r="L33" s="118"/>
-      <c r="M33" s="118"/>
-      <c r="N33" s="118"/>
-      <c r="O33" s="118"/>
-      <c r="P33" s="118"/>
-      <c r="Q33" s="102"/>
-      <c r="R33" s="102"/>
-      <c r="S33" s="102"/>
-      <c r="T33" s="102"/>
-      <c r="U33" s="102"/>
-      <c r="V33" s="102"/>
-      <c r="W33" s="102"/>
-      <c r="X33" s="102"/>
-      <c r="Y33" s="102"/>
-      <c r="Z33" s="102"/>
-      <c r="AA33" s="102"/>
-      <c r="AB33" s="102"/>
-      <c r="AC33" s="102"/>
-      <c r="AD33" s="102"/>
+        <v>23</v>
+      </c>
+      <c r="I33" s="55" t="s">
+        <v>113</v>
+      </c>
+      <c r="J33" s="55" t="s">
+        <v>113</v>
+      </c>
+      <c r="K33" s="55" t="s">
+        <v>113</v>
+      </c>
+      <c r="L33" s="120"/>
+      <c r="M33" s="120"/>
+      <c r="N33" s="120"/>
+      <c r="O33" s="120"/>
+      <c r="P33" s="120"/>
+      <c r="Q33" s="104"/>
+      <c r="R33" s="104"/>
+      <c r="S33" s="104"/>
+      <c r="T33" s="104"/>
+      <c r="U33" s="104"/>
+      <c r="V33" s="104"/>
+      <c r="W33" s="104"/>
+      <c r="X33" s="104"/>
+      <c r="Y33" s="104"/>
+      <c r="Z33" s="104"/>
+      <c r="AA33" s="104"/>
+      <c r="AB33" s="104"/>
+      <c r="AC33" s="104"/>
+      <c r="AD33" s="104"/>
     </row>
     <row r="34" ht="15.0" customHeight="1">
-      <c r="B34" s="102">
+      <c r="B34" s="104">
         <v>33.0</v>
       </c>
-      <c r="C34" s="102" t="s">
+      <c r="C34" s="104" t="s">
         <v>144</v>
       </c>
-      <c r="D34" s="102" t="s">
+      <c r="D34" s="104" t="s">
         <v>145</v>
       </c>
-      <c r="E34" s="102" t="s">
-        <v>60</v>
-      </c>
-      <c r="F34" s="102" t="s">
+      <c r="E34" s="104" t="s">
+        <v>59</v>
+      </c>
+      <c r="F34" s="104" t="s">
         <v>149</v>
       </c>
       <c r="G34" s="55" t="s">
         <v>37</v>
       </c>
       <c r="H34" s="55" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="I34" s="55" t="s">
         <v>113</v>
       </c>
-      <c r="J34" s="48"/>
-      <c r="K34" s="48"/>
-      <c r="L34" s="102"/>
-      <c r="M34" s="102"/>
-      <c r="N34" s="102"/>
-      <c r="O34" s="102"/>
-      <c r="P34" s="102"/>
-      <c r="Q34" s="102"/>
-      <c r="R34" s="102"/>
-      <c r="S34" s="102"/>
-      <c r="T34" s="102"/>
-      <c r="U34" s="102"/>
-      <c r="V34" s="102"/>
-      <c r="W34" s="102"/>
-      <c r="X34" s="102"/>
-      <c r="Y34" s="102"/>
-      <c r="Z34" s="102"/>
-      <c r="AA34" s="102"/>
-      <c r="AB34" s="102"/>
-      <c r="AC34" s="102"/>
-      <c r="AD34" s="102"/>
+      <c r="J34" s="55" t="s">
+        <v>113</v>
+      </c>
+      <c r="K34" s="55" t="s">
+        <v>113</v>
+      </c>
+      <c r="L34" s="104"/>
+      <c r="M34" s="104"/>
+      <c r="N34" s="104"/>
+      <c r="O34" s="104"/>
+      <c r="P34" s="104"/>
+      <c r="Q34" s="104"/>
+      <c r="R34" s="104"/>
+      <c r="S34" s="104"/>
+      <c r="T34" s="104"/>
+      <c r="U34" s="104"/>
+      <c r="V34" s="104"/>
+      <c r="W34" s="104"/>
+      <c r="X34" s="104"/>
+      <c r="Y34" s="104"/>
+      <c r="Z34" s="104"/>
+      <c r="AA34" s="104"/>
+      <c r="AB34" s="104"/>
+      <c r="AC34" s="104"/>
+      <c r="AD34" s="104"/>
     </row>
     <row r="35" ht="15.0" customHeight="1">
-      <c r="B35" s="102">
+      <c r="B35" s="104">
         <v>34.0</v>
       </c>
-      <c r="C35" s="102" t="s">
+      <c r="C35" s="104" t="s">
         <v>144</v>
       </c>
-      <c r="D35" s="102" t="s">
+      <c r="D35" s="104" t="s">
         <v>145</v>
       </c>
-      <c r="E35" s="102" t="s">
+      <c r="E35" s="104" t="s">
         <v>51</v>
       </c>
-      <c r="F35" s="102" t="s">
+      <c r="F35" s="104" t="s">
         <v>150</v>
       </c>
       <c r="G35" s="48" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H35" s="55" t="s">
-        <v>42</v>
-      </c>
-      <c r="I35" s="55"/>
-      <c r="J35" s="55"/>
-      <c r="K35" s="55"/>
-      <c r="L35" s="140"/>
-      <c r="M35" s="140"/>
-      <c r="N35" s="140"/>
-      <c r="O35" s="102"/>
-      <c r="P35" s="102"/>
-      <c r="Q35" s="102"/>
-      <c r="R35" s="102"/>
-      <c r="S35" s="102"/>
-      <c r="T35" s="102"/>
-      <c r="U35" s="102"/>
-      <c r="V35" s="102"/>
-      <c r="W35" s="102"/>
-      <c r="X35" s="102"/>
-      <c r="Y35" s="102"/>
-      <c r="Z35" s="102"/>
-      <c r="AA35" s="102"/>
-      <c r="AB35" s="102"/>
-      <c r="AC35" s="102"/>
-      <c r="AD35" s="102"/>
+        <v>23</v>
+      </c>
+      <c r="I35" s="55" t="s">
+        <v>113</v>
+      </c>
+      <c r="J35" s="55" t="s">
+        <v>113</v>
+      </c>
+      <c r="K35" s="55" t="s">
+        <v>113</v>
+      </c>
+      <c r="L35" s="142"/>
+      <c r="M35" s="142"/>
+      <c r="N35" s="142"/>
+      <c r="O35" s="104"/>
+      <c r="P35" s="104"/>
+      <c r="Q35" s="104"/>
+      <c r="R35" s="104"/>
+      <c r="S35" s="104"/>
+      <c r="T35" s="104"/>
+      <c r="U35" s="104"/>
+      <c r="V35" s="104"/>
+      <c r="W35" s="104"/>
+      <c r="X35" s="104"/>
+      <c r="Y35" s="104"/>
+      <c r="Z35" s="104"/>
+      <c r="AA35" s="104"/>
+      <c r="AB35" s="104"/>
+      <c r="AC35" s="104"/>
+      <c r="AD35" s="104"/>
     </row>
     <row r="36" ht="15.0" customHeight="1">
-      <c r="B36" s="102">
+      <c r="B36" s="104">
         <v>35.0</v>
       </c>
-      <c r="C36" s="102" t="s">
+      <c r="C36" s="104" t="s">
         <v>144</v>
       </c>
-      <c r="D36" s="102" t="s">
+      <c r="D36" s="104" t="s">
         <v>145</v>
       </c>
-      <c r="E36" s="102" t="s">
+      <c r="E36" s="104" t="s">
         <v>94</v>
       </c>
-      <c r="F36" s="102" t="s">
+      <c r="F36" s="104" t="s">
         <v>151</v>
       </c>
       <c r="G36" s="55" t="s">
         <v>35</v>
       </c>
       <c r="H36" s="55" t="s">
-        <v>44</v>
-      </c>
-      <c r="I36" s="55"/>
-      <c r="J36" s="55"/>
-      <c r="K36" s="55"/>
-      <c r="L36" s="140"/>
-      <c r="M36" s="140"/>
-      <c r="N36" s="140"/>
-      <c r="O36" s="107"/>
-      <c r="P36" s="107"/>
-      <c r="Q36" s="102"/>
-      <c r="R36" s="102"/>
-      <c r="S36" s="102"/>
-      <c r="T36" s="102"/>
-      <c r="U36" s="102"/>
-      <c r="V36" s="102"/>
-      <c r="W36" s="102"/>
-      <c r="X36" s="102"/>
-      <c r="Y36" s="102"/>
-      <c r="Z36" s="102"/>
-      <c r="AA36" s="102"/>
-      <c r="AB36" s="102"/>
-      <c r="AC36" s="102"/>
-      <c r="AD36" s="102"/>
+        <v>23</v>
+      </c>
+      <c r="I36" s="55" t="s">
+        <v>113</v>
+      </c>
+      <c r="J36" s="55" t="s">
+        <v>113</v>
+      </c>
+      <c r="K36" s="55" t="s">
+        <v>113</v>
+      </c>
+      <c r="L36" s="142"/>
+      <c r="M36" s="142"/>
+      <c r="N36" s="142"/>
+      <c r="O36" s="109"/>
+      <c r="P36" s="109"/>
+      <c r="Q36" s="104"/>
+      <c r="R36" s="104"/>
+      <c r="S36" s="104"/>
+      <c r="T36" s="104"/>
+      <c r="U36" s="104"/>
+      <c r="V36" s="104"/>
+      <c r="W36" s="104"/>
+      <c r="X36" s="104"/>
+      <c r="Y36" s="104"/>
+      <c r="Z36" s="104"/>
+      <c r="AA36" s="104"/>
+      <c r="AB36" s="104"/>
+      <c r="AC36" s="104"/>
+      <c r="AD36" s="104"/>
     </row>
     <row r="37" ht="15.0" customHeight="1">
-      <c r="B37" s="102">
+      <c r="B37" s="104">
         <v>36.0</v>
       </c>
-      <c r="C37" s="102" t="s">
+      <c r="C37" s="104" t="s">
         <v>144</v>
       </c>
-      <c r="D37" s="102" t="s">
+      <c r="D37" s="104" t="s">
         <v>145</v>
       </c>
-      <c r="E37" s="102" t="s">
+      <c r="E37" s="104" t="s">
         <v>78</v>
       </c>
-      <c r="F37" s="102" t="s">
+      <c r="F37" s="104" t="s">
         <v>152</v>
       </c>
       <c r="G37" s="48" t="s">
         <v>76</v>
       </c>
       <c r="H37" s="55" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="I37" s="55"/>
       <c r="J37" s="55"/>
       <c r="K37" s="55"/>
-      <c r="L37" s="140"/>
-      <c r="M37" s="140"/>
-      <c r="N37" s="140"/>
-      <c r="O37" s="102"/>
-      <c r="P37" s="102"/>
-      <c r="Q37" s="102"/>
-      <c r="R37" s="102"/>
-      <c r="S37" s="102"/>
-      <c r="T37" s="102"/>
-      <c r="U37" s="102"/>
-      <c r="V37" s="106"/>
-      <c r="W37" s="106"/>
-      <c r="X37" s="106"/>
-      <c r="Y37" s="106"/>
-      <c r="Z37" s="106"/>
-      <c r="AA37" s="106"/>
-      <c r="AB37" s="106"/>
-      <c r="AC37" s="106"/>
-      <c r="AD37" s="106"/>
-      <c r="AE37" s="133"/>
-      <c r="AF37" s="133"/>
-      <c r="AG37" s="133"/>
-      <c r="AH37" s="133"/>
-      <c r="AI37" s="133"/>
-      <c r="AJ37" s="133"/>
-      <c r="AK37" s="133"/>
-      <c r="AL37" s="133"/>
-      <c r="AM37" s="133"/>
-      <c r="AN37" s="133"/>
-      <c r="AO37" s="133"/>
+      <c r="L37" s="142"/>
+      <c r="M37" s="142"/>
+      <c r="N37" s="142"/>
+      <c r="O37" s="104"/>
+      <c r="P37" s="104"/>
+      <c r="Q37" s="104"/>
+      <c r="R37" s="104"/>
+      <c r="S37" s="104"/>
+      <c r="T37" s="104"/>
+      <c r="U37" s="104"/>
+      <c r="V37" s="108"/>
+      <c r="W37" s="108"/>
+      <c r="X37" s="108"/>
+      <c r="Y37" s="108"/>
+      <c r="Z37" s="108"/>
+      <c r="AA37" s="108"/>
+      <c r="AB37" s="108"/>
+      <c r="AC37" s="108"/>
+      <c r="AD37" s="108"/>
+      <c r="AE37" s="135"/>
+      <c r="AF37" s="135"/>
+      <c r="AG37" s="135"/>
+      <c r="AH37" s="135"/>
+      <c r="AI37" s="135"/>
+      <c r="AJ37" s="135"/>
+      <c r="AK37" s="135"/>
+      <c r="AL37" s="135"/>
+      <c r="AM37" s="135"/>
+      <c r="AN37" s="135"/>
+      <c r="AO37" s="135"/>
     </row>
     <row r="38" ht="15.0" customHeight="1">
-      <c r="A38" s="141"/>
-      <c r="B38" s="102">
+      <c r="A38" s="143"/>
+      <c r="B38" s="104">
         <v>37.0</v>
       </c>
-      <c r="C38" s="102" t="s">
+      <c r="C38" s="104" t="s">
         <v>144</v>
       </c>
-      <c r="D38" s="102" t="s">
+      <c r="D38" s="104" t="s">
         <v>145</v>
       </c>
-      <c r="E38" s="102" t="s">
+      <c r="E38" s="104" t="s">
         <v>79</v>
       </c>
-      <c r="F38" s="102" t="s">
+      <c r="F38" s="104" t="s">
         <v>153</v>
       </c>
       <c r="G38" s="48" t="s">
@@ -61482,85 +61557,85 @@
       <c r="I38" s="55"/>
       <c r="J38" s="55"/>
       <c r="K38" s="55"/>
-      <c r="L38" s="107"/>
-      <c r="M38" s="107"/>
-      <c r="N38" s="118"/>
-      <c r="O38" s="118"/>
-      <c r="P38" s="118"/>
-      <c r="Q38" s="106"/>
-      <c r="R38" s="106"/>
-      <c r="S38" s="106"/>
-      <c r="T38" s="106"/>
-      <c r="U38" s="106"/>
-      <c r="V38" s="102"/>
-      <c r="W38" s="102"/>
-      <c r="X38" s="102"/>
-      <c r="Y38" s="102"/>
-      <c r="Z38" s="102"/>
-      <c r="AA38" s="102"/>
-      <c r="AB38" s="102"/>
-      <c r="AC38" s="102"/>
-      <c r="AD38" s="102"/>
+      <c r="L38" s="109"/>
+      <c r="M38" s="109"/>
+      <c r="N38" s="120"/>
+      <c r="O38" s="120"/>
+      <c r="P38" s="120"/>
+      <c r="Q38" s="108"/>
+      <c r="R38" s="108"/>
+      <c r="S38" s="108"/>
+      <c r="T38" s="108"/>
+      <c r="U38" s="108"/>
+      <c r="V38" s="104"/>
+      <c r="W38" s="104"/>
+      <c r="X38" s="104"/>
+      <c r="Y38" s="104"/>
+      <c r="Z38" s="104"/>
+      <c r="AA38" s="104"/>
+      <c r="AB38" s="104"/>
+      <c r="AC38" s="104"/>
+      <c r="AD38" s="104"/>
     </row>
     <row r="39" ht="15.0" customHeight="1">
-      <c r="B39" s="102">
+      <c r="B39" s="104">
         <v>38.0</v>
       </c>
-      <c r="C39" s="102" t="s">
+      <c r="C39" s="104" t="s">
         <v>144</v>
       </c>
-      <c r="D39" s="102" t="s">
+      <c r="D39" s="104" t="s">
         <v>145</v>
       </c>
-      <c r="E39" s="102" t="s">
-        <v>71</v>
-      </c>
-      <c r="F39" s="102" t="s">
+      <c r="E39" s="104" t="s">
+        <v>70</v>
+      </c>
+      <c r="F39" s="104" t="s">
         <v>154</v>
       </c>
       <c r="G39" s="48" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H39" s="55" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="I39" s="55"/>
       <c r="J39" s="55"/>
       <c r="K39" s="55"/>
-      <c r="L39" s="118"/>
-      <c r="M39" s="118"/>
-      <c r="N39" s="118"/>
-      <c r="O39" s="118"/>
-      <c r="P39" s="118"/>
-      <c r="Q39" s="102"/>
-      <c r="R39" s="102"/>
-      <c r="S39" s="102"/>
-      <c r="T39" s="102"/>
-      <c r="U39" s="102"/>
-      <c r="V39" s="102"/>
-      <c r="W39" s="102"/>
-      <c r="X39" s="102"/>
-      <c r="Y39" s="102"/>
-      <c r="Z39" s="102"/>
-      <c r="AA39" s="102"/>
-      <c r="AB39" s="102"/>
-      <c r="AC39" s="102"/>
-      <c r="AD39" s="102"/>
+      <c r="L39" s="120"/>
+      <c r="M39" s="120"/>
+      <c r="N39" s="120"/>
+      <c r="O39" s="120"/>
+      <c r="P39" s="120"/>
+      <c r="Q39" s="104"/>
+      <c r="R39" s="104"/>
+      <c r="S39" s="104"/>
+      <c r="T39" s="104"/>
+      <c r="U39" s="104"/>
+      <c r="V39" s="104"/>
+      <c r="W39" s="104"/>
+      <c r="X39" s="104"/>
+      <c r="Y39" s="104"/>
+      <c r="Z39" s="104"/>
+      <c r="AA39" s="104"/>
+      <c r="AB39" s="104"/>
+      <c r="AC39" s="104"/>
+      <c r="AD39" s="104"/>
     </row>
     <row r="40" ht="15.0" customHeight="1">
-      <c r="B40" s="102">
+      <c r="B40" s="104">
         <v>39.0</v>
       </c>
-      <c r="C40" s="129" t="s">
+      <c r="C40" s="131" t="s">
         <v>144</v>
       </c>
-      <c r="D40" s="129" t="s">
+      <c r="D40" s="131" t="s">
         <v>145</v>
       </c>
-      <c r="E40" s="129" t="s">
-        <v>61</v>
-      </c>
-      <c r="F40" s="129" t="s">
+      <c r="E40" s="131" t="s">
+        <v>60</v>
+      </c>
+      <c r="F40" s="131" t="s">
         <v>155</v>
       </c>
       <c r="G40" s="55" t="s">
@@ -61572,43 +61647,43 @@
       <c r="I40" s="55"/>
       <c r="J40" s="55"/>
       <c r="K40" s="55"/>
-      <c r="L40" s="118"/>
-      <c r="M40" s="118"/>
-      <c r="N40" s="118"/>
-      <c r="O40" s="118"/>
-      <c r="P40" s="118"/>
-      <c r="Q40" s="102"/>
-      <c r="S40" s="102"/>
-      <c r="T40" s="102"/>
-      <c r="U40" s="102"/>
-      <c r="V40" s="102"/>
-      <c r="W40" s="102"/>
-      <c r="X40" s="102"/>
-      <c r="Y40" s="102"/>
-      <c r="Z40" s="102"/>
-      <c r="AA40" s="102"/>
-      <c r="AB40" s="102"/>
-      <c r="AC40" s="102"/>
-      <c r="AD40" s="102"/>
+      <c r="L40" s="120"/>
+      <c r="M40" s="120"/>
+      <c r="N40" s="120"/>
+      <c r="O40" s="120"/>
+      <c r="P40" s="120"/>
+      <c r="Q40" s="104"/>
+      <c r="S40" s="104"/>
+      <c r="T40" s="104"/>
+      <c r="U40" s="104"/>
+      <c r="V40" s="104"/>
+      <c r="W40" s="104"/>
+      <c r="X40" s="104"/>
+      <c r="Y40" s="104"/>
+      <c r="Z40" s="104"/>
+      <c r="AA40" s="104"/>
+      <c r="AB40" s="104"/>
+      <c r="AC40" s="104"/>
+      <c r="AD40" s="104"/>
     </row>
     <row r="41" ht="15.0" customHeight="1">
-      <c r="B41" s="102">
+      <c r="B41" s="104">
         <v>40.0</v>
       </c>
-      <c r="C41" s="102" t="s">
+      <c r="C41" s="104" t="s">
         <v>144</v>
       </c>
-      <c r="D41" s="102" t="s">
+      <c r="D41" s="104" t="s">
         <v>145</v>
       </c>
-      <c r="E41" s="102" t="s">
-        <v>72</v>
-      </c>
-      <c r="F41" s="102" t="s">
+      <c r="E41" s="104" t="s">
+        <v>71</v>
+      </c>
+      <c r="F41" s="104" t="s">
         <v>156</v>
       </c>
       <c r="G41" s="48" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H41" s="55" t="s">
         <v>42</v>
@@ -61616,133 +61691,133 @@
       <c r="I41" s="55"/>
       <c r="J41" s="55"/>
       <c r="K41" s="55"/>
-      <c r="L41" s="118"/>
-      <c r="M41" s="118"/>
-      <c r="N41" s="118"/>
-      <c r="O41" s="118"/>
-      <c r="P41" s="118"/>
-      <c r="Q41" s="102"/>
-      <c r="S41" s="102"/>
-      <c r="T41" s="102"/>
-      <c r="U41" s="102"/>
-      <c r="V41" s="102"/>
-      <c r="W41" s="102"/>
-      <c r="X41" s="102"/>
-      <c r="Y41" s="102"/>
-      <c r="Z41" s="102"/>
-      <c r="AA41" s="102"/>
-      <c r="AB41" s="102"/>
-      <c r="AC41" s="102"/>
-      <c r="AD41" s="102"/>
+      <c r="L41" s="120"/>
+      <c r="M41" s="120"/>
+      <c r="N41" s="120"/>
+      <c r="O41" s="120"/>
+      <c r="P41" s="120"/>
+      <c r="Q41" s="104"/>
+      <c r="S41" s="104"/>
+      <c r="T41" s="104"/>
+      <c r="U41" s="104"/>
+      <c r="V41" s="104"/>
+      <c r="W41" s="104"/>
+      <c r="X41" s="104"/>
+      <c r="Y41" s="104"/>
+      <c r="Z41" s="104"/>
+      <c r="AA41" s="104"/>
+      <c r="AB41" s="104"/>
+      <c r="AC41" s="104"/>
+      <c r="AD41" s="104"/>
     </row>
     <row r="42" ht="15.0" customHeight="1">
-      <c r="B42" s="102">
+      <c r="B42" s="104">
         <v>41.0</v>
       </c>
-      <c r="C42" s="119" t="s">
+      <c r="C42" s="121" t="s">
         <v>157</v>
       </c>
-      <c r="D42" s="102" t="s">
+      <c r="D42" s="104" t="s">
         <v>158</v>
       </c>
-      <c r="E42" s="102" t="s">
+      <c r="E42" s="104" t="s">
         <v>52</v>
       </c>
-      <c r="F42" s="102" t="s">
+      <c r="F42" s="104" t="s">
         <v>159</v>
       </c>
       <c r="G42" s="48" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H42" s="55" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="I42" s="55"/>
       <c r="J42" s="55"/>
       <c r="K42" s="55"/>
-      <c r="L42" s="102"/>
-      <c r="M42" s="102"/>
-      <c r="N42" s="102"/>
-      <c r="O42" s="102"/>
-      <c r="P42" s="102"/>
-      <c r="Q42" s="102"/>
-      <c r="R42" s="76"/>
-      <c r="S42" s="140"/>
-      <c r="T42" s="140"/>
-      <c r="U42" s="140"/>
-      <c r="V42" s="102"/>
-      <c r="W42" s="102"/>
-      <c r="X42" s="102"/>
-      <c r="Y42" s="102"/>
-      <c r="Z42" s="102"/>
-      <c r="AA42" s="102"/>
-      <c r="AB42" s="102"/>
-      <c r="AC42" s="102"/>
-      <c r="AD42" s="102"/>
+      <c r="L42" s="104"/>
+      <c r="M42" s="104"/>
+      <c r="N42" s="104"/>
+      <c r="O42" s="104"/>
+      <c r="P42" s="104"/>
+      <c r="Q42" s="104"/>
+      <c r="R42" s="78"/>
+      <c r="S42" s="142"/>
+      <c r="T42" s="142"/>
+      <c r="U42" s="142"/>
+      <c r="V42" s="104"/>
+      <c r="W42" s="104"/>
+      <c r="X42" s="104"/>
+      <c r="Y42" s="104"/>
+      <c r="Z42" s="104"/>
+      <c r="AA42" s="104"/>
+      <c r="AB42" s="104"/>
+      <c r="AC42" s="104"/>
+      <c r="AD42" s="104"/>
     </row>
     <row r="43" ht="37.5" customHeight="1">
-      <c r="B43" s="102">
+      <c r="B43" s="104">
         <v>42.0</v>
       </c>
-      <c r="C43" s="119" t="s">
+      <c r="C43" s="121" t="s">
         <v>157</v>
       </c>
-      <c r="D43" s="102" t="s">
+      <c r="D43" s="104" t="s">
         <v>158</v>
       </c>
-      <c r="E43" s="102" t="s">
+      <c r="E43" s="104" t="s">
         <v>80</v>
       </c>
-      <c r="F43" s="102" t="s">
+      <c r="F43" s="104" t="s">
         <v>160</v>
       </c>
       <c r="G43" s="48" t="s">
         <v>76</v>
       </c>
       <c r="H43" s="55" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="I43" s="55"/>
       <c r="J43" s="55"/>
       <c r="K43" s="55"/>
-      <c r="L43" s="102"/>
-      <c r="M43" s="102"/>
-      <c r="N43" s="102"/>
-      <c r="O43" s="102"/>
-      <c r="P43" s="102"/>
-      <c r="Q43" s="102"/>
-      <c r="R43" s="76"/>
-      <c r="S43" s="140"/>
-      <c r="T43" s="140"/>
-      <c r="U43" s="140"/>
-      <c r="V43" s="102"/>
-      <c r="W43" s="102"/>
-      <c r="X43" s="102"/>
-      <c r="Y43" s="102"/>
-      <c r="Z43" s="102"/>
-      <c r="AA43" s="102"/>
-      <c r="AB43" s="102"/>
-      <c r="AC43" s="102"/>
-      <c r="AD43" s="102"/>
+      <c r="L43" s="104"/>
+      <c r="M43" s="104"/>
+      <c r="N43" s="104"/>
+      <c r="O43" s="104"/>
+      <c r="P43" s="104"/>
+      <c r="Q43" s="104"/>
+      <c r="R43" s="78"/>
+      <c r="S43" s="142"/>
+      <c r="T43" s="142"/>
+      <c r="U43" s="142"/>
+      <c r="V43" s="104"/>
+      <c r="W43" s="104"/>
+      <c r="X43" s="104"/>
+      <c r="Y43" s="104"/>
+      <c r="Z43" s="104"/>
+      <c r="AA43" s="104"/>
+      <c r="AB43" s="104"/>
+      <c r="AC43" s="104"/>
+      <c r="AD43" s="104"/>
     </row>
     <row r="44" ht="37.5" customHeight="1">
-      <c r="B44" s="102">
+      <c r="B44" s="104">
         <v>43.0</v>
       </c>
-      <c r="C44" s="119" t="s">
+      <c r="C44" s="121" t="s">
         <v>157</v>
       </c>
-      <c r="D44" s="102" t="s">
+      <c r="D44" s="104" t="s">
         <v>158</v>
       </c>
-      <c r="E44" s="102" t="s">
-        <v>73</v>
-      </c>
-      <c r="F44" s="102" t="s">
+      <c r="E44" s="104" t="s">
+        <v>72</v>
+      </c>
+      <c r="F44" s="104" t="s">
         <v>161</v>
       </c>
       <c r="G44" s="48" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H44" s="55" t="s">
         <v>42</v>
@@ -61750,295 +61825,295 @@
       <c r="I44" s="55"/>
       <c r="J44" s="55"/>
       <c r="K44" s="55"/>
-      <c r="L44" s="102"/>
-      <c r="M44" s="102"/>
-      <c r="N44" s="102"/>
-      <c r="O44" s="102"/>
-      <c r="P44" s="102"/>
-      <c r="Q44" s="102"/>
-      <c r="R44" s="76"/>
-      <c r="S44" s="140"/>
-      <c r="T44" s="140"/>
-      <c r="U44" s="140"/>
-      <c r="V44" s="102"/>
-      <c r="W44" s="102"/>
-      <c r="X44" s="102"/>
-      <c r="Y44" s="102"/>
-      <c r="Z44" s="102"/>
-      <c r="AA44" s="102"/>
-      <c r="AB44" s="102"/>
-      <c r="AC44" s="102"/>
-      <c r="AD44" s="102"/>
+      <c r="L44" s="104"/>
+      <c r="M44" s="104"/>
+      <c r="N44" s="104"/>
+      <c r="O44" s="104"/>
+      <c r="P44" s="104"/>
+      <c r="Q44" s="104"/>
+      <c r="R44" s="78"/>
+      <c r="S44" s="142"/>
+      <c r="T44" s="142"/>
+      <c r="U44" s="142"/>
+      <c r="V44" s="104"/>
+      <c r="W44" s="104"/>
+      <c r="X44" s="104"/>
+      <c r="Y44" s="104"/>
+      <c r="Z44" s="104"/>
+      <c r="AA44" s="104"/>
+      <c r="AB44" s="104"/>
+      <c r="AC44" s="104"/>
+      <c r="AD44" s="104"/>
     </row>
     <row r="45" ht="37.5" customHeight="1">
-      <c r="B45" s="102">
+      <c r="B45" s="104">
         <v>44.0</v>
       </c>
-      <c r="C45" s="102" t="s">
+      <c r="C45" s="104" t="s">
         <v>162</v>
       </c>
-      <c r="D45" s="102" t="s">
+      <c r="D45" s="104" t="s">
         <v>163</v>
       </c>
-      <c r="E45" s="102" t="s">
-        <v>54</v>
-      </c>
-      <c r="F45" s="102" t="s">
+      <c r="E45" s="104" t="s">
+        <v>53</v>
+      </c>
+      <c r="F45" s="104" t="s">
         <v>164</v>
       </c>
       <c r="G45" s="48" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H45" s="55" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="I45" s="55"/>
       <c r="J45" s="55"/>
       <c r="K45" s="55"/>
-      <c r="L45" s="102"/>
-      <c r="M45" s="102"/>
-      <c r="N45" s="102"/>
-      <c r="O45" s="102"/>
-      <c r="P45" s="102"/>
-      <c r="Q45" s="102"/>
-      <c r="R45" s="76"/>
-      <c r="S45" s="140"/>
-      <c r="T45" s="140"/>
-      <c r="U45" s="140"/>
-      <c r="V45" s="102"/>
-      <c r="W45" s="102"/>
-      <c r="X45" s="102"/>
-      <c r="Y45" s="102"/>
-      <c r="Z45" s="102"/>
-      <c r="AA45" s="102"/>
-      <c r="AB45" s="102"/>
-      <c r="AC45" s="102"/>
-      <c r="AD45" s="102"/>
+      <c r="L45" s="104"/>
+      <c r="M45" s="104"/>
+      <c r="N45" s="104"/>
+      <c r="O45" s="104"/>
+      <c r="P45" s="104"/>
+      <c r="Q45" s="104"/>
+      <c r="R45" s="78"/>
+      <c r="S45" s="142"/>
+      <c r="T45" s="142"/>
+      <c r="U45" s="142"/>
+      <c r="V45" s="104"/>
+      <c r="W45" s="104"/>
+      <c r="X45" s="104"/>
+      <c r="Y45" s="104"/>
+      <c r="Z45" s="104"/>
+      <c r="AA45" s="104"/>
+      <c r="AB45" s="104"/>
+      <c r="AC45" s="104"/>
+      <c r="AD45" s="104"/>
     </row>
     <row r="46" ht="37.5" customHeight="1">
-      <c r="B46" s="102">
+      <c r="B46" s="104">
         <v>45.0</v>
       </c>
-      <c r="C46" s="102" t="s">
+      <c r="C46" s="104" t="s">
         <v>162</v>
       </c>
-      <c r="D46" s="102" t="s">
+      <c r="D46" s="104" t="s">
         <v>163</v>
       </c>
-      <c r="E46" s="102" t="s">
+      <c r="E46" s="104" t="s">
         <v>96</v>
       </c>
-      <c r="F46" s="142" t="s">
+      <c r="F46" s="144" t="s">
         <v>165</v>
       </c>
       <c r="G46" s="48" t="s">
         <v>35</v>
       </c>
       <c r="H46" s="55" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="I46" s="55"/>
       <c r="J46" s="55"/>
       <c r="K46" s="55"/>
-      <c r="L46" s="102"/>
-      <c r="M46" s="102"/>
-      <c r="N46" s="102"/>
-      <c r="O46" s="102"/>
-      <c r="P46" s="102"/>
-      <c r="Q46" s="102"/>
-      <c r="R46" s="76"/>
-      <c r="S46" s="140"/>
-      <c r="T46" s="140"/>
-      <c r="U46" s="140"/>
-      <c r="V46" s="140"/>
-      <c r="W46" s="102"/>
-      <c r="X46" s="102"/>
-      <c r="Y46" s="102"/>
-      <c r="Z46" s="102"/>
-      <c r="AA46" s="102"/>
-      <c r="AB46" s="102"/>
-      <c r="AC46" s="102"/>
-      <c r="AD46" s="102"/>
+      <c r="L46" s="104"/>
+      <c r="M46" s="104"/>
+      <c r="N46" s="104"/>
+      <c r="O46" s="104"/>
+      <c r="P46" s="104"/>
+      <c r="Q46" s="104"/>
+      <c r="R46" s="78"/>
+      <c r="S46" s="142"/>
+      <c r="T46" s="142"/>
+      <c r="U46" s="142"/>
+      <c r="V46" s="142"/>
+      <c r="W46" s="104"/>
+      <c r="X46" s="104"/>
+      <c r="Y46" s="104"/>
+      <c r="Z46" s="104"/>
+      <c r="AA46" s="104"/>
+      <c r="AB46" s="104"/>
+      <c r="AC46" s="104"/>
+      <c r="AD46" s="104"/>
     </row>
     <row r="47" ht="13.5" customHeight="1">
-      <c r="B47" s="102">
+      <c r="B47" s="104">
         <v>46.0</v>
       </c>
-      <c r="C47" s="102" t="s">
+      <c r="C47" s="104" t="s">
         <v>162</v>
       </c>
-      <c r="D47" s="102" t="s">
+      <c r="D47" s="104" t="s">
         <v>163</v>
       </c>
-      <c r="E47" s="102" t="s">
-        <v>62</v>
-      </c>
-      <c r="F47" s="142" t="s">
+      <c r="E47" s="104" t="s">
+        <v>61</v>
+      </c>
+      <c r="F47" s="144" t="s">
         <v>166</v>
       </c>
       <c r="G47" s="48" t="s">
         <v>37</v>
       </c>
       <c r="H47" s="55" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="I47" s="55"/>
       <c r="J47" s="55"/>
       <c r="K47" s="55"/>
-      <c r="L47" s="102"/>
-      <c r="M47" s="102"/>
-      <c r="N47" s="102"/>
-      <c r="O47" s="102"/>
-      <c r="P47" s="102"/>
-      <c r="Q47" s="102"/>
-      <c r="R47" s="76"/>
-      <c r="S47" s="140"/>
-      <c r="T47" s="140"/>
-      <c r="U47" s="140"/>
-      <c r="V47" s="140"/>
-      <c r="W47" s="102"/>
-      <c r="X47" s="102"/>
-      <c r="Y47" s="102"/>
-      <c r="Z47" s="102"/>
-      <c r="AA47" s="102"/>
-      <c r="AB47" s="102"/>
-      <c r="AC47" s="102"/>
-      <c r="AD47" s="102"/>
+      <c r="L47" s="104"/>
+      <c r="M47" s="104"/>
+      <c r="N47" s="104"/>
+      <c r="O47" s="104"/>
+      <c r="P47" s="104"/>
+      <c r="Q47" s="104"/>
+      <c r="R47" s="78"/>
+      <c r="S47" s="142"/>
+      <c r="T47" s="142"/>
+      <c r="U47" s="142"/>
+      <c r="V47" s="142"/>
+      <c r="W47" s="104"/>
+      <c r="X47" s="104"/>
+      <c r="Y47" s="104"/>
+      <c r="Z47" s="104"/>
+      <c r="AA47" s="104"/>
+      <c r="AB47" s="104"/>
+      <c r="AC47" s="104"/>
+      <c r="AD47" s="104"/>
     </row>
     <row r="48" ht="13.5" customHeight="1">
-      <c r="B48" s="102">
+      <c r="B48" s="104">
         <v>47.0</v>
       </c>
-      <c r="C48" s="102" t="s">
+      <c r="C48" s="104" t="s">
         <v>162</v>
       </c>
-      <c r="D48" s="102" t="s">
+      <c r="D48" s="104" t="s">
         <v>163</v>
       </c>
-      <c r="E48" s="102" t="s">
-        <v>55</v>
-      </c>
-      <c r="F48" s="142" t="s">
+      <c r="E48" s="104" t="s">
+        <v>54</v>
+      </c>
+      <c r="F48" s="144" t="s">
         <v>167</v>
       </c>
       <c r="G48" s="48" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H48" s="55" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="I48" s="55"/>
       <c r="J48" s="55"/>
       <c r="K48" s="55"/>
-      <c r="L48" s="102"/>
-      <c r="M48" s="102"/>
-      <c r="N48" s="102"/>
-      <c r="O48" s="102"/>
-      <c r="P48" s="102"/>
-      <c r="Q48" s="102"/>
-      <c r="R48" s="76"/>
-      <c r="S48" s="140"/>
-      <c r="T48" s="140"/>
-      <c r="U48" s="140"/>
-      <c r="V48" s="140"/>
-      <c r="W48" s="102"/>
-      <c r="X48" s="102"/>
-      <c r="Y48" s="102"/>
-      <c r="Z48" s="102"/>
-      <c r="AA48" s="102"/>
-      <c r="AB48" s="102"/>
-      <c r="AC48" s="102"/>
-      <c r="AD48" s="102"/>
+      <c r="L48" s="104"/>
+      <c r="M48" s="104"/>
+      <c r="N48" s="104"/>
+      <c r="O48" s="104"/>
+      <c r="P48" s="104"/>
+      <c r="Q48" s="104"/>
+      <c r="R48" s="78"/>
+      <c r="S48" s="142"/>
+      <c r="T48" s="142"/>
+      <c r="U48" s="142"/>
+      <c r="V48" s="142"/>
+      <c r="W48" s="104"/>
+      <c r="X48" s="104"/>
+      <c r="Y48" s="104"/>
+      <c r="Z48" s="104"/>
+      <c r="AA48" s="104"/>
+      <c r="AB48" s="104"/>
+      <c r="AC48" s="104"/>
+      <c r="AD48" s="104"/>
     </row>
     <row r="49" ht="13.5" customHeight="1">
-      <c r="B49" s="102">
+      <c r="B49" s="104">
         <v>48.0</v>
       </c>
-      <c r="C49" s="102" t="s">
+      <c r="C49" s="104" t="s">
         <v>162</v>
       </c>
-      <c r="D49" s="102" t="s">
+      <c r="D49" s="104" t="s">
         <v>163</v>
       </c>
-      <c r="E49" s="102" t="s">
+      <c r="E49" s="104" t="s">
         <v>81</v>
       </c>
-      <c r="F49" s="142" t="s">
+      <c r="F49" s="144" t="s">
         <v>168</v>
       </c>
       <c r="G49" s="48" t="s">
         <v>76</v>
       </c>
       <c r="H49" s="55" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="I49" s="55"/>
       <c r="J49" s="55"/>
       <c r="K49" s="55"/>
-      <c r="L49" s="102"/>
-      <c r="M49" s="102"/>
-      <c r="N49" s="102"/>
-      <c r="O49" s="102"/>
-      <c r="P49" s="102"/>
-      <c r="Q49" s="102"/>
-      <c r="R49" s="76"/>
-      <c r="S49" s="140"/>
-      <c r="T49" s="140"/>
-      <c r="U49" s="140"/>
-      <c r="V49" s="140"/>
-      <c r="W49" s="102"/>
-      <c r="X49" s="102"/>
-      <c r="Y49" s="102"/>
-      <c r="Z49" s="102"/>
-      <c r="AA49" s="102"/>
-      <c r="AB49" s="102"/>
-      <c r="AC49" s="102"/>
-      <c r="AD49" s="102"/>
+      <c r="L49" s="104"/>
+      <c r="M49" s="104"/>
+      <c r="N49" s="104"/>
+      <c r="O49" s="104"/>
+      <c r="P49" s="104"/>
+      <c r="Q49" s="104"/>
+      <c r="R49" s="78"/>
+      <c r="S49" s="142"/>
+      <c r="T49" s="142"/>
+      <c r="U49" s="142"/>
+      <c r="V49" s="142"/>
+      <c r="W49" s="104"/>
+      <c r="X49" s="104"/>
+      <c r="Y49" s="104"/>
+      <c r="Z49" s="104"/>
+      <c r="AA49" s="104"/>
+      <c r="AB49" s="104"/>
+      <c r="AC49" s="104"/>
+      <c r="AD49" s="104"/>
     </row>
     <row r="50" ht="13.5" customHeight="1">
-      <c r="B50" s="102">
+      <c r="B50" s="104">
         <v>49.0</v>
       </c>
-      <c r="C50" s="102" t="s">
+      <c r="C50" s="104" t="s">
         <v>162</v>
       </c>
-      <c r="D50" s="102" t="s">
+      <c r="D50" s="104" t="s">
         <v>163</v>
       </c>
-      <c r="E50" s="102" t="s">
+      <c r="E50" s="104" t="s">
+        <v>73</v>
+      </c>
+      <c r="F50" s="104" t="s">
+        <v>169</v>
+      </c>
+      <c r="G50" s="48" t="s">
+        <v>63</v>
+      </c>
+      <c r="H50" s="55" t="s">
         <v>74</v>
-      </c>
-      <c r="F50" s="102" t="s">
-        <v>169</v>
-      </c>
-      <c r="G50" s="48" t="s">
-        <v>64</v>
-      </c>
-      <c r="H50" s="55" t="s">
-        <v>53</v>
       </c>
       <c r="I50" s="55"/>
       <c r="J50" s="55"/>
       <c r="K50" s="55"/>
-      <c r="L50" s="102"/>
-      <c r="M50" s="102"/>
-      <c r="N50" s="102"/>
-      <c r="O50" s="102"/>
-      <c r="P50" s="102"/>
-      <c r="Q50" s="102"/>
-      <c r="R50" s="76"/>
-      <c r="S50" s="140"/>
-      <c r="T50" s="140"/>
-      <c r="U50" s="140"/>
-      <c r="V50" s="140"/>
-      <c r="W50" s="102"/>
-      <c r="X50" s="102"/>
-      <c r="Y50" s="102"/>
-      <c r="Z50" s="102"/>
-      <c r="AA50" s="102"/>
-      <c r="AB50" s="102"/>
-      <c r="AC50" s="102"/>
-      <c r="AD50" s="102"/>
+      <c r="L50" s="104"/>
+      <c r="M50" s="104"/>
+      <c r="N50" s="104"/>
+      <c r="O50" s="104"/>
+      <c r="P50" s="104"/>
+      <c r="Q50" s="104"/>
+      <c r="R50" s="78"/>
+      <c r="S50" s="142"/>
+      <c r="T50" s="142"/>
+      <c r="U50" s="142"/>
+      <c r="V50" s="142"/>
+      <c r="W50" s="104"/>
+      <c r="X50" s="104"/>
+      <c r="Y50" s="104"/>
+      <c r="Z50" s="104"/>
+      <c r="AA50" s="104"/>
+      <c r="AB50" s="104"/>
+      <c r="AC50" s="104"/>
+      <c r="AD50" s="104"/>
     </row>
     <row r="51" ht="13.5" customHeight="1">
       <c r="G51" s="18"/>
@@ -68736,823 +68811,830 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="143"/>
-      <c r="B1" s="143"/>
-      <c r="C1" s="143"/>
-      <c r="D1" s="143"/>
-      <c r="E1" s="143"/>
-      <c r="F1" s="143"/>
-      <c r="G1" s="143"/>
-      <c r="H1" s="143"/>
-      <c r="I1" s="143"/>
-      <c r="J1" s="143"/>
-      <c r="K1" s="143"/>
-      <c r="L1" s="143"/>
-      <c r="M1" s="143"/>
-      <c r="N1" s="143"/>
-      <c r="O1" s="143"/>
-      <c r="P1" s="143"/>
-      <c r="Q1" s="143"/>
-      <c r="R1" s="143"/>
+      <c r="A1" s="145"/>
+      <c r="B1" s="145"/>
+      <c r="C1" s="145"/>
+      <c r="D1" s="145"/>
+      <c r="E1" s="145"/>
+      <c r="F1" s="145"/>
+      <c r="G1" s="145"/>
+      <c r="H1" s="145"/>
+      <c r="I1" s="145"/>
+      <c r="J1" s="145"/>
+      <c r="K1" s="145"/>
+      <c r="L1" s="145"/>
+      <c r="M1" s="145"/>
+      <c r="N1" s="145"/>
+      <c r="O1" s="145"/>
+      <c r="P1" s="145"/>
+      <c r="Q1" s="145"/>
+      <c r="R1" s="145"/>
     </row>
     <row r="2">
-      <c r="A2" s="143"/>
-      <c r="B2" s="144" t="s">
+      <c r="A2" s="145"/>
+      <c r="B2" s="146" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="145" t="s">
+      <c r="C2" s="147" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="146" t="s">
+      <c r="D2" s="148" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="147" t="s">
+      <c r="E2" s="149" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="145" t="s">
+      <c r="F2" s="147" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="145" t="s">
+      <c r="G2" s="147" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="145" t="s">
+      <c r="H2" s="147" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="145" t="s">
+      <c r="I2" s="147" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="145" t="s">
+      <c r="J2" s="147" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="146" t="s">
+      <c r="K2" s="148" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="147" t="s">
+      <c r="L2" s="149" t="s">
         <v>17</v>
       </c>
-      <c r="M2" s="145" t="s">
+      <c r="M2" s="147" t="s">
         <v>18</v>
       </c>
-      <c r="N2" s="145" t="s">
+      <c r="N2" s="147" t="s">
         <v>19</v>
       </c>
-      <c r="O2" s="145" t="s">
+      <c r="O2" s="147" t="s">
         <v>20</v>
       </c>
-      <c r="P2" s="145" t="s">
+      <c r="P2" s="147" t="s">
         <v>14</v>
       </c>
-      <c r="Q2" s="145" t="s">
+      <c r="Q2" s="147" t="s">
         <v>15</v>
       </c>
-      <c r="R2" s="143"/>
+      <c r="R2" s="145"/>
     </row>
     <row r="3">
-      <c r="A3" s="148" t="s">
+      <c r="A3" s="150" t="s">
         <v>170</v>
       </c>
-      <c r="B3" s="144">
+      <c r="B3" s="146">
         <v>15.0</v>
       </c>
-      <c r="C3" s="149">
+      <c r="C3" s="151">
         <v>16.0</v>
       </c>
-      <c r="D3" s="149">
+      <c r="D3" s="151">
         <v>17.0</v>
       </c>
-      <c r="E3" s="149">
+      <c r="E3" s="151">
         <v>18.0</v>
       </c>
-      <c r="F3" s="149">
+      <c r="F3" s="151">
         <v>19.0</v>
       </c>
-      <c r="G3" s="149">
+      <c r="G3" s="151">
         <v>20.0</v>
       </c>
-      <c r="H3" s="149">
+      <c r="H3" s="151">
         <v>21.0</v>
       </c>
-      <c r="I3" s="149">
+      <c r="I3" s="151">
         <v>22.0</v>
       </c>
-      <c r="J3" s="149">
+      <c r="J3" s="151">
         <v>23.0</v>
       </c>
-      <c r="K3" s="149">
+      <c r="K3" s="151">
         <v>24.0</v>
       </c>
-      <c r="L3" s="149">
+      <c r="L3" s="151">
         <v>25.0</v>
       </c>
-      <c r="M3" s="149">
+      <c r="M3" s="151">
         <v>26.0</v>
       </c>
-      <c r="N3" s="149">
+      <c r="N3" s="151">
         <v>27.0</v>
       </c>
-      <c r="O3" s="149">
+      <c r="O3" s="151">
         <v>28.0</v>
       </c>
-      <c r="P3" s="149">
+      <c r="P3" s="151">
         <v>29.0</v>
       </c>
-      <c r="Q3" s="149">
+      <c r="Q3" s="151">
         <v>30.0</v>
       </c>
-      <c r="R3" s="143"/>
+      <c r="R3" s="145"/>
     </row>
     <row r="4">
-      <c r="A4" s="148" t="s">
+      <c r="A4" s="150" t="s">
         <v>171</v>
       </c>
-      <c r="B4" s="150">
+      <c r="B4" s="152">
         <f t="shared" ref="B4:C4" si="1">B8/B6</f>
         <v>0.4291338583</v>
       </c>
-      <c r="C4" s="150">
+      <c r="C4" s="152">
         <f t="shared" si="1"/>
         <v>0.5354330709</v>
       </c>
-      <c r="D4" s="150">
+      <c r="D4" s="152">
         <v>0.5354330708661418</v>
       </c>
-      <c r="E4" s="150">
+      <c r="E4" s="152">
         <v>0.5354330708661418</v>
       </c>
-      <c r="F4" s="150">
-        <f>F8/F6</f>
+      <c r="F4" s="152">
+        <f t="shared" ref="F4:G4" si="2">F8/F6</f>
         <v>0.6011450382</v>
       </c>
-      <c r="G4" s="151"/>
-      <c r="H4" s="151"/>
-      <c r="I4" s="151"/>
-      <c r="J4" s="151"/>
-      <c r="K4" s="151"/>
-      <c r="L4" s="151"/>
-      <c r="M4" s="151"/>
-      <c r="N4" s="151"/>
-      <c r="O4" s="151"/>
-      <c r="P4" s="151"/>
-      <c r="Q4" s="151"/>
-      <c r="R4" s="143"/>
+      <c r="G4" s="152">
+        <f t="shared" si="2"/>
+        <v>0.7041984733</v>
+      </c>
+      <c r="H4" s="153"/>
+      <c r="I4" s="153"/>
+      <c r="J4" s="153"/>
+      <c r="K4" s="153"/>
+      <c r="L4" s="153"/>
+      <c r="M4" s="153"/>
+      <c r="N4" s="153"/>
+      <c r="O4" s="153"/>
+      <c r="P4" s="153"/>
+      <c r="Q4" s="153"/>
+      <c r="R4" s="145"/>
     </row>
     <row r="5">
-      <c r="A5" s="152" t="s">
+      <c r="A5" s="154" t="s">
         <v>172</v>
       </c>
-      <c r="B5" s="153">
+      <c r="B5" s="155">
         <v>0.4</v>
       </c>
-      <c r="C5" s="153">
+      <c r="C5" s="155">
         <v>0.5</v>
       </c>
-      <c r="D5" s="153">
+      <c r="D5" s="155">
         <v>0.5</v>
       </c>
-      <c r="E5" s="153">
+      <c r="E5" s="155">
         <v>0.5</v>
       </c>
-      <c r="F5" s="153">
+      <c r="F5" s="155">
         <v>0.6</v>
       </c>
-      <c r="G5" s="153">
+      <c r="G5" s="155">
         <v>0.7</v>
       </c>
-      <c r="H5" s="153">
+      <c r="H5" s="155">
         <v>0.8</v>
       </c>
-      <c r="I5" s="153">
+      <c r="I5" s="155">
         <v>0.9</v>
       </c>
-      <c r="J5" s="153">
+      <c r="J5" s="155">
         <v>1.0</v>
       </c>
-      <c r="K5" s="153">
+      <c r="K5" s="155">
         <v>1.0</v>
       </c>
-      <c r="L5" s="153">
+      <c r="L5" s="155">
         <v>1.0</v>
       </c>
-      <c r="M5" s="153">
+      <c r="M5" s="155">
         <v>1.0</v>
       </c>
-      <c r="N5" s="153">
+      <c r="N5" s="155">
         <v>1.0</v>
       </c>
-      <c r="O5" s="153">
+      <c r="O5" s="155">
         <v>1.0</v>
       </c>
-      <c r="P5" s="153">
+      <c r="P5" s="155">
         <v>1.0</v>
       </c>
-      <c r="Q5" s="153">
+      <c r="Q5" s="155">
         <v>1.0</v>
       </c>
-      <c r="R5" s="143"/>
+      <c r="R5" s="145"/>
     </row>
     <row r="6">
-      <c r="A6" s="154" t="s">
+      <c r="A6" s="156" t="s">
         <v>173</v>
       </c>
-      <c r="B6" s="155">
+      <c r="B6" s="157">
         <v>127.0</v>
       </c>
-      <c r="C6" s="155">
+      <c r="C6" s="157">
         <v>127.0</v>
       </c>
-      <c r="D6" s="155">
+      <c r="D6" s="157">
         <v>127.0</v>
       </c>
-      <c r="E6" s="155">
+      <c r="E6" s="157">
         <v>127.0</v>
       </c>
-      <c r="F6" s="156">
+      <c r="F6" s="158">
         <f>'全体進捗管理'!$U$70
 </f>
         <v>131</v>
       </c>
-      <c r="G6" s="156">
+      <c r="G6" s="158">
         <f>'全体進捗管理'!$U$70
 </f>
         <v>131</v>
       </c>
-      <c r="H6" s="156">
+      <c r="H6" s="158">
         <f>'全体進捗管理'!$U$70
 </f>
         <v>131</v>
       </c>
-      <c r="I6" s="156">
+      <c r="I6" s="158">
         <f>'全体進捗管理'!$U$70
 </f>
         <v>131</v>
       </c>
-      <c r="J6" s="156">
+      <c r="J6" s="158">
         <f>'全体進捗管理'!$U$70
 </f>
         <v>131</v>
       </c>
-      <c r="K6" s="156">
+      <c r="K6" s="158">
         <f>'全体進捗管理'!$U$70
 </f>
         <v>131</v>
       </c>
-      <c r="L6" s="156">
+      <c r="L6" s="158">
         <f>'全体進捗管理'!$U$70
 </f>
         <v>131</v>
       </c>
-      <c r="M6" s="156">
+      <c r="M6" s="158">
         <f>'全体進捗管理'!$U$70
 </f>
         <v>131</v>
       </c>
-      <c r="N6" s="156">
+      <c r="N6" s="158">
         <f>'全体進捗管理'!$U$70
 </f>
         <v>131</v>
       </c>
-      <c r="O6" s="156">
+      <c r="O6" s="158">
         <f>'全体進捗管理'!$U$70
 </f>
         <v>131</v>
       </c>
-      <c r="P6" s="156">
+      <c r="P6" s="158">
         <f>'全体進捗管理'!$U$70
 </f>
         <v>131</v>
       </c>
-      <c r="Q6" s="157">
+      <c r="Q6" s="159">
         <f>'全体進捗管理'!$U$70
 </f>
         <v>131</v>
       </c>
-      <c r="R6" s="158"/>
+      <c r="R6" s="160"/>
     </row>
     <row r="7">
-      <c r="A7" s="154" t="s">
+      <c r="A7" s="156" t="s">
         <v>174</v>
       </c>
-      <c r="B7" s="159">
+      <c r="B7" s="161">
         <v>10.0</v>
       </c>
-      <c r="C7" s="155">
+      <c r="C7" s="157">
         <v>8.0</v>
       </c>
-      <c r="D7" s="159"/>
-      <c r="E7" s="159"/>
-      <c r="F7" s="155">
+      <c r="D7" s="161"/>
+      <c r="E7" s="161"/>
+      <c r="F7" s="157">
         <v>15.0</v>
       </c>
-      <c r="G7" s="159"/>
-      <c r="H7" s="159"/>
-      <c r="I7" s="159"/>
-      <c r="J7" s="159"/>
-      <c r="K7" s="160"/>
-      <c r="L7" s="160"/>
-      <c r="M7" s="160"/>
-      <c r="N7" s="160"/>
-      <c r="O7" s="160"/>
-      <c r="P7" s="160"/>
-      <c r="Q7" s="160"/>
-      <c r="R7" s="143"/>
+      <c r="G7" s="157">
+        <v>13.0</v>
+      </c>
+      <c r="H7" s="161"/>
+      <c r="I7" s="161"/>
+      <c r="J7" s="161"/>
+      <c r="K7" s="162"/>
+      <c r="L7" s="162"/>
+      <c r="M7" s="162"/>
+      <c r="N7" s="162"/>
+      <c r="O7" s="162"/>
+      <c r="P7" s="162"/>
+      <c r="Q7" s="162"/>
+      <c r="R7" s="145"/>
     </row>
     <row r="8">
-      <c r="A8" s="161" t="s">
+      <c r="A8" s="163" t="s">
         <v>175</v>
       </c>
-      <c r="B8" s="162">
+      <c r="B8" s="164">
         <v>54.5</v>
       </c>
-      <c r="C8" s="163">
+      <c r="C8" s="165">
         <v>68.0</v>
       </c>
-      <c r="D8" s="164"/>
-      <c r="E8" s="164"/>
-      <c r="F8" s="110">
+      <c r="D8" s="166"/>
+      <c r="E8" s="166"/>
+      <c r="F8" s="167">
         <v>78.75</v>
       </c>
-      <c r="G8" s="164"/>
-      <c r="H8" s="164"/>
-      <c r="I8" s="164"/>
-      <c r="J8" s="164"/>
-      <c r="K8" s="165"/>
-      <c r="L8" s="165"/>
-      <c r="M8" s="165"/>
-      <c r="N8" s="165"/>
-      <c r="O8" s="165"/>
-      <c r="P8" s="165"/>
-      <c r="Q8" s="165"/>
-      <c r="R8" s="143"/>
+      <c r="G8" s="168">
+        <v>92.25</v>
+      </c>
+      <c r="H8" s="166"/>
+      <c r="I8" s="166"/>
+      <c r="J8" s="166"/>
+      <c r="K8" s="169"/>
+      <c r="L8" s="169"/>
+      <c r="M8" s="169"/>
+      <c r="N8" s="169"/>
+      <c r="O8" s="169"/>
+      <c r="P8" s="169"/>
+      <c r="Q8" s="169"/>
+      <c r="R8" s="145"/>
     </row>
     <row r="9">
-      <c r="A9" s="166"/>
-      <c r="B9" s="167"/>
-      <c r="C9" s="167"/>
-      <c r="D9" s="167"/>
-      <c r="E9" s="167"/>
-      <c r="F9" s="167"/>
-      <c r="G9" s="167"/>
-      <c r="H9" s="167"/>
-      <c r="I9" s="167"/>
-      <c r="J9" s="167"/>
-      <c r="K9" s="167"/>
-      <c r="L9" s="167"/>
-      <c r="M9" s="167"/>
-      <c r="N9" s="167"/>
-      <c r="O9" s="167"/>
-      <c r="P9" s="167"/>
-      <c r="Q9" s="167"/>
-      <c r="R9" s="143"/>
+      <c r="A9" s="170"/>
+      <c r="B9" s="171"/>
+      <c r="C9" s="171"/>
+      <c r="D9" s="171"/>
+      <c r="E9" s="171"/>
+      <c r="F9" s="171"/>
+      <c r="G9" s="172"/>
+      <c r="H9" s="171"/>
+      <c r="I9" s="171"/>
+      <c r="J9" s="171"/>
+      <c r="K9" s="171"/>
+      <c r="L9" s="171"/>
+      <c r="M9" s="171"/>
+      <c r="N9" s="171"/>
+      <c r="O9" s="171"/>
+      <c r="P9" s="171"/>
+      <c r="Q9" s="171"/>
+      <c r="R9" s="145"/>
     </row>
     <row r="10">
-      <c r="A10" s="168"/>
-      <c r="B10" s="143"/>
-      <c r="C10" s="143"/>
-      <c r="D10" s="143"/>
-      <c r="E10" s="143"/>
-      <c r="F10" s="143"/>
-      <c r="G10" s="143"/>
-      <c r="H10" s="143"/>
-      <c r="I10" s="143"/>
-      <c r="J10" s="143"/>
-      <c r="K10" s="143"/>
-      <c r="L10" s="143"/>
-      <c r="M10" s="143"/>
-      <c r="N10" s="143"/>
-      <c r="O10" s="143"/>
-      <c r="P10" s="143"/>
-      <c r="Q10" s="143"/>
-      <c r="R10" s="143"/>
+      <c r="A10" s="173"/>
+      <c r="B10" s="145"/>
+      <c r="C10" s="145"/>
+      <c r="D10" s="145"/>
+      <c r="E10" s="145"/>
+      <c r="F10" s="145"/>
+      <c r="G10" s="145"/>
+      <c r="H10" s="145"/>
+      <c r="I10" s="145"/>
+      <c r="J10" s="145"/>
+      <c r="K10" s="145"/>
+      <c r="L10" s="145"/>
+      <c r="M10" s="145"/>
+      <c r="N10" s="145"/>
+      <c r="O10" s="145"/>
+      <c r="P10" s="145"/>
+      <c r="Q10" s="145"/>
+      <c r="R10" s="145"/>
     </row>
     <row r="11">
-      <c r="A11" s="168"/>
-      <c r="B11" s="143"/>
-      <c r="C11" s="143"/>
-      <c r="D11" s="143"/>
-      <c r="E11" s="143"/>
-      <c r="F11" s="143"/>
-      <c r="G11" s="143"/>
-      <c r="H11" s="143"/>
-      <c r="I11" s="143"/>
-      <c r="J11" s="143"/>
-      <c r="K11" s="143"/>
-      <c r="L11" s="143"/>
-      <c r="M11" s="143"/>
-      <c r="N11" s="143"/>
-      <c r="O11" s="143"/>
-      <c r="P11" s="143"/>
-      <c r="Q11" s="143"/>
-      <c r="R11" s="143"/>
+      <c r="A11" s="173"/>
+      <c r="B11" s="145"/>
+      <c r="C11" s="145"/>
+      <c r="D11" s="145"/>
+      <c r="E11" s="145"/>
+      <c r="F11" s="145"/>
+      <c r="G11" s="145"/>
+      <c r="H11" s="145"/>
+      <c r="I11" s="145"/>
+      <c r="J11" s="145"/>
+      <c r="K11" s="145"/>
+      <c r="L11" s="145"/>
+      <c r="M11" s="145"/>
+      <c r="N11" s="145"/>
+      <c r="O11" s="145"/>
+      <c r="P11" s="145"/>
+      <c r="Q11" s="145"/>
+      <c r="R11" s="145"/>
     </row>
     <row r="12">
-      <c r="A12" s="168"/>
-      <c r="B12" s="143"/>
-      <c r="C12" s="143"/>
-      <c r="D12" s="143"/>
-      <c r="E12" s="143"/>
-      <c r="F12" s="143"/>
-      <c r="G12" s="143"/>
-      <c r="H12" s="143"/>
-      <c r="I12" s="143"/>
-      <c r="J12" s="143"/>
-      <c r="K12" s="143"/>
-      <c r="L12" s="143"/>
-      <c r="M12" s="143"/>
-      <c r="N12" s="143"/>
-      <c r="O12" s="143"/>
-      <c r="P12" s="143"/>
-      <c r="Q12" s="143"/>
-      <c r="R12" s="143"/>
+      <c r="A12" s="173"/>
+      <c r="B12" s="145"/>
+      <c r="C12" s="145"/>
+      <c r="D12" s="145"/>
+      <c r="E12" s="145"/>
+      <c r="F12" s="145"/>
+      <c r="G12" s="145"/>
+      <c r="H12" s="145"/>
+      <c r="I12" s="145"/>
+      <c r="J12" s="145"/>
+      <c r="K12" s="145"/>
+      <c r="L12" s="145"/>
+      <c r="M12" s="145"/>
+      <c r="N12" s="145"/>
+      <c r="O12" s="145"/>
+      <c r="P12" s="145"/>
+      <c r="Q12" s="145"/>
+      <c r="R12" s="145"/>
     </row>
     <row r="13">
-      <c r="A13" s="168"/>
-      <c r="B13" s="143"/>
-      <c r="C13" s="143"/>
-      <c r="D13" s="143"/>
-      <c r="E13" s="143"/>
-      <c r="F13" s="143"/>
-      <c r="G13" s="143"/>
-      <c r="H13" s="143"/>
-      <c r="I13" s="143"/>
-      <c r="J13" s="143"/>
-      <c r="K13" s="143"/>
-      <c r="L13" s="143"/>
-      <c r="M13" s="143"/>
-      <c r="N13" s="143"/>
-      <c r="O13" s="143"/>
-      <c r="P13" s="143"/>
-      <c r="Q13" s="143"/>
-      <c r="R13" s="143"/>
+      <c r="A13" s="173"/>
+      <c r="B13" s="145"/>
+      <c r="C13" s="145"/>
+      <c r="D13" s="145"/>
+      <c r="E13" s="145"/>
+      <c r="F13" s="145"/>
+      <c r="G13" s="145"/>
+      <c r="H13" s="145"/>
+      <c r="I13" s="145"/>
+      <c r="J13" s="145"/>
+      <c r="K13" s="145"/>
+      <c r="L13" s="145"/>
+      <c r="M13" s="145"/>
+      <c r="N13" s="145"/>
+      <c r="O13" s="145"/>
+      <c r="P13" s="145"/>
+      <c r="Q13" s="145"/>
+      <c r="R13" s="145"/>
     </row>
     <row r="14">
-      <c r="A14" s="168"/>
-      <c r="B14" s="143"/>
-      <c r="C14" s="143"/>
-      <c r="D14" s="143"/>
-      <c r="E14" s="143"/>
-      <c r="F14" s="143"/>
-      <c r="G14" s="143"/>
-      <c r="H14" s="143"/>
-      <c r="I14" s="143"/>
-      <c r="J14" s="143"/>
-      <c r="K14" s="143"/>
-      <c r="L14" s="143"/>
-      <c r="M14" s="143"/>
-      <c r="N14" s="143"/>
-      <c r="O14" s="143"/>
-      <c r="P14" s="143"/>
-      <c r="Q14" s="143"/>
-      <c r="R14" s="143"/>
-      <c r="S14" s="143"/>
-      <c r="T14" s="143"/>
-      <c r="U14" s="143"/>
+      <c r="A14" s="173"/>
+      <c r="B14" s="145"/>
+      <c r="C14" s="145"/>
+      <c r="D14" s="145"/>
+      <c r="E14" s="145"/>
+      <c r="F14" s="145"/>
+      <c r="G14" s="145"/>
+      <c r="H14" s="145"/>
+      <c r="I14" s="145"/>
+      <c r="J14" s="145"/>
+      <c r="K14" s="145"/>
+      <c r="L14" s="145"/>
+      <c r="M14" s="145"/>
+      <c r="N14" s="145"/>
+      <c r="O14" s="145"/>
+      <c r="P14" s="145"/>
+      <c r="Q14" s="145"/>
+      <c r="R14" s="145"/>
+      <c r="S14" s="145"/>
+      <c r="T14" s="145"/>
+      <c r="U14" s="145"/>
     </row>
     <row r="15">
-      <c r="A15" s="168"/>
-      <c r="B15" s="143"/>
-      <c r="C15" s="143"/>
-      <c r="D15" s="143"/>
-      <c r="E15" s="143"/>
-      <c r="F15" s="143"/>
-      <c r="G15" s="143"/>
-      <c r="H15" s="143"/>
-      <c r="I15" s="143"/>
-      <c r="J15" s="143"/>
-      <c r="K15" s="143"/>
-      <c r="L15" s="143"/>
-      <c r="M15" s="143"/>
-      <c r="N15" s="143"/>
-      <c r="O15" s="143"/>
-      <c r="P15" s="143"/>
-      <c r="Q15" s="143"/>
-      <c r="R15" s="143"/>
-      <c r="S15" s="143"/>
-      <c r="T15" s="143"/>
+      <c r="A15" s="173"/>
+      <c r="B15" s="145"/>
+      <c r="C15" s="145"/>
+      <c r="D15" s="145"/>
+      <c r="E15" s="145"/>
+      <c r="F15" s="145"/>
+      <c r="G15" s="145"/>
+      <c r="H15" s="145"/>
+      <c r="I15" s="145"/>
+      <c r="J15" s="145"/>
+      <c r="K15" s="145"/>
+      <c r="L15" s="145"/>
+      <c r="M15" s="145"/>
+      <c r="N15" s="145"/>
+      <c r="O15" s="145"/>
+      <c r="P15" s="145"/>
+      <c r="Q15" s="145"/>
+      <c r="R15" s="145"/>
+      <c r="S15" s="145"/>
+      <c r="T15" s="145"/>
     </row>
     <row r="16">
-      <c r="A16" s="168"/>
-      <c r="B16" s="143"/>
-      <c r="C16" s="143"/>
-      <c r="D16" s="143"/>
-      <c r="E16" s="143"/>
-      <c r="F16" s="143"/>
-      <c r="G16" s="143"/>
-      <c r="H16" s="143"/>
-      <c r="I16" s="143"/>
-      <c r="J16" s="143"/>
-      <c r="K16" s="143"/>
-      <c r="L16" s="143"/>
-      <c r="M16" s="143"/>
-      <c r="N16" s="143"/>
-      <c r="O16" s="143"/>
-      <c r="P16" s="143"/>
-      <c r="Q16" s="143"/>
-      <c r="R16" s="143"/>
-      <c r="S16" s="143"/>
-      <c r="T16" s="143"/>
-      <c r="U16" s="143"/>
+      <c r="A16" s="173"/>
+      <c r="B16" s="145"/>
+      <c r="C16" s="145"/>
+      <c r="D16" s="145"/>
+      <c r="E16" s="145"/>
+      <c r="F16" s="145"/>
+      <c r="G16" s="145"/>
+      <c r="H16" s="145"/>
+      <c r="I16" s="145"/>
+      <c r="J16" s="145"/>
+      <c r="K16" s="145"/>
+      <c r="L16" s="145"/>
+      <c r="M16" s="145"/>
+      <c r="N16" s="145"/>
+      <c r="O16" s="145"/>
+      <c r="P16" s="145"/>
+      <c r="Q16" s="145"/>
+      <c r="R16" s="145"/>
+      <c r="S16" s="145"/>
+      <c r="T16" s="145"/>
+      <c r="U16" s="145"/>
     </row>
     <row r="17">
-      <c r="A17" s="168"/>
-      <c r="B17" s="143"/>
-      <c r="C17" s="143"/>
-      <c r="D17" s="143"/>
-      <c r="E17" s="143"/>
-      <c r="F17" s="143"/>
-      <c r="G17" s="143"/>
-      <c r="H17" s="143"/>
-      <c r="I17" s="143"/>
-      <c r="J17" s="143"/>
-      <c r="K17" s="143"/>
-      <c r="L17" s="143"/>
-      <c r="M17" s="143"/>
-      <c r="N17" s="143"/>
-      <c r="O17" s="143"/>
-      <c r="P17" s="143"/>
-      <c r="Q17" s="143"/>
-      <c r="R17" s="143"/>
+      <c r="A17" s="173"/>
+      <c r="B17" s="145"/>
+      <c r="C17" s="145"/>
+      <c r="D17" s="145"/>
+      <c r="E17" s="145"/>
+      <c r="F17" s="145"/>
+      <c r="G17" s="145"/>
+      <c r="H17" s="145"/>
+      <c r="I17" s="145"/>
+      <c r="J17" s="145"/>
+      <c r="K17" s="145"/>
+      <c r="L17" s="145"/>
+      <c r="M17" s="145"/>
+      <c r="N17" s="145"/>
+      <c r="O17" s="145"/>
+      <c r="P17" s="145"/>
+      <c r="Q17" s="145"/>
+      <c r="R17" s="145"/>
     </row>
     <row r="18">
-      <c r="A18" s="168"/>
-      <c r="B18" s="143"/>
-      <c r="C18" s="143"/>
-      <c r="D18" s="143"/>
-      <c r="E18" s="143"/>
-      <c r="F18" s="143"/>
-      <c r="G18" s="143"/>
-      <c r="H18" s="143"/>
-      <c r="I18" s="143"/>
-      <c r="J18" s="143"/>
-      <c r="K18" s="143"/>
-      <c r="L18" s="143"/>
-      <c r="M18" s="143"/>
-      <c r="N18" s="143"/>
-      <c r="O18" s="143"/>
-      <c r="P18" s="143"/>
-      <c r="Q18" s="143"/>
-      <c r="R18" s="143"/>
-      <c r="S18" s="143"/>
+      <c r="A18" s="173"/>
+      <c r="B18" s="145"/>
+      <c r="C18" s="145"/>
+      <c r="D18" s="145"/>
+      <c r="E18" s="145"/>
+      <c r="F18" s="145"/>
+      <c r="G18" s="145"/>
+      <c r="H18" s="145"/>
+      <c r="I18" s="145"/>
+      <c r="J18" s="145"/>
+      <c r="K18" s="145"/>
+      <c r="L18" s="145"/>
+      <c r="M18" s="145"/>
+      <c r="N18" s="145"/>
+      <c r="O18" s="145"/>
+      <c r="P18" s="145"/>
+      <c r="Q18" s="145"/>
+      <c r="R18" s="145"/>
+      <c r="S18" s="145"/>
     </row>
     <row r="19">
-      <c r="A19" s="168"/>
-      <c r="B19" s="143"/>
-      <c r="C19" s="143"/>
-      <c r="D19" s="143"/>
-      <c r="E19" s="143"/>
-      <c r="F19" s="143"/>
-      <c r="G19" s="143"/>
-      <c r="H19" s="143"/>
-      <c r="I19" s="143"/>
-      <c r="J19" s="143"/>
-      <c r="K19" s="143"/>
-      <c r="L19" s="143"/>
-      <c r="M19" s="143"/>
-      <c r="N19" s="143"/>
-      <c r="O19" s="143"/>
-      <c r="P19" s="143"/>
-      <c r="Q19" s="143"/>
-      <c r="R19" s="143"/>
-      <c r="S19" s="143"/>
+      <c r="A19" s="173"/>
+      <c r="B19" s="145"/>
+      <c r="C19" s="145"/>
+      <c r="D19" s="145"/>
+      <c r="E19" s="145"/>
+      <c r="F19" s="145"/>
+      <c r="G19" s="145"/>
+      <c r="H19" s="145"/>
+      <c r="I19" s="145"/>
+      <c r="J19" s="145"/>
+      <c r="K19" s="145"/>
+      <c r="L19" s="145"/>
+      <c r="M19" s="145"/>
+      <c r="N19" s="145"/>
+      <c r="O19" s="145"/>
+      <c r="P19" s="145"/>
+      <c r="Q19" s="145"/>
+      <c r="R19" s="145"/>
+      <c r="S19" s="145"/>
     </row>
     <row r="20">
-      <c r="A20" s="168"/>
-      <c r="B20" s="143"/>
-      <c r="C20" s="143"/>
-      <c r="D20" s="143"/>
-      <c r="E20" s="143"/>
-      <c r="F20" s="143"/>
-      <c r="G20" s="143"/>
-      <c r="H20" s="143"/>
-      <c r="I20" s="143"/>
-      <c r="J20" s="143"/>
-      <c r="K20" s="143"/>
-      <c r="L20" s="143"/>
-      <c r="M20" s="143"/>
-      <c r="N20" s="143"/>
-      <c r="O20" s="143"/>
-      <c r="P20" s="143"/>
-      <c r="Q20" s="143"/>
-      <c r="R20" s="143"/>
+      <c r="A20" s="173"/>
+      <c r="B20" s="145"/>
+      <c r="C20" s="145"/>
+      <c r="D20" s="145"/>
+      <c r="E20" s="145"/>
+      <c r="F20" s="145"/>
+      <c r="G20" s="145"/>
+      <c r="H20" s="145"/>
+      <c r="I20" s="145"/>
+      <c r="J20" s="145"/>
+      <c r="K20" s="145"/>
+      <c r="L20" s="145"/>
+      <c r="M20" s="145"/>
+      <c r="N20" s="145"/>
+      <c r="O20" s="145"/>
+      <c r="P20" s="145"/>
+      <c r="Q20" s="145"/>
+      <c r="R20" s="145"/>
     </row>
     <row r="21">
-      <c r="A21" s="168"/>
-      <c r="B21" s="143"/>
-      <c r="C21" s="143"/>
-      <c r="D21" s="143"/>
-      <c r="E21" s="143"/>
-      <c r="F21" s="143"/>
-      <c r="G21" s="143"/>
-      <c r="H21" s="143"/>
-      <c r="I21" s="143"/>
-      <c r="J21" s="143"/>
-      <c r="K21" s="143"/>
-      <c r="L21" s="143"/>
-      <c r="M21" s="143"/>
-      <c r="N21" s="143"/>
-      <c r="O21" s="143"/>
-      <c r="P21" s="143"/>
-      <c r="Q21" s="143"/>
-      <c r="R21" s="143"/>
+      <c r="A21" s="173"/>
+      <c r="B21" s="145"/>
+      <c r="C21" s="145"/>
+      <c r="D21" s="145"/>
+      <c r="E21" s="145"/>
+      <c r="F21" s="145"/>
+      <c r="G21" s="145"/>
+      <c r="H21" s="145"/>
+      <c r="I21" s="145"/>
+      <c r="J21" s="145"/>
+      <c r="K21" s="145"/>
+      <c r="L21" s="145"/>
+      <c r="M21" s="145"/>
+      <c r="N21" s="145"/>
+      <c r="O21" s="145"/>
+      <c r="P21" s="145"/>
+      <c r="Q21" s="145"/>
+      <c r="R21" s="145"/>
     </row>
     <row r="22">
-      <c r="A22" s="168"/>
-      <c r="B22" s="143"/>
-      <c r="C22" s="143"/>
-      <c r="D22" s="143"/>
-      <c r="E22" s="143"/>
-      <c r="F22" s="143"/>
-      <c r="G22" s="143"/>
-      <c r="H22" s="143"/>
-      <c r="I22" s="143"/>
-      <c r="J22" s="143"/>
-      <c r="K22" s="143"/>
-      <c r="L22" s="143"/>
-      <c r="M22" s="143"/>
-      <c r="N22" s="143"/>
-      <c r="O22" s="143"/>
-      <c r="P22" s="143"/>
-      <c r="Q22" s="143"/>
-      <c r="R22" s="143"/>
+      <c r="A22" s="173"/>
+      <c r="B22" s="145"/>
+      <c r="C22" s="145"/>
+      <c r="D22" s="145"/>
+      <c r="E22" s="145"/>
+      <c r="F22" s="145"/>
+      <c r="G22" s="145"/>
+      <c r="H22" s="145"/>
+      <c r="I22" s="145"/>
+      <c r="J22" s="145"/>
+      <c r="K22" s="145"/>
+      <c r="L22" s="145"/>
+      <c r="M22" s="145"/>
+      <c r="N22" s="145"/>
+      <c r="O22" s="145"/>
+      <c r="P22" s="145"/>
+      <c r="Q22" s="145"/>
+      <c r="R22" s="145"/>
     </row>
     <row r="23">
-      <c r="A23" s="168"/>
-      <c r="B23" s="143"/>
-      <c r="C23" s="143"/>
-      <c r="D23" s="143"/>
-      <c r="E23" s="143"/>
-      <c r="F23" s="143"/>
-      <c r="G23" s="143"/>
-      <c r="H23" s="143"/>
-      <c r="I23" s="143"/>
-      <c r="J23" s="143"/>
-      <c r="K23" s="143"/>
-      <c r="L23" s="143"/>
-      <c r="M23" s="143"/>
-      <c r="N23" s="143"/>
-      <c r="O23" s="143"/>
-      <c r="P23" s="143"/>
-      <c r="Q23" s="143"/>
-      <c r="R23" s="143"/>
+      <c r="A23" s="173"/>
+      <c r="B23" s="145"/>
+      <c r="C23" s="145"/>
+      <c r="D23" s="145"/>
+      <c r="E23" s="145"/>
+      <c r="F23" s="145"/>
+      <c r="G23" s="145"/>
+      <c r="H23" s="145"/>
+      <c r="I23" s="145"/>
+      <c r="J23" s="145"/>
+      <c r="K23" s="145"/>
+      <c r="L23" s="145"/>
+      <c r="M23" s="145"/>
+      <c r="N23" s="145"/>
+      <c r="O23" s="145"/>
+      <c r="P23" s="145"/>
+      <c r="Q23" s="145"/>
+      <c r="R23" s="145"/>
     </row>
     <row r="24">
-      <c r="A24" s="168"/>
-      <c r="B24" s="143"/>
-      <c r="C24" s="143"/>
-      <c r="D24" s="143"/>
-      <c r="E24" s="143"/>
-      <c r="F24" s="143"/>
-      <c r="G24" s="143"/>
-      <c r="H24" s="143"/>
-      <c r="I24" s="143"/>
-      <c r="J24" s="143"/>
-      <c r="K24" s="143"/>
-      <c r="L24" s="143"/>
-      <c r="M24" s="143"/>
-      <c r="N24" s="143"/>
-      <c r="O24" s="143"/>
-      <c r="P24" s="143"/>
-      <c r="Q24" s="143"/>
-      <c r="R24" s="143"/>
+      <c r="A24" s="173"/>
+      <c r="B24" s="145"/>
+      <c r="C24" s="145"/>
+      <c r="D24" s="145"/>
+      <c r="E24" s="145"/>
+      <c r="F24" s="145"/>
+      <c r="G24" s="145"/>
+      <c r="H24" s="145"/>
+      <c r="I24" s="145"/>
+      <c r="J24" s="145"/>
+      <c r="K24" s="145"/>
+      <c r="L24" s="145"/>
+      <c r="M24" s="145"/>
+      <c r="N24" s="145"/>
+      <c r="O24" s="145"/>
+      <c r="P24" s="145"/>
+      <c r="Q24" s="145"/>
+      <c r="R24" s="145"/>
     </row>
     <row r="25">
-      <c r="A25" s="168"/>
-      <c r="B25" s="143"/>
-      <c r="C25" s="143"/>
-      <c r="D25" s="143"/>
-      <c r="E25" s="143"/>
-      <c r="F25" s="143"/>
-      <c r="G25" s="143"/>
-      <c r="H25" s="143"/>
-      <c r="I25" s="143"/>
-      <c r="J25" s="143"/>
-      <c r="K25" s="143"/>
-      <c r="L25" s="143"/>
-      <c r="M25" s="143"/>
-      <c r="N25" s="143"/>
-      <c r="O25" s="143"/>
-      <c r="P25" s="143"/>
-      <c r="Q25" s="143"/>
-      <c r="R25" s="143"/>
+      <c r="A25" s="173"/>
+      <c r="B25" s="145"/>
+      <c r="C25" s="145"/>
+      <c r="D25" s="145"/>
+      <c r="E25" s="145"/>
+      <c r="F25" s="145"/>
+      <c r="G25" s="145"/>
+      <c r="H25" s="145"/>
+      <c r="I25" s="145"/>
+      <c r="J25" s="145"/>
+      <c r="K25" s="145"/>
+      <c r="L25" s="145"/>
+      <c r="M25" s="145"/>
+      <c r="N25" s="145"/>
+      <c r="O25" s="145"/>
+      <c r="P25" s="145"/>
+      <c r="Q25" s="145"/>
+      <c r="R25" s="145"/>
     </row>
     <row r="26">
-      <c r="A26" s="168"/>
-      <c r="B26" s="143"/>
-      <c r="C26" s="143"/>
-      <c r="D26" s="143"/>
-      <c r="E26" s="143"/>
-      <c r="F26" s="143"/>
-      <c r="G26" s="143"/>
-      <c r="H26" s="143"/>
-      <c r="I26" s="143"/>
-      <c r="J26" s="143"/>
-      <c r="K26" s="143"/>
-      <c r="L26" s="143"/>
-      <c r="M26" s="143"/>
-      <c r="N26" s="143"/>
-      <c r="O26" s="143"/>
-      <c r="P26" s="143"/>
-      <c r="Q26" s="143"/>
-      <c r="R26" s="143"/>
+      <c r="A26" s="173"/>
+      <c r="B26" s="145"/>
+      <c r="C26" s="145"/>
+      <c r="D26" s="145"/>
+      <c r="E26" s="145"/>
+      <c r="F26" s="145"/>
+      <c r="G26" s="145"/>
+      <c r="H26" s="145"/>
+      <c r="I26" s="145"/>
+      <c r="J26" s="145"/>
+      <c r="K26" s="145"/>
+      <c r="L26" s="145"/>
+      <c r="M26" s="145"/>
+      <c r="N26" s="145"/>
+      <c r="O26" s="145"/>
+      <c r="P26" s="145"/>
+      <c r="Q26" s="145"/>
+      <c r="R26" s="145"/>
     </row>
     <row r="27">
-      <c r="A27" s="168"/>
-      <c r="B27" s="143"/>
-      <c r="C27" s="143"/>
-      <c r="D27" s="143"/>
-      <c r="E27" s="143"/>
-      <c r="F27" s="143"/>
-      <c r="G27" s="143"/>
-      <c r="H27" s="143"/>
-      <c r="I27" s="143"/>
-      <c r="J27" s="143"/>
-      <c r="K27" s="143"/>
-      <c r="L27" s="143"/>
-      <c r="M27" s="143"/>
-      <c r="N27" s="143"/>
-      <c r="O27" s="143"/>
-      <c r="P27" s="143"/>
-      <c r="Q27" s="143"/>
-      <c r="R27" s="143"/>
+      <c r="A27" s="173"/>
+      <c r="B27" s="145"/>
+      <c r="C27" s="145"/>
+      <c r="D27" s="145"/>
+      <c r="E27" s="145"/>
+      <c r="F27" s="145"/>
+      <c r="G27" s="145"/>
+      <c r="H27" s="145"/>
+      <c r="I27" s="145"/>
+      <c r="J27" s="145"/>
+      <c r="K27" s="145"/>
+      <c r="L27" s="145"/>
+      <c r="M27" s="145"/>
+      <c r="N27" s="145"/>
+      <c r="O27" s="145"/>
+      <c r="P27" s="145"/>
+      <c r="Q27" s="145"/>
+      <c r="R27" s="145"/>
     </row>
     <row r="28">
-      <c r="A28" s="168"/>
-      <c r="B28" s="143"/>
-      <c r="C28" s="143"/>
-      <c r="D28" s="143"/>
-      <c r="E28" s="143"/>
-      <c r="F28" s="143"/>
-      <c r="G28" s="143"/>
-      <c r="H28" s="143"/>
-      <c r="I28" s="143"/>
-      <c r="J28" s="143"/>
-      <c r="K28" s="143"/>
-      <c r="L28" s="143"/>
-      <c r="M28" s="143"/>
-      <c r="N28" s="143"/>
-      <c r="O28" s="143"/>
-      <c r="P28" s="143"/>
-      <c r="Q28" s="143"/>
-      <c r="R28" s="143"/>
+      <c r="A28" s="173"/>
+      <c r="B28" s="145"/>
+      <c r="C28" s="145"/>
+      <c r="D28" s="145"/>
+      <c r="E28" s="145"/>
+      <c r="F28" s="145"/>
+      <c r="G28" s="145"/>
+      <c r="H28" s="145"/>
+      <c r="I28" s="145"/>
+      <c r="J28" s="145"/>
+      <c r="K28" s="145"/>
+      <c r="L28" s="145"/>
+      <c r="M28" s="145"/>
+      <c r="N28" s="145"/>
+      <c r="O28" s="145"/>
+      <c r="P28" s="145"/>
+      <c r="Q28" s="145"/>
+      <c r="R28" s="145"/>
     </row>
     <row r="29">
-      <c r="A29" s="168"/>
-      <c r="B29" s="143"/>
-      <c r="C29" s="143"/>
-      <c r="D29" s="143"/>
-      <c r="E29" s="143"/>
-      <c r="F29" s="143"/>
-      <c r="G29" s="143"/>
-      <c r="H29" s="143"/>
-      <c r="I29" s="143"/>
-      <c r="J29" s="143"/>
-      <c r="K29" s="143"/>
-      <c r="L29" s="143"/>
-      <c r="M29" s="143"/>
-      <c r="N29" s="143"/>
-      <c r="O29" s="143"/>
-      <c r="P29" s="143"/>
-      <c r="Q29" s="143"/>
-      <c r="R29" s="143"/>
+      <c r="A29" s="173"/>
+      <c r="B29" s="145"/>
+      <c r="C29" s="145"/>
+      <c r="D29" s="145"/>
+      <c r="E29" s="145"/>
+      <c r="F29" s="145"/>
+      <c r="G29" s="145"/>
+      <c r="H29" s="145"/>
+      <c r="I29" s="145"/>
+      <c r="J29" s="145"/>
+      <c r="K29" s="145"/>
+      <c r="L29" s="145"/>
+      <c r="M29" s="145"/>
+      <c r="N29" s="145"/>
+      <c r="O29" s="145"/>
+      <c r="P29" s="145"/>
+      <c r="Q29" s="145"/>
+      <c r="R29" s="145"/>
     </row>
     <row r="30">
-      <c r="A30" s="168"/>
-      <c r="B30" s="143"/>
-      <c r="C30" s="143"/>
-      <c r="D30" s="143"/>
-      <c r="E30" s="143"/>
-      <c r="F30" s="143"/>
-      <c r="G30" s="143"/>
-      <c r="H30" s="143"/>
-      <c r="I30" s="143"/>
-      <c r="J30" s="143"/>
-      <c r="K30" s="143"/>
-      <c r="L30" s="143"/>
-      <c r="M30" s="143"/>
-      <c r="N30" s="143"/>
-      <c r="O30" s="143"/>
-      <c r="P30" s="143"/>
-      <c r="Q30" s="143"/>
-      <c r="R30" s="143"/>
+      <c r="A30" s="173"/>
+      <c r="B30" s="145"/>
+      <c r="C30" s="145"/>
+      <c r="D30" s="145"/>
+      <c r="E30" s="145"/>
+      <c r="F30" s="145"/>
+      <c r="G30" s="145"/>
+      <c r="H30" s="145"/>
+      <c r="I30" s="145"/>
+      <c r="J30" s="145"/>
+      <c r="K30" s="145"/>
+      <c r="L30" s="145"/>
+      <c r="M30" s="145"/>
+      <c r="N30" s="145"/>
+      <c r="O30" s="145"/>
+      <c r="P30" s="145"/>
+      <c r="Q30" s="145"/>
+      <c r="R30" s="145"/>
     </row>
     <row r="31">
-      <c r="A31" s="143"/>
-      <c r="B31" s="143"/>
-      <c r="C31" s="143"/>
-      <c r="D31" s="143"/>
-      <c r="E31" s="143"/>
-      <c r="F31" s="143"/>
-      <c r="G31" s="143"/>
-      <c r="H31" s="143"/>
-      <c r="I31" s="143"/>
-      <c r="J31" s="143"/>
-      <c r="K31" s="143"/>
-      <c r="L31" s="143"/>
-      <c r="M31" s="143"/>
-      <c r="N31" s="143"/>
-      <c r="O31" s="143"/>
-      <c r="P31" s="143"/>
-      <c r="Q31" s="143"/>
-      <c r="R31" s="143"/>
+      <c r="A31" s="145"/>
+      <c r="B31" s="145"/>
+      <c r="C31" s="145"/>
+      <c r="D31" s="145"/>
+      <c r="E31" s="145"/>
+      <c r="F31" s="145"/>
+      <c r="G31" s="145"/>
+      <c r="H31" s="145"/>
+      <c r="I31" s="145"/>
+      <c r="J31" s="145"/>
+      <c r="K31" s="145"/>
+      <c r="L31" s="145"/>
+      <c r="M31" s="145"/>
+      <c r="N31" s="145"/>
+      <c r="O31" s="145"/>
+      <c r="P31" s="145"/>
+      <c r="Q31" s="145"/>
+      <c r="R31" s="145"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/doc/進捗管理表_D3.xlsx
+++ b/doc/進捗管理表_D3.xlsx
@@ -562,7 +562,7 @@
     <numFmt numFmtId="166" formatCode="m/d"/>
     <numFmt numFmtId="167" formatCode="0.0"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="19">
     <font>
       <sz val="10.0"/>
       <color theme="1"/>
@@ -642,6 +642,14 @@
       <sz val="8.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <color rgb="FF3266D5"/>
+      <name val="Inconsolata"/>
+    </font>
+    <font>
+      <color rgb="FF000000"/>
+      <name val="Roboto"/>
     </font>
   </fonts>
   <fills count="19">
@@ -1117,7 +1125,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="174">
+  <cellXfs count="176">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
@@ -1625,6 +1633,9 @@
     <xf borderId="7" fillId="9" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
+    <xf borderId="7" fillId="9" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="0"/>
+    </xf>
     <xf borderId="38" fillId="9" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
@@ -1636,6 +1647,9 @@
     </xf>
     <xf borderId="3" fillId="9" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="9" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="39" fillId="9" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
@@ -5522,13 +5536,13 @@
         <v>45098.0</v>
       </c>
       <c r="P50" s="54" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="Q50" s="8"/>
       <c r="R50" s="45"/>
       <c r="S50" s="58">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="T50" s="34"/>
       <c r="U50" s="89">
@@ -5536,7 +5550,7 @@
       </c>
       <c r="V50" s="48">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="W50" s="49"/>
       <c r="X50" s="50"/>
@@ -5594,13 +5608,13 @@
         <v>45099.0</v>
       </c>
       <c r="P51" s="54" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="Q51" s="8"/>
       <c r="R51" s="45"/>
       <c r="S51" s="58">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="T51" s="34"/>
       <c r="U51" s="89">
@@ -5608,7 +5622,7 @@
       </c>
       <c r="V51" s="48">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W51" s="49"/>
       <c r="X51" s="50"/>
@@ -6490,13 +6504,13 @@
       <c r="N64" s="48"/>
       <c r="O64" s="48"/>
       <c r="P64" s="54" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="Q64" s="8"/>
       <c r="R64" s="45"/>
       <c r="S64" s="58">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="T64" s="34"/>
       <c r="U64" s="55">
@@ -6504,7 +6518,7 @@
       </c>
       <c r="V64" s="48">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="W64" s="104"/>
       <c r="X64" s="104"/>
@@ -6626,13 +6640,13 @@
       <c r="N66" s="48"/>
       <c r="O66" s="48"/>
       <c r="P66" s="54" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="Q66" s="8"/>
       <c r="R66" s="45"/>
       <c r="S66" s="58">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="T66" s="87" t="s">
         <v>83</v>
@@ -6642,7 +6656,7 @@
       </c>
       <c r="V66" s="48">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="W66" s="104"/>
       <c r="X66" s="104"/>
@@ -6696,13 +6710,13 @@
       <c r="N67" s="48"/>
       <c r="O67" s="48"/>
       <c r="P67" s="54" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="Q67" s="8"/>
       <c r="R67" s="45"/>
       <c r="S67" s="58">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="T67" s="34"/>
       <c r="U67" s="55">
@@ -6710,7 +6724,7 @@
       </c>
       <c r="V67" s="48">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="W67" s="104"/>
       <c r="X67" s="104"/>
@@ -6764,13 +6778,13 @@
       <c r="N68" s="48"/>
       <c r="O68" s="48"/>
       <c r="P68" s="54" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="Q68" s="8"/>
       <c r="R68" s="45"/>
       <c r="S68" s="58">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="T68" s="41"/>
       <c r="U68" s="55">
@@ -6778,7 +6792,7 @@
       </c>
       <c r="V68" s="48">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="W68" s="104"/>
       <c r="X68" s="104"/>
@@ -6904,7 +6918,7 @@
       </c>
       <c r="V70" s="112">
         <f t="shared" si="3"/>
-        <v>94.25</v>
+        <v>107.25</v>
       </c>
       <c r="W70" s="104"/>
       <c r="X70" s="104"/>
@@ -58886,9 +58900,9 @@
     <mergeCell ref="F68:M68"/>
     <mergeCell ref="F69:M69"/>
     <mergeCell ref="F70:M70"/>
+    <mergeCell ref="F71:M71"/>
     <mergeCell ref="F72:M72"/>
     <mergeCell ref="F73:M73"/>
-    <mergeCell ref="F71:M71"/>
     <mergeCell ref="F74:M74"/>
     <mergeCell ref="F75:M75"/>
     <mergeCell ref="F76:M76"/>
@@ -59027,12 +59041,12 @@
     <mergeCell ref="P68:R68"/>
     <mergeCell ref="P69:R69"/>
     <mergeCell ref="P70:R70"/>
+    <mergeCell ref="P71:R71"/>
     <mergeCell ref="P72:R72"/>
     <mergeCell ref="P73:R73"/>
     <mergeCell ref="P74:R74"/>
     <mergeCell ref="P75:R75"/>
     <mergeCell ref="P76:R76"/>
-    <mergeCell ref="P71:R71"/>
     <mergeCell ref="P77:R77"/>
     <mergeCell ref="P78:R78"/>
     <mergeCell ref="P79:R79"/>
@@ -60029,7 +60043,7 @@
         <v>35</v>
       </c>
       <c r="H10" s="55" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="I10" s="55"/>
       <c r="J10" s="55"/>
@@ -68955,14 +68969,17 @@
         <v>0.5354330708661418</v>
       </c>
       <c r="F4" s="152">
-        <f t="shared" ref="F4:G4" si="2">F8/F6</f>
+        <f t="shared" ref="F4:H4" si="2">F8/F6</f>
         <v>0.6011450382</v>
       </c>
       <c r="G4" s="152">
         <f t="shared" si="2"/>
         <v>0.7041984733</v>
       </c>
-      <c r="H4" s="153"/>
+      <c r="H4" s="152">
+        <f t="shared" si="2"/>
+        <v>0.8187022901</v>
+      </c>
       <c r="I4" s="153"/>
       <c r="J4" s="153"/>
       <c r="K4" s="153"/>
@@ -69154,40 +69171,42 @@
       <c r="G8" s="168">
         <v>92.25</v>
       </c>
-      <c r="H8" s="166"/>
+      <c r="H8" s="169">
+        <v>107.25</v>
+      </c>
       <c r="I8" s="166"/>
       <c r="J8" s="166"/>
-      <c r="K8" s="169"/>
-      <c r="L8" s="169"/>
-      <c r="M8" s="169"/>
-      <c r="N8" s="169"/>
-      <c r="O8" s="169"/>
-      <c r="P8" s="169"/>
-      <c r="Q8" s="169"/>
+      <c r="K8" s="170"/>
+      <c r="L8" s="170"/>
+      <c r="M8" s="170"/>
+      <c r="N8" s="170"/>
+      <c r="O8" s="170"/>
+      <c r="P8" s="170"/>
+      <c r="Q8" s="170"/>
       <c r="R8" s="145"/>
     </row>
     <row r="9">
-      <c r="A9" s="170"/>
-      <c r="B9" s="171"/>
-      <c r="C9" s="171"/>
-      <c r="D9" s="171"/>
-      <c r="E9" s="171"/>
-      <c r="F9" s="171"/>
-      <c r="G9" s="172"/>
-      <c r="H9" s="171"/>
-      <c r="I9" s="171"/>
-      <c r="J9" s="171"/>
-      <c r="K9" s="171"/>
-      <c r="L9" s="171"/>
-      <c r="M9" s="171"/>
-      <c r="N9" s="171"/>
-      <c r="O9" s="171"/>
-      <c r="P9" s="171"/>
-      <c r="Q9" s="171"/>
+      <c r="A9" s="171"/>
+      <c r="B9" s="172"/>
+      <c r="C9" s="172"/>
+      <c r="D9" s="172"/>
+      <c r="E9" s="172"/>
+      <c r="F9" s="172"/>
+      <c r="G9" s="173"/>
+      <c r="H9" s="174"/>
+      <c r="I9" s="172"/>
+      <c r="J9" s="172"/>
+      <c r="K9" s="172"/>
+      <c r="L9" s="172"/>
+      <c r="M9" s="172"/>
+      <c r="N9" s="172"/>
+      <c r="O9" s="172"/>
+      <c r="P9" s="172"/>
+      <c r="Q9" s="172"/>
       <c r="R9" s="145"/>
     </row>
     <row r="10">
-      <c r="A10" s="173"/>
+      <c r="A10" s="175"/>
       <c r="B10" s="145"/>
       <c r="C10" s="145"/>
       <c r="D10" s="145"/>
@@ -69207,7 +69226,7 @@
       <c r="R10" s="145"/>
     </row>
     <row r="11">
-      <c r="A11" s="173"/>
+      <c r="A11" s="175"/>
       <c r="B11" s="145"/>
       <c r="C11" s="145"/>
       <c r="D11" s="145"/>
@@ -69227,7 +69246,7 @@
       <c r="R11" s="145"/>
     </row>
     <row r="12">
-      <c r="A12" s="173"/>
+      <c r="A12" s="175"/>
       <c r="B12" s="145"/>
       <c r="C12" s="145"/>
       <c r="D12" s="145"/>
@@ -69247,7 +69266,7 @@
       <c r="R12" s="145"/>
     </row>
     <row r="13">
-      <c r="A13" s="173"/>
+      <c r="A13" s="175"/>
       <c r="B13" s="145"/>
       <c r="C13" s="145"/>
       <c r="D13" s="145"/>
@@ -69267,7 +69286,7 @@
       <c r="R13" s="145"/>
     </row>
     <row r="14">
-      <c r="A14" s="173"/>
+      <c r="A14" s="175"/>
       <c r="B14" s="145"/>
       <c r="C14" s="145"/>
       <c r="D14" s="145"/>
@@ -69290,7 +69309,7 @@
       <c r="U14" s="145"/>
     </row>
     <row r="15">
-      <c r="A15" s="173"/>
+      <c r="A15" s="175"/>
       <c r="B15" s="145"/>
       <c r="C15" s="145"/>
       <c r="D15" s="145"/>
@@ -69312,7 +69331,7 @@
       <c r="T15" s="145"/>
     </row>
     <row r="16">
-      <c r="A16" s="173"/>
+      <c r="A16" s="175"/>
       <c r="B16" s="145"/>
       <c r="C16" s="145"/>
       <c r="D16" s="145"/>
@@ -69335,7 +69354,7 @@
       <c r="U16" s="145"/>
     </row>
     <row r="17">
-      <c r="A17" s="173"/>
+      <c r="A17" s="175"/>
       <c r="B17" s="145"/>
       <c r="C17" s="145"/>
       <c r="D17" s="145"/>
@@ -69355,7 +69374,7 @@
       <c r="R17" s="145"/>
     </row>
     <row r="18">
-      <c r="A18" s="173"/>
+      <c r="A18" s="175"/>
       <c r="B18" s="145"/>
       <c r="C18" s="145"/>
       <c r="D18" s="145"/>
@@ -69376,7 +69395,7 @@
       <c r="S18" s="145"/>
     </row>
     <row r="19">
-      <c r="A19" s="173"/>
+      <c r="A19" s="175"/>
       <c r="B19" s="145"/>
       <c r="C19" s="145"/>
       <c r="D19" s="145"/>
@@ -69397,7 +69416,7 @@
       <c r="S19" s="145"/>
     </row>
     <row r="20">
-      <c r="A20" s="173"/>
+      <c r="A20" s="175"/>
       <c r="B20" s="145"/>
       <c r="C20" s="145"/>
       <c r="D20" s="145"/>
@@ -69417,7 +69436,7 @@
       <c r="R20" s="145"/>
     </row>
     <row r="21">
-      <c r="A21" s="173"/>
+      <c r="A21" s="175"/>
       <c r="B21" s="145"/>
       <c r="C21" s="145"/>
       <c r="D21" s="145"/>
@@ -69437,7 +69456,7 @@
       <c r="R21" s="145"/>
     </row>
     <row r="22">
-      <c r="A22" s="173"/>
+      <c r="A22" s="175"/>
       <c r="B22" s="145"/>
       <c r="C22" s="145"/>
       <c r="D22" s="145"/>
@@ -69457,7 +69476,7 @@
       <c r="R22" s="145"/>
     </row>
     <row r="23">
-      <c r="A23" s="173"/>
+      <c r="A23" s="175"/>
       <c r="B23" s="145"/>
       <c r="C23" s="145"/>
       <c r="D23" s="145"/>
@@ -69477,7 +69496,7 @@
       <c r="R23" s="145"/>
     </row>
     <row r="24">
-      <c r="A24" s="173"/>
+      <c r="A24" s="175"/>
       <c r="B24" s="145"/>
       <c r="C24" s="145"/>
       <c r="D24" s="145"/>
@@ -69497,7 +69516,7 @@
       <c r="R24" s="145"/>
     </row>
     <row r="25">
-      <c r="A25" s="173"/>
+      <c r="A25" s="175"/>
       <c r="B25" s="145"/>
       <c r="C25" s="145"/>
       <c r="D25" s="145"/>
@@ -69517,7 +69536,7 @@
       <c r="R25" s="145"/>
     </row>
     <row r="26">
-      <c r="A26" s="173"/>
+      <c r="A26" s="175"/>
       <c r="B26" s="145"/>
       <c r="C26" s="145"/>
       <c r="D26" s="145"/>
@@ -69537,7 +69556,7 @@
       <c r="R26" s="145"/>
     </row>
     <row r="27">
-      <c r="A27" s="173"/>
+      <c r="A27" s="175"/>
       <c r="B27" s="145"/>
       <c r="C27" s="145"/>
       <c r="D27" s="145"/>
@@ -69557,7 +69576,7 @@
       <c r="R27" s="145"/>
     </row>
     <row r="28">
-      <c r="A28" s="173"/>
+      <c r="A28" s="175"/>
       <c r="B28" s="145"/>
       <c r="C28" s="145"/>
       <c r="D28" s="145"/>
@@ -69577,7 +69596,7 @@
       <c r="R28" s="145"/>
     </row>
     <row r="29">
-      <c r="A29" s="173"/>
+      <c r="A29" s="175"/>
       <c r="B29" s="145"/>
       <c r="C29" s="145"/>
       <c r="D29" s="145"/>
@@ -69597,7 +69616,7 @@
       <c r="R29" s="145"/>
     </row>
     <row r="30">
-      <c r="A30" s="173"/>
+      <c r="A30" s="175"/>
       <c r="B30" s="145"/>
       <c r="C30" s="145"/>
       <c r="D30" s="145"/>
